--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E68A67B-2D89-402A-A265-77ADC60CFD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7A9A6-9E09-4B81-AA1A-3EBDE04D4AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="3552" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="159">
   <si>
     <t>WBS</t>
   </si>
@@ -1538,10 +1538,13 @@
     <t>read Barto &amp; Sutton</t>
   </si>
   <si>
-    <t>study flying V (literature TBD)</t>
+    <t>noting Willems' thesis, compiling list of RL MSc theses</t>
   </si>
   <si>
-    <t>noting Willems' thesis, compiling list of RL MSc theses</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>study flying V</t>
   </si>
 </sst>
 </file>
@@ -3245,15 +3248,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3266,7 +3260,28 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3303,18 +3318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3509,13 +3512,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>192260</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>76041</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3574,7 +3577,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>110490</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4159,7 +4162,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4236,21 +4239,21 @@
       <c r="K1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="164"/>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
     </row>
     <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
@@ -4330,729 +4333,729 @@
       <c r="B4" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="171">
         <v>45295</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="H4" s="113" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="159" t="str">
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="156" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="159" t="str">
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="156" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="159" t="str">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="156" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="159" t="str">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="156" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="159" t="str">
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="156" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="159" t="str">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="156" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="159" t="str">
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="156" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="161"/>
-      <c r="BO4" s="159" t="str">
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="156" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="161"/>
-      <c r="BV4" s="159" t="str">
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="156" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="161"/>
-      <c r="CC4" s="159" t="str">
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="157"/>
+      <c r="BY4" s="157"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="158"/>
+      <c r="CC4" s="156" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="160"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="161"/>
-      <c r="CJ4" s="159" t="str">
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="157"/>
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="157"/>
+      <c r="CH4" s="157"/>
+      <c r="CI4" s="158"/>
+      <c r="CJ4" s="156" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-      <c r="CM4" s="160"/>
-      <c r="CN4" s="160"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="161"/>
-      <c r="CQ4" s="159" t="str">
+      <c r="CK4" s="157"/>
+      <c r="CL4" s="157"/>
+      <c r="CM4" s="157"/>
+      <c r="CN4" s="157"/>
+      <c r="CO4" s="157"/>
+      <c r="CP4" s="158"/>
+      <c r="CQ4" s="156" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="160"/>
-      <c r="CS4" s="160"/>
-      <c r="CT4" s="160"/>
-      <c r="CU4" s="160"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="161"/>
-      <c r="CX4" s="159" t="str">
+      <c r="CR4" s="157"/>
+      <c r="CS4" s="157"/>
+      <c r="CT4" s="157"/>
+      <c r="CU4" s="157"/>
+      <c r="CV4" s="157"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="156" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="160"/>
-      <c r="CZ4" s="160"/>
-      <c r="DA4" s="160"/>
-      <c r="DB4" s="160"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="161"/>
-      <c r="DE4" s="159" t="str">
+      <c r="CY4" s="157"/>
+      <c r="CZ4" s="157"/>
+      <c r="DA4" s="157"/>
+      <c r="DB4" s="157"/>
+      <c r="DC4" s="157"/>
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="156" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="160"/>
-      <c r="DG4" s="160"/>
-      <c r="DH4" s="160"/>
-      <c r="DI4" s="160"/>
-      <c r="DJ4" s="160"/>
-      <c r="DK4" s="161"/>
-      <c r="DL4" s="159" t="str">
+      <c r="DF4" s="157"/>
+      <c r="DG4" s="157"/>
+      <c r="DH4" s="157"/>
+      <c r="DI4" s="157"/>
+      <c r="DJ4" s="157"/>
+      <c r="DK4" s="158"/>
+      <c r="DL4" s="156" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="160"/>
-      <c r="DN4" s="160"/>
-      <c r="DO4" s="160"/>
-      <c r="DP4" s="160"/>
-      <c r="DQ4" s="160"/>
-      <c r="DR4" s="161"/>
-      <c r="DS4" s="159" t="str">
+      <c r="DM4" s="157"/>
+      <c r="DN4" s="157"/>
+      <c r="DO4" s="157"/>
+      <c r="DP4" s="157"/>
+      <c r="DQ4" s="157"/>
+      <c r="DR4" s="158"/>
+      <c r="DS4" s="156" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="160"/>
-      <c r="DU4" s="160"/>
-      <c r="DV4" s="160"/>
-      <c r="DW4" s="160"/>
-      <c r="DX4" s="160"/>
-      <c r="DY4" s="161"/>
-      <c r="DZ4" s="159" t="str">
+      <c r="DT4" s="157"/>
+      <c r="DU4" s="157"/>
+      <c r="DV4" s="157"/>
+      <c r="DW4" s="157"/>
+      <c r="DX4" s="157"/>
+      <c r="DY4" s="158"/>
+      <c r="DZ4" s="156" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="160"/>
-      <c r="EB4" s="160"/>
-      <c r="EC4" s="160"/>
-      <c r="ED4" s="160"/>
-      <c r="EE4" s="160"/>
-      <c r="EF4" s="161"/>
-      <c r="EG4" s="159" t="str">
+      <c r="EA4" s="157"/>
+      <c r="EB4" s="157"/>
+      <c r="EC4" s="157"/>
+      <c r="ED4" s="157"/>
+      <c r="EE4" s="157"/>
+      <c r="EF4" s="158"/>
+      <c r="EG4" s="156" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="160"/>
-      <c r="EI4" s="160"/>
-      <c r="EJ4" s="160"/>
-      <c r="EK4" s="160"/>
-      <c r="EL4" s="160"/>
-      <c r="EM4" s="161"/>
-      <c r="EN4" s="159" t="str">
+      <c r="EH4" s="157"/>
+      <c r="EI4" s="157"/>
+      <c r="EJ4" s="157"/>
+      <c r="EK4" s="157"/>
+      <c r="EL4" s="157"/>
+      <c r="EM4" s="158"/>
+      <c r="EN4" s="156" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="160"/>
-      <c r="EP4" s="160"/>
-      <c r="EQ4" s="160"/>
-      <c r="ER4" s="160"/>
-      <c r="ES4" s="160"/>
-      <c r="ET4" s="161"/>
-      <c r="EU4" s="159" t="str">
+      <c r="EO4" s="157"/>
+      <c r="EP4" s="157"/>
+      <c r="EQ4" s="157"/>
+      <c r="ER4" s="157"/>
+      <c r="ES4" s="157"/>
+      <c r="ET4" s="158"/>
+      <c r="EU4" s="156" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="160"/>
-      <c r="EW4" s="160"/>
-      <c r="EX4" s="160"/>
-      <c r="EY4" s="160"/>
-      <c r="EZ4" s="160"/>
-      <c r="FA4" s="161"/>
-      <c r="FB4" s="159" t="str">
+      <c r="EV4" s="157"/>
+      <c r="EW4" s="157"/>
+      <c r="EX4" s="157"/>
+      <c r="EY4" s="157"/>
+      <c r="EZ4" s="157"/>
+      <c r="FA4" s="158"/>
+      <c r="FB4" s="156" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="160"/>
-      <c r="FD4" s="160"/>
-      <c r="FE4" s="160"/>
-      <c r="FF4" s="160"/>
-      <c r="FG4" s="160"/>
-      <c r="FH4" s="161"/>
-      <c r="FI4" s="159" t="str">
+      <c r="FC4" s="157"/>
+      <c r="FD4" s="157"/>
+      <c r="FE4" s="157"/>
+      <c r="FF4" s="157"/>
+      <c r="FG4" s="157"/>
+      <c r="FH4" s="158"/>
+      <c r="FI4" s="156" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="160"/>
-      <c r="FK4" s="160"/>
-      <c r="FL4" s="160"/>
-      <c r="FM4" s="160"/>
-      <c r="FN4" s="160"/>
-      <c r="FO4" s="161"/>
-      <c r="FP4" s="159" t="str">
+      <c r="FJ4" s="157"/>
+      <c r="FK4" s="157"/>
+      <c r="FL4" s="157"/>
+      <c r="FM4" s="157"/>
+      <c r="FN4" s="157"/>
+      <c r="FO4" s="158"/>
+      <c r="FP4" s="156" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="160"/>
-      <c r="FR4" s="160"/>
-      <c r="FS4" s="160"/>
-      <c r="FT4" s="160"/>
-      <c r="FU4" s="160"/>
-      <c r="FV4" s="161"/>
-      <c r="FW4" s="159" t="str">
+      <c r="FQ4" s="157"/>
+      <c r="FR4" s="157"/>
+      <c r="FS4" s="157"/>
+      <c r="FT4" s="157"/>
+      <c r="FU4" s="157"/>
+      <c r="FV4" s="158"/>
+      <c r="FW4" s="156" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="160"/>
-      <c r="FY4" s="160"/>
-      <c r="FZ4" s="160"/>
-      <c r="GA4" s="160"/>
-      <c r="GB4" s="160"/>
-      <c r="GC4" s="161"/>
-      <c r="GD4" s="159" t="str">
+      <c r="FX4" s="157"/>
+      <c r="FY4" s="157"/>
+      <c r="FZ4" s="157"/>
+      <c r="GA4" s="157"/>
+      <c r="GB4" s="157"/>
+      <c r="GC4" s="158"/>
+      <c r="GD4" s="156" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="160"/>
-      <c r="GF4" s="160"/>
-      <c r="GG4" s="160"/>
-      <c r="GH4" s="160"/>
-      <c r="GI4" s="160"/>
-      <c r="GJ4" s="161"/>
-      <c r="GK4" s="159" t="str">
+      <c r="GE4" s="157"/>
+      <c r="GF4" s="157"/>
+      <c r="GG4" s="157"/>
+      <c r="GH4" s="157"/>
+      <c r="GI4" s="157"/>
+      <c r="GJ4" s="158"/>
+      <c r="GK4" s="156" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="160"/>
-      <c r="GM4" s="160"/>
-      <c r="GN4" s="160"/>
-      <c r="GO4" s="160"/>
-      <c r="GP4" s="160"/>
-      <c r="GQ4" s="161"/>
-      <c r="GR4" s="159" t="str">
+      <c r="GL4" s="157"/>
+      <c r="GM4" s="157"/>
+      <c r="GN4" s="157"/>
+      <c r="GO4" s="157"/>
+      <c r="GP4" s="157"/>
+      <c r="GQ4" s="158"/>
+      <c r="GR4" s="156" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="160"/>
-      <c r="GT4" s="160"/>
-      <c r="GU4" s="160"/>
-      <c r="GV4" s="160"/>
-      <c r="GW4" s="160"/>
-      <c r="GX4" s="161"/>
-      <c r="GY4" s="159" t="str">
+      <c r="GS4" s="157"/>
+      <c r="GT4" s="157"/>
+      <c r="GU4" s="157"/>
+      <c r="GV4" s="157"/>
+      <c r="GW4" s="157"/>
+      <c r="GX4" s="158"/>
+      <c r="GY4" s="156" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="160"/>
-      <c r="HA4" s="160"/>
-      <c r="HB4" s="160"/>
-      <c r="HC4" s="160"/>
-      <c r="HD4" s="160"/>
-      <c r="HE4" s="161"/>
-      <c r="HF4" s="159" t="str">
+      <c r="GZ4" s="157"/>
+      <c r="HA4" s="157"/>
+      <c r="HB4" s="157"/>
+      <c r="HC4" s="157"/>
+      <c r="HD4" s="157"/>
+      <c r="HE4" s="158"/>
+      <c r="HF4" s="156" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="160"/>
-      <c r="HH4" s="160"/>
-      <c r="HI4" s="160"/>
-      <c r="HJ4" s="160"/>
-      <c r="HK4" s="160"/>
-      <c r="HL4" s="161"/>
-      <c r="HM4" s="159" t="str">
+      <c r="HG4" s="157"/>
+      <c r="HH4" s="157"/>
+      <c r="HI4" s="157"/>
+      <c r="HJ4" s="157"/>
+      <c r="HK4" s="157"/>
+      <c r="HL4" s="158"/>
+      <c r="HM4" s="156" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="160"/>
-      <c r="HO4" s="160"/>
-      <c r="HP4" s="160"/>
-      <c r="HQ4" s="160"/>
-      <c r="HR4" s="160"/>
-      <c r="HS4" s="161"/>
-      <c r="HT4" s="159" t="str">
+      <c r="HN4" s="157"/>
+      <c r="HO4" s="157"/>
+      <c r="HP4" s="157"/>
+      <c r="HQ4" s="157"/>
+      <c r="HR4" s="157"/>
+      <c r="HS4" s="158"/>
+      <c r="HT4" s="156" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="160"/>
-      <c r="HV4" s="160"/>
-      <c r="HW4" s="160"/>
-      <c r="HX4" s="160"/>
-      <c r="HY4" s="160"/>
-      <c r="HZ4" s="161"/>
-      <c r="IA4" s="159" t="str">
+      <c r="HU4" s="157"/>
+      <c r="HV4" s="157"/>
+      <c r="HW4" s="157"/>
+      <c r="HX4" s="157"/>
+      <c r="HY4" s="157"/>
+      <c r="HZ4" s="158"/>
+      <c r="IA4" s="156" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="160"/>
-      <c r="IC4" s="160"/>
-      <c r="ID4" s="160"/>
-      <c r="IE4" s="160"/>
-      <c r="IF4" s="160"/>
-      <c r="IG4" s="161"/>
-      <c r="IH4" s="159" t="str">
+      <c r="IB4" s="157"/>
+      <c r="IC4" s="157"/>
+      <c r="ID4" s="157"/>
+      <c r="IE4" s="157"/>
+      <c r="IF4" s="157"/>
+      <c r="IG4" s="158"/>
+      <c r="IH4" s="156" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="160"/>
-      <c r="IJ4" s="160"/>
-      <c r="IK4" s="160"/>
-      <c r="IL4" s="160"/>
-      <c r="IM4" s="160"/>
-      <c r="IN4" s="161"/>
-      <c r="IO4" s="159" t="str">
+      <c r="II4" s="157"/>
+      <c r="IJ4" s="157"/>
+      <c r="IK4" s="157"/>
+      <c r="IL4" s="157"/>
+      <c r="IM4" s="157"/>
+      <c r="IN4" s="158"/>
+      <c r="IO4" s="156" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="160"/>
-      <c r="IQ4" s="160"/>
-      <c r="IR4" s="160"/>
-      <c r="IS4" s="160"/>
-      <c r="IT4" s="160"/>
-      <c r="IU4" s="161"/>
+      <c r="IP4" s="157"/>
+      <c r="IQ4" s="157"/>
+      <c r="IR4" s="157"/>
+      <c r="IS4" s="157"/>
+      <c r="IT4" s="157"/>
+      <c r="IU4" s="158"/>
     </row>
     <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="169"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="170">
+      <c r="K5" s="174">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="174">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="173">
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="177">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="175">
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="162">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="177">
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="164">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="156">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="158"/>
-      <c r="BH5" s="162">
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="159">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="163"/>
-      <c r="BO5" s="156">
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="161"/>
+      <c r="BO5" s="166">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="158"/>
-      <c r="BV5" s="162">
+      <c r="BP5" s="160"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="160"/>
+      <c r="BS5" s="160"/>
+      <c r="BT5" s="160"/>
+      <c r="BU5" s="167"/>
+      <c r="BV5" s="159">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="157"/>
-      <c r="BX5" s="157"/>
-      <c r="BY5" s="157"/>
-      <c r="BZ5" s="157"/>
-      <c r="CA5" s="157"/>
-      <c r="CB5" s="163"/>
-      <c r="CC5" s="162">
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="161"/>
+      <c r="CC5" s="159">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="157"/>
-      <c r="CE5" s="157"/>
-      <c r="CF5" s="157"/>
-      <c r="CG5" s="157"/>
-      <c r="CH5" s="157"/>
-      <c r="CI5" s="163"/>
-      <c r="CJ5" s="156">
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="161"/>
+      <c r="CJ5" s="166">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="157"/>
-      <c r="CL5" s="157"/>
-      <c r="CM5" s="157"/>
-      <c r="CN5" s="157"/>
-      <c r="CO5" s="157"/>
-      <c r="CP5" s="158"/>
-      <c r="CQ5" s="162">
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
+      <c r="CM5" s="160"/>
+      <c r="CN5" s="160"/>
+      <c r="CO5" s="160"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="159">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="157"/>
-      <c r="CS5" s="157"/>
-      <c r="CT5" s="157"/>
-      <c r="CU5" s="157"/>
-      <c r="CV5" s="157"/>
-      <c r="CW5" s="163"/>
-      <c r="CX5" s="162">
+      <c r="CR5" s="160"/>
+      <c r="CS5" s="160"/>
+      <c r="CT5" s="160"/>
+      <c r="CU5" s="160"/>
+      <c r="CV5" s="160"/>
+      <c r="CW5" s="161"/>
+      <c r="CX5" s="159">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="157"/>
-      <c r="CZ5" s="157"/>
-      <c r="DA5" s="157"/>
-      <c r="DB5" s="157"/>
-      <c r="DC5" s="157"/>
-      <c r="DD5" s="163"/>
-      <c r="DE5" s="156">
+      <c r="CY5" s="160"/>
+      <c r="CZ5" s="160"/>
+      <c r="DA5" s="160"/>
+      <c r="DB5" s="160"/>
+      <c r="DC5" s="160"/>
+      <c r="DD5" s="161"/>
+      <c r="DE5" s="166">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="157"/>
-      <c r="DG5" s="157"/>
-      <c r="DH5" s="157"/>
-      <c r="DI5" s="157"/>
-      <c r="DJ5" s="157"/>
-      <c r="DK5" s="158"/>
-      <c r="DL5" s="162">
+      <c r="DF5" s="160"/>
+      <c r="DG5" s="160"/>
+      <c r="DH5" s="160"/>
+      <c r="DI5" s="160"/>
+      <c r="DJ5" s="160"/>
+      <c r="DK5" s="167"/>
+      <c r="DL5" s="159">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="157"/>
-      <c r="DN5" s="157"/>
-      <c r="DO5" s="157"/>
-      <c r="DP5" s="157"/>
-      <c r="DQ5" s="157"/>
-      <c r="DR5" s="163"/>
-      <c r="DS5" s="162">
+      <c r="DM5" s="160"/>
+      <c r="DN5" s="160"/>
+      <c r="DO5" s="160"/>
+      <c r="DP5" s="160"/>
+      <c r="DQ5" s="160"/>
+      <c r="DR5" s="161"/>
+      <c r="DS5" s="159">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="157"/>
-      <c r="DU5" s="157"/>
-      <c r="DV5" s="157"/>
-      <c r="DW5" s="157"/>
-      <c r="DX5" s="157"/>
-      <c r="DY5" s="163"/>
-      <c r="DZ5" s="156">
+      <c r="DT5" s="160"/>
+      <c r="DU5" s="160"/>
+      <c r="DV5" s="160"/>
+      <c r="DW5" s="160"/>
+      <c r="DX5" s="160"/>
+      <c r="DY5" s="161"/>
+      <c r="DZ5" s="166">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="157"/>
-      <c r="EB5" s="157"/>
-      <c r="EC5" s="157"/>
-      <c r="ED5" s="157"/>
-      <c r="EE5" s="157"/>
-      <c r="EF5" s="158"/>
-      <c r="EG5" s="162">
+      <c r="EA5" s="160"/>
+      <c r="EB5" s="160"/>
+      <c r="EC5" s="160"/>
+      <c r="ED5" s="160"/>
+      <c r="EE5" s="160"/>
+      <c r="EF5" s="167"/>
+      <c r="EG5" s="159">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="157"/>
-      <c r="EI5" s="157"/>
-      <c r="EJ5" s="157"/>
-      <c r="EK5" s="157"/>
-      <c r="EL5" s="157"/>
-      <c r="EM5" s="163"/>
-      <c r="EN5" s="162">
+      <c r="EH5" s="160"/>
+      <c r="EI5" s="160"/>
+      <c r="EJ5" s="160"/>
+      <c r="EK5" s="160"/>
+      <c r="EL5" s="160"/>
+      <c r="EM5" s="161"/>
+      <c r="EN5" s="159">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="157"/>
-      <c r="EP5" s="157"/>
-      <c r="EQ5" s="157"/>
-      <c r="ER5" s="157"/>
-      <c r="ES5" s="157"/>
-      <c r="ET5" s="163"/>
-      <c r="EU5" s="156">
+      <c r="EO5" s="160"/>
+      <c r="EP5" s="160"/>
+      <c r="EQ5" s="160"/>
+      <c r="ER5" s="160"/>
+      <c r="ES5" s="160"/>
+      <c r="ET5" s="161"/>
+      <c r="EU5" s="166">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="157"/>
-      <c r="EW5" s="157"/>
-      <c r="EX5" s="157"/>
-      <c r="EY5" s="157"/>
-      <c r="EZ5" s="157"/>
-      <c r="FA5" s="158"/>
-      <c r="FB5" s="162">
+      <c r="EV5" s="160"/>
+      <c r="EW5" s="160"/>
+      <c r="EX5" s="160"/>
+      <c r="EY5" s="160"/>
+      <c r="EZ5" s="160"/>
+      <c r="FA5" s="167"/>
+      <c r="FB5" s="159">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="157"/>
-      <c r="FD5" s="157"/>
-      <c r="FE5" s="157"/>
-      <c r="FF5" s="157"/>
-      <c r="FG5" s="157"/>
-      <c r="FH5" s="163"/>
-      <c r="FI5" s="162">
+      <c r="FC5" s="160"/>
+      <c r="FD5" s="160"/>
+      <c r="FE5" s="160"/>
+      <c r="FF5" s="160"/>
+      <c r="FG5" s="160"/>
+      <c r="FH5" s="161"/>
+      <c r="FI5" s="159">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="157"/>
-      <c r="FK5" s="157"/>
-      <c r="FL5" s="157"/>
-      <c r="FM5" s="157"/>
-      <c r="FN5" s="157"/>
-      <c r="FO5" s="163"/>
-      <c r="FP5" s="156">
+      <c r="FJ5" s="160"/>
+      <c r="FK5" s="160"/>
+      <c r="FL5" s="160"/>
+      <c r="FM5" s="160"/>
+      <c r="FN5" s="160"/>
+      <c r="FO5" s="161"/>
+      <c r="FP5" s="166">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="157"/>
-      <c r="FR5" s="157"/>
-      <c r="FS5" s="157"/>
-      <c r="FT5" s="157"/>
-      <c r="FU5" s="157"/>
-      <c r="FV5" s="158"/>
-      <c r="FW5" s="162">
+      <c r="FQ5" s="160"/>
+      <c r="FR5" s="160"/>
+      <c r="FS5" s="160"/>
+      <c r="FT5" s="160"/>
+      <c r="FU5" s="160"/>
+      <c r="FV5" s="167"/>
+      <c r="FW5" s="159">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="157"/>
-      <c r="FY5" s="157"/>
-      <c r="FZ5" s="157"/>
-      <c r="GA5" s="157"/>
-      <c r="GB5" s="157"/>
-      <c r="GC5" s="163"/>
-      <c r="GD5" s="162">
+      <c r="FX5" s="160"/>
+      <c r="FY5" s="160"/>
+      <c r="FZ5" s="160"/>
+      <c r="GA5" s="160"/>
+      <c r="GB5" s="160"/>
+      <c r="GC5" s="161"/>
+      <c r="GD5" s="159">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="157"/>
-      <c r="GF5" s="157"/>
-      <c r="GG5" s="157"/>
-      <c r="GH5" s="157"/>
-      <c r="GI5" s="157"/>
-      <c r="GJ5" s="163"/>
-      <c r="GK5" s="156">
+      <c r="GE5" s="160"/>
+      <c r="GF5" s="160"/>
+      <c r="GG5" s="160"/>
+      <c r="GH5" s="160"/>
+      <c r="GI5" s="160"/>
+      <c r="GJ5" s="161"/>
+      <c r="GK5" s="166">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="157"/>
-      <c r="GM5" s="157"/>
-      <c r="GN5" s="157"/>
-      <c r="GO5" s="157"/>
-      <c r="GP5" s="157"/>
-      <c r="GQ5" s="158"/>
-      <c r="GR5" s="162">
+      <c r="GL5" s="160"/>
+      <c r="GM5" s="160"/>
+      <c r="GN5" s="160"/>
+      <c r="GO5" s="160"/>
+      <c r="GP5" s="160"/>
+      <c r="GQ5" s="167"/>
+      <c r="GR5" s="159">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="157"/>
-      <c r="GT5" s="157"/>
-      <c r="GU5" s="157"/>
-      <c r="GV5" s="157"/>
-      <c r="GW5" s="157"/>
-      <c r="GX5" s="163"/>
-      <c r="GY5" s="156">
+      <c r="GS5" s="160"/>
+      <c r="GT5" s="160"/>
+      <c r="GU5" s="160"/>
+      <c r="GV5" s="160"/>
+      <c r="GW5" s="160"/>
+      <c r="GX5" s="161"/>
+      <c r="GY5" s="166">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="157"/>
-      <c r="HA5" s="157"/>
-      <c r="HB5" s="157"/>
-      <c r="HC5" s="157"/>
-      <c r="HD5" s="157"/>
-      <c r="HE5" s="158"/>
-      <c r="HF5" s="162">
+      <c r="GZ5" s="160"/>
+      <c r="HA5" s="160"/>
+      <c r="HB5" s="160"/>
+      <c r="HC5" s="160"/>
+      <c r="HD5" s="160"/>
+      <c r="HE5" s="167"/>
+      <c r="HF5" s="159">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="157"/>
-      <c r="HH5" s="157"/>
-      <c r="HI5" s="157"/>
-      <c r="HJ5" s="157"/>
-      <c r="HK5" s="157"/>
-      <c r="HL5" s="163"/>
-      <c r="HM5" s="156">
+      <c r="HG5" s="160"/>
+      <c r="HH5" s="160"/>
+      <c r="HI5" s="160"/>
+      <c r="HJ5" s="160"/>
+      <c r="HK5" s="160"/>
+      <c r="HL5" s="161"/>
+      <c r="HM5" s="166">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="157"/>
-      <c r="HO5" s="157"/>
-      <c r="HP5" s="157"/>
-      <c r="HQ5" s="157"/>
-      <c r="HR5" s="157"/>
-      <c r="HS5" s="158"/>
-      <c r="HT5" s="162">
+      <c r="HN5" s="160"/>
+      <c r="HO5" s="160"/>
+      <c r="HP5" s="160"/>
+      <c r="HQ5" s="160"/>
+      <c r="HR5" s="160"/>
+      <c r="HS5" s="167"/>
+      <c r="HT5" s="159">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="157"/>
-      <c r="HV5" s="157"/>
-      <c r="HW5" s="157"/>
-      <c r="HX5" s="157"/>
-      <c r="HY5" s="157"/>
-      <c r="HZ5" s="163"/>
-      <c r="IA5" s="156">
+      <c r="HU5" s="160"/>
+      <c r="HV5" s="160"/>
+      <c r="HW5" s="160"/>
+      <c r="HX5" s="160"/>
+      <c r="HY5" s="160"/>
+      <c r="HZ5" s="161"/>
+      <c r="IA5" s="166">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="157"/>
-      <c r="IC5" s="157"/>
-      <c r="ID5" s="157"/>
-      <c r="IE5" s="157"/>
-      <c r="IF5" s="157"/>
-      <c r="IG5" s="158"/>
-      <c r="IH5" s="162">
+      <c r="IB5" s="160"/>
+      <c r="IC5" s="160"/>
+      <c r="ID5" s="160"/>
+      <c r="IE5" s="160"/>
+      <c r="IF5" s="160"/>
+      <c r="IG5" s="167"/>
+      <c r="IH5" s="159">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="157"/>
-      <c r="IJ5" s="157"/>
-      <c r="IK5" s="157"/>
-      <c r="IL5" s="157"/>
-      <c r="IM5" s="157"/>
-      <c r="IN5" s="163"/>
-      <c r="IO5" s="156">
+      <c r="II5" s="160"/>
+      <c r="IJ5" s="160"/>
+      <c r="IK5" s="160"/>
+      <c r="IL5" s="160"/>
+      <c r="IM5" s="160"/>
+      <c r="IN5" s="161"/>
+      <c r="IO5" s="166">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="157"/>
-      <c r="IQ5" s="157"/>
-      <c r="IR5" s="157"/>
-      <c r="IS5" s="157"/>
-      <c r="IT5" s="157"/>
-      <c r="IU5" s="158"/>
+      <c r="IP5" s="160"/>
+      <c r="IQ5" s="160"/>
+      <c r="IR5" s="160"/>
+      <c r="IS5" s="160"/>
+      <c r="IT5" s="160"/>
+      <c r="IU5" s="167"/>
     </row>
     <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="146"/>
@@ -7583,7 +7586,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="150"/>
       <c r="D10" s="33"/>
@@ -7866,17 +7869,17 @@
       </c>
       <c r="F11" s="84">
         <f t="shared" ref="F11:F12" si="258">IF(ISBLANK(E11)," - ",IF(G11=0,E11,E11+G11-1))</f>
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="G11" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="46">
         <v>0</v>
       </c>
       <c r="I11" s="102">
         <f t="shared" ref="I11:I12" si="259">IF(OR(F11=0,E11=0),0,NETWORKDAYS(E11,F11))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="94"/>
       <c r="K11" s="34"/>
@@ -8137,14 +8140,14 @@
       <c r="D12" s="33"/>
       <c r="E12" s="87">
         <f>F11+1</f>
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="F12" s="84">
         <f t="shared" si="258"/>
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="G12" s="45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="46">
         <v>0</v>
@@ -8406,17 +8409,17 @@
         <v>1.1.4</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="33"/>
       <c r="E13" s="87">
         <f>F12+1</f>
-        <v>45305</v>
+        <v>45307</v>
       </c>
       <c r="F13" s="84">
         <f t="shared" si="255"/>
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="G13" s="45">
         <v>3</v>
@@ -8426,7 +8429,7 @@
       </c>
       <c r="I13" s="102">
         <f t="shared" si="256"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="34"/>
@@ -8444,7 +8447,9 @@
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="Z13" s="34" t="s">
+        <v>157</v>
+      </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="34"/>
       <c r="AC13" s="34"/>
@@ -14925,49 +14930,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -14984,20 +14960,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H33:H37 H8:H30">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7A9A6-9E09-4B81-AA1A-3EBDE04D4AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB63CE-E3E5-4DBC-9185-20AE6FE3D464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="3552" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="160">
   <si>
     <t>WBS</t>
   </si>
@@ -1545,6 +1545,9 @@
   </si>
   <si>
     <t>study flying V</t>
+  </si>
+  <si>
+    <t>do RL implementation exercises</t>
   </si>
 </sst>
 </file>
@@ -3248,6 +3251,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3260,28 +3272,7 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3318,6 +3309,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3577,7 +3580,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>110490</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4158,11 +4161,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU40"/>
+  <dimension ref="A1:IU41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4239,21 +4242,21 @@
       <c r="K1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
     </row>
     <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
@@ -4333,729 +4336,729 @@
       <c r="B4" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="167">
         <v>45295</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
       <c r="H4" s="113" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="156" t="str">
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="159" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="156" t="str">
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="159" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="156" t="str">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="159" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="157"/>
-      <c r="AH4" s="157"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="156" t="str">
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160"/>
+      <c r="AJ4" s="160"/>
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="159" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="157"/>
-      <c r="AP4" s="157"/>
-      <c r="AQ4" s="157"/>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="156" t="str">
+      <c r="AN4" s="160"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="159" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="157"/>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="156" t="str">
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160"/>
+      <c r="AZ4" s="161"/>
+      <c r="BA4" s="159" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="157"/>
-      <c r="BC4" s="157"/>
-      <c r="BD4" s="157"/>
-      <c r="BE4" s="157"/>
-      <c r="BF4" s="157"/>
-      <c r="BG4" s="158"/>
-      <c r="BH4" s="156" t="str">
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="161"/>
+      <c r="BH4" s="159" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="157"/>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="158"/>
-      <c r="BO4" s="156" t="str">
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="160"/>
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="160"/>
+      <c r="BN4" s="161"/>
+      <c r="BO4" s="159" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="157"/>
-      <c r="BS4" s="157"/>
-      <c r="BT4" s="157"/>
-      <c r="BU4" s="158"/>
-      <c r="BV4" s="156" t="str">
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="161"/>
+      <c r="BV4" s="159" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="157"/>
-      <c r="BX4" s="157"/>
-      <c r="BY4" s="157"/>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="157"/>
-      <c r="CB4" s="158"/>
-      <c r="CC4" s="156" t="str">
+      <c r="BW4" s="160"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="160"/>
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="161"/>
+      <c r="CC4" s="159" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="157"/>
-      <c r="CE4" s="157"/>
-      <c r="CF4" s="157"/>
-      <c r="CG4" s="157"/>
-      <c r="CH4" s="157"/>
-      <c r="CI4" s="158"/>
-      <c r="CJ4" s="156" t="str">
+      <c r="CD4" s="160"/>
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="160"/>
+      <c r="CG4" s="160"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="161"/>
+      <c r="CJ4" s="159" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="157"/>
-      <c r="CL4" s="157"/>
-      <c r="CM4" s="157"/>
-      <c r="CN4" s="157"/>
-      <c r="CO4" s="157"/>
-      <c r="CP4" s="158"/>
-      <c r="CQ4" s="156" t="str">
+      <c r="CK4" s="160"/>
+      <c r="CL4" s="160"/>
+      <c r="CM4" s="160"/>
+      <c r="CN4" s="160"/>
+      <c r="CO4" s="160"/>
+      <c r="CP4" s="161"/>
+      <c r="CQ4" s="159" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="157"/>
-      <c r="CS4" s="157"/>
-      <c r="CT4" s="157"/>
-      <c r="CU4" s="157"/>
-      <c r="CV4" s="157"/>
-      <c r="CW4" s="158"/>
-      <c r="CX4" s="156" t="str">
+      <c r="CR4" s="160"/>
+      <c r="CS4" s="160"/>
+      <c r="CT4" s="160"/>
+      <c r="CU4" s="160"/>
+      <c r="CV4" s="160"/>
+      <c r="CW4" s="161"/>
+      <c r="CX4" s="159" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="157"/>
-      <c r="CZ4" s="157"/>
-      <c r="DA4" s="157"/>
-      <c r="DB4" s="157"/>
-      <c r="DC4" s="157"/>
-      <c r="DD4" s="158"/>
-      <c r="DE4" s="156" t="str">
+      <c r="CY4" s="160"/>
+      <c r="CZ4" s="160"/>
+      <c r="DA4" s="160"/>
+      <c r="DB4" s="160"/>
+      <c r="DC4" s="160"/>
+      <c r="DD4" s="161"/>
+      <c r="DE4" s="159" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="157"/>
-      <c r="DG4" s="157"/>
-      <c r="DH4" s="157"/>
-      <c r="DI4" s="157"/>
-      <c r="DJ4" s="157"/>
-      <c r="DK4" s="158"/>
-      <c r="DL4" s="156" t="str">
+      <c r="DF4" s="160"/>
+      <c r="DG4" s="160"/>
+      <c r="DH4" s="160"/>
+      <c r="DI4" s="160"/>
+      <c r="DJ4" s="160"/>
+      <c r="DK4" s="161"/>
+      <c r="DL4" s="159" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="157"/>
-      <c r="DN4" s="157"/>
-      <c r="DO4" s="157"/>
-      <c r="DP4" s="157"/>
-      <c r="DQ4" s="157"/>
-      <c r="DR4" s="158"/>
-      <c r="DS4" s="156" t="str">
+      <c r="DM4" s="160"/>
+      <c r="DN4" s="160"/>
+      <c r="DO4" s="160"/>
+      <c r="DP4" s="160"/>
+      <c r="DQ4" s="160"/>
+      <c r="DR4" s="161"/>
+      <c r="DS4" s="159" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="157"/>
-      <c r="DU4" s="157"/>
-      <c r="DV4" s="157"/>
-      <c r="DW4" s="157"/>
-      <c r="DX4" s="157"/>
-      <c r="DY4" s="158"/>
-      <c r="DZ4" s="156" t="str">
+      <c r="DT4" s="160"/>
+      <c r="DU4" s="160"/>
+      <c r="DV4" s="160"/>
+      <c r="DW4" s="160"/>
+      <c r="DX4" s="160"/>
+      <c r="DY4" s="161"/>
+      <c r="DZ4" s="159" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="157"/>
-      <c r="EB4" s="157"/>
-      <c r="EC4" s="157"/>
-      <c r="ED4" s="157"/>
-      <c r="EE4" s="157"/>
-      <c r="EF4" s="158"/>
-      <c r="EG4" s="156" t="str">
+      <c r="EA4" s="160"/>
+      <c r="EB4" s="160"/>
+      <c r="EC4" s="160"/>
+      <c r="ED4" s="160"/>
+      <c r="EE4" s="160"/>
+      <c r="EF4" s="161"/>
+      <c r="EG4" s="159" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="157"/>
-      <c r="EI4" s="157"/>
-      <c r="EJ4" s="157"/>
-      <c r="EK4" s="157"/>
-      <c r="EL4" s="157"/>
-      <c r="EM4" s="158"/>
-      <c r="EN4" s="156" t="str">
+      <c r="EH4" s="160"/>
+      <c r="EI4" s="160"/>
+      <c r="EJ4" s="160"/>
+      <c r="EK4" s="160"/>
+      <c r="EL4" s="160"/>
+      <c r="EM4" s="161"/>
+      <c r="EN4" s="159" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="157"/>
-      <c r="EP4" s="157"/>
-      <c r="EQ4" s="157"/>
-      <c r="ER4" s="157"/>
-      <c r="ES4" s="157"/>
-      <c r="ET4" s="158"/>
-      <c r="EU4" s="156" t="str">
+      <c r="EO4" s="160"/>
+      <c r="EP4" s="160"/>
+      <c r="EQ4" s="160"/>
+      <c r="ER4" s="160"/>
+      <c r="ES4" s="160"/>
+      <c r="ET4" s="161"/>
+      <c r="EU4" s="159" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="157"/>
-      <c r="EW4" s="157"/>
-      <c r="EX4" s="157"/>
-      <c r="EY4" s="157"/>
-      <c r="EZ4" s="157"/>
-      <c r="FA4" s="158"/>
-      <c r="FB4" s="156" t="str">
+      <c r="EV4" s="160"/>
+      <c r="EW4" s="160"/>
+      <c r="EX4" s="160"/>
+      <c r="EY4" s="160"/>
+      <c r="EZ4" s="160"/>
+      <c r="FA4" s="161"/>
+      <c r="FB4" s="159" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="157"/>
-      <c r="FD4" s="157"/>
-      <c r="FE4" s="157"/>
-      <c r="FF4" s="157"/>
-      <c r="FG4" s="157"/>
-      <c r="FH4" s="158"/>
-      <c r="FI4" s="156" t="str">
+      <c r="FC4" s="160"/>
+      <c r="FD4" s="160"/>
+      <c r="FE4" s="160"/>
+      <c r="FF4" s="160"/>
+      <c r="FG4" s="160"/>
+      <c r="FH4" s="161"/>
+      <c r="FI4" s="159" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="157"/>
-      <c r="FK4" s="157"/>
-      <c r="FL4" s="157"/>
-      <c r="FM4" s="157"/>
-      <c r="FN4" s="157"/>
-      <c r="FO4" s="158"/>
-      <c r="FP4" s="156" t="str">
+      <c r="FJ4" s="160"/>
+      <c r="FK4" s="160"/>
+      <c r="FL4" s="160"/>
+      <c r="FM4" s="160"/>
+      <c r="FN4" s="160"/>
+      <c r="FO4" s="161"/>
+      <c r="FP4" s="159" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="157"/>
-      <c r="FR4" s="157"/>
-      <c r="FS4" s="157"/>
-      <c r="FT4" s="157"/>
-      <c r="FU4" s="157"/>
-      <c r="FV4" s="158"/>
-      <c r="FW4" s="156" t="str">
+      <c r="FQ4" s="160"/>
+      <c r="FR4" s="160"/>
+      <c r="FS4" s="160"/>
+      <c r="FT4" s="160"/>
+      <c r="FU4" s="160"/>
+      <c r="FV4" s="161"/>
+      <c r="FW4" s="159" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="157"/>
-      <c r="FY4" s="157"/>
-      <c r="FZ4" s="157"/>
-      <c r="GA4" s="157"/>
-      <c r="GB4" s="157"/>
-      <c r="GC4" s="158"/>
-      <c r="GD4" s="156" t="str">
+      <c r="FX4" s="160"/>
+      <c r="FY4" s="160"/>
+      <c r="FZ4" s="160"/>
+      <c r="GA4" s="160"/>
+      <c r="GB4" s="160"/>
+      <c r="GC4" s="161"/>
+      <c r="GD4" s="159" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="157"/>
-      <c r="GF4" s="157"/>
-      <c r="GG4" s="157"/>
-      <c r="GH4" s="157"/>
-      <c r="GI4" s="157"/>
-      <c r="GJ4" s="158"/>
-      <c r="GK4" s="156" t="str">
+      <c r="GE4" s="160"/>
+      <c r="GF4" s="160"/>
+      <c r="GG4" s="160"/>
+      <c r="GH4" s="160"/>
+      <c r="GI4" s="160"/>
+      <c r="GJ4" s="161"/>
+      <c r="GK4" s="159" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="157"/>
-      <c r="GM4" s="157"/>
-      <c r="GN4" s="157"/>
-      <c r="GO4" s="157"/>
-      <c r="GP4" s="157"/>
-      <c r="GQ4" s="158"/>
-      <c r="GR4" s="156" t="str">
+      <c r="GL4" s="160"/>
+      <c r="GM4" s="160"/>
+      <c r="GN4" s="160"/>
+      <c r="GO4" s="160"/>
+      <c r="GP4" s="160"/>
+      <c r="GQ4" s="161"/>
+      <c r="GR4" s="159" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="157"/>
-      <c r="GT4" s="157"/>
-      <c r="GU4" s="157"/>
-      <c r="GV4" s="157"/>
-      <c r="GW4" s="157"/>
-      <c r="GX4" s="158"/>
-      <c r="GY4" s="156" t="str">
+      <c r="GS4" s="160"/>
+      <c r="GT4" s="160"/>
+      <c r="GU4" s="160"/>
+      <c r="GV4" s="160"/>
+      <c r="GW4" s="160"/>
+      <c r="GX4" s="161"/>
+      <c r="GY4" s="159" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="157"/>
-      <c r="HA4" s="157"/>
-      <c r="HB4" s="157"/>
-      <c r="HC4" s="157"/>
-      <c r="HD4" s="157"/>
-      <c r="HE4" s="158"/>
-      <c r="HF4" s="156" t="str">
+      <c r="GZ4" s="160"/>
+      <c r="HA4" s="160"/>
+      <c r="HB4" s="160"/>
+      <c r="HC4" s="160"/>
+      <c r="HD4" s="160"/>
+      <c r="HE4" s="161"/>
+      <c r="HF4" s="159" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="157"/>
-      <c r="HH4" s="157"/>
-      <c r="HI4" s="157"/>
-      <c r="HJ4" s="157"/>
-      <c r="HK4" s="157"/>
-      <c r="HL4" s="158"/>
-      <c r="HM4" s="156" t="str">
+      <c r="HG4" s="160"/>
+      <c r="HH4" s="160"/>
+      <c r="HI4" s="160"/>
+      <c r="HJ4" s="160"/>
+      <c r="HK4" s="160"/>
+      <c r="HL4" s="161"/>
+      <c r="HM4" s="159" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="157"/>
-      <c r="HO4" s="157"/>
-      <c r="HP4" s="157"/>
-      <c r="HQ4" s="157"/>
-      <c r="HR4" s="157"/>
-      <c r="HS4" s="158"/>
-      <c r="HT4" s="156" t="str">
+      <c r="HN4" s="160"/>
+      <c r="HO4" s="160"/>
+      <c r="HP4" s="160"/>
+      <c r="HQ4" s="160"/>
+      <c r="HR4" s="160"/>
+      <c r="HS4" s="161"/>
+      <c r="HT4" s="159" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="157"/>
-      <c r="HV4" s="157"/>
-      <c r="HW4" s="157"/>
-      <c r="HX4" s="157"/>
-      <c r="HY4" s="157"/>
-      <c r="HZ4" s="158"/>
-      <c r="IA4" s="156" t="str">
+      <c r="HU4" s="160"/>
+      <c r="HV4" s="160"/>
+      <c r="HW4" s="160"/>
+      <c r="HX4" s="160"/>
+      <c r="HY4" s="160"/>
+      <c r="HZ4" s="161"/>
+      <c r="IA4" s="159" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="157"/>
-      <c r="IC4" s="157"/>
-      <c r="ID4" s="157"/>
-      <c r="IE4" s="157"/>
-      <c r="IF4" s="157"/>
-      <c r="IG4" s="158"/>
-      <c r="IH4" s="156" t="str">
+      <c r="IB4" s="160"/>
+      <c r="IC4" s="160"/>
+      <c r="ID4" s="160"/>
+      <c r="IE4" s="160"/>
+      <c r="IF4" s="160"/>
+      <c r="IG4" s="161"/>
+      <c r="IH4" s="159" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="157"/>
-      <c r="IJ4" s="157"/>
-      <c r="IK4" s="157"/>
-      <c r="IL4" s="157"/>
-      <c r="IM4" s="157"/>
-      <c r="IN4" s="158"/>
-      <c r="IO4" s="156" t="str">
+      <c r="II4" s="160"/>
+      <c r="IJ4" s="160"/>
+      <c r="IK4" s="160"/>
+      <c r="IL4" s="160"/>
+      <c r="IM4" s="160"/>
+      <c r="IN4" s="161"/>
+      <c r="IO4" s="159" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="157"/>
-      <c r="IQ4" s="157"/>
-      <c r="IR4" s="157"/>
-      <c r="IS4" s="157"/>
-      <c r="IT4" s="157"/>
-      <c r="IU4" s="158"/>
+      <c r="IP4" s="160"/>
+      <c r="IQ4" s="160"/>
+      <c r="IR4" s="160"/>
+      <c r="IS4" s="160"/>
+      <c r="IT4" s="160"/>
+      <c r="IU4" s="161"/>
     </row>
     <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="174">
+      <c r="K5" s="170">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="174">
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="170">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="177">
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="173">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="169">
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="165">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="162">
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="175">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="163"/>
-      <c r="AT5" s="164">
+      <c r="AN5" s="157"/>
+      <c r="AO5" s="157"/>
+      <c r="AP5" s="157"/>
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="177">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="157"/>
+      <c r="AV5" s="157"/>
+      <c r="AW5" s="157"/>
+      <c r="AX5" s="157"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="156">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="160"/>
-      <c r="BC5" s="160"/>
-      <c r="BD5" s="160"/>
-      <c r="BE5" s="160"/>
-      <c r="BF5" s="160"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="159">
+      <c r="BB5" s="157"/>
+      <c r="BC5" s="157"/>
+      <c r="BD5" s="157"/>
+      <c r="BE5" s="157"/>
+      <c r="BF5" s="157"/>
+      <c r="BG5" s="158"/>
+      <c r="BH5" s="162">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="160"/>
-      <c r="BJ5" s="160"/>
-      <c r="BK5" s="160"/>
-      <c r="BL5" s="160"/>
-      <c r="BM5" s="160"/>
-      <c r="BN5" s="161"/>
-      <c r="BO5" s="166">
+      <c r="BI5" s="157"/>
+      <c r="BJ5" s="157"/>
+      <c r="BK5" s="157"/>
+      <c r="BL5" s="157"/>
+      <c r="BM5" s="157"/>
+      <c r="BN5" s="163"/>
+      <c r="BO5" s="156">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="160"/>
-      <c r="BQ5" s="160"/>
-      <c r="BR5" s="160"/>
-      <c r="BS5" s="160"/>
-      <c r="BT5" s="160"/>
-      <c r="BU5" s="167"/>
-      <c r="BV5" s="159">
+      <c r="BP5" s="157"/>
+      <c r="BQ5" s="157"/>
+      <c r="BR5" s="157"/>
+      <c r="BS5" s="157"/>
+      <c r="BT5" s="157"/>
+      <c r="BU5" s="158"/>
+      <c r="BV5" s="162">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="160"/>
-      <c r="BX5" s="160"/>
-      <c r="BY5" s="160"/>
-      <c r="BZ5" s="160"/>
-      <c r="CA5" s="160"/>
-      <c r="CB5" s="161"/>
-      <c r="CC5" s="159">
+      <c r="BW5" s="157"/>
+      <c r="BX5" s="157"/>
+      <c r="BY5" s="157"/>
+      <c r="BZ5" s="157"/>
+      <c r="CA5" s="157"/>
+      <c r="CB5" s="163"/>
+      <c r="CC5" s="162">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="160"/>
-      <c r="CE5" s="160"/>
-      <c r="CF5" s="160"/>
-      <c r="CG5" s="160"/>
-      <c r="CH5" s="160"/>
-      <c r="CI5" s="161"/>
-      <c r="CJ5" s="166">
+      <c r="CD5" s="157"/>
+      <c r="CE5" s="157"/>
+      <c r="CF5" s="157"/>
+      <c r="CG5" s="157"/>
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="163"/>
+      <c r="CJ5" s="156">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="160"/>
-      <c r="CL5" s="160"/>
-      <c r="CM5" s="160"/>
-      <c r="CN5" s="160"/>
-      <c r="CO5" s="160"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="159">
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="158"/>
+      <c r="CQ5" s="162">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="160"/>
-      <c r="CS5" s="160"/>
-      <c r="CT5" s="160"/>
-      <c r="CU5" s="160"/>
-      <c r="CV5" s="160"/>
-      <c r="CW5" s="161"/>
-      <c r="CX5" s="159">
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="163"/>
+      <c r="CX5" s="162">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="160"/>
-      <c r="CZ5" s="160"/>
-      <c r="DA5" s="160"/>
-      <c r="DB5" s="160"/>
-      <c r="DC5" s="160"/>
-      <c r="DD5" s="161"/>
-      <c r="DE5" s="166">
+      <c r="CY5" s="157"/>
+      <c r="CZ5" s="157"/>
+      <c r="DA5" s="157"/>
+      <c r="DB5" s="157"/>
+      <c r="DC5" s="157"/>
+      <c r="DD5" s="163"/>
+      <c r="DE5" s="156">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="160"/>
-      <c r="DG5" s="160"/>
-      <c r="DH5" s="160"/>
-      <c r="DI5" s="160"/>
-      <c r="DJ5" s="160"/>
-      <c r="DK5" s="167"/>
-      <c r="DL5" s="159">
+      <c r="DF5" s="157"/>
+      <c r="DG5" s="157"/>
+      <c r="DH5" s="157"/>
+      <c r="DI5" s="157"/>
+      <c r="DJ5" s="157"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="162">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="160"/>
-      <c r="DN5" s="160"/>
-      <c r="DO5" s="160"/>
-      <c r="DP5" s="160"/>
-      <c r="DQ5" s="160"/>
-      <c r="DR5" s="161"/>
-      <c r="DS5" s="159">
+      <c r="DM5" s="157"/>
+      <c r="DN5" s="157"/>
+      <c r="DO5" s="157"/>
+      <c r="DP5" s="157"/>
+      <c r="DQ5" s="157"/>
+      <c r="DR5" s="163"/>
+      <c r="DS5" s="162">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="160"/>
-      <c r="DU5" s="160"/>
-      <c r="DV5" s="160"/>
-      <c r="DW5" s="160"/>
-      <c r="DX5" s="160"/>
-      <c r="DY5" s="161"/>
-      <c r="DZ5" s="166">
+      <c r="DT5" s="157"/>
+      <c r="DU5" s="157"/>
+      <c r="DV5" s="157"/>
+      <c r="DW5" s="157"/>
+      <c r="DX5" s="157"/>
+      <c r="DY5" s="163"/>
+      <c r="DZ5" s="156">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="160"/>
-      <c r="EB5" s="160"/>
-      <c r="EC5" s="160"/>
-      <c r="ED5" s="160"/>
-      <c r="EE5" s="160"/>
-      <c r="EF5" s="167"/>
-      <c r="EG5" s="159">
+      <c r="EA5" s="157"/>
+      <c r="EB5" s="157"/>
+      <c r="EC5" s="157"/>
+      <c r="ED5" s="157"/>
+      <c r="EE5" s="157"/>
+      <c r="EF5" s="158"/>
+      <c r="EG5" s="162">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="160"/>
-      <c r="EI5" s="160"/>
-      <c r="EJ5" s="160"/>
-      <c r="EK5" s="160"/>
-      <c r="EL5" s="160"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="159">
+      <c r="EH5" s="157"/>
+      <c r="EI5" s="157"/>
+      <c r="EJ5" s="157"/>
+      <c r="EK5" s="157"/>
+      <c r="EL5" s="157"/>
+      <c r="EM5" s="163"/>
+      <c r="EN5" s="162">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="160"/>
-      <c r="EP5" s="160"/>
-      <c r="EQ5" s="160"/>
-      <c r="ER5" s="160"/>
-      <c r="ES5" s="160"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="166">
+      <c r="EO5" s="157"/>
+      <c r="EP5" s="157"/>
+      <c r="EQ5" s="157"/>
+      <c r="ER5" s="157"/>
+      <c r="ES5" s="157"/>
+      <c r="ET5" s="163"/>
+      <c r="EU5" s="156">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="160"/>
-      <c r="EW5" s="160"/>
-      <c r="EX5" s="160"/>
-      <c r="EY5" s="160"/>
-      <c r="EZ5" s="160"/>
-      <c r="FA5" s="167"/>
-      <c r="FB5" s="159">
+      <c r="EV5" s="157"/>
+      <c r="EW5" s="157"/>
+      <c r="EX5" s="157"/>
+      <c r="EY5" s="157"/>
+      <c r="EZ5" s="157"/>
+      <c r="FA5" s="158"/>
+      <c r="FB5" s="162">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="160"/>
-      <c r="FD5" s="160"/>
-      <c r="FE5" s="160"/>
-      <c r="FF5" s="160"/>
-      <c r="FG5" s="160"/>
-      <c r="FH5" s="161"/>
-      <c r="FI5" s="159">
+      <c r="FC5" s="157"/>
+      <c r="FD5" s="157"/>
+      <c r="FE5" s="157"/>
+      <c r="FF5" s="157"/>
+      <c r="FG5" s="157"/>
+      <c r="FH5" s="163"/>
+      <c r="FI5" s="162">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="160"/>
-      <c r="FK5" s="160"/>
-      <c r="FL5" s="160"/>
-      <c r="FM5" s="160"/>
-      <c r="FN5" s="160"/>
-      <c r="FO5" s="161"/>
-      <c r="FP5" s="166">
+      <c r="FJ5" s="157"/>
+      <c r="FK5" s="157"/>
+      <c r="FL5" s="157"/>
+      <c r="FM5" s="157"/>
+      <c r="FN5" s="157"/>
+      <c r="FO5" s="163"/>
+      <c r="FP5" s="156">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="160"/>
-      <c r="FR5" s="160"/>
-      <c r="FS5" s="160"/>
-      <c r="FT5" s="160"/>
-      <c r="FU5" s="160"/>
-      <c r="FV5" s="167"/>
-      <c r="FW5" s="159">
+      <c r="FQ5" s="157"/>
+      <c r="FR5" s="157"/>
+      <c r="FS5" s="157"/>
+      <c r="FT5" s="157"/>
+      <c r="FU5" s="157"/>
+      <c r="FV5" s="158"/>
+      <c r="FW5" s="162">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="160"/>
-      <c r="FY5" s="160"/>
-      <c r="FZ5" s="160"/>
-      <c r="GA5" s="160"/>
-      <c r="GB5" s="160"/>
-      <c r="GC5" s="161"/>
-      <c r="GD5" s="159">
+      <c r="FX5" s="157"/>
+      <c r="FY5" s="157"/>
+      <c r="FZ5" s="157"/>
+      <c r="GA5" s="157"/>
+      <c r="GB5" s="157"/>
+      <c r="GC5" s="163"/>
+      <c r="GD5" s="162">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="160"/>
-      <c r="GF5" s="160"/>
-      <c r="GG5" s="160"/>
-      <c r="GH5" s="160"/>
-      <c r="GI5" s="160"/>
-      <c r="GJ5" s="161"/>
-      <c r="GK5" s="166">
+      <c r="GE5" s="157"/>
+      <c r="GF5" s="157"/>
+      <c r="GG5" s="157"/>
+      <c r="GH5" s="157"/>
+      <c r="GI5" s="157"/>
+      <c r="GJ5" s="163"/>
+      <c r="GK5" s="156">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="160"/>
-      <c r="GM5" s="160"/>
-      <c r="GN5" s="160"/>
-      <c r="GO5" s="160"/>
-      <c r="GP5" s="160"/>
-      <c r="GQ5" s="167"/>
-      <c r="GR5" s="159">
+      <c r="GL5" s="157"/>
+      <c r="GM5" s="157"/>
+      <c r="GN5" s="157"/>
+      <c r="GO5" s="157"/>
+      <c r="GP5" s="157"/>
+      <c r="GQ5" s="158"/>
+      <c r="GR5" s="162">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="160"/>
-      <c r="GT5" s="160"/>
-      <c r="GU5" s="160"/>
-      <c r="GV5" s="160"/>
-      <c r="GW5" s="160"/>
-      <c r="GX5" s="161"/>
-      <c r="GY5" s="166">
+      <c r="GS5" s="157"/>
+      <c r="GT5" s="157"/>
+      <c r="GU5" s="157"/>
+      <c r="GV5" s="157"/>
+      <c r="GW5" s="157"/>
+      <c r="GX5" s="163"/>
+      <c r="GY5" s="156">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="160"/>
-      <c r="HA5" s="160"/>
-      <c r="HB5" s="160"/>
-      <c r="HC5" s="160"/>
-      <c r="HD5" s="160"/>
-      <c r="HE5" s="167"/>
-      <c r="HF5" s="159">
+      <c r="GZ5" s="157"/>
+      <c r="HA5" s="157"/>
+      <c r="HB5" s="157"/>
+      <c r="HC5" s="157"/>
+      <c r="HD5" s="157"/>
+      <c r="HE5" s="158"/>
+      <c r="HF5" s="162">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="160"/>
-      <c r="HH5" s="160"/>
-      <c r="HI5" s="160"/>
-      <c r="HJ5" s="160"/>
-      <c r="HK5" s="160"/>
-      <c r="HL5" s="161"/>
-      <c r="HM5" s="166">
+      <c r="HG5" s="157"/>
+      <c r="HH5" s="157"/>
+      <c r="HI5" s="157"/>
+      <c r="HJ5" s="157"/>
+      <c r="HK5" s="157"/>
+      <c r="HL5" s="163"/>
+      <c r="HM5" s="156">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="160"/>
-      <c r="HO5" s="160"/>
-      <c r="HP5" s="160"/>
-      <c r="HQ5" s="160"/>
-      <c r="HR5" s="160"/>
-      <c r="HS5" s="167"/>
-      <c r="HT5" s="159">
+      <c r="HN5" s="157"/>
+      <c r="HO5" s="157"/>
+      <c r="HP5" s="157"/>
+      <c r="HQ5" s="157"/>
+      <c r="HR5" s="157"/>
+      <c r="HS5" s="158"/>
+      <c r="HT5" s="162">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="160"/>
-      <c r="HV5" s="160"/>
-      <c r="HW5" s="160"/>
-      <c r="HX5" s="160"/>
-      <c r="HY5" s="160"/>
-      <c r="HZ5" s="161"/>
-      <c r="IA5" s="166">
+      <c r="HU5" s="157"/>
+      <c r="HV5" s="157"/>
+      <c r="HW5" s="157"/>
+      <c r="HX5" s="157"/>
+      <c r="HY5" s="157"/>
+      <c r="HZ5" s="163"/>
+      <c r="IA5" s="156">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="160"/>
-      <c r="IC5" s="160"/>
-      <c r="ID5" s="160"/>
-      <c r="IE5" s="160"/>
-      <c r="IF5" s="160"/>
-      <c r="IG5" s="167"/>
-      <c r="IH5" s="159">
+      <c r="IB5" s="157"/>
+      <c r="IC5" s="157"/>
+      <c r="ID5" s="157"/>
+      <c r="IE5" s="157"/>
+      <c r="IF5" s="157"/>
+      <c r="IG5" s="158"/>
+      <c r="IH5" s="162">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="160"/>
-      <c r="IJ5" s="160"/>
-      <c r="IK5" s="160"/>
-      <c r="IL5" s="160"/>
-      <c r="IM5" s="160"/>
-      <c r="IN5" s="161"/>
-      <c r="IO5" s="166">
+      <c r="II5" s="157"/>
+      <c r="IJ5" s="157"/>
+      <c r="IK5" s="157"/>
+      <c r="IL5" s="157"/>
+      <c r="IM5" s="157"/>
+      <c r="IN5" s="163"/>
+      <c r="IO5" s="156">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="160"/>
-      <c r="IQ5" s="160"/>
-      <c r="IR5" s="160"/>
-      <c r="IS5" s="160"/>
-      <c r="IT5" s="160"/>
-      <c r="IU5" s="167"/>
+      <c r="IP5" s="157"/>
+      <c r="IQ5" s="157"/>
+      <c r="IR5" s="157"/>
+      <c r="IS5" s="157"/>
+      <c r="IT5" s="157"/>
+      <c r="IU5" s="158"/>
     </row>
     <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="146"/>
@@ -7308,7 +7311,7 @@
     </row>
     <row r="9" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="str">
-        <f t="shared" ref="A9:A19" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A20" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="88" t="s">
@@ -7320,7 +7323,7 @@
         <v>45295</v>
       </c>
       <c r="F9" s="84">
-        <f t="shared" ref="F9:F13" si="255">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
+        <f t="shared" ref="F9:F14" si="255">IF(ISBLANK(E9)," - ",IF(G9=0,E9,E9+G9-1))</f>
         <v>45359</v>
       </c>
       <c r="G9" s="45">
@@ -7330,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="102">
-        <f t="shared" ref="I9:I13" si="256">IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
+        <f t="shared" ref="I9:I14" si="256">IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
         <v>47</v>
       </c>
       <c r="J9" s="94"/>
@@ -7582,7 +7585,7 @@
     </row>
     <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="str">
-        <f t="shared" ref="A10:A17" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A10:A18" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B10" s="35" t="s">
@@ -7601,7 +7604,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="102">
         <f t="shared" si="256"/>
@@ -7875,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="102">
         <f t="shared" ref="I11:I12" si="259">IF(OR(F11=0,E11=0),0,NETWORKDAYS(E11,F11))</f>
@@ -8144,17 +8147,17 @@
       </c>
       <c r="F12" s="84">
         <f t="shared" si="258"/>
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="G12" s="45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="102">
         <f t="shared" si="259"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="34"/>
@@ -8409,27 +8412,26 @@
         <v>1.1.4</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="33"/>
       <c r="E13" s="87">
-        <f>F12+1</f>
+        <v>45306</v>
+      </c>
+      <c r="F13" s="84">
+        <f t="shared" ref="F13" si="260">IF(ISBLANK(E13)," - ",IF(G13=0,E13,E13+G13-1))</f>
         <v>45307</v>
       </c>
-      <c r="F13" s="84">
-        <f t="shared" si="255"/>
-        <v>45309</v>
-      </c>
       <c r="G13" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="46">
         <v>0</v>
       </c>
       <c r="I13" s="102">
-        <f t="shared" si="256"/>
-        <v>3</v>
+        <f t="shared" ref="I13" si="261">IF(OR(F13=0,E13=0),0,NETWORKDAYS(E13,F13))</f>
+        <v>2</v>
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="34"/>
@@ -8447,9 +8449,7 @@
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
-      <c r="Z13" s="34" t="s">
-        <v>157</v>
-      </c>
+      <c r="Z13" s="34"/>
       <c r="AA13" s="34"/>
       <c r="AB13" s="34"/>
       <c r="AC13" s="34"/>
@@ -8686,28 +8686,27 @@
         <v>1.1.5</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="150">
-        <v>1</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C14" s="150"/>
       <c r="D14" s="33"/>
       <c r="E14" s="87">
-        <v>45326</v>
+        <f>F12+1</f>
+        <v>45308</v>
       </c>
       <c r="F14" s="84">
-        <f t="shared" ref="F14" si="260">IF(ISBLANK(E14)," - ",IF(G14=0,E14,E14+G14-1))</f>
-        <v>45330</v>
+        <f t="shared" si="255"/>
+        <v>45310</v>
       </c>
       <c r="G14" s="45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="102">
-        <f t="shared" ref="I14" si="261">IF(OR(F14=0,E14=0),0,NETWORKDAYS(E14,F14))</f>
-        <v>4</v>
+        <f t="shared" si="256"/>
+        <v>3</v>
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="34"/>
@@ -8725,7 +8724,9 @@
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
+      <c r="Z14" s="34" t="s">
+        <v>157</v>
+      </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
@@ -8956,34 +8957,34 @@
       <c r="IT14" s="34"/>
       <c r="IU14" s="34"/>
     </row>
-    <row r="15" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.6</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="150">
         <v>1</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="87">
-        <v>45335</v>
+        <v>45326</v>
       </c>
       <c r="F15" s="84">
         <f t="shared" ref="F15" si="262">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>45335</v>
+        <v>45330</v>
       </c>
       <c r="G15" s="45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15" s="46">
         <v>1</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="34"/>
@@ -9238,18 +9239,18 @@
         <v>1.1.7</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C16" s="150">
         <v>1</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="87">
-        <v>45352</v>
+        <v>45335</v>
       </c>
       <c r="F16" s="84">
-        <f>IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v>45352</v>
+        <f t="shared" ref="F16" si="264">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+        <v>45335</v>
       </c>
       <c r="G16" s="45">
         <v>1</v>
@@ -9258,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="102">
-        <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
+        <f t="shared" ref="I16" si="265">IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
         <v>1</v>
       </c>
       <c r="J16" s="94"/>
@@ -9514,19 +9515,18 @@
         <v>1.1.8</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="150">
         <v>1</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="87">
-        <f>F16+7</f>
-        <v>45359</v>
+        <v>45352</v>
       </c>
       <c r="F17" s="84">
         <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v>45359</v>
+        <v>45352</v>
       </c>
       <c r="G17" s="45">
         <v>1</v>
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="102">
-        <f t="shared" ref="I17" si="264">IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
+        <f>IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
         <v>1</v>
       </c>
       <c r="J17" s="94"/>
@@ -9785,572 +9785,572 @@
       <c r="IT17" s="34"/>
       <c r="IU17" s="34"/>
     </row>
-    <row r="18" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="92" t="str">
+    <row r="18" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="91" t="str">
+        <f t="shared" si="257"/>
+        <v>1.1.9</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="150">
+        <v>1</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="87">
+        <f>F17+7</f>
+        <v>45359</v>
+      </c>
+      <c r="F18" s="84">
+        <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <v>45359</v>
+      </c>
+      <c r="G18" s="45">
+        <v>1</v>
+      </c>
+      <c r="H18" s="46">
+        <v>1</v>
+      </c>
+      <c r="I18" s="102">
+        <f t="shared" ref="I18" si="266">IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="34"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
+      <c r="BJ18" s="34"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="34"/>
+      <c r="BM18" s="34"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="34"/>
+      <c r="BS18" s="34"/>
+      <c r="BT18" s="34"/>
+      <c r="BU18" s="34"/>
+      <c r="BV18" s="34"/>
+      <c r="BW18" s="34"/>
+      <c r="BX18" s="34"/>
+      <c r="BY18" s="34"/>
+      <c r="BZ18" s="34"/>
+      <c r="CA18" s="34"/>
+      <c r="CB18" s="34"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="34"/>
+      <c r="CE18" s="34"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="34"/>
+      <c r="CH18" s="34"/>
+      <c r="CI18" s="34"/>
+      <c r="CJ18" s="34"/>
+      <c r="CK18" s="34"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="34"/>
+      <c r="CN18" s="34"/>
+      <c r="CO18" s="34"/>
+      <c r="CP18" s="34"/>
+      <c r="CQ18" s="34"/>
+      <c r="CR18" s="34"/>
+      <c r="CS18" s="34"/>
+      <c r="CT18" s="34"/>
+      <c r="CU18" s="34"/>
+      <c r="CV18" s="34"/>
+      <c r="CW18" s="34"/>
+      <c r="CX18" s="34"/>
+      <c r="CY18" s="34"/>
+      <c r="CZ18" s="34"/>
+      <c r="DA18" s="34"/>
+      <c r="DB18" s="34"/>
+      <c r="DC18" s="34"/>
+      <c r="DD18" s="34"/>
+      <c r="DE18" s="34"/>
+      <c r="DF18" s="34"/>
+      <c r="DG18" s="34"/>
+      <c r="DH18" s="34"/>
+      <c r="DI18" s="34"/>
+      <c r="DJ18" s="34"/>
+      <c r="DK18" s="34"/>
+      <c r="DL18" s="34"/>
+      <c r="DM18" s="34"/>
+      <c r="DN18" s="34"/>
+      <c r="DO18" s="34"/>
+      <c r="DP18" s="34"/>
+      <c r="DQ18" s="34"/>
+      <c r="DR18" s="34"/>
+      <c r="DS18" s="34"/>
+      <c r="DT18" s="34"/>
+      <c r="DU18" s="34"/>
+      <c r="DV18" s="34"/>
+      <c r="DW18" s="34"/>
+      <c r="DX18" s="34"/>
+      <c r="DY18" s="34"/>
+      <c r="DZ18" s="34"/>
+      <c r="EA18" s="34"/>
+      <c r="EB18" s="34"/>
+      <c r="EC18" s="34"/>
+      <c r="ED18" s="34"/>
+      <c r="EE18" s="34"/>
+      <c r="EF18" s="34"/>
+      <c r="EG18" s="34"/>
+      <c r="EH18" s="34"/>
+      <c r="EI18" s="34"/>
+      <c r="EJ18" s="34"/>
+      <c r="EK18" s="34"/>
+      <c r="EL18" s="34"/>
+      <c r="EM18" s="34"/>
+      <c r="EN18" s="34"/>
+      <c r="EO18" s="34"/>
+      <c r="EP18" s="34"/>
+      <c r="EQ18" s="34"/>
+      <c r="ER18" s="34"/>
+      <c r="ES18" s="34"/>
+      <c r="ET18" s="34"/>
+      <c r="EU18" s="34"/>
+      <c r="EV18" s="34"/>
+      <c r="EW18" s="34"/>
+      <c r="EX18" s="34"/>
+      <c r="EY18" s="34"/>
+      <c r="EZ18" s="34"/>
+      <c r="FA18" s="34"/>
+      <c r="FB18" s="34"/>
+      <c r="FC18" s="34"/>
+      <c r="FD18" s="34"/>
+      <c r="FE18" s="34"/>
+      <c r="FF18" s="34"/>
+      <c r="FG18" s="34"/>
+      <c r="FH18" s="34"/>
+      <c r="FI18" s="34"/>
+      <c r="FJ18" s="34"/>
+      <c r="FK18" s="34"/>
+      <c r="FL18" s="34"/>
+      <c r="FM18" s="34"/>
+      <c r="FN18" s="34"/>
+      <c r="FO18" s="34"/>
+      <c r="FP18" s="34"/>
+      <c r="FQ18" s="34"/>
+      <c r="FR18" s="34"/>
+      <c r="FS18" s="34"/>
+      <c r="FT18" s="34"/>
+      <c r="FU18" s="34"/>
+      <c r="FV18" s="34"/>
+      <c r="FW18" s="34"/>
+      <c r="FX18" s="34"/>
+      <c r="FY18" s="34"/>
+      <c r="FZ18" s="34"/>
+      <c r="GA18" s="34"/>
+      <c r="GB18" s="34"/>
+      <c r="GC18" s="34"/>
+      <c r="GD18" s="34"/>
+      <c r="GE18" s="34"/>
+      <c r="GF18" s="34"/>
+      <c r="GG18" s="34"/>
+      <c r="GH18" s="34"/>
+      <c r="GI18" s="34"/>
+      <c r="GJ18" s="34"/>
+      <c r="GK18" s="34"/>
+      <c r="GL18" s="34"/>
+      <c r="GM18" s="34"/>
+      <c r="GN18" s="34"/>
+      <c r="GO18" s="34"/>
+      <c r="GP18" s="34"/>
+      <c r="GQ18" s="34"/>
+      <c r="GR18" s="34"/>
+      <c r="GS18" s="34"/>
+      <c r="GT18" s="34"/>
+      <c r="GU18" s="34"/>
+      <c r="GV18" s="34"/>
+      <c r="GW18" s="34"/>
+      <c r="GX18" s="34"/>
+      <c r="GY18" s="34"/>
+      <c r="GZ18" s="34"/>
+      <c r="HA18" s="34"/>
+      <c r="HB18" s="34"/>
+      <c r="HC18" s="34"/>
+      <c r="HD18" s="34"/>
+      <c r="HE18" s="34"/>
+      <c r="HF18" s="34"/>
+      <c r="HG18" s="34"/>
+      <c r="HH18" s="34"/>
+      <c r="HI18" s="34"/>
+      <c r="HJ18" s="34"/>
+      <c r="HK18" s="34"/>
+      <c r="HL18" s="34"/>
+      <c r="HM18" s="34"/>
+      <c r="HN18" s="34"/>
+      <c r="HO18" s="34"/>
+      <c r="HP18" s="34"/>
+      <c r="HQ18" s="34"/>
+      <c r="HR18" s="34"/>
+      <c r="HS18" s="34"/>
+      <c r="HT18" s="34"/>
+      <c r="HU18" s="34"/>
+      <c r="HV18" s="34"/>
+      <c r="HW18" s="34"/>
+      <c r="HX18" s="34"/>
+      <c r="HY18" s="34"/>
+      <c r="HZ18" s="34"/>
+      <c r="IA18" s="34"/>
+      <c r="IB18" s="34"/>
+      <c r="IC18" s="34"/>
+      <c r="ID18" s="34"/>
+      <c r="IE18" s="34"/>
+      <c r="IF18" s="34"/>
+      <c r="IG18" s="34"/>
+      <c r="IH18" s="34"/>
+      <c r="II18" s="34"/>
+      <c r="IJ18" s="34"/>
+      <c r="IK18" s="34"/>
+      <c r="IL18" s="34"/>
+      <c r="IM18" s="34"/>
+      <c r="IN18" s="34"/>
+      <c r="IO18" s="34"/>
+      <c r="IP18" s="34"/>
+      <c r="IQ18" s="34"/>
+      <c r="IR18" s="34"/>
+      <c r="IS18" s="34"/>
+      <c r="IT18" s="34"/>
+      <c r="IU18" s="34"/>
+    </row>
+    <row r="19" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B19" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
-      <c r="BK18" s="36"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="36"/>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="36"/>
-      <c r="BP18" s="36"/>
-      <c r="BQ18" s="36"/>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="36"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="36"/>
-      <c r="BV18" s="36"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="36"/>
-      <c r="CA18" s="36"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="36"/>
-      <c r="CF18" s="36"/>
-      <c r="CG18" s="36"/>
-      <c r="CH18" s="36"/>
-      <c r="CI18" s="36"/>
-      <c r="CJ18" s="36"/>
-      <c r="CK18" s="36"/>
-      <c r="CL18" s="36"/>
-      <c r="CM18" s="36"/>
-      <c r="CN18" s="36"/>
-      <c r="CO18" s="36"/>
-      <c r="CP18" s="36"/>
-      <c r="CQ18" s="36"/>
-      <c r="CR18" s="36"/>
-      <c r="CS18" s="36"/>
-      <c r="CT18" s="36"/>
-      <c r="CU18" s="36"/>
-      <c r="CV18" s="36"/>
-      <c r="CW18" s="36"/>
-      <c r="CX18" s="36"/>
-      <c r="CY18" s="36"/>
-      <c r="CZ18" s="36"/>
-      <c r="DA18" s="36"/>
-      <c r="DB18" s="36"/>
-      <c r="DC18" s="36"/>
-      <c r="DD18" s="36"/>
-      <c r="DE18" s="36"/>
-      <c r="DF18" s="36"/>
-      <c r="DG18" s="36"/>
-      <c r="DH18" s="36"/>
-      <c r="DI18" s="36"/>
-      <c r="DJ18" s="36"/>
-      <c r="DK18" s="36"/>
-      <c r="DL18" s="36"/>
-      <c r="DM18" s="36"/>
-      <c r="DN18" s="36"/>
-      <c r="DO18" s="36"/>
-      <c r="DP18" s="36"/>
-      <c r="DQ18" s="36"/>
-      <c r="DR18" s="36"/>
-      <c r="DS18" s="36"/>
-      <c r="DT18" s="36"/>
-      <c r="DU18" s="36"/>
-      <c r="DV18" s="36"/>
-      <c r="DW18" s="36"/>
-      <c r="DX18" s="36"/>
-      <c r="DY18" s="36"/>
-      <c r="DZ18" s="36"/>
-      <c r="EA18" s="36"/>
-      <c r="EB18" s="36"/>
-      <c r="EC18" s="36"/>
-      <c r="ED18" s="36"/>
-      <c r="EE18" s="36"/>
-      <c r="EF18" s="36"/>
-      <c r="EG18" s="36"/>
-      <c r="EH18" s="36"/>
-      <c r="EI18" s="36"/>
-      <c r="EJ18" s="36"/>
-      <c r="EK18" s="36"/>
-      <c r="EL18" s="36"/>
-      <c r="EM18" s="36"/>
-      <c r="EN18" s="36"/>
-      <c r="EO18" s="36"/>
-      <c r="EP18" s="36"/>
-      <c r="EQ18" s="36"/>
-      <c r="ER18" s="36"/>
-      <c r="ES18" s="36"/>
-      <c r="ET18" s="36"/>
-      <c r="EU18" s="36"/>
-      <c r="EV18" s="36"/>
-      <c r="EW18" s="36"/>
-      <c r="EX18" s="36"/>
-      <c r="EY18" s="36"/>
-      <c r="EZ18" s="36"/>
-      <c r="FA18" s="36"/>
-      <c r="FB18" s="36"/>
-      <c r="FC18" s="36"/>
-      <c r="FD18" s="36"/>
-      <c r="FE18" s="36"/>
-      <c r="FF18" s="36"/>
-      <c r="FG18" s="36"/>
-      <c r="FH18" s="36"/>
-      <c r="FI18" s="36"/>
-      <c r="FJ18" s="36"/>
-      <c r="FK18" s="36"/>
-      <c r="FL18" s="36"/>
-      <c r="FM18" s="36"/>
-      <c r="FN18" s="36"/>
-      <c r="FO18" s="36"/>
-      <c r="FP18" s="36"/>
-      <c r="FQ18" s="36"/>
-      <c r="FR18" s="36"/>
-      <c r="FS18" s="36"/>
-      <c r="FT18" s="36"/>
-      <c r="FU18" s="36"/>
-      <c r="FV18" s="36"/>
-      <c r="FW18" s="36"/>
-      <c r="FX18" s="36"/>
-      <c r="FY18" s="36"/>
-      <c r="FZ18" s="36"/>
-      <c r="GA18" s="36"/>
-      <c r="GB18" s="36"/>
-      <c r="GC18" s="36"/>
-      <c r="GD18" s="36"/>
-      <c r="GE18" s="36"/>
-      <c r="GF18" s="36"/>
-      <c r="GG18" s="36"/>
-      <c r="GH18" s="36"/>
-      <c r="GI18" s="36"/>
-      <c r="GJ18" s="36"/>
-      <c r="GK18" s="36"/>
-      <c r="GL18" s="36"/>
-      <c r="GM18" s="36"/>
-      <c r="GN18" s="36"/>
-      <c r="GO18" s="36"/>
-      <c r="GP18" s="36"/>
-      <c r="GQ18" s="36"/>
-      <c r="GR18" s="36"/>
-      <c r="GS18" s="36"/>
-      <c r="GT18" s="36"/>
-      <c r="GU18" s="36"/>
-      <c r="GV18" s="36"/>
-      <c r="GW18" s="36"/>
-      <c r="GX18" s="36"/>
-      <c r="GY18" s="36"/>
-      <c r="GZ18" s="36"/>
-      <c r="HA18" s="36"/>
-      <c r="HB18" s="36"/>
-      <c r="HC18" s="36"/>
-      <c r="HD18" s="36"/>
-      <c r="HE18" s="36"/>
-      <c r="HF18" s="36"/>
-      <c r="HG18" s="36"/>
-      <c r="HH18" s="36"/>
-      <c r="HI18" s="36"/>
-      <c r="HJ18" s="36"/>
-      <c r="HK18" s="36"/>
-      <c r="HL18" s="36"/>
-      <c r="HM18" s="36"/>
-      <c r="HN18" s="36"/>
-      <c r="HO18" s="36"/>
-      <c r="HP18" s="36"/>
-      <c r="HQ18" s="36"/>
-      <c r="HR18" s="36"/>
-      <c r="HS18" s="36"/>
-      <c r="HT18" s="36"/>
-      <c r="HU18" s="36"/>
-      <c r="HV18" s="36"/>
-      <c r="HW18" s="36"/>
-      <c r="HX18" s="36"/>
-      <c r="HY18" s="36"/>
-      <c r="HZ18" s="36"/>
-      <c r="IA18" s="36"/>
-      <c r="IB18" s="36"/>
-      <c r="IC18" s="36"/>
-      <c r="ID18" s="36"/>
-      <c r="IE18" s="36"/>
-      <c r="IF18" s="36"/>
-      <c r="IG18" s="36"/>
-      <c r="IH18" s="36"/>
-      <c r="II18" s="36"/>
-      <c r="IJ18" s="36"/>
-      <c r="IK18" s="36"/>
-      <c r="IL18" s="36"/>
-      <c r="IM18" s="36"/>
-      <c r="IN18" s="36"/>
-      <c r="IO18" s="36"/>
-      <c r="IP18" s="36"/>
-      <c r="IQ18" s="36"/>
-      <c r="IR18" s="36"/>
-      <c r="IS18" s="36"/>
-      <c r="IT18" s="36"/>
-      <c r="IU18" s="36"/>
-    </row>
-    <row r="19" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="91" t="str">
+      <c r="C19" s="151"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="36"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="36"/>
+      <c r="BL19" s="36"/>
+      <c r="BM19" s="36"/>
+      <c r="BN19" s="36"/>
+      <c r="BO19" s="36"/>
+      <c r="BP19" s="36"/>
+      <c r="BQ19" s="36"/>
+      <c r="BR19" s="36"/>
+      <c r="BS19" s="36"/>
+      <c r="BT19" s="36"/>
+      <c r="BU19" s="36"/>
+      <c r="BV19" s="36"/>
+      <c r="BW19" s="36"/>
+      <c r="BX19" s="36"/>
+      <c r="BY19" s="36"/>
+      <c r="BZ19" s="36"/>
+      <c r="CA19" s="36"/>
+      <c r="CB19" s="36"/>
+      <c r="CC19" s="36"/>
+      <c r="CD19" s="36"/>
+      <c r="CE19" s="36"/>
+      <c r="CF19" s="36"/>
+      <c r="CG19" s="36"/>
+      <c r="CH19" s="36"/>
+      <c r="CI19" s="36"/>
+      <c r="CJ19" s="36"/>
+      <c r="CK19" s="36"/>
+      <c r="CL19" s="36"/>
+      <c r="CM19" s="36"/>
+      <c r="CN19" s="36"/>
+      <c r="CO19" s="36"/>
+      <c r="CP19" s="36"/>
+      <c r="CQ19" s="36"/>
+      <c r="CR19" s="36"/>
+      <c r="CS19" s="36"/>
+      <c r="CT19" s="36"/>
+      <c r="CU19" s="36"/>
+      <c r="CV19" s="36"/>
+      <c r="CW19" s="36"/>
+      <c r="CX19" s="36"/>
+      <c r="CY19" s="36"/>
+      <c r="CZ19" s="36"/>
+      <c r="DA19" s="36"/>
+      <c r="DB19" s="36"/>
+      <c r="DC19" s="36"/>
+      <c r="DD19" s="36"/>
+      <c r="DE19" s="36"/>
+      <c r="DF19" s="36"/>
+      <c r="DG19" s="36"/>
+      <c r="DH19" s="36"/>
+      <c r="DI19" s="36"/>
+      <c r="DJ19" s="36"/>
+      <c r="DK19" s="36"/>
+      <c r="DL19" s="36"/>
+      <c r="DM19" s="36"/>
+      <c r="DN19" s="36"/>
+      <c r="DO19" s="36"/>
+      <c r="DP19" s="36"/>
+      <c r="DQ19" s="36"/>
+      <c r="DR19" s="36"/>
+      <c r="DS19" s="36"/>
+      <c r="DT19" s="36"/>
+      <c r="DU19" s="36"/>
+      <c r="DV19" s="36"/>
+      <c r="DW19" s="36"/>
+      <c r="DX19" s="36"/>
+      <c r="DY19" s="36"/>
+      <c r="DZ19" s="36"/>
+      <c r="EA19" s="36"/>
+      <c r="EB19" s="36"/>
+      <c r="EC19" s="36"/>
+      <c r="ED19" s="36"/>
+      <c r="EE19" s="36"/>
+      <c r="EF19" s="36"/>
+      <c r="EG19" s="36"/>
+      <c r="EH19" s="36"/>
+      <c r="EI19" s="36"/>
+      <c r="EJ19" s="36"/>
+      <c r="EK19" s="36"/>
+      <c r="EL19" s="36"/>
+      <c r="EM19" s="36"/>
+      <c r="EN19" s="36"/>
+      <c r="EO19" s="36"/>
+      <c r="EP19" s="36"/>
+      <c r="EQ19" s="36"/>
+      <c r="ER19" s="36"/>
+      <c r="ES19" s="36"/>
+      <c r="ET19" s="36"/>
+      <c r="EU19" s="36"/>
+      <c r="EV19" s="36"/>
+      <c r="EW19" s="36"/>
+      <c r="EX19" s="36"/>
+      <c r="EY19" s="36"/>
+      <c r="EZ19" s="36"/>
+      <c r="FA19" s="36"/>
+      <c r="FB19" s="36"/>
+      <c r="FC19" s="36"/>
+      <c r="FD19" s="36"/>
+      <c r="FE19" s="36"/>
+      <c r="FF19" s="36"/>
+      <c r="FG19" s="36"/>
+      <c r="FH19" s="36"/>
+      <c r="FI19" s="36"/>
+      <c r="FJ19" s="36"/>
+      <c r="FK19" s="36"/>
+      <c r="FL19" s="36"/>
+      <c r="FM19" s="36"/>
+      <c r="FN19" s="36"/>
+      <c r="FO19" s="36"/>
+      <c r="FP19" s="36"/>
+      <c r="FQ19" s="36"/>
+      <c r="FR19" s="36"/>
+      <c r="FS19" s="36"/>
+      <c r="FT19" s="36"/>
+      <c r="FU19" s="36"/>
+      <c r="FV19" s="36"/>
+      <c r="FW19" s="36"/>
+      <c r="FX19" s="36"/>
+      <c r="FY19" s="36"/>
+      <c r="FZ19" s="36"/>
+      <c r="GA19" s="36"/>
+      <c r="GB19" s="36"/>
+      <c r="GC19" s="36"/>
+      <c r="GD19" s="36"/>
+      <c r="GE19" s="36"/>
+      <c r="GF19" s="36"/>
+      <c r="GG19" s="36"/>
+      <c r="GH19" s="36"/>
+      <c r="GI19" s="36"/>
+      <c r="GJ19" s="36"/>
+      <c r="GK19" s="36"/>
+      <c r="GL19" s="36"/>
+      <c r="GM19" s="36"/>
+      <c r="GN19" s="36"/>
+      <c r="GO19" s="36"/>
+      <c r="GP19" s="36"/>
+      <c r="GQ19" s="36"/>
+      <c r="GR19" s="36"/>
+      <c r="GS19" s="36"/>
+      <c r="GT19" s="36"/>
+      <c r="GU19" s="36"/>
+      <c r="GV19" s="36"/>
+      <c r="GW19" s="36"/>
+      <c r="GX19" s="36"/>
+      <c r="GY19" s="36"/>
+      <c r="GZ19" s="36"/>
+      <c r="HA19" s="36"/>
+      <c r="HB19" s="36"/>
+      <c r="HC19" s="36"/>
+      <c r="HD19" s="36"/>
+      <c r="HE19" s="36"/>
+      <c r="HF19" s="36"/>
+      <c r="HG19" s="36"/>
+      <c r="HH19" s="36"/>
+      <c r="HI19" s="36"/>
+      <c r="HJ19" s="36"/>
+      <c r="HK19" s="36"/>
+      <c r="HL19" s="36"/>
+      <c r="HM19" s="36"/>
+      <c r="HN19" s="36"/>
+      <c r="HO19" s="36"/>
+      <c r="HP19" s="36"/>
+      <c r="HQ19" s="36"/>
+      <c r="HR19" s="36"/>
+      <c r="HS19" s="36"/>
+      <c r="HT19" s="36"/>
+      <c r="HU19" s="36"/>
+      <c r="HV19" s="36"/>
+      <c r="HW19" s="36"/>
+      <c r="HX19" s="36"/>
+      <c r="HY19" s="36"/>
+      <c r="HZ19" s="36"/>
+      <c r="IA19" s="36"/>
+      <c r="IB19" s="36"/>
+      <c r="IC19" s="36"/>
+      <c r="ID19" s="36"/>
+      <c r="IE19" s="36"/>
+      <c r="IF19" s="36"/>
+      <c r="IG19" s="36"/>
+      <c r="IH19" s="36"/>
+      <c r="II19" s="36"/>
+      <c r="IJ19" s="36"/>
+      <c r="IK19" s="36"/>
+      <c r="IL19" s="36"/>
+      <c r="IM19" s="36"/>
+      <c r="IN19" s="36"/>
+      <c r="IO19" s="36"/>
+      <c r="IP19" s="36"/>
+      <c r="IQ19" s="36"/>
+      <c r="IR19" s="36"/>
+      <c r="IS19" s="36"/>
+      <c r="IT19" s="36"/>
+      <c r="IU19" s="36"/>
+    </row>
+    <row r="20" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="91" t="str">
         <f t="shared" si="254"/>
         <v>2.1</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B20" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="149"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="87">
+      <c r="C20" s="149"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="87">
         <f>$F$9+1</f>
         <v>45360</v>
       </c>
-      <c r="F19" s="84">
-        <f t="shared" ref="F19" si="265">IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
-        <v>45429</v>
-      </c>
-      <c r="G19" s="45">
-        <v>70</v>
-      </c>
-      <c r="H19" s="46">
-        <v>0</v>
-      </c>
-      <c r="I19" s="102">
-        <f t="shared" ref="I19" si="266">IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
-        <v>50</v>
-      </c>
-      <c r="J19" s="94"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
-      <c r="AZ19" s="34"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="34"/>
-      <c r="BC19" s="34"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="34"/>
-      <c r="BF19" s="34"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="34"/>
-      <c r="BI19" s="34"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="34"/>
-      <c r="BL19" s="34"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="34"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="34"/>
-      <c r="BR19" s="34"/>
-      <c r="BS19" s="34"/>
-      <c r="BT19" s="34"/>
-      <c r="BU19" s="34"/>
-      <c r="BV19" s="34"/>
-      <c r="BW19" s="34"/>
-      <c r="BX19" s="34"/>
-      <c r="BY19" s="34"/>
-      <c r="BZ19" s="34"/>
-      <c r="CA19" s="34"/>
-      <c r="CB19" s="34"/>
-      <c r="CC19" s="34"/>
-      <c r="CD19" s="34"/>
-      <c r="CE19" s="34"/>
-      <c r="CF19" s="34"/>
-      <c r="CG19" s="34"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="34"/>
-      <c r="CJ19" s="34"/>
-      <c r="CK19" s="34"/>
-      <c r="CL19" s="34"/>
-      <c r="CM19" s="34"/>
-      <c r="CN19" s="34"/>
-      <c r="CO19" s="34"/>
-      <c r="CP19" s="34"/>
-      <c r="CQ19" s="34"/>
-      <c r="CR19" s="34"/>
-      <c r="CS19" s="34"/>
-      <c r="CT19" s="34"/>
-      <c r="CU19" s="34"/>
-      <c r="CV19" s="34"/>
-      <c r="CW19" s="34"/>
-      <c r="CX19" s="34"/>
-      <c r="CY19" s="34"/>
-      <c r="CZ19" s="34"/>
-      <c r="DA19" s="34"/>
-      <c r="DB19" s="34"/>
-      <c r="DC19" s="34"/>
-      <c r="DD19" s="34"/>
-      <c r="DE19" s="34"/>
-      <c r="DF19" s="34"/>
-      <c r="DG19" s="34"/>
-      <c r="DH19" s="34"/>
-      <c r="DI19" s="34"/>
-      <c r="DJ19" s="34"/>
-      <c r="DK19" s="34"/>
-      <c r="DL19" s="34"/>
-      <c r="DM19" s="34"/>
-      <c r="DN19" s="34"/>
-      <c r="DO19" s="34"/>
-      <c r="DP19" s="34"/>
-      <c r="DQ19" s="34"/>
-      <c r="DR19" s="34"/>
-      <c r="DS19" s="34"/>
-      <c r="DT19" s="34"/>
-      <c r="DU19" s="34"/>
-      <c r="DV19" s="34"/>
-      <c r="DW19" s="34"/>
-      <c r="DX19" s="34"/>
-      <c r="DY19" s="34"/>
-      <c r="DZ19" s="34"/>
-      <c r="EA19" s="34"/>
-      <c r="EB19" s="34"/>
-      <c r="EC19" s="34"/>
-      <c r="ED19" s="34"/>
-      <c r="EE19" s="34"/>
-      <c r="EF19" s="34"/>
-      <c r="EG19" s="34"/>
-      <c r="EH19" s="34"/>
-      <c r="EI19" s="34"/>
-      <c r="EJ19" s="34"/>
-      <c r="EK19" s="34"/>
-      <c r="EL19" s="34"/>
-      <c r="EM19" s="34"/>
-      <c r="EN19" s="34"/>
-      <c r="EO19" s="34"/>
-      <c r="EP19" s="34"/>
-      <c r="EQ19" s="34"/>
-      <c r="ER19" s="34"/>
-      <c r="ES19" s="34"/>
-      <c r="ET19" s="34"/>
-      <c r="EU19" s="34"/>
-      <c r="EV19" s="34"/>
-      <c r="EW19" s="34"/>
-      <c r="EX19" s="34"/>
-      <c r="EY19" s="34"/>
-      <c r="EZ19" s="34"/>
-      <c r="FA19" s="34"/>
-      <c r="FB19" s="34"/>
-      <c r="FC19" s="34"/>
-      <c r="FD19" s="34"/>
-      <c r="FE19" s="34"/>
-      <c r="FF19" s="34"/>
-      <c r="FG19" s="34"/>
-      <c r="FH19" s="34"/>
-      <c r="FI19" s="34"/>
-      <c r="FJ19" s="34"/>
-      <c r="FK19" s="34"/>
-      <c r="FL19" s="34"/>
-      <c r="FM19" s="34"/>
-      <c r="FN19" s="34"/>
-      <c r="FO19" s="34"/>
-      <c r="FP19" s="34"/>
-      <c r="FQ19" s="34"/>
-      <c r="FR19" s="34"/>
-      <c r="FS19" s="34"/>
-      <c r="FT19" s="34"/>
-      <c r="FU19" s="34"/>
-      <c r="FV19" s="34"/>
-      <c r="FW19" s="34"/>
-      <c r="FX19" s="34"/>
-      <c r="FY19" s="34"/>
-      <c r="FZ19" s="34"/>
-      <c r="GA19" s="34"/>
-      <c r="GB19" s="34"/>
-      <c r="GC19" s="34"/>
-      <c r="GD19" s="34"/>
-      <c r="GE19" s="34"/>
-      <c r="GF19" s="34"/>
-      <c r="GG19" s="34"/>
-      <c r="GH19" s="34"/>
-      <c r="GI19" s="34"/>
-      <c r="GJ19" s="34"/>
-      <c r="GK19" s="34"/>
-      <c r="GL19" s="34"/>
-      <c r="GM19" s="34"/>
-      <c r="GN19" s="34"/>
-      <c r="GO19" s="34"/>
-      <c r="GP19" s="34"/>
-      <c r="GQ19" s="34"/>
-      <c r="GR19" s="34"/>
-      <c r="GS19" s="34"/>
-      <c r="GT19" s="34"/>
-      <c r="GU19" s="34"/>
-      <c r="GV19" s="34"/>
-      <c r="GW19" s="34"/>
-      <c r="GX19" s="34"/>
-      <c r="GY19" s="34"/>
-      <c r="GZ19" s="34"/>
-      <c r="HA19" s="34"/>
-      <c r="HB19" s="34"/>
-      <c r="HC19" s="34"/>
-      <c r="HD19" s="34"/>
-      <c r="HE19" s="34"/>
-      <c r="HF19" s="34"/>
-      <c r="HG19" s="34"/>
-      <c r="HH19" s="34"/>
-      <c r="HI19" s="34"/>
-      <c r="HJ19" s="34"/>
-      <c r="HK19" s="34"/>
-      <c r="HL19" s="34"/>
-      <c r="HM19" s="34"/>
-      <c r="HN19" s="34"/>
-      <c r="HO19" s="34"/>
-      <c r="HP19" s="34"/>
-      <c r="HQ19" s="34"/>
-      <c r="HR19" s="34"/>
-      <c r="HS19" s="34"/>
-      <c r="HT19" s="34"/>
-      <c r="HU19" s="34"/>
-      <c r="HV19" s="34"/>
-      <c r="HW19" s="34"/>
-      <c r="HX19" s="34"/>
-      <c r="HY19" s="34"/>
-      <c r="HZ19" s="34"/>
-      <c r="IA19" s="34"/>
-      <c r="IB19" s="34"/>
-      <c r="IC19" s="34"/>
-      <c r="ID19" s="34"/>
-      <c r="IE19" s="34"/>
-      <c r="IF19" s="34"/>
-      <c r="IG19" s="34"/>
-      <c r="IH19" s="34"/>
-      <c r="II19" s="34"/>
-      <c r="IJ19" s="34"/>
-      <c r="IK19" s="34"/>
-      <c r="IL19" s="34"/>
-      <c r="IM19" s="34"/>
-      <c r="IN19" s="34"/>
-      <c r="IO19" s="34"/>
-      <c r="IP19" s="34"/>
-      <c r="IQ19" s="34"/>
-      <c r="IR19" s="34"/>
-      <c r="IS19" s="34"/>
-      <c r="IT19" s="34"/>
-      <c r="IU19" s="34"/>
-    </row>
-    <row r="20" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.1</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="149">
-        <v>1</v>
-      </c>
-      <c r="D20" s="89"/>
-      <c r="E20" s="87">
-        <f>E21-14</f>
-        <v>45415</v>
-      </c>
       <c r="F20" s="84">
         <f t="shared" ref="F20" si="267">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>45415</v>
+        <v>45429</v>
       </c>
       <c r="G20" s="45">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H20" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="102">
         <f t="shared" ref="I20" si="268">IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="34"/>
@@ -10602,21 +10602,22 @@
     <row r="21" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.2</v>
+        <v>2.1.1</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C21" s="149">
         <v>1</v>
       </c>
       <c r="D21" s="89"/>
       <c r="E21" s="87">
-        <v>45429</v>
+        <f>E22-14</f>
+        <v>45415</v>
       </c>
       <c r="F21" s="84">
-        <f>IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>45429</v>
+        <f t="shared" ref="F21" si="269">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
+        <v>45415</v>
       </c>
       <c r="G21" s="45">
         <v>1</v>
@@ -10625,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="102">
-        <f>IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
+        <f t="shared" ref="I21" si="270">IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
         <v>1</v>
       </c>
       <c r="J21" s="94"/>
@@ -10875,572 +10876,571 @@
       <c r="IT21" s="34"/>
       <c r="IU21" s="34"/>
     </row>
-    <row r="22" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="str">
+    <row r="22" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.2</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="149">
+        <v>1</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="87">
+        <v>45429</v>
+      </c>
+      <c r="F22" s="84">
+        <f>IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
+        <v>45429</v>
+      </c>
+      <c r="G22" s="45">
+        <v>1</v>
+      </c>
+      <c r="H22" s="46">
+        <v>1</v>
+      </c>
+      <c r="I22" s="102">
+        <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="34"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="34"/>
+      <c r="AX22" s="34"/>
+      <c r="AY22" s="34"/>
+      <c r="AZ22" s="34"/>
+      <c r="BA22" s="34"/>
+      <c r="BB22" s="34"/>
+      <c r="BC22" s="34"/>
+      <c r="BD22" s="34"/>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="34"/>
+      <c r="BH22" s="34"/>
+      <c r="BI22" s="34"/>
+      <c r="BJ22" s="34"/>
+      <c r="BK22" s="34"/>
+      <c r="BL22" s="34"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="34"/>
+      <c r="BO22" s="34"/>
+      <c r="BP22" s="34"/>
+      <c r="BQ22" s="34"/>
+      <c r="BR22" s="34"/>
+      <c r="BS22" s="34"/>
+      <c r="BT22" s="34"/>
+      <c r="BU22" s="34"/>
+      <c r="BV22" s="34"/>
+      <c r="BW22" s="34"/>
+      <c r="BX22" s="34"/>
+      <c r="BY22" s="34"/>
+      <c r="BZ22" s="34"/>
+      <c r="CA22" s="34"/>
+      <c r="CB22" s="34"/>
+      <c r="CC22" s="34"/>
+      <c r="CD22" s="34"/>
+      <c r="CE22" s="34"/>
+      <c r="CF22" s="34"/>
+      <c r="CG22" s="34"/>
+      <c r="CH22" s="34"/>
+      <c r="CI22" s="34"/>
+      <c r="CJ22" s="34"/>
+      <c r="CK22" s="34"/>
+      <c r="CL22" s="34"/>
+      <c r="CM22" s="34"/>
+      <c r="CN22" s="34"/>
+      <c r="CO22" s="34"/>
+      <c r="CP22" s="34"/>
+      <c r="CQ22" s="34"/>
+      <c r="CR22" s="34"/>
+      <c r="CS22" s="34"/>
+      <c r="CT22" s="34"/>
+      <c r="CU22" s="34"/>
+      <c r="CV22" s="34"/>
+      <c r="CW22" s="34"/>
+      <c r="CX22" s="34"/>
+      <c r="CY22" s="34"/>
+      <c r="CZ22" s="34"/>
+      <c r="DA22" s="34"/>
+      <c r="DB22" s="34"/>
+      <c r="DC22" s="34"/>
+      <c r="DD22" s="34"/>
+      <c r="DE22" s="34"/>
+      <c r="DF22" s="34"/>
+      <c r="DG22" s="34"/>
+      <c r="DH22" s="34"/>
+      <c r="DI22" s="34"/>
+      <c r="DJ22" s="34"/>
+      <c r="DK22" s="34"/>
+      <c r="DL22" s="34"/>
+      <c r="DM22" s="34"/>
+      <c r="DN22" s="34"/>
+      <c r="DO22" s="34"/>
+      <c r="DP22" s="34"/>
+      <c r="DQ22" s="34"/>
+      <c r="DR22" s="34"/>
+      <c r="DS22" s="34"/>
+      <c r="DT22" s="34"/>
+      <c r="DU22" s="34"/>
+      <c r="DV22" s="34"/>
+      <c r="DW22" s="34"/>
+      <c r="DX22" s="34"/>
+      <c r="DY22" s="34"/>
+      <c r="DZ22" s="34"/>
+      <c r="EA22" s="34"/>
+      <c r="EB22" s="34"/>
+      <c r="EC22" s="34"/>
+      <c r="ED22" s="34"/>
+      <c r="EE22" s="34"/>
+      <c r="EF22" s="34"/>
+      <c r="EG22" s="34"/>
+      <c r="EH22" s="34"/>
+      <c r="EI22" s="34"/>
+      <c r="EJ22" s="34"/>
+      <c r="EK22" s="34"/>
+      <c r="EL22" s="34"/>
+      <c r="EM22" s="34"/>
+      <c r="EN22" s="34"/>
+      <c r="EO22" s="34"/>
+      <c r="EP22" s="34"/>
+      <c r="EQ22" s="34"/>
+      <c r="ER22" s="34"/>
+      <c r="ES22" s="34"/>
+      <c r="ET22" s="34"/>
+      <c r="EU22" s="34"/>
+      <c r="EV22" s="34"/>
+      <c r="EW22" s="34"/>
+      <c r="EX22" s="34"/>
+      <c r="EY22" s="34"/>
+      <c r="EZ22" s="34"/>
+      <c r="FA22" s="34"/>
+      <c r="FB22" s="34"/>
+      <c r="FC22" s="34"/>
+      <c r="FD22" s="34"/>
+      <c r="FE22" s="34"/>
+      <c r="FF22" s="34"/>
+      <c r="FG22" s="34"/>
+      <c r="FH22" s="34"/>
+      <c r="FI22" s="34"/>
+      <c r="FJ22" s="34"/>
+      <c r="FK22" s="34"/>
+      <c r="FL22" s="34"/>
+      <c r="FM22" s="34"/>
+      <c r="FN22" s="34"/>
+      <c r="FO22" s="34"/>
+      <c r="FP22" s="34"/>
+      <c r="FQ22" s="34"/>
+      <c r="FR22" s="34"/>
+      <c r="FS22" s="34"/>
+      <c r="FT22" s="34"/>
+      <c r="FU22" s="34"/>
+      <c r="FV22" s="34"/>
+      <c r="FW22" s="34"/>
+      <c r="FX22" s="34"/>
+      <c r="FY22" s="34"/>
+      <c r="FZ22" s="34"/>
+      <c r="GA22" s="34"/>
+      <c r="GB22" s="34"/>
+      <c r="GC22" s="34"/>
+      <c r="GD22" s="34"/>
+      <c r="GE22" s="34"/>
+      <c r="GF22" s="34"/>
+      <c r="GG22" s="34"/>
+      <c r="GH22" s="34"/>
+      <c r="GI22" s="34"/>
+      <c r="GJ22" s="34"/>
+      <c r="GK22" s="34"/>
+      <c r="GL22" s="34"/>
+      <c r="GM22" s="34"/>
+      <c r="GN22" s="34"/>
+      <c r="GO22" s="34"/>
+      <c r="GP22" s="34"/>
+      <c r="GQ22" s="34"/>
+      <c r="GR22" s="34"/>
+      <c r="GS22" s="34"/>
+      <c r="GT22" s="34"/>
+      <c r="GU22" s="34"/>
+      <c r="GV22" s="34"/>
+      <c r="GW22" s="34"/>
+      <c r="GX22" s="34"/>
+      <c r="GY22" s="34"/>
+      <c r="GZ22" s="34"/>
+      <c r="HA22" s="34"/>
+      <c r="HB22" s="34"/>
+      <c r="HC22" s="34"/>
+      <c r="HD22" s="34"/>
+      <c r="HE22" s="34"/>
+      <c r="HF22" s="34"/>
+      <c r="HG22" s="34"/>
+      <c r="HH22" s="34"/>
+      <c r="HI22" s="34"/>
+      <c r="HJ22" s="34"/>
+      <c r="HK22" s="34"/>
+      <c r="HL22" s="34"/>
+      <c r="HM22" s="34"/>
+      <c r="HN22" s="34"/>
+      <c r="HO22" s="34"/>
+      <c r="HP22" s="34"/>
+      <c r="HQ22" s="34"/>
+      <c r="HR22" s="34"/>
+      <c r="HS22" s="34"/>
+      <c r="HT22" s="34"/>
+      <c r="HU22" s="34"/>
+      <c r="HV22" s="34"/>
+      <c r="HW22" s="34"/>
+      <c r="HX22" s="34"/>
+      <c r="HY22" s="34"/>
+      <c r="HZ22" s="34"/>
+      <c r="IA22" s="34"/>
+      <c r="IB22" s="34"/>
+      <c r="IC22" s="34"/>
+      <c r="ID22" s="34"/>
+      <c r="IE22" s="34"/>
+      <c r="IF22" s="34"/>
+      <c r="IG22" s="34"/>
+      <c r="IH22" s="34"/>
+      <c r="II22" s="34"/>
+      <c r="IJ22" s="34"/>
+      <c r="IK22" s="34"/>
+      <c r="IL22" s="34"/>
+      <c r="IM22" s="34"/>
+      <c r="IN22" s="34"/>
+      <c r="IO22" s="34"/>
+      <c r="IP22" s="34"/>
+      <c r="IQ22" s="34"/>
+      <c r="IR22" s="34"/>
+      <c r="IS22" s="34"/>
+      <c r="IT22" s="34"/>
+      <c r="IU22" s="34"/>
+    </row>
+    <row r="23" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B23" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="151"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="36"/>
-      <c r="AZ22" s="36"/>
-      <c r="BA22" s="36"/>
-      <c r="BB22" s="36"/>
-      <c r="BC22" s="36"/>
-      <c r="BD22" s="36"/>
-      <c r="BE22" s="36"/>
-      <c r="BF22" s="36"/>
-      <c r="BG22" s="36"/>
-      <c r="BH22" s="36"/>
-      <c r="BI22" s="36"/>
-      <c r="BJ22" s="36"/>
-      <c r="BK22" s="36"/>
-      <c r="BL22" s="36"/>
-      <c r="BM22" s="36"/>
-      <c r="BN22" s="36"/>
-      <c r="BO22" s="36"/>
-      <c r="BP22" s="36"/>
-      <c r="BQ22" s="36"/>
-      <c r="BR22" s="36"/>
-      <c r="BS22" s="36"/>
-      <c r="BT22" s="36"/>
-      <c r="BU22" s="36"/>
-      <c r="BV22" s="36"/>
-      <c r="BW22" s="36"/>
-      <c r="BX22" s="36"/>
-      <c r="BY22" s="36"/>
-      <c r="BZ22" s="36"/>
-      <c r="CA22" s="36"/>
-      <c r="CB22" s="36"/>
-      <c r="CC22" s="36"/>
-      <c r="CD22" s="36"/>
-      <c r="CE22" s="36"/>
-      <c r="CF22" s="36"/>
-      <c r="CG22" s="36"/>
-      <c r="CH22" s="36"/>
-      <c r="CI22" s="36"/>
-      <c r="CJ22" s="36"/>
-      <c r="CK22" s="36"/>
-      <c r="CL22" s="36"/>
-      <c r="CM22" s="36"/>
-      <c r="CN22" s="36"/>
-      <c r="CO22" s="36"/>
-      <c r="CP22" s="36"/>
-      <c r="CQ22" s="36"/>
-      <c r="CR22" s="36"/>
-      <c r="CS22" s="36"/>
-      <c r="CT22" s="36"/>
-      <c r="CU22" s="36"/>
-      <c r="CV22" s="36"/>
-      <c r="CW22" s="36"/>
-      <c r="CX22" s="36"/>
-      <c r="CY22" s="36"/>
-      <c r="CZ22" s="36"/>
-      <c r="DA22" s="36"/>
-      <c r="DB22" s="36"/>
-      <c r="DC22" s="36"/>
-      <c r="DD22" s="36"/>
-      <c r="DE22" s="36"/>
-      <c r="DF22" s="36"/>
-      <c r="DG22" s="36"/>
-      <c r="DH22" s="36"/>
-      <c r="DI22" s="36"/>
-      <c r="DJ22" s="36"/>
-      <c r="DK22" s="36"/>
-      <c r="DL22" s="36"/>
-      <c r="DM22" s="36"/>
-      <c r="DN22" s="36"/>
-      <c r="DO22" s="36"/>
-      <c r="DP22" s="36"/>
-      <c r="DQ22" s="36"/>
-      <c r="DR22" s="36"/>
-      <c r="DS22" s="36"/>
-      <c r="DT22" s="36"/>
-      <c r="DU22" s="36"/>
-      <c r="DV22" s="36"/>
-      <c r="DW22" s="36"/>
-      <c r="DX22" s="36"/>
-      <c r="DY22" s="36"/>
-      <c r="DZ22" s="36"/>
-      <c r="EA22" s="36"/>
-      <c r="EB22" s="36"/>
-      <c r="EC22" s="36"/>
-      <c r="ED22" s="36"/>
-      <c r="EE22" s="36"/>
-      <c r="EF22" s="36"/>
-      <c r="EG22" s="36"/>
-      <c r="EH22" s="36"/>
-      <c r="EI22" s="36"/>
-      <c r="EJ22" s="36"/>
-      <c r="EK22" s="36"/>
-      <c r="EL22" s="36"/>
-      <c r="EM22" s="36"/>
-      <c r="EN22" s="36"/>
-      <c r="EO22" s="36"/>
-      <c r="EP22" s="36"/>
-      <c r="EQ22" s="36"/>
-      <c r="ER22" s="36"/>
-      <c r="ES22" s="36"/>
-      <c r="ET22" s="36"/>
-      <c r="EU22" s="36"/>
-      <c r="EV22" s="36"/>
-      <c r="EW22" s="36"/>
-      <c r="EX22" s="36"/>
-      <c r="EY22" s="36"/>
-      <c r="EZ22" s="36"/>
-      <c r="FA22" s="36"/>
-      <c r="FB22" s="36"/>
-      <c r="FC22" s="36"/>
-      <c r="FD22" s="36"/>
-      <c r="FE22" s="36"/>
-      <c r="FF22" s="36"/>
-      <c r="FG22" s="36"/>
-      <c r="FH22" s="36"/>
-      <c r="FI22" s="36"/>
-      <c r="FJ22" s="36"/>
-      <c r="FK22" s="36"/>
-      <c r="FL22" s="36"/>
-      <c r="FM22" s="36"/>
-      <c r="FN22" s="36"/>
-      <c r="FO22" s="36"/>
-      <c r="FP22" s="36"/>
-      <c r="FQ22" s="36"/>
-      <c r="FR22" s="36"/>
-      <c r="FS22" s="36"/>
-      <c r="FT22" s="36"/>
-      <c r="FU22" s="36"/>
-      <c r="FV22" s="36"/>
-      <c r="FW22" s="36"/>
-      <c r="FX22" s="36"/>
-      <c r="FY22" s="36"/>
-      <c r="FZ22" s="36"/>
-      <c r="GA22" s="36"/>
-      <c r="GB22" s="36"/>
-      <c r="GC22" s="36"/>
-      <c r="GD22" s="36"/>
-      <c r="GE22" s="36"/>
-      <c r="GF22" s="36"/>
-      <c r="GG22" s="36"/>
-      <c r="GH22" s="36"/>
-      <c r="GI22" s="36"/>
-      <c r="GJ22" s="36"/>
-      <c r="GK22" s="36"/>
-      <c r="GL22" s="36"/>
-      <c r="GM22" s="36"/>
-      <c r="GN22" s="36"/>
-      <c r="GO22" s="36"/>
-      <c r="GP22" s="36"/>
-      <c r="GQ22" s="36"/>
-      <c r="GR22" s="36"/>
-      <c r="GS22" s="36"/>
-      <c r="GT22" s="36"/>
-      <c r="GU22" s="36"/>
-      <c r="GV22" s="36"/>
-      <c r="GW22" s="36"/>
-      <c r="GX22" s="36"/>
-      <c r="GY22" s="36"/>
-      <c r="GZ22" s="36"/>
-      <c r="HA22" s="36"/>
-      <c r="HB22" s="36"/>
-      <c r="HC22" s="36"/>
-      <c r="HD22" s="36"/>
-      <c r="HE22" s="36"/>
-      <c r="HF22" s="36"/>
-      <c r="HG22" s="36"/>
-      <c r="HH22" s="36"/>
-      <c r="HI22" s="36"/>
-      <c r="HJ22" s="36"/>
-      <c r="HK22" s="36"/>
-      <c r="HL22" s="36"/>
-      <c r="HM22" s="36"/>
-      <c r="HN22" s="36"/>
-      <c r="HO22" s="36"/>
-      <c r="HP22" s="36"/>
-      <c r="HQ22" s="36"/>
-      <c r="HR22" s="36"/>
-      <c r="HS22" s="36"/>
-      <c r="HT22" s="36"/>
-      <c r="HU22" s="36"/>
-      <c r="HV22" s="36"/>
-      <c r="HW22" s="36"/>
-      <c r="HX22" s="36"/>
-      <c r="HY22" s="36"/>
-      <c r="HZ22" s="36"/>
-      <c r="IA22" s="36"/>
-      <c r="IB22" s="36"/>
-      <c r="IC22" s="36"/>
-      <c r="ID22" s="36"/>
-      <c r="IE22" s="36"/>
-      <c r="IF22" s="36"/>
-      <c r="IG22" s="36"/>
-      <c r="IH22" s="36"/>
-      <c r="II22" s="36"/>
-      <c r="IJ22" s="36"/>
-      <c r="IK22" s="36"/>
-      <c r="IL22" s="36"/>
-      <c r="IM22" s="36"/>
-      <c r="IN22" s="36"/>
-      <c r="IO22" s="36"/>
-      <c r="IP22" s="36"/>
-      <c r="IQ22" s="36"/>
-      <c r="IR22" s="36"/>
-      <c r="IS22" s="36"/>
-      <c r="IT22" s="36"/>
-      <c r="IU22" s="36"/>
-    </row>
-    <row r="23" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="91" t="str">
+      <c r="C23" s="151"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="36"/>
+      <c r="AO23" s="36"/>
+      <c r="AP23" s="36"/>
+      <c r="AQ23" s="36"/>
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="36"/>
+      <c r="AY23" s="36"/>
+      <c r="AZ23" s="36"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="36"/>
+      <c r="BC23" s="36"/>
+      <c r="BD23" s="36"/>
+      <c r="BE23" s="36"/>
+      <c r="BF23" s="36"/>
+      <c r="BG23" s="36"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="36"/>
+      <c r="BJ23" s="36"/>
+      <c r="BK23" s="36"/>
+      <c r="BL23" s="36"/>
+      <c r="BM23" s="36"/>
+      <c r="BN23" s="36"/>
+      <c r="BO23" s="36"/>
+      <c r="BP23" s="36"/>
+      <c r="BQ23" s="36"/>
+      <c r="BR23" s="36"/>
+      <c r="BS23" s="36"/>
+      <c r="BT23" s="36"/>
+      <c r="BU23" s="36"/>
+      <c r="BV23" s="36"/>
+      <c r="BW23" s="36"/>
+      <c r="BX23" s="36"/>
+      <c r="BY23" s="36"/>
+      <c r="BZ23" s="36"/>
+      <c r="CA23" s="36"/>
+      <c r="CB23" s="36"/>
+      <c r="CC23" s="36"/>
+      <c r="CD23" s="36"/>
+      <c r="CE23" s="36"/>
+      <c r="CF23" s="36"/>
+      <c r="CG23" s="36"/>
+      <c r="CH23" s="36"/>
+      <c r="CI23" s="36"/>
+      <c r="CJ23" s="36"/>
+      <c r="CK23" s="36"/>
+      <c r="CL23" s="36"/>
+      <c r="CM23" s="36"/>
+      <c r="CN23" s="36"/>
+      <c r="CO23" s="36"/>
+      <c r="CP23" s="36"/>
+      <c r="CQ23" s="36"/>
+      <c r="CR23" s="36"/>
+      <c r="CS23" s="36"/>
+      <c r="CT23" s="36"/>
+      <c r="CU23" s="36"/>
+      <c r="CV23" s="36"/>
+      <c r="CW23" s="36"/>
+      <c r="CX23" s="36"/>
+      <c r="CY23" s="36"/>
+      <c r="CZ23" s="36"/>
+      <c r="DA23" s="36"/>
+      <c r="DB23" s="36"/>
+      <c r="DC23" s="36"/>
+      <c r="DD23" s="36"/>
+      <c r="DE23" s="36"/>
+      <c r="DF23" s="36"/>
+      <c r="DG23" s="36"/>
+      <c r="DH23" s="36"/>
+      <c r="DI23" s="36"/>
+      <c r="DJ23" s="36"/>
+      <c r="DK23" s="36"/>
+      <c r="DL23" s="36"/>
+      <c r="DM23" s="36"/>
+      <c r="DN23" s="36"/>
+      <c r="DO23" s="36"/>
+      <c r="DP23" s="36"/>
+      <c r="DQ23" s="36"/>
+      <c r="DR23" s="36"/>
+      <c r="DS23" s="36"/>
+      <c r="DT23" s="36"/>
+      <c r="DU23" s="36"/>
+      <c r="DV23" s="36"/>
+      <c r="DW23" s="36"/>
+      <c r="DX23" s="36"/>
+      <c r="DY23" s="36"/>
+      <c r="DZ23" s="36"/>
+      <c r="EA23" s="36"/>
+      <c r="EB23" s="36"/>
+      <c r="EC23" s="36"/>
+      <c r="ED23" s="36"/>
+      <c r="EE23" s="36"/>
+      <c r="EF23" s="36"/>
+      <c r="EG23" s="36"/>
+      <c r="EH23" s="36"/>
+      <c r="EI23" s="36"/>
+      <c r="EJ23" s="36"/>
+      <c r="EK23" s="36"/>
+      <c r="EL23" s="36"/>
+      <c r="EM23" s="36"/>
+      <c r="EN23" s="36"/>
+      <c r="EO23" s="36"/>
+      <c r="EP23" s="36"/>
+      <c r="EQ23" s="36"/>
+      <c r="ER23" s="36"/>
+      <c r="ES23" s="36"/>
+      <c r="ET23" s="36"/>
+      <c r="EU23" s="36"/>
+      <c r="EV23" s="36"/>
+      <c r="EW23" s="36"/>
+      <c r="EX23" s="36"/>
+      <c r="EY23" s="36"/>
+      <c r="EZ23" s="36"/>
+      <c r="FA23" s="36"/>
+      <c r="FB23" s="36"/>
+      <c r="FC23" s="36"/>
+      <c r="FD23" s="36"/>
+      <c r="FE23" s="36"/>
+      <c r="FF23" s="36"/>
+      <c r="FG23" s="36"/>
+      <c r="FH23" s="36"/>
+      <c r="FI23" s="36"/>
+      <c r="FJ23" s="36"/>
+      <c r="FK23" s="36"/>
+      <c r="FL23" s="36"/>
+      <c r="FM23" s="36"/>
+      <c r="FN23" s="36"/>
+      <c r="FO23" s="36"/>
+      <c r="FP23" s="36"/>
+      <c r="FQ23" s="36"/>
+      <c r="FR23" s="36"/>
+      <c r="FS23" s="36"/>
+      <c r="FT23" s="36"/>
+      <c r="FU23" s="36"/>
+      <c r="FV23" s="36"/>
+      <c r="FW23" s="36"/>
+      <c r="FX23" s="36"/>
+      <c r="FY23" s="36"/>
+      <c r="FZ23" s="36"/>
+      <c r="GA23" s="36"/>
+      <c r="GB23" s="36"/>
+      <c r="GC23" s="36"/>
+      <c r="GD23" s="36"/>
+      <c r="GE23" s="36"/>
+      <c r="GF23" s="36"/>
+      <c r="GG23" s="36"/>
+      <c r="GH23" s="36"/>
+      <c r="GI23" s="36"/>
+      <c r="GJ23" s="36"/>
+      <c r="GK23" s="36"/>
+      <c r="GL23" s="36"/>
+      <c r="GM23" s="36"/>
+      <c r="GN23" s="36"/>
+      <c r="GO23" s="36"/>
+      <c r="GP23" s="36"/>
+      <c r="GQ23" s="36"/>
+      <c r="GR23" s="36"/>
+      <c r="GS23" s="36"/>
+      <c r="GT23" s="36"/>
+      <c r="GU23" s="36"/>
+      <c r="GV23" s="36"/>
+      <c r="GW23" s="36"/>
+      <c r="GX23" s="36"/>
+      <c r="GY23" s="36"/>
+      <c r="GZ23" s="36"/>
+      <c r="HA23" s="36"/>
+      <c r="HB23" s="36"/>
+      <c r="HC23" s="36"/>
+      <c r="HD23" s="36"/>
+      <c r="HE23" s="36"/>
+      <c r="HF23" s="36"/>
+      <c r="HG23" s="36"/>
+      <c r="HH23" s="36"/>
+      <c r="HI23" s="36"/>
+      <c r="HJ23" s="36"/>
+      <c r="HK23" s="36"/>
+      <c r="HL23" s="36"/>
+      <c r="HM23" s="36"/>
+      <c r="HN23" s="36"/>
+      <c r="HO23" s="36"/>
+      <c r="HP23" s="36"/>
+      <c r="HQ23" s="36"/>
+      <c r="HR23" s="36"/>
+      <c r="HS23" s="36"/>
+      <c r="HT23" s="36"/>
+      <c r="HU23" s="36"/>
+      <c r="HV23" s="36"/>
+      <c r="HW23" s="36"/>
+      <c r="HX23" s="36"/>
+      <c r="HY23" s="36"/>
+      <c r="HZ23" s="36"/>
+      <c r="IA23" s="36"/>
+      <c r="IB23" s="36"/>
+      <c r="IC23" s="36"/>
+      <c r="ID23" s="36"/>
+      <c r="IE23" s="36"/>
+      <c r="IF23" s="36"/>
+      <c r="IG23" s="36"/>
+      <c r="IH23" s="36"/>
+      <c r="II23" s="36"/>
+      <c r="IJ23" s="36"/>
+      <c r="IK23" s="36"/>
+      <c r="IL23" s="36"/>
+      <c r="IM23" s="36"/>
+      <c r="IN23" s="36"/>
+      <c r="IO23" s="36"/>
+      <c r="IP23" s="36"/>
+      <c r="IQ23" s="36"/>
+      <c r="IR23" s="36"/>
+      <c r="IS23" s="36"/>
+      <c r="IT23" s="36"/>
+      <c r="IU23" s="36"/>
+    </row>
+    <row r="24" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B24" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="150"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="87">
-        <f>$F$19+1</f>
-        <v>45430</v>
-      </c>
-      <c r="F23" s="84">
-        <f t="shared" ref="F23" si="269">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
-        <v>45499</v>
-      </c>
-      <c r="G23" s="45">
-        <v>70</v>
-      </c>
-      <c r="H23" s="46">
-        <v>0</v>
-      </c>
-      <c r="I23" s="102">
-        <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>50</v>
-      </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="34"/>
-      <c r="AX23" s="34"/>
-      <c r="AY23" s="34"/>
-      <c r="AZ23" s="34"/>
-      <c r="BA23" s="34"/>
-      <c r="BB23" s="34"/>
-      <c r="BC23" s="34"/>
-      <c r="BD23" s="34"/>
-      <c r="BE23" s="34"/>
-      <c r="BF23" s="34"/>
-      <c r="BG23" s="34"/>
-      <c r="BH23" s="34"/>
-      <c r="BI23" s="34"/>
-      <c r="BJ23" s="34"/>
-      <c r="BK23" s="34"/>
-      <c r="BL23" s="34"/>
-      <c r="BM23" s="34"/>
-      <c r="BN23" s="34"/>
-      <c r="BO23" s="34"/>
-      <c r="BP23" s="34"/>
-      <c r="BQ23" s="34"/>
-      <c r="BR23" s="34"/>
-      <c r="BS23" s="34"/>
-      <c r="BT23" s="34"/>
-      <c r="BU23" s="34"/>
-      <c r="BV23" s="34"/>
-      <c r="BW23" s="34"/>
-      <c r="BX23" s="34"/>
-      <c r="BY23" s="34"/>
-      <c r="BZ23" s="34"/>
-      <c r="CA23" s="34"/>
-      <c r="CB23" s="34"/>
-      <c r="CC23" s="34"/>
-      <c r="CD23" s="34"/>
-      <c r="CE23" s="34"/>
-      <c r="CF23" s="34"/>
-      <c r="CG23" s="34"/>
-      <c r="CH23" s="34"/>
-      <c r="CI23" s="34"/>
-      <c r="CJ23" s="34"/>
-      <c r="CK23" s="34"/>
-      <c r="CL23" s="34"/>
-      <c r="CM23" s="34"/>
-      <c r="CN23" s="34"/>
-      <c r="CO23" s="34"/>
-      <c r="CP23" s="34"/>
-      <c r="CQ23" s="34"/>
-      <c r="CR23" s="34"/>
-      <c r="CS23" s="34"/>
-      <c r="CT23" s="34"/>
-      <c r="CU23" s="34"/>
-      <c r="CV23" s="34"/>
-      <c r="CW23" s="34"/>
-      <c r="CX23" s="34"/>
-      <c r="CY23" s="34"/>
-      <c r="CZ23" s="34"/>
-      <c r="DA23" s="34"/>
-      <c r="DB23" s="34"/>
-      <c r="DC23" s="34"/>
-      <c r="DD23" s="34"/>
-      <c r="DE23" s="34"/>
-      <c r="DF23" s="34"/>
-      <c r="DG23" s="34"/>
-      <c r="DH23" s="34"/>
-      <c r="DI23" s="34"/>
-      <c r="DJ23" s="34"/>
-      <c r="DK23" s="34"/>
-      <c r="DL23" s="34"/>
-      <c r="DM23" s="34"/>
-      <c r="DN23" s="34"/>
-      <c r="DO23" s="34"/>
-      <c r="DP23" s="34"/>
-      <c r="DQ23" s="34"/>
-      <c r="DR23" s="34"/>
-      <c r="DS23" s="34"/>
-      <c r="DT23" s="34"/>
-      <c r="DU23" s="34"/>
-      <c r="DV23" s="34"/>
-      <c r="DW23" s="34"/>
-      <c r="DX23" s="34"/>
-      <c r="DY23" s="34"/>
-      <c r="DZ23" s="34"/>
-      <c r="EA23" s="34"/>
-      <c r="EB23" s="34"/>
-      <c r="EC23" s="34"/>
-      <c r="ED23" s="34"/>
-      <c r="EE23" s="34"/>
-      <c r="EF23" s="34"/>
-      <c r="EG23" s="34"/>
-      <c r="EH23" s="34"/>
-      <c r="EI23" s="34"/>
-      <c r="EJ23" s="34"/>
-      <c r="EK23" s="34"/>
-      <c r="EL23" s="34"/>
-      <c r="EM23" s="34"/>
-      <c r="EN23" s="34"/>
-      <c r="EO23" s="34"/>
-      <c r="EP23" s="34"/>
-      <c r="EQ23" s="34"/>
-      <c r="ER23" s="34"/>
-      <c r="ES23" s="34"/>
-      <c r="ET23" s="34"/>
-      <c r="EU23" s="34"/>
-      <c r="EV23" s="34"/>
-      <c r="EW23" s="34"/>
-      <c r="EX23" s="34"/>
-      <c r="EY23" s="34"/>
-      <c r="EZ23" s="34"/>
-      <c r="FA23" s="34"/>
-      <c r="FB23" s="34"/>
-      <c r="FC23" s="34"/>
-      <c r="FD23" s="34"/>
-      <c r="FE23" s="34"/>
-      <c r="FF23" s="34"/>
-      <c r="FG23" s="34"/>
-      <c r="FH23" s="34"/>
-      <c r="FI23" s="34"/>
-      <c r="FJ23" s="34"/>
-      <c r="FK23" s="34"/>
-      <c r="FL23" s="34"/>
-      <c r="FM23" s="34"/>
-      <c r="FN23" s="34"/>
-      <c r="FO23" s="34"/>
-      <c r="FP23" s="34"/>
-      <c r="FQ23" s="34"/>
-      <c r="FR23" s="34"/>
-      <c r="FS23" s="34"/>
-      <c r="FT23" s="34"/>
-      <c r="FU23" s="34"/>
-      <c r="FV23" s="34"/>
-      <c r="FW23" s="34"/>
-      <c r="FX23" s="34"/>
-      <c r="FY23" s="34"/>
-      <c r="FZ23" s="34"/>
-      <c r="GA23" s="34"/>
-      <c r="GB23" s="34"/>
-      <c r="GC23" s="34"/>
-      <c r="GD23" s="34"/>
-      <c r="GE23" s="34"/>
-      <c r="GF23" s="34"/>
-      <c r="GG23" s="34"/>
-      <c r="GH23" s="34"/>
-      <c r="GI23" s="34"/>
-      <c r="GJ23" s="34"/>
-      <c r="GK23" s="34"/>
-      <c r="GL23" s="34"/>
-      <c r="GM23" s="34"/>
-      <c r="GN23" s="34"/>
-      <c r="GO23" s="34"/>
-      <c r="GP23" s="34"/>
-      <c r="GQ23" s="34"/>
-      <c r="GR23" s="34"/>
-      <c r="GS23" s="34"/>
-      <c r="GT23" s="34"/>
-      <c r="GU23" s="34"/>
-      <c r="GV23" s="34"/>
-      <c r="GW23" s="34"/>
-      <c r="GX23" s="34"/>
-      <c r="GY23" s="34"/>
-      <c r="GZ23" s="34"/>
-      <c r="HA23" s="34"/>
-      <c r="HB23" s="34"/>
-      <c r="HC23" s="34"/>
-      <c r="HD23" s="34"/>
-      <c r="HE23" s="34"/>
-      <c r="HF23" s="34"/>
-      <c r="HG23" s="34"/>
-      <c r="HH23" s="34"/>
-      <c r="HI23" s="34"/>
-      <c r="HJ23" s="34"/>
-      <c r="HK23" s="34"/>
-      <c r="HL23" s="34"/>
-      <c r="HM23" s="34"/>
-      <c r="HN23" s="34"/>
-      <c r="HO23" s="34"/>
-      <c r="HP23" s="34"/>
-      <c r="HQ23" s="34"/>
-      <c r="HR23" s="34"/>
-      <c r="HS23" s="34"/>
-      <c r="HT23" s="34"/>
-      <c r="HU23" s="34"/>
-      <c r="HV23" s="34"/>
-      <c r="HW23" s="34"/>
-      <c r="HX23" s="34"/>
-      <c r="HY23" s="34"/>
-      <c r="HZ23" s="34"/>
-      <c r="IA23" s="34"/>
-      <c r="IB23" s="34"/>
-      <c r="IC23" s="34"/>
-      <c r="ID23" s="34"/>
-      <c r="IE23" s="34"/>
-      <c r="IF23" s="34"/>
-      <c r="IG23" s="34"/>
-      <c r="IH23" s="34"/>
-      <c r="II23" s="34"/>
-      <c r="IJ23" s="34"/>
-      <c r="IK23" s="34"/>
-      <c r="IL23" s="34"/>
-      <c r="IM23" s="34"/>
-      <c r="IN23" s="34"/>
-      <c r="IO23" s="34"/>
-      <c r="IP23" s="34"/>
-      <c r="IQ23" s="34"/>
-      <c r="IR23" s="34"/>
-      <c r="IS23" s="34"/>
-      <c r="IT23" s="34"/>
-      <c r="IU23" s="34"/>
-    </row>
-    <row r="24" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="150">
-        <v>1</v>
-      </c>
+      <c r="C24" s="150"/>
       <c r="D24" s="33"/>
       <c r="E24" s="87">
-        <f>E25-14</f>
-        <v>45485</v>
+        <f>$F$20+1</f>
+        <v>45430</v>
       </c>
       <c r="F24" s="84">
-        <f t="shared" ref="F24" si="270">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v>45485</v>
+        <f t="shared" ref="F24" si="271">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <v>45499</v>
       </c>
       <c r="G24" s="45">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H24" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="102">
         <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="34"/>
@@ -11692,21 +11692,22 @@
     <row r="25" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.2</v>
+        <v>3.1.1</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="150">
         <v>1</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="87">
-        <v>45499</v>
+        <f>E26-14</f>
+        <v>45485</v>
       </c>
       <c r="F25" s="84">
-        <f t="shared" ref="F25" si="271">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v>45499</v>
+        <f t="shared" ref="F25" si="272">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
+        <v>45485</v>
       </c>
       <c r="G25" s="45">
         <v>1</v>
@@ -11965,572 +11966,571 @@
       <c r="IT25" s="34"/>
       <c r="IU25" s="34"/>
     </row>
-    <row r="26" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="92" t="str">
+    <row r="26" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.2</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="150">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="87">
+        <v>45499</v>
+      </c>
+      <c r="F26" s="84">
+        <f t="shared" ref="F26" si="273">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>45499</v>
+      </c>
+      <c r="G26" s="45">
+        <v>1</v>
+      </c>
+      <c r="H26" s="46">
+        <v>1</v>
+      </c>
+      <c r="I26" s="102">
+        <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="94"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="34"/>
+      <c r="BB26" s="34"/>
+      <c r="BC26" s="34"/>
+      <c r="BD26" s="34"/>
+      <c r="BE26" s="34"/>
+      <c r="BF26" s="34"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="34"/>
+      <c r="BI26" s="34"/>
+      <c r="BJ26" s="34"/>
+      <c r="BK26" s="34"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="34"/>
+      <c r="BR26" s="34"/>
+      <c r="BS26" s="34"/>
+      <c r="BT26" s="34"/>
+      <c r="BU26" s="34"/>
+      <c r="BV26" s="34"/>
+      <c r="BW26" s="34"/>
+      <c r="BX26" s="34"/>
+      <c r="BY26" s="34"/>
+      <c r="BZ26" s="34"/>
+      <c r="CA26" s="34"/>
+      <c r="CB26" s="34"/>
+      <c r="CC26" s="34"/>
+      <c r="CD26" s="34"/>
+      <c r="CE26" s="34"/>
+      <c r="CF26" s="34"/>
+      <c r="CG26" s="34"/>
+      <c r="CH26" s="34"/>
+      <c r="CI26" s="34"/>
+      <c r="CJ26" s="34"/>
+      <c r="CK26" s="34"/>
+      <c r="CL26" s="34"/>
+      <c r="CM26" s="34"/>
+      <c r="CN26" s="34"/>
+      <c r="CO26" s="34"/>
+      <c r="CP26" s="34"/>
+      <c r="CQ26" s="34"/>
+      <c r="CR26" s="34"/>
+      <c r="CS26" s="34"/>
+      <c r="CT26" s="34"/>
+      <c r="CU26" s="34"/>
+      <c r="CV26" s="34"/>
+      <c r="CW26" s="34"/>
+      <c r="CX26" s="34"/>
+      <c r="CY26" s="34"/>
+      <c r="CZ26" s="34"/>
+      <c r="DA26" s="34"/>
+      <c r="DB26" s="34"/>
+      <c r="DC26" s="34"/>
+      <c r="DD26" s="34"/>
+      <c r="DE26" s="34"/>
+      <c r="DF26" s="34"/>
+      <c r="DG26" s="34"/>
+      <c r="DH26" s="34"/>
+      <c r="DI26" s="34"/>
+      <c r="DJ26" s="34"/>
+      <c r="DK26" s="34"/>
+      <c r="DL26" s="34"/>
+      <c r="DM26" s="34"/>
+      <c r="DN26" s="34"/>
+      <c r="DO26" s="34"/>
+      <c r="DP26" s="34"/>
+      <c r="DQ26" s="34"/>
+      <c r="DR26" s="34"/>
+      <c r="DS26" s="34"/>
+      <c r="DT26" s="34"/>
+      <c r="DU26" s="34"/>
+      <c r="DV26" s="34"/>
+      <c r="DW26" s="34"/>
+      <c r="DX26" s="34"/>
+      <c r="DY26" s="34"/>
+      <c r="DZ26" s="34"/>
+      <c r="EA26" s="34"/>
+      <c r="EB26" s="34"/>
+      <c r="EC26" s="34"/>
+      <c r="ED26" s="34"/>
+      <c r="EE26" s="34"/>
+      <c r="EF26" s="34"/>
+      <c r="EG26" s="34"/>
+      <c r="EH26" s="34"/>
+      <c r="EI26" s="34"/>
+      <c r="EJ26" s="34"/>
+      <c r="EK26" s="34"/>
+      <c r="EL26" s="34"/>
+      <c r="EM26" s="34"/>
+      <c r="EN26" s="34"/>
+      <c r="EO26" s="34"/>
+      <c r="EP26" s="34"/>
+      <c r="EQ26" s="34"/>
+      <c r="ER26" s="34"/>
+      <c r="ES26" s="34"/>
+      <c r="ET26" s="34"/>
+      <c r="EU26" s="34"/>
+      <c r="EV26" s="34"/>
+      <c r="EW26" s="34"/>
+      <c r="EX26" s="34"/>
+      <c r="EY26" s="34"/>
+      <c r="EZ26" s="34"/>
+      <c r="FA26" s="34"/>
+      <c r="FB26" s="34"/>
+      <c r="FC26" s="34"/>
+      <c r="FD26" s="34"/>
+      <c r="FE26" s="34"/>
+      <c r="FF26" s="34"/>
+      <c r="FG26" s="34"/>
+      <c r="FH26" s="34"/>
+      <c r="FI26" s="34"/>
+      <c r="FJ26" s="34"/>
+      <c r="FK26" s="34"/>
+      <c r="FL26" s="34"/>
+      <c r="FM26" s="34"/>
+      <c r="FN26" s="34"/>
+      <c r="FO26" s="34"/>
+      <c r="FP26" s="34"/>
+      <c r="FQ26" s="34"/>
+      <c r="FR26" s="34"/>
+      <c r="FS26" s="34"/>
+      <c r="FT26" s="34"/>
+      <c r="FU26" s="34"/>
+      <c r="FV26" s="34"/>
+      <c r="FW26" s="34"/>
+      <c r="FX26" s="34"/>
+      <c r="FY26" s="34"/>
+      <c r="FZ26" s="34"/>
+      <c r="GA26" s="34"/>
+      <c r="GB26" s="34"/>
+      <c r="GC26" s="34"/>
+      <c r="GD26" s="34"/>
+      <c r="GE26" s="34"/>
+      <c r="GF26" s="34"/>
+      <c r="GG26" s="34"/>
+      <c r="GH26" s="34"/>
+      <c r="GI26" s="34"/>
+      <c r="GJ26" s="34"/>
+      <c r="GK26" s="34"/>
+      <c r="GL26" s="34"/>
+      <c r="GM26" s="34"/>
+      <c r="GN26" s="34"/>
+      <c r="GO26" s="34"/>
+      <c r="GP26" s="34"/>
+      <c r="GQ26" s="34"/>
+      <c r="GR26" s="34"/>
+      <c r="GS26" s="34"/>
+      <c r="GT26" s="34"/>
+      <c r="GU26" s="34"/>
+      <c r="GV26" s="34"/>
+      <c r="GW26" s="34"/>
+      <c r="GX26" s="34"/>
+      <c r="GY26" s="34"/>
+      <c r="GZ26" s="34"/>
+      <c r="HA26" s="34"/>
+      <c r="HB26" s="34"/>
+      <c r="HC26" s="34"/>
+      <c r="HD26" s="34"/>
+      <c r="HE26" s="34"/>
+      <c r="HF26" s="34"/>
+      <c r="HG26" s="34"/>
+      <c r="HH26" s="34"/>
+      <c r="HI26" s="34"/>
+      <c r="HJ26" s="34"/>
+      <c r="HK26" s="34"/>
+      <c r="HL26" s="34"/>
+      <c r="HM26" s="34"/>
+      <c r="HN26" s="34"/>
+      <c r="HO26" s="34"/>
+      <c r="HP26" s="34"/>
+      <c r="HQ26" s="34"/>
+      <c r="HR26" s="34"/>
+      <c r="HS26" s="34"/>
+      <c r="HT26" s="34"/>
+      <c r="HU26" s="34"/>
+      <c r="HV26" s="34"/>
+      <c r="HW26" s="34"/>
+      <c r="HX26" s="34"/>
+      <c r="HY26" s="34"/>
+      <c r="HZ26" s="34"/>
+      <c r="IA26" s="34"/>
+      <c r="IB26" s="34"/>
+      <c r="IC26" s="34"/>
+      <c r="ID26" s="34"/>
+      <c r="IE26" s="34"/>
+      <c r="IF26" s="34"/>
+      <c r="IG26" s="34"/>
+      <c r="IH26" s="34"/>
+      <c r="II26" s="34"/>
+      <c r="IJ26" s="34"/>
+      <c r="IK26" s="34"/>
+      <c r="IL26" s="34"/>
+      <c r="IM26" s="34"/>
+      <c r="IN26" s="34"/>
+      <c r="IO26" s="34"/>
+      <c r="IP26" s="34"/>
+      <c r="IQ26" s="34"/>
+      <c r="IR26" s="34"/>
+      <c r="IS26" s="34"/>
+      <c r="IT26" s="34"/>
+      <c r="IU26" s="34"/>
+    </row>
+    <row r="27" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B27" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36"/>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="36"/>
-      <c r="BD26" s="36"/>
-      <c r="BE26" s="36"/>
-      <c r="BF26" s="36"/>
-      <c r="BG26" s="36"/>
-      <c r="BH26" s="36"/>
-      <c r="BI26" s="36"/>
-      <c r="BJ26" s="36"/>
-      <c r="BK26" s="36"/>
-      <c r="BL26" s="36"/>
-      <c r="BM26" s="36"/>
-      <c r="BN26" s="36"/>
-      <c r="BO26" s="36"/>
-      <c r="BP26" s="36"/>
-      <c r="BQ26" s="36"/>
-      <c r="BR26" s="36"/>
-      <c r="BS26" s="36"/>
-      <c r="BT26" s="36"/>
-      <c r="BU26" s="36"/>
-      <c r="BV26" s="36"/>
-      <c r="BW26" s="36"/>
-      <c r="BX26" s="36"/>
-      <c r="BY26" s="36"/>
-      <c r="BZ26" s="36"/>
-      <c r="CA26" s="36"/>
-      <c r="CB26" s="36"/>
-      <c r="CC26" s="36"/>
-      <c r="CD26" s="36"/>
-      <c r="CE26" s="36"/>
-      <c r="CF26" s="36"/>
-      <c r="CG26" s="36"/>
-      <c r="CH26" s="36"/>
-      <c r="CI26" s="36"/>
-      <c r="CJ26" s="36"/>
-      <c r="CK26" s="36"/>
-      <c r="CL26" s="36"/>
-      <c r="CM26" s="36"/>
-      <c r="CN26" s="36"/>
-      <c r="CO26" s="36"/>
-      <c r="CP26" s="36"/>
-      <c r="CQ26" s="36"/>
-      <c r="CR26" s="36"/>
-      <c r="CS26" s="36"/>
-      <c r="CT26" s="36"/>
-      <c r="CU26" s="36"/>
-      <c r="CV26" s="36"/>
-      <c r="CW26" s="36"/>
-      <c r="CX26" s="36"/>
-      <c r="CY26" s="36"/>
-      <c r="CZ26" s="36"/>
-      <c r="DA26" s="36"/>
-      <c r="DB26" s="36"/>
-      <c r="DC26" s="36"/>
-      <c r="DD26" s="36"/>
-      <c r="DE26" s="36"/>
-      <c r="DF26" s="36"/>
-      <c r="DG26" s="36"/>
-      <c r="DH26" s="36"/>
-      <c r="DI26" s="36"/>
-      <c r="DJ26" s="36"/>
-      <c r="DK26" s="36"/>
-      <c r="DL26" s="36"/>
-      <c r="DM26" s="36"/>
-      <c r="DN26" s="36"/>
-      <c r="DO26" s="36"/>
-      <c r="DP26" s="36"/>
-      <c r="DQ26" s="36"/>
-      <c r="DR26" s="36"/>
-      <c r="DS26" s="36"/>
-      <c r="DT26" s="36"/>
-      <c r="DU26" s="36"/>
-      <c r="DV26" s="36"/>
-      <c r="DW26" s="36"/>
-      <c r="DX26" s="36"/>
-      <c r="DY26" s="36"/>
-      <c r="DZ26" s="36"/>
-      <c r="EA26" s="36"/>
-      <c r="EB26" s="36"/>
-      <c r="EC26" s="36"/>
-      <c r="ED26" s="36"/>
-      <c r="EE26" s="36"/>
-      <c r="EF26" s="36"/>
-      <c r="EG26" s="36"/>
-      <c r="EH26" s="36"/>
-      <c r="EI26" s="36"/>
-      <c r="EJ26" s="36"/>
-      <c r="EK26" s="36"/>
-      <c r="EL26" s="36"/>
-      <c r="EM26" s="36"/>
-      <c r="EN26" s="36"/>
-      <c r="EO26" s="36"/>
-      <c r="EP26" s="36"/>
-      <c r="EQ26" s="36"/>
-      <c r="ER26" s="36"/>
-      <c r="ES26" s="36"/>
-      <c r="ET26" s="36"/>
-      <c r="EU26" s="36"/>
-      <c r="EV26" s="36"/>
-      <c r="EW26" s="36"/>
-      <c r="EX26" s="36"/>
-      <c r="EY26" s="36"/>
-      <c r="EZ26" s="36"/>
-      <c r="FA26" s="36"/>
-      <c r="FB26" s="36"/>
-      <c r="FC26" s="36"/>
-      <c r="FD26" s="36"/>
-      <c r="FE26" s="36"/>
-      <c r="FF26" s="36"/>
-      <c r="FG26" s="36"/>
-      <c r="FH26" s="36"/>
-      <c r="FI26" s="36"/>
-      <c r="FJ26" s="36"/>
-      <c r="FK26" s="36"/>
-      <c r="FL26" s="36"/>
-      <c r="FM26" s="36"/>
-      <c r="FN26" s="36"/>
-      <c r="FO26" s="36"/>
-      <c r="FP26" s="36"/>
-      <c r="FQ26" s="36"/>
-      <c r="FR26" s="36"/>
-      <c r="FS26" s="36"/>
-      <c r="FT26" s="36"/>
-      <c r="FU26" s="36"/>
-      <c r="FV26" s="36"/>
-      <c r="FW26" s="36"/>
-      <c r="FX26" s="36"/>
-      <c r="FY26" s="36"/>
-      <c r="FZ26" s="36"/>
-      <c r="GA26" s="36"/>
-      <c r="GB26" s="36"/>
-      <c r="GC26" s="36"/>
-      <c r="GD26" s="36"/>
-      <c r="GE26" s="36"/>
-      <c r="GF26" s="36"/>
-      <c r="GG26" s="36"/>
-      <c r="GH26" s="36"/>
-      <c r="GI26" s="36"/>
-      <c r="GJ26" s="36"/>
-      <c r="GK26" s="36"/>
-      <c r="GL26" s="36"/>
-      <c r="GM26" s="36"/>
-      <c r="GN26" s="36"/>
-      <c r="GO26" s="36"/>
-      <c r="GP26" s="36"/>
-      <c r="GQ26" s="36"/>
-      <c r="GR26" s="36"/>
-      <c r="GS26" s="36"/>
-      <c r="GT26" s="36"/>
-      <c r="GU26" s="36"/>
-      <c r="GV26" s="36"/>
-      <c r="GW26" s="36"/>
-      <c r="GX26" s="36"/>
-      <c r="GY26" s="36"/>
-      <c r="GZ26" s="36"/>
-      <c r="HA26" s="36"/>
-      <c r="HB26" s="36"/>
-      <c r="HC26" s="36"/>
-      <c r="HD26" s="36"/>
-      <c r="HE26" s="36"/>
-      <c r="HF26" s="36"/>
-      <c r="HG26" s="36"/>
-      <c r="HH26" s="36"/>
-      <c r="HI26" s="36"/>
-      <c r="HJ26" s="36"/>
-      <c r="HK26" s="36"/>
-      <c r="HL26" s="36"/>
-      <c r="HM26" s="36"/>
-      <c r="HN26" s="36"/>
-      <c r="HO26" s="36"/>
-      <c r="HP26" s="36"/>
-      <c r="HQ26" s="36"/>
-      <c r="HR26" s="36"/>
-      <c r="HS26" s="36"/>
-      <c r="HT26" s="36"/>
-      <c r="HU26" s="36"/>
-      <c r="HV26" s="36"/>
-      <c r="HW26" s="36"/>
-      <c r="HX26" s="36"/>
-      <c r="HY26" s="36"/>
-      <c r="HZ26" s="36"/>
-      <c r="IA26" s="36"/>
-      <c r="IB26" s="36"/>
-      <c r="IC26" s="36"/>
-      <c r="ID26" s="36"/>
-      <c r="IE26" s="36"/>
-      <c r="IF26" s="36"/>
-      <c r="IG26" s="36"/>
-      <c r="IH26" s="36"/>
-      <c r="II26" s="36"/>
-      <c r="IJ26" s="36"/>
-      <c r="IK26" s="36"/>
-      <c r="IL26" s="36"/>
-      <c r="IM26" s="36"/>
-      <c r="IN26" s="36"/>
-      <c r="IO26" s="36"/>
-      <c r="IP26" s="36"/>
-      <c r="IQ26" s="36"/>
-      <c r="IR26" s="36"/>
-      <c r="IS26" s="36"/>
-      <c r="IT26" s="36"/>
-      <c r="IU26" s="36"/>
-    </row>
-    <row r="27" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="91" t="str">
+      <c r="C27" s="151"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
+      <c r="AX27" s="36"/>
+      <c r="AY27" s="36"/>
+      <c r="AZ27" s="36"/>
+      <c r="BA27" s="36"/>
+      <c r="BB27" s="36"/>
+      <c r="BC27" s="36"/>
+      <c r="BD27" s="36"/>
+      <c r="BE27" s="36"/>
+      <c r="BF27" s="36"/>
+      <c r="BG27" s="36"/>
+      <c r="BH27" s="36"/>
+      <c r="BI27" s="36"/>
+      <c r="BJ27" s="36"/>
+      <c r="BK27" s="36"/>
+      <c r="BL27" s="36"/>
+      <c r="BM27" s="36"/>
+      <c r="BN27" s="36"/>
+      <c r="BO27" s="36"/>
+      <c r="BP27" s="36"/>
+      <c r="BQ27" s="36"/>
+      <c r="BR27" s="36"/>
+      <c r="BS27" s="36"/>
+      <c r="BT27" s="36"/>
+      <c r="BU27" s="36"/>
+      <c r="BV27" s="36"/>
+      <c r="BW27" s="36"/>
+      <c r="BX27" s="36"/>
+      <c r="BY27" s="36"/>
+      <c r="BZ27" s="36"/>
+      <c r="CA27" s="36"/>
+      <c r="CB27" s="36"/>
+      <c r="CC27" s="36"/>
+      <c r="CD27" s="36"/>
+      <c r="CE27" s="36"/>
+      <c r="CF27" s="36"/>
+      <c r="CG27" s="36"/>
+      <c r="CH27" s="36"/>
+      <c r="CI27" s="36"/>
+      <c r="CJ27" s="36"/>
+      <c r="CK27" s="36"/>
+      <c r="CL27" s="36"/>
+      <c r="CM27" s="36"/>
+      <c r="CN27" s="36"/>
+      <c r="CO27" s="36"/>
+      <c r="CP27" s="36"/>
+      <c r="CQ27" s="36"/>
+      <c r="CR27" s="36"/>
+      <c r="CS27" s="36"/>
+      <c r="CT27" s="36"/>
+      <c r="CU27" s="36"/>
+      <c r="CV27" s="36"/>
+      <c r="CW27" s="36"/>
+      <c r="CX27" s="36"/>
+      <c r="CY27" s="36"/>
+      <c r="CZ27" s="36"/>
+      <c r="DA27" s="36"/>
+      <c r="DB27" s="36"/>
+      <c r="DC27" s="36"/>
+      <c r="DD27" s="36"/>
+      <c r="DE27" s="36"/>
+      <c r="DF27" s="36"/>
+      <c r="DG27" s="36"/>
+      <c r="DH27" s="36"/>
+      <c r="DI27" s="36"/>
+      <c r="DJ27" s="36"/>
+      <c r="DK27" s="36"/>
+      <c r="DL27" s="36"/>
+      <c r="DM27" s="36"/>
+      <c r="DN27" s="36"/>
+      <c r="DO27" s="36"/>
+      <c r="DP27" s="36"/>
+      <c r="DQ27" s="36"/>
+      <c r="DR27" s="36"/>
+      <c r="DS27" s="36"/>
+      <c r="DT27" s="36"/>
+      <c r="DU27" s="36"/>
+      <c r="DV27" s="36"/>
+      <c r="DW27" s="36"/>
+      <c r="DX27" s="36"/>
+      <c r="DY27" s="36"/>
+      <c r="DZ27" s="36"/>
+      <c r="EA27" s="36"/>
+      <c r="EB27" s="36"/>
+      <c r="EC27" s="36"/>
+      <c r="ED27" s="36"/>
+      <c r="EE27" s="36"/>
+      <c r="EF27" s="36"/>
+      <c r="EG27" s="36"/>
+      <c r="EH27" s="36"/>
+      <c r="EI27" s="36"/>
+      <c r="EJ27" s="36"/>
+      <c r="EK27" s="36"/>
+      <c r="EL27" s="36"/>
+      <c r="EM27" s="36"/>
+      <c r="EN27" s="36"/>
+      <c r="EO27" s="36"/>
+      <c r="EP27" s="36"/>
+      <c r="EQ27" s="36"/>
+      <c r="ER27" s="36"/>
+      <c r="ES27" s="36"/>
+      <c r="ET27" s="36"/>
+      <c r="EU27" s="36"/>
+      <c r="EV27" s="36"/>
+      <c r="EW27" s="36"/>
+      <c r="EX27" s="36"/>
+      <c r="EY27" s="36"/>
+      <c r="EZ27" s="36"/>
+      <c r="FA27" s="36"/>
+      <c r="FB27" s="36"/>
+      <c r="FC27" s="36"/>
+      <c r="FD27" s="36"/>
+      <c r="FE27" s="36"/>
+      <c r="FF27" s="36"/>
+      <c r="FG27" s="36"/>
+      <c r="FH27" s="36"/>
+      <c r="FI27" s="36"/>
+      <c r="FJ27" s="36"/>
+      <c r="FK27" s="36"/>
+      <c r="FL27" s="36"/>
+      <c r="FM27" s="36"/>
+      <c r="FN27" s="36"/>
+      <c r="FO27" s="36"/>
+      <c r="FP27" s="36"/>
+      <c r="FQ27" s="36"/>
+      <c r="FR27" s="36"/>
+      <c r="FS27" s="36"/>
+      <c r="FT27" s="36"/>
+      <c r="FU27" s="36"/>
+      <c r="FV27" s="36"/>
+      <c r="FW27" s="36"/>
+      <c r="FX27" s="36"/>
+      <c r="FY27" s="36"/>
+      <c r="FZ27" s="36"/>
+      <c r="GA27" s="36"/>
+      <c r="GB27" s="36"/>
+      <c r="GC27" s="36"/>
+      <c r="GD27" s="36"/>
+      <c r="GE27" s="36"/>
+      <c r="GF27" s="36"/>
+      <c r="GG27" s="36"/>
+      <c r="GH27" s="36"/>
+      <c r="GI27" s="36"/>
+      <c r="GJ27" s="36"/>
+      <c r="GK27" s="36"/>
+      <c r="GL27" s="36"/>
+      <c r="GM27" s="36"/>
+      <c r="GN27" s="36"/>
+      <c r="GO27" s="36"/>
+      <c r="GP27" s="36"/>
+      <c r="GQ27" s="36"/>
+      <c r="GR27" s="36"/>
+      <c r="GS27" s="36"/>
+      <c r="GT27" s="36"/>
+      <c r="GU27" s="36"/>
+      <c r="GV27" s="36"/>
+      <c r="GW27" s="36"/>
+      <c r="GX27" s="36"/>
+      <c r="GY27" s="36"/>
+      <c r="GZ27" s="36"/>
+      <c r="HA27" s="36"/>
+      <c r="HB27" s="36"/>
+      <c r="HC27" s="36"/>
+      <c r="HD27" s="36"/>
+      <c r="HE27" s="36"/>
+      <c r="HF27" s="36"/>
+      <c r="HG27" s="36"/>
+      <c r="HH27" s="36"/>
+      <c r="HI27" s="36"/>
+      <c r="HJ27" s="36"/>
+      <c r="HK27" s="36"/>
+      <c r="HL27" s="36"/>
+      <c r="HM27" s="36"/>
+      <c r="HN27" s="36"/>
+      <c r="HO27" s="36"/>
+      <c r="HP27" s="36"/>
+      <c r="HQ27" s="36"/>
+      <c r="HR27" s="36"/>
+      <c r="HS27" s="36"/>
+      <c r="HT27" s="36"/>
+      <c r="HU27" s="36"/>
+      <c r="HV27" s="36"/>
+      <c r="HW27" s="36"/>
+      <c r="HX27" s="36"/>
+      <c r="HY27" s="36"/>
+      <c r="HZ27" s="36"/>
+      <c r="IA27" s="36"/>
+      <c r="IB27" s="36"/>
+      <c r="IC27" s="36"/>
+      <c r="ID27" s="36"/>
+      <c r="IE27" s="36"/>
+      <c r="IF27" s="36"/>
+      <c r="IG27" s="36"/>
+      <c r="IH27" s="36"/>
+      <c r="II27" s="36"/>
+      <c r="IJ27" s="36"/>
+      <c r="IK27" s="36"/>
+      <c r="IL27" s="36"/>
+      <c r="IM27" s="36"/>
+      <c r="IN27" s="36"/>
+      <c r="IO27" s="36"/>
+      <c r="IP27" s="36"/>
+      <c r="IQ27" s="36"/>
+      <c r="IR27" s="36"/>
+      <c r="IS27" s="36"/>
+      <c r="IT27" s="36"/>
+      <c r="IU27" s="36"/>
+    </row>
+    <row r="28" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B28" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="150"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="87">
-        <f>F23+1</f>
-        <v>45500</v>
-      </c>
-      <c r="F27" s="84">
-        <f t="shared" ref="F27" si="272">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
-        <v>45534</v>
-      </c>
-      <c r="G27" s="45">
-        <v>35</v>
-      </c>
-      <c r="H27" s="46">
-        <v>0</v>
-      </c>
-      <c r="I27" s="102">
-        <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
-        <v>25</v>
-      </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34"/>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="34"/>
-      <c r="AN27" s="34"/>
-      <c r="AO27" s="34"/>
-      <c r="AP27" s="34"/>
-      <c r="AQ27" s="34"/>
-      <c r="AR27" s="34"/>
-      <c r="AS27" s="34"/>
-      <c r="AT27" s="34"/>
-      <c r="AU27" s="34"/>
-      <c r="AV27" s="34"/>
-      <c r="AW27" s="34"/>
-      <c r="AX27" s="34"/>
-      <c r="AY27" s="34"/>
-      <c r="AZ27" s="34"/>
-      <c r="BA27" s="34"/>
-      <c r="BB27" s="34"/>
-      <c r="BC27" s="34"/>
-      <c r="BD27" s="34"/>
-      <c r="BE27" s="34"/>
-      <c r="BF27" s="34"/>
-      <c r="BG27" s="34"/>
-      <c r="BH27" s="34"/>
-      <c r="BI27" s="34"/>
-      <c r="BJ27" s="34"/>
-      <c r="BK27" s="34"/>
-      <c r="BL27" s="34"/>
-      <c r="BM27" s="34"/>
-      <c r="BN27" s="34"/>
-      <c r="BO27" s="34"/>
-      <c r="BP27" s="34"/>
-      <c r="BQ27" s="34"/>
-      <c r="BR27" s="34"/>
-      <c r="BS27" s="34"/>
-      <c r="BT27" s="34"/>
-      <c r="BU27" s="34"/>
-      <c r="BV27" s="34"/>
-      <c r="BW27" s="34"/>
-      <c r="BX27" s="34"/>
-      <c r="BY27" s="34"/>
-      <c r="BZ27" s="34"/>
-      <c r="CA27" s="34"/>
-      <c r="CB27" s="34"/>
-      <c r="CC27" s="34"/>
-      <c r="CD27" s="34"/>
-      <c r="CE27" s="34"/>
-      <c r="CF27" s="34"/>
-      <c r="CG27" s="34"/>
-      <c r="CH27" s="34"/>
-      <c r="CI27" s="34"/>
-      <c r="CJ27" s="34"/>
-      <c r="CK27" s="34"/>
-      <c r="CL27" s="34"/>
-      <c r="CM27" s="34"/>
-      <c r="CN27" s="34"/>
-      <c r="CO27" s="34"/>
-      <c r="CP27" s="34"/>
-      <c r="CQ27" s="34"/>
-      <c r="CR27" s="34"/>
-      <c r="CS27" s="34"/>
-      <c r="CT27" s="34"/>
-      <c r="CU27" s="34"/>
-      <c r="CV27" s="34"/>
-      <c r="CW27" s="34"/>
-      <c r="CX27" s="34"/>
-      <c r="CY27" s="34"/>
-      <c r="CZ27" s="34"/>
-      <c r="DA27" s="34"/>
-      <c r="DB27" s="34"/>
-      <c r="DC27" s="34"/>
-      <c r="DD27" s="34"/>
-      <c r="DE27" s="34"/>
-      <c r="DF27" s="34"/>
-      <c r="DG27" s="34"/>
-      <c r="DH27" s="34"/>
-      <c r="DI27" s="34"/>
-      <c r="DJ27" s="34"/>
-      <c r="DK27" s="34"/>
-      <c r="DL27" s="34"/>
-      <c r="DM27" s="34"/>
-      <c r="DN27" s="34"/>
-      <c r="DO27" s="34"/>
-      <c r="DP27" s="34"/>
-      <c r="DQ27" s="34"/>
-      <c r="DR27" s="34"/>
-      <c r="DS27" s="34"/>
-      <c r="DT27" s="34"/>
-      <c r="DU27" s="34"/>
-      <c r="DV27" s="34"/>
-      <c r="DW27" s="34"/>
-      <c r="DX27" s="34"/>
-      <c r="DY27" s="34"/>
-      <c r="DZ27" s="34"/>
-      <c r="EA27" s="34"/>
-      <c r="EB27" s="34"/>
-      <c r="EC27" s="34"/>
-      <c r="ED27" s="34"/>
-      <c r="EE27" s="34"/>
-      <c r="EF27" s="34"/>
-      <c r="EG27" s="34"/>
-      <c r="EH27" s="34"/>
-      <c r="EI27" s="34"/>
-      <c r="EJ27" s="34"/>
-      <c r="EK27" s="34"/>
-      <c r="EL27" s="34"/>
-      <c r="EM27" s="34"/>
-      <c r="EN27" s="34"/>
-      <c r="EO27" s="34"/>
-      <c r="EP27" s="34"/>
-      <c r="EQ27" s="34"/>
-      <c r="ER27" s="34"/>
-      <c r="ES27" s="34"/>
-      <c r="ET27" s="34"/>
-      <c r="EU27" s="34"/>
-      <c r="EV27" s="34"/>
-      <c r="EW27" s="34"/>
-      <c r="EX27" s="34"/>
-      <c r="EY27" s="34"/>
-      <c r="EZ27" s="34"/>
-      <c r="FA27" s="34"/>
-      <c r="FB27" s="34"/>
-      <c r="FC27" s="34"/>
-      <c r="FD27" s="34"/>
-      <c r="FE27" s="34"/>
-      <c r="FF27" s="34"/>
-      <c r="FG27" s="34"/>
-      <c r="FH27" s="34"/>
-      <c r="FI27" s="34"/>
-      <c r="FJ27" s="34"/>
-      <c r="FK27" s="34"/>
-      <c r="FL27" s="34"/>
-      <c r="FM27" s="34"/>
-      <c r="FN27" s="34"/>
-      <c r="FO27" s="34"/>
-      <c r="FP27" s="34"/>
-      <c r="FQ27" s="34"/>
-      <c r="FR27" s="34"/>
-      <c r="FS27" s="34"/>
-      <c r="FT27" s="34"/>
-      <c r="FU27" s="34"/>
-      <c r="FV27" s="34"/>
-      <c r="FW27" s="34"/>
-      <c r="FX27" s="34"/>
-      <c r="FY27" s="34"/>
-      <c r="FZ27" s="34"/>
-      <c r="GA27" s="34"/>
-      <c r="GB27" s="34"/>
-      <c r="GC27" s="34"/>
-      <c r="GD27" s="34"/>
-      <c r="GE27" s="34"/>
-      <c r="GF27" s="34"/>
-      <c r="GG27" s="34"/>
-      <c r="GH27" s="34"/>
-      <c r="GI27" s="34"/>
-      <c r="GJ27" s="34"/>
-      <c r="GK27" s="34"/>
-      <c r="GL27" s="34"/>
-      <c r="GM27" s="34"/>
-      <c r="GN27" s="34"/>
-      <c r="GO27" s="34"/>
-      <c r="GP27" s="34"/>
-      <c r="GQ27" s="34"/>
-      <c r="GR27" s="34"/>
-      <c r="GS27" s="34"/>
-      <c r="GT27" s="34"/>
-      <c r="GU27" s="34"/>
-      <c r="GV27" s="34"/>
-      <c r="GW27" s="34"/>
-      <c r="GX27" s="34"/>
-      <c r="GY27" s="34"/>
-      <c r="GZ27" s="34"/>
-      <c r="HA27" s="34"/>
-      <c r="HB27" s="34"/>
-      <c r="HC27" s="34"/>
-      <c r="HD27" s="34"/>
-      <c r="HE27" s="34"/>
-      <c r="HF27" s="34"/>
-      <c r="HG27" s="34"/>
-      <c r="HH27" s="34"/>
-      <c r="HI27" s="34"/>
-      <c r="HJ27" s="34"/>
-      <c r="HK27" s="34"/>
-      <c r="HL27" s="34"/>
-      <c r="HM27" s="34"/>
-      <c r="HN27" s="34"/>
-      <c r="HO27" s="34"/>
-      <c r="HP27" s="34"/>
-      <c r="HQ27" s="34"/>
-      <c r="HR27" s="34"/>
-      <c r="HS27" s="34"/>
-      <c r="HT27" s="34"/>
-      <c r="HU27" s="34"/>
-      <c r="HV27" s="34"/>
-      <c r="HW27" s="34"/>
-      <c r="HX27" s="34"/>
-      <c r="HY27" s="34"/>
-      <c r="HZ27" s="34"/>
-      <c r="IA27" s="34"/>
-      <c r="IB27" s="34"/>
-      <c r="IC27" s="34"/>
-      <c r="ID27" s="34"/>
-      <c r="IE27" s="34"/>
-      <c r="IF27" s="34"/>
-      <c r="IG27" s="34"/>
-      <c r="IH27" s="34"/>
-      <c r="II27" s="34"/>
-      <c r="IJ27" s="34"/>
-      <c r="IK27" s="34"/>
-      <c r="IL27" s="34"/>
-      <c r="IM27" s="34"/>
-      <c r="IN27" s="34"/>
-      <c r="IO27" s="34"/>
-      <c r="IP27" s="34"/>
-      <c r="IQ27" s="34"/>
-      <c r="IR27" s="34"/>
-      <c r="IS27" s="34"/>
-      <c r="IT27" s="34"/>
-      <c r="IU27" s="34"/>
-    </row>
-    <row r="28" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.1</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="150">
-        <v>1</v>
-      </c>
+      <c r="C28" s="150"/>
       <c r="D28" s="33"/>
       <c r="E28" s="87">
-        <f>F30-32</f>
-        <v>45502</v>
+        <f>F24+1</f>
+        <v>45500</v>
       </c>
       <c r="F28" s="84">
-        <f t="shared" ref="F28" si="273">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
-        <v>45502</v>
+        <f t="shared" ref="F28" si="274">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <v>45534</v>
       </c>
       <c r="G28" s="45">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H28" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="102">
-        <f t="shared" ref="I28" si="274">IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>1</v>
+        <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
+        <v>25</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="34"/>
@@ -12782,21 +12782,22 @@
     <row r="29" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.2</v>
+        <v>4.1.1</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C29" s="150">
         <v>1</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="87">
-        <v>45520</v>
+        <f>F31-32</f>
+        <v>45502</v>
       </c>
       <c r="F29" s="84">
         <f t="shared" ref="F29" si="275">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
-        <v>45520</v>
+        <v>45502</v>
       </c>
       <c r="G29" s="45">
         <v>1</v>
@@ -13058,22 +13059,21 @@
     <row r="30" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.3</v>
+        <v>4.1.2</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C30" s="150">
         <v>1</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="87">
-        <f>F27</f>
-        <v>45534</v>
+        <v>45520</v>
       </c>
       <c r="F30" s="84">
-        <f>IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
-        <v>45534</v>
+        <f t="shared" ref="F30" si="277">IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
+        <v>45520</v>
       </c>
       <c r="G30" s="45">
         <v>1</v>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="102">
-        <f t="shared" ref="I30" si="277">IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
+        <f t="shared" ref="I30" si="278">IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
         <v>1</v>
       </c>
       <c r="J30" s="94"/>
@@ -13332,274 +13332,296 @@
       <c r="IT30" s="34"/>
       <c r="IU30" s="34"/>
     </row>
-    <row r="32" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="105" t="s">
+    <row r="31" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1.3</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="150">
         <v>1</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="34"/>
-      <c r="AU32" s="34"/>
-      <c r="AV32" s="34"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="34"/>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="34"/>
-      <c r="BA32" s="34"/>
-      <c r="BB32" s="34"/>
-      <c r="BC32" s="34"/>
-      <c r="BD32" s="34"/>
-      <c r="BE32" s="34"/>
-      <c r="BF32" s="34"/>
-      <c r="BG32" s="34"/>
-      <c r="BH32" s="34"/>
-      <c r="BI32" s="34"/>
-      <c r="BJ32" s="34"/>
-      <c r="BK32" s="34"/>
-      <c r="BL32" s="34"/>
-      <c r="BM32" s="34"/>
-      <c r="BN32" s="34"/>
-      <c r="BO32" s="34"/>
-      <c r="BP32" s="34"/>
-      <c r="BQ32" s="34"/>
-      <c r="BR32" s="34"/>
-      <c r="BS32" s="34"/>
-      <c r="BT32" s="34"/>
-      <c r="BU32" s="34"/>
-      <c r="BV32" s="34"/>
-      <c r="BW32" s="34"/>
-      <c r="BX32" s="34"/>
-      <c r="BY32" s="34"/>
-      <c r="BZ32" s="34"/>
-      <c r="CA32" s="34"/>
-      <c r="CB32" s="34"/>
-      <c r="CC32" s="34"/>
-      <c r="CD32" s="34"/>
-      <c r="CE32" s="34"/>
-      <c r="CF32" s="34"/>
-      <c r="CG32" s="34"/>
-      <c r="CH32" s="34"/>
-      <c r="CI32" s="34"/>
-      <c r="CJ32" s="34"/>
-      <c r="CK32" s="34"/>
-      <c r="CL32" s="34"/>
-      <c r="CM32" s="34"/>
-      <c r="CN32" s="34"/>
-      <c r="CO32" s="34"/>
-      <c r="CP32" s="34"/>
-      <c r="CQ32" s="34"/>
-      <c r="CR32" s="34"/>
-      <c r="CS32" s="34"/>
-      <c r="CT32" s="34"/>
-      <c r="CU32" s="34"/>
-      <c r="CV32" s="34"/>
-      <c r="CW32" s="34"/>
-      <c r="CX32" s="34"/>
-      <c r="CY32" s="34"/>
-      <c r="CZ32" s="34"/>
-      <c r="DA32" s="34"/>
-      <c r="DB32" s="34"/>
-      <c r="DC32" s="34"/>
-      <c r="DD32" s="34"/>
-      <c r="DE32" s="34"/>
-      <c r="DF32" s="34"/>
-      <c r="DG32" s="34"/>
-      <c r="DH32" s="34"/>
-      <c r="DI32" s="34"/>
-      <c r="DJ32" s="34"/>
-      <c r="DK32" s="34"/>
-      <c r="DL32" s="34"/>
-      <c r="DM32" s="34"/>
-      <c r="DN32" s="34"/>
-      <c r="DO32" s="34"/>
-      <c r="DP32" s="34"/>
-      <c r="DQ32" s="34"/>
-      <c r="DR32" s="34"/>
-      <c r="DS32" s="34"/>
-      <c r="DT32" s="34"/>
-      <c r="DU32" s="34"/>
-      <c r="DV32" s="34"/>
-      <c r="DW32" s="34"/>
-      <c r="DX32" s="34"/>
-      <c r="DY32" s="34"/>
-      <c r="DZ32" s="34"/>
-      <c r="EA32" s="34"/>
-      <c r="EB32" s="34"/>
-      <c r="EC32" s="34"/>
-      <c r="ED32" s="34"/>
-      <c r="EE32" s="34"/>
-      <c r="EF32" s="34"/>
-      <c r="EG32" s="34"/>
-      <c r="EH32" s="34"/>
-      <c r="EI32" s="34"/>
-      <c r="EJ32" s="34"/>
-      <c r="EK32" s="34"/>
-      <c r="EL32" s="34"/>
-      <c r="EM32" s="34"/>
-      <c r="EN32" s="34"/>
-      <c r="EO32" s="34"/>
-      <c r="EP32" s="34"/>
-      <c r="EQ32" s="34"/>
-      <c r="ER32" s="34"/>
-      <c r="ES32" s="34"/>
-      <c r="ET32" s="34"/>
-      <c r="EU32" s="34"/>
-      <c r="EV32" s="34"/>
-      <c r="EW32" s="34"/>
-      <c r="EX32" s="34"/>
-      <c r="EY32" s="34"/>
-      <c r="EZ32" s="34"/>
-      <c r="FA32" s="34"/>
-      <c r="FB32" s="34"/>
-      <c r="FC32" s="34"/>
-      <c r="FD32" s="34"/>
-      <c r="FE32" s="34"/>
-      <c r="FF32" s="34"/>
-      <c r="FG32" s="34"/>
-      <c r="FH32" s="34"/>
-      <c r="FI32" s="34"/>
-      <c r="FJ32" s="34"/>
-      <c r="FK32" s="34"/>
-      <c r="FL32" s="34"/>
-      <c r="FM32" s="34"/>
-      <c r="FN32" s="34"/>
-      <c r="FO32" s="34"/>
-      <c r="FP32" s="34"/>
-      <c r="FQ32" s="34"/>
-      <c r="FR32" s="34"/>
-      <c r="FS32" s="34"/>
-      <c r="FT32" s="34"/>
-      <c r="FU32" s="34"/>
-      <c r="FV32" s="34"/>
-      <c r="FW32" s="34"/>
-      <c r="FX32" s="34"/>
-      <c r="FY32" s="34"/>
-      <c r="FZ32" s="34"/>
-      <c r="GA32" s="34"/>
-      <c r="GB32" s="34"/>
-      <c r="GC32" s="34"/>
-      <c r="GD32" s="34"/>
-      <c r="GE32" s="34"/>
-      <c r="GF32" s="34"/>
-      <c r="GG32" s="34"/>
-      <c r="GH32" s="34"/>
-      <c r="GI32" s="34"/>
-      <c r="GJ32" s="34"/>
-      <c r="GK32" s="34"/>
-      <c r="GL32" s="34"/>
-      <c r="GM32" s="34"/>
-      <c r="GN32" s="34"/>
-      <c r="GO32" s="34"/>
-      <c r="GP32" s="34"/>
-      <c r="GQ32" s="34"/>
-      <c r="GR32" s="34"/>
-      <c r="GS32" s="34"/>
-      <c r="GT32" s="34"/>
-      <c r="GU32" s="34"/>
-      <c r="GV32" s="34"/>
-      <c r="GW32" s="34"/>
-      <c r="GX32" s="34"/>
-      <c r="GY32" s="34"/>
-      <c r="GZ32" s="34"/>
-      <c r="HA32" s="34"/>
-      <c r="HB32" s="34"/>
-      <c r="HC32" s="34"/>
-      <c r="HD32" s="34"/>
-      <c r="HE32" s="34"/>
-      <c r="HF32" s="34"/>
-      <c r="HG32" s="34"/>
-      <c r="HH32" s="34"/>
-      <c r="HI32" s="34"/>
-      <c r="HJ32" s="34"/>
-      <c r="HK32" s="34"/>
-      <c r="HL32" s="34"/>
-      <c r="HM32" s="34"/>
-      <c r="HN32" s="34"/>
-      <c r="HO32" s="34"/>
-      <c r="HP32" s="34"/>
-      <c r="HQ32" s="34"/>
-      <c r="HR32" s="34"/>
-      <c r="HS32" s="34"/>
-      <c r="HT32" s="34"/>
-      <c r="HU32" s="34"/>
-      <c r="HV32" s="34"/>
-      <c r="HW32" s="34"/>
-      <c r="HX32" s="34"/>
-      <c r="HY32" s="34"/>
-      <c r="HZ32" s="34"/>
-      <c r="IA32" s="34"/>
-      <c r="IB32" s="34"/>
-      <c r="IC32" s="34"/>
-      <c r="ID32" s="34"/>
-      <c r="IE32" s="34"/>
-      <c r="IF32" s="34"/>
-      <c r="IG32" s="34"/>
-      <c r="IH32" s="34"/>
-      <c r="II32" s="34"/>
-      <c r="IJ32" s="34"/>
-      <c r="IK32" s="34"/>
-      <c r="IL32" s="34"/>
-      <c r="IM32" s="34"/>
-      <c r="IN32" s="34"/>
-      <c r="IO32" s="34"/>
-      <c r="IP32" s="34"/>
-      <c r="IQ32" s="34"/>
-      <c r="IR32" s="34"/>
-      <c r="IS32" s="34"/>
-      <c r="IT32" s="34"/>
-      <c r="IU32" s="34"/>
-    </row>
-    <row r="33" spans="1:255" s="39" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="153"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="87">
+        <f>F28</f>
+        <v>45534</v>
+      </c>
+      <c r="F31" s="84">
+        <f>IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <v>45534</v>
+      </c>
+      <c r="G31" s="45">
+        <v>1</v>
+      </c>
+      <c r="H31" s="46">
+        <v>1</v>
+      </c>
+      <c r="I31" s="102">
+        <f t="shared" ref="I31" si="279">IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="94"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="34"/>
+      <c r="AT31" s="34"/>
+      <c r="AU31" s="34"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="34"/>
+      <c r="AX31" s="34"/>
+      <c r="AY31" s="34"/>
+      <c r="AZ31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BB31" s="34"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="34"/>
+      <c r="BF31" s="34"/>
+      <c r="BG31" s="34"/>
+      <c r="BH31" s="34"/>
+      <c r="BI31" s="34"/>
+      <c r="BJ31" s="34"/>
+      <c r="BK31" s="34"/>
+      <c r="BL31" s="34"/>
+      <c r="BM31" s="34"/>
+      <c r="BN31" s="34"/>
+      <c r="BO31" s="34"/>
+      <c r="BP31" s="34"/>
+      <c r="BQ31" s="34"/>
+      <c r="BR31" s="34"/>
+      <c r="BS31" s="34"/>
+      <c r="BT31" s="34"/>
+      <c r="BU31" s="34"/>
+      <c r="BV31" s="34"/>
+      <c r="BW31" s="34"/>
+      <c r="BX31" s="34"/>
+      <c r="BY31" s="34"/>
+      <c r="BZ31" s="34"/>
+      <c r="CA31" s="34"/>
+      <c r="CB31" s="34"/>
+      <c r="CC31" s="34"/>
+      <c r="CD31" s="34"/>
+      <c r="CE31" s="34"/>
+      <c r="CF31" s="34"/>
+      <c r="CG31" s="34"/>
+      <c r="CH31" s="34"/>
+      <c r="CI31" s="34"/>
+      <c r="CJ31" s="34"/>
+      <c r="CK31" s="34"/>
+      <c r="CL31" s="34"/>
+      <c r="CM31" s="34"/>
+      <c r="CN31" s="34"/>
+      <c r="CO31" s="34"/>
+      <c r="CP31" s="34"/>
+      <c r="CQ31" s="34"/>
+      <c r="CR31" s="34"/>
+      <c r="CS31" s="34"/>
+      <c r="CT31" s="34"/>
+      <c r="CU31" s="34"/>
+      <c r="CV31" s="34"/>
+      <c r="CW31" s="34"/>
+      <c r="CX31" s="34"/>
+      <c r="CY31" s="34"/>
+      <c r="CZ31" s="34"/>
+      <c r="DA31" s="34"/>
+      <c r="DB31" s="34"/>
+      <c r="DC31" s="34"/>
+      <c r="DD31" s="34"/>
+      <c r="DE31" s="34"/>
+      <c r="DF31" s="34"/>
+      <c r="DG31" s="34"/>
+      <c r="DH31" s="34"/>
+      <c r="DI31" s="34"/>
+      <c r="DJ31" s="34"/>
+      <c r="DK31" s="34"/>
+      <c r="DL31" s="34"/>
+      <c r="DM31" s="34"/>
+      <c r="DN31" s="34"/>
+      <c r="DO31" s="34"/>
+      <c r="DP31" s="34"/>
+      <c r="DQ31" s="34"/>
+      <c r="DR31" s="34"/>
+      <c r="DS31" s="34"/>
+      <c r="DT31" s="34"/>
+      <c r="DU31" s="34"/>
+      <c r="DV31" s="34"/>
+      <c r="DW31" s="34"/>
+      <c r="DX31" s="34"/>
+      <c r="DY31" s="34"/>
+      <c r="DZ31" s="34"/>
+      <c r="EA31" s="34"/>
+      <c r="EB31" s="34"/>
+      <c r="EC31" s="34"/>
+      <c r="ED31" s="34"/>
+      <c r="EE31" s="34"/>
+      <c r="EF31" s="34"/>
+      <c r="EG31" s="34"/>
+      <c r="EH31" s="34"/>
+      <c r="EI31" s="34"/>
+      <c r="EJ31" s="34"/>
+      <c r="EK31" s="34"/>
+      <c r="EL31" s="34"/>
+      <c r="EM31" s="34"/>
+      <c r="EN31" s="34"/>
+      <c r="EO31" s="34"/>
+      <c r="EP31" s="34"/>
+      <c r="EQ31" s="34"/>
+      <c r="ER31" s="34"/>
+      <c r="ES31" s="34"/>
+      <c r="ET31" s="34"/>
+      <c r="EU31" s="34"/>
+      <c r="EV31" s="34"/>
+      <c r="EW31" s="34"/>
+      <c r="EX31" s="34"/>
+      <c r="EY31" s="34"/>
+      <c r="EZ31" s="34"/>
+      <c r="FA31" s="34"/>
+      <c r="FB31" s="34"/>
+      <c r="FC31" s="34"/>
+      <c r="FD31" s="34"/>
+      <c r="FE31" s="34"/>
+      <c r="FF31" s="34"/>
+      <c r="FG31" s="34"/>
+      <c r="FH31" s="34"/>
+      <c r="FI31" s="34"/>
+      <c r="FJ31" s="34"/>
+      <c r="FK31" s="34"/>
+      <c r="FL31" s="34"/>
+      <c r="FM31" s="34"/>
+      <c r="FN31" s="34"/>
+      <c r="FO31" s="34"/>
+      <c r="FP31" s="34"/>
+      <c r="FQ31" s="34"/>
+      <c r="FR31" s="34"/>
+      <c r="FS31" s="34"/>
+      <c r="FT31" s="34"/>
+      <c r="FU31" s="34"/>
+      <c r="FV31" s="34"/>
+      <c r="FW31" s="34"/>
+      <c r="FX31" s="34"/>
+      <c r="FY31" s="34"/>
+      <c r="FZ31" s="34"/>
+      <c r="GA31" s="34"/>
+      <c r="GB31" s="34"/>
+      <c r="GC31" s="34"/>
+      <c r="GD31" s="34"/>
+      <c r="GE31" s="34"/>
+      <c r="GF31" s="34"/>
+      <c r="GG31" s="34"/>
+      <c r="GH31" s="34"/>
+      <c r="GI31" s="34"/>
+      <c r="GJ31" s="34"/>
+      <c r="GK31" s="34"/>
+      <c r="GL31" s="34"/>
+      <c r="GM31" s="34"/>
+      <c r="GN31" s="34"/>
+      <c r="GO31" s="34"/>
+      <c r="GP31" s="34"/>
+      <c r="GQ31" s="34"/>
+      <c r="GR31" s="34"/>
+      <c r="GS31" s="34"/>
+      <c r="GT31" s="34"/>
+      <c r="GU31" s="34"/>
+      <c r="GV31" s="34"/>
+      <c r="GW31" s="34"/>
+      <c r="GX31" s="34"/>
+      <c r="GY31" s="34"/>
+      <c r="GZ31" s="34"/>
+      <c r="HA31" s="34"/>
+      <c r="HB31" s="34"/>
+      <c r="HC31" s="34"/>
+      <c r="HD31" s="34"/>
+      <c r="HE31" s="34"/>
+      <c r="HF31" s="34"/>
+      <c r="HG31" s="34"/>
+      <c r="HH31" s="34"/>
+      <c r="HI31" s="34"/>
+      <c r="HJ31" s="34"/>
+      <c r="HK31" s="34"/>
+      <c r="HL31" s="34"/>
+      <c r="HM31" s="34"/>
+      <c r="HN31" s="34"/>
+      <c r="HO31" s="34"/>
+      <c r="HP31" s="34"/>
+      <c r="HQ31" s="34"/>
+      <c r="HR31" s="34"/>
+      <c r="HS31" s="34"/>
+      <c r="HT31" s="34"/>
+      <c r="HU31" s="34"/>
+      <c r="HV31" s="34"/>
+      <c r="HW31" s="34"/>
+      <c r="HX31" s="34"/>
+      <c r="HY31" s="34"/>
+      <c r="HZ31" s="34"/>
+      <c r="IA31" s="34"/>
+      <c r="IB31" s="34"/>
+      <c r="IC31" s="34"/>
+      <c r="ID31" s="34"/>
+      <c r="IE31" s="34"/>
+      <c r="IF31" s="34"/>
+      <c r="IG31" s="34"/>
+      <c r="IH31" s="34"/>
+      <c r="II31" s="34"/>
+      <c r="IJ31" s="34"/>
+      <c r="IK31" s="34"/>
+      <c r="IL31" s="34"/>
+      <c r="IM31" s="34"/>
+      <c r="IN31" s="34"/>
+      <c r="IO31" s="34"/>
+      <c r="IP31" s="34"/>
+      <c r="IQ31" s="34"/>
+      <c r="IR31" s="34"/>
+      <c r="IS31" s="34"/>
+      <c r="IT31" s="34"/>
+      <c r="IU31" s="34"/>
+    </row>
+    <row r="33" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
@@ -13846,22 +13868,15 @@
       <c r="IT33" s="34"/>
       <c r="IU33" s="34"/>
     </row>
-    <row r="34" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="92" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B34" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="151"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="95"/>
+    <row r="34" spans="1:255" s="39" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="153"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="109"/>
       <c r="K34" s="34"/>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
@@ -14109,29 +14124,21 @@
       <c r="IU34" s="34"/>
     </row>
     <row r="35" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="150"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="84" t="str">
-        <f>IF(ISBLANK(E35)," - ",IF(G35=0,E35,E35+G35-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="46">
-        <v>0</v>
-      </c>
-      <c r="I35" s="102">
-        <f>IF(OR(F35=0,E35=0),0,NETWORKDAYS(E35,F35))</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="94"/>
+      <c r="A35" s="92" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="151"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="95"/>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
@@ -14380,17 +14387,17 @@
     </row>
     <row r="36" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="150"/>
       <c r="D36" s="33"/>
       <c r="E36" s="87"/>
       <c r="F36" s="84" t="str">
-        <f t="shared" ref="F36:F37" si="278">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <f>IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G36" s="45"/>
@@ -14398,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="102">
-        <f t="shared" ref="I36:I37" si="279">IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
+        <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
         <v>0</v>
       </c>
       <c r="J36" s="94"/>
@@ -14650,17 +14657,17 @@
     </row>
     <row r="37" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="150"/>
       <c r="D37" s="33"/>
       <c r="E37" s="87"/>
       <c r="F37" s="84" t="str">
-        <f t="shared" si="278"/>
+        <f t="shared" ref="F37:F38" si="280">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G37" s="45"/>
@@ -14668,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="102">
-        <f t="shared" si="279"/>
+        <f t="shared" ref="I37:I38" si="281">IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
         <v>0</v>
       </c>
       <c r="J37" s="94"/>
@@ -14918,32 +14925,331 @@
       <c r="IT37" s="34"/>
       <c r="IU37" s="34"/>
     </row>
-    <row r="38" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="142" t="str">
+    <row r="38" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="150"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="84" t="str">
+        <f t="shared" si="280"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="46">
+        <v>0</v>
+      </c>
+      <c r="I38" s="102">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="94"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="34"/>
+      <c r="AE38" s="34"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="34"/>
+      <c r="AJ38" s="34"/>
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="34"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="34"/>
+      <c r="AQ38" s="34"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="34"/>
+      <c r="AU38" s="34"/>
+      <c r="AV38" s="34"/>
+      <c r="AW38" s="34"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="34"/>
+      <c r="BA38" s="34"/>
+      <c r="BB38" s="34"/>
+      <c r="BC38" s="34"/>
+      <c r="BD38" s="34"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BH38" s="34"/>
+      <c r="BI38" s="34"/>
+      <c r="BJ38" s="34"/>
+      <c r="BK38" s="34"/>
+      <c r="BL38" s="34"/>
+      <c r="BM38" s="34"/>
+      <c r="BN38" s="34"/>
+      <c r="BO38" s="34"/>
+      <c r="BP38" s="34"/>
+      <c r="BQ38" s="34"/>
+      <c r="BR38" s="34"/>
+      <c r="BS38" s="34"/>
+      <c r="BT38" s="34"/>
+      <c r="BU38" s="34"/>
+      <c r="BV38" s="34"/>
+      <c r="BW38" s="34"/>
+      <c r="BX38" s="34"/>
+      <c r="BY38" s="34"/>
+      <c r="BZ38" s="34"/>
+      <c r="CA38" s="34"/>
+      <c r="CB38" s="34"/>
+      <c r="CC38" s="34"/>
+      <c r="CD38" s="34"/>
+      <c r="CE38" s="34"/>
+      <c r="CF38" s="34"/>
+      <c r="CG38" s="34"/>
+      <c r="CH38" s="34"/>
+      <c r="CI38" s="34"/>
+      <c r="CJ38" s="34"/>
+      <c r="CK38" s="34"/>
+      <c r="CL38" s="34"/>
+      <c r="CM38" s="34"/>
+      <c r="CN38" s="34"/>
+      <c r="CO38" s="34"/>
+      <c r="CP38" s="34"/>
+      <c r="CQ38" s="34"/>
+      <c r="CR38" s="34"/>
+      <c r="CS38" s="34"/>
+      <c r="CT38" s="34"/>
+      <c r="CU38" s="34"/>
+      <c r="CV38" s="34"/>
+      <c r="CW38" s="34"/>
+      <c r="CX38" s="34"/>
+      <c r="CY38" s="34"/>
+      <c r="CZ38" s="34"/>
+      <c r="DA38" s="34"/>
+      <c r="DB38" s="34"/>
+      <c r="DC38" s="34"/>
+      <c r="DD38" s="34"/>
+      <c r="DE38" s="34"/>
+      <c r="DF38" s="34"/>
+      <c r="DG38" s="34"/>
+      <c r="DH38" s="34"/>
+      <c r="DI38" s="34"/>
+      <c r="DJ38" s="34"/>
+      <c r="DK38" s="34"/>
+      <c r="DL38" s="34"/>
+      <c r="DM38" s="34"/>
+      <c r="DN38" s="34"/>
+      <c r="DO38" s="34"/>
+      <c r="DP38" s="34"/>
+      <c r="DQ38" s="34"/>
+      <c r="DR38" s="34"/>
+      <c r="DS38" s="34"/>
+      <c r="DT38" s="34"/>
+      <c r="DU38" s="34"/>
+      <c r="DV38" s="34"/>
+      <c r="DW38" s="34"/>
+      <c r="DX38" s="34"/>
+      <c r="DY38" s="34"/>
+      <c r="DZ38" s="34"/>
+      <c r="EA38" s="34"/>
+      <c r="EB38" s="34"/>
+      <c r="EC38" s="34"/>
+      <c r="ED38" s="34"/>
+      <c r="EE38" s="34"/>
+      <c r="EF38" s="34"/>
+      <c r="EG38" s="34"/>
+      <c r="EH38" s="34"/>
+      <c r="EI38" s="34"/>
+      <c r="EJ38" s="34"/>
+      <c r="EK38" s="34"/>
+      <c r="EL38" s="34"/>
+      <c r="EM38" s="34"/>
+      <c r="EN38" s="34"/>
+      <c r="EO38" s="34"/>
+      <c r="EP38" s="34"/>
+      <c r="EQ38" s="34"/>
+      <c r="ER38" s="34"/>
+      <c r="ES38" s="34"/>
+      <c r="ET38" s="34"/>
+      <c r="EU38" s="34"/>
+      <c r="EV38" s="34"/>
+      <c r="EW38" s="34"/>
+      <c r="EX38" s="34"/>
+      <c r="EY38" s="34"/>
+      <c r="EZ38" s="34"/>
+      <c r="FA38" s="34"/>
+      <c r="FB38" s="34"/>
+      <c r="FC38" s="34"/>
+      <c r="FD38" s="34"/>
+      <c r="FE38" s="34"/>
+      <c r="FF38" s="34"/>
+      <c r="FG38" s="34"/>
+      <c r="FH38" s="34"/>
+      <c r="FI38" s="34"/>
+      <c r="FJ38" s="34"/>
+      <c r="FK38" s="34"/>
+      <c r="FL38" s="34"/>
+      <c r="FM38" s="34"/>
+      <c r="FN38" s="34"/>
+      <c r="FO38" s="34"/>
+      <c r="FP38" s="34"/>
+      <c r="FQ38" s="34"/>
+      <c r="FR38" s="34"/>
+      <c r="FS38" s="34"/>
+      <c r="FT38" s="34"/>
+      <c r="FU38" s="34"/>
+      <c r="FV38" s="34"/>
+      <c r="FW38" s="34"/>
+      <c r="FX38" s="34"/>
+      <c r="FY38" s="34"/>
+      <c r="FZ38" s="34"/>
+      <c r="GA38" s="34"/>
+      <c r="GB38" s="34"/>
+      <c r="GC38" s="34"/>
+      <c r="GD38" s="34"/>
+      <c r="GE38" s="34"/>
+      <c r="GF38" s="34"/>
+      <c r="GG38" s="34"/>
+      <c r="GH38" s="34"/>
+      <c r="GI38" s="34"/>
+      <c r="GJ38" s="34"/>
+      <c r="GK38" s="34"/>
+      <c r="GL38" s="34"/>
+      <c r="GM38" s="34"/>
+      <c r="GN38" s="34"/>
+      <c r="GO38" s="34"/>
+      <c r="GP38" s="34"/>
+      <c r="GQ38" s="34"/>
+      <c r="GR38" s="34"/>
+      <c r="GS38" s="34"/>
+      <c r="GT38" s="34"/>
+      <c r="GU38" s="34"/>
+      <c r="GV38" s="34"/>
+      <c r="GW38" s="34"/>
+      <c r="GX38" s="34"/>
+      <c r="GY38" s="34"/>
+      <c r="GZ38" s="34"/>
+      <c r="HA38" s="34"/>
+      <c r="HB38" s="34"/>
+      <c r="HC38" s="34"/>
+      <c r="HD38" s="34"/>
+      <c r="HE38" s="34"/>
+      <c r="HF38" s="34"/>
+      <c r="HG38" s="34"/>
+      <c r="HH38" s="34"/>
+      <c r="HI38" s="34"/>
+      <c r="HJ38" s="34"/>
+      <c r="HK38" s="34"/>
+      <c r="HL38" s="34"/>
+      <c r="HM38" s="34"/>
+      <c r="HN38" s="34"/>
+      <c r="HO38" s="34"/>
+      <c r="HP38" s="34"/>
+      <c r="HQ38" s="34"/>
+      <c r="HR38" s="34"/>
+      <c r="HS38" s="34"/>
+      <c r="HT38" s="34"/>
+      <c r="HU38" s="34"/>
+      <c r="HV38" s="34"/>
+      <c r="HW38" s="34"/>
+      <c r="HX38" s="34"/>
+      <c r="HY38" s="34"/>
+      <c r="HZ38" s="34"/>
+      <c r="IA38" s="34"/>
+      <c r="IB38" s="34"/>
+      <c r="IC38" s="34"/>
+      <c r="ID38" s="34"/>
+      <c r="IE38" s="34"/>
+      <c r="IF38" s="34"/>
+      <c r="IG38" s="34"/>
+      <c r="IH38" s="34"/>
+      <c r="II38" s="34"/>
+      <c r="IJ38" s="34"/>
+      <c r="IK38" s="34"/>
+      <c r="IL38" s="34"/>
+      <c r="IM38" s="34"/>
+      <c r="IN38" s="34"/>
+      <c r="IO38" s="34"/>
+      <c r="IP38" s="34"/>
+      <c r="IQ38" s="34"/>
+      <c r="IR38" s="34"/>
+      <c r="IS38" s="34"/>
+      <c r="IT38" s="34"/>
+      <c r="IU38" s="34"/>
+    </row>
+    <row r="39" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="142" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="C38" s="154"/>
-    </row>
-    <row r="39" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C39" s="154"/>
+    </row>
     <row r="40" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -14960,52 +15266,23 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H33:H37 H8:H30">
+  <conditionalFormatting sqref="H34:H38 H8:H31">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15024,7 +15301,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:IU37 K8:IU30">
+  <conditionalFormatting sqref="K33:IU38 K8:IU31">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6,NOT(ISBLANK($C8)))</formula>
     </cfRule>
@@ -15035,7 +15312,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:IU37 K6:IU30">
+  <conditionalFormatting sqref="K33:IU38 K6:IU31">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -15047,8 +15324,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I9 B33 B32 F18 F22 F26 E32:I33 E36:E37 E34:I34 H27:I27 H23:I23 H18:I18 H22:I22 H26:I26" unlockedFormula="1"/>
-    <ignoredError sqref="A26 A22 A18" formula="1"/>
+    <ignoredError sqref="I9 B34 B33 F19 F23 F27 E33:I34 E37:E38 E35:I35 H28:I28 H24:I24 H19:I19 H23:I23 H27:I27" unlockedFormula="1"/>
+    <ignoredError sqref="A27 A23 A19" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -15096,7 +15373,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H33:H37 H8:H30</xm:sqref>
+          <xm:sqref>H34:H38 H8:H31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB63CE-E3E5-4DBC-9185-20AE6FE3D464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ACA927-23EF-4EBD-A9C8-F0D73BD94C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ACA927-23EF-4EBD-A9C8-F0D73BD94C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86314025-610F-4368-B531-57476F071499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -1493,9 +1493,6 @@
     <t>TU Delft</t>
   </si>
   <si>
-    <t>absent</t>
-  </si>
-  <si>
     <t>research methods exam</t>
   </si>
   <si>
@@ -1544,10 +1541,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>study flying V</t>
+    <t>do RL implementation exercises</t>
   </si>
   <si>
-    <t>do RL implementation exercises</t>
+    <t>gather &amp; study flying-V literature</t>
+  </si>
+  <si>
+    <t>spring break</t>
   </si>
 </sst>
 </file>
@@ -3251,15 +3251,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3272,7 +3263,28 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3309,18 +3321,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3574,13 +3574,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4165,71 +4165,71 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10:AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="155" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="155" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
     <col min="7" max="7" width="6" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="25" customWidth="1"/>
-    <col min="67" max="68" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="170" max="190" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="191" max="192" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="200" max="221" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="0.5546875" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.44140625" style="25" customWidth="1"/>
+    <col min="67" max="68" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="170" max="190" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="191" max="192" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="200" max="221" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="25"/>
+    <col min="229" max="229" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
         <v>139</v>
       </c>
@@ -4242,23 +4242,23 @@
       <c r="K1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="164"/>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
-    </row>
-    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+    </row>
+    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
         <v>140</v>
       </c>
@@ -4332,735 +4332,735 @@
       <c r="BM3" s="116"/>
       <c r="BN3" s="117"/>
     </row>
-    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="171">
         <v>45295</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="H4" s="113" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="159" t="str">
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="156" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="159" t="str">
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="156" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="159" t="str">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="156" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="159" t="str">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="156" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="159" t="str">
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="156" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="159" t="str">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="156" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="159" t="str">
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="156" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="161"/>
-      <c r="BO4" s="159" t="str">
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="156" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="161"/>
-      <c r="BV4" s="159" t="str">
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="156" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="161"/>
-      <c r="CC4" s="159" t="str">
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="157"/>
+      <c r="BY4" s="157"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="158"/>
+      <c r="CC4" s="156" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="160"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="161"/>
-      <c r="CJ4" s="159" t="str">
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="157"/>
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="157"/>
+      <c r="CH4" s="157"/>
+      <c r="CI4" s="158"/>
+      <c r="CJ4" s="156" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-      <c r="CM4" s="160"/>
-      <c r="CN4" s="160"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="161"/>
-      <c r="CQ4" s="159" t="str">
+      <c r="CK4" s="157"/>
+      <c r="CL4" s="157"/>
+      <c r="CM4" s="157"/>
+      <c r="CN4" s="157"/>
+      <c r="CO4" s="157"/>
+      <c r="CP4" s="158"/>
+      <c r="CQ4" s="156" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="160"/>
-      <c r="CS4" s="160"/>
-      <c r="CT4" s="160"/>
-      <c r="CU4" s="160"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="161"/>
-      <c r="CX4" s="159" t="str">
+      <c r="CR4" s="157"/>
+      <c r="CS4" s="157"/>
+      <c r="CT4" s="157"/>
+      <c r="CU4" s="157"/>
+      <c r="CV4" s="157"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="156" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="160"/>
-      <c r="CZ4" s="160"/>
-      <c r="DA4" s="160"/>
-      <c r="DB4" s="160"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="161"/>
-      <c r="DE4" s="159" t="str">
+      <c r="CY4" s="157"/>
+      <c r="CZ4" s="157"/>
+      <c r="DA4" s="157"/>
+      <c r="DB4" s="157"/>
+      <c r="DC4" s="157"/>
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="156" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="160"/>
-      <c r="DG4" s="160"/>
-      <c r="DH4" s="160"/>
-      <c r="DI4" s="160"/>
-      <c r="DJ4" s="160"/>
-      <c r="DK4" s="161"/>
-      <c r="DL4" s="159" t="str">
+      <c r="DF4" s="157"/>
+      <c r="DG4" s="157"/>
+      <c r="DH4" s="157"/>
+      <c r="DI4" s="157"/>
+      <c r="DJ4" s="157"/>
+      <c r="DK4" s="158"/>
+      <c r="DL4" s="156" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="160"/>
-      <c r="DN4" s="160"/>
-      <c r="DO4" s="160"/>
-      <c r="DP4" s="160"/>
-      <c r="DQ4" s="160"/>
-      <c r="DR4" s="161"/>
-      <c r="DS4" s="159" t="str">
+      <c r="DM4" s="157"/>
+      <c r="DN4" s="157"/>
+      <c r="DO4" s="157"/>
+      <c r="DP4" s="157"/>
+      <c r="DQ4" s="157"/>
+      <c r="DR4" s="158"/>
+      <c r="DS4" s="156" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="160"/>
-      <c r="DU4" s="160"/>
-      <c r="DV4" s="160"/>
-      <c r="DW4" s="160"/>
-      <c r="DX4" s="160"/>
-      <c r="DY4" s="161"/>
-      <c r="DZ4" s="159" t="str">
+      <c r="DT4" s="157"/>
+      <c r="DU4" s="157"/>
+      <c r="DV4" s="157"/>
+      <c r="DW4" s="157"/>
+      <c r="DX4" s="157"/>
+      <c r="DY4" s="158"/>
+      <c r="DZ4" s="156" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="160"/>
-      <c r="EB4" s="160"/>
-      <c r="EC4" s="160"/>
-      <c r="ED4" s="160"/>
-      <c r="EE4" s="160"/>
-      <c r="EF4" s="161"/>
-      <c r="EG4" s="159" t="str">
+      <c r="EA4" s="157"/>
+      <c r="EB4" s="157"/>
+      <c r="EC4" s="157"/>
+      <c r="ED4" s="157"/>
+      <c r="EE4" s="157"/>
+      <c r="EF4" s="158"/>
+      <c r="EG4" s="156" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="160"/>
-      <c r="EI4" s="160"/>
-      <c r="EJ4" s="160"/>
-      <c r="EK4" s="160"/>
-      <c r="EL4" s="160"/>
-      <c r="EM4" s="161"/>
-      <c r="EN4" s="159" t="str">
+      <c r="EH4" s="157"/>
+      <c r="EI4" s="157"/>
+      <c r="EJ4" s="157"/>
+      <c r="EK4" s="157"/>
+      <c r="EL4" s="157"/>
+      <c r="EM4" s="158"/>
+      <c r="EN4" s="156" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="160"/>
-      <c r="EP4" s="160"/>
-      <c r="EQ4" s="160"/>
-      <c r="ER4" s="160"/>
-      <c r="ES4" s="160"/>
-      <c r="ET4" s="161"/>
-      <c r="EU4" s="159" t="str">
+      <c r="EO4" s="157"/>
+      <c r="EP4" s="157"/>
+      <c r="EQ4" s="157"/>
+      <c r="ER4" s="157"/>
+      <c r="ES4" s="157"/>
+      <c r="ET4" s="158"/>
+      <c r="EU4" s="156" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="160"/>
-      <c r="EW4" s="160"/>
-      <c r="EX4" s="160"/>
-      <c r="EY4" s="160"/>
-      <c r="EZ4" s="160"/>
-      <c r="FA4" s="161"/>
-      <c r="FB4" s="159" t="str">
+      <c r="EV4" s="157"/>
+      <c r="EW4" s="157"/>
+      <c r="EX4" s="157"/>
+      <c r="EY4" s="157"/>
+      <c r="EZ4" s="157"/>
+      <c r="FA4" s="158"/>
+      <c r="FB4" s="156" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="160"/>
-      <c r="FD4" s="160"/>
-      <c r="FE4" s="160"/>
-      <c r="FF4" s="160"/>
-      <c r="FG4" s="160"/>
-      <c r="FH4" s="161"/>
-      <c r="FI4" s="159" t="str">
+      <c r="FC4" s="157"/>
+      <c r="FD4" s="157"/>
+      <c r="FE4" s="157"/>
+      <c r="FF4" s="157"/>
+      <c r="FG4" s="157"/>
+      <c r="FH4" s="158"/>
+      <c r="FI4" s="156" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="160"/>
-      <c r="FK4" s="160"/>
-      <c r="FL4" s="160"/>
-      <c r="FM4" s="160"/>
-      <c r="FN4" s="160"/>
-      <c r="FO4" s="161"/>
-      <c r="FP4" s="159" t="str">
+      <c r="FJ4" s="157"/>
+      <c r="FK4" s="157"/>
+      <c r="FL4" s="157"/>
+      <c r="FM4" s="157"/>
+      <c r="FN4" s="157"/>
+      <c r="FO4" s="158"/>
+      <c r="FP4" s="156" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="160"/>
-      <c r="FR4" s="160"/>
-      <c r="FS4" s="160"/>
-      <c r="FT4" s="160"/>
-      <c r="FU4" s="160"/>
-      <c r="FV4" s="161"/>
-      <c r="FW4" s="159" t="str">
+      <c r="FQ4" s="157"/>
+      <c r="FR4" s="157"/>
+      <c r="FS4" s="157"/>
+      <c r="FT4" s="157"/>
+      <c r="FU4" s="157"/>
+      <c r="FV4" s="158"/>
+      <c r="FW4" s="156" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="160"/>
-      <c r="FY4" s="160"/>
-      <c r="FZ4" s="160"/>
-      <c r="GA4" s="160"/>
-      <c r="GB4" s="160"/>
-      <c r="GC4" s="161"/>
-      <c r="GD4" s="159" t="str">
+      <c r="FX4" s="157"/>
+      <c r="FY4" s="157"/>
+      <c r="FZ4" s="157"/>
+      <c r="GA4" s="157"/>
+      <c r="GB4" s="157"/>
+      <c r="GC4" s="158"/>
+      <c r="GD4" s="156" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="160"/>
-      <c r="GF4" s="160"/>
-      <c r="GG4" s="160"/>
-      <c r="GH4" s="160"/>
-      <c r="GI4" s="160"/>
-      <c r="GJ4" s="161"/>
-      <c r="GK4" s="159" t="str">
+      <c r="GE4" s="157"/>
+      <c r="GF4" s="157"/>
+      <c r="GG4" s="157"/>
+      <c r="GH4" s="157"/>
+      <c r="GI4" s="157"/>
+      <c r="GJ4" s="158"/>
+      <c r="GK4" s="156" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="160"/>
-      <c r="GM4" s="160"/>
-      <c r="GN4" s="160"/>
-      <c r="GO4" s="160"/>
-      <c r="GP4" s="160"/>
-      <c r="GQ4" s="161"/>
-      <c r="GR4" s="159" t="str">
+      <c r="GL4" s="157"/>
+      <c r="GM4" s="157"/>
+      <c r="GN4" s="157"/>
+      <c r="GO4" s="157"/>
+      <c r="GP4" s="157"/>
+      <c r="GQ4" s="158"/>
+      <c r="GR4" s="156" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="160"/>
-      <c r="GT4" s="160"/>
-      <c r="GU4" s="160"/>
-      <c r="GV4" s="160"/>
-      <c r="GW4" s="160"/>
-      <c r="GX4" s="161"/>
-      <c r="GY4" s="159" t="str">
+      <c r="GS4" s="157"/>
+      <c r="GT4" s="157"/>
+      <c r="GU4" s="157"/>
+      <c r="GV4" s="157"/>
+      <c r="GW4" s="157"/>
+      <c r="GX4" s="158"/>
+      <c r="GY4" s="156" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="160"/>
-      <c r="HA4" s="160"/>
-      <c r="HB4" s="160"/>
-      <c r="HC4" s="160"/>
-      <c r="HD4" s="160"/>
-      <c r="HE4" s="161"/>
-      <c r="HF4" s="159" t="str">
+      <c r="GZ4" s="157"/>
+      <c r="HA4" s="157"/>
+      <c r="HB4" s="157"/>
+      <c r="HC4" s="157"/>
+      <c r="HD4" s="157"/>
+      <c r="HE4" s="158"/>
+      <c r="HF4" s="156" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="160"/>
-      <c r="HH4" s="160"/>
-      <c r="HI4" s="160"/>
-      <c r="HJ4" s="160"/>
-      <c r="HK4" s="160"/>
-      <c r="HL4" s="161"/>
-      <c r="HM4" s="159" t="str">
+      <c r="HG4" s="157"/>
+      <c r="HH4" s="157"/>
+      <c r="HI4" s="157"/>
+      <c r="HJ4" s="157"/>
+      <c r="HK4" s="157"/>
+      <c r="HL4" s="158"/>
+      <c r="HM4" s="156" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="160"/>
-      <c r="HO4" s="160"/>
-      <c r="HP4" s="160"/>
-      <c r="HQ4" s="160"/>
-      <c r="HR4" s="160"/>
-      <c r="HS4" s="161"/>
-      <c r="HT4" s="159" t="str">
+      <c r="HN4" s="157"/>
+      <c r="HO4" s="157"/>
+      <c r="HP4" s="157"/>
+      <c r="HQ4" s="157"/>
+      <c r="HR4" s="157"/>
+      <c r="HS4" s="158"/>
+      <c r="HT4" s="156" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="160"/>
-      <c r="HV4" s="160"/>
-      <c r="HW4" s="160"/>
-      <c r="HX4" s="160"/>
-      <c r="HY4" s="160"/>
-      <c r="HZ4" s="161"/>
-      <c r="IA4" s="159" t="str">
+      <c r="HU4" s="157"/>
+      <c r="HV4" s="157"/>
+      <c r="HW4" s="157"/>
+      <c r="HX4" s="157"/>
+      <c r="HY4" s="157"/>
+      <c r="HZ4" s="158"/>
+      <c r="IA4" s="156" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="160"/>
-      <c r="IC4" s="160"/>
-      <c r="ID4" s="160"/>
-      <c r="IE4" s="160"/>
-      <c r="IF4" s="160"/>
-      <c r="IG4" s="161"/>
-      <c r="IH4" s="159" t="str">
+      <c r="IB4" s="157"/>
+      <c r="IC4" s="157"/>
+      <c r="ID4" s="157"/>
+      <c r="IE4" s="157"/>
+      <c r="IF4" s="157"/>
+      <c r="IG4" s="158"/>
+      <c r="IH4" s="156" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="160"/>
-      <c r="IJ4" s="160"/>
-      <c r="IK4" s="160"/>
-      <c r="IL4" s="160"/>
-      <c r="IM4" s="160"/>
-      <c r="IN4" s="161"/>
-      <c r="IO4" s="159" t="str">
+      <c r="II4" s="157"/>
+      <c r="IJ4" s="157"/>
+      <c r="IK4" s="157"/>
+      <c r="IL4" s="157"/>
+      <c r="IM4" s="157"/>
+      <c r="IN4" s="158"/>
+      <c r="IO4" s="156" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="160"/>
-      <c r="IQ4" s="160"/>
-      <c r="IR4" s="160"/>
-      <c r="IS4" s="160"/>
-      <c r="IT4" s="160"/>
-      <c r="IU4" s="161"/>
-    </row>
-    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="IP4" s="157"/>
+      <c r="IQ4" s="157"/>
+      <c r="IR4" s="157"/>
+      <c r="IS4" s="157"/>
+      <c r="IT4" s="157"/>
+      <c r="IU4" s="158"/>
+    </row>
+    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="169"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="170">
+      <c r="K5" s="174">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="174">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="173">
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="177">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="175">
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="162">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="177">
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="164">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="156">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="158"/>
-      <c r="BH5" s="162">
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="159">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="163"/>
-      <c r="BO5" s="156">
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="161"/>
+      <c r="BO5" s="166">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="158"/>
-      <c r="BV5" s="162">
+      <c r="BP5" s="160"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="160"/>
+      <c r="BS5" s="160"/>
+      <c r="BT5" s="160"/>
+      <c r="BU5" s="167"/>
+      <c r="BV5" s="159">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="157"/>
-      <c r="BX5" s="157"/>
-      <c r="BY5" s="157"/>
-      <c r="BZ5" s="157"/>
-      <c r="CA5" s="157"/>
-      <c r="CB5" s="163"/>
-      <c r="CC5" s="162">
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="161"/>
+      <c r="CC5" s="159">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="157"/>
-      <c r="CE5" s="157"/>
-      <c r="CF5" s="157"/>
-      <c r="CG5" s="157"/>
-      <c r="CH5" s="157"/>
-      <c r="CI5" s="163"/>
-      <c r="CJ5" s="156">
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="161"/>
+      <c r="CJ5" s="166">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="157"/>
-      <c r="CL5" s="157"/>
-      <c r="CM5" s="157"/>
-      <c r="CN5" s="157"/>
-      <c r="CO5" s="157"/>
-      <c r="CP5" s="158"/>
-      <c r="CQ5" s="162">
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
+      <c r="CM5" s="160"/>
+      <c r="CN5" s="160"/>
+      <c r="CO5" s="160"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="159">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="157"/>
-      <c r="CS5" s="157"/>
-      <c r="CT5" s="157"/>
-      <c r="CU5" s="157"/>
-      <c r="CV5" s="157"/>
-      <c r="CW5" s="163"/>
-      <c r="CX5" s="162">
+      <c r="CR5" s="160"/>
+      <c r="CS5" s="160"/>
+      <c r="CT5" s="160"/>
+      <c r="CU5" s="160"/>
+      <c r="CV5" s="160"/>
+      <c r="CW5" s="161"/>
+      <c r="CX5" s="159">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="157"/>
-      <c r="CZ5" s="157"/>
-      <c r="DA5" s="157"/>
-      <c r="DB5" s="157"/>
-      <c r="DC5" s="157"/>
-      <c r="DD5" s="163"/>
-      <c r="DE5" s="156">
+      <c r="CY5" s="160"/>
+      <c r="CZ5" s="160"/>
+      <c r="DA5" s="160"/>
+      <c r="DB5" s="160"/>
+      <c r="DC5" s="160"/>
+      <c r="DD5" s="161"/>
+      <c r="DE5" s="166">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="157"/>
-      <c r="DG5" s="157"/>
-      <c r="DH5" s="157"/>
-      <c r="DI5" s="157"/>
-      <c r="DJ5" s="157"/>
-      <c r="DK5" s="158"/>
-      <c r="DL5" s="162">
+      <c r="DF5" s="160"/>
+      <c r="DG5" s="160"/>
+      <c r="DH5" s="160"/>
+      <c r="DI5" s="160"/>
+      <c r="DJ5" s="160"/>
+      <c r="DK5" s="167"/>
+      <c r="DL5" s="159">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="157"/>
-      <c r="DN5" s="157"/>
-      <c r="DO5" s="157"/>
-      <c r="DP5" s="157"/>
-      <c r="DQ5" s="157"/>
-      <c r="DR5" s="163"/>
-      <c r="DS5" s="162">
+      <c r="DM5" s="160"/>
+      <c r="DN5" s="160"/>
+      <c r="DO5" s="160"/>
+      <c r="DP5" s="160"/>
+      <c r="DQ5" s="160"/>
+      <c r="DR5" s="161"/>
+      <c r="DS5" s="159">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="157"/>
-      <c r="DU5" s="157"/>
-      <c r="DV5" s="157"/>
-      <c r="DW5" s="157"/>
-      <c r="DX5" s="157"/>
-      <c r="DY5" s="163"/>
-      <c r="DZ5" s="156">
+      <c r="DT5" s="160"/>
+      <c r="DU5" s="160"/>
+      <c r="DV5" s="160"/>
+      <c r="DW5" s="160"/>
+      <c r="DX5" s="160"/>
+      <c r="DY5" s="161"/>
+      <c r="DZ5" s="166">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="157"/>
-      <c r="EB5" s="157"/>
-      <c r="EC5" s="157"/>
-      <c r="ED5" s="157"/>
-      <c r="EE5" s="157"/>
-      <c r="EF5" s="158"/>
-      <c r="EG5" s="162">
+      <c r="EA5" s="160"/>
+      <c r="EB5" s="160"/>
+      <c r="EC5" s="160"/>
+      <c r="ED5" s="160"/>
+      <c r="EE5" s="160"/>
+      <c r="EF5" s="167"/>
+      <c r="EG5" s="159">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="157"/>
-      <c r="EI5" s="157"/>
-      <c r="EJ5" s="157"/>
-      <c r="EK5" s="157"/>
-      <c r="EL5" s="157"/>
-      <c r="EM5" s="163"/>
-      <c r="EN5" s="162">
+      <c r="EH5" s="160"/>
+      <c r="EI5" s="160"/>
+      <c r="EJ5" s="160"/>
+      <c r="EK5" s="160"/>
+      <c r="EL5" s="160"/>
+      <c r="EM5" s="161"/>
+      <c r="EN5" s="159">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="157"/>
-      <c r="EP5" s="157"/>
-      <c r="EQ5" s="157"/>
-      <c r="ER5" s="157"/>
-      <c r="ES5" s="157"/>
-      <c r="ET5" s="163"/>
-      <c r="EU5" s="156">
+      <c r="EO5" s="160"/>
+      <c r="EP5" s="160"/>
+      <c r="EQ5" s="160"/>
+      <c r="ER5" s="160"/>
+      <c r="ES5" s="160"/>
+      <c r="ET5" s="161"/>
+      <c r="EU5" s="166">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="157"/>
-      <c r="EW5" s="157"/>
-      <c r="EX5" s="157"/>
-      <c r="EY5" s="157"/>
-      <c r="EZ5" s="157"/>
-      <c r="FA5" s="158"/>
-      <c r="FB5" s="162">
+      <c r="EV5" s="160"/>
+      <c r="EW5" s="160"/>
+      <c r="EX5" s="160"/>
+      <c r="EY5" s="160"/>
+      <c r="EZ5" s="160"/>
+      <c r="FA5" s="167"/>
+      <c r="FB5" s="159">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="157"/>
-      <c r="FD5" s="157"/>
-      <c r="FE5" s="157"/>
-      <c r="FF5" s="157"/>
-      <c r="FG5" s="157"/>
-      <c r="FH5" s="163"/>
-      <c r="FI5" s="162">
+      <c r="FC5" s="160"/>
+      <c r="FD5" s="160"/>
+      <c r="FE5" s="160"/>
+      <c r="FF5" s="160"/>
+      <c r="FG5" s="160"/>
+      <c r="FH5" s="161"/>
+      <c r="FI5" s="159">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="157"/>
-      <c r="FK5" s="157"/>
-      <c r="FL5" s="157"/>
-      <c r="FM5" s="157"/>
-      <c r="FN5" s="157"/>
-      <c r="FO5" s="163"/>
-      <c r="FP5" s="156">
+      <c r="FJ5" s="160"/>
+      <c r="FK5" s="160"/>
+      <c r="FL5" s="160"/>
+      <c r="FM5" s="160"/>
+      <c r="FN5" s="160"/>
+      <c r="FO5" s="161"/>
+      <c r="FP5" s="166">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="157"/>
-      <c r="FR5" s="157"/>
-      <c r="FS5" s="157"/>
-      <c r="FT5" s="157"/>
-      <c r="FU5" s="157"/>
-      <c r="FV5" s="158"/>
-      <c r="FW5" s="162">
+      <c r="FQ5" s="160"/>
+      <c r="FR5" s="160"/>
+      <c r="FS5" s="160"/>
+      <c r="FT5" s="160"/>
+      <c r="FU5" s="160"/>
+      <c r="FV5" s="167"/>
+      <c r="FW5" s="159">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="157"/>
-      <c r="FY5" s="157"/>
-      <c r="FZ5" s="157"/>
-      <c r="GA5" s="157"/>
-      <c r="GB5" s="157"/>
-      <c r="GC5" s="163"/>
-      <c r="GD5" s="162">
+      <c r="FX5" s="160"/>
+      <c r="FY5" s="160"/>
+      <c r="FZ5" s="160"/>
+      <c r="GA5" s="160"/>
+      <c r="GB5" s="160"/>
+      <c r="GC5" s="161"/>
+      <c r="GD5" s="159">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="157"/>
-      <c r="GF5" s="157"/>
-      <c r="GG5" s="157"/>
-      <c r="GH5" s="157"/>
-      <c r="GI5" s="157"/>
-      <c r="GJ5" s="163"/>
-      <c r="GK5" s="156">
+      <c r="GE5" s="160"/>
+      <c r="GF5" s="160"/>
+      <c r="GG5" s="160"/>
+      <c r="GH5" s="160"/>
+      <c r="GI5" s="160"/>
+      <c r="GJ5" s="161"/>
+      <c r="GK5" s="166">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="157"/>
-      <c r="GM5" s="157"/>
-      <c r="GN5" s="157"/>
-      <c r="GO5" s="157"/>
-      <c r="GP5" s="157"/>
-      <c r="GQ5" s="158"/>
-      <c r="GR5" s="162">
+      <c r="GL5" s="160"/>
+      <c r="GM5" s="160"/>
+      <c r="GN5" s="160"/>
+      <c r="GO5" s="160"/>
+      <c r="GP5" s="160"/>
+      <c r="GQ5" s="167"/>
+      <c r="GR5" s="159">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="157"/>
-      <c r="GT5" s="157"/>
-      <c r="GU5" s="157"/>
-      <c r="GV5" s="157"/>
-      <c r="GW5" s="157"/>
-      <c r="GX5" s="163"/>
-      <c r="GY5" s="156">
+      <c r="GS5" s="160"/>
+      <c r="GT5" s="160"/>
+      <c r="GU5" s="160"/>
+      <c r="GV5" s="160"/>
+      <c r="GW5" s="160"/>
+      <c r="GX5" s="161"/>
+      <c r="GY5" s="166">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="157"/>
-      <c r="HA5" s="157"/>
-      <c r="HB5" s="157"/>
-      <c r="HC5" s="157"/>
-      <c r="HD5" s="157"/>
-      <c r="HE5" s="158"/>
-      <c r="HF5" s="162">
+      <c r="GZ5" s="160"/>
+      <c r="HA5" s="160"/>
+      <c r="HB5" s="160"/>
+      <c r="HC5" s="160"/>
+      <c r="HD5" s="160"/>
+      <c r="HE5" s="167"/>
+      <c r="HF5" s="159">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="157"/>
-      <c r="HH5" s="157"/>
-      <c r="HI5" s="157"/>
-      <c r="HJ5" s="157"/>
-      <c r="HK5" s="157"/>
-      <c r="HL5" s="163"/>
-      <c r="HM5" s="156">
+      <c r="HG5" s="160"/>
+      <c r="HH5" s="160"/>
+      <c r="HI5" s="160"/>
+      <c r="HJ5" s="160"/>
+      <c r="HK5" s="160"/>
+      <c r="HL5" s="161"/>
+      <c r="HM5" s="166">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="157"/>
-      <c r="HO5" s="157"/>
-      <c r="HP5" s="157"/>
-      <c r="HQ5" s="157"/>
-      <c r="HR5" s="157"/>
-      <c r="HS5" s="158"/>
-      <c r="HT5" s="162">
+      <c r="HN5" s="160"/>
+      <c r="HO5" s="160"/>
+      <c r="HP5" s="160"/>
+      <c r="HQ5" s="160"/>
+      <c r="HR5" s="160"/>
+      <c r="HS5" s="167"/>
+      <c r="HT5" s="159">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="157"/>
-      <c r="HV5" s="157"/>
-      <c r="HW5" s="157"/>
-      <c r="HX5" s="157"/>
-      <c r="HY5" s="157"/>
-      <c r="HZ5" s="163"/>
-      <c r="IA5" s="156">
+      <c r="HU5" s="160"/>
+      <c r="HV5" s="160"/>
+      <c r="HW5" s="160"/>
+      <c r="HX5" s="160"/>
+      <c r="HY5" s="160"/>
+      <c r="HZ5" s="161"/>
+      <c r="IA5" s="166">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="157"/>
-      <c r="IC5" s="157"/>
-      <c r="ID5" s="157"/>
-      <c r="IE5" s="157"/>
-      <c r="IF5" s="157"/>
-      <c r="IG5" s="158"/>
-      <c r="IH5" s="162">
+      <c r="IB5" s="160"/>
+      <c r="IC5" s="160"/>
+      <c r="ID5" s="160"/>
+      <c r="IE5" s="160"/>
+      <c r="IF5" s="160"/>
+      <c r="IG5" s="167"/>
+      <c r="IH5" s="159">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="157"/>
-      <c r="IJ5" s="157"/>
-      <c r="IK5" s="157"/>
-      <c r="IL5" s="157"/>
-      <c r="IM5" s="157"/>
-      <c r="IN5" s="163"/>
-      <c r="IO5" s="156">
+      <c r="II5" s="160"/>
+      <c r="IJ5" s="160"/>
+      <c r="IK5" s="160"/>
+      <c r="IL5" s="160"/>
+      <c r="IM5" s="160"/>
+      <c r="IN5" s="161"/>
+      <c r="IO5" s="166">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="157"/>
-      <c r="IQ5" s="157"/>
-      <c r="IR5" s="157"/>
-      <c r="IS5" s="157"/>
-      <c r="IT5" s="157"/>
-      <c r="IU5" s="158"/>
-    </row>
-    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="IP5" s="160"/>
+      <c r="IQ5" s="160"/>
+      <c r="IR5" s="160"/>
+      <c r="IS5" s="160"/>
+      <c r="IT5" s="160"/>
+      <c r="IU5" s="167"/>
+    </row>
+    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="146"/>
       <c r="K6" s="64">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="IU7" s="62"/>
     </row>
-    <row r="8" spans="1:255" s="26" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:255" s="26" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -7309,7 +7309,7 @@
       <c r="IT8" s="27"/>
       <c r="IU8" s="27"/>
     </row>
-    <row r="9" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="str">
         <f t="shared" ref="A9:A20" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -7583,13 +7583,13 @@
       <c r="IT9" s="34"/>
       <c r="IU9" s="34"/>
     </row>
-    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="str">
         <f t="shared" ref="A10:A18" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="150"/>
       <c r="D10" s="33"/>
@@ -7857,13 +7857,13 @@
       <c r="IT10" s="34"/>
       <c r="IU10" s="34"/>
     </row>
-    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.2</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="150"/>
       <c r="D11" s="33"/>
@@ -8131,13 +8131,13 @@
       <c r="IT11" s="34"/>
       <c r="IU11" s="34"/>
     </row>
-    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.3</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="150"/>
       <c r="D12" s="33"/>
@@ -8406,13 +8406,13 @@
       <c r="IT12" s="34"/>
       <c r="IU12" s="34"/>
     </row>
-    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.4</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="33"/>
@@ -8680,7 +8680,7 @@
       <c r="IT13" s="34"/>
       <c r="IU13" s="34"/>
     </row>
-    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.5</v>
@@ -8725,7 +8725,7 @@
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
@@ -8957,13 +8957,13 @@
       <c r="IT14" s="34"/>
       <c r="IU14" s="34"/>
     </row>
-    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.6</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C15" s="150">
         <v>1</v>
@@ -9233,13 +9233,13 @@
       <c r="IT15" s="34"/>
       <c r="IU15" s="34"/>
     </row>
-    <row r="16" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.7</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="150">
         <v>1</v>
@@ -9509,13 +9509,13 @@
       <c r="IT16" s="34"/>
       <c r="IU16" s="34"/>
     </row>
-    <row r="17" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.8</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="150">
         <v>1</v>
@@ -9785,13 +9785,13 @@
       <c r="IT17" s="34"/>
       <c r="IU17" s="34"/>
     </row>
-    <row r="18" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.9</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="150">
         <v>1</v>
@@ -10062,7 +10062,7 @@
       <c r="IT18" s="34"/>
       <c r="IU18" s="34"/>
     </row>
-    <row r="19" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:255" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -10324,13 +10324,13 @@
       <c r="IT19" s="36"/>
       <c r="IU19" s="36"/>
     </row>
-    <row r="20" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="91" t="str">
         <f t="shared" si="254"/>
         <v>2.1</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="149"/>
       <c r="D20" s="89"/>
@@ -10599,13 +10599,13 @@
       <c r="IT20" s="34"/>
       <c r="IU20" s="34"/>
     </row>
-    <row r="21" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="149">
         <v>1</v>
@@ -10876,13 +10876,13 @@
       <c r="IT21" s="34"/>
       <c r="IU21" s="34"/>
     </row>
-    <row r="22" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C22" s="149">
         <v>1</v>
@@ -11152,7 +11152,7 @@
       <c r="IT22" s="34"/>
       <c r="IU22" s="34"/>
     </row>
-    <row r="23" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:255" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -11414,13 +11414,13 @@
       <c r="IT23" s="36"/>
       <c r="IU23" s="36"/>
     </row>
-    <row r="24" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C24" s="150"/>
       <c r="D24" s="33"/>
@@ -11689,13 +11689,13 @@
       <c r="IT24" s="34"/>
       <c r="IU24" s="34"/>
     </row>
-    <row r="25" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="150">
         <v>1</v>
@@ -11966,13 +11966,13 @@
       <c r="IT25" s="34"/>
       <c r="IU25" s="34"/>
     </row>
-    <row r="26" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="150">
         <v>1</v>
@@ -12242,7 +12242,7 @@
       <c r="IT26" s="34"/>
       <c r="IU26" s="34"/>
     </row>
-    <row r="27" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:255" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -12504,13 +12504,13 @@
       <c r="IT27" s="36"/>
       <c r="IU27" s="36"/>
     </row>
-    <row r="28" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="33"/>
@@ -12779,13 +12779,13 @@
       <c r="IT28" s="34"/>
       <c r="IU28" s="34"/>
     </row>
-    <row r="29" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="150">
         <v>1</v>
@@ -13056,13 +13056,13 @@
       <c r="IT29" s="34"/>
       <c r="IU29" s="34"/>
     </row>
-    <row r="30" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="150">
         <v>1</v>
@@ -13332,13 +13332,13 @@
       <c r="IT30" s="34"/>
       <c r="IU30" s="34"/>
     </row>
-    <row r="31" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="150">
         <v>1</v>
@@ -13609,7 +13609,7 @@
       <c r="IT31" s="34"/>
       <c r="IU31" s="34"/>
     </row>
-    <row r="33" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="105" t="s">
         <v>1</v>
       </c>
@@ -13868,7 +13868,7 @@
       <c r="IT33" s="34"/>
       <c r="IU33" s="34"/>
     </row>
-    <row r="34" spans="1:255" s="39" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:255" s="39" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="106" t="s">
         <v>75</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="IT34" s="34"/>
       <c r="IU34" s="34"/>
     </row>
-    <row r="35" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -14385,7 +14385,7 @@
       <c r="IT35" s="34"/>
       <c r="IU35" s="34"/>
     </row>
-    <row r="36" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -14655,7 +14655,7 @@
       <c r="IT36" s="34"/>
       <c r="IU36" s="34"/>
     </row>
-    <row r="37" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -14925,7 +14925,7 @@
       <c r="IT37" s="34"/>
       <c r="IU37" s="34"/>
     </row>
-    <row r="38" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -15195,61 +15195,32 @@
       <c r="IT38" s="34"/>
       <c r="IU38" s="34"/>
     </row>
-    <row r="39" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="142" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
       <c r="C39" s="154"/>
     </row>
-    <row r="40" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15266,20 +15237,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H34:H38 H8:H31">
@@ -15339,13 +15339,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -15390,62 +15390,62 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="119" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="120" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B5" s="121" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="122" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="179" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="179"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="123"/>
       <c r="B15" s="124" t="s">
         <v>79</v>
@@ -15453,7 +15453,7 @@
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="123"/>
       <c r="B16" s="124" t="s">
         <v>80</v>
@@ -15461,162 +15461,162 @@
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="126"/>
       <c r="B17" s="124" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="126"/>
       <c r="B18" s="124" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="126"/>
       <c r="B19" s="124" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" s="126"/>
       <c r="B20" s="124" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="126"/>
       <c r="B21" s="127" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="126"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="179" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="179"/>
     </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="126"/>
       <c r="B24" s="124" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="126"/>
       <c r="B25" s="124"/>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="126"/>
       <c r="B26" s="128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="126"/>
       <c r="B27" s="124" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="126"/>
       <c r="B28" s="124" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A29" s="126"/>
       <c r="B29" s="124"/>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="126"/>
       <c r="B30" s="128" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="126"/>
       <c r="B31" s="124" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="126"/>
       <c r="B32" s="124" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="126"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A34" s="126"/>
       <c r="B34" s="124" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="126"/>
       <c r="B35" s="129" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="126"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="179" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="179"/>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B38" s="124" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="124" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B42" s="124" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B44" s="124" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B46" s="124" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="179" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="179"/>
     </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B49" s="124" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
         <v>8</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="130" t="s">
         <v>10</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="130" t="s">
         <v>12</v>
       </c>
@@ -15640,19 +15640,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A54" s="122"/>
       <c r="B54" s="124" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A55" s="122"/>
       <c r="B55" s="124" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="130" t="s">
         <v>14</v>
       </c>
@@ -15660,19 +15660,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="122"/>
       <c r="B57" s="124" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="122"/>
       <c r="B58" s="124" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="130" t="s">
         <v>16</v>
       </c>
@@ -15680,13 +15680,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A60" s="122"/>
       <c r="B60" s="124" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="130" t="s">
         <v>106</v>
       </c>
@@ -15694,33 +15694,33 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="131"/>
       <c r="B62" s="124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="179" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="179"/>
     </row>
-    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B65" s="124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="179" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="179"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="132" t="s">
         <v>4</v>
       </c>
@@ -15728,17 +15728,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="131"/>
       <c r="B69" s="134" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="131"/>
       <c r="B70" s="135"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="132" t="s">
         <v>4</v>
       </c>
@@ -15746,17 +15746,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A72" s="131"/>
       <c r="B72" s="134" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="131"/>
       <c r="B73" s="135"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="132" t="s">
         <v>4</v>
       </c>
@@ -15764,17 +15764,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A75" s="131"/>
       <c r="B75" s="121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="131"/>
       <c r="B76" s="131"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="132" t="s">
         <v>4</v>
       </c>
@@ -15782,17 +15782,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="131"/>
       <c r="B78" s="121" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="131"/>
       <c r="B79" s="131"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="132" t="s">
         <v>4</v>
       </c>
@@ -15800,29 +15800,29 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="131"/>
       <c r="B81" s="137" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="131"/>
       <c r="B82" s="137" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="131"/>
       <c r="B83" s="137" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="131"/>
       <c r="B84" s="138"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="132" t="s">
         <v>4</v>
       </c>
@@ -15830,29 +15830,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A86" s="131"/>
       <c r="B86" s="121" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="131"/>
       <c r="B87" s="139" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A88" s="131"/>
       <c r="B88" s="140" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="131"/>
       <c r="B89" s="131"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="132" t="s">
         <v>4</v>
       </c>
@@ -15860,13 +15860,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="122"/>
       <c r="B91" s="137" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>51</v>
       </c>
@@ -15904,173 +15904,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
@@ -16095,172 +16094,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86314025-610F-4368-B531-57476F071499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472DFA1-E061-4D7D-A2F7-530B9816384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="162">
   <si>
     <t>WBS</t>
   </si>
@@ -1548,6 +1548,12 @@
   </si>
   <si>
     <t>spring break</t>
+  </si>
+  <si>
+    <t>dirench atmaca - phd indi flying v</t>
+  </si>
+  <si>
+    <t>tim traas- who started september 2022, has the 9 month</t>
   </si>
 </sst>
 </file>
@@ -3251,6 +3257,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3263,28 +3278,7 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3321,6 +3315,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3574,13 +3580,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>5443</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>97971</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4163,73 +4169,76 @@
   </sheetPr>
   <dimension ref="A1:IU41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10:AC10"/>
+      <selection pane="bottomLeft" activeCell="BZ19" sqref="BZ19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="155" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.84375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="45.84375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" style="155" customWidth="1"/>
+    <col min="4" max="4" width="6.84375" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
     <col min="7" max="7" width="6" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="0.5546875" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.44140625" style="25" customWidth="1"/>
-    <col min="67" max="68" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="170" max="190" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="191" max="192" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="200" max="221" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.69140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.53515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="0.53515625" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.4609375" style="25" customWidth="1"/>
+    <col min="67" max="68" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="170" max="185" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="186" max="192" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.61328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.61328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.61328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="202" max="206" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="207" max="221" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.109375" style="25"/>
+    <col min="229" max="229" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.07421875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
         <v>139</v>
       </c>
@@ -4242,23 +4251,23 @@
       <c r="K1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-    </row>
-    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+    </row>
+    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
         <v>140</v>
       </c>
@@ -4268,7 +4277,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="58"/>
     </row>
-    <row r="3" spans="1:255" s="100" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="100" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="145"/>
@@ -4332,735 +4341,735 @@
       <c r="BM3" s="116"/>
       <c r="BN3" s="117"/>
     </row>
-    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="167">
         <v>45295</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
       <c r="H4" s="113" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="156" t="str">
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="159" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="156" t="str">
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="159" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="156" t="str">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="159" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="157"/>
-      <c r="AH4" s="157"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="156" t="str">
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160"/>
+      <c r="AJ4" s="160"/>
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="159" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="157"/>
-      <c r="AP4" s="157"/>
-      <c r="AQ4" s="157"/>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="156" t="str">
+      <c r="AN4" s="160"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="159" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="157"/>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="156" t="str">
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160"/>
+      <c r="AZ4" s="161"/>
+      <c r="BA4" s="159" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="157"/>
-      <c r="BC4" s="157"/>
-      <c r="BD4" s="157"/>
-      <c r="BE4" s="157"/>
-      <c r="BF4" s="157"/>
-      <c r="BG4" s="158"/>
-      <c r="BH4" s="156" t="str">
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="161"/>
+      <c r="BH4" s="159" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="157"/>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="158"/>
-      <c r="BO4" s="156" t="str">
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="160"/>
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="160"/>
+      <c r="BN4" s="161"/>
+      <c r="BO4" s="159" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="157"/>
-      <c r="BS4" s="157"/>
-      <c r="BT4" s="157"/>
-      <c r="BU4" s="158"/>
-      <c r="BV4" s="156" t="str">
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="161"/>
+      <c r="BV4" s="159" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="157"/>
-      <c r="BX4" s="157"/>
-      <c r="BY4" s="157"/>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="157"/>
-      <c r="CB4" s="158"/>
-      <c r="CC4" s="156" t="str">
+      <c r="BW4" s="160"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="160"/>
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="161"/>
+      <c r="CC4" s="159" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="157"/>
-      <c r="CE4" s="157"/>
-      <c r="CF4" s="157"/>
-      <c r="CG4" s="157"/>
-      <c r="CH4" s="157"/>
-      <c r="CI4" s="158"/>
-      <c r="CJ4" s="156" t="str">
+      <c r="CD4" s="160"/>
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="160"/>
+      <c r="CG4" s="160"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="161"/>
+      <c r="CJ4" s="159" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="157"/>
-      <c r="CL4" s="157"/>
-      <c r="CM4" s="157"/>
-      <c r="CN4" s="157"/>
-      <c r="CO4" s="157"/>
-      <c r="CP4" s="158"/>
-      <c r="CQ4" s="156" t="str">
+      <c r="CK4" s="160"/>
+      <c r="CL4" s="160"/>
+      <c r="CM4" s="160"/>
+      <c r="CN4" s="160"/>
+      <c r="CO4" s="160"/>
+      <c r="CP4" s="161"/>
+      <c r="CQ4" s="159" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="157"/>
-      <c r="CS4" s="157"/>
-      <c r="CT4" s="157"/>
-      <c r="CU4" s="157"/>
-      <c r="CV4" s="157"/>
-      <c r="CW4" s="158"/>
-      <c r="CX4" s="156" t="str">
+      <c r="CR4" s="160"/>
+      <c r="CS4" s="160"/>
+      <c r="CT4" s="160"/>
+      <c r="CU4" s="160"/>
+      <c r="CV4" s="160"/>
+      <c r="CW4" s="161"/>
+      <c r="CX4" s="159" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="157"/>
-      <c r="CZ4" s="157"/>
-      <c r="DA4" s="157"/>
-      <c r="DB4" s="157"/>
-      <c r="DC4" s="157"/>
-      <c r="DD4" s="158"/>
-      <c r="DE4" s="156" t="str">
+      <c r="CY4" s="160"/>
+      <c r="CZ4" s="160"/>
+      <c r="DA4" s="160"/>
+      <c r="DB4" s="160"/>
+      <c r="DC4" s="160"/>
+      <c r="DD4" s="161"/>
+      <c r="DE4" s="159" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="157"/>
-      <c r="DG4" s="157"/>
-      <c r="DH4" s="157"/>
-      <c r="DI4" s="157"/>
-      <c r="DJ4" s="157"/>
-      <c r="DK4" s="158"/>
-      <c r="DL4" s="156" t="str">
+      <c r="DF4" s="160"/>
+      <c r="DG4" s="160"/>
+      <c r="DH4" s="160"/>
+      <c r="DI4" s="160"/>
+      <c r="DJ4" s="160"/>
+      <c r="DK4" s="161"/>
+      <c r="DL4" s="159" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="157"/>
-      <c r="DN4" s="157"/>
-      <c r="DO4" s="157"/>
-      <c r="DP4" s="157"/>
-      <c r="DQ4" s="157"/>
-      <c r="DR4" s="158"/>
-      <c r="DS4" s="156" t="str">
+      <c r="DM4" s="160"/>
+      <c r="DN4" s="160"/>
+      <c r="DO4" s="160"/>
+      <c r="DP4" s="160"/>
+      <c r="DQ4" s="160"/>
+      <c r="DR4" s="161"/>
+      <c r="DS4" s="159" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="157"/>
-      <c r="DU4" s="157"/>
-      <c r="DV4" s="157"/>
-      <c r="DW4" s="157"/>
-      <c r="DX4" s="157"/>
-      <c r="DY4" s="158"/>
-      <c r="DZ4" s="156" t="str">
+      <c r="DT4" s="160"/>
+      <c r="DU4" s="160"/>
+      <c r="DV4" s="160"/>
+      <c r="DW4" s="160"/>
+      <c r="DX4" s="160"/>
+      <c r="DY4" s="161"/>
+      <c r="DZ4" s="159" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="157"/>
-      <c r="EB4" s="157"/>
-      <c r="EC4" s="157"/>
-      <c r="ED4" s="157"/>
-      <c r="EE4" s="157"/>
-      <c r="EF4" s="158"/>
-      <c r="EG4" s="156" t="str">
+      <c r="EA4" s="160"/>
+      <c r="EB4" s="160"/>
+      <c r="EC4" s="160"/>
+      <c r="ED4" s="160"/>
+      <c r="EE4" s="160"/>
+      <c r="EF4" s="161"/>
+      <c r="EG4" s="159" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="157"/>
-      <c r="EI4" s="157"/>
-      <c r="EJ4" s="157"/>
-      <c r="EK4" s="157"/>
-      <c r="EL4" s="157"/>
-      <c r="EM4" s="158"/>
-      <c r="EN4" s="156" t="str">
+      <c r="EH4" s="160"/>
+      <c r="EI4" s="160"/>
+      <c r="EJ4" s="160"/>
+      <c r="EK4" s="160"/>
+      <c r="EL4" s="160"/>
+      <c r="EM4" s="161"/>
+      <c r="EN4" s="159" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="157"/>
-      <c r="EP4" s="157"/>
-      <c r="EQ4" s="157"/>
-      <c r="ER4" s="157"/>
-      <c r="ES4" s="157"/>
-      <c r="ET4" s="158"/>
-      <c r="EU4" s="156" t="str">
+      <c r="EO4" s="160"/>
+      <c r="EP4" s="160"/>
+      <c r="EQ4" s="160"/>
+      <c r="ER4" s="160"/>
+      <c r="ES4" s="160"/>
+      <c r="ET4" s="161"/>
+      <c r="EU4" s="159" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="157"/>
-      <c r="EW4" s="157"/>
-      <c r="EX4" s="157"/>
-      <c r="EY4" s="157"/>
-      <c r="EZ4" s="157"/>
-      <c r="FA4" s="158"/>
-      <c r="FB4" s="156" t="str">
+      <c r="EV4" s="160"/>
+      <c r="EW4" s="160"/>
+      <c r="EX4" s="160"/>
+      <c r="EY4" s="160"/>
+      <c r="EZ4" s="160"/>
+      <c r="FA4" s="161"/>
+      <c r="FB4" s="159" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="157"/>
-      <c r="FD4" s="157"/>
-      <c r="FE4" s="157"/>
-      <c r="FF4" s="157"/>
-      <c r="FG4" s="157"/>
-      <c r="FH4" s="158"/>
-      <c r="FI4" s="156" t="str">
+      <c r="FC4" s="160"/>
+      <c r="FD4" s="160"/>
+      <c r="FE4" s="160"/>
+      <c r="FF4" s="160"/>
+      <c r="FG4" s="160"/>
+      <c r="FH4" s="161"/>
+      <c r="FI4" s="159" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="157"/>
-      <c r="FK4" s="157"/>
-      <c r="FL4" s="157"/>
-      <c r="FM4" s="157"/>
-      <c r="FN4" s="157"/>
-      <c r="FO4" s="158"/>
-      <c r="FP4" s="156" t="str">
+      <c r="FJ4" s="160"/>
+      <c r="FK4" s="160"/>
+      <c r="FL4" s="160"/>
+      <c r="FM4" s="160"/>
+      <c r="FN4" s="160"/>
+      <c r="FO4" s="161"/>
+      <c r="FP4" s="159" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="157"/>
-      <c r="FR4" s="157"/>
-      <c r="FS4" s="157"/>
-      <c r="FT4" s="157"/>
-      <c r="FU4" s="157"/>
-      <c r="FV4" s="158"/>
-      <c r="FW4" s="156" t="str">
+      <c r="FQ4" s="160"/>
+      <c r="FR4" s="160"/>
+      <c r="FS4" s="160"/>
+      <c r="FT4" s="160"/>
+      <c r="FU4" s="160"/>
+      <c r="FV4" s="161"/>
+      <c r="FW4" s="159" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="157"/>
-      <c r="FY4" s="157"/>
-      <c r="FZ4" s="157"/>
-      <c r="GA4" s="157"/>
-      <c r="GB4" s="157"/>
-      <c r="GC4" s="158"/>
-      <c r="GD4" s="156" t="str">
+      <c r="FX4" s="160"/>
+      <c r="FY4" s="160"/>
+      <c r="FZ4" s="160"/>
+      <c r="GA4" s="160"/>
+      <c r="GB4" s="160"/>
+      <c r="GC4" s="161"/>
+      <c r="GD4" s="159" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="157"/>
-      <c r="GF4" s="157"/>
-      <c r="GG4" s="157"/>
-      <c r="GH4" s="157"/>
-      <c r="GI4" s="157"/>
-      <c r="GJ4" s="158"/>
-      <c r="GK4" s="156" t="str">
+      <c r="GE4" s="160"/>
+      <c r="GF4" s="160"/>
+      <c r="GG4" s="160"/>
+      <c r="GH4" s="160"/>
+      <c r="GI4" s="160"/>
+      <c r="GJ4" s="161"/>
+      <c r="GK4" s="159" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="157"/>
-      <c r="GM4" s="157"/>
-      <c r="GN4" s="157"/>
-      <c r="GO4" s="157"/>
-      <c r="GP4" s="157"/>
-      <c r="GQ4" s="158"/>
-      <c r="GR4" s="156" t="str">
+      <c r="GL4" s="160"/>
+      <c r="GM4" s="160"/>
+      <c r="GN4" s="160"/>
+      <c r="GO4" s="160"/>
+      <c r="GP4" s="160"/>
+      <c r="GQ4" s="161"/>
+      <c r="GR4" s="159" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="157"/>
-      <c r="GT4" s="157"/>
-      <c r="GU4" s="157"/>
-      <c r="GV4" s="157"/>
-      <c r="GW4" s="157"/>
-      <c r="GX4" s="158"/>
-      <c r="GY4" s="156" t="str">
+      <c r="GS4" s="160"/>
+      <c r="GT4" s="160"/>
+      <c r="GU4" s="160"/>
+      <c r="GV4" s="160"/>
+      <c r="GW4" s="160"/>
+      <c r="GX4" s="161"/>
+      <c r="GY4" s="159" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="157"/>
-      <c r="HA4" s="157"/>
-      <c r="HB4" s="157"/>
-      <c r="HC4" s="157"/>
-      <c r="HD4" s="157"/>
-      <c r="HE4" s="158"/>
-      <c r="HF4" s="156" t="str">
+      <c r="GZ4" s="160"/>
+      <c r="HA4" s="160"/>
+      <c r="HB4" s="160"/>
+      <c r="HC4" s="160"/>
+      <c r="HD4" s="160"/>
+      <c r="HE4" s="161"/>
+      <c r="HF4" s="159" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="157"/>
-      <c r="HH4" s="157"/>
-      <c r="HI4" s="157"/>
-      <c r="HJ4" s="157"/>
-      <c r="HK4" s="157"/>
-      <c r="HL4" s="158"/>
-      <c r="HM4" s="156" t="str">
+      <c r="HG4" s="160"/>
+      <c r="HH4" s="160"/>
+      <c r="HI4" s="160"/>
+      <c r="HJ4" s="160"/>
+      <c r="HK4" s="160"/>
+      <c r="HL4" s="161"/>
+      <c r="HM4" s="159" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="157"/>
-      <c r="HO4" s="157"/>
-      <c r="HP4" s="157"/>
-      <c r="HQ4" s="157"/>
-      <c r="HR4" s="157"/>
-      <c r="HS4" s="158"/>
-      <c r="HT4" s="156" t="str">
+      <c r="HN4" s="160"/>
+      <c r="HO4" s="160"/>
+      <c r="HP4" s="160"/>
+      <c r="HQ4" s="160"/>
+      <c r="HR4" s="160"/>
+      <c r="HS4" s="161"/>
+      <c r="HT4" s="159" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="157"/>
-      <c r="HV4" s="157"/>
-      <c r="HW4" s="157"/>
-      <c r="HX4" s="157"/>
-      <c r="HY4" s="157"/>
-      <c r="HZ4" s="158"/>
-      <c r="IA4" s="156" t="str">
+      <c r="HU4" s="160"/>
+      <c r="HV4" s="160"/>
+      <c r="HW4" s="160"/>
+      <c r="HX4" s="160"/>
+      <c r="HY4" s="160"/>
+      <c r="HZ4" s="161"/>
+      <c r="IA4" s="159" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="157"/>
-      <c r="IC4" s="157"/>
-      <c r="ID4" s="157"/>
-      <c r="IE4" s="157"/>
-      <c r="IF4" s="157"/>
-      <c r="IG4" s="158"/>
-      <c r="IH4" s="156" t="str">
+      <c r="IB4" s="160"/>
+      <c r="IC4" s="160"/>
+      <c r="ID4" s="160"/>
+      <c r="IE4" s="160"/>
+      <c r="IF4" s="160"/>
+      <c r="IG4" s="161"/>
+      <c r="IH4" s="159" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="157"/>
-      <c r="IJ4" s="157"/>
-      <c r="IK4" s="157"/>
-      <c r="IL4" s="157"/>
-      <c r="IM4" s="157"/>
-      <c r="IN4" s="158"/>
-      <c r="IO4" s="156" t="str">
+      <c r="II4" s="160"/>
+      <c r="IJ4" s="160"/>
+      <c r="IK4" s="160"/>
+      <c r="IL4" s="160"/>
+      <c r="IM4" s="160"/>
+      <c r="IN4" s="161"/>
+      <c r="IO4" s="159" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="157"/>
-      <c r="IQ4" s="157"/>
-      <c r="IR4" s="157"/>
-      <c r="IS4" s="157"/>
-      <c r="IT4" s="157"/>
-      <c r="IU4" s="158"/>
-    </row>
-    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="IP4" s="160"/>
+      <c r="IQ4" s="160"/>
+      <c r="IR4" s="160"/>
+      <c r="IS4" s="160"/>
+      <c r="IT4" s="160"/>
+      <c r="IU4" s="161"/>
+    </row>
+    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="174">
+      <c r="K5" s="170">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="174">
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="170">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="177">
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="173">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="169">
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="165">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="162">
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="175">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="163"/>
-      <c r="AT5" s="164">
+      <c r="AN5" s="157"/>
+      <c r="AO5" s="157"/>
+      <c r="AP5" s="157"/>
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="177">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="157"/>
+      <c r="AV5" s="157"/>
+      <c r="AW5" s="157"/>
+      <c r="AX5" s="157"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="156">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="160"/>
-      <c r="BC5" s="160"/>
-      <c r="BD5" s="160"/>
-      <c r="BE5" s="160"/>
-      <c r="BF5" s="160"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="159">
+      <c r="BB5" s="157"/>
+      <c r="BC5" s="157"/>
+      <c r="BD5" s="157"/>
+      <c r="BE5" s="157"/>
+      <c r="BF5" s="157"/>
+      <c r="BG5" s="158"/>
+      <c r="BH5" s="162">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="160"/>
-      <c r="BJ5" s="160"/>
-      <c r="BK5" s="160"/>
-      <c r="BL5" s="160"/>
-      <c r="BM5" s="160"/>
-      <c r="BN5" s="161"/>
-      <c r="BO5" s="166">
+      <c r="BI5" s="157"/>
+      <c r="BJ5" s="157"/>
+      <c r="BK5" s="157"/>
+      <c r="BL5" s="157"/>
+      <c r="BM5" s="157"/>
+      <c r="BN5" s="163"/>
+      <c r="BO5" s="156">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="160"/>
-      <c r="BQ5" s="160"/>
-      <c r="BR5" s="160"/>
-      <c r="BS5" s="160"/>
-      <c r="BT5" s="160"/>
-      <c r="BU5" s="167"/>
-      <c r="BV5" s="159">
+      <c r="BP5" s="157"/>
+      <c r="BQ5" s="157"/>
+      <c r="BR5" s="157"/>
+      <c r="BS5" s="157"/>
+      <c r="BT5" s="157"/>
+      <c r="BU5" s="158"/>
+      <c r="BV5" s="162">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="160"/>
-      <c r="BX5" s="160"/>
-      <c r="BY5" s="160"/>
-      <c r="BZ5" s="160"/>
-      <c r="CA5" s="160"/>
-      <c r="CB5" s="161"/>
-      <c r="CC5" s="159">
+      <c r="BW5" s="157"/>
+      <c r="BX5" s="157"/>
+      <c r="BY5" s="157"/>
+      <c r="BZ5" s="157"/>
+      <c r="CA5" s="157"/>
+      <c r="CB5" s="163"/>
+      <c r="CC5" s="162">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="160"/>
-      <c r="CE5" s="160"/>
-      <c r="CF5" s="160"/>
-      <c r="CG5" s="160"/>
-      <c r="CH5" s="160"/>
-      <c r="CI5" s="161"/>
-      <c r="CJ5" s="166">
+      <c r="CD5" s="157"/>
+      <c r="CE5" s="157"/>
+      <c r="CF5" s="157"/>
+      <c r="CG5" s="157"/>
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="163"/>
+      <c r="CJ5" s="156">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="160"/>
-      <c r="CL5" s="160"/>
-      <c r="CM5" s="160"/>
-      <c r="CN5" s="160"/>
-      <c r="CO5" s="160"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="159">
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="158"/>
+      <c r="CQ5" s="162">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="160"/>
-      <c r="CS5" s="160"/>
-      <c r="CT5" s="160"/>
-      <c r="CU5" s="160"/>
-      <c r="CV5" s="160"/>
-      <c r="CW5" s="161"/>
-      <c r="CX5" s="159">
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="163"/>
+      <c r="CX5" s="162">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="160"/>
-      <c r="CZ5" s="160"/>
-      <c r="DA5" s="160"/>
-      <c r="DB5" s="160"/>
-      <c r="DC5" s="160"/>
-      <c r="DD5" s="161"/>
-      <c r="DE5" s="166">
+      <c r="CY5" s="157"/>
+      <c r="CZ5" s="157"/>
+      <c r="DA5" s="157"/>
+      <c r="DB5" s="157"/>
+      <c r="DC5" s="157"/>
+      <c r="DD5" s="163"/>
+      <c r="DE5" s="156">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="160"/>
-      <c r="DG5" s="160"/>
-      <c r="DH5" s="160"/>
-      <c r="DI5" s="160"/>
-      <c r="DJ5" s="160"/>
-      <c r="DK5" s="167"/>
-      <c r="DL5" s="159">
+      <c r="DF5" s="157"/>
+      <c r="DG5" s="157"/>
+      <c r="DH5" s="157"/>
+      <c r="DI5" s="157"/>
+      <c r="DJ5" s="157"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="162">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="160"/>
-      <c r="DN5" s="160"/>
-      <c r="DO5" s="160"/>
-      <c r="DP5" s="160"/>
-      <c r="DQ5" s="160"/>
-      <c r="DR5" s="161"/>
-      <c r="DS5" s="159">
+      <c r="DM5" s="157"/>
+      <c r="DN5" s="157"/>
+      <c r="DO5" s="157"/>
+      <c r="DP5" s="157"/>
+      <c r="DQ5" s="157"/>
+      <c r="DR5" s="163"/>
+      <c r="DS5" s="162">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="160"/>
-      <c r="DU5" s="160"/>
-      <c r="DV5" s="160"/>
-      <c r="DW5" s="160"/>
-      <c r="DX5" s="160"/>
-      <c r="DY5" s="161"/>
-      <c r="DZ5" s="166">
+      <c r="DT5" s="157"/>
+      <c r="DU5" s="157"/>
+      <c r="DV5" s="157"/>
+      <c r="DW5" s="157"/>
+      <c r="DX5" s="157"/>
+      <c r="DY5" s="163"/>
+      <c r="DZ5" s="156">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="160"/>
-      <c r="EB5" s="160"/>
-      <c r="EC5" s="160"/>
-      <c r="ED5" s="160"/>
-      <c r="EE5" s="160"/>
-      <c r="EF5" s="167"/>
-      <c r="EG5" s="159">
+      <c r="EA5" s="157"/>
+      <c r="EB5" s="157"/>
+      <c r="EC5" s="157"/>
+      <c r="ED5" s="157"/>
+      <c r="EE5" s="157"/>
+      <c r="EF5" s="158"/>
+      <c r="EG5" s="162">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="160"/>
-      <c r="EI5" s="160"/>
-      <c r="EJ5" s="160"/>
-      <c r="EK5" s="160"/>
-      <c r="EL5" s="160"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="159">
+      <c r="EH5" s="157"/>
+      <c r="EI5" s="157"/>
+      <c r="EJ5" s="157"/>
+      <c r="EK5" s="157"/>
+      <c r="EL5" s="157"/>
+      <c r="EM5" s="163"/>
+      <c r="EN5" s="162">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="160"/>
-      <c r="EP5" s="160"/>
-      <c r="EQ5" s="160"/>
-      <c r="ER5" s="160"/>
-      <c r="ES5" s="160"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="166">
+      <c r="EO5" s="157"/>
+      <c r="EP5" s="157"/>
+      <c r="EQ5" s="157"/>
+      <c r="ER5" s="157"/>
+      <c r="ES5" s="157"/>
+      <c r="ET5" s="163"/>
+      <c r="EU5" s="156">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="160"/>
-      <c r="EW5" s="160"/>
-      <c r="EX5" s="160"/>
-      <c r="EY5" s="160"/>
-      <c r="EZ5" s="160"/>
-      <c r="FA5" s="167"/>
-      <c r="FB5" s="159">
+      <c r="EV5" s="157"/>
+      <c r="EW5" s="157"/>
+      <c r="EX5" s="157"/>
+      <c r="EY5" s="157"/>
+      <c r="EZ5" s="157"/>
+      <c r="FA5" s="158"/>
+      <c r="FB5" s="162">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="160"/>
-      <c r="FD5" s="160"/>
-      <c r="FE5" s="160"/>
-      <c r="FF5" s="160"/>
-      <c r="FG5" s="160"/>
-      <c r="FH5" s="161"/>
-      <c r="FI5" s="159">
+      <c r="FC5" s="157"/>
+      <c r="FD5" s="157"/>
+      <c r="FE5" s="157"/>
+      <c r="FF5" s="157"/>
+      <c r="FG5" s="157"/>
+      <c r="FH5" s="163"/>
+      <c r="FI5" s="162">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="160"/>
-      <c r="FK5" s="160"/>
-      <c r="FL5" s="160"/>
-      <c r="FM5" s="160"/>
-      <c r="FN5" s="160"/>
-      <c r="FO5" s="161"/>
-      <c r="FP5" s="166">
+      <c r="FJ5" s="157"/>
+      <c r="FK5" s="157"/>
+      <c r="FL5" s="157"/>
+      <c r="FM5" s="157"/>
+      <c r="FN5" s="157"/>
+      <c r="FO5" s="163"/>
+      <c r="FP5" s="156">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="160"/>
-      <c r="FR5" s="160"/>
-      <c r="FS5" s="160"/>
-      <c r="FT5" s="160"/>
-      <c r="FU5" s="160"/>
-      <c r="FV5" s="167"/>
-      <c r="FW5" s="159">
+      <c r="FQ5" s="157"/>
+      <c r="FR5" s="157"/>
+      <c r="FS5" s="157"/>
+      <c r="FT5" s="157"/>
+      <c r="FU5" s="157"/>
+      <c r="FV5" s="158"/>
+      <c r="FW5" s="162">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="160"/>
-      <c r="FY5" s="160"/>
-      <c r="FZ5" s="160"/>
-      <c r="GA5" s="160"/>
-      <c r="GB5" s="160"/>
-      <c r="GC5" s="161"/>
-      <c r="GD5" s="159">
+      <c r="FX5" s="157"/>
+      <c r="FY5" s="157"/>
+      <c r="FZ5" s="157"/>
+      <c r="GA5" s="157"/>
+      <c r="GB5" s="157"/>
+      <c r="GC5" s="163"/>
+      <c r="GD5" s="162">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="160"/>
-      <c r="GF5" s="160"/>
-      <c r="GG5" s="160"/>
-      <c r="GH5" s="160"/>
-      <c r="GI5" s="160"/>
-      <c r="GJ5" s="161"/>
-      <c r="GK5" s="166">
+      <c r="GE5" s="157"/>
+      <c r="GF5" s="157"/>
+      <c r="GG5" s="157"/>
+      <c r="GH5" s="157"/>
+      <c r="GI5" s="157"/>
+      <c r="GJ5" s="163"/>
+      <c r="GK5" s="156">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="160"/>
-      <c r="GM5" s="160"/>
-      <c r="GN5" s="160"/>
-      <c r="GO5" s="160"/>
-      <c r="GP5" s="160"/>
-      <c r="GQ5" s="167"/>
-      <c r="GR5" s="159">
+      <c r="GL5" s="157"/>
+      <c r="GM5" s="157"/>
+      <c r="GN5" s="157"/>
+      <c r="GO5" s="157"/>
+      <c r="GP5" s="157"/>
+      <c r="GQ5" s="158"/>
+      <c r="GR5" s="162">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="160"/>
-      <c r="GT5" s="160"/>
-      <c r="GU5" s="160"/>
-      <c r="GV5" s="160"/>
-      <c r="GW5" s="160"/>
-      <c r="GX5" s="161"/>
-      <c r="GY5" s="166">
+      <c r="GS5" s="157"/>
+      <c r="GT5" s="157"/>
+      <c r="GU5" s="157"/>
+      <c r="GV5" s="157"/>
+      <c r="GW5" s="157"/>
+      <c r="GX5" s="163"/>
+      <c r="GY5" s="156">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="160"/>
-      <c r="HA5" s="160"/>
-      <c r="HB5" s="160"/>
-      <c r="HC5" s="160"/>
-      <c r="HD5" s="160"/>
-      <c r="HE5" s="167"/>
-      <c r="HF5" s="159">
+      <c r="GZ5" s="157"/>
+      <c r="HA5" s="157"/>
+      <c r="HB5" s="157"/>
+      <c r="HC5" s="157"/>
+      <c r="HD5" s="157"/>
+      <c r="HE5" s="158"/>
+      <c r="HF5" s="162">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="160"/>
-      <c r="HH5" s="160"/>
-      <c r="HI5" s="160"/>
-      <c r="HJ5" s="160"/>
-      <c r="HK5" s="160"/>
-      <c r="HL5" s="161"/>
-      <c r="HM5" s="166">
+      <c r="HG5" s="157"/>
+      <c r="HH5" s="157"/>
+      <c r="HI5" s="157"/>
+      <c r="HJ5" s="157"/>
+      <c r="HK5" s="157"/>
+      <c r="HL5" s="163"/>
+      <c r="HM5" s="156">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="160"/>
-      <c r="HO5" s="160"/>
-      <c r="HP5" s="160"/>
-      <c r="HQ5" s="160"/>
-      <c r="HR5" s="160"/>
-      <c r="HS5" s="167"/>
-      <c r="HT5" s="159">
+      <c r="HN5" s="157"/>
+      <c r="HO5" s="157"/>
+      <c r="HP5" s="157"/>
+      <c r="HQ5" s="157"/>
+      <c r="HR5" s="157"/>
+      <c r="HS5" s="158"/>
+      <c r="HT5" s="162">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="160"/>
-      <c r="HV5" s="160"/>
-      <c r="HW5" s="160"/>
-      <c r="HX5" s="160"/>
-      <c r="HY5" s="160"/>
-      <c r="HZ5" s="161"/>
-      <c r="IA5" s="166">
+      <c r="HU5" s="157"/>
+      <c r="HV5" s="157"/>
+      <c r="HW5" s="157"/>
+      <c r="HX5" s="157"/>
+      <c r="HY5" s="157"/>
+      <c r="HZ5" s="163"/>
+      <c r="IA5" s="156">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="160"/>
-      <c r="IC5" s="160"/>
-      <c r="ID5" s="160"/>
-      <c r="IE5" s="160"/>
-      <c r="IF5" s="160"/>
-      <c r="IG5" s="167"/>
-      <c r="IH5" s="159">
+      <c r="IB5" s="157"/>
+      <c r="IC5" s="157"/>
+      <c r="ID5" s="157"/>
+      <c r="IE5" s="157"/>
+      <c r="IF5" s="157"/>
+      <c r="IG5" s="158"/>
+      <c r="IH5" s="162">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="160"/>
-      <c r="IJ5" s="160"/>
-      <c r="IK5" s="160"/>
-      <c r="IL5" s="160"/>
-      <c r="IM5" s="160"/>
-      <c r="IN5" s="161"/>
-      <c r="IO5" s="166">
+      <c r="II5" s="157"/>
+      <c r="IJ5" s="157"/>
+      <c r="IK5" s="157"/>
+      <c r="IL5" s="157"/>
+      <c r="IM5" s="157"/>
+      <c r="IN5" s="163"/>
+      <c r="IO5" s="156">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="160"/>
-      <c r="IQ5" s="160"/>
-      <c r="IR5" s="160"/>
-      <c r="IS5" s="160"/>
-      <c r="IT5" s="160"/>
-      <c r="IU5" s="167"/>
-    </row>
-    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="IP5" s="157"/>
+      <c r="IQ5" s="157"/>
+      <c r="IR5" s="157"/>
+      <c r="IS5" s="157"/>
+      <c r="IT5" s="157"/>
+      <c r="IU5" s="158"/>
+    </row>
+    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="146"/>
       <c r="K6" s="64">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -6040,7 +6049,7 @@
       </c>
       <c r="IU6" s="76"/>
     </row>
-    <row r="7" spans="1:255" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:255" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
@@ -7047,7 +7056,7 @@
       </c>
       <c r="IU7" s="62"/>
     </row>
-    <row r="8" spans="1:255" s="26" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:255" s="26" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -7309,7 +7318,7 @@
       <c r="IT8" s="27"/>
       <c r="IU8" s="27"/>
     </row>
-    <row r="9" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="91" t="str">
         <f t="shared" ref="A9:A20" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -7583,7 +7592,7 @@
       <c r="IT9" s="34"/>
       <c r="IU9" s="34"/>
     </row>
-    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="str">
         <f t="shared" ref="A10:A18" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -7857,7 +7866,7 @@
       <c r="IT10" s="34"/>
       <c r="IU10" s="34"/>
     </row>
-    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.2</v>
@@ -8131,7 +8140,7 @@
       <c r="IT11" s="34"/>
       <c r="IU11" s="34"/>
     </row>
-    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.3</v>
@@ -8153,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="46">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I12" s="102">
         <f t="shared" si="259"/>
@@ -8406,7 +8415,7 @@
       <c r="IT12" s="34"/>
       <c r="IU12" s="34"/>
     </row>
-    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.4</v>
@@ -8427,7 +8436,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="102">
         <f t="shared" ref="I13" si="261">IF(OR(F13=0,E13=0),0,NETWORKDAYS(E13,F13))</f>
@@ -8680,7 +8689,7 @@
       <c r="IT13" s="34"/>
       <c r="IU13" s="34"/>
     </row>
-    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.5</v>
@@ -8957,7 +8966,7 @@
       <c r="IT14" s="34"/>
       <c r="IU14" s="34"/>
     </row>
-    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.6</v>
@@ -9233,7 +9242,7 @@
       <c r="IT15" s="34"/>
       <c r="IU15" s="34"/>
     </row>
-    <row r="16" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.7</v>
@@ -9509,7 +9518,7 @@
       <c r="IT16" s="34"/>
       <c r="IU16" s="34"/>
     </row>
-    <row r="17" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A17" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.8</v>
@@ -9785,7 +9794,7 @@
       <c r="IT17" s="34"/>
       <c r="IU17" s="34"/>
     </row>
-    <row r="18" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A18" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.9</v>
@@ -10062,7 +10071,7 @@
       <c r="IT18" s="34"/>
       <c r="IU18" s="34"/>
     </row>
-    <row r="19" spans="1:255" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -10324,7 +10333,7 @@
       <c r="IT19" s="36"/>
       <c r="IU19" s="36"/>
     </row>
-    <row r="20" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A20" s="91" t="str">
         <f t="shared" si="254"/>
         <v>2.1</v>
@@ -10599,7 +10608,7 @@
       <c r="IT20" s="34"/>
       <c r="IU20" s="34"/>
     </row>
-    <row r="21" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
@@ -10876,7 +10885,7 @@
       <c r="IT21" s="34"/>
       <c r="IU21" s="34"/>
     </row>
-    <row r="22" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
@@ -11152,7 +11161,7 @@
       <c r="IT22" s="34"/>
       <c r="IU22" s="34"/>
     </row>
-    <row r="23" spans="1:255" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -11414,7 +11423,7 @@
       <c r="IT23" s="36"/>
       <c r="IU23" s="36"/>
     </row>
-    <row r="24" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -11430,17 +11439,17 @@
       </c>
       <c r="F24" s="84">
         <f t="shared" ref="F24" si="271">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v>45499</v>
+        <v>45504</v>
       </c>
       <c r="G24" s="45">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H24" s="46">
         <v>0</v>
       </c>
       <c r="I24" s="102">
         <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="34"/>
@@ -11689,7 +11698,7 @@
       <c r="IT24" s="34"/>
       <c r="IU24" s="34"/>
     </row>
-    <row r="25" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
@@ -11703,11 +11712,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="87">
         <f>E26-14</f>
-        <v>45485</v>
+        <v>45489</v>
       </c>
       <c r="F25" s="84">
         <f t="shared" ref="F25" si="272">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v>45485</v>
+        <v>45489</v>
       </c>
       <c r="G25" s="45">
         <v>1</v>
@@ -11966,7 +11975,7 @@
       <c r="IT25" s="34"/>
       <c r="IU25" s="34"/>
     </row>
-    <row r="26" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
@@ -11979,11 +11988,11 @@
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="87">
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="F26" s="84">
         <f t="shared" ref="F26" si="273">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v>45499</v>
+        <v>45503</v>
       </c>
       <c r="G26" s="45">
         <v>1</v>
@@ -12242,7 +12251,7 @@
       <c r="IT26" s="34"/>
       <c r="IU26" s="34"/>
     </row>
-    <row r="27" spans="1:255" s="31" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A27" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -12504,7 +12513,7 @@
       <c r="IT27" s="36"/>
       <c r="IU27" s="36"/>
     </row>
-    <row r="28" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A28" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -12516,21 +12525,21 @@
       <c r="D28" s="33"/>
       <c r="E28" s="87">
         <f>F24+1</f>
-        <v>45500</v>
+        <v>45505</v>
       </c>
       <c r="F28" s="84">
         <f t="shared" ref="F28" si="274">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
         <v>45534</v>
       </c>
       <c r="G28" s="45">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H28" s="46">
         <v>0</v>
       </c>
       <c r="I28" s="102">
         <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="34"/>
@@ -12779,7 +12788,7 @@
       <c r="IT28" s="34"/>
       <c r="IU28" s="34"/>
     </row>
-    <row r="29" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A29" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -12792,12 +12801,12 @@
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="87">
-        <f>F31-32</f>
-        <v>45502</v>
+        <f>F31-29</f>
+        <v>45505</v>
       </c>
       <c r="F29" s="84">
         <f t="shared" ref="F29" si="275">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="G29" s="45">
         <v>1</v>
@@ -13056,7 +13065,7 @@
       <c r="IT29" s="34"/>
       <c r="IU29" s="34"/>
     </row>
-    <row r="30" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A30" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -13332,7 +13341,7 @@
       <c r="IT30" s="34"/>
       <c r="IU30" s="34"/>
     </row>
-    <row r="31" spans="1:255" s="32" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -13609,7 +13618,7 @@
       <c r="IT31" s="34"/>
       <c r="IU31" s="34"/>
     </row>
-    <row r="33" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="105" t="s">
         <v>1</v>
       </c>
@@ -13868,7 +13877,7 @@
       <c r="IT33" s="34"/>
       <c r="IU33" s="34"/>
     </row>
-    <row r="34" spans="1:255" s="39" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:255" s="39" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="106" t="s">
         <v>75</v>
       </c>
@@ -14123,7 +14132,7 @@
       <c r="IT34" s="34"/>
       <c r="IU34" s="34"/>
     </row>
-    <row r="35" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -14160,7 +14169,9 @@
       <c r="AC35" s="34"/>
       <c r="AD35" s="34"/>
       <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
+      <c r="AF35" s="34" t="s">
+        <v>161</v>
+      </c>
       <c r="AG35" s="34"/>
       <c r="AH35" s="34"/>
       <c r="AI35" s="34"/>
@@ -14385,7 +14396,7 @@
       <c r="IT35" s="34"/>
       <c r="IU35" s="34"/>
     </row>
-    <row r="36" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A36" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -14430,7 +14441,9 @@
       <c r="AC36" s="34"/>
       <c r="AD36" s="34"/>
       <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
+      <c r="AF36" s="34" t="s">
+        <v>160</v>
+      </c>
       <c r="AG36" s="34"/>
       <c r="AH36" s="34"/>
       <c r="AI36" s="34"/>
@@ -14655,7 +14668,7 @@
       <c r="IT36" s="34"/>
       <c r="IU36" s="34"/>
     </row>
-    <row r="37" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A37" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -14925,7 +14938,7 @@
       <c r="IT37" s="34"/>
       <c r="IU37" s="34"/>
     </row>
-    <row r="38" spans="1:255" s="39" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -15195,32 +15208,61 @@
       <c r="IT38" s="34"/>
       <c r="IU38" s="34"/>
     </row>
-    <row r="39" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="142" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
       <c r="C39" s="154"/>
     </row>
-    <row r="40" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15237,49 +15279,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H34:H38 H8:H31">
@@ -15317,7 +15330,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
@@ -15339,13 +15352,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>5443</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>97971</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -15390,62 +15403,62 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A2" s="119" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A4" s="120" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B5" s="121" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B7" s="121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B9" s="119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B11" s="122" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A13" s="179" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="179"/>
     </row>
-    <row r="15" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="123"/>
       <c r="B15" s="124" t="s">
         <v>79</v>
@@ -15453,7 +15466,7 @@
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
     </row>
-    <row r="16" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="123"/>
       <c r="B16" s="124" t="s">
         <v>80</v>
@@ -15461,162 +15474,162 @@
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
     </row>
-    <row r="17" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A17" s="126"/>
       <c r="B17" s="124" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A18" s="126"/>
       <c r="B18" s="124" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A19" s="126"/>
       <c r="B19" s="124" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A20" s="126"/>
       <c r="B20" s="124" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A21" s="126"/>
       <c r="B21" s="127" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A22" s="126"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A23" s="179" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="179"/>
     </row>
-    <row r="24" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="42.45" x14ac:dyDescent="0.4">
       <c r="A24" s="126"/>
       <c r="B24" s="124" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A25" s="126"/>
       <c r="B25" s="124"/>
     </row>
-    <row r="26" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A26" s="126"/>
       <c r="B26" s="128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A27" s="126"/>
       <c r="B27" s="124" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A28" s="126"/>
       <c r="B28" s="124" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A29" s="126"/>
       <c r="B29" s="124"/>
     </row>
-    <row r="30" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A30" s="126"/>
       <c r="B30" s="128" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A31" s="126"/>
       <c r="B31" s="124" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A32" s="126"/>
       <c r="B32" s="124" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A33" s="126"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A34" s="126"/>
       <c r="B34" s="124" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A35" s="126"/>
       <c r="B35" s="129" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A36" s="126"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A37" s="179" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="179"/>
     </row>
-    <row r="38" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B38" s="124" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="14.15" x14ac:dyDescent="0.3">
       <c r="B40" s="124" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B42" s="124" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B44" s="124" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B46" s="124" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A48" s="179" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="179"/>
     </row>
-    <row r="49" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B49" s="124" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A51" s="130" t="s">
         <v>8</v>
       </c>
@@ -15624,7 +15637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A52" s="130" t="s">
         <v>10</v>
       </c>
@@ -15632,7 +15645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A53" s="130" t="s">
         <v>12</v>
       </c>
@@ -15640,19 +15653,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A54" s="122"/>
       <c r="B54" s="124" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A55" s="122"/>
       <c r="B55" s="124" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A56" s="130" t="s">
         <v>14</v>
       </c>
@@ -15660,19 +15673,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A57" s="122"/>
       <c r="B57" s="124" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A58" s="122"/>
       <c r="B58" s="124" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A59" s="130" t="s">
         <v>16</v>
       </c>
@@ -15680,13 +15693,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A60" s="122"/>
       <c r="B60" s="124" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A61" s="130" t="s">
         <v>106</v>
       </c>
@@ -15694,33 +15707,33 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A62" s="131"/>
       <c r="B62" s="124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A64" s="179" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="179"/>
     </row>
-    <row r="65" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
       <c r="B65" s="124" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A67" s="179" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="179"/>
     </row>
-    <row r="68" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A68" s="132" t="s">
         <v>4</v>
       </c>
@@ -15728,17 +15741,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A69" s="131"/>
       <c r="B69" s="134" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A70" s="131"/>
       <c r="B70" s="135"/>
     </row>
-    <row r="71" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A71" s="132" t="s">
         <v>4</v>
       </c>
@@ -15746,17 +15759,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A72" s="131"/>
       <c r="B72" s="134" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A73" s="131"/>
       <c r="B73" s="135"/>
     </row>
-    <row r="74" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A74" s="132" t="s">
         <v>4</v>
       </c>
@@ -15764,17 +15777,17 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A75" s="131"/>
       <c r="B75" s="121" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A76" s="131"/>
       <c r="B76" s="131"/>
     </row>
-    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A77" s="132" t="s">
         <v>4</v>
       </c>
@@ -15782,17 +15795,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A78" s="131"/>
       <c r="B78" s="121" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A79" s="131"/>
       <c r="B79" s="131"/>
     </row>
-    <row r="80" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A80" s="132" t="s">
         <v>4</v>
       </c>
@@ -15800,29 +15813,29 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A81" s="131"/>
       <c r="B81" s="137" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A82" s="131"/>
       <c r="B82" s="137" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A83" s="131"/>
       <c r="B83" s="137" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A84" s="131"/>
       <c r="B84" s="138"/>
     </row>
-    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A85" s="132" t="s">
         <v>4</v>
       </c>
@@ -15830,29 +15843,29 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A86" s="131"/>
       <c r="B86" s="121" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A87" s="131"/>
       <c r="B87" s="139" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A88" s="131"/>
       <c r="B88" s="140" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A89" s="131"/>
       <c r="B89" s="131"/>
     </row>
-    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A90" s="132" t="s">
         <v>4</v>
       </c>
@@ -15860,13 +15873,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A91" s="122"/>
       <c r="B91" s="137" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>51</v>
       </c>
@@ -15904,172 +15917,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.53515625" customWidth="1"/>
+    <col min="2" max="2" width="37.69140625" customWidth="1"/>
+    <col min="3" max="3" width="55.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
@@ -16094,172 +16107,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.07421875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="46.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="45.9" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30.45" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472DFA1-E061-4D7D-A2F7-530B9816384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3DE479-D431-459E-8B98-65E61DAFEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="164">
   <si>
     <t>WBS</t>
   </si>
@@ -687,9 +687,6 @@
   </si>
   <si>
     <t>TASK</t>
-  </si>
-  <si>
-    <t>LEAD</t>
   </si>
   <si>
     <t>START</t>
@@ -1532,16 +1529,10 @@
     <t>summarize previous theses</t>
   </si>
   <si>
-    <t>read Barto &amp; Sutton</t>
-  </si>
-  <si>
     <t>noting Willems' thesis, compiling list of RL MSc theses</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>do RL implementation exercises</t>
   </si>
   <si>
     <t>gather &amp; study flying-V literature</t>
@@ -1554,6 +1545,21 @@
   </si>
   <si>
     <t>tim traas- who started september 2022, has the 9 month</t>
+  </si>
+  <si>
+    <t>gather &amp; study state-of-the-art RL/flight control literature</t>
+  </si>
+  <si>
+    <t>draft research objective and question(s)</t>
+  </si>
+  <si>
+    <t>code RL exercises from Sutton &amp; Barto</t>
+  </si>
+  <si>
+    <t>read Sutton &amp; Barto</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -3257,15 +3263,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3278,7 +3275,28 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3315,18 +3333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3580,13 +3586,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>5443</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>97971</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4167,80 +4173,78 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU41"/>
+  <dimension ref="A1:IU43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BZ19" sqref="BZ19"/>
+      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.84375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="45.84375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.84375" style="155" customWidth="1"/>
-    <col min="4" max="4" width="6.84375" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="155" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
     <col min="7" max="7" width="6" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.69140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.53515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="0.53515625" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.4609375" style="25" customWidth="1"/>
-    <col min="67" max="68" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.84375" style="25" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.84375" style="25" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.84375" style="25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.84375" style="25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="170" max="185" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="186" max="192" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.84375" style="25" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.61328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.61328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.84375" style="25" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.61328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="202" max="206" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
-    <col min="207" max="221" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="25" customWidth="1"/>
+    <col min="67" max="68" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.07421875" style="25" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.07421875" style="25"/>
+    <col min="229" max="229" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="143"/>
@@ -4249,27 +4253,27 @@
       <c r="F1" s="42"/>
       <c r="G1" s="141"/>
       <c r="K1" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="164"/>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
-    </row>
-    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+    </row>
+    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="56"/>
       <c r="C2" s="144"/>
@@ -4277,7 +4281,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="58"/>
     </row>
-    <row r="3" spans="1:255" s="100" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:255" s="100" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="145"/>
@@ -4341,735 +4345,735 @@
       <c r="BM3" s="116"/>
       <c r="BN3" s="117"/>
     </row>
-    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="167">
+        <v>130</v>
+      </c>
+      <c r="C4" s="171">
         <v>45295</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="H4" s="113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="159" t="str">
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="156" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="159" t="str">
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="156" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="159" t="str">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="156" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="159" t="str">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="156" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="159" t="str">
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="156" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="159" t="str">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="156" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="159" t="str">
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="156" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="161"/>
-      <c r="BO4" s="159" t="str">
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="156" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="161"/>
-      <c r="BV4" s="159" t="str">
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="156" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="161"/>
-      <c r="CC4" s="159" t="str">
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="157"/>
+      <c r="BY4" s="157"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="158"/>
+      <c r="CC4" s="156" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="160"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="161"/>
-      <c r="CJ4" s="159" t="str">
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="157"/>
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="157"/>
+      <c r="CH4" s="157"/>
+      <c r="CI4" s="158"/>
+      <c r="CJ4" s="156" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-      <c r="CM4" s="160"/>
-      <c r="CN4" s="160"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="161"/>
-      <c r="CQ4" s="159" t="str">
+      <c r="CK4" s="157"/>
+      <c r="CL4" s="157"/>
+      <c r="CM4" s="157"/>
+      <c r="CN4" s="157"/>
+      <c r="CO4" s="157"/>
+      <c r="CP4" s="158"/>
+      <c r="CQ4" s="156" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="160"/>
-      <c r="CS4" s="160"/>
-      <c r="CT4" s="160"/>
-      <c r="CU4" s="160"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="161"/>
-      <c r="CX4" s="159" t="str">
+      <c r="CR4" s="157"/>
+      <c r="CS4" s="157"/>
+      <c r="CT4" s="157"/>
+      <c r="CU4" s="157"/>
+      <c r="CV4" s="157"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="156" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="160"/>
-      <c r="CZ4" s="160"/>
-      <c r="DA4" s="160"/>
-      <c r="DB4" s="160"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="161"/>
-      <c r="DE4" s="159" t="str">
+      <c r="CY4" s="157"/>
+      <c r="CZ4" s="157"/>
+      <c r="DA4" s="157"/>
+      <c r="DB4" s="157"/>
+      <c r="DC4" s="157"/>
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="156" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="160"/>
-      <c r="DG4" s="160"/>
-      <c r="DH4" s="160"/>
-      <c r="DI4" s="160"/>
-      <c r="DJ4" s="160"/>
-      <c r="DK4" s="161"/>
-      <c r="DL4" s="159" t="str">
+      <c r="DF4" s="157"/>
+      <c r="DG4" s="157"/>
+      <c r="DH4" s="157"/>
+      <c r="DI4" s="157"/>
+      <c r="DJ4" s="157"/>
+      <c r="DK4" s="158"/>
+      <c r="DL4" s="156" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="160"/>
-      <c r="DN4" s="160"/>
-      <c r="DO4" s="160"/>
-      <c r="DP4" s="160"/>
-      <c r="DQ4" s="160"/>
-      <c r="DR4" s="161"/>
-      <c r="DS4" s="159" t="str">
+      <c r="DM4" s="157"/>
+      <c r="DN4" s="157"/>
+      <c r="DO4" s="157"/>
+      <c r="DP4" s="157"/>
+      <c r="DQ4" s="157"/>
+      <c r="DR4" s="158"/>
+      <c r="DS4" s="156" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="160"/>
-      <c r="DU4" s="160"/>
-      <c r="DV4" s="160"/>
-      <c r="DW4" s="160"/>
-      <c r="DX4" s="160"/>
-      <c r="DY4" s="161"/>
-      <c r="DZ4" s="159" t="str">
+      <c r="DT4" s="157"/>
+      <c r="DU4" s="157"/>
+      <c r="DV4" s="157"/>
+      <c r="DW4" s="157"/>
+      <c r="DX4" s="157"/>
+      <c r="DY4" s="158"/>
+      <c r="DZ4" s="156" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="160"/>
-      <c r="EB4" s="160"/>
-      <c r="EC4" s="160"/>
-      <c r="ED4" s="160"/>
-      <c r="EE4" s="160"/>
-      <c r="EF4" s="161"/>
-      <c r="EG4" s="159" t="str">
+      <c r="EA4" s="157"/>
+      <c r="EB4" s="157"/>
+      <c r="EC4" s="157"/>
+      <c r="ED4" s="157"/>
+      <c r="EE4" s="157"/>
+      <c r="EF4" s="158"/>
+      <c r="EG4" s="156" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="160"/>
-      <c r="EI4" s="160"/>
-      <c r="EJ4" s="160"/>
-      <c r="EK4" s="160"/>
-      <c r="EL4" s="160"/>
-      <c r="EM4" s="161"/>
-      <c r="EN4" s="159" t="str">
+      <c r="EH4" s="157"/>
+      <c r="EI4" s="157"/>
+      <c r="EJ4" s="157"/>
+      <c r="EK4" s="157"/>
+      <c r="EL4" s="157"/>
+      <c r="EM4" s="158"/>
+      <c r="EN4" s="156" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="160"/>
-      <c r="EP4" s="160"/>
-      <c r="EQ4" s="160"/>
-      <c r="ER4" s="160"/>
-      <c r="ES4" s="160"/>
-      <c r="ET4" s="161"/>
-      <c r="EU4" s="159" t="str">
+      <c r="EO4" s="157"/>
+      <c r="EP4" s="157"/>
+      <c r="EQ4" s="157"/>
+      <c r="ER4" s="157"/>
+      <c r="ES4" s="157"/>
+      <c r="ET4" s="158"/>
+      <c r="EU4" s="156" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="160"/>
-      <c r="EW4" s="160"/>
-      <c r="EX4" s="160"/>
-      <c r="EY4" s="160"/>
-      <c r="EZ4" s="160"/>
-      <c r="FA4" s="161"/>
-      <c r="FB4" s="159" t="str">
+      <c r="EV4" s="157"/>
+      <c r="EW4" s="157"/>
+      <c r="EX4" s="157"/>
+      <c r="EY4" s="157"/>
+      <c r="EZ4" s="157"/>
+      <c r="FA4" s="158"/>
+      <c r="FB4" s="156" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="160"/>
-      <c r="FD4" s="160"/>
-      <c r="FE4" s="160"/>
-      <c r="FF4" s="160"/>
-      <c r="FG4" s="160"/>
-      <c r="FH4" s="161"/>
-      <c r="FI4" s="159" t="str">
+      <c r="FC4" s="157"/>
+      <c r="FD4" s="157"/>
+      <c r="FE4" s="157"/>
+      <c r="FF4" s="157"/>
+      <c r="FG4" s="157"/>
+      <c r="FH4" s="158"/>
+      <c r="FI4" s="156" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="160"/>
-      <c r="FK4" s="160"/>
-      <c r="FL4" s="160"/>
-      <c r="FM4" s="160"/>
-      <c r="FN4" s="160"/>
-      <c r="FO4" s="161"/>
-      <c r="FP4" s="159" t="str">
+      <c r="FJ4" s="157"/>
+      <c r="FK4" s="157"/>
+      <c r="FL4" s="157"/>
+      <c r="FM4" s="157"/>
+      <c r="FN4" s="157"/>
+      <c r="FO4" s="158"/>
+      <c r="FP4" s="156" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="160"/>
-      <c r="FR4" s="160"/>
-      <c r="FS4" s="160"/>
-      <c r="FT4" s="160"/>
-      <c r="FU4" s="160"/>
-      <c r="FV4" s="161"/>
-      <c r="FW4" s="159" t="str">
+      <c r="FQ4" s="157"/>
+      <c r="FR4" s="157"/>
+      <c r="FS4" s="157"/>
+      <c r="FT4" s="157"/>
+      <c r="FU4" s="157"/>
+      <c r="FV4" s="158"/>
+      <c r="FW4" s="156" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="160"/>
-      <c r="FY4" s="160"/>
-      <c r="FZ4" s="160"/>
-      <c r="GA4" s="160"/>
-      <c r="GB4" s="160"/>
-      <c r="GC4" s="161"/>
-      <c r="GD4" s="159" t="str">
+      <c r="FX4" s="157"/>
+      <c r="FY4" s="157"/>
+      <c r="FZ4" s="157"/>
+      <c r="GA4" s="157"/>
+      <c r="GB4" s="157"/>
+      <c r="GC4" s="158"/>
+      <c r="GD4" s="156" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="160"/>
-      <c r="GF4" s="160"/>
-      <c r="GG4" s="160"/>
-      <c r="GH4" s="160"/>
-      <c r="GI4" s="160"/>
-      <c r="GJ4" s="161"/>
-      <c r="GK4" s="159" t="str">
+      <c r="GE4" s="157"/>
+      <c r="GF4" s="157"/>
+      <c r="GG4" s="157"/>
+      <c r="GH4" s="157"/>
+      <c r="GI4" s="157"/>
+      <c r="GJ4" s="158"/>
+      <c r="GK4" s="156" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="160"/>
-      <c r="GM4" s="160"/>
-      <c r="GN4" s="160"/>
-      <c r="GO4" s="160"/>
-      <c r="GP4" s="160"/>
-      <c r="GQ4" s="161"/>
-      <c r="GR4" s="159" t="str">
+      <c r="GL4" s="157"/>
+      <c r="GM4" s="157"/>
+      <c r="GN4" s="157"/>
+      <c r="GO4" s="157"/>
+      <c r="GP4" s="157"/>
+      <c r="GQ4" s="158"/>
+      <c r="GR4" s="156" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="160"/>
-      <c r="GT4" s="160"/>
-      <c r="GU4" s="160"/>
-      <c r="GV4" s="160"/>
-      <c r="GW4" s="160"/>
-      <c r="GX4" s="161"/>
-      <c r="GY4" s="159" t="str">
+      <c r="GS4" s="157"/>
+      <c r="GT4" s="157"/>
+      <c r="GU4" s="157"/>
+      <c r="GV4" s="157"/>
+      <c r="GW4" s="157"/>
+      <c r="GX4" s="158"/>
+      <c r="GY4" s="156" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="160"/>
-      <c r="HA4" s="160"/>
-      <c r="HB4" s="160"/>
-      <c r="HC4" s="160"/>
-      <c r="HD4" s="160"/>
-      <c r="HE4" s="161"/>
-      <c r="HF4" s="159" t="str">
+      <c r="GZ4" s="157"/>
+      <c r="HA4" s="157"/>
+      <c r="HB4" s="157"/>
+      <c r="HC4" s="157"/>
+      <c r="HD4" s="157"/>
+      <c r="HE4" s="158"/>
+      <c r="HF4" s="156" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="160"/>
-      <c r="HH4" s="160"/>
-      <c r="HI4" s="160"/>
-      <c r="HJ4" s="160"/>
-      <c r="HK4" s="160"/>
-      <c r="HL4" s="161"/>
-      <c r="HM4" s="159" t="str">
+      <c r="HG4" s="157"/>
+      <c r="HH4" s="157"/>
+      <c r="HI4" s="157"/>
+      <c r="HJ4" s="157"/>
+      <c r="HK4" s="157"/>
+      <c r="HL4" s="158"/>
+      <c r="HM4" s="156" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="160"/>
-      <c r="HO4" s="160"/>
-      <c r="HP4" s="160"/>
-      <c r="HQ4" s="160"/>
-      <c r="HR4" s="160"/>
-      <c r="HS4" s="161"/>
-      <c r="HT4" s="159" t="str">
+      <c r="HN4" s="157"/>
+      <c r="HO4" s="157"/>
+      <c r="HP4" s="157"/>
+      <c r="HQ4" s="157"/>
+      <c r="HR4" s="157"/>
+      <c r="HS4" s="158"/>
+      <c r="HT4" s="156" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="160"/>
-      <c r="HV4" s="160"/>
-      <c r="HW4" s="160"/>
-      <c r="HX4" s="160"/>
-      <c r="HY4" s="160"/>
-      <c r="HZ4" s="161"/>
-      <c r="IA4" s="159" t="str">
+      <c r="HU4" s="157"/>
+      <c r="HV4" s="157"/>
+      <c r="HW4" s="157"/>
+      <c r="HX4" s="157"/>
+      <c r="HY4" s="157"/>
+      <c r="HZ4" s="158"/>
+      <c r="IA4" s="156" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="160"/>
-      <c r="IC4" s="160"/>
-      <c r="ID4" s="160"/>
-      <c r="IE4" s="160"/>
-      <c r="IF4" s="160"/>
-      <c r="IG4" s="161"/>
-      <c r="IH4" s="159" t="str">
+      <c r="IB4" s="157"/>
+      <c r="IC4" s="157"/>
+      <c r="ID4" s="157"/>
+      <c r="IE4" s="157"/>
+      <c r="IF4" s="157"/>
+      <c r="IG4" s="158"/>
+      <c r="IH4" s="156" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="160"/>
-      <c r="IJ4" s="160"/>
-      <c r="IK4" s="160"/>
-      <c r="IL4" s="160"/>
-      <c r="IM4" s="160"/>
-      <c r="IN4" s="161"/>
-      <c r="IO4" s="159" t="str">
+      <c r="II4" s="157"/>
+      <c r="IJ4" s="157"/>
+      <c r="IK4" s="157"/>
+      <c r="IL4" s="157"/>
+      <c r="IM4" s="157"/>
+      <c r="IN4" s="158"/>
+      <c r="IO4" s="156" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="160"/>
-      <c r="IQ4" s="160"/>
-      <c r="IR4" s="160"/>
-      <c r="IS4" s="160"/>
-      <c r="IT4" s="160"/>
-      <c r="IU4" s="161"/>
-    </row>
-    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="IP4" s="157"/>
+      <c r="IQ4" s="157"/>
+      <c r="IR4" s="157"/>
+      <c r="IS4" s="157"/>
+      <c r="IT4" s="157"/>
+      <c r="IU4" s="158"/>
+    </row>
+    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="167" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="169"/>
+        <v>73</v>
+      </c>
+      <c r="C5" s="171" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="170">
+      <c r="K5" s="174">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="174">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="173">
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="177">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="175">
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="162">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="177">
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="164">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="156">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="158"/>
-      <c r="BH5" s="162">
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="159">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="163"/>
-      <c r="BO5" s="156">
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="161"/>
+      <c r="BO5" s="166">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="158"/>
-      <c r="BV5" s="162">
+      <c r="BP5" s="160"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="160"/>
+      <c r="BS5" s="160"/>
+      <c r="BT5" s="160"/>
+      <c r="BU5" s="167"/>
+      <c r="BV5" s="159">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="157"/>
-      <c r="BX5" s="157"/>
-      <c r="BY5" s="157"/>
-      <c r="BZ5" s="157"/>
-      <c r="CA5" s="157"/>
-      <c r="CB5" s="163"/>
-      <c r="CC5" s="162">
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="161"/>
+      <c r="CC5" s="159">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="157"/>
-      <c r="CE5" s="157"/>
-      <c r="CF5" s="157"/>
-      <c r="CG5" s="157"/>
-      <c r="CH5" s="157"/>
-      <c r="CI5" s="163"/>
-      <c r="CJ5" s="156">
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="161"/>
+      <c r="CJ5" s="166">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="157"/>
-      <c r="CL5" s="157"/>
-      <c r="CM5" s="157"/>
-      <c r="CN5" s="157"/>
-      <c r="CO5" s="157"/>
-      <c r="CP5" s="158"/>
-      <c r="CQ5" s="162">
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
+      <c r="CM5" s="160"/>
+      <c r="CN5" s="160"/>
+      <c r="CO5" s="160"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="159">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="157"/>
-      <c r="CS5" s="157"/>
-      <c r="CT5" s="157"/>
-      <c r="CU5" s="157"/>
-      <c r="CV5" s="157"/>
-      <c r="CW5" s="163"/>
-      <c r="CX5" s="162">
+      <c r="CR5" s="160"/>
+      <c r="CS5" s="160"/>
+      <c r="CT5" s="160"/>
+      <c r="CU5" s="160"/>
+      <c r="CV5" s="160"/>
+      <c r="CW5" s="161"/>
+      <c r="CX5" s="159">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="157"/>
-      <c r="CZ5" s="157"/>
-      <c r="DA5" s="157"/>
-      <c r="DB5" s="157"/>
-      <c r="DC5" s="157"/>
-      <c r="DD5" s="163"/>
-      <c r="DE5" s="156">
+      <c r="CY5" s="160"/>
+      <c r="CZ5" s="160"/>
+      <c r="DA5" s="160"/>
+      <c r="DB5" s="160"/>
+      <c r="DC5" s="160"/>
+      <c r="DD5" s="161"/>
+      <c r="DE5" s="166">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="157"/>
-      <c r="DG5" s="157"/>
-      <c r="DH5" s="157"/>
-      <c r="DI5" s="157"/>
-      <c r="DJ5" s="157"/>
-      <c r="DK5" s="158"/>
-      <c r="DL5" s="162">
+      <c r="DF5" s="160"/>
+      <c r="DG5" s="160"/>
+      <c r="DH5" s="160"/>
+      <c r="DI5" s="160"/>
+      <c r="DJ5" s="160"/>
+      <c r="DK5" s="167"/>
+      <c r="DL5" s="159">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="157"/>
-      <c r="DN5" s="157"/>
-      <c r="DO5" s="157"/>
-      <c r="DP5" s="157"/>
-      <c r="DQ5" s="157"/>
-      <c r="DR5" s="163"/>
-      <c r="DS5" s="162">
+      <c r="DM5" s="160"/>
+      <c r="DN5" s="160"/>
+      <c r="DO5" s="160"/>
+      <c r="DP5" s="160"/>
+      <c r="DQ5" s="160"/>
+      <c r="DR5" s="161"/>
+      <c r="DS5" s="159">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="157"/>
-      <c r="DU5" s="157"/>
-      <c r="DV5" s="157"/>
-      <c r="DW5" s="157"/>
-      <c r="DX5" s="157"/>
-      <c r="DY5" s="163"/>
-      <c r="DZ5" s="156">
+      <c r="DT5" s="160"/>
+      <c r="DU5" s="160"/>
+      <c r="DV5" s="160"/>
+      <c r="DW5" s="160"/>
+      <c r="DX5" s="160"/>
+      <c r="DY5" s="161"/>
+      <c r="DZ5" s="166">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="157"/>
-      <c r="EB5" s="157"/>
-      <c r="EC5" s="157"/>
-      <c r="ED5" s="157"/>
-      <c r="EE5" s="157"/>
-      <c r="EF5" s="158"/>
-      <c r="EG5" s="162">
+      <c r="EA5" s="160"/>
+      <c r="EB5" s="160"/>
+      <c r="EC5" s="160"/>
+      <c r="ED5" s="160"/>
+      <c r="EE5" s="160"/>
+      <c r="EF5" s="167"/>
+      <c r="EG5" s="159">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="157"/>
-      <c r="EI5" s="157"/>
-      <c r="EJ5" s="157"/>
-      <c r="EK5" s="157"/>
-      <c r="EL5" s="157"/>
-      <c r="EM5" s="163"/>
-      <c r="EN5" s="162">
+      <c r="EH5" s="160"/>
+      <c r="EI5" s="160"/>
+      <c r="EJ5" s="160"/>
+      <c r="EK5" s="160"/>
+      <c r="EL5" s="160"/>
+      <c r="EM5" s="161"/>
+      <c r="EN5" s="159">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="157"/>
-      <c r="EP5" s="157"/>
-      <c r="EQ5" s="157"/>
-      <c r="ER5" s="157"/>
-      <c r="ES5" s="157"/>
-      <c r="ET5" s="163"/>
-      <c r="EU5" s="156">
+      <c r="EO5" s="160"/>
+      <c r="EP5" s="160"/>
+      <c r="EQ5" s="160"/>
+      <c r="ER5" s="160"/>
+      <c r="ES5" s="160"/>
+      <c r="ET5" s="161"/>
+      <c r="EU5" s="166">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="157"/>
-      <c r="EW5" s="157"/>
-      <c r="EX5" s="157"/>
-      <c r="EY5" s="157"/>
-      <c r="EZ5" s="157"/>
-      <c r="FA5" s="158"/>
-      <c r="FB5" s="162">
+      <c r="EV5" s="160"/>
+      <c r="EW5" s="160"/>
+      <c r="EX5" s="160"/>
+      <c r="EY5" s="160"/>
+      <c r="EZ5" s="160"/>
+      <c r="FA5" s="167"/>
+      <c r="FB5" s="159">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="157"/>
-      <c r="FD5" s="157"/>
-      <c r="FE5" s="157"/>
-      <c r="FF5" s="157"/>
-      <c r="FG5" s="157"/>
-      <c r="FH5" s="163"/>
-      <c r="FI5" s="162">
+      <c r="FC5" s="160"/>
+      <c r="FD5" s="160"/>
+      <c r="FE5" s="160"/>
+      <c r="FF5" s="160"/>
+      <c r="FG5" s="160"/>
+      <c r="FH5" s="161"/>
+      <c r="FI5" s="159">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="157"/>
-      <c r="FK5" s="157"/>
-      <c r="FL5" s="157"/>
-      <c r="FM5" s="157"/>
-      <c r="FN5" s="157"/>
-      <c r="FO5" s="163"/>
-      <c r="FP5" s="156">
+      <c r="FJ5" s="160"/>
+      <c r="FK5" s="160"/>
+      <c r="FL5" s="160"/>
+      <c r="FM5" s="160"/>
+      <c r="FN5" s="160"/>
+      <c r="FO5" s="161"/>
+      <c r="FP5" s="166">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="157"/>
-      <c r="FR5" s="157"/>
-      <c r="FS5" s="157"/>
-      <c r="FT5" s="157"/>
-      <c r="FU5" s="157"/>
-      <c r="FV5" s="158"/>
-      <c r="FW5" s="162">
+      <c r="FQ5" s="160"/>
+      <c r="FR5" s="160"/>
+      <c r="FS5" s="160"/>
+      <c r="FT5" s="160"/>
+      <c r="FU5" s="160"/>
+      <c r="FV5" s="167"/>
+      <c r="FW5" s="159">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="157"/>
-      <c r="FY5" s="157"/>
-      <c r="FZ5" s="157"/>
-      <c r="GA5" s="157"/>
-      <c r="GB5" s="157"/>
-      <c r="GC5" s="163"/>
-      <c r="GD5" s="162">
+      <c r="FX5" s="160"/>
+      <c r="FY5" s="160"/>
+      <c r="FZ5" s="160"/>
+      <c r="GA5" s="160"/>
+      <c r="GB5" s="160"/>
+      <c r="GC5" s="161"/>
+      <c r="GD5" s="159">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="157"/>
-      <c r="GF5" s="157"/>
-      <c r="GG5" s="157"/>
-      <c r="GH5" s="157"/>
-      <c r="GI5" s="157"/>
-      <c r="GJ5" s="163"/>
-      <c r="GK5" s="156">
+      <c r="GE5" s="160"/>
+      <c r="GF5" s="160"/>
+      <c r="GG5" s="160"/>
+      <c r="GH5" s="160"/>
+      <c r="GI5" s="160"/>
+      <c r="GJ5" s="161"/>
+      <c r="GK5" s="166">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="157"/>
-      <c r="GM5" s="157"/>
-      <c r="GN5" s="157"/>
-      <c r="GO5" s="157"/>
-      <c r="GP5" s="157"/>
-      <c r="GQ5" s="158"/>
-      <c r="GR5" s="162">
+      <c r="GL5" s="160"/>
+      <c r="GM5" s="160"/>
+      <c r="GN5" s="160"/>
+      <c r="GO5" s="160"/>
+      <c r="GP5" s="160"/>
+      <c r="GQ5" s="167"/>
+      <c r="GR5" s="159">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="157"/>
-      <c r="GT5" s="157"/>
-      <c r="GU5" s="157"/>
-      <c r="GV5" s="157"/>
-      <c r="GW5" s="157"/>
-      <c r="GX5" s="163"/>
-      <c r="GY5" s="156">
+      <c r="GS5" s="160"/>
+      <c r="GT5" s="160"/>
+      <c r="GU5" s="160"/>
+      <c r="GV5" s="160"/>
+      <c r="GW5" s="160"/>
+      <c r="GX5" s="161"/>
+      <c r="GY5" s="166">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="157"/>
-      <c r="HA5" s="157"/>
-      <c r="HB5" s="157"/>
-      <c r="HC5" s="157"/>
-      <c r="HD5" s="157"/>
-      <c r="HE5" s="158"/>
-      <c r="HF5" s="162">
+      <c r="GZ5" s="160"/>
+      <c r="HA5" s="160"/>
+      <c r="HB5" s="160"/>
+      <c r="HC5" s="160"/>
+      <c r="HD5" s="160"/>
+      <c r="HE5" s="167"/>
+      <c r="HF5" s="159">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="157"/>
-      <c r="HH5" s="157"/>
-      <c r="HI5" s="157"/>
-      <c r="HJ5" s="157"/>
-      <c r="HK5" s="157"/>
-      <c r="HL5" s="163"/>
-      <c r="HM5" s="156">
+      <c r="HG5" s="160"/>
+      <c r="HH5" s="160"/>
+      <c r="HI5" s="160"/>
+      <c r="HJ5" s="160"/>
+      <c r="HK5" s="160"/>
+      <c r="HL5" s="161"/>
+      <c r="HM5" s="166">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="157"/>
-      <c r="HO5" s="157"/>
-      <c r="HP5" s="157"/>
-      <c r="HQ5" s="157"/>
-      <c r="HR5" s="157"/>
-      <c r="HS5" s="158"/>
-      <c r="HT5" s="162">
+      <c r="HN5" s="160"/>
+      <c r="HO5" s="160"/>
+      <c r="HP5" s="160"/>
+      <c r="HQ5" s="160"/>
+      <c r="HR5" s="160"/>
+      <c r="HS5" s="167"/>
+      <c r="HT5" s="159">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="157"/>
-      <c r="HV5" s="157"/>
-      <c r="HW5" s="157"/>
-      <c r="HX5" s="157"/>
-      <c r="HY5" s="157"/>
-      <c r="HZ5" s="163"/>
-      <c r="IA5" s="156">
+      <c r="HU5" s="160"/>
+      <c r="HV5" s="160"/>
+      <c r="HW5" s="160"/>
+      <c r="HX5" s="160"/>
+      <c r="HY5" s="160"/>
+      <c r="HZ5" s="161"/>
+      <c r="IA5" s="166">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="157"/>
-      <c r="IC5" s="157"/>
-      <c r="ID5" s="157"/>
-      <c r="IE5" s="157"/>
-      <c r="IF5" s="157"/>
-      <c r="IG5" s="158"/>
-      <c r="IH5" s="162">
+      <c r="IB5" s="160"/>
+      <c r="IC5" s="160"/>
+      <c r="ID5" s="160"/>
+      <c r="IE5" s="160"/>
+      <c r="IF5" s="160"/>
+      <c r="IG5" s="167"/>
+      <c r="IH5" s="159">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="157"/>
-      <c r="IJ5" s="157"/>
-      <c r="IK5" s="157"/>
-      <c r="IL5" s="157"/>
-      <c r="IM5" s="157"/>
-      <c r="IN5" s="163"/>
-      <c r="IO5" s="156">
+      <c r="II5" s="160"/>
+      <c r="IJ5" s="160"/>
+      <c r="IK5" s="160"/>
+      <c r="IL5" s="160"/>
+      <c r="IM5" s="160"/>
+      <c r="IN5" s="161"/>
+      <c r="IO5" s="166">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="157"/>
-      <c r="IQ5" s="157"/>
-      <c r="IR5" s="157"/>
-      <c r="IS5" s="157"/>
-      <c r="IT5" s="157"/>
-      <c r="IU5" s="158"/>
-    </row>
-    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="IP5" s="160"/>
+      <c r="IQ5" s="160"/>
+      <c r="IR5" s="160"/>
+      <c r="IS5" s="160"/>
+      <c r="IT5" s="160"/>
+      <c r="IU5" s="167"/>
+    </row>
+    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="146"/>
       <c r="K6" s="64">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -6049,7 +6053,7 @@
       </c>
       <c r="IU6" s="76"/>
     </row>
-    <row r="7" spans="1:255" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:255" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
@@ -6057,25 +6061,25 @@
         <v>64</v>
       </c>
       <c r="C7" s="147" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="F7" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="H7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="I7" s="83" t="s">
         <v>69</v>
-      </c>
-      <c r="I7" s="83" t="s">
-        <v>70</v>
       </c>
       <c r="J7" s="47"/>
       <c r="K7" s="61" t="str">
@@ -7056,13 +7060,13 @@
       </c>
       <c r="IU7" s="62"/>
     </row>
-    <row r="8" spans="1:255" s="26" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:255" s="26" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="148"/>
       <c r="D8" s="27"/>
@@ -7318,13 +7322,13 @@
       <c r="IT8" s="27"/>
       <c r="IU8" s="27"/>
     </row>
-    <row r="9" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="str">
-        <f t="shared" ref="A9:A20" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <f t="shared" ref="A9:A22" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B9" s="88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="149"/>
       <c r="D9" s="89"/>
@@ -7592,13 +7596,13 @@
       <c r="IT9" s="34"/>
       <c r="IU9" s="34"/>
     </row>
-    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="str">
-        <f t="shared" ref="A10:A18" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <f t="shared" ref="A10:A20" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="150"/>
       <c r="D10" s="33"/>
@@ -7866,13 +7870,13 @@
       <c r="IT10" s="34"/>
       <c r="IU10" s="34"/>
     </row>
-    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.2</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="150"/>
       <c r="D11" s="33"/>
@@ -8140,13 +8144,13 @@
       <c r="IT11" s="34"/>
       <c r="IU11" s="34"/>
     </row>
-    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.3</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C12" s="150"/>
       <c r="D12" s="33"/>
@@ -8162,7 +8166,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="46">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="102">
         <f t="shared" si="259"/>
@@ -8415,13 +8419,13 @@
       <c r="IT12" s="34"/>
       <c r="IU12" s="34"/>
     </row>
-    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.4</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C13" s="150"/>
       <c r="D13" s="33"/>
@@ -8436,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="102">
         <f t="shared" ref="I13" si="261">IF(OR(F13=0,E13=0),0,NETWORKDAYS(E13,F13))</f>
@@ -8689,13 +8693,13 @@
       <c r="IT13" s="34"/>
       <c r="IU13" s="34"/>
     </row>
-    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.5</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C14" s="150"/>
       <c r="D14" s="33"/>
@@ -8705,10 +8709,10 @@
       </c>
       <c r="F14" s="84">
         <f t="shared" si="255"/>
-        <v>45310</v>
+        <v>45312</v>
       </c>
       <c r="G14" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="46">
         <v>0</v>
@@ -8734,7 +8738,7 @@
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
       <c r="Z14" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
@@ -8966,7 +8970,7 @@
       <c r="IT14" s="34"/>
       <c r="IU14" s="34"/>
     </row>
-    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.6</v>
@@ -8974,26 +8978,25 @@
       <c r="B15" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="150">
-        <v>1</v>
-      </c>
+      <c r="C15" s="150"/>
       <c r="D15" s="33"/>
       <c r="E15" s="87">
-        <v>45326</v>
+        <f>F14</f>
+        <v>45312</v>
       </c>
       <c r="F15" s="84">
         <f t="shared" ref="F15" si="262">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>45330</v>
+        <v>45317</v>
       </c>
       <c r="G15" s="45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="34"/>
@@ -9011,7 +9014,9 @@
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
       <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
+      <c r="Z15" s="34" t="s">
+        <v>154</v>
+      </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
       <c r="AC15" s="34"/>
@@ -9242,34 +9247,32 @@
       <c r="IT15" s="34"/>
       <c r="IU15" s="34"/>
     </row>
-    <row r="16" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.7</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="150">
-        <v>1</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C16" s="150"/>
       <c r="D16" s="33"/>
       <c r="E16" s="87">
-        <v>45335</v>
+        <v>45308</v>
       </c>
       <c r="F16" s="84">
         <f t="shared" ref="F16" si="264">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v>45335</v>
+        <v>45321</v>
       </c>
       <c r="G16" s="45">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H16" s="46">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="102">
         <f t="shared" ref="I16" si="265">IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="34"/>
@@ -9287,7 +9290,9 @@
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
+      <c r="Z16" s="34" t="s">
+        <v>154</v>
+      </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
@@ -9518,34 +9523,34 @@
       <c r="IT16" s="34"/>
       <c r="IU16" s="34"/>
     </row>
-    <row r="17" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.8</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C17" s="150">
         <v>1</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="87">
-        <v>45352</v>
+        <v>45326</v>
       </c>
       <c r="F17" s="84">
-        <f>IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
-        <v>45352</v>
+        <f t="shared" ref="F17" si="266">IF(ISBLANK(E17)," - ",IF(G17=0,E17,E17+G17-1))</f>
+        <v>45330</v>
       </c>
       <c r="G17" s="45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" s="46">
         <v>1</v>
       </c>
       <c r="I17" s="102">
-        <f>IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
-        <v>1</v>
+        <f t="shared" ref="I17" si="267">IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
+        <v>4</v>
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="34"/>
@@ -9794,25 +9799,24 @@
       <c r="IT17" s="34"/>
       <c r="IU17" s="34"/>
     </row>
-    <row r="18" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.9</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C18" s="150">
         <v>1</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="87">
-        <f>F17+7</f>
-        <v>45359</v>
+        <v>45335</v>
       </c>
       <c r="F18" s="84">
-        <f>IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
-        <v>45359</v>
+        <f t="shared" ref="F18" si="268">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <v>45335</v>
       </c>
       <c r="G18" s="45">
         <v>1</v>
@@ -9821,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="102">
-        <f t="shared" ref="I18" si="266">IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
+        <f t="shared" ref="I18" si="269">IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
         <v>1</v>
       </c>
       <c r="J18" s="94"/>
@@ -10071,295 +10075,311 @@
       <c r="IT18" s="34"/>
       <c r="IU18" s="34"/>
     </row>
-    <row r="19" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A19" s="92" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="151"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="36"/>
-      <c r="BC19" s="36"/>
-      <c r="BD19" s="36"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="36"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="36"/>
-      <c r="BK19" s="36"/>
-      <c r="BL19" s="36"/>
-      <c r="BM19" s="36"/>
-      <c r="BN19" s="36"/>
-      <c r="BO19" s="36"/>
-      <c r="BP19" s="36"/>
-      <c r="BQ19" s="36"/>
-      <c r="BR19" s="36"/>
-      <c r="BS19" s="36"/>
-      <c r="BT19" s="36"/>
-      <c r="BU19" s="36"/>
-      <c r="BV19" s="36"/>
-      <c r="BW19" s="36"/>
-      <c r="BX19" s="36"/>
-      <c r="BY19" s="36"/>
-      <c r="BZ19" s="36"/>
-      <c r="CA19" s="36"/>
-      <c r="CB19" s="36"/>
-      <c r="CC19" s="36"/>
-      <c r="CD19" s="36"/>
-      <c r="CE19" s="36"/>
-      <c r="CF19" s="36"/>
-      <c r="CG19" s="36"/>
-      <c r="CH19" s="36"/>
-      <c r="CI19" s="36"/>
-      <c r="CJ19" s="36"/>
-      <c r="CK19" s="36"/>
-      <c r="CL19" s="36"/>
-      <c r="CM19" s="36"/>
-      <c r="CN19" s="36"/>
-      <c r="CO19" s="36"/>
-      <c r="CP19" s="36"/>
-      <c r="CQ19" s="36"/>
-      <c r="CR19" s="36"/>
-      <c r="CS19" s="36"/>
-      <c r="CT19" s="36"/>
-      <c r="CU19" s="36"/>
-      <c r="CV19" s="36"/>
-      <c r="CW19" s="36"/>
-      <c r="CX19" s="36"/>
-      <c r="CY19" s="36"/>
-      <c r="CZ19" s="36"/>
-      <c r="DA19" s="36"/>
-      <c r="DB19" s="36"/>
-      <c r="DC19" s="36"/>
-      <c r="DD19" s="36"/>
-      <c r="DE19" s="36"/>
-      <c r="DF19" s="36"/>
-      <c r="DG19" s="36"/>
-      <c r="DH19" s="36"/>
-      <c r="DI19" s="36"/>
-      <c r="DJ19" s="36"/>
-      <c r="DK19" s="36"/>
-      <c r="DL19" s="36"/>
-      <c r="DM19" s="36"/>
-      <c r="DN19" s="36"/>
-      <c r="DO19" s="36"/>
-      <c r="DP19" s="36"/>
-      <c r="DQ19" s="36"/>
-      <c r="DR19" s="36"/>
-      <c r="DS19" s="36"/>
-      <c r="DT19" s="36"/>
-      <c r="DU19" s="36"/>
-      <c r="DV19" s="36"/>
-      <c r="DW19" s="36"/>
-      <c r="DX19" s="36"/>
-      <c r="DY19" s="36"/>
-      <c r="DZ19" s="36"/>
-      <c r="EA19" s="36"/>
-      <c r="EB19" s="36"/>
-      <c r="EC19" s="36"/>
-      <c r="ED19" s="36"/>
-      <c r="EE19" s="36"/>
-      <c r="EF19" s="36"/>
-      <c r="EG19" s="36"/>
-      <c r="EH19" s="36"/>
-      <c r="EI19" s="36"/>
-      <c r="EJ19" s="36"/>
-      <c r="EK19" s="36"/>
-      <c r="EL19" s="36"/>
-      <c r="EM19" s="36"/>
-      <c r="EN19" s="36"/>
-      <c r="EO19" s="36"/>
-      <c r="EP19" s="36"/>
-      <c r="EQ19" s="36"/>
-      <c r="ER19" s="36"/>
-      <c r="ES19" s="36"/>
-      <c r="ET19" s="36"/>
-      <c r="EU19" s="36"/>
-      <c r="EV19" s="36"/>
-      <c r="EW19" s="36"/>
-      <c r="EX19" s="36"/>
-      <c r="EY19" s="36"/>
-      <c r="EZ19" s="36"/>
-      <c r="FA19" s="36"/>
-      <c r="FB19" s="36"/>
-      <c r="FC19" s="36"/>
-      <c r="FD19" s="36"/>
-      <c r="FE19" s="36"/>
-      <c r="FF19" s="36"/>
-      <c r="FG19" s="36"/>
-      <c r="FH19" s="36"/>
-      <c r="FI19" s="36"/>
-      <c r="FJ19" s="36"/>
-      <c r="FK19" s="36"/>
-      <c r="FL19" s="36"/>
-      <c r="FM19" s="36"/>
-      <c r="FN19" s="36"/>
-      <c r="FO19" s="36"/>
-      <c r="FP19" s="36"/>
-      <c r="FQ19" s="36"/>
-      <c r="FR19" s="36"/>
-      <c r="FS19" s="36"/>
-      <c r="FT19" s="36"/>
-      <c r="FU19" s="36"/>
-      <c r="FV19" s="36"/>
-      <c r="FW19" s="36"/>
-      <c r="FX19" s="36"/>
-      <c r="FY19" s="36"/>
-      <c r="FZ19" s="36"/>
-      <c r="GA19" s="36"/>
-      <c r="GB19" s="36"/>
-      <c r="GC19" s="36"/>
-      <c r="GD19" s="36"/>
-      <c r="GE19" s="36"/>
-      <c r="GF19" s="36"/>
-      <c r="GG19" s="36"/>
-      <c r="GH19" s="36"/>
-      <c r="GI19" s="36"/>
-      <c r="GJ19" s="36"/>
-      <c r="GK19" s="36"/>
-      <c r="GL19" s="36"/>
-      <c r="GM19" s="36"/>
-      <c r="GN19" s="36"/>
-      <c r="GO19" s="36"/>
-      <c r="GP19" s="36"/>
-      <c r="GQ19" s="36"/>
-      <c r="GR19" s="36"/>
-      <c r="GS19" s="36"/>
-      <c r="GT19" s="36"/>
-      <c r="GU19" s="36"/>
-      <c r="GV19" s="36"/>
-      <c r="GW19" s="36"/>
-      <c r="GX19" s="36"/>
-      <c r="GY19" s="36"/>
-      <c r="GZ19" s="36"/>
-      <c r="HA19" s="36"/>
-      <c r="HB19" s="36"/>
-      <c r="HC19" s="36"/>
-      <c r="HD19" s="36"/>
-      <c r="HE19" s="36"/>
-      <c r="HF19" s="36"/>
-      <c r="HG19" s="36"/>
-      <c r="HH19" s="36"/>
-      <c r="HI19" s="36"/>
-      <c r="HJ19" s="36"/>
-      <c r="HK19" s="36"/>
-      <c r="HL19" s="36"/>
-      <c r="HM19" s="36"/>
-      <c r="HN19" s="36"/>
-      <c r="HO19" s="36"/>
-      <c r="HP19" s="36"/>
-      <c r="HQ19" s="36"/>
-      <c r="HR19" s="36"/>
-      <c r="HS19" s="36"/>
-      <c r="HT19" s="36"/>
-      <c r="HU19" s="36"/>
-      <c r="HV19" s="36"/>
-      <c r="HW19" s="36"/>
-      <c r="HX19" s="36"/>
-      <c r="HY19" s="36"/>
-      <c r="HZ19" s="36"/>
-      <c r="IA19" s="36"/>
-      <c r="IB19" s="36"/>
-      <c r="IC19" s="36"/>
-      <c r="ID19" s="36"/>
-      <c r="IE19" s="36"/>
-      <c r="IF19" s="36"/>
-      <c r="IG19" s="36"/>
-      <c r="IH19" s="36"/>
-      <c r="II19" s="36"/>
-      <c r="IJ19" s="36"/>
-      <c r="IK19" s="36"/>
-      <c r="IL19" s="36"/>
-      <c r="IM19" s="36"/>
-      <c r="IN19" s="36"/>
-      <c r="IO19" s="36"/>
-      <c r="IP19" s="36"/>
-      <c r="IQ19" s="36"/>
-      <c r="IR19" s="36"/>
-      <c r="IS19" s="36"/>
-      <c r="IT19" s="36"/>
-      <c r="IU19" s="36"/>
-    </row>
-    <row r="20" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="91" t="str">
+        <f t="shared" si="257"/>
+        <v>1.1.10</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="150">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="87">
+        <v>45352</v>
+      </c>
+      <c r="F19" s="84">
+        <f>IF(ISBLANK(E19)," - ",IF(G19=0,E19,E19+G19-1))</f>
+        <v>45352</v>
+      </c>
+      <c r="G19" s="45">
+        <v>1</v>
+      </c>
+      <c r="H19" s="46">
+        <v>1</v>
+      </c>
+      <c r="I19" s="102">
+        <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="34"/>
+      <c r="BJ19" s="34"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="34"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="34"/>
+      <c r="BP19" s="34"/>
+      <c r="BQ19" s="34"/>
+      <c r="BR19" s="34"/>
+      <c r="BS19" s="34"/>
+      <c r="BT19" s="34"/>
+      <c r="BU19" s="34"/>
+      <c r="BV19" s="34"/>
+      <c r="BW19" s="34"/>
+      <c r="BX19" s="34"/>
+      <c r="BY19" s="34"/>
+      <c r="BZ19" s="34"/>
+      <c r="CA19" s="34"/>
+      <c r="CB19" s="34"/>
+      <c r="CC19" s="34"/>
+      <c r="CD19" s="34"/>
+      <c r="CE19" s="34"/>
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="34"/>
+      <c r="CH19" s="34"/>
+      <c r="CI19" s="34"/>
+      <c r="CJ19" s="34"/>
+      <c r="CK19" s="34"/>
+      <c r="CL19" s="34"/>
+      <c r="CM19" s="34"/>
+      <c r="CN19" s="34"/>
+      <c r="CO19" s="34"/>
+      <c r="CP19" s="34"/>
+      <c r="CQ19" s="34"/>
+      <c r="CR19" s="34"/>
+      <c r="CS19" s="34"/>
+      <c r="CT19" s="34"/>
+      <c r="CU19" s="34"/>
+      <c r="CV19" s="34"/>
+      <c r="CW19" s="34"/>
+      <c r="CX19" s="34"/>
+      <c r="CY19" s="34"/>
+      <c r="CZ19" s="34"/>
+      <c r="DA19" s="34"/>
+      <c r="DB19" s="34"/>
+      <c r="DC19" s="34"/>
+      <c r="DD19" s="34"/>
+      <c r="DE19" s="34"/>
+      <c r="DF19" s="34"/>
+      <c r="DG19" s="34"/>
+      <c r="DH19" s="34"/>
+      <c r="DI19" s="34"/>
+      <c r="DJ19" s="34"/>
+      <c r="DK19" s="34"/>
+      <c r="DL19" s="34"/>
+      <c r="DM19" s="34"/>
+      <c r="DN19" s="34"/>
+      <c r="DO19" s="34"/>
+      <c r="DP19" s="34"/>
+      <c r="DQ19" s="34"/>
+      <c r="DR19" s="34"/>
+      <c r="DS19" s="34"/>
+      <c r="DT19" s="34"/>
+      <c r="DU19" s="34"/>
+      <c r="DV19" s="34"/>
+      <c r="DW19" s="34"/>
+      <c r="DX19" s="34"/>
+      <c r="DY19" s="34"/>
+      <c r="DZ19" s="34"/>
+      <c r="EA19" s="34"/>
+      <c r="EB19" s="34"/>
+      <c r="EC19" s="34"/>
+      <c r="ED19" s="34"/>
+      <c r="EE19" s="34"/>
+      <c r="EF19" s="34"/>
+      <c r="EG19" s="34"/>
+      <c r="EH19" s="34"/>
+      <c r="EI19" s="34"/>
+      <c r="EJ19" s="34"/>
+      <c r="EK19" s="34"/>
+      <c r="EL19" s="34"/>
+      <c r="EM19" s="34"/>
+      <c r="EN19" s="34"/>
+      <c r="EO19" s="34"/>
+      <c r="EP19" s="34"/>
+      <c r="EQ19" s="34"/>
+      <c r="ER19" s="34"/>
+      <c r="ES19" s="34"/>
+      <c r="ET19" s="34"/>
+      <c r="EU19" s="34"/>
+      <c r="EV19" s="34"/>
+      <c r="EW19" s="34"/>
+      <c r="EX19" s="34"/>
+      <c r="EY19" s="34"/>
+      <c r="EZ19" s="34"/>
+      <c r="FA19" s="34"/>
+      <c r="FB19" s="34"/>
+      <c r="FC19" s="34"/>
+      <c r="FD19" s="34"/>
+      <c r="FE19" s="34"/>
+      <c r="FF19" s="34"/>
+      <c r="FG19" s="34"/>
+      <c r="FH19" s="34"/>
+      <c r="FI19" s="34"/>
+      <c r="FJ19" s="34"/>
+      <c r="FK19" s="34"/>
+      <c r="FL19" s="34"/>
+      <c r="FM19" s="34"/>
+      <c r="FN19" s="34"/>
+      <c r="FO19" s="34"/>
+      <c r="FP19" s="34"/>
+      <c r="FQ19" s="34"/>
+      <c r="FR19" s="34"/>
+      <c r="FS19" s="34"/>
+      <c r="FT19" s="34"/>
+      <c r="FU19" s="34"/>
+      <c r="FV19" s="34"/>
+      <c r="FW19" s="34"/>
+      <c r="FX19" s="34"/>
+      <c r="FY19" s="34"/>
+      <c r="FZ19" s="34"/>
+      <c r="GA19" s="34"/>
+      <c r="GB19" s="34"/>
+      <c r="GC19" s="34"/>
+      <c r="GD19" s="34"/>
+      <c r="GE19" s="34"/>
+      <c r="GF19" s="34"/>
+      <c r="GG19" s="34"/>
+      <c r="GH19" s="34"/>
+      <c r="GI19" s="34"/>
+      <c r="GJ19" s="34"/>
+      <c r="GK19" s="34"/>
+      <c r="GL19" s="34"/>
+      <c r="GM19" s="34"/>
+      <c r="GN19" s="34"/>
+      <c r="GO19" s="34"/>
+      <c r="GP19" s="34"/>
+      <c r="GQ19" s="34"/>
+      <c r="GR19" s="34"/>
+      <c r="GS19" s="34"/>
+      <c r="GT19" s="34"/>
+      <c r="GU19" s="34"/>
+      <c r="GV19" s="34"/>
+      <c r="GW19" s="34"/>
+      <c r="GX19" s="34"/>
+      <c r="GY19" s="34"/>
+      <c r="GZ19" s="34"/>
+      <c r="HA19" s="34"/>
+      <c r="HB19" s="34"/>
+      <c r="HC19" s="34"/>
+      <c r="HD19" s="34"/>
+      <c r="HE19" s="34"/>
+      <c r="HF19" s="34"/>
+      <c r="HG19" s="34"/>
+      <c r="HH19" s="34"/>
+      <c r="HI19" s="34"/>
+      <c r="HJ19" s="34"/>
+      <c r="HK19" s="34"/>
+      <c r="HL19" s="34"/>
+      <c r="HM19" s="34"/>
+      <c r="HN19" s="34"/>
+      <c r="HO19" s="34"/>
+      <c r="HP19" s="34"/>
+      <c r="HQ19" s="34"/>
+      <c r="HR19" s="34"/>
+      <c r="HS19" s="34"/>
+      <c r="HT19" s="34"/>
+      <c r="HU19" s="34"/>
+      <c r="HV19" s="34"/>
+      <c r="HW19" s="34"/>
+      <c r="HX19" s="34"/>
+      <c r="HY19" s="34"/>
+      <c r="HZ19" s="34"/>
+      <c r="IA19" s="34"/>
+      <c r="IB19" s="34"/>
+      <c r="IC19" s="34"/>
+      <c r="ID19" s="34"/>
+      <c r="IE19" s="34"/>
+      <c r="IF19" s="34"/>
+      <c r="IG19" s="34"/>
+      <c r="IH19" s="34"/>
+      <c r="II19" s="34"/>
+      <c r="IJ19" s="34"/>
+      <c r="IK19" s="34"/>
+      <c r="IL19" s="34"/>
+      <c r="IM19" s="34"/>
+      <c r="IN19" s="34"/>
+      <c r="IO19" s="34"/>
+      <c r="IP19" s="34"/>
+      <c r="IQ19" s="34"/>
+      <c r="IR19" s="34"/>
+      <c r="IS19" s="34"/>
+      <c r="IT19" s="34"/>
+      <c r="IU19" s="34"/>
+    </row>
+    <row r="20" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="91" t="str">
-        <f t="shared" si="254"/>
-        <v>2.1</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="89"/>
+        <f t="shared" si="257"/>
+        <v>1.1.11</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="150">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33"/>
       <c r="E20" s="87">
-        <f>$F$9+1</f>
-        <v>45360</v>
+        <f>F19+7</f>
+        <v>45359</v>
       </c>
       <c r="F20" s="84">
-        <f t="shared" ref="F20" si="267">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>45429</v>
+        <f>IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
+        <v>45359</v>
       </c>
       <c r="G20" s="45">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H20" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="102">
-        <f t="shared" ref="I20" si="268">IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>50</v>
+        <f t="shared" ref="I20" si="270">IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
+        <v>1</v>
       </c>
       <c r="J20" s="94"/>
       <c r="K20" s="34"/>
@@ -10608,311 +10628,295 @@
       <c r="IT20" s="34"/>
       <c r="IU20" s="34"/>
     </row>
-    <row r="21" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A21" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.1</v>
-      </c>
-      <c r="B21" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="149">
-        <v>1</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="87">
-        <f>E22-14</f>
-        <v>45415</v>
-      </c>
-      <c r="F21" s="84">
-        <f t="shared" ref="F21" si="269">IF(ISBLANK(E21)," - ",IF(G21=0,E21,E21+G21-1))</f>
-        <v>45415</v>
-      </c>
-      <c r="G21" s="45">
-        <v>1</v>
-      </c>
-      <c r="H21" s="46">
-        <v>1</v>
-      </c>
-      <c r="I21" s="102">
-        <f t="shared" ref="I21" si="270">IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="94"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="34"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
-      <c r="BP21" s="34"/>
-      <c r="BQ21" s="34"/>
-      <c r="BR21" s="34"/>
-      <c r="BS21" s="34"/>
-      <c r="BT21" s="34"/>
-      <c r="BU21" s="34"/>
-      <c r="BV21" s="34"/>
-      <c r="BW21" s="34"/>
-      <c r="BX21" s="34"/>
-      <c r="BY21" s="34"/>
-      <c r="BZ21" s="34"/>
-      <c r="CA21" s="34"/>
-      <c r="CB21" s="34"/>
-      <c r="CC21" s="34"/>
-      <c r="CD21" s="34"/>
-      <c r="CE21" s="34"/>
-      <c r="CF21" s="34"/>
-      <c r="CG21" s="34"/>
-      <c r="CH21" s="34"/>
-      <c r="CI21" s="34"/>
-      <c r="CJ21" s="34"/>
-      <c r="CK21" s="34"/>
-      <c r="CL21" s="34"/>
-      <c r="CM21" s="34"/>
-      <c r="CN21" s="34"/>
-      <c r="CO21" s="34"/>
-      <c r="CP21" s="34"/>
-      <c r="CQ21" s="34"/>
-      <c r="CR21" s="34"/>
-      <c r="CS21" s="34"/>
-      <c r="CT21" s="34"/>
-      <c r="CU21" s="34"/>
-      <c r="CV21" s="34"/>
-      <c r="CW21" s="34"/>
-      <c r="CX21" s="34"/>
-      <c r="CY21" s="34"/>
-      <c r="CZ21" s="34"/>
-      <c r="DA21" s="34"/>
-      <c r="DB21" s="34"/>
-      <c r="DC21" s="34"/>
-      <c r="DD21" s="34"/>
-      <c r="DE21" s="34"/>
-      <c r="DF21" s="34"/>
-      <c r="DG21" s="34"/>
-      <c r="DH21" s="34"/>
-      <c r="DI21" s="34"/>
-      <c r="DJ21" s="34"/>
-      <c r="DK21" s="34"/>
-      <c r="DL21" s="34"/>
-      <c r="DM21" s="34"/>
-      <c r="DN21" s="34"/>
-      <c r="DO21" s="34"/>
-      <c r="DP21" s="34"/>
-      <c r="DQ21" s="34"/>
-      <c r="DR21" s="34"/>
-      <c r="DS21" s="34"/>
-      <c r="DT21" s="34"/>
-      <c r="DU21" s="34"/>
-      <c r="DV21" s="34"/>
-      <c r="DW21" s="34"/>
-      <c r="DX21" s="34"/>
-      <c r="DY21" s="34"/>
-      <c r="DZ21" s="34"/>
-      <c r="EA21" s="34"/>
-      <c r="EB21" s="34"/>
-      <c r="EC21" s="34"/>
-      <c r="ED21" s="34"/>
-      <c r="EE21" s="34"/>
-      <c r="EF21" s="34"/>
-      <c r="EG21" s="34"/>
-      <c r="EH21" s="34"/>
-      <c r="EI21" s="34"/>
-      <c r="EJ21" s="34"/>
-      <c r="EK21" s="34"/>
-      <c r="EL21" s="34"/>
-      <c r="EM21" s="34"/>
-      <c r="EN21" s="34"/>
-      <c r="EO21" s="34"/>
-      <c r="EP21" s="34"/>
-      <c r="EQ21" s="34"/>
-      <c r="ER21" s="34"/>
-      <c r="ES21" s="34"/>
-      <c r="ET21" s="34"/>
-      <c r="EU21" s="34"/>
-      <c r="EV21" s="34"/>
-      <c r="EW21" s="34"/>
-      <c r="EX21" s="34"/>
-      <c r="EY21" s="34"/>
-      <c r="EZ21" s="34"/>
-      <c r="FA21" s="34"/>
-      <c r="FB21" s="34"/>
-      <c r="FC21" s="34"/>
-      <c r="FD21" s="34"/>
-      <c r="FE21" s="34"/>
-      <c r="FF21" s="34"/>
-      <c r="FG21" s="34"/>
-      <c r="FH21" s="34"/>
-      <c r="FI21" s="34"/>
-      <c r="FJ21" s="34"/>
-      <c r="FK21" s="34"/>
-      <c r="FL21" s="34"/>
-      <c r="FM21" s="34"/>
-      <c r="FN21" s="34"/>
-      <c r="FO21" s="34"/>
-      <c r="FP21" s="34"/>
-      <c r="FQ21" s="34"/>
-      <c r="FR21" s="34"/>
-      <c r="FS21" s="34"/>
-      <c r="FT21" s="34"/>
-      <c r="FU21" s="34"/>
-      <c r="FV21" s="34"/>
-      <c r="FW21" s="34"/>
-      <c r="FX21" s="34"/>
-      <c r="FY21" s="34"/>
-      <c r="FZ21" s="34"/>
-      <c r="GA21" s="34"/>
-      <c r="GB21" s="34"/>
-      <c r="GC21" s="34"/>
-      <c r="GD21" s="34"/>
-      <c r="GE21" s="34"/>
-      <c r="GF21" s="34"/>
-      <c r="GG21" s="34"/>
-      <c r="GH21" s="34"/>
-      <c r="GI21" s="34"/>
-      <c r="GJ21" s="34"/>
-      <c r="GK21" s="34"/>
-      <c r="GL21" s="34"/>
-      <c r="GM21" s="34"/>
-      <c r="GN21" s="34"/>
-      <c r="GO21" s="34"/>
-      <c r="GP21" s="34"/>
-      <c r="GQ21" s="34"/>
-      <c r="GR21" s="34"/>
-      <c r="GS21" s="34"/>
-      <c r="GT21" s="34"/>
-      <c r="GU21" s="34"/>
-      <c r="GV21" s="34"/>
-      <c r="GW21" s="34"/>
-      <c r="GX21" s="34"/>
-      <c r="GY21" s="34"/>
-      <c r="GZ21" s="34"/>
-      <c r="HA21" s="34"/>
-      <c r="HB21" s="34"/>
-      <c r="HC21" s="34"/>
-      <c r="HD21" s="34"/>
-      <c r="HE21" s="34"/>
-      <c r="HF21" s="34"/>
-      <c r="HG21" s="34"/>
-      <c r="HH21" s="34"/>
-      <c r="HI21" s="34"/>
-      <c r="HJ21" s="34"/>
-      <c r="HK21" s="34"/>
-      <c r="HL21" s="34"/>
-      <c r="HM21" s="34"/>
-      <c r="HN21" s="34"/>
-      <c r="HO21" s="34"/>
-      <c r="HP21" s="34"/>
-      <c r="HQ21" s="34"/>
-      <c r="HR21" s="34"/>
-      <c r="HS21" s="34"/>
-      <c r="HT21" s="34"/>
-      <c r="HU21" s="34"/>
-      <c r="HV21" s="34"/>
-      <c r="HW21" s="34"/>
-      <c r="HX21" s="34"/>
-      <c r="HY21" s="34"/>
-      <c r="HZ21" s="34"/>
-      <c r="IA21" s="34"/>
-      <c r="IB21" s="34"/>
-      <c r="IC21" s="34"/>
-      <c r="ID21" s="34"/>
-      <c r="IE21" s="34"/>
-      <c r="IF21" s="34"/>
-      <c r="IG21" s="34"/>
-      <c r="IH21" s="34"/>
-      <c r="II21" s="34"/>
-      <c r="IJ21" s="34"/>
-      <c r="IK21" s="34"/>
-      <c r="IL21" s="34"/>
-      <c r="IM21" s="34"/>
-      <c r="IN21" s="34"/>
-      <c r="IO21" s="34"/>
-      <c r="IP21" s="34"/>
-      <c r="IQ21" s="34"/>
-      <c r="IR21" s="34"/>
-      <c r="IS21" s="34"/>
-      <c r="IT21" s="34"/>
-      <c r="IU21" s="34"/>
-    </row>
-    <row r="22" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="92" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="151"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
+      <c r="BJ21" s="36"/>
+      <c r="BK21" s="36"/>
+      <c r="BL21" s="36"/>
+      <c r="BM21" s="36"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="36"/>
+      <c r="BQ21" s="36"/>
+      <c r="BR21" s="36"/>
+      <c r="BS21" s="36"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="36"/>
+      <c r="BV21" s="36"/>
+      <c r="BW21" s="36"/>
+      <c r="BX21" s="36"/>
+      <c r="BY21" s="36"/>
+      <c r="BZ21" s="36"/>
+      <c r="CA21" s="36"/>
+      <c r="CB21" s="36"/>
+      <c r="CC21" s="36"/>
+      <c r="CD21" s="36"/>
+      <c r="CE21" s="36"/>
+      <c r="CF21" s="36"/>
+      <c r="CG21" s="36"/>
+      <c r="CH21" s="36"/>
+      <c r="CI21" s="36"/>
+      <c r="CJ21" s="36"/>
+      <c r="CK21" s="36"/>
+      <c r="CL21" s="36"/>
+      <c r="CM21" s="36"/>
+      <c r="CN21" s="36"/>
+      <c r="CO21" s="36"/>
+      <c r="CP21" s="36"/>
+      <c r="CQ21" s="36"/>
+      <c r="CR21" s="36"/>
+      <c r="CS21" s="36"/>
+      <c r="CT21" s="36"/>
+      <c r="CU21" s="36"/>
+      <c r="CV21" s="36"/>
+      <c r="CW21" s="36"/>
+      <c r="CX21" s="36"/>
+      <c r="CY21" s="36"/>
+      <c r="CZ21" s="36"/>
+      <c r="DA21" s="36"/>
+      <c r="DB21" s="36"/>
+      <c r="DC21" s="36"/>
+      <c r="DD21" s="36"/>
+      <c r="DE21" s="36"/>
+      <c r="DF21" s="36"/>
+      <c r="DG21" s="36"/>
+      <c r="DH21" s="36"/>
+      <c r="DI21" s="36"/>
+      <c r="DJ21" s="36"/>
+      <c r="DK21" s="36"/>
+      <c r="DL21" s="36"/>
+      <c r="DM21" s="36"/>
+      <c r="DN21" s="36"/>
+      <c r="DO21" s="36"/>
+      <c r="DP21" s="36"/>
+      <c r="DQ21" s="36"/>
+      <c r="DR21" s="36"/>
+      <c r="DS21" s="36"/>
+      <c r="DT21" s="36"/>
+      <c r="DU21" s="36"/>
+      <c r="DV21" s="36"/>
+      <c r="DW21" s="36"/>
+      <c r="DX21" s="36"/>
+      <c r="DY21" s="36"/>
+      <c r="DZ21" s="36"/>
+      <c r="EA21" s="36"/>
+      <c r="EB21" s="36"/>
+      <c r="EC21" s="36"/>
+      <c r="ED21" s="36"/>
+      <c r="EE21" s="36"/>
+      <c r="EF21" s="36"/>
+      <c r="EG21" s="36"/>
+      <c r="EH21" s="36"/>
+      <c r="EI21" s="36"/>
+      <c r="EJ21" s="36"/>
+      <c r="EK21" s="36"/>
+      <c r="EL21" s="36"/>
+      <c r="EM21" s="36"/>
+      <c r="EN21" s="36"/>
+      <c r="EO21" s="36"/>
+      <c r="EP21" s="36"/>
+      <c r="EQ21" s="36"/>
+      <c r="ER21" s="36"/>
+      <c r="ES21" s="36"/>
+      <c r="ET21" s="36"/>
+      <c r="EU21" s="36"/>
+      <c r="EV21" s="36"/>
+      <c r="EW21" s="36"/>
+      <c r="EX21" s="36"/>
+      <c r="EY21" s="36"/>
+      <c r="EZ21" s="36"/>
+      <c r="FA21" s="36"/>
+      <c r="FB21" s="36"/>
+      <c r="FC21" s="36"/>
+      <c r="FD21" s="36"/>
+      <c r="FE21" s="36"/>
+      <c r="FF21" s="36"/>
+      <c r="FG21" s="36"/>
+      <c r="FH21" s="36"/>
+      <c r="FI21" s="36"/>
+      <c r="FJ21" s="36"/>
+      <c r="FK21" s="36"/>
+      <c r="FL21" s="36"/>
+      <c r="FM21" s="36"/>
+      <c r="FN21" s="36"/>
+      <c r="FO21" s="36"/>
+      <c r="FP21" s="36"/>
+      <c r="FQ21" s="36"/>
+      <c r="FR21" s="36"/>
+      <c r="FS21" s="36"/>
+      <c r="FT21" s="36"/>
+      <c r="FU21" s="36"/>
+      <c r="FV21" s="36"/>
+      <c r="FW21" s="36"/>
+      <c r="FX21" s="36"/>
+      <c r="FY21" s="36"/>
+      <c r="FZ21" s="36"/>
+      <c r="GA21" s="36"/>
+      <c r="GB21" s="36"/>
+      <c r="GC21" s="36"/>
+      <c r="GD21" s="36"/>
+      <c r="GE21" s="36"/>
+      <c r="GF21" s="36"/>
+      <c r="GG21" s="36"/>
+      <c r="GH21" s="36"/>
+      <c r="GI21" s="36"/>
+      <c r="GJ21" s="36"/>
+      <c r="GK21" s="36"/>
+      <c r="GL21" s="36"/>
+      <c r="GM21" s="36"/>
+      <c r="GN21" s="36"/>
+      <c r="GO21" s="36"/>
+      <c r="GP21" s="36"/>
+      <c r="GQ21" s="36"/>
+      <c r="GR21" s="36"/>
+      <c r="GS21" s="36"/>
+      <c r="GT21" s="36"/>
+      <c r="GU21" s="36"/>
+      <c r="GV21" s="36"/>
+      <c r="GW21" s="36"/>
+      <c r="GX21" s="36"/>
+      <c r="GY21" s="36"/>
+      <c r="GZ21" s="36"/>
+      <c r="HA21" s="36"/>
+      <c r="HB21" s="36"/>
+      <c r="HC21" s="36"/>
+      <c r="HD21" s="36"/>
+      <c r="HE21" s="36"/>
+      <c r="HF21" s="36"/>
+      <c r="HG21" s="36"/>
+      <c r="HH21" s="36"/>
+      <c r="HI21" s="36"/>
+      <c r="HJ21" s="36"/>
+      <c r="HK21" s="36"/>
+      <c r="HL21" s="36"/>
+      <c r="HM21" s="36"/>
+      <c r="HN21" s="36"/>
+      <c r="HO21" s="36"/>
+      <c r="HP21" s="36"/>
+      <c r="HQ21" s="36"/>
+      <c r="HR21" s="36"/>
+      <c r="HS21" s="36"/>
+      <c r="HT21" s="36"/>
+      <c r="HU21" s="36"/>
+      <c r="HV21" s="36"/>
+      <c r="HW21" s="36"/>
+      <c r="HX21" s="36"/>
+      <c r="HY21" s="36"/>
+      <c r="HZ21" s="36"/>
+      <c r="IA21" s="36"/>
+      <c r="IB21" s="36"/>
+      <c r="IC21" s="36"/>
+      <c r="ID21" s="36"/>
+      <c r="IE21" s="36"/>
+      <c r="IF21" s="36"/>
+      <c r="IG21" s="36"/>
+      <c r="IH21" s="36"/>
+      <c r="II21" s="36"/>
+      <c r="IJ21" s="36"/>
+      <c r="IK21" s="36"/>
+      <c r="IL21" s="36"/>
+      <c r="IM21" s="36"/>
+      <c r="IN21" s="36"/>
+      <c r="IO21" s="36"/>
+      <c r="IP21" s="36"/>
+      <c r="IQ21" s="36"/>
+      <c r="IR21" s="36"/>
+      <c r="IS21" s="36"/>
+      <c r="IT21" s="36"/>
+      <c r="IU21" s="36"/>
+    </row>
+    <row r="22" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.2</v>
+        <f t="shared" si="254"/>
+        <v>2.1</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="149">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C22" s="149"/>
       <c r="D22" s="89"/>
       <c r="E22" s="87">
+        <f>$F$9+1</f>
+        <v>45360</v>
+      </c>
+      <c r="F22" s="84">
+        <f t="shared" ref="F22" si="271">IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
         <v>45429</v>
       </c>
-      <c r="F22" s="84">
-        <f>IF(ISBLANK(E22)," - ",IF(G22=0,E22,E22+G22-1))</f>
-        <v>45429</v>
-      </c>
       <c r="G22" s="45">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="H22" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="102">
-        <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
-        <v>1</v>
+        <f t="shared" ref="I22" si="272">IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
+        <v>50</v>
       </c>
       <c r="J22" s="94"/>
       <c r="K22" s="34"/>
@@ -11161,295 +11165,311 @@
       <c r="IT22" s="34"/>
       <c r="IU22" s="34"/>
     </row>
-    <row r="23" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="151"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="36"/>
-      <c r="BC23" s="36"/>
-      <c r="BD23" s="36"/>
-      <c r="BE23" s="36"/>
-      <c r="BF23" s="36"/>
-      <c r="BG23" s="36"/>
-      <c r="BH23" s="36"/>
-      <c r="BI23" s="36"/>
-      <c r="BJ23" s="36"/>
-      <c r="BK23" s="36"/>
-      <c r="BL23" s="36"/>
-      <c r="BM23" s="36"/>
-      <c r="BN23" s="36"/>
-      <c r="BO23" s="36"/>
-      <c r="BP23" s="36"/>
-      <c r="BQ23" s="36"/>
-      <c r="BR23" s="36"/>
-      <c r="BS23" s="36"/>
-      <c r="BT23" s="36"/>
-      <c r="BU23" s="36"/>
-      <c r="BV23" s="36"/>
-      <c r="BW23" s="36"/>
-      <c r="BX23" s="36"/>
-      <c r="BY23" s="36"/>
-      <c r="BZ23" s="36"/>
-      <c r="CA23" s="36"/>
-      <c r="CB23" s="36"/>
-      <c r="CC23" s="36"/>
-      <c r="CD23" s="36"/>
-      <c r="CE23" s="36"/>
-      <c r="CF23" s="36"/>
-      <c r="CG23" s="36"/>
-      <c r="CH23" s="36"/>
-      <c r="CI23" s="36"/>
-      <c r="CJ23" s="36"/>
-      <c r="CK23" s="36"/>
-      <c r="CL23" s="36"/>
-      <c r="CM23" s="36"/>
-      <c r="CN23" s="36"/>
-      <c r="CO23" s="36"/>
-      <c r="CP23" s="36"/>
-      <c r="CQ23" s="36"/>
-      <c r="CR23" s="36"/>
-      <c r="CS23" s="36"/>
-      <c r="CT23" s="36"/>
-      <c r="CU23" s="36"/>
-      <c r="CV23" s="36"/>
-      <c r="CW23" s="36"/>
-      <c r="CX23" s="36"/>
-      <c r="CY23" s="36"/>
-      <c r="CZ23" s="36"/>
-      <c r="DA23" s="36"/>
-      <c r="DB23" s="36"/>
-      <c r="DC23" s="36"/>
-      <c r="DD23" s="36"/>
-      <c r="DE23" s="36"/>
-      <c r="DF23" s="36"/>
-      <c r="DG23" s="36"/>
-      <c r="DH23" s="36"/>
-      <c r="DI23" s="36"/>
-      <c r="DJ23" s="36"/>
-      <c r="DK23" s="36"/>
-      <c r="DL23" s="36"/>
-      <c r="DM23" s="36"/>
-      <c r="DN23" s="36"/>
-      <c r="DO23" s="36"/>
-      <c r="DP23" s="36"/>
-      <c r="DQ23" s="36"/>
-      <c r="DR23" s="36"/>
-      <c r="DS23" s="36"/>
-      <c r="DT23" s="36"/>
-      <c r="DU23" s="36"/>
-      <c r="DV23" s="36"/>
-      <c r="DW23" s="36"/>
-      <c r="DX23" s="36"/>
-      <c r="DY23" s="36"/>
-      <c r="DZ23" s="36"/>
-      <c r="EA23" s="36"/>
-      <c r="EB23" s="36"/>
-      <c r="EC23" s="36"/>
-      <c r="ED23" s="36"/>
-      <c r="EE23" s="36"/>
-      <c r="EF23" s="36"/>
-      <c r="EG23" s="36"/>
-      <c r="EH23" s="36"/>
-      <c r="EI23" s="36"/>
-      <c r="EJ23" s="36"/>
-      <c r="EK23" s="36"/>
-      <c r="EL23" s="36"/>
-      <c r="EM23" s="36"/>
-      <c r="EN23" s="36"/>
-      <c r="EO23" s="36"/>
-      <c r="EP23" s="36"/>
-      <c r="EQ23" s="36"/>
-      <c r="ER23" s="36"/>
-      <c r="ES23" s="36"/>
-      <c r="ET23" s="36"/>
-      <c r="EU23" s="36"/>
-      <c r="EV23" s="36"/>
-      <c r="EW23" s="36"/>
-      <c r="EX23" s="36"/>
-      <c r="EY23" s="36"/>
-      <c r="EZ23" s="36"/>
-      <c r="FA23" s="36"/>
-      <c r="FB23" s="36"/>
-      <c r="FC23" s="36"/>
-      <c r="FD23" s="36"/>
-      <c r="FE23" s="36"/>
-      <c r="FF23" s="36"/>
-      <c r="FG23" s="36"/>
-      <c r="FH23" s="36"/>
-      <c r="FI23" s="36"/>
-      <c r="FJ23" s="36"/>
-      <c r="FK23" s="36"/>
-      <c r="FL23" s="36"/>
-      <c r="FM23" s="36"/>
-      <c r="FN23" s="36"/>
-      <c r="FO23" s="36"/>
-      <c r="FP23" s="36"/>
-      <c r="FQ23" s="36"/>
-      <c r="FR23" s="36"/>
-      <c r="FS23" s="36"/>
-      <c r="FT23" s="36"/>
-      <c r="FU23" s="36"/>
-      <c r="FV23" s="36"/>
-      <c r="FW23" s="36"/>
-      <c r="FX23" s="36"/>
-      <c r="FY23" s="36"/>
-      <c r="FZ23" s="36"/>
-      <c r="GA23" s="36"/>
-      <c r="GB23" s="36"/>
-      <c r="GC23" s="36"/>
-      <c r="GD23" s="36"/>
-      <c r="GE23" s="36"/>
-      <c r="GF23" s="36"/>
-      <c r="GG23" s="36"/>
-      <c r="GH23" s="36"/>
-      <c r="GI23" s="36"/>
-      <c r="GJ23" s="36"/>
-      <c r="GK23" s="36"/>
-      <c r="GL23" s="36"/>
-      <c r="GM23" s="36"/>
-      <c r="GN23" s="36"/>
-      <c r="GO23" s="36"/>
-      <c r="GP23" s="36"/>
-      <c r="GQ23" s="36"/>
-      <c r="GR23" s="36"/>
-      <c r="GS23" s="36"/>
-      <c r="GT23" s="36"/>
-      <c r="GU23" s="36"/>
-      <c r="GV23" s="36"/>
-      <c r="GW23" s="36"/>
-      <c r="GX23" s="36"/>
-      <c r="GY23" s="36"/>
-      <c r="GZ23" s="36"/>
-      <c r="HA23" s="36"/>
-      <c r="HB23" s="36"/>
-      <c r="HC23" s="36"/>
-      <c r="HD23" s="36"/>
-      <c r="HE23" s="36"/>
-      <c r="HF23" s="36"/>
-      <c r="HG23" s="36"/>
-      <c r="HH23" s="36"/>
-      <c r="HI23" s="36"/>
-      <c r="HJ23" s="36"/>
-      <c r="HK23" s="36"/>
-      <c r="HL23" s="36"/>
-      <c r="HM23" s="36"/>
-      <c r="HN23" s="36"/>
-      <c r="HO23" s="36"/>
-      <c r="HP23" s="36"/>
-      <c r="HQ23" s="36"/>
-      <c r="HR23" s="36"/>
-      <c r="HS23" s="36"/>
-      <c r="HT23" s="36"/>
-      <c r="HU23" s="36"/>
-      <c r="HV23" s="36"/>
-      <c r="HW23" s="36"/>
-      <c r="HX23" s="36"/>
-      <c r="HY23" s="36"/>
-      <c r="HZ23" s="36"/>
-      <c r="IA23" s="36"/>
-      <c r="IB23" s="36"/>
-      <c r="IC23" s="36"/>
-      <c r="ID23" s="36"/>
-      <c r="IE23" s="36"/>
-      <c r="IF23" s="36"/>
-      <c r="IG23" s="36"/>
-      <c r="IH23" s="36"/>
-      <c r="II23" s="36"/>
-      <c r="IJ23" s="36"/>
-      <c r="IK23" s="36"/>
-      <c r="IL23" s="36"/>
-      <c r="IM23" s="36"/>
-      <c r="IN23" s="36"/>
-      <c r="IO23" s="36"/>
-      <c r="IP23" s="36"/>
-      <c r="IQ23" s="36"/>
-      <c r="IR23" s="36"/>
-      <c r="IS23" s="36"/>
-      <c r="IT23" s="36"/>
-      <c r="IU23" s="36"/>
-    </row>
-    <row r="24" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.1</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="149">
+        <v>1</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="87">
+        <f>E24-14</f>
+        <v>45415</v>
+      </c>
+      <c r="F23" s="84">
+        <f t="shared" ref="F23" si="273">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
+        <v>45415</v>
+      </c>
+      <c r="G23" s="45">
+        <v>1</v>
+      </c>
+      <c r="H23" s="46">
+        <v>1</v>
+      </c>
+      <c r="I23" s="102">
+        <f t="shared" ref="I23" si="274">IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="94"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="34"/>
+      <c r="AW23" s="34"/>
+      <c r="AX23" s="34"/>
+      <c r="AY23" s="34"/>
+      <c r="AZ23" s="34"/>
+      <c r="BA23" s="34"/>
+      <c r="BB23" s="34"/>
+      <c r="BC23" s="34"/>
+      <c r="BD23" s="34"/>
+      <c r="BE23" s="34"/>
+      <c r="BF23" s="34"/>
+      <c r="BG23" s="34"/>
+      <c r="BH23" s="34"/>
+      <c r="BI23" s="34"/>
+      <c r="BJ23" s="34"/>
+      <c r="BK23" s="34"/>
+      <c r="BL23" s="34"/>
+      <c r="BM23" s="34"/>
+      <c r="BN23" s="34"/>
+      <c r="BO23" s="34"/>
+      <c r="BP23" s="34"/>
+      <c r="BQ23" s="34"/>
+      <c r="BR23" s="34"/>
+      <c r="BS23" s="34"/>
+      <c r="BT23" s="34"/>
+      <c r="BU23" s="34"/>
+      <c r="BV23" s="34"/>
+      <c r="BW23" s="34"/>
+      <c r="BX23" s="34"/>
+      <c r="BY23" s="34"/>
+      <c r="BZ23" s="34"/>
+      <c r="CA23" s="34"/>
+      <c r="CB23" s="34"/>
+      <c r="CC23" s="34"/>
+      <c r="CD23" s="34"/>
+      <c r="CE23" s="34"/>
+      <c r="CF23" s="34"/>
+      <c r="CG23" s="34"/>
+      <c r="CH23" s="34"/>
+      <c r="CI23" s="34"/>
+      <c r="CJ23" s="34"/>
+      <c r="CK23" s="34"/>
+      <c r="CL23" s="34"/>
+      <c r="CM23" s="34"/>
+      <c r="CN23" s="34"/>
+      <c r="CO23" s="34"/>
+      <c r="CP23" s="34"/>
+      <c r="CQ23" s="34"/>
+      <c r="CR23" s="34"/>
+      <c r="CS23" s="34"/>
+      <c r="CT23" s="34"/>
+      <c r="CU23" s="34"/>
+      <c r="CV23" s="34"/>
+      <c r="CW23" s="34"/>
+      <c r="CX23" s="34"/>
+      <c r="CY23" s="34"/>
+      <c r="CZ23" s="34"/>
+      <c r="DA23" s="34"/>
+      <c r="DB23" s="34"/>
+      <c r="DC23" s="34"/>
+      <c r="DD23" s="34"/>
+      <c r="DE23" s="34"/>
+      <c r="DF23" s="34"/>
+      <c r="DG23" s="34"/>
+      <c r="DH23" s="34"/>
+      <c r="DI23" s="34"/>
+      <c r="DJ23" s="34"/>
+      <c r="DK23" s="34"/>
+      <c r="DL23" s="34"/>
+      <c r="DM23" s="34"/>
+      <c r="DN23" s="34"/>
+      <c r="DO23" s="34"/>
+      <c r="DP23" s="34"/>
+      <c r="DQ23" s="34"/>
+      <c r="DR23" s="34"/>
+      <c r="DS23" s="34"/>
+      <c r="DT23" s="34"/>
+      <c r="DU23" s="34"/>
+      <c r="DV23" s="34"/>
+      <c r="DW23" s="34"/>
+      <c r="DX23" s="34"/>
+      <c r="DY23" s="34"/>
+      <c r="DZ23" s="34"/>
+      <c r="EA23" s="34"/>
+      <c r="EB23" s="34"/>
+      <c r="EC23" s="34"/>
+      <c r="ED23" s="34"/>
+      <c r="EE23" s="34"/>
+      <c r="EF23" s="34"/>
+      <c r="EG23" s="34"/>
+      <c r="EH23" s="34"/>
+      <c r="EI23" s="34"/>
+      <c r="EJ23" s="34"/>
+      <c r="EK23" s="34"/>
+      <c r="EL23" s="34"/>
+      <c r="EM23" s="34"/>
+      <c r="EN23" s="34"/>
+      <c r="EO23" s="34"/>
+      <c r="EP23" s="34"/>
+      <c r="EQ23" s="34"/>
+      <c r="ER23" s="34"/>
+      <c r="ES23" s="34"/>
+      <c r="ET23" s="34"/>
+      <c r="EU23" s="34"/>
+      <c r="EV23" s="34"/>
+      <c r="EW23" s="34"/>
+      <c r="EX23" s="34"/>
+      <c r="EY23" s="34"/>
+      <c r="EZ23" s="34"/>
+      <c r="FA23" s="34"/>
+      <c r="FB23" s="34"/>
+      <c r="FC23" s="34"/>
+      <c r="FD23" s="34"/>
+      <c r="FE23" s="34"/>
+      <c r="FF23" s="34"/>
+      <c r="FG23" s="34"/>
+      <c r="FH23" s="34"/>
+      <c r="FI23" s="34"/>
+      <c r="FJ23" s="34"/>
+      <c r="FK23" s="34"/>
+      <c r="FL23" s="34"/>
+      <c r="FM23" s="34"/>
+      <c r="FN23" s="34"/>
+      <c r="FO23" s="34"/>
+      <c r="FP23" s="34"/>
+      <c r="FQ23" s="34"/>
+      <c r="FR23" s="34"/>
+      <c r="FS23" s="34"/>
+      <c r="FT23" s="34"/>
+      <c r="FU23" s="34"/>
+      <c r="FV23" s="34"/>
+      <c r="FW23" s="34"/>
+      <c r="FX23" s="34"/>
+      <c r="FY23" s="34"/>
+      <c r="FZ23" s="34"/>
+      <c r="GA23" s="34"/>
+      <c r="GB23" s="34"/>
+      <c r="GC23" s="34"/>
+      <c r="GD23" s="34"/>
+      <c r="GE23" s="34"/>
+      <c r="GF23" s="34"/>
+      <c r="GG23" s="34"/>
+      <c r="GH23" s="34"/>
+      <c r="GI23" s="34"/>
+      <c r="GJ23" s="34"/>
+      <c r="GK23" s="34"/>
+      <c r="GL23" s="34"/>
+      <c r="GM23" s="34"/>
+      <c r="GN23" s="34"/>
+      <c r="GO23" s="34"/>
+      <c r="GP23" s="34"/>
+      <c r="GQ23" s="34"/>
+      <c r="GR23" s="34"/>
+      <c r="GS23" s="34"/>
+      <c r="GT23" s="34"/>
+      <c r="GU23" s="34"/>
+      <c r="GV23" s="34"/>
+      <c r="GW23" s="34"/>
+      <c r="GX23" s="34"/>
+      <c r="GY23" s="34"/>
+      <c r="GZ23" s="34"/>
+      <c r="HA23" s="34"/>
+      <c r="HB23" s="34"/>
+      <c r="HC23" s="34"/>
+      <c r="HD23" s="34"/>
+      <c r="HE23" s="34"/>
+      <c r="HF23" s="34"/>
+      <c r="HG23" s="34"/>
+      <c r="HH23" s="34"/>
+      <c r="HI23" s="34"/>
+      <c r="HJ23" s="34"/>
+      <c r="HK23" s="34"/>
+      <c r="HL23" s="34"/>
+      <c r="HM23" s="34"/>
+      <c r="HN23" s="34"/>
+      <c r="HO23" s="34"/>
+      <c r="HP23" s="34"/>
+      <c r="HQ23" s="34"/>
+      <c r="HR23" s="34"/>
+      <c r="HS23" s="34"/>
+      <c r="HT23" s="34"/>
+      <c r="HU23" s="34"/>
+      <c r="HV23" s="34"/>
+      <c r="HW23" s="34"/>
+      <c r="HX23" s="34"/>
+      <c r="HY23" s="34"/>
+      <c r="HZ23" s="34"/>
+      <c r="IA23" s="34"/>
+      <c r="IB23" s="34"/>
+      <c r="IC23" s="34"/>
+      <c r="ID23" s="34"/>
+      <c r="IE23" s="34"/>
+      <c r="IF23" s="34"/>
+      <c r="IG23" s="34"/>
+      <c r="IH23" s="34"/>
+      <c r="II23" s="34"/>
+      <c r="IJ23" s="34"/>
+      <c r="IK23" s="34"/>
+      <c r="IL23" s="34"/>
+      <c r="IM23" s="34"/>
+      <c r="IN23" s="34"/>
+      <c r="IO23" s="34"/>
+      <c r="IP23" s="34"/>
+      <c r="IQ23" s="34"/>
+      <c r="IR23" s="34"/>
+      <c r="IS23" s="34"/>
+      <c r="IT23" s="34"/>
+      <c r="IU23" s="34"/>
+    </row>
+    <row r="24" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="150"/>
-      <c r="D24" s="33"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.2</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="149">
+        <v>1</v>
+      </c>
+      <c r="D24" s="89"/>
       <c r="E24" s="87">
-        <f>$F$20+1</f>
-        <v>45430</v>
+        <v>45429</v>
       </c>
       <c r="F24" s="84">
-        <f t="shared" ref="F24" si="271">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
-        <v>45504</v>
+        <f>IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <v>45429</v>
       </c>
       <c r="G24" s="45">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="H24" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="102">
         <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="J24" s="94"/>
       <c r="K24" s="34"/>
@@ -11698,311 +11718,295 @@
       <c r="IT24" s="34"/>
       <c r="IU24" s="34"/>
     </row>
-    <row r="25" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A25" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="150">
-        <v>1</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="87">
-        <f>E26-14</f>
-        <v>45489</v>
-      </c>
-      <c r="F25" s="84">
-        <f t="shared" ref="F25" si="272">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v>45489</v>
-      </c>
-      <c r="G25" s="45">
-        <v>1</v>
-      </c>
-      <c r="H25" s="46">
-        <v>1</v>
-      </c>
-      <c r="I25" s="102">
-        <f>IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="34"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="34"/>
-      <c r="AZ25" s="34"/>
-      <c r="BA25" s="34"/>
-      <c r="BB25" s="34"/>
-      <c r="BC25" s="34"/>
-      <c r="BD25" s="34"/>
-      <c r="BE25" s="34"/>
-      <c r="BF25" s="34"/>
-      <c r="BG25" s="34"/>
-      <c r="BH25" s="34"/>
-      <c r="BI25" s="34"/>
-      <c r="BJ25" s="34"/>
-      <c r="BK25" s="34"/>
-      <c r="BL25" s="34"/>
-      <c r="BM25" s="34"/>
-      <c r="BN25" s="34"/>
-      <c r="BO25" s="34"/>
-      <c r="BP25" s="34"/>
-      <c r="BQ25" s="34"/>
-      <c r="BR25" s="34"/>
-      <c r="BS25" s="34"/>
-      <c r="BT25" s="34"/>
-      <c r="BU25" s="34"/>
-      <c r="BV25" s="34"/>
-      <c r="BW25" s="34"/>
-      <c r="BX25" s="34"/>
-      <c r="BY25" s="34"/>
-      <c r="BZ25" s="34"/>
-      <c r="CA25" s="34"/>
-      <c r="CB25" s="34"/>
-      <c r="CC25" s="34"/>
-      <c r="CD25" s="34"/>
-      <c r="CE25" s="34"/>
-      <c r="CF25" s="34"/>
-      <c r="CG25" s="34"/>
-      <c r="CH25" s="34"/>
-      <c r="CI25" s="34"/>
-      <c r="CJ25" s="34"/>
-      <c r="CK25" s="34"/>
-      <c r="CL25" s="34"/>
-      <c r="CM25" s="34"/>
-      <c r="CN25" s="34"/>
-      <c r="CO25" s="34"/>
-      <c r="CP25" s="34"/>
-      <c r="CQ25" s="34"/>
-      <c r="CR25" s="34"/>
-      <c r="CS25" s="34"/>
-      <c r="CT25" s="34"/>
-      <c r="CU25" s="34"/>
-      <c r="CV25" s="34"/>
-      <c r="CW25" s="34"/>
-      <c r="CX25" s="34"/>
-      <c r="CY25" s="34"/>
-      <c r="CZ25" s="34"/>
-      <c r="DA25" s="34"/>
-      <c r="DB25" s="34"/>
-      <c r="DC25" s="34"/>
-      <c r="DD25" s="34"/>
-      <c r="DE25" s="34"/>
-      <c r="DF25" s="34"/>
-      <c r="DG25" s="34"/>
-      <c r="DH25" s="34"/>
-      <c r="DI25" s="34"/>
-      <c r="DJ25" s="34"/>
-      <c r="DK25" s="34"/>
-      <c r="DL25" s="34"/>
-      <c r="DM25" s="34"/>
-      <c r="DN25" s="34"/>
-      <c r="DO25" s="34"/>
-      <c r="DP25" s="34"/>
-      <c r="DQ25" s="34"/>
-      <c r="DR25" s="34"/>
-      <c r="DS25" s="34"/>
-      <c r="DT25" s="34"/>
-      <c r="DU25" s="34"/>
-      <c r="DV25" s="34"/>
-      <c r="DW25" s="34"/>
-      <c r="DX25" s="34"/>
-      <c r="DY25" s="34"/>
-      <c r="DZ25" s="34"/>
-      <c r="EA25" s="34"/>
-      <c r="EB25" s="34"/>
-      <c r="EC25" s="34"/>
-      <c r="ED25" s="34"/>
-      <c r="EE25" s="34"/>
-      <c r="EF25" s="34"/>
-      <c r="EG25" s="34"/>
-      <c r="EH25" s="34"/>
-      <c r="EI25" s="34"/>
-      <c r="EJ25" s="34"/>
-      <c r="EK25" s="34"/>
-      <c r="EL25" s="34"/>
-      <c r="EM25" s="34"/>
-      <c r="EN25" s="34"/>
-      <c r="EO25" s="34"/>
-      <c r="EP25" s="34"/>
-      <c r="EQ25" s="34"/>
-      <c r="ER25" s="34"/>
-      <c r="ES25" s="34"/>
-      <c r="ET25" s="34"/>
-      <c r="EU25" s="34"/>
-      <c r="EV25" s="34"/>
-      <c r="EW25" s="34"/>
-      <c r="EX25" s="34"/>
-      <c r="EY25" s="34"/>
-      <c r="EZ25" s="34"/>
-      <c r="FA25" s="34"/>
-      <c r="FB25" s="34"/>
-      <c r="FC25" s="34"/>
-      <c r="FD25" s="34"/>
-      <c r="FE25" s="34"/>
-      <c r="FF25" s="34"/>
-      <c r="FG25" s="34"/>
-      <c r="FH25" s="34"/>
-      <c r="FI25" s="34"/>
-      <c r="FJ25" s="34"/>
-      <c r="FK25" s="34"/>
-      <c r="FL25" s="34"/>
-      <c r="FM25" s="34"/>
-      <c r="FN25" s="34"/>
-      <c r="FO25" s="34"/>
-      <c r="FP25" s="34"/>
-      <c r="FQ25" s="34"/>
-      <c r="FR25" s="34"/>
-      <c r="FS25" s="34"/>
-      <c r="FT25" s="34"/>
-      <c r="FU25" s="34"/>
-      <c r="FV25" s="34"/>
-      <c r="FW25" s="34"/>
-      <c r="FX25" s="34"/>
-      <c r="FY25" s="34"/>
-      <c r="FZ25" s="34"/>
-      <c r="GA25" s="34"/>
-      <c r="GB25" s="34"/>
-      <c r="GC25" s="34"/>
-      <c r="GD25" s="34"/>
-      <c r="GE25" s="34"/>
-      <c r="GF25" s="34"/>
-      <c r="GG25" s="34"/>
-      <c r="GH25" s="34"/>
-      <c r="GI25" s="34"/>
-      <c r="GJ25" s="34"/>
-      <c r="GK25" s="34"/>
-      <c r="GL25" s="34"/>
-      <c r="GM25" s="34"/>
-      <c r="GN25" s="34"/>
-      <c r="GO25" s="34"/>
-      <c r="GP25" s="34"/>
-      <c r="GQ25" s="34"/>
-      <c r="GR25" s="34"/>
-      <c r="GS25" s="34"/>
-      <c r="GT25" s="34"/>
-      <c r="GU25" s="34"/>
-      <c r="GV25" s="34"/>
-      <c r="GW25" s="34"/>
-      <c r="GX25" s="34"/>
-      <c r="GY25" s="34"/>
-      <c r="GZ25" s="34"/>
-      <c r="HA25" s="34"/>
-      <c r="HB25" s="34"/>
-      <c r="HC25" s="34"/>
-      <c r="HD25" s="34"/>
-      <c r="HE25" s="34"/>
-      <c r="HF25" s="34"/>
-      <c r="HG25" s="34"/>
-      <c r="HH25" s="34"/>
-      <c r="HI25" s="34"/>
-      <c r="HJ25" s="34"/>
-      <c r="HK25" s="34"/>
-      <c r="HL25" s="34"/>
-      <c r="HM25" s="34"/>
-      <c r="HN25" s="34"/>
-      <c r="HO25" s="34"/>
-      <c r="HP25" s="34"/>
-      <c r="HQ25" s="34"/>
-      <c r="HR25" s="34"/>
-      <c r="HS25" s="34"/>
-      <c r="HT25" s="34"/>
-      <c r="HU25" s="34"/>
-      <c r="HV25" s="34"/>
-      <c r="HW25" s="34"/>
-      <c r="HX25" s="34"/>
-      <c r="HY25" s="34"/>
-      <c r="HZ25" s="34"/>
-      <c r="IA25" s="34"/>
-      <c r="IB25" s="34"/>
-      <c r="IC25" s="34"/>
-      <c r="ID25" s="34"/>
-      <c r="IE25" s="34"/>
-      <c r="IF25" s="34"/>
-      <c r="IG25" s="34"/>
-      <c r="IH25" s="34"/>
-      <c r="II25" s="34"/>
-      <c r="IJ25" s="34"/>
-      <c r="IK25" s="34"/>
-      <c r="IL25" s="34"/>
-      <c r="IM25" s="34"/>
-      <c r="IN25" s="34"/>
-      <c r="IO25" s="34"/>
-      <c r="IP25" s="34"/>
-      <c r="IQ25" s="34"/>
-      <c r="IR25" s="34"/>
-      <c r="IS25" s="34"/>
-      <c r="IT25" s="34"/>
-      <c r="IU25" s="34"/>
-    </row>
-    <row r="26" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="92" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="151"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="36"/>
+      <c r="AF25" s="36"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+      <c r="AM25" s="36"/>
+      <c r="AN25" s="36"/>
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="36"/>
+      <c r="AQ25" s="36"/>
+      <c r="AR25" s="36"/>
+      <c r="AS25" s="36"/>
+      <c r="AT25" s="36"/>
+      <c r="AU25" s="36"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="36"/>
+      <c r="AX25" s="36"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="36"/>
+      <c r="BA25" s="36"/>
+      <c r="BB25" s="36"/>
+      <c r="BC25" s="36"/>
+      <c r="BD25" s="36"/>
+      <c r="BE25" s="36"/>
+      <c r="BF25" s="36"/>
+      <c r="BG25" s="36"/>
+      <c r="BH25" s="36"/>
+      <c r="BI25" s="36"/>
+      <c r="BJ25" s="36"/>
+      <c r="BK25" s="36"/>
+      <c r="BL25" s="36"/>
+      <c r="BM25" s="36"/>
+      <c r="BN25" s="36"/>
+      <c r="BO25" s="36"/>
+      <c r="BP25" s="36"/>
+      <c r="BQ25" s="36"/>
+      <c r="BR25" s="36"/>
+      <c r="BS25" s="36"/>
+      <c r="BT25" s="36"/>
+      <c r="BU25" s="36"/>
+      <c r="BV25" s="36"/>
+      <c r="BW25" s="36"/>
+      <c r="BX25" s="36"/>
+      <c r="BY25" s="36"/>
+      <c r="BZ25" s="36"/>
+      <c r="CA25" s="36"/>
+      <c r="CB25" s="36"/>
+      <c r="CC25" s="36"/>
+      <c r="CD25" s="36"/>
+      <c r="CE25" s="36"/>
+      <c r="CF25" s="36"/>
+      <c r="CG25" s="36"/>
+      <c r="CH25" s="36"/>
+      <c r="CI25" s="36"/>
+      <c r="CJ25" s="36"/>
+      <c r="CK25" s="36"/>
+      <c r="CL25" s="36"/>
+      <c r="CM25" s="36"/>
+      <c r="CN25" s="36"/>
+      <c r="CO25" s="36"/>
+      <c r="CP25" s="36"/>
+      <c r="CQ25" s="36"/>
+      <c r="CR25" s="36"/>
+      <c r="CS25" s="36"/>
+      <c r="CT25" s="36"/>
+      <c r="CU25" s="36"/>
+      <c r="CV25" s="36"/>
+      <c r="CW25" s="36"/>
+      <c r="CX25" s="36"/>
+      <c r="CY25" s="36"/>
+      <c r="CZ25" s="36"/>
+      <c r="DA25" s="36"/>
+      <c r="DB25" s="36"/>
+      <c r="DC25" s="36"/>
+      <c r="DD25" s="36"/>
+      <c r="DE25" s="36"/>
+      <c r="DF25" s="36"/>
+      <c r="DG25" s="36"/>
+      <c r="DH25" s="36"/>
+      <c r="DI25" s="36"/>
+      <c r="DJ25" s="36"/>
+      <c r="DK25" s="36"/>
+      <c r="DL25" s="36"/>
+      <c r="DM25" s="36"/>
+      <c r="DN25" s="36"/>
+      <c r="DO25" s="36"/>
+      <c r="DP25" s="36"/>
+      <c r="DQ25" s="36"/>
+      <c r="DR25" s="36"/>
+      <c r="DS25" s="36"/>
+      <c r="DT25" s="36"/>
+      <c r="DU25" s="36"/>
+      <c r="DV25" s="36"/>
+      <c r="DW25" s="36"/>
+      <c r="DX25" s="36"/>
+      <c r="DY25" s="36"/>
+      <c r="DZ25" s="36"/>
+      <c r="EA25" s="36"/>
+      <c r="EB25" s="36"/>
+      <c r="EC25" s="36"/>
+      <c r="ED25" s="36"/>
+      <c r="EE25" s="36"/>
+      <c r="EF25" s="36"/>
+      <c r="EG25" s="36"/>
+      <c r="EH25" s="36"/>
+      <c r="EI25" s="36"/>
+      <c r="EJ25" s="36"/>
+      <c r="EK25" s="36"/>
+      <c r="EL25" s="36"/>
+      <c r="EM25" s="36"/>
+      <c r="EN25" s="36"/>
+      <c r="EO25" s="36"/>
+      <c r="EP25" s="36"/>
+      <c r="EQ25" s="36"/>
+      <c r="ER25" s="36"/>
+      <c r="ES25" s="36"/>
+      <c r="ET25" s="36"/>
+      <c r="EU25" s="36"/>
+      <c r="EV25" s="36"/>
+      <c r="EW25" s="36"/>
+      <c r="EX25" s="36"/>
+      <c r="EY25" s="36"/>
+      <c r="EZ25" s="36"/>
+      <c r="FA25" s="36"/>
+      <c r="FB25" s="36"/>
+      <c r="FC25" s="36"/>
+      <c r="FD25" s="36"/>
+      <c r="FE25" s="36"/>
+      <c r="FF25" s="36"/>
+      <c r="FG25" s="36"/>
+      <c r="FH25" s="36"/>
+      <c r="FI25" s="36"/>
+      <c r="FJ25" s="36"/>
+      <c r="FK25" s="36"/>
+      <c r="FL25" s="36"/>
+      <c r="FM25" s="36"/>
+      <c r="FN25" s="36"/>
+      <c r="FO25" s="36"/>
+      <c r="FP25" s="36"/>
+      <c r="FQ25" s="36"/>
+      <c r="FR25" s="36"/>
+      <c r="FS25" s="36"/>
+      <c r="FT25" s="36"/>
+      <c r="FU25" s="36"/>
+      <c r="FV25" s="36"/>
+      <c r="FW25" s="36"/>
+      <c r="FX25" s="36"/>
+      <c r="FY25" s="36"/>
+      <c r="FZ25" s="36"/>
+      <c r="GA25" s="36"/>
+      <c r="GB25" s="36"/>
+      <c r="GC25" s="36"/>
+      <c r="GD25" s="36"/>
+      <c r="GE25" s="36"/>
+      <c r="GF25" s="36"/>
+      <c r="GG25" s="36"/>
+      <c r="GH25" s="36"/>
+      <c r="GI25" s="36"/>
+      <c r="GJ25" s="36"/>
+      <c r="GK25" s="36"/>
+      <c r="GL25" s="36"/>
+      <c r="GM25" s="36"/>
+      <c r="GN25" s="36"/>
+      <c r="GO25" s="36"/>
+      <c r="GP25" s="36"/>
+      <c r="GQ25" s="36"/>
+      <c r="GR25" s="36"/>
+      <c r="GS25" s="36"/>
+      <c r="GT25" s="36"/>
+      <c r="GU25" s="36"/>
+      <c r="GV25" s="36"/>
+      <c r="GW25" s="36"/>
+      <c r="GX25" s="36"/>
+      <c r="GY25" s="36"/>
+      <c r="GZ25" s="36"/>
+      <c r="HA25" s="36"/>
+      <c r="HB25" s="36"/>
+      <c r="HC25" s="36"/>
+      <c r="HD25" s="36"/>
+      <c r="HE25" s="36"/>
+      <c r="HF25" s="36"/>
+      <c r="HG25" s="36"/>
+      <c r="HH25" s="36"/>
+      <c r="HI25" s="36"/>
+      <c r="HJ25" s="36"/>
+      <c r="HK25" s="36"/>
+      <c r="HL25" s="36"/>
+      <c r="HM25" s="36"/>
+      <c r="HN25" s="36"/>
+      <c r="HO25" s="36"/>
+      <c r="HP25" s="36"/>
+      <c r="HQ25" s="36"/>
+      <c r="HR25" s="36"/>
+      <c r="HS25" s="36"/>
+      <c r="HT25" s="36"/>
+      <c r="HU25" s="36"/>
+      <c r="HV25" s="36"/>
+      <c r="HW25" s="36"/>
+      <c r="HX25" s="36"/>
+      <c r="HY25" s="36"/>
+      <c r="HZ25" s="36"/>
+      <c r="IA25" s="36"/>
+      <c r="IB25" s="36"/>
+      <c r="IC25" s="36"/>
+      <c r="ID25" s="36"/>
+      <c r="IE25" s="36"/>
+      <c r="IF25" s="36"/>
+      <c r="IG25" s="36"/>
+      <c r="IH25" s="36"/>
+      <c r="II25" s="36"/>
+      <c r="IJ25" s="36"/>
+      <c r="IK25" s="36"/>
+      <c r="IL25" s="36"/>
+      <c r="IM25" s="36"/>
+      <c r="IN25" s="36"/>
+      <c r="IO25" s="36"/>
+      <c r="IP25" s="36"/>
+      <c r="IQ25" s="36"/>
+      <c r="IR25" s="36"/>
+      <c r="IS25" s="36"/>
+      <c r="IT25" s="36"/>
+      <c r="IU25" s="36"/>
+    </row>
+    <row r="26" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.2</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="150">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C26" s="150"/>
       <c r="D26" s="33"/>
       <c r="E26" s="87">
-        <v>45503</v>
+        <f>$F$22+1</f>
+        <v>45430</v>
       </c>
       <c r="F26" s="84">
-        <f t="shared" ref="F26" si="273">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
-        <v>45503</v>
+        <f t="shared" ref="F26" si="275">IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>45504</v>
       </c>
       <c r="G26" s="45">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="H26" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="102">
         <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="34"/>
@@ -12251,295 +12255,311 @@
       <c r="IT26" s="34"/>
       <c r="IU26" s="34"/>
     </row>
-    <row r="27" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A27" s="92" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="36"/>
-      <c r="AL27" s="36"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="36"/>
-      <c r="AO27" s="36"/>
-      <c r="AP27" s="36"/>
-      <c r="AQ27" s="36"/>
-      <c r="AR27" s="36"/>
-      <c r="AS27" s="36"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="36"/>
-      <c r="AV27" s="36"/>
-      <c r="AW27" s="36"/>
-      <c r="AX27" s="36"/>
-      <c r="AY27" s="36"/>
-      <c r="AZ27" s="36"/>
-      <c r="BA27" s="36"/>
-      <c r="BB27" s="36"/>
-      <c r="BC27" s="36"/>
-      <c r="BD27" s="36"/>
-      <c r="BE27" s="36"/>
-      <c r="BF27" s="36"/>
-      <c r="BG27" s="36"/>
-      <c r="BH27" s="36"/>
-      <c r="BI27" s="36"/>
-      <c r="BJ27" s="36"/>
-      <c r="BK27" s="36"/>
-      <c r="BL27" s="36"/>
-      <c r="BM27" s="36"/>
-      <c r="BN27" s="36"/>
-      <c r="BO27" s="36"/>
-      <c r="BP27" s="36"/>
-      <c r="BQ27" s="36"/>
-      <c r="BR27" s="36"/>
-      <c r="BS27" s="36"/>
-      <c r="BT27" s="36"/>
-      <c r="BU27" s="36"/>
-      <c r="BV27" s="36"/>
-      <c r="BW27" s="36"/>
-      <c r="BX27" s="36"/>
-      <c r="BY27" s="36"/>
-      <c r="BZ27" s="36"/>
-      <c r="CA27" s="36"/>
-      <c r="CB27" s="36"/>
-      <c r="CC27" s="36"/>
-      <c r="CD27" s="36"/>
-      <c r="CE27" s="36"/>
-      <c r="CF27" s="36"/>
-      <c r="CG27" s="36"/>
-      <c r="CH27" s="36"/>
-      <c r="CI27" s="36"/>
-      <c r="CJ27" s="36"/>
-      <c r="CK27" s="36"/>
-      <c r="CL27" s="36"/>
-      <c r="CM27" s="36"/>
-      <c r="CN27" s="36"/>
-      <c r="CO27" s="36"/>
-      <c r="CP27" s="36"/>
-      <c r="CQ27" s="36"/>
-      <c r="CR27" s="36"/>
-      <c r="CS27" s="36"/>
-      <c r="CT27" s="36"/>
-      <c r="CU27" s="36"/>
-      <c r="CV27" s="36"/>
-      <c r="CW27" s="36"/>
-      <c r="CX27" s="36"/>
-      <c r="CY27" s="36"/>
-      <c r="CZ27" s="36"/>
-      <c r="DA27" s="36"/>
-      <c r="DB27" s="36"/>
-      <c r="DC27" s="36"/>
-      <c r="DD27" s="36"/>
-      <c r="DE27" s="36"/>
-      <c r="DF27" s="36"/>
-      <c r="DG27" s="36"/>
-      <c r="DH27" s="36"/>
-      <c r="DI27" s="36"/>
-      <c r="DJ27" s="36"/>
-      <c r="DK27" s="36"/>
-      <c r="DL27" s="36"/>
-      <c r="DM27" s="36"/>
-      <c r="DN27" s="36"/>
-      <c r="DO27" s="36"/>
-      <c r="DP27" s="36"/>
-      <c r="DQ27" s="36"/>
-      <c r="DR27" s="36"/>
-      <c r="DS27" s="36"/>
-      <c r="DT27" s="36"/>
-      <c r="DU27" s="36"/>
-      <c r="DV27" s="36"/>
-      <c r="DW27" s="36"/>
-      <c r="DX27" s="36"/>
-      <c r="DY27" s="36"/>
-      <c r="DZ27" s="36"/>
-      <c r="EA27" s="36"/>
-      <c r="EB27" s="36"/>
-      <c r="EC27" s="36"/>
-      <c r="ED27" s="36"/>
-      <c r="EE27" s="36"/>
-      <c r="EF27" s="36"/>
-      <c r="EG27" s="36"/>
-      <c r="EH27" s="36"/>
-      <c r="EI27" s="36"/>
-      <c r="EJ27" s="36"/>
-      <c r="EK27" s="36"/>
-      <c r="EL27" s="36"/>
-      <c r="EM27" s="36"/>
-      <c r="EN27" s="36"/>
-      <c r="EO27" s="36"/>
-      <c r="EP27" s="36"/>
-      <c r="EQ27" s="36"/>
-      <c r="ER27" s="36"/>
-      <c r="ES27" s="36"/>
-      <c r="ET27" s="36"/>
-      <c r="EU27" s="36"/>
-      <c r="EV27" s="36"/>
-      <c r="EW27" s="36"/>
-      <c r="EX27" s="36"/>
-      <c r="EY27" s="36"/>
-      <c r="EZ27" s="36"/>
-      <c r="FA27" s="36"/>
-      <c r="FB27" s="36"/>
-      <c r="FC27" s="36"/>
-      <c r="FD27" s="36"/>
-      <c r="FE27" s="36"/>
-      <c r="FF27" s="36"/>
-      <c r="FG27" s="36"/>
-      <c r="FH27" s="36"/>
-      <c r="FI27" s="36"/>
-      <c r="FJ27" s="36"/>
-      <c r="FK27" s="36"/>
-      <c r="FL27" s="36"/>
-      <c r="FM27" s="36"/>
-      <c r="FN27" s="36"/>
-      <c r="FO27" s="36"/>
-      <c r="FP27" s="36"/>
-      <c r="FQ27" s="36"/>
-      <c r="FR27" s="36"/>
-      <c r="FS27" s="36"/>
-      <c r="FT27" s="36"/>
-      <c r="FU27" s="36"/>
-      <c r="FV27" s="36"/>
-      <c r="FW27" s="36"/>
-      <c r="FX27" s="36"/>
-      <c r="FY27" s="36"/>
-      <c r="FZ27" s="36"/>
-      <c r="GA27" s="36"/>
-      <c r="GB27" s="36"/>
-      <c r="GC27" s="36"/>
-      <c r="GD27" s="36"/>
-      <c r="GE27" s="36"/>
-      <c r="GF27" s="36"/>
-      <c r="GG27" s="36"/>
-      <c r="GH27" s="36"/>
-      <c r="GI27" s="36"/>
-      <c r="GJ27" s="36"/>
-      <c r="GK27" s="36"/>
-      <c r="GL27" s="36"/>
-      <c r="GM27" s="36"/>
-      <c r="GN27" s="36"/>
-      <c r="GO27" s="36"/>
-      <c r="GP27" s="36"/>
-      <c r="GQ27" s="36"/>
-      <c r="GR27" s="36"/>
-      <c r="GS27" s="36"/>
-      <c r="GT27" s="36"/>
-      <c r="GU27" s="36"/>
-      <c r="GV27" s="36"/>
-      <c r="GW27" s="36"/>
-      <c r="GX27" s="36"/>
-      <c r="GY27" s="36"/>
-      <c r="GZ27" s="36"/>
-      <c r="HA27" s="36"/>
-      <c r="HB27" s="36"/>
-      <c r="HC27" s="36"/>
-      <c r="HD27" s="36"/>
-      <c r="HE27" s="36"/>
-      <c r="HF27" s="36"/>
-      <c r="HG27" s="36"/>
-      <c r="HH27" s="36"/>
-      <c r="HI27" s="36"/>
-      <c r="HJ27" s="36"/>
-      <c r="HK27" s="36"/>
-      <c r="HL27" s="36"/>
-      <c r="HM27" s="36"/>
-      <c r="HN27" s="36"/>
-      <c r="HO27" s="36"/>
-      <c r="HP27" s="36"/>
-      <c r="HQ27" s="36"/>
-      <c r="HR27" s="36"/>
-      <c r="HS27" s="36"/>
-      <c r="HT27" s="36"/>
-      <c r="HU27" s="36"/>
-      <c r="HV27" s="36"/>
-      <c r="HW27" s="36"/>
-      <c r="HX27" s="36"/>
-      <c r="HY27" s="36"/>
-      <c r="HZ27" s="36"/>
-      <c r="IA27" s="36"/>
-      <c r="IB27" s="36"/>
-      <c r="IC27" s="36"/>
-      <c r="ID27" s="36"/>
-      <c r="IE27" s="36"/>
-      <c r="IF27" s="36"/>
-      <c r="IG27" s="36"/>
-      <c r="IH27" s="36"/>
-      <c r="II27" s="36"/>
-      <c r="IJ27" s="36"/>
-      <c r="IK27" s="36"/>
-      <c r="IL27" s="36"/>
-      <c r="IM27" s="36"/>
-      <c r="IN27" s="36"/>
-      <c r="IO27" s="36"/>
-      <c r="IP27" s="36"/>
-      <c r="IQ27" s="36"/>
-      <c r="IR27" s="36"/>
-      <c r="IS27" s="36"/>
-      <c r="IT27" s="36"/>
-      <c r="IU27" s="36"/>
-    </row>
-    <row r="28" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="150">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="87">
+        <f>E28-14</f>
+        <v>45489</v>
+      </c>
+      <c r="F27" s="84">
+        <f t="shared" ref="F27" si="276">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>45489</v>
+      </c>
+      <c r="G27" s="45">
+        <v>1</v>
+      </c>
+      <c r="H27" s="46">
+        <v>1</v>
+      </c>
+      <c r="I27" s="102">
+        <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="94"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="34"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="34"/>
+      <c r="AJ27" s="34"/>
+      <c r="AK27" s="34"/>
+      <c r="AL27" s="34"/>
+      <c r="AM27" s="34"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="34"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+      <c r="AT27" s="34"/>
+      <c r="AU27" s="34"/>
+      <c r="AV27" s="34"/>
+      <c r="AW27" s="34"/>
+      <c r="AX27" s="34"/>
+      <c r="AY27" s="34"/>
+      <c r="AZ27" s="34"/>
+      <c r="BA27" s="34"/>
+      <c r="BB27" s="34"/>
+      <c r="BC27" s="34"/>
+      <c r="BD27" s="34"/>
+      <c r="BE27" s="34"/>
+      <c r="BF27" s="34"/>
+      <c r="BG27" s="34"/>
+      <c r="BH27" s="34"/>
+      <c r="BI27" s="34"/>
+      <c r="BJ27" s="34"/>
+      <c r="BK27" s="34"/>
+      <c r="BL27" s="34"/>
+      <c r="BM27" s="34"/>
+      <c r="BN27" s="34"/>
+      <c r="BO27" s="34"/>
+      <c r="BP27" s="34"/>
+      <c r="BQ27" s="34"/>
+      <c r="BR27" s="34"/>
+      <c r="BS27" s="34"/>
+      <c r="BT27" s="34"/>
+      <c r="BU27" s="34"/>
+      <c r="BV27" s="34"/>
+      <c r="BW27" s="34"/>
+      <c r="BX27" s="34"/>
+      <c r="BY27" s="34"/>
+      <c r="BZ27" s="34"/>
+      <c r="CA27" s="34"/>
+      <c r="CB27" s="34"/>
+      <c r="CC27" s="34"/>
+      <c r="CD27" s="34"/>
+      <c r="CE27" s="34"/>
+      <c r="CF27" s="34"/>
+      <c r="CG27" s="34"/>
+      <c r="CH27" s="34"/>
+      <c r="CI27" s="34"/>
+      <c r="CJ27" s="34"/>
+      <c r="CK27" s="34"/>
+      <c r="CL27" s="34"/>
+      <c r="CM27" s="34"/>
+      <c r="CN27" s="34"/>
+      <c r="CO27" s="34"/>
+      <c r="CP27" s="34"/>
+      <c r="CQ27" s="34"/>
+      <c r="CR27" s="34"/>
+      <c r="CS27" s="34"/>
+      <c r="CT27" s="34"/>
+      <c r="CU27" s="34"/>
+      <c r="CV27" s="34"/>
+      <c r="CW27" s="34"/>
+      <c r="CX27" s="34"/>
+      <c r="CY27" s="34"/>
+      <c r="CZ27" s="34"/>
+      <c r="DA27" s="34"/>
+      <c r="DB27" s="34"/>
+      <c r="DC27" s="34"/>
+      <c r="DD27" s="34"/>
+      <c r="DE27" s="34"/>
+      <c r="DF27" s="34"/>
+      <c r="DG27" s="34"/>
+      <c r="DH27" s="34"/>
+      <c r="DI27" s="34"/>
+      <c r="DJ27" s="34"/>
+      <c r="DK27" s="34"/>
+      <c r="DL27" s="34"/>
+      <c r="DM27" s="34"/>
+      <c r="DN27" s="34"/>
+      <c r="DO27" s="34"/>
+      <c r="DP27" s="34"/>
+      <c r="DQ27" s="34"/>
+      <c r="DR27" s="34"/>
+      <c r="DS27" s="34"/>
+      <c r="DT27" s="34"/>
+      <c r="DU27" s="34"/>
+      <c r="DV27" s="34"/>
+      <c r="DW27" s="34"/>
+      <c r="DX27" s="34"/>
+      <c r="DY27" s="34"/>
+      <c r="DZ27" s="34"/>
+      <c r="EA27" s="34"/>
+      <c r="EB27" s="34"/>
+      <c r="EC27" s="34"/>
+      <c r="ED27" s="34"/>
+      <c r="EE27" s="34"/>
+      <c r="EF27" s="34"/>
+      <c r="EG27" s="34"/>
+      <c r="EH27" s="34"/>
+      <c r="EI27" s="34"/>
+      <c r="EJ27" s="34"/>
+      <c r="EK27" s="34"/>
+      <c r="EL27" s="34"/>
+      <c r="EM27" s="34"/>
+      <c r="EN27" s="34"/>
+      <c r="EO27" s="34"/>
+      <c r="EP27" s="34"/>
+      <c r="EQ27" s="34"/>
+      <c r="ER27" s="34"/>
+      <c r="ES27" s="34"/>
+      <c r="ET27" s="34"/>
+      <c r="EU27" s="34"/>
+      <c r="EV27" s="34"/>
+      <c r="EW27" s="34"/>
+      <c r="EX27" s="34"/>
+      <c r="EY27" s="34"/>
+      <c r="EZ27" s="34"/>
+      <c r="FA27" s="34"/>
+      <c r="FB27" s="34"/>
+      <c r="FC27" s="34"/>
+      <c r="FD27" s="34"/>
+      <c r="FE27" s="34"/>
+      <c r="FF27" s="34"/>
+      <c r="FG27" s="34"/>
+      <c r="FH27" s="34"/>
+      <c r="FI27" s="34"/>
+      <c r="FJ27" s="34"/>
+      <c r="FK27" s="34"/>
+      <c r="FL27" s="34"/>
+      <c r="FM27" s="34"/>
+      <c r="FN27" s="34"/>
+      <c r="FO27" s="34"/>
+      <c r="FP27" s="34"/>
+      <c r="FQ27" s="34"/>
+      <c r="FR27" s="34"/>
+      <c r="FS27" s="34"/>
+      <c r="FT27" s="34"/>
+      <c r="FU27" s="34"/>
+      <c r="FV27" s="34"/>
+      <c r="FW27" s="34"/>
+      <c r="FX27" s="34"/>
+      <c r="FY27" s="34"/>
+      <c r="FZ27" s="34"/>
+      <c r="GA27" s="34"/>
+      <c r="GB27" s="34"/>
+      <c r="GC27" s="34"/>
+      <c r="GD27" s="34"/>
+      <c r="GE27" s="34"/>
+      <c r="GF27" s="34"/>
+      <c r="GG27" s="34"/>
+      <c r="GH27" s="34"/>
+      <c r="GI27" s="34"/>
+      <c r="GJ27" s="34"/>
+      <c r="GK27" s="34"/>
+      <c r="GL27" s="34"/>
+      <c r="GM27" s="34"/>
+      <c r="GN27" s="34"/>
+      <c r="GO27" s="34"/>
+      <c r="GP27" s="34"/>
+      <c r="GQ27" s="34"/>
+      <c r="GR27" s="34"/>
+      <c r="GS27" s="34"/>
+      <c r="GT27" s="34"/>
+      <c r="GU27" s="34"/>
+      <c r="GV27" s="34"/>
+      <c r="GW27" s="34"/>
+      <c r="GX27" s="34"/>
+      <c r="GY27" s="34"/>
+      <c r="GZ27" s="34"/>
+      <c r="HA27" s="34"/>
+      <c r="HB27" s="34"/>
+      <c r="HC27" s="34"/>
+      <c r="HD27" s="34"/>
+      <c r="HE27" s="34"/>
+      <c r="HF27" s="34"/>
+      <c r="HG27" s="34"/>
+      <c r="HH27" s="34"/>
+      <c r="HI27" s="34"/>
+      <c r="HJ27" s="34"/>
+      <c r="HK27" s="34"/>
+      <c r="HL27" s="34"/>
+      <c r="HM27" s="34"/>
+      <c r="HN27" s="34"/>
+      <c r="HO27" s="34"/>
+      <c r="HP27" s="34"/>
+      <c r="HQ27" s="34"/>
+      <c r="HR27" s="34"/>
+      <c r="HS27" s="34"/>
+      <c r="HT27" s="34"/>
+      <c r="HU27" s="34"/>
+      <c r="HV27" s="34"/>
+      <c r="HW27" s="34"/>
+      <c r="HX27" s="34"/>
+      <c r="HY27" s="34"/>
+      <c r="HZ27" s="34"/>
+      <c r="IA27" s="34"/>
+      <c r="IB27" s="34"/>
+      <c r="IC27" s="34"/>
+      <c r="ID27" s="34"/>
+      <c r="IE27" s="34"/>
+      <c r="IF27" s="34"/>
+      <c r="IG27" s="34"/>
+      <c r="IH27" s="34"/>
+      <c r="II27" s="34"/>
+      <c r="IJ27" s="34"/>
+      <c r="IK27" s="34"/>
+      <c r="IL27" s="34"/>
+      <c r="IM27" s="34"/>
+      <c r="IN27" s="34"/>
+      <c r="IO27" s="34"/>
+      <c r="IP27" s="34"/>
+      <c r="IQ27" s="34"/>
+      <c r="IR27" s="34"/>
+      <c r="IS27" s="34"/>
+      <c r="IT27" s="34"/>
+      <c r="IU27" s="34"/>
+    </row>
+    <row r="28" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.2</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="150"/>
+        <v>144</v>
+      </c>
+      <c r="C28" s="150">
+        <v>1</v>
+      </c>
       <c r="D28" s="33"/>
       <c r="E28" s="87">
-        <f>F24+1</f>
-        <v>45505</v>
+        <v>45503</v>
       </c>
       <c r="F28" s="84">
-        <f t="shared" ref="F28" si="274">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
-        <v>45534</v>
+        <f t="shared" ref="F28" si="277">IF(ISBLANK(E28)," - ",IF(G28=0,E28,E28+G28-1))</f>
+        <v>45503</v>
       </c>
       <c r="G28" s="45">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H28" s="46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="102">
         <f>IF(OR(F28=0,E28=0),0,NETWORKDAYS(E28,F28))</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J28" s="94"/>
       <c r="K28" s="34"/>
@@ -12788,311 +12808,295 @@
       <c r="IT28" s="34"/>
       <c r="IU28" s="34"/>
     </row>
-    <row r="29" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.1</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="150">
-        <v>1</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="87">
-        <f>F31-29</f>
-        <v>45505</v>
-      </c>
-      <c r="F29" s="84">
-        <f t="shared" ref="F29" si="275">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
-        <v>45505</v>
-      </c>
-      <c r="G29" s="45">
-        <v>1</v>
-      </c>
-      <c r="H29" s="46">
-        <v>1</v>
-      </c>
-      <c r="I29" s="102">
-        <f t="shared" ref="I29" si="276">IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>1</v>
-      </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34"/>
-      <c r="AN29" s="34"/>
-      <c r="AO29" s="34"/>
-      <c r="AP29" s="34"/>
-      <c r="AQ29" s="34"/>
-      <c r="AR29" s="34"/>
-      <c r="AS29" s="34"/>
-      <c r="AT29" s="34"/>
-      <c r="AU29" s="34"/>
-      <c r="AV29" s="34"/>
-      <c r="AW29" s="34"/>
-      <c r="AX29" s="34"/>
-      <c r="AY29" s="34"/>
-      <c r="AZ29" s="34"/>
-      <c r="BA29" s="34"/>
-      <c r="BB29" s="34"/>
-      <c r="BC29" s="34"/>
-      <c r="BD29" s="34"/>
-      <c r="BE29" s="34"/>
-      <c r="BF29" s="34"/>
-      <c r="BG29" s="34"/>
-      <c r="BH29" s="34"/>
-      <c r="BI29" s="34"/>
-      <c r="BJ29" s="34"/>
-      <c r="BK29" s="34"/>
-      <c r="BL29" s="34"/>
-      <c r="BM29" s="34"/>
-      <c r="BN29" s="34"/>
-      <c r="BO29" s="34"/>
-      <c r="BP29" s="34"/>
-      <c r="BQ29" s="34"/>
-      <c r="BR29" s="34"/>
-      <c r="BS29" s="34"/>
-      <c r="BT29" s="34"/>
-      <c r="BU29" s="34"/>
-      <c r="BV29" s="34"/>
-      <c r="BW29" s="34"/>
-      <c r="BX29" s="34"/>
-      <c r="BY29" s="34"/>
-      <c r="BZ29" s="34"/>
-      <c r="CA29" s="34"/>
-      <c r="CB29" s="34"/>
-      <c r="CC29" s="34"/>
-      <c r="CD29" s="34"/>
-      <c r="CE29" s="34"/>
-      <c r="CF29" s="34"/>
-      <c r="CG29" s="34"/>
-      <c r="CH29" s="34"/>
-      <c r="CI29" s="34"/>
-      <c r="CJ29" s="34"/>
-      <c r="CK29" s="34"/>
-      <c r="CL29" s="34"/>
-      <c r="CM29" s="34"/>
-      <c r="CN29" s="34"/>
-      <c r="CO29" s="34"/>
-      <c r="CP29" s="34"/>
-      <c r="CQ29" s="34"/>
-      <c r="CR29" s="34"/>
-      <c r="CS29" s="34"/>
-      <c r="CT29" s="34"/>
-      <c r="CU29" s="34"/>
-      <c r="CV29" s="34"/>
-      <c r="CW29" s="34"/>
-      <c r="CX29" s="34"/>
-      <c r="CY29" s="34"/>
-      <c r="CZ29" s="34"/>
-      <c r="DA29" s="34"/>
-      <c r="DB29" s="34"/>
-      <c r="DC29" s="34"/>
-      <c r="DD29" s="34"/>
-      <c r="DE29" s="34"/>
-      <c r="DF29" s="34"/>
-      <c r="DG29" s="34"/>
-      <c r="DH29" s="34"/>
-      <c r="DI29" s="34"/>
-      <c r="DJ29" s="34"/>
-      <c r="DK29" s="34"/>
-      <c r="DL29" s="34"/>
-      <c r="DM29" s="34"/>
-      <c r="DN29" s="34"/>
-      <c r="DO29" s="34"/>
-      <c r="DP29" s="34"/>
-      <c r="DQ29" s="34"/>
-      <c r="DR29" s="34"/>
-      <c r="DS29" s="34"/>
-      <c r="DT29" s="34"/>
-      <c r="DU29" s="34"/>
-      <c r="DV29" s="34"/>
-      <c r="DW29" s="34"/>
-      <c r="DX29" s="34"/>
-      <c r="DY29" s="34"/>
-      <c r="DZ29" s="34"/>
-      <c r="EA29" s="34"/>
-      <c r="EB29" s="34"/>
-      <c r="EC29" s="34"/>
-      <c r="ED29" s="34"/>
-      <c r="EE29" s="34"/>
-      <c r="EF29" s="34"/>
-      <c r="EG29" s="34"/>
-      <c r="EH29" s="34"/>
-      <c r="EI29" s="34"/>
-      <c r="EJ29" s="34"/>
-      <c r="EK29" s="34"/>
-      <c r="EL29" s="34"/>
-      <c r="EM29" s="34"/>
-      <c r="EN29" s="34"/>
-      <c r="EO29" s="34"/>
-      <c r="EP29" s="34"/>
-      <c r="EQ29" s="34"/>
-      <c r="ER29" s="34"/>
-      <c r="ES29" s="34"/>
-      <c r="ET29" s="34"/>
-      <c r="EU29" s="34"/>
-      <c r="EV29" s="34"/>
-      <c r="EW29" s="34"/>
-      <c r="EX29" s="34"/>
-      <c r="EY29" s="34"/>
-      <c r="EZ29" s="34"/>
-      <c r="FA29" s="34"/>
-      <c r="FB29" s="34"/>
-      <c r="FC29" s="34"/>
-      <c r="FD29" s="34"/>
-      <c r="FE29" s="34"/>
-      <c r="FF29" s="34"/>
-      <c r="FG29" s="34"/>
-      <c r="FH29" s="34"/>
-      <c r="FI29" s="34"/>
-      <c r="FJ29" s="34"/>
-      <c r="FK29" s="34"/>
-      <c r="FL29" s="34"/>
-      <c r="FM29" s="34"/>
-      <c r="FN29" s="34"/>
-      <c r="FO29" s="34"/>
-      <c r="FP29" s="34"/>
-      <c r="FQ29" s="34"/>
-      <c r="FR29" s="34"/>
-      <c r="FS29" s="34"/>
-      <c r="FT29" s="34"/>
-      <c r="FU29" s="34"/>
-      <c r="FV29" s="34"/>
-      <c r="FW29" s="34"/>
-      <c r="FX29" s="34"/>
-      <c r="FY29" s="34"/>
-      <c r="FZ29" s="34"/>
-      <c r="GA29" s="34"/>
-      <c r="GB29" s="34"/>
-      <c r="GC29" s="34"/>
-      <c r="GD29" s="34"/>
-      <c r="GE29" s="34"/>
-      <c r="GF29" s="34"/>
-      <c r="GG29" s="34"/>
-      <c r="GH29" s="34"/>
-      <c r="GI29" s="34"/>
-      <c r="GJ29" s="34"/>
-      <c r="GK29" s="34"/>
-      <c r="GL29" s="34"/>
-      <c r="GM29" s="34"/>
-      <c r="GN29" s="34"/>
-      <c r="GO29" s="34"/>
-      <c r="GP29" s="34"/>
-      <c r="GQ29" s="34"/>
-      <c r="GR29" s="34"/>
-      <c r="GS29" s="34"/>
-      <c r="GT29" s="34"/>
-      <c r="GU29" s="34"/>
-      <c r="GV29" s="34"/>
-      <c r="GW29" s="34"/>
-      <c r="GX29" s="34"/>
-      <c r="GY29" s="34"/>
-      <c r="GZ29" s="34"/>
-      <c r="HA29" s="34"/>
-      <c r="HB29" s="34"/>
-      <c r="HC29" s="34"/>
-      <c r="HD29" s="34"/>
-      <c r="HE29" s="34"/>
-      <c r="HF29" s="34"/>
-      <c r="HG29" s="34"/>
-      <c r="HH29" s="34"/>
-      <c r="HI29" s="34"/>
-      <c r="HJ29" s="34"/>
-      <c r="HK29" s="34"/>
-      <c r="HL29" s="34"/>
-      <c r="HM29" s="34"/>
-      <c r="HN29" s="34"/>
-      <c r="HO29" s="34"/>
-      <c r="HP29" s="34"/>
-      <c r="HQ29" s="34"/>
-      <c r="HR29" s="34"/>
-      <c r="HS29" s="34"/>
-      <c r="HT29" s="34"/>
-      <c r="HU29" s="34"/>
-      <c r="HV29" s="34"/>
-      <c r="HW29" s="34"/>
-      <c r="HX29" s="34"/>
-      <c r="HY29" s="34"/>
-      <c r="HZ29" s="34"/>
-      <c r="IA29" s="34"/>
-      <c r="IB29" s="34"/>
-      <c r="IC29" s="34"/>
-      <c r="ID29" s="34"/>
-      <c r="IE29" s="34"/>
-      <c r="IF29" s="34"/>
-      <c r="IG29" s="34"/>
-      <c r="IH29" s="34"/>
-      <c r="II29" s="34"/>
-      <c r="IJ29" s="34"/>
-      <c r="IK29" s="34"/>
-      <c r="IL29" s="34"/>
-      <c r="IM29" s="34"/>
-      <c r="IN29" s="34"/>
-      <c r="IO29" s="34"/>
-      <c r="IP29" s="34"/>
-      <c r="IQ29" s="34"/>
-      <c r="IR29" s="34"/>
-      <c r="IS29" s="34"/>
-      <c r="IT29" s="34"/>
-      <c r="IU29" s="34"/>
-    </row>
-    <row r="30" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="92" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="151"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="36"/>
+      <c r="AF29" s="36"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="36"/>
+      <c r="AO29" s="36"/>
+      <c r="AP29" s="36"/>
+      <c r="AQ29" s="36"/>
+      <c r="AR29" s="36"/>
+      <c r="AS29" s="36"/>
+      <c r="AT29" s="36"/>
+      <c r="AU29" s="36"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+      <c r="BG29" s="36"/>
+      <c r="BH29" s="36"/>
+      <c r="BI29" s="36"/>
+      <c r="BJ29" s="36"/>
+      <c r="BK29" s="36"/>
+      <c r="BL29" s="36"/>
+      <c r="BM29" s="36"/>
+      <c r="BN29" s="36"/>
+      <c r="BO29" s="36"/>
+      <c r="BP29" s="36"/>
+      <c r="BQ29" s="36"/>
+      <c r="BR29" s="36"/>
+      <c r="BS29" s="36"/>
+      <c r="BT29" s="36"/>
+      <c r="BU29" s="36"/>
+      <c r="BV29" s="36"/>
+      <c r="BW29" s="36"/>
+      <c r="BX29" s="36"/>
+      <c r="BY29" s="36"/>
+      <c r="BZ29" s="36"/>
+      <c r="CA29" s="36"/>
+      <c r="CB29" s="36"/>
+      <c r="CC29" s="36"/>
+      <c r="CD29" s="36"/>
+      <c r="CE29" s="36"/>
+      <c r="CF29" s="36"/>
+      <c r="CG29" s="36"/>
+      <c r="CH29" s="36"/>
+      <c r="CI29" s="36"/>
+      <c r="CJ29" s="36"/>
+      <c r="CK29" s="36"/>
+      <c r="CL29" s="36"/>
+      <c r="CM29" s="36"/>
+      <c r="CN29" s="36"/>
+      <c r="CO29" s="36"/>
+      <c r="CP29" s="36"/>
+      <c r="CQ29" s="36"/>
+      <c r="CR29" s="36"/>
+      <c r="CS29" s="36"/>
+      <c r="CT29" s="36"/>
+      <c r="CU29" s="36"/>
+      <c r="CV29" s="36"/>
+      <c r="CW29" s="36"/>
+      <c r="CX29" s="36"/>
+      <c r="CY29" s="36"/>
+      <c r="CZ29" s="36"/>
+      <c r="DA29" s="36"/>
+      <c r="DB29" s="36"/>
+      <c r="DC29" s="36"/>
+      <c r="DD29" s="36"/>
+      <c r="DE29" s="36"/>
+      <c r="DF29" s="36"/>
+      <c r="DG29" s="36"/>
+      <c r="DH29" s="36"/>
+      <c r="DI29" s="36"/>
+      <c r="DJ29" s="36"/>
+      <c r="DK29" s="36"/>
+      <c r="DL29" s="36"/>
+      <c r="DM29" s="36"/>
+      <c r="DN29" s="36"/>
+      <c r="DO29" s="36"/>
+      <c r="DP29" s="36"/>
+      <c r="DQ29" s="36"/>
+      <c r="DR29" s="36"/>
+      <c r="DS29" s="36"/>
+      <c r="DT29" s="36"/>
+      <c r="DU29" s="36"/>
+      <c r="DV29" s="36"/>
+      <c r="DW29" s="36"/>
+      <c r="DX29" s="36"/>
+      <c r="DY29" s="36"/>
+      <c r="DZ29" s="36"/>
+      <c r="EA29" s="36"/>
+      <c r="EB29" s="36"/>
+      <c r="EC29" s="36"/>
+      <c r="ED29" s="36"/>
+      <c r="EE29" s="36"/>
+      <c r="EF29" s="36"/>
+      <c r="EG29" s="36"/>
+      <c r="EH29" s="36"/>
+      <c r="EI29" s="36"/>
+      <c r="EJ29" s="36"/>
+      <c r="EK29" s="36"/>
+      <c r="EL29" s="36"/>
+      <c r="EM29" s="36"/>
+      <c r="EN29" s="36"/>
+      <c r="EO29" s="36"/>
+      <c r="EP29" s="36"/>
+      <c r="EQ29" s="36"/>
+      <c r="ER29" s="36"/>
+      <c r="ES29" s="36"/>
+      <c r="ET29" s="36"/>
+      <c r="EU29" s="36"/>
+      <c r="EV29" s="36"/>
+      <c r="EW29" s="36"/>
+      <c r="EX29" s="36"/>
+      <c r="EY29" s="36"/>
+      <c r="EZ29" s="36"/>
+      <c r="FA29" s="36"/>
+      <c r="FB29" s="36"/>
+      <c r="FC29" s="36"/>
+      <c r="FD29" s="36"/>
+      <c r="FE29" s="36"/>
+      <c r="FF29" s="36"/>
+      <c r="FG29" s="36"/>
+      <c r="FH29" s="36"/>
+      <c r="FI29" s="36"/>
+      <c r="FJ29" s="36"/>
+      <c r="FK29" s="36"/>
+      <c r="FL29" s="36"/>
+      <c r="FM29" s="36"/>
+      <c r="FN29" s="36"/>
+      <c r="FO29" s="36"/>
+      <c r="FP29" s="36"/>
+      <c r="FQ29" s="36"/>
+      <c r="FR29" s="36"/>
+      <c r="FS29" s="36"/>
+      <c r="FT29" s="36"/>
+      <c r="FU29" s="36"/>
+      <c r="FV29" s="36"/>
+      <c r="FW29" s="36"/>
+      <c r="FX29" s="36"/>
+      <c r="FY29" s="36"/>
+      <c r="FZ29" s="36"/>
+      <c r="GA29" s="36"/>
+      <c r="GB29" s="36"/>
+      <c r="GC29" s="36"/>
+      <c r="GD29" s="36"/>
+      <c r="GE29" s="36"/>
+      <c r="GF29" s="36"/>
+      <c r="GG29" s="36"/>
+      <c r="GH29" s="36"/>
+      <c r="GI29" s="36"/>
+      <c r="GJ29" s="36"/>
+      <c r="GK29" s="36"/>
+      <c r="GL29" s="36"/>
+      <c r="GM29" s="36"/>
+      <c r="GN29" s="36"/>
+      <c r="GO29" s="36"/>
+      <c r="GP29" s="36"/>
+      <c r="GQ29" s="36"/>
+      <c r="GR29" s="36"/>
+      <c r="GS29" s="36"/>
+      <c r="GT29" s="36"/>
+      <c r="GU29" s="36"/>
+      <c r="GV29" s="36"/>
+      <c r="GW29" s="36"/>
+      <c r="GX29" s="36"/>
+      <c r="GY29" s="36"/>
+      <c r="GZ29" s="36"/>
+      <c r="HA29" s="36"/>
+      <c r="HB29" s="36"/>
+      <c r="HC29" s="36"/>
+      <c r="HD29" s="36"/>
+      <c r="HE29" s="36"/>
+      <c r="HF29" s="36"/>
+      <c r="HG29" s="36"/>
+      <c r="HH29" s="36"/>
+      <c r="HI29" s="36"/>
+      <c r="HJ29" s="36"/>
+      <c r="HK29" s="36"/>
+      <c r="HL29" s="36"/>
+      <c r="HM29" s="36"/>
+      <c r="HN29" s="36"/>
+      <c r="HO29" s="36"/>
+      <c r="HP29" s="36"/>
+      <c r="HQ29" s="36"/>
+      <c r="HR29" s="36"/>
+      <c r="HS29" s="36"/>
+      <c r="HT29" s="36"/>
+      <c r="HU29" s="36"/>
+      <c r="HV29" s="36"/>
+      <c r="HW29" s="36"/>
+      <c r="HX29" s="36"/>
+      <c r="HY29" s="36"/>
+      <c r="HZ29" s="36"/>
+      <c r="IA29" s="36"/>
+      <c r="IB29" s="36"/>
+      <c r="IC29" s="36"/>
+      <c r="ID29" s="36"/>
+      <c r="IE29" s="36"/>
+      <c r="IF29" s="36"/>
+      <c r="IG29" s="36"/>
+      <c r="IH29" s="36"/>
+      <c r="II29" s="36"/>
+      <c r="IJ29" s="36"/>
+      <c r="IK29" s="36"/>
+      <c r="IL29" s="36"/>
+      <c r="IM29" s="36"/>
+      <c r="IN29" s="36"/>
+      <c r="IO29" s="36"/>
+      <c r="IP29" s="36"/>
+      <c r="IQ29" s="36"/>
+      <c r="IR29" s="36"/>
+      <c r="IS29" s="36"/>
+      <c r="IT29" s="36"/>
+      <c r="IU29" s="36"/>
+    </row>
+    <row r="30" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.2</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" s="150">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C30" s="150"/>
       <c r="D30" s="33"/>
       <c r="E30" s="87">
-        <v>45520</v>
+        <f>F26+1</f>
+        <v>45505</v>
       </c>
       <c r="F30" s="84">
-        <f t="shared" ref="F30" si="277">IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
-        <v>45520</v>
+        <f t="shared" ref="F30" si="278">IF(ISBLANK(E30)," - ",IF(G30=0,E30,E30+G30-1))</f>
+        <v>45534</v>
       </c>
       <c r="G30" s="45">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H30" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="102">
-        <f t="shared" ref="I30" si="278">IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
-        <v>1</v>
+        <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
+        <v>22</v>
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="34"/>
@@ -13341,10 +13345,10 @@
       <c r="IT30" s="34"/>
       <c r="IU30" s="34"/>
     </row>
-    <row r="31" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>4.1.3</v>
+        <v>4.1.1</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>142</v>
@@ -13354,12 +13358,12 @@
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="87">
-        <f>F28</f>
-        <v>45534</v>
+        <f>F33-29</f>
+        <v>45505</v>
       </c>
       <c r="F31" s="84">
-        <f>IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
-        <v>45534</v>
+        <f t="shared" ref="F31" si="279">IF(ISBLANK(E31)," - ",IF(G31=0,E31,E31+G31-1))</f>
+        <v>45505</v>
       </c>
       <c r="G31" s="45">
         <v>1</v>
@@ -13368,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="102">
-        <f t="shared" ref="I31" si="279">IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
+        <f t="shared" ref="I31" si="280">IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
         <v>1</v>
       </c>
       <c r="J31" s="94"/>
@@ -13618,19 +13622,313 @@
       <c r="IT31" s="34"/>
       <c r="IU31" s="34"/>
     </row>
-    <row r="33" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="105" t="s">
+    <row r="32" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1.2</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="150">
         <v>1</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="87">
+        <v>45520</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" ref="F32" si="281">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>45520</v>
+      </c>
+      <c r="G32" s="45">
+        <v>1</v>
+      </c>
+      <c r="H32" s="46">
+        <v>1</v>
+      </c>
+      <c r="I32" s="102">
+        <f t="shared" ref="I32" si="282">IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="94"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="34"/>
+      <c r="AU32" s="34"/>
+      <c r="AV32" s="34"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="34"/>
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="34"/>
+      <c r="BC32" s="34"/>
+      <c r="BD32" s="34"/>
+      <c r="BE32" s="34"/>
+      <c r="BF32" s="34"/>
+      <c r="BG32" s="34"/>
+      <c r="BH32" s="34"/>
+      <c r="BI32" s="34"/>
+      <c r="BJ32" s="34"/>
+      <c r="BK32" s="34"/>
+      <c r="BL32" s="34"/>
+      <c r="BM32" s="34"/>
+      <c r="BN32" s="34"/>
+      <c r="BO32" s="34"/>
+      <c r="BP32" s="34"/>
+      <c r="BQ32" s="34"/>
+      <c r="BR32" s="34"/>
+      <c r="BS32" s="34"/>
+      <c r="BT32" s="34"/>
+      <c r="BU32" s="34"/>
+      <c r="BV32" s="34"/>
+      <c r="BW32" s="34"/>
+      <c r="BX32" s="34"/>
+      <c r="BY32" s="34"/>
+      <c r="BZ32" s="34"/>
+      <c r="CA32" s="34"/>
+      <c r="CB32" s="34"/>
+      <c r="CC32" s="34"/>
+      <c r="CD32" s="34"/>
+      <c r="CE32" s="34"/>
+      <c r="CF32" s="34"/>
+      <c r="CG32" s="34"/>
+      <c r="CH32" s="34"/>
+      <c r="CI32" s="34"/>
+      <c r="CJ32" s="34"/>
+      <c r="CK32" s="34"/>
+      <c r="CL32" s="34"/>
+      <c r="CM32" s="34"/>
+      <c r="CN32" s="34"/>
+      <c r="CO32" s="34"/>
+      <c r="CP32" s="34"/>
+      <c r="CQ32" s="34"/>
+      <c r="CR32" s="34"/>
+      <c r="CS32" s="34"/>
+      <c r="CT32" s="34"/>
+      <c r="CU32" s="34"/>
+      <c r="CV32" s="34"/>
+      <c r="CW32" s="34"/>
+      <c r="CX32" s="34"/>
+      <c r="CY32" s="34"/>
+      <c r="CZ32" s="34"/>
+      <c r="DA32" s="34"/>
+      <c r="DB32" s="34"/>
+      <c r="DC32" s="34"/>
+      <c r="DD32" s="34"/>
+      <c r="DE32" s="34"/>
+      <c r="DF32" s="34"/>
+      <c r="DG32" s="34"/>
+      <c r="DH32" s="34"/>
+      <c r="DI32" s="34"/>
+      <c r="DJ32" s="34"/>
+      <c r="DK32" s="34"/>
+      <c r="DL32" s="34"/>
+      <c r="DM32" s="34"/>
+      <c r="DN32" s="34"/>
+      <c r="DO32" s="34"/>
+      <c r="DP32" s="34"/>
+      <c r="DQ32" s="34"/>
+      <c r="DR32" s="34"/>
+      <c r="DS32" s="34"/>
+      <c r="DT32" s="34"/>
+      <c r="DU32" s="34"/>
+      <c r="DV32" s="34"/>
+      <c r="DW32" s="34"/>
+      <c r="DX32" s="34"/>
+      <c r="DY32" s="34"/>
+      <c r="DZ32" s="34"/>
+      <c r="EA32" s="34"/>
+      <c r="EB32" s="34"/>
+      <c r="EC32" s="34"/>
+      <c r="ED32" s="34"/>
+      <c r="EE32" s="34"/>
+      <c r="EF32" s="34"/>
+      <c r="EG32" s="34"/>
+      <c r="EH32" s="34"/>
+      <c r="EI32" s="34"/>
+      <c r="EJ32" s="34"/>
+      <c r="EK32" s="34"/>
+      <c r="EL32" s="34"/>
+      <c r="EM32" s="34"/>
+      <c r="EN32" s="34"/>
+      <c r="EO32" s="34"/>
+      <c r="EP32" s="34"/>
+      <c r="EQ32" s="34"/>
+      <c r="ER32" s="34"/>
+      <c r="ES32" s="34"/>
+      <c r="ET32" s="34"/>
+      <c r="EU32" s="34"/>
+      <c r="EV32" s="34"/>
+      <c r="EW32" s="34"/>
+      <c r="EX32" s="34"/>
+      <c r="EY32" s="34"/>
+      <c r="EZ32" s="34"/>
+      <c r="FA32" s="34"/>
+      <c r="FB32" s="34"/>
+      <c r="FC32" s="34"/>
+      <c r="FD32" s="34"/>
+      <c r="FE32" s="34"/>
+      <c r="FF32" s="34"/>
+      <c r="FG32" s="34"/>
+      <c r="FH32" s="34"/>
+      <c r="FI32" s="34"/>
+      <c r="FJ32" s="34"/>
+      <c r="FK32" s="34"/>
+      <c r="FL32" s="34"/>
+      <c r="FM32" s="34"/>
+      <c r="FN32" s="34"/>
+      <c r="FO32" s="34"/>
+      <c r="FP32" s="34"/>
+      <c r="FQ32" s="34"/>
+      <c r="FR32" s="34"/>
+      <c r="FS32" s="34"/>
+      <c r="FT32" s="34"/>
+      <c r="FU32" s="34"/>
+      <c r="FV32" s="34"/>
+      <c r="FW32" s="34"/>
+      <c r="FX32" s="34"/>
+      <c r="FY32" s="34"/>
+      <c r="FZ32" s="34"/>
+      <c r="GA32" s="34"/>
+      <c r="GB32" s="34"/>
+      <c r="GC32" s="34"/>
+      <c r="GD32" s="34"/>
+      <c r="GE32" s="34"/>
+      <c r="GF32" s="34"/>
+      <c r="GG32" s="34"/>
+      <c r="GH32" s="34"/>
+      <c r="GI32" s="34"/>
+      <c r="GJ32" s="34"/>
+      <c r="GK32" s="34"/>
+      <c r="GL32" s="34"/>
+      <c r="GM32" s="34"/>
+      <c r="GN32" s="34"/>
+      <c r="GO32" s="34"/>
+      <c r="GP32" s="34"/>
+      <c r="GQ32" s="34"/>
+      <c r="GR32" s="34"/>
+      <c r="GS32" s="34"/>
+      <c r="GT32" s="34"/>
+      <c r="GU32" s="34"/>
+      <c r="GV32" s="34"/>
+      <c r="GW32" s="34"/>
+      <c r="GX32" s="34"/>
+      <c r="GY32" s="34"/>
+      <c r="GZ32" s="34"/>
+      <c r="HA32" s="34"/>
+      <c r="HB32" s="34"/>
+      <c r="HC32" s="34"/>
+      <c r="HD32" s="34"/>
+      <c r="HE32" s="34"/>
+      <c r="HF32" s="34"/>
+      <c r="HG32" s="34"/>
+      <c r="HH32" s="34"/>
+      <c r="HI32" s="34"/>
+      <c r="HJ32" s="34"/>
+      <c r="HK32" s="34"/>
+      <c r="HL32" s="34"/>
+      <c r="HM32" s="34"/>
+      <c r="HN32" s="34"/>
+      <c r="HO32" s="34"/>
+      <c r="HP32" s="34"/>
+      <c r="HQ32" s="34"/>
+      <c r="HR32" s="34"/>
+      <c r="HS32" s="34"/>
+      <c r="HT32" s="34"/>
+      <c r="HU32" s="34"/>
+      <c r="HV32" s="34"/>
+      <c r="HW32" s="34"/>
+      <c r="HX32" s="34"/>
+      <c r="HY32" s="34"/>
+      <c r="HZ32" s="34"/>
+      <c r="IA32" s="34"/>
+      <c r="IB32" s="34"/>
+      <c r="IC32" s="34"/>
+      <c r="ID32" s="34"/>
+      <c r="IE32" s="34"/>
+      <c r="IF32" s="34"/>
+      <c r="IG32" s="34"/>
+      <c r="IH32" s="34"/>
+      <c r="II32" s="34"/>
+      <c r="IJ32" s="34"/>
+      <c r="IK32" s="34"/>
+      <c r="IL32" s="34"/>
+      <c r="IM32" s="34"/>
+      <c r="IN32" s="34"/>
+      <c r="IO32" s="34"/>
+      <c r="IP32" s="34"/>
+      <c r="IQ32" s="34"/>
+      <c r="IR32" s="34"/>
+      <c r="IS32" s="34"/>
+      <c r="IT32" s="34"/>
+      <c r="IU32" s="34"/>
+    </row>
+    <row r="33" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>4.1.3</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="150">
+        <v>1</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="87">
+        <f>F30</f>
+        <v>45534</v>
+      </c>
+      <c r="F33" s="84">
+        <f>IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <v>45534</v>
+      </c>
+      <c r="G33" s="45">
+        <v>1</v>
+      </c>
+      <c r="H33" s="46">
+        <v>1</v>
+      </c>
+      <c r="I33" s="102">
+        <f t="shared" ref="I33" si="283">IF(OR(F33=0,E33=0),0,NETWORKDAYS(E33,F33))</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="94"/>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
@@ -13877,277 +14175,19 @@
       <c r="IT33" s="34"/>
       <c r="IU33" s="34"/>
     </row>
-    <row r="34" spans="1:255" s="39" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="153"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-      <c r="AK34" s="34"/>
-      <c r="AL34" s="34"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
-      <c r="AZ34" s="34"/>
-      <c r="BA34" s="34"/>
-      <c r="BB34" s="34"/>
-      <c r="BC34" s="34"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="34"/>
-      <c r="BF34" s="34"/>
-      <c r="BG34" s="34"/>
-      <c r="BH34" s="34"/>
-      <c r="BI34" s="34"/>
-      <c r="BJ34" s="34"/>
-      <c r="BK34" s="34"/>
-      <c r="BL34" s="34"/>
-      <c r="BM34" s="34"/>
-      <c r="BN34" s="34"/>
-      <c r="BO34" s="34"/>
-      <c r="BP34" s="34"/>
-      <c r="BQ34" s="34"/>
-      <c r="BR34" s="34"/>
-      <c r="BS34" s="34"/>
-      <c r="BT34" s="34"/>
-      <c r="BU34" s="34"/>
-      <c r="BV34" s="34"/>
-      <c r="BW34" s="34"/>
-      <c r="BX34" s="34"/>
-      <c r="BY34" s="34"/>
-      <c r="BZ34" s="34"/>
-      <c r="CA34" s="34"/>
-      <c r="CB34" s="34"/>
-      <c r="CC34" s="34"/>
-      <c r="CD34" s="34"/>
-      <c r="CE34" s="34"/>
-      <c r="CF34" s="34"/>
-      <c r="CG34" s="34"/>
-      <c r="CH34" s="34"/>
-      <c r="CI34" s="34"/>
-      <c r="CJ34" s="34"/>
-      <c r="CK34" s="34"/>
-      <c r="CL34" s="34"/>
-      <c r="CM34" s="34"/>
-      <c r="CN34" s="34"/>
-      <c r="CO34" s="34"/>
-      <c r="CP34" s="34"/>
-      <c r="CQ34" s="34"/>
-      <c r="CR34" s="34"/>
-      <c r="CS34" s="34"/>
-      <c r="CT34" s="34"/>
-      <c r="CU34" s="34"/>
-      <c r="CV34" s="34"/>
-      <c r="CW34" s="34"/>
-      <c r="CX34" s="34"/>
-      <c r="CY34" s="34"/>
-      <c r="CZ34" s="34"/>
-      <c r="DA34" s="34"/>
-      <c r="DB34" s="34"/>
-      <c r="DC34" s="34"/>
-      <c r="DD34" s="34"/>
-      <c r="DE34" s="34"/>
-      <c r="DF34" s="34"/>
-      <c r="DG34" s="34"/>
-      <c r="DH34" s="34"/>
-      <c r="DI34" s="34"/>
-      <c r="DJ34" s="34"/>
-      <c r="DK34" s="34"/>
-      <c r="DL34" s="34"/>
-      <c r="DM34" s="34"/>
-      <c r="DN34" s="34"/>
-      <c r="DO34" s="34"/>
-      <c r="DP34" s="34"/>
-      <c r="DQ34" s="34"/>
-      <c r="DR34" s="34"/>
-      <c r="DS34" s="34"/>
-      <c r="DT34" s="34"/>
-      <c r="DU34" s="34"/>
-      <c r="DV34" s="34"/>
-      <c r="DW34" s="34"/>
-      <c r="DX34" s="34"/>
-      <c r="DY34" s="34"/>
-      <c r="DZ34" s="34"/>
-      <c r="EA34" s="34"/>
-      <c r="EB34" s="34"/>
-      <c r="EC34" s="34"/>
-      <c r="ED34" s="34"/>
-      <c r="EE34" s="34"/>
-      <c r="EF34" s="34"/>
-      <c r="EG34" s="34"/>
-      <c r="EH34" s="34"/>
-      <c r="EI34" s="34"/>
-      <c r="EJ34" s="34"/>
-      <c r="EK34" s="34"/>
-      <c r="EL34" s="34"/>
-      <c r="EM34" s="34"/>
-      <c r="EN34" s="34"/>
-      <c r="EO34" s="34"/>
-      <c r="EP34" s="34"/>
-      <c r="EQ34" s="34"/>
-      <c r="ER34" s="34"/>
-      <c r="ES34" s="34"/>
-      <c r="ET34" s="34"/>
-      <c r="EU34" s="34"/>
-      <c r="EV34" s="34"/>
-      <c r="EW34" s="34"/>
-      <c r="EX34" s="34"/>
-      <c r="EY34" s="34"/>
-      <c r="EZ34" s="34"/>
-      <c r="FA34" s="34"/>
-      <c r="FB34" s="34"/>
-      <c r="FC34" s="34"/>
-      <c r="FD34" s="34"/>
-      <c r="FE34" s="34"/>
-      <c r="FF34" s="34"/>
-      <c r="FG34" s="34"/>
-      <c r="FH34" s="34"/>
-      <c r="FI34" s="34"/>
-      <c r="FJ34" s="34"/>
-      <c r="FK34" s="34"/>
-      <c r="FL34" s="34"/>
-      <c r="FM34" s="34"/>
-      <c r="FN34" s="34"/>
-      <c r="FO34" s="34"/>
-      <c r="FP34" s="34"/>
-      <c r="FQ34" s="34"/>
-      <c r="FR34" s="34"/>
-      <c r="FS34" s="34"/>
-      <c r="FT34" s="34"/>
-      <c r="FU34" s="34"/>
-      <c r="FV34" s="34"/>
-      <c r="FW34" s="34"/>
-      <c r="FX34" s="34"/>
-      <c r="FY34" s="34"/>
-      <c r="FZ34" s="34"/>
-      <c r="GA34" s="34"/>
-      <c r="GB34" s="34"/>
-      <c r="GC34" s="34"/>
-      <c r="GD34" s="34"/>
-      <c r="GE34" s="34"/>
-      <c r="GF34" s="34"/>
-      <c r="GG34" s="34"/>
-      <c r="GH34" s="34"/>
-      <c r="GI34" s="34"/>
-      <c r="GJ34" s="34"/>
-      <c r="GK34" s="34"/>
-      <c r="GL34" s="34"/>
-      <c r="GM34" s="34"/>
-      <c r="GN34" s="34"/>
-      <c r="GO34" s="34"/>
-      <c r="GP34" s="34"/>
-      <c r="GQ34" s="34"/>
-      <c r="GR34" s="34"/>
-      <c r="GS34" s="34"/>
-      <c r="GT34" s="34"/>
-      <c r="GU34" s="34"/>
-      <c r="GV34" s="34"/>
-      <c r="GW34" s="34"/>
-      <c r="GX34" s="34"/>
-      <c r="GY34" s="34"/>
-      <c r="GZ34" s="34"/>
-      <c r="HA34" s="34"/>
-      <c r="HB34" s="34"/>
-      <c r="HC34" s="34"/>
-      <c r="HD34" s="34"/>
-      <c r="HE34" s="34"/>
-      <c r="HF34" s="34"/>
-      <c r="HG34" s="34"/>
-      <c r="HH34" s="34"/>
-      <c r="HI34" s="34"/>
-      <c r="HJ34" s="34"/>
-      <c r="HK34" s="34"/>
-      <c r="HL34" s="34"/>
-      <c r="HM34" s="34"/>
-      <c r="HN34" s="34"/>
-      <c r="HO34" s="34"/>
-      <c r="HP34" s="34"/>
-      <c r="HQ34" s="34"/>
-      <c r="HR34" s="34"/>
-      <c r="HS34" s="34"/>
-      <c r="HT34" s="34"/>
-      <c r="HU34" s="34"/>
-      <c r="HV34" s="34"/>
-      <c r="HW34" s="34"/>
-      <c r="HX34" s="34"/>
-      <c r="HY34" s="34"/>
-      <c r="HZ34" s="34"/>
-      <c r="IA34" s="34"/>
-      <c r="IB34" s="34"/>
-      <c r="IC34" s="34"/>
-      <c r="ID34" s="34"/>
-      <c r="IE34" s="34"/>
-      <c r="IF34" s="34"/>
-      <c r="IG34" s="34"/>
-      <c r="IH34" s="34"/>
-      <c r="II34" s="34"/>
-      <c r="IJ34" s="34"/>
-      <c r="IK34" s="34"/>
-      <c r="IL34" s="34"/>
-      <c r="IM34" s="34"/>
-      <c r="IN34" s="34"/>
-      <c r="IO34" s="34"/>
-      <c r="IP34" s="34"/>
-      <c r="IQ34" s="34"/>
-      <c r="IR34" s="34"/>
-      <c r="IS34" s="34"/>
-      <c r="IT34" s="34"/>
-      <c r="IU34" s="34"/>
-    </row>
-    <row r="35" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A35" s="92" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="35" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="151"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="95"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
       <c r="K35" s="34"/>
       <c r="L35" s="34"/>
       <c r="M35" s="34"/>
@@ -14169,9 +14209,7 @@
       <c r="AC35" s="34"/>
       <c r="AD35" s="34"/>
       <c r="AE35" s="34"/>
-      <c r="AF35" s="34" t="s">
-        <v>161</v>
-      </c>
+      <c r="AF35" s="34"/>
       <c r="AG35" s="34"/>
       <c r="AH35" s="34"/>
       <c r="AI35" s="34"/>
@@ -14396,30 +14434,15 @@
       <c r="IT35" s="34"/>
       <c r="IU35" s="34"/>
     </row>
-    <row r="36" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A36" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="150"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="84" t="str">
-        <f>IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="46">
-        <v>0</v>
-      </c>
-      <c r="I36" s="102">
-        <f>IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="94"/>
+    <row r="36" spans="1:255" s="39" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="153"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="109"/>
       <c r="K36" s="34"/>
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
@@ -14441,9 +14464,7 @@
       <c r="AC36" s="34"/>
       <c r="AD36" s="34"/>
       <c r="AE36" s="34"/>
-      <c r="AF36" s="34" t="s">
-        <v>160</v>
-      </c>
+      <c r="AF36" s="34"/>
       <c r="AG36" s="34"/>
       <c r="AH36" s="34"/>
       <c r="AI36" s="34"/>
@@ -14668,30 +14689,22 @@
       <c r="IT36" s="34"/>
       <c r="IU36" s="34"/>
     </row>
-    <row r="37" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A37" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="84" t="str">
-        <f t="shared" ref="F37:F38" si="280">IF(ISBLANK(E37)," - ",IF(G37=0,E37,E37+G37-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46">
-        <v>0</v>
-      </c>
-      <c r="I37" s="102">
-        <f t="shared" ref="I37:I38" si="281">IF(OR(F37=0,E37=0),0,NETWORKDAYS(E37,F37))</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="94"/>
+    <row r="37" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="92" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="151"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="95"/>
       <c r="K37" s="34"/>
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
@@ -14713,7 +14726,9 @@
       <c r="AC37" s="34"/>
       <c r="AD37" s="34"/>
       <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
+      <c r="AF37" s="34" t="s">
+        <v>158</v>
+      </c>
       <c r="AG37" s="34"/>
       <c r="AH37" s="34"/>
       <c r="AI37" s="34"/>
@@ -14938,19 +14953,19 @@
       <c r="IT37" s="34"/>
       <c r="IU37" s="34"/>
     </row>
-    <row r="38" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="91" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="150"/>
       <c r="D38" s="33"/>
       <c r="E38" s="87"/>
       <c r="F38" s="84" t="str">
-        <f t="shared" si="280"/>
+        <f>IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G38" s="45"/>
@@ -14958,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="102">
-        <f t="shared" si="281"/>
+        <f>IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
         <v>0</v>
       </c>
       <c r="J38" s="94"/>
@@ -14983,7 +14998,9 @@
       <c r="AC38" s="34"/>
       <c r="AD38" s="34"/>
       <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
+      <c r="AF38" s="34" t="s">
+        <v>157</v>
+      </c>
       <c r="AG38" s="34"/>
       <c r="AH38" s="34"/>
       <c r="AI38" s="34"/>
@@ -15208,61 +15225,572 @@
       <c r="IT38" s="34"/>
       <c r="IU38" s="34"/>
     </row>
-    <row r="39" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="142" t="str">
+    <row r="39" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="150"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="84" t="str">
+        <f t="shared" ref="F39:F40" si="284">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46">
+        <v>0</v>
+      </c>
+      <c r="I39" s="102">
+        <f t="shared" ref="I39:I40" si="285">IF(OR(F39=0,E39=0),0,NETWORKDAYS(E39,F39))</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="94"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="34"/>
+      <c r="AE39" s="34"/>
+      <c r="AF39" s="34"/>
+      <c r="AG39" s="34"/>
+      <c r="AH39" s="34"/>
+      <c r="AI39" s="34"/>
+      <c r="AJ39" s="34"/>
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="34"/>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="34"/>
+      <c r="AP39" s="34"/>
+      <c r="AQ39" s="34"/>
+      <c r="AR39" s="34"/>
+      <c r="AS39" s="34"/>
+      <c r="AT39" s="34"/>
+      <c r="AU39" s="34"/>
+      <c r="AV39" s="34"/>
+      <c r="AW39" s="34"/>
+      <c r="AX39" s="34"/>
+      <c r="AY39" s="34"/>
+      <c r="AZ39" s="34"/>
+      <c r="BA39" s="34"/>
+      <c r="BB39" s="34"/>
+      <c r="BC39" s="34"/>
+      <c r="BD39" s="34"/>
+      <c r="BE39" s="34"/>
+      <c r="BF39" s="34"/>
+      <c r="BG39" s="34"/>
+      <c r="BH39" s="34"/>
+      <c r="BI39" s="34"/>
+      <c r="BJ39" s="34"/>
+      <c r="BK39" s="34"/>
+      <c r="BL39" s="34"/>
+      <c r="BM39" s="34"/>
+      <c r="BN39" s="34"/>
+      <c r="BO39" s="34"/>
+      <c r="BP39" s="34"/>
+      <c r="BQ39" s="34"/>
+      <c r="BR39" s="34"/>
+      <c r="BS39" s="34"/>
+      <c r="BT39" s="34"/>
+      <c r="BU39" s="34"/>
+      <c r="BV39" s="34"/>
+      <c r="BW39" s="34"/>
+      <c r="BX39" s="34"/>
+      <c r="BY39" s="34"/>
+      <c r="BZ39" s="34"/>
+      <c r="CA39" s="34"/>
+      <c r="CB39" s="34"/>
+      <c r="CC39" s="34"/>
+      <c r="CD39" s="34"/>
+      <c r="CE39" s="34"/>
+      <c r="CF39" s="34"/>
+      <c r="CG39" s="34"/>
+      <c r="CH39" s="34"/>
+      <c r="CI39" s="34"/>
+      <c r="CJ39" s="34"/>
+      <c r="CK39" s="34"/>
+      <c r="CL39" s="34"/>
+      <c r="CM39" s="34"/>
+      <c r="CN39" s="34"/>
+      <c r="CO39" s="34"/>
+      <c r="CP39" s="34"/>
+      <c r="CQ39" s="34"/>
+      <c r="CR39" s="34"/>
+      <c r="CS39" s="34"/>
+      <c r="CT39" s="34"/>
+      <c r="CU39" s="34"/>
+      <c r="CV39" s="34"/>
+      <c r="CW39" s="34"/>
+      <c r="CX39" s="34"/>
+      <c r="CY39" s="34"/>
+      <c r="CZ39" s="34"/>
+      <c r="DA39" s="34"/>
+      <c r="DB39" s="34"/>
+      <c r="DC39" s="34"/>
+      <c r="DD39" s="34"/>
+      <c r="DE39" s="34"/>
+      <c r="DF39" s="34"/>
+      <c r="DG39" s="34"/>
+      <c r="DH39" s="34"/>
+      <c r="DI39" s="34"/>
+      <c r="DJ39" s="34"/>
+      <c r="DK39" s="34"/>
+      <c r="DL39" s="34"/>
+      <c r="DM39" s="34"/>
+      <c r="DN39" s="34"/>
+      <c r="DO39" s="34"/>
+      <c r="DP39" s="34"/>
+      <c r="DQ39" s="34"/>
+      <c r="DR39" s="34"/>
+      <c r="DS39" s="34"/>
+      <c r="DT39" s="34"/>
+      <c r="DU39" s="34"/>
+      <c r="DV39" s="34"/>
+      <c r="DW39" s="34"/>
+      <c r="DX39" s="34"/>
+      <c r="DY39" s="34"/>
+      <c r="DZ39" s="34"/>
+      <c r="EA39" s="34"/>
+      <c r="EB39" s="34"/>
+      <c r="EC39" s="34"/>
+      <c r="ED39" s="34"/>
+      <c r="EE39" s="34"/>
+      <c r="EF39" s="34"/>
+      <c r="EG39" s="34"/>
+      <c r="EH39" s="34"/>
+      <c r="EI39" s="34"/>
+      <c r="EJ39" s="34"/>
+      <c r="EK39" s="34"/>
+      <c r="EL39" s="34"/>
+      <c r="EM39" s="34"/>
+      <c r="EN39" s="34"/>
+      <c r="EO39" s="34"/>
+      <c r="EP39" s="34"/>
+      <c r="EQ39" s="34"/>
+      <c r="ER39" s="34"/>
+      <c r="ES39" s="34"/>
+      <c r="ET39" s="34"/>
+      <c r="EU39" s="34"/>
+      <c r="EV39" s="34"/>
+      <c r="EW39" s="34"/>
+      <c r="EX39" s="34"/>
+      <c r="EY39" s="34"/>
+      <c r="EZ39" s="34"/>
+      <c r="FA39" s="34"/>
+      <c r="FB39" s="34"/>
+      <c r="FC39" s="34"/>
+      <c r="FD39" s="34"/>
+      <c r="FE39" s="34"/>
+      <c r="FF39" s="34"/>
+      <c r="FG39" s="34"/>
+      <c r="FH39" s="34"/>
+      <c r="FI39" s="34"/>
+      <c r="FJ39" s="34"/>
+      <c r="FK39" s="34"/>
+      <c r="FL39" s="34"/>
+      <c r="FM39" s="34"/>
+      <c r="FN39" s="34"/>
+      <c r="FO39" s="34"/>
+      <c r="FP39" s="34"/>
+      <c r="FQ39" s="34"/>
+      <c r="FR39" s="34"/>
+      <c r="FS39" s="34"/>
+      <c r="FT39" s="34"/>
+      <c r="FU39" s="34"/>
+      <c r="FV39" s="34"/>
+      <c r="FW39" s="34"/>
+      <c r="FX39" s="34"/>
+      <c r="FY39" s="34"/>
+      <c r="FZ39" s="34"/>
+      <c r="GA39" s="34"/>
+      <c r="GB39" s="34"/>
+      <c r="GC39" s="34"/>
+      <c r="GD39" s="34"/>
+      <c r="GE39" s="34"/>
+      <c r="GF39" s="34"/>
+      <c r="GG39" s="34"/>
+      <c r="GH39" s="34"/>
+      <c r="GI39" s="34"/>
+      <c r="GJ39" s="34"/>
+      <c r="GK39" s="34"/>
+      <c r="GL39" s="34"/>
+      <c r="GM39" s="34"/>
+      <c r="GN39" s="34"/>
+      <c r="GO39" s="34"/>
+      <c r="GP39" s="34"/>
+      <c r="GQ39" s="34"/>
+      <c r="GR39" s="34"/>
+      <c r="GS39" s="34"/>
+      <c r="GT39" s="34"/>
+      <c r="GU39" s="34"/>
+      <c r="GV39" s="34"/>
+      <c r="GW39" s="34"/>
+      <c r="GX39" s="34"/>
+      <c r="GY39" s="34"/>
+      <c r="GZ39" s="34"/>
+      <c r="HA39" s="34"/>
+      <c r="HB39" s="34"/>
+      <c r="HC39" s="34"/>
+      <c r="HD39" s="34"/>
+      <c r="HE39" s="34"/>
+      <c r="HF39" s="34"/>
+      <c r="HG39" s="34"/>
+      <c r="HH39" s="34"/>
+      <c r="HI39" s="34"/>
+      <c r="HJ39" s="34"/>
+      <c r="HK39" s="34"/>
+      <c r="HL39" s="34"/>
+      <c r="HM39" s="34"/>
+      <c r="HN39" s="34"/>
+      <c r="HO39" s="34"/>
+      <c r="HP39" s="34"/>
+      <c r="HQ39" s="34"/>
+      <c r="HR39" s="34"/>
+      <c r="HS39" s="34"/>
+      <c r="HT39" s="34"/>
+      <c r="HU39" s="34"/>
+      <c r="HV39" s="34"/>
+      <c r="HW39" s="34"/>
+      <c r="HX39" s="34"/>
+      <c r="HY39" s="34"/>
+      <c r="HZ39" s="34"/>
+      <c r="IA39" s="34"/>
+      <c r="IB39" s="34"/>
+      <c r="IC39" s="34"/>
+      <c r="ID39" s="34"/>
+      <c r="IE39" s="34"/>
+      <c r="IF39" s="34"/>
+      <c r="IG39" s="34"/>
+      <c r="IH39" s="34"/>
+      <c r="II39" s="34"/>
+      <c r="IJ39" s="34"/>
+      <c r="IK39" s="34"/>
+      <c r="IL39" s="34"/>
+      <c r="IM39" s="34"/>
+      <c r="IN39" s="34"/>
+      <c r="IO39" s="34"/>
+      <c r="IP39" s="34"/>
+      <c r="IQ39" s="34"/>
+      <c r="IR39" s="34"/>
+      <c r="IS39" s="34"/>
+      <c r="IT39" s="34"/>
+      <c r="IU39" s="34"/>
+    </row>
+    <row r="40" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="91" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="150"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="84" t="str">
+        <f t="shared" si="284"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="46">
+        <v>0</v>
+      </c>
+      <c r="I40" s="102">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="94"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="34"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
+      <c r="AD40" s="34"/>
+      <c r="AE40" s="34"/>
+      <c r="AF40" s="34"/>
+      <c r="AG40" s="34"/>
+      <c r="AH40" s="34"/>
+      <c r="AI40" s="34"/>
+      <c r="AJ40" s="34"/>
+      <c r="AK40" s="34"/>
+      <c r="AL40" s="34"/>
+      <c r="AM40" s="34"/>
+      <c r="AN40" s="34"/>
+      <c r="AO40" s="34"/>
+      <c r="AP40" s="34"/>
+      <c r="AQ40" s="34"/>
+      <c r="AR40" s="34"/>
+      <c r="AS40" s="34"/>
+      <c r="AT40" s="34"/>
+      <c r="AU40" s="34"/>
+      <c r="AV40" s="34"/>
+      <c r="AW40" s="34"/>
+      <c r="AX40" s="34"/>
+      <c r="AY40" s="34"/>
+      <c r="AZ40" s="34"/>
+      <c r="BA40" s="34"/>
+      <c r="BB40" s="34"/>
+      <c r="BC40" s="34"/>
+      <c r="BD40" s="34"/>
+      <c r="BE40" s="34"/>
+      <c r="BF40" s="34"/>
+      <c r="BG40" s="34"/>
+      <c r="BH40" s="34"/>
+      <c r="BI40" s="34"/>
+      <c r="BJ40" s="34"/>
+      <c r="BK40" s="34"/>
+      <c r="BL40" s="34"/>
+      <c r="BM40" s="34"/>
+      <c r="BN40" s="34"/>
+      <c r="BO40" s="34"/>
+      <c r="BP40" s="34"/>
+      <c r="BQ40" s="34"/>
+      <c r="BR40" s="34"/>
+      <c r="BS40" s="34"/>
+      <c r="BT40" s="34"/>
+      <c r="BU40" s="34"/>
+      <c r="BV40" s="34"/>
+      <c r="BW40" s="34"/>
+      <c r="BX40" s="34"/>
+      <c r="BY40" s="34"/>
+      <c r="BZ40" s="34"/>
+      <c r="CA40" s="34"/>
+      <c r="CB40" s="34"/>
+      <c r="CC40" s="34"/>
+      <c r="CD40" s="34"/>
+      <c r="CE40" s="34"/>
+      <c r="CF40" s="34"/>
+      <c r="CG40" s="34"/>
+      <c r="CH40" s="34"/>
+      <c r="CI40" s="34"/>
+      <c r="CJ40" s="34"/>
+      <c r="CK40" s="34"/>
+      <c r="CL40" s="34"/>
+      <c r="CM40" s="34"/>
+      <c r="CN40" s="34"/>
+      <c r="CO40" s="34"/>
+      <c r="CP40" s="34"/>
+      <c r="CQ40" s="34"/>
+      <c r="CR40" s="34"/>
+      <c r="CS40" s="34"/>
+      <c r="CT40" s="34"/>
+      <c r="CU40" s="34"/>
+      <c r="CV40" s="34"/>
+      <c r="CW40" s="34"/>
+      <c r="CX40" s="34"/>
+      <c r="CY40" s="34"/>
+      <c r="CZ40" s="34"/>
+      <c r="DA40" s="34"/>
+      <c r="DB40" s="34"/>
+      <c r="DC40" s="34"/>
+      <c r="DD40" s="34"/>
+      <c r="DE40" s="34"/>
+      <c r="DF40" s="34"/>
+      <c r="DG40" s="34"/>
+      <c r="DH40" s="34"/>
+      <c r="DI40" s="34"/>
+      <c r="DJ40" s="34"/>
+      <c r="DK40" s="34"/>
+      <c r="DL40" s="34"/>
+      <c r="DM40" s="34"/>
+      <c r="DN40" s="34"/>
+      <c r="DO40" s="34"/>
+      <c r="DP40" s="34"/>
+      <c r="DQ40" s="34"/>
+      <c r="DR40" s="34"/>
+      <c r="DS40" s="34"/>
+      <c r="DT40" s="34"/>
+      <c r="DU40" s="34"/>
+      <c r="DV40" s="34"/>
+      <c r="DW40" s="34"/>
+      <c r="DX40" s="34"/>
+      <c r="DY40" s="34"/>
+      <c r="DZ40" s="34"/>
+      <c r="EA40" s="34"/>
+      <c r="EB40" s="34"/>
+      <c r="EC40" s="34"/>
+      <c r="ED40" s="34"/>
+      <c r="EE40" s="34"/>
+      <c r="EF40" s="34"/>
+      <c r="EG40" s="34"/>
+      <c r="EH40" s="34"/>
+      <c r="EI40" s="34"/>
+      <c r="EJ40" s="34"/>
+      <c r="EK40" s="34"/>
+      <c r="EL40" s="34"/>
+      <c r="EM40" s="34"/>
+      <c r="EN40" s="34"/>
+      <c r="EO40" s="34"/>
+      <c r="EP40" s="34"/>
+      <c r="EQ40" s="34"/>
+      <c r="ER40" s="34"/>
+      <c r="ES40" s="34"/>
+      <c r="ET40" s="34"/>
+      <c r="EU40" s="34"/>
+      <c r="EV40" s="34"/>
+      <c r="EW40" s="34"/>
+      <c r="EX40" s="34"/>
+      <c r="EY40" s="34"/>
+      <c r="EZ40" s="34"/>
+      <c r="FA40" s="34"/>
+      <c r="FB40" s="34"/>
+      <c r="FC40" s="34"/>
+      <c r="FD40" s="34"/>
+      <c r="FE40" s="34"/>
+      <c r="FF40" s="34"/>
+      <c r="FG40" s="34"/>
+      <c r="FH40" s="34"/>
+      <c r="FI40" s="34"/>
+      <c r="FJ40" s="34"/>
+      <c r="FK40" s="34"/>
+      <c r="FL40" s="34"/>
+      <c r="FM40" s="34"/>
+      <c r="FN40" s="34"/>
+      <c r="FO40" s="34"/>
+      <c r="FP40" s="34"/>
+      <c r="FQ40" s="34"/>
+      <c r="FR40" s="34"/>
+      <c r="FS40" s="34"/>
+      <c r="FT40" s="34"/>
+      <c r="FU40" s="34"/>
+      <c r="FV40" s="34"/>
+      <c r="FW40" s="34"/>
+      <c r="FX40" s="34"/>
+      <c r="FY40" s="34"/>
+      <c r="FZ40" s="34"/>
+      <c r="GA40" s="34"/>
+      <c r="GB40" s="34"/>
+      <c r="GC40" s="34"/>
+      <c r="GD40" s="34"/>
+      <c r="GE40" s="34"/>
+      <c r="GF40" s="34"/>
+      <c r="GG40" s="34"/>
+      <c r="GH40" s="34"/>
+      <c r="GI40" s="34"/>
+      <c r="GJ40" s="34"/>
+      <c r="GK40" s="34"/>
+      <c r="GL40" s="34"/>
+      <c r="GM40" s="34"/>
+      <c r="GN40" s="34"/>
+      <c r="GO40" s="34"/>
+      <c r="GP40" s="34"/>
+      <c r="GQ40" s="34"/>
+      <c r="GR40" s="34"/>
+      <c r="GS40" s="34"/>
+      <c r="GT40" s="34"/>
+      <c r="GU40" s="34"/>
+      <c r="GV40" s="34"/>
+      <c r="GW40" s="34"/>
+      <c r="GX40" s="34"/>
+      <c r="GY40" s="34"/>
+      <c r="GZ40" s="34"/>
+      <c r="HA40" s="34"/>
+      <c r="HB40" s="34"/>
+      <c r="HC40" s="34"/>
+      <c r="HD40" s="34"/>
+      <c r="HE40" s="34"/>
+      <c r="HF40" s="34"/>
+      <c r="HG40" s="34"/>
+      <c r="HH40" s="34"/>
+      <c r="HI40" s="34"/>
+      <c r="HJ40" s="34"/>
+      <c r="HK40" s="34"/>
+      <c r="HL40" s="34"/>
+      <c r="HM40" s="34"/>
+      <c r="HN40" s="34"/>
+      <c r="HO40" s="34"/>
+      <c r="HP40" s="34"/>
+      <c r="HQ40" s="34"/>
+      <c r="HR40" s="34"/>
+      <c r="HS40" s="34"/>
+      <c r="HT40" s="34"/>
+      <c r="HU40" s="34"/>
+      <c r="HV40" s="34"/>
+      <c r="HW40" s="34"/>
+      <c r="HX40" s="34"/>
+      <c r="HY40" s="34"/>
+      <c r="HZ40" s="34"/>
+      <c r="IA40" s="34"/>
+      <c r="IB40" s="34"/>
+      <c r="IC40" s="34"/>
+      <c r="ID40" s="34"/>
+      <c r="IE40" s="34"/>
+      <c r="IF40" s="34"/>
+      <c r="IG40" s="34"/>
+      <c r="IH40" s="34"/>
+      <c r="II40" s="34"/>
+      <c r="IJ40" s="34"/>
+      <c r="IK40" s="34"/>
+      <c r="IL40" s="34"/>
+      <c r="IM40" s="34"/>
+      <c r="IN40" s="34"/>
+      <c r="IO40" s="34"/>
+      <c r="IP40" s="34"/>
+      <c r="IQ40" s="34"/>
+      <c r="IR40" s="34"/>
+      <c r="IS40" s="34"/>
+      <c r="IT40" s="34"/>
+      <c r="IU40" s="34"/>
+    </row>
+    <row r="41" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="142" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="C39" s="154"/>
-    </row>
-    <row r="40" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C41" s="154"/>
+    </row>
+    <row r="42" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15279,23 +15807,52 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H34:H38 H8:H31">
+  <conditionalFormatting sqref="H36:H40 H8:H33">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15314,7 +15871,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:IU38 K8:IU31">
+  <conditionalFormatting sqref="K35:IU40 K8:IU33">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6,NOT(ISBLANK($C8)))</formula>
     </cfRule>
@@ -15325,7 +15882,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:IU38 K6:IU31">
+  <conditionalFormatting sqref="K35:IU40 K6:IU33">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -15337,8 +15894,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="I9 B34 B33 F19 F23 F27 E33:I34 E37:E38 E35:I35 H28:I28 H24:I24 H19:I19 H23:I23 H27:I27" unlockedFormula="1"/>
-    <ignoredError sqref="A27 A23 A19" formula="1"/>
+    <ignoredError sqref="I9 B36 B35 F21 F25 F29 E35:I36 E39:E40 E37:I37 H30:I30 H26:I26 H21:I21 H25:I25 H29:I29" unlockedFormula="1"/>
+    <ignoredError sqref="A29 A25 A21" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -15352,13 +15909,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>5443</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>97971</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -15386,7 +15943,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H34:H38 H8:H31</xm:sqref>
+          <xm:sqref>H36:H40 H8:H33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15403,233 +15960,233 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.53515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.4609375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.84375" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="119" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="B5" s="121" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="122" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="179" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="179"/>
     </row>
-    <row r="15" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="123"/>
       <c r="B15" s="124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
     </row>
-    <row r="16" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="123"/>
       <c r="B16" s="124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
     </row>
-    <row r="17" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="126"/>
       <c r="B17" s="124" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="126"/>
       <c r="B18" s="124" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="126"/>
       <c r="B19" s="124" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="126"/>
       <c r="B20" s="124" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="126"/>
       <c r="B21" s="127" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="126"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="179" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="179"/>
     </row>
-    <row r="24" spans="1:2" ht="42.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A24" s="126"/>
       <c r="B24" s="124" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="126"/>
       <c r="B25" s="124"/>
     </row>
-    <row r="26" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="126"/>
       <c r="B26" s="128" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="126"/>
       <c r="B27" s="124" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="126"/>
       <c r="B28" s="124" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="126"/>
       <c r="B29" s="124"/>
     </row>
-    <row r="30" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="128" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="126"/>
       <c r="B31" s="124" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="126"/>
       <c r="B32" s="124" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="126"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="126"/>
       <c r="B34" s="124" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="126"/>
       <c r="B35" s="129" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="126"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="179" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="179"/>
     </row>
-    <row r="38" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="124" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B40" s="124" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.15" x14ac:dyDescent="0.3">
-      <c r="B40" s="124" t="s">
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="124" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="B42" s="124" t="s">
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="124" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="B44" s="124" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="124" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
-      <c r="B46" s="124" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="179" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="179"/>
     </row>
-    <row r="49" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B49" s="124" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="130" t="s">
         <v>8</v>
       </c>
@@ -15637,7 +16194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="130" t="s">
         <v>10</v>
       </c>
@@ -15645,7 +16202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="130" t="s">
         <v>12</v>
       </c>
@@ -15653,19 +16210,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="122"/>
       <c r="B54" s="124" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="122"/>
       <c r="B55" s="124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="130" t="s">
         <v>14</v>
       </c>
@@ -15673,19 +16230,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="122"/>
       <c r="B57" s="124" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="122"/>
       <c r="B58" s="124" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="130" t="s">
         <v>16</v>
       </c>
@@ -15693,193 +16250,193 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="122"/>
       <c r="B60" s="124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="130" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
-      <c r="A61" s="130" t="s">
+      <c r="B61" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="124" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="131"/>
       <c r="B62" s="124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="179" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="179"/>
     </row>
-    <row r="65" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B65" s="124" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="179" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="179"/>
     </row>
-    <row r="68" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="131"/>
       <c r="B69" s="134" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="131"/>
       <c r="B70" s="135"/>
     </row>
-    <row r="71" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="131"/>
       <c r="B72" s="134" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="131"/>
       <c r="B73" s="135"/>
     </row>
-    <row r="74" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="136" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="131"/>
       <c r="B75" s="121" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="131"/>
       <c r="B76" s="131"/>
     </row>
-    <row r="77" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B77" s="136" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="131"/>
       <c r="B78" s="121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="131"/>
       <c r="B79" s="131"/>
     </row>
-    <row r="80" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="136" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="131"/>
       <c r="B81" s="137" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="131"/>
       <c r="B82" s="137" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="131"/>
       <c r="B83" s="137" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="131"/>
       <c r="B84" s="138"/>
     </row>
-    <row r="85" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="136" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="131"/>
       <c r="B86" s="121" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="131"/>
       <c r="B87" s="139" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="131"/>
       <c r="B88" s="140" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="131"/>
       <c r="B89" s="131"/>
     </row>
-    <row r="90" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="132" t="s">
         <v>4</v>
       </c>
       <c r="B90" s="136" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="122"/>
       <c r="B91" s="137" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>51</v>
       </c>
@@ -15917,172 +16474,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.53515625" customWidth="1"/>
-    <col min="2" max="2" width="37.69140625" customWidth="1"/>
-    <col min="3" max="3" width="55.07421875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
@@ -16107,172 +16664,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.53515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.07421875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="45.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="30.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3DE479-D431-459E-8B98-65E61DAFEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF6B05-F0CB-473F-B44A-FD462D2819C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -3263,6 +3263,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3275,28 +3284,7 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3333,6 +3321,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3586,13 +3586,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>10886</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>97971</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4175,74 +4175,74 @@
   </sheetPr>
   <dimension ref="A1:IU43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomLeft" activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="155" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.84375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="45.84375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" style="155" customWidth="1"/>
+    <col min="4" max="4" width="6.84375" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
     <col min="7" max="7" width="6" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="25" customWidth="1"/>
-    <col min="67" max="68" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.69140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.53515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="0.53515625" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.3828125" style="25" customWidth="1"/>
+    <col min="67" max="68" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="25"/>
+    <col min="229" max="229" width="1.53515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.15234375" style="25" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.3828125" style="25" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.15234375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:255" s="43" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="118" t="s">
         <v>138</v>
       </c>
@@ -4255,23 +4255,23 @@
       <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-    </row>
-    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+    </row>
+    <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
         <v>139</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="E2" s="56"/>
       <c r="F2" s="58"/>
     </row>
-    <row r="3" spans="1:255" s="100" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="100" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="97"/>
       <c r="C3" s="145"/>
@@ -4345,735 +4345,735 @@
       <c r="BM3" s="116"/>
       <c r="BN3" s="117"/>
     </row>
-    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="110" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="167">
         <v>45295</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
       <c r="H4" s="113" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="156" t="str">
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="159" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="156" t="str">
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="159" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="156" t="str">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="159" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="157"/>
-      <c r="AH4" s="157"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="156" t="str">
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160"/>
+      <c r="AJ4" s="160"/>
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="159" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="157"/>
-      <c r="AP4" s="157"/>
-      <c r="AQ4" s="157"/>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="156" t="str">
+      <c r="AN4" s="160"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="159" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="157"/>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="156" t="str">
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160"/>
+      <c r="AZ4" s="161"/>
+      <c r="BA4" s="159" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="157"/>
-      <c r="BC4" s="157"/>
-      <c r="BD4" s="157"/>
-      <c r="BE4" s="157"/>
-      <c r="BF4" s="157"/>
-      <c r="BG4" s="158"/>
-      <c r="BH4" s="156" t="str">
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="161"/>
+      <c r="BH4" s="159" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="157"/>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="158"/>
-      <c r="BO4" s="156" t="str">
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="160"/>
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="160"/>
+      <c r="BN4" s="161"/>
+      <c r="BO4" s="159" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="157"/>
-      <c r="BS4" s="157"/>
-      <c r="BT4" s="157"/>
-      <c r="BU4" s="158"/>
-      <c r="BV4" s="156" t="str">
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="161"/>
+      <c r="BV4" s="159" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="157"/>
-      <c r="BX4" s="157"/>
-      <c r="BY4" s="157"/>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="157"/>
-      <c r="CB4" s="158"/>
-      <c r="CC4" s="156" t="str">
+      <c r="BW4" s="160"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="160"/>
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="161"/>
+      <c r="CC4" s="159" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="157"/>
-      <c r="CE4" s="157"/>
-      <c r="CF4" s="157"/>
-      <c r="CG4" s="157"/>
-      <c r="CH4" s="157"/>
-      <c r="CI4" s="158"/>
-      <c r="CJ4" s="156" t="str">
+      <c r="CD4" s="160"/>
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="160"/>
+      <c r="CG4" s="160"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="161"/>
+      <c r="CJ4" s="159" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="157"/>
-      <c r="CL4" s="157"/>
-      <c r="CM4" s="157"/>
-      <c r="CN4" s="157"/>
-      <c r="CO4" s="157"/>
-      <c r="CP4" s="158"/>
-      <c r="CQ4" s="156" t="str">
+      <c r="CK4" s="160"/>
+      <c r="CL4" s="160"/>
+      <c r="CM4" s="160"/>
+      <c r="CN4" s="160"/>
+      <c r="CO4" s="160"/>
+      <c r="CP4" s="161"/>
+      <c r="CQ4" s="159" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="157"/>
-      <c r="CS4" s="157"/>
-      <c r="CT4" s="157"/>
-      <c r="CU4" s="157"/>
-      <c r="CV4" s="157"/>
-      <c r="CW4" s="158"/>
-      <c r="CX4" s="156" t="str">
+      <c r="CR4" s="160"/>
+      <c r="CS4" s="160"/>
+      <c r="CT4" s="160"/>
+      <c r="CU4" s="160"/>
+      <c r="CV4" s="160"/>
+      <c r="CW4" s="161"/>
+      <c r="CX4" s="159" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="157"/>
-      <c r="CZ4" s="157"/>
-      <c r="DA4" s="157"/>
-      <c r="DB4" s="157"/>
-      <c r="DC4" s="157"/>
-      <c r="DD4" s="158"/>
-      <c r="DE4" s="156" t="str">
+      <c r="CY4" s="160"/>
+      <c r="CZ4" s="160"/>
+      <c r="DA4" s="160"/>
+      <c r="DB4" s="160"/>
+      <c r="DC4" s="160"/>
+      <c r="DD4" s="161"/>
+      <c r="DE4" s="159" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="157"/>
-      <c r="DG4" s="157"/>
-      <c r="DH4" s="157"/>
-      <c r="DI4" s="157"/>
-      <c r="DJ4" s="157"/>
-      <c r="DK4" s="158"/>
-      <c r="DL4" s="156" t="str">
+      <c r="DF4" s="160"/>
+      <c r="DG4" s="160"/>
+      <c r="DH4" s="160"/>
+      <c r="DI4" s="160"/>
+      <c r="DJ4" s="160"/>
+      <c r="DK4" s="161"/>
+      <c r="DL4" s="159" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="157"/>
-      <c r="DN4" s="157"/>
-      <c r="DO4" s="157"/>
-      <c r="DP4" s="157"/>
-      <c r="DQ4" s="157"/>
-      <c r="DR4" s="158"/>
-      <c r="DS4" s="156" t="str">
+      <c r="DM4" s="160"/>
+      <c r="DN4" s="160"/>
+      <c r="DO4" s="160"/>
+      <c r="DP4" s="160"/>
+      <c r="DQ4" s="160"/>
+      <c r="DR4" s="161"/>
+      <c r="DS4" s="159" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="157"/>
-      <c r="DU4" s="157"/>
-      <c r="DV4" s="157"/>
-      <c r="DW4" s="157"/>
-      <c r="DX4" s="157"/>
-      <c r="DY4" s="158"/>
-      <c r="DZ4" s="156" t="str">
+      <c r="DT4" s="160"/>
+      <c r="DU4" s="160"/>
+      <c r="DV4" s="160"/>
+      <c r="DW4" s="160"/>
+      <c r="DX4" s="160"/>
+      <c r="DY4" s="161"/>
+      <c r="DZ4" s="159" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="157"/>
-      <c r="EB4" s="157"/>
-      <c r="EC4" s="157"/>
-      <c r="ED4" s="157"/>
-      <c r="EE4" s="157"/>
-      <c r="EF4" s="158"/>
-      <c r="EG4" s="156" t="str">
+      <c r="EA4" s="160"/>
+      <c r="EB4" s="160"/>
+      <c r="EC4" s="160"/>
+      <c r="ED4" s="160"/>
+      <c r="EE4" s="160"/>
+      <c r="EF4" s="161"/>
+      <c r="EG4" s="159" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="157"/>
-      <c r="EI4" s="157"/>
-      <c r="EJ4" s="157"/>
-      <c r="EK4" s="157"/>
-      <c r="EL4" s="157"/>
-      <c r="EM4" s="158"/>
-      <c r="EN4" s="156" t="str">
+      <c r="EH4" s="160"/>
+      <c r="EI4" s="160"/>
+      <c r="EJ4" s="160"/>
+      <c r="EK4" s="160"/>
+      <c r="EL4" s="160"/>
+      <c r="EM4" s="161"/>
+      <c r="EN4" s="159" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="157"/>
-      <c r="EP4" s="157"/>
-      <c r="EQ4" s="157"/>
-      <c r="ER4" s="157"/>
-      <c r="ES4" s="157"/>
-      <c r="ET4" s="158"/>
-      <c r="EU4" s="156" t="str">
+      <c r="EO4" s="160"/>
+      <c r="EP4" s="160"/>
+      <c r="EQ4" s="160"/>
+      <c r="ER4" s="160"/>
+      <c r="ES4" s="160"/>
+      <c r="ET4" s="161"/>
+      <c r="EU4" s="159" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="157"/>
-      <c r="EW4" s="157"/>
-      <c r="EX4" s="157"/>
-      <c r="EY4" s="157"/>
-      <c r="EZ4" s="157"/>
-      <c r="FA4" s="158"/>
-      <c r="FB4" s="156" t="str">
+      <c r="EV4" s="160"/>
+      <c r="EW4" s="160"/>
+      <c r="EX4" s="160"/>
+      <c r="EY4" s="160"/>
+      <c r="EZ4" s="160"/>
+      <c r="FA4" s="161"/>
+      <c r="FB4" s="159" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="157"/>
-      <c r="FD4" s="157"/>
-      <c r="FE4" s="157"/>
-      <c r="FF4" s="157"/>
-      <c r="FG4" s="157"/>
-      <c r="FH4" s="158"/>
-      <c r="FI4" s="156" t="str">
+      <c r="FC4" s="160"/>
+      <c r="FD4" s="160"/>
+      <c r="FE4" s="160"/>
+      <c r="FF4" s="160"/>
+      <c r="FG4" s="160"/>
+      <c r="FH4" s="161"/>
+      <c r="FI4" s="159" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="157"/>
-      <c r="FK4" s="157"/>
-      <c r="FL4" s="157"/>
-      <c r="FM4" s="157"/>
-      <c r="FN4" s="157"/>
-      <c r="FO4" s="158"/>
-      <c r="FP4" s="156" t="str">
+      <c r="FJ4" s="160"/>
+      <c r="FK4" s="160"/>
+      <c r="FL4" s="160"/>
+      <c r="FM4" s="160"/>
+      <c r="FN4" s="160"/>
+      <c r="FO4" s="161"/>
+      <c r="FP4" s="159" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="157"/>
-      <c r="FR4" s="157"/>
-      <c r="FS4" s="157"/>
-      <c r="FT4" s="157"/>
-      <c r="FU4" s="157"/>
-      <c r="FV4" s="158"/>
-      <c r="FW4" s="156" t="str">
+      <c r="FQ4" s="160"/>
+      <c r="FR4" s="160"/>
+      <c r="FS4" s="160"/>
+      <c r="FT4" s="160"/>
+      <c r="FU4" s="160"/>
+      <c r="FV4" s="161"/>
+      <c r="FW4" s="159" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="157"/>
-      <c r="FY4" s="157"/>
-      <c r="FZ4" s="157"/>
-      <c r="GA4" s="157"/>
-      <c r="GB4" s="157"/>
-      <c r="GC4" s="158"/>
-      <c r="GD4" s="156" t="str">
+      <c r="FX4" s="160"/>
+      <c r="FY4" s="160"/>
+      <c r="FZ4" s="160"/>
+      <c r="GA4" s="160"/>
+      <c r="GB4" s="160"/>
+      <c r="GC4" s="161"/>
+      <c r="GD4" s="159" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="157"/>
-      <c r="GF4" s="157"/>
-      <c r="GG4" s="157"/>
-      <c r="GH4" s="157"/>
-      <c r="GI4" s="157"/>
-      <c r="GJ4" s="158"/>
-      <c r="GK4" s="156" t="str">
+      <c r="GE4" s="160"/>
+      <c r="GF4" s="160"/>
+      <c r="GG4" s="160"/>
+      <c r="GH4" s="160"/>
+      <c r="GI4" s="160"/>
+      <c r="GJ4" s="161"/>
+      <c r="GK4" s="159" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="157"/>
-      <c r="GM4" s="157"/>
-      <c r="GN4" s="157"/>
-      <c r="GO4" s="157"/>
-      <c r="GP4" s="157"/>
-      <c r="GQ4" s="158"/>
-      <c r="GR4" s="156" t="str">
+      <c r="GL4" s="160"/>
+      <c r="GM4" s="160"/>
+      <c r="GN4" s="160"/>
+      <c r="GO4" s="160"/>
+      <c r="GP4" s="160"/>
+      <c r="GQ4" s="161"/>
+      <c r="GR4" s="159" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="157"/>
-      <c r="GT4" s="157"/>
-      <c r="GU4" s="157"/>
-      <c r="GV4" s="157"/>
-      <c r="GW4" s="157"/>
-      <c r="GX4" s="158"/>
-      <c r="GY4" s="156" t="str">
+      <c r="GS4" s="160"/>
+      <c r="GT4" s="160"/>
+      <c r="GU4" s="160"/>
+      <c r="GV4" s="160"/>
+      <c r="GW4" s="160"/>
+      <c r="GX4" s="161"/>
+      <c r="GY4" s="159" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="157"/>
-      <c r="HA4" s="157"/>
-      <c r="HB4" s="157"/>
-      <c r="HC4" s="157"/>
-      <c r="HD4" s="157"/>
-      <c r="HE4" s="158"/>
-      <c r="HF4" s="156" t="str">
+      <c r="GZ4" s="160"/>
+      <c r="HA4" s="160"/>
+      <c r="HB4" s="160"/>
+      <c r="HC4" s="160"/>
+      <c r="HD4" s="160"/>
+      <c r="HE4" s="161"/>
+      <c r="HF4" s="159" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="157"/>
-      <c r="HH4" s="157"/>
-      <c r="HI4" s="157"/>
-      <c r="HJ4" s="157"/>
-      <c r="HK4" s="157"/>
-      <c r="HL4" s="158"/>
-      <c r="HM4" s="156" t="str">
+      <c r="HG4" s="160"/>
+      <c r="HH4" s="160"/>
+      <c r="HI4" s="160"/>
+      <c r="HJ4" s="160"/>
+      <c r="HK4" s="160"/>
+      <c r="HL4" s="161"/>
+      <c r="HM4" s="159" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="157"/>
-      <c r="HO4" s="157"/>
-      <c r="HP4" s="157"/>
-      <c r="HQ4" s="157"/>
-      <c r="HR4" s="157"/>
-      <c r="HS4" s="158"/>
-      <c r="HT4" s="156" t="str">
+      <c r="HN4" s="160"/>
+      <c r="HO4" s="160"/>
+      <c r="HP4" s="160"/>
+      <c r="HQ4" s="160"/>
+      <c r="HR4" s="160"/>
+      <c r="HS4" s="161"/>
+      <c r="HT4" s="159" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="157"/>
-      <c r="HV4" s="157"/>
-      <c r="HW4" s="157"/>
-      <c r="HX4" s="157"/>
-      <c r="HY4" s="157"/>
-      <c r="HZ4" s="158"/>
-      <c r="IA4" s="156" t="str">
+      <c r="HU4" s="160"/>
+      <c r="HV4" s="160"/>
+      <c r="HW4" s="160"/>
+      <c r="HX4" s="160"/>
+      <c r="HY4" s="160"/>
+      <c r="HZ4" s="161"/>
+      <c r="IA4" s="159" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="157"/>
-      <c r="IC4" s="157"/>
-      <c r="ID4" s="157"/>
-      <c r="IE4" s="157"/>
-      <c r="IF4" s="157"/>
-      <c r="IG4" s="158"/>
-      <c r="IH4" s="156" t="str">
+      <c r="IB4" s="160"/>
+      <c r="IC4" s="160"/>
+      <c r="ID4" s="160"/>
+      <c r="IE4" s="160"/>
+      <c r="IF4" s="160"/>
+      <c r="IG4" s="161"/>
+      <c r="IH4" s="159" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="157"/>
-      <c r="IJ4" s="157"/>
-      <c r="IK4" s="157"/>
-      <c r="IL4" s="157"/>
-      <c r="IM4" s="157"/>
-      <c r="IN4" s="158"/>
-      <c r="IO4" s="156" t="str">
+      <c r="II4" s="160"/>
+      <c r="IJ4" s="160"/>
+      <c r="IK4" s="160"/>
+      <c r="IL4" s="160"/>
+      <c r="IM4" s="160"/>
+      <c r="IN4" s="161"/>
+      <c r="IO4" s="159" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="157"/>
-      <c r="IQ4" s="157"/>
-      <c r="IR4" s="157"/>
-      <c r="IS4" s="157"/>
-      <c r="IT4" s="157"/>
-      <c r="IU4" s="158"/>
-    </row>
-    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="IP4" s="160"/>
+      <c r="IQ4" s="160"/>
+      <c r="IR4" s="160"/>
+      <c r="IS4" s="160"/>
+      <c r="IT4" s="160"/>
+      <c r="IU4" s="161"/>
+    </row>
+    <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="174">
+      <c r="K5" s="170">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="174">
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="170">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="177">
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="173">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="169">
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="165">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="162">
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="175">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="163"/>
-      <c r="AT5" s="164">
+      <c r="AN5" s="157"/>
+      <c r="AO5" s="157"/>
+      <c r="AP5" s="157"/>
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="177">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="157"/>
+      <c r="AV5" s="157"/>
+      <c r="AW5" s="157"/>
+      <c r="AX5" s="157"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="156">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="160"/>
-      <c r="BC5" s="160"/>
-      <c r="BD5" s="160"/>
-      <c r="BE5" s="160"/>
-      <c r="BF5" s="160"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="159">
+      <c r="BB5" s="157"/>
+      <c r="BC5" s="157"/>
+      <c r="BD5" s="157"/>
+      <c r="BE5" s="157"/>
+      <c r="BF5" s="157"/>
+      <c r="BG5" s="158"/>
+      <c r="BH5" s="162">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="160"/>
-      <c r="BJ5" s="160"/>
-      <c r="BK5" s="160"/>
-      <c r="BL5" s="160"/>
-      <c r="BM5" s="160"/>
-      <c r="BN5" s="161"/>
-      <c r="BO5" s="166">
+      <c r="BI5" s="157"/>
+      <c r="BJ5" s="157"/>
+      <c r="BK5" s="157"/>
+      <c r="BL5" s="157"/>
+      <c r="BM5" s="157"/>
+      <c r="BN5" s="163"/>
+      <c r="BO5" s="156">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="160"/>
-      <c r="BQ5" s="160"/>
-      <c r="BR5" s="160"/>
-      <c r="BS5" s="160"/>
-      <c r="BT5" s="160"/>
-      <c r="BU5" s="167"/>
-      <c r="BV5" s="159">
+      <c r="BP5" s="157"/>
+      <c r="BQ5" s="157"/>
+      <c r="BR5" s="157"/>
+      <c r="BS5" s="157"/>
+      <c r="BT5" s="157"/>
+      <c r="BU5" s="158"/>
+      <c r="BV5" s="162">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="160"/>
-      <c r="BX5" s="160"/>
-      <c r="BY5" s="160"/>
-      <c r="BZ5" s="160"/>
-      <c r="CA5" s="160"/>
-      <c r="CB5" s="161"/>
-      <c r="CC5" s="159">
+      <c r="BW5" s="157"/>
+      <c r="BX5" s="157"/>
+      <c r="BY5" s="157"/>
+      <c r="BZ5" s="157"/>
+      <c r="CA5" s="157"/>
+      <c r="CB5" s="163"/>
+      <c r="CC5" s="162">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="160"/>
-      <c r="CE5" s="160"/>
-      <c r="CF5" s="160"/>
-      <c r="CG5" s="160"/>
-      <c r="CH5" s="160"/>
-      <c r="CI5" s="161"/>
-      <c r="CJ5" s="166">
+      <c r="CD5" s="157"/>
+      <c r="CE5" s="157"/>
+      <c r="CF5" s="157"/>
+      <c r="CG5" s="157"/>
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="163"/>
+      <c r="CJ5" s="156">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="160"/>
-      <c r="CL5" s="160"/>
-      <c r="CM5" s="160"/>
-      <c r="CN5" s="160"/>
-      <c r="CO5" s="160"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="159">
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="158"/>
+      <c r="CQ5" s="162">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="160"/>
-      <c r="CS5" s="160"/>
-      <c r="CT5" s="160"/>
-      <c r="CU5" s="160"/>
-      <c r="CV5" s="160"/>
-      <c r="CW5" s="161"/>
-      <c r="CX5" s="159">
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="163"/>
+      <c r="CX5" s="162">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="160"/>
-      <c r="CZ5" s="160"/>
-      <c r="DA5" s="160"/>
-      <c r="DB5" s="160"/>
-      <c r="DC5" s="160"/>
-      <c r="DD5" s="161"/>
-      <c r="DE5" s="166">
+      <c r="CY5" s="157"/>
+      <c r="CZ5" s="157"/>
+      <c r="DA5" s="157"/>
+      <c r="DB5" s="157"/>
+      <c r="DC5" s="157"/>
+      <c r="DD5" s="163"/>
+      <c r="DE5" s="156">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="160"/>
-      <c r="DG5" s="160"/>
-      <c r="DH5" s="160"/>
-      <c r="DI5" s="160"/>
-      <c r="DJ5" s="160"/>
-      <c r="DK5" s="167"/>
-      <c r="DL5" s="159">
+      <c r="DF5" s="157"/>
+      <c r="DG5" s="157"/>
+      <c r="DH5" s="157"/>
+      <c r="DI5" s="157"/>
+      <c r="DJ5" s="157"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="162">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="160"/>
-      <c r="DN5" s="160"/>
-      <c r="DO5" s="160"/>
-      <c r="DP5" s="160"/>
-      <c r="DQ5" s="160"/>
-      <c r="DR5" s="161"/>
-      <c r="DS5" s="159">
+      <c r="DM5" s="157"/>
+      <c r="DN5" s="157"/>
+      <c r="DO5" s="157"/>
+      <c r="DP5" s="157"/>
+      <c r="DQ5" s="157"/>
+      <c r="DR5" s="163"/>
+      <c r="DS5" s="162">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="160"/>
-      <c r="DU5" s="160"/>
-      <c r="DV5" s="160"/>
-      <c r="DW5" s="160"/>
-      <c r="DX5" s="160"/>
-      <c r="DY5" s="161"/>
-      <c r="DZ5" s="166">
+      <c r="DT5" s="157"/>
+      <c r="DU5" s="157"/>
+      <c r="DV5" s="157"/>
+      <c r="DW5" s="157"/>
+      <c r="DX5" s="157"/>
+      <c r="DY5" s="163"/>
+      <c r="DZ5" s="156">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="160"/>
-      <c r="EB5" s="160"/>
-      <c r="EC5" s="160"/>
-      <c r="ED5" s="160"/>
-      <c r="EE5" s="160"/>
-      <c r="EF5" s="167"/>
-      <c r="EG5" s="159">
+      <c r="EA5" s="157"/>
+      <c r="EB5" s="157"/>
+      <c r="EC5" s="157"/>
+      <c r="ED5" s="157"/>
+      <c r="EE5" s="157"/>
+      <c r="EF5" s="158"/>
+      <c r="EG5" s="162">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="160"/>
-      <c r="EI5" s="160"/>
-      <c r="EJ5" s="160"/>
-      <c r="EK5" s="160"/>
-      <c r="EL5" s="160"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="159">
+      <c r="EH5" s="157"/>
+      <c r="EI5" s="157"/>
+      <c r="EJ5" s="157"/>
+      <c r="EK5" s="157"/>
+      <c r="EL5" s="157"/>
+      <c r="EM5" s="163"/>
+      <c r="EN5" s="162">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="160"/>
-      <c r="EP5" s="160"/>
-      <c r="EQ5" s="160"/>
-      <c r="ER5" s="160"/>
-      <c r="ES5" s="160"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="166">
+      <c r="EO5" s="157"/>
+      <c r="EP5" s="157"/>
+      <c r="EQ5" s="157"/>
+      <c r="ER5" s="157"/>
+      <c r="ES5" s="157"/>
+      <c r="ET5" s="163"/>
+      <c r="EU5" s="156">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="160"/>
-      <c r="EW5" s="160"/>
-      <c r="EX5" s="160"/>
-      <c r="EY5" s="160"/>
-      <c r="EZ5" s="160"/>
-      <c r="FA5" s="167"/>
-      <c r="FB5" s="159">
+      <c r="EV5" s="157"/>
+      <c r="EW5" s="157"/>
+      <c r="EX5" s="157"/>
+      <c r="EY5" s="157"/>
+      <c r="EZ5" s="157"/>
+      <c r="FA5" s="158"/>
+      <c r="FB5" s="162">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="160"/>
-      <c r="FD5" s="160"/>
-      <c r="FE5" s="160"/>
-      <c r="FF5" s="160"/>
-      <c r="FG5" s="160"/>
-      <c r="FH5" s="161"/>
-      <c r="FI5" s="159">
+      <c r="FC5" s="157"/>
+      <c r="FD5" s="157"/>
+      <c r="FE5" s="157"/>
+      <c r="FF5" s="157"/>
+      <c r="FG5" s="157"/>
+      <c r="FH5" s="163"/>
+      <c r="FI5" s="162">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="160"/>
-      <c r="FK5" s="160"/>
-      <c r="FL5" s="160"/>
-      <c r="FM5" s="160"/>
-      <c r="FN5" s="160"/>
-      <c r="FO5" s="161"/>
-      <c r="FP5" s="166">
+      <c r="FJ5" s="157"/>
+      <c r="FK5" s="157"/>
+      <c r="FL5" s="157"/>
+      <c r="FM5" s="157"/>
+      <c r="FN5" s="157"/>
+      <c r="FO5" s="163"/>
+      <c r="FP5" s="156">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="160"/>
-      <c r="FR5" s="160"/>
-      <c r="FS5" s="160"/>
-      <c r="FT5" s="160"/>
-      <c r="FU5" s="160"/>
-      <c r="FV5" s="167"/>
-      <c r="FW5" s="159">
+      <c r="FQ5" s="157"/>
+      <c r="FR5" s="157"/>
+      <c r="FS5" s="157"/>
+      <c r="FT5" s="157"/>
+      <c r="FU5" s="157"/>
+      <c r="FV5" s="158"/>
+      <c r="FW5" s="162">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="160"/>
-      <c r="FY5" s="160"/>
-      <c r="FZ5" s="160"/>
-      <c r="GA5" s="160"/>
-      <c r="GB5" s="160"/>
-      <c r="GC5" s="161"/>
-      <c r="GD5" s="159">
+      <c r="FX5" s="157"/>
+      <c r="FY5" s="157"/>
+      <c r="FZ5" s="157"/>
+      <c r="GA5" s="157"/>
+      <c r="GB5" s="157"/>
+      <c r="GC5" s="163"/>
+      <c r="GD5" s="162">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="160"/>
-      <c r="GF5" s="160"/>
-      <c r="GG5" s="160"/>
-      <c r="GH5" s="160"/>
-      <c r="GI5" s="160"/>
-      <c r="GJ5" s="161"/>
-      <c r="GK5" s="166">
+      <c r="GE5" s="157"/>
+      <c r="GF5" s="157"/>
+      <c r="GG5" s="157"/>
+      <c r="GH5" s="157"/>
+      <c r="GI5" s="157"/>
+      <c r="GJ5" s="163"/>
+      <c r="GK5" s="156">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="160"/>
-      <c r="GM5" s="160"/>
-      <c r="GN5" s="160"/>
-      <c r="GO5" s="160"/>
-      <c r="GP5" s="160"/>
-      <c r="GQ5" s="167"/>
-      <c r="GR5" s="159">
+      <c r="GL5" s="157"/>
+      <c r="GM5" s="157"/>
+      <c r="GN5" s="157"/>
+      <c r="GO5" s="157"/>
+      <c r="GP5" s="157"/>
+      <c r="GQ5" s="158"/>
+      <c r="GR5" s="162">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="160"/>
-      <c r="GT5" s="160"/>
-      <c r="GU5" s="160"/>
-      <c r="GV5" s="160"/>
-      <c r="GW5" s="160"/>
-      <c r="GX5" s="161"/>
-      <c r="GY5" s="166">
+      <c r="GS5" s="157"/>
+      <c r="GT5" s="157"/>
+      <c r="GU5" s="157"/>
+      <c r="GV5" s="157"/>
+      <c r="GW5" s="157"/>
+      <c r="GX5" s="163"/>
+      <c r="GY5" s="156">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="160"/>
-      <c r="HA5" s="160"/>
-      <c r="HB5" s="160"/>
-      <c r="HC5" s="160"/>
-      <c r="HD5" s="160"/>
-      <c r="HE5" s="167"/>
-      <c r="HF5" s="159">
+      <c r="GZ5" s="157"/>
+      <c r="HA5" s="157"/>
+      <c r="HB5" s="157"/>
+      <c r="HC5" s="157"/>
+      <c r="HD5" s="157"/>
+      <c r="HE5" s="158"/>
+      <c r="HF5" s="162">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="160"/>
-      <c r="HH5" s="160"/>
-      <c r="HI5" s="160"/>
-      <c r="HJ5" s="160"/>
-      <c r="HK5" s="160"/>
-      <c r="HL5" s="161"/>
-      <c r="HM5" s="166">
+      <c r="HG5" s="157"/>
+      <c r="HH5" s="157"/>
+      <c r="HI5" s="157"/>
+      <c r="HJ5" s="157"/>
+      <c r="HK5" s="157"/>
+      <c r="HL5" s="163"/>
+      <c r="HM5" s="156">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="160"/>
-      <c r="HO5" s="160"/>
-      <c r="HP5" s="160"/>
-      <c r="HQ5" s="160"/>
-      <c r="HR5" s="160"/>
-      <c r="HS5" s="167"/>
-      <c r="HT5" s="159">
+      <c r="HN5" s="157"/>
+      <c r="HO5" s="157"/>
+      <c r="HP5" s="157"/>
+      <c r="HQ5" s="157"/>
+      <c r="HR5" s="157"/>
+      <c r="HS5" s="158"/>
+      <c r="HT5" s="162">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="160"/>
-      <c r="HV5" s="160"/>
-      <c r="HW5" s="160"/>
-      <c r="HX5" s="160"/>
-      <c r="HY5" s="160"/>
-      <c r="HZ5" s="161"/>
-      <c r="IA5" s="166">
+      <c r="HU5" s="157"/>
+      <c r="HV5" s="157"/>
+      <c r="HW5" s="157"/>
+      <c r="HX5" s="157"/>
+      <c r="HY5" s="157"/>
+      <c r="HZ5" s="163"/>
+      <c r="IA5" s="156">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="160"/>
-      <c r="IC5" s="160"/>
-      <c r="ID5" s="160"/>
-      <c r="IE5" s="160"/>
-      <c r="IF5" s="160"/>
-      <c r="IG5" s="167"/>
-      <c r="IH5" s="159">
+      <c r="IB5" s="157"/>
+      <c r="IC5" s="157"/>
+      <c r="ID5" s="157"/>
+      <c r="IE5" s="157"/>
+      <c r="IF5" s="157"/>
+      <c r="IG5" s="158"/>
+      <c r="IH5" s="162">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="160"/>
-      <c r="IJ5" s="160"/>
-      <c r="IK5" s="160"/>
-      <c r="IL5" s="160"/>
-      <c r="IM5" s="160"/>
-      <c r="IN5" s="161"/>
-      <c r="IO5" s="166">
+      <c r="II5" s="157"/>
+      <c r="IJ5" s="157"/>
+      <c r="IK5" s="157"/>
+      <c r="IL5" s="157"/>
+      <c r="IM5" s="157"/>
+      <c r="IN5" s="163"/>
+      <c r="IO5" s="156">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="160"/>
-      <c r="IQ5" s="160"/>
-      <c r="IR5" s="160"/>
-      <c r="IS5" s="160"/>
-      <c r="IT5" s="160"/>
-      <c r="IU5" s="167"/>
-    </row>
-    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="IP5" s="157"/>
+      <c r="IQ5" s="157"/>
+      <c r="IR5" s="157"/>
+      <c r="IS5" s="157"/>
+      <c r="IT5" s="157"/>
+      <c r="IU5" s="158"/>
+    </row>
+    <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="146"/>
       <c r="K6" s="64">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="IU6" s="76"/>
     </row>
-    <row r="7" spans="1:255" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:255" s="52" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>0</v>
       </c>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="IU7" s="62"/>
     </row>
-    <row r="8" spans="1:255" s="26" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:255" s="26" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -7322,7 +7322,7 @@
       <c r="IT8" s="27"/>
       <c r="IU8" s="27"/>
     </row>
-    <row r="9" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A9" s="91" t="str">
         <f t="shared" ref="A9:A22" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -7596,7 +7596,7 @@
       <c r="IT9" s="34"/>
       <c r="IU9" s="34"/>
     </row>
-    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:255" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="91" t="str">
         <f t="shared" ref="A10:A20" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -7870,7 +7870,7 @@
       <c r="IT10" s="34"/>
       <c r="IU10" s="34"/>
     </row>
-    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.2</v>
@@ -8144,7 +8144,7 @@
       <c r="IT11" s="34"/>
       <c r="IU11" s="34"/>
     </row>
-    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.3</v>
@@ -8419,7 +8419,7 @@
       <c r="IT12" s="34"/>
       <c r="IU12" s="34"/>
     </row>
-    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.4</v>
@@ -8693,7 +8693,7 @@
       <c r="IT13" s="34"/>
       <c r="IU13" s="34"/>
     </row>
-    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.5</v>
@@ -8709,13 +8709,13 @@
       </c>
       <c r="F14" s="84">
         <f t="shared" si="255"/>
-        <v>45312</v>
+        <v>45311</v>
       </c>
       <c r="G14" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I14" s="102">
         <f t="shared" si="256"/>
@@ -8970,7 +8970,7 @@
       <c r="IT14" s="34"/>
       <c r="IU14" s="34"/>
     </row>
-    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.6</v>
@@ -8982,11 +8982,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="87">
         <f>F14</f>
-        <v>45312</v>
+        <v>45311</v>
       </c>
       <c r="F15" s="84">
         <f t="shared" ref="F15" si="262">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>45317</v>
+        <v>45316</v>
       </c>
       <c r="G15" s="45">
         <v>6</v>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="I15" s="102">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="34"/>
@@ -9247,7 +9247,7 @@
       <c r="IT15" s="34"/>
       <c r="IU15" s="34"/>
     </row>
-    <row r="16" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.7</v>
@@ -9523,7 +9523,7 @@
       <c r="IT16" s="34"/>
       <c r="IU16" s="34"/>
     </row>
-    <row r="17" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:255" s="32" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.8</v>
@@ -9799,7 +9799,7 @@
       <c r="IT17" s="34"/>
       <c r="IU17" s="34"/>
     </row>
-    <row r="18" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A18" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.9</v>
@@ -10075,7 +10075,7 @@
       <c r="IT18" s="34"/>
       <c r="IU18" s="34"/>
     </row>
-    <row r="19" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A19" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.10</v>
@@ -10351,7 +10351,7 @@
       <c r="IT19" s="34"/>
       <c r="IU19" s="34"/>
     </row>
-    <row r="20" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A20" s="91" t="str">
         <f t="shared" si="257"/>
         <v>1.1.11</v>
@@ -10628,7 +10628,7 @@
       <c r="IT20" s="34"/>
       <c r="IU20" s="34"/>
     </row>
-    <row r="21" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A21" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -10890,7 +10890,7 @@
       <c r="IT21" s="36"/>
       <c r="IU21" s="36"/>
     </row>
-    <row r="22" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A22" s="91" t="str">
         <f t="shared" si="254"/>
         <v>2.1</v>
@@ -11165,7 +11165,7 @@
       <c r="IT22" s="34"/>
       <c r="IU22" s="34"/>
     </row>
-    <row r="23" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A23" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
@@ -11442,7 +11442,7 @@
       <c r="IT23" s="34"/>
       <c r="IU23" s="34"/>
     </row>
-    <row r="24" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
@@ -11718,7 +11718,7 @@
       <c r="IT24" s="34"/>
       <c r="IU24" s="34"/>
     </row>
-    <row r="25" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A25" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -11980,7 +11980,7 @@
       <c r="IT25" s="36"/>
       <c r="IU25" s="36"/>
     </row>
-    <row r="26" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A26" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -12255,7 +12255,7 @@
       <c r="IT26" s="34"/>
       <c r="IU26" s="34"/>
     </row>
-    <row r="27" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A27" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
@@ -12532,7 +12532,7 @@
       <c r="IT27" s="34"/>
       <c r="IU27" s="34"/>
     </row>
-    <row r="28" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A28" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
@@ -12808,7 +12808,7 @@
       <c r="IT28" s="34"/>
       <c r="IU28" s="34"/>
     </row>
-    <row r="29" spans="1:255" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:255" s="31" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A29" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -13070,7 +13070,7 @@
       <c r="IT29" s="36"/>
       <c r="IU29" s="36"/>
     </row>
-    <row r="30" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A30" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -13345,7 +13345,7 @@
       <c r="IT30" s="34"/>
       <c r="IU30" s="34"/>
     </row>
-    <row r="31" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A31" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -13622,7 +13622,7 @@
       <c r="IT31" s="34"/>
       <c r="IU31" s="34"/>
     </row>
-    <row r="32" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A32" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -13898,7 +13898,7 @@
       <c r="IT32" s="34"/>
       <c r="IU32" s="34"/>
     </row>
-    <row r="33" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:255" s="32" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A33" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -14175,7 +14175,7 @@
       <c r="IT33" s="34"/>
       <c r="IU33" s="34"/>
     </row>
-    <row r="35" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:255" s="40" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="105" t="s">
         <v>1</v>
       </c>
@@ -14434,7 +14434,7 @@
       <c r="IT35" s="34"/>
       <c r="IU35" s="34"/>
     </row>
-    <row r="36" spans="1:255" s="39" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:255" s="39" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="106" t="s">
         <v>74</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="IT36" s="34"/>
       <c r="IU36" s="34"/>
     </row>
-    <row r="37" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A37" s="92" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -14953,7 +14953,7 @@
       <c r="IT37" s="34"/>
       <c r="IU37" s="34"/>
     </row>
-    <row r="38" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A38" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -15225,7 +15225,7 @@
       <c r="IT38" s="34"/>
       <c r="IU38" s="34"/>
     </row>
-    <row r="39" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A39" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -15495,7 +15495,7 @@
       <c r="IT39" s="34"/>
       <c r="IU39" s="34"/>
     </row>
-    <row r="40" spans="1:255" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:255" s="39" customFormat="1" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A40" s="91" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -15765,32 +15765,61 @@
       <c r="IT40" s="34"/>
       <c r="IU40" s="34"/>
     </row>
-    <row r="41" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:255" s="41" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="142" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
       <c r="C41" s="154"/>
     </row>
-    <row r="42" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15807,49 +15836,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H36:H40 H8:H33">
@@ -15909,13 +15909,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>10886</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>97971</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -15960,62 +15960,62 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="5.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.3828125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A2" s="119" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A4" s="120" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="56.6" x14ac:dyDescent="0.35">
       <c r="B5" s="121" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B7" s="121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B9" s="119" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="28.3" x14ac:dyDescent="0.35">
       <c r="B11" s="122" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A13" s="179" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="179"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A15" s="123"/>
       <c r="B15" s="124" t="s">
         <v>78</v>
@@ -16023,7 +16023,7 @@
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.3">
       <c r="A16" s="123"/>
       <c r="B16" s="124" t="s">
         <v>79</v>
@@ -16031,162 +16031,162 @@
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A17" s="126"/>
       <c r="B17" s="124" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A18" s="126"/>
       <c r="B18" s="124" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A19" s="126"/>
       <c r="B19" s="124" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A20" s="126"/>
       <c r="B20" s="124" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A21" s="126"/>
       <c r="B21" s="127" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A22" s="126"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A23" s="179" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="179"/>
     </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="42.45" x14ac:dyDescent="0.4">
       <c r="A24" s="126"/>
       <c r="B24" s="124" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A25" s="126"/>
       <c r="B25" s="124"/>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A26" s="126"/>
       <c r="B26" s="128" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A27" s="126"/>
       <c r="B27" s="124" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A28" s="126"/>
       <c r="B28" s="124" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A29" s="126"/>
       <c r="B29" s="124"/>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A30" s="126"/>
       <c r="B30" s="128" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A31" s="126"/>
       <c r="B31" s="124" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A32" s="126"/>
       <c r="B32" s="124" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A33" s="126"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.3" x14ac:dyDescent="0.4">
       <c r="A34" s="126"/>
       <c r="B34" s="124" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A35" s="126"/>
       <c r="B35" s="129" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A36" s="126"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A37" s="179" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="179"/>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B38" s="124" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="14.15" x14ac:dyDescent="0.3">
       <c r="B40" s="124" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B42" s="124" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B44" s="124" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B46" s="124" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A48" s="179" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="179"/>
     </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="28.3" x14ac:dyDescent="0.3">
       <c r="B49" s="124" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A51" s="130" t="s">
         <v>8</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A52" s="130" t="s">
         <v>10</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A53" s="130" t="s">
         <v>12</v>
       </c>
@@ -16210,19 +16210,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A54" s="122"/>
       <c r="B54" s="124" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A55" s="122"/>
       <c r="B55" s="124" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A56" s="130" t="s">
         <v>14</v>
       </c>
@@ -16230,19 +16230,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A57" s="122"/>
       <c r="B57" s="124" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A58" s="122"/>
       <c r="B58" s="124" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A59" s="130" t="s">
         <v>16</v>
       </c>
@@ -16250,13 +16250,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A60" s="122"/>
       <c r="B60" s="124" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A61" s="130" t="s">
         <v>105</v>
       </c>
@@ -16264,33 +16264,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A62" s="131"/>
       <c r="B62" s="124" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A64" s="179" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="179"/>
     </row>
-    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="42.45" x14ac:dyDescent="0.3">
       <c r="B65" s="124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="A67" s="179" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="179"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A68" s="132" t="s">
         <v>4</v>
       </c>
@@ -16298,17 +16298,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A69" s="131"/>
       <c r="B69" s="134" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A70" s="131"/>
       <c r="B70" s="135"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A71" s="132" t="s">
         <v>4</v>
       </c>
@@ -16316,17 +16316,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A72" s="131"/>
       <c r="B72" s="134" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A73" s="131"/>
       <c r="B73" s="135"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A74" s="132" t="s">
         <v>4</v>
       </c>
@@ -16334,17 +16334,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A75" s="131"/>
       <c r="B75" s="121" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A76" s="131"/>
       <c r="B76" s="131"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A77" s="132" t="s">
         <v>4</v>
       </c>
@@ -16352,17 +16352,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A78" s="131"/>
       <c r="B78" s="121" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A79" s="131"/>
       <c r="B79" s="131"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A80" s="132" t="s">
         <v>4</v>
       </c>
@@ -16370,29 +16370,29 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A81" s="131"/>
       <c r="B81" s="137" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A82" s="131"/>
       <c r="B82" s="137" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A83" s="131"/>
       <c r="B83" s="137" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A84" s="131"/>
       <c r="B84" s="138"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A85" s="132" t="s">
         <v>4</v>
       </c>
@@ -16400,29 +16400,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A86" s="131"/>
       <c r="B86" s="121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A87" s="131"/>
       <c r="B87" s="139" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A88" s="131"/>
       <c r="B88" s="140" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A89" s="131"/>
       <c r="B89" s="131"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A90" s="132" t="s">
         <v>4</v>
       </c>
@@ -16430,13 +16430,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A91" s="122"/>
       <c r="B91" s="137" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>51</v>
       </c>
@@ -16474,172 +16474,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.53515625" customWidth="1"/>
+    <col min="2" max="2" width="37.69140625" customWidth="1"/>
+    <col min="3" max="3" width="55.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="14.15" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
@@ -16664,172 +16664,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.53515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.15234375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="45.9" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30.45" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF6B05-F0CB-473F-B44A-FD462D2819C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D37CE9-B61F-4BA5-AC1D-A36831060600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3263,15 +3263,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3284,7 +3275,28 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3321,18 +3333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4176,8 +4176,8 @@
   <dimension ref="A1:IU43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN21" sqref="AN21"/>
+      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF38" sqref="AF38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -4255,21 +4255,21 @@
       <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="164"/>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
     </row>
     <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
@@ -4349,729 +4349,729 @@
       <c r="B4" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="171">
         <v>45295</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="H4" s="113" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="159" t="str">
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="156" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="159" t="str">
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="156" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="159" t="str">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="156" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="159" t="str">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="156" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="159" t="str">
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="156" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="159" t="str">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="156" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="159" t="str">
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="156" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="161"/>
-      <c r="BO4" s="159" t="str">
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="156" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="161"/>
-      <c r="BV4" s="159" t="str">
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="156" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="161"/>
-      <c r="CC4" s="159" t="str">
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="157"/>
+      <c r="BY4" s="157"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="158"/>
+      <c r="CC4" s="156" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="160"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="161"/>
-      <c r="CJ4" s="159" t="str">
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="157"/>
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="157"/>
+      <c r="CH4" s="157"/>
+      <c r="CI4" s="158"/>
+      <c r="CJ4" s="156" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-      <c r="CM4" s="160"/>
-      <c r="CN4" s="160"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="161"/>
-      <c r="CQ4" s="159" t="str">
+      <c r="CK4" s="157"/>
+      <c r="CL4" s="157"/>
+      <c r="CM4" s="157"/>
+      <c r="CN4" s="157"/>
+      <c r="CO4" s="157"/>
+      <c r="CP4" s="158"/>
+      <c r="CQ4" s="156" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="160"/>
-      <c r="CS4" s="160"/>
-      <c r="CT4" s="160"/>
-      <c r="CU4" s="160"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="161"/>
-      <c r="CX4" s="159" t="str">
+      <c r="CR4" s="157"/>
+      <c r="CS4" s="157"/>
+      <c r="CT4" s="157"/>
+      <c r="CU4" s="157"/>
+      <c r="CV4" s="157"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="156" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="160"/>
-      <c r="CZ4" s="160"/>
-      <c r="DA4" s="160"/>
-      <c r="DB4" s="160"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="161"/>
-      <c r="DE4" s="159" t="str">
+      <c r="CY4" s="157"/>
+      <c r="CZ4" s="157"/>
+      <c r="DA4" s="157"/>
+      <c r="DB4" s="157"/>
+      <c r="DC4" s="157"/>
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="156" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="160"/>
-      <c r="DG4" s="160"/>
-      <c r="DH4" s="160"/>
-      <c r="DI4" s="160"/>
-      <c r="DJ4" s="160"/>
-      <c r="DK4" s="161"/>
-      <c r="DL4" s="159" t="str">
+      <c r="DF4" s="157"/>
+      <c r="DG4" s="157"/>
+      <c r="DH4" s="157"/>
+      <c r="DI4" s="157"/>
+      <c r="DJ4" s="157"/>
+      <c r="DK4" s="158"/>
+      <c r="DL4" s="156" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="160"/>
-      <c r="DN4" s="160"/>
-      <c r="DO4" s="160"/>
-      <c r="DP4" s="160"/>
-      <c r="DQ4" s="160"/>
-      <c r="DR4" s="161"/>
-      <c r="DS4" s="159" t="str">
+      <c r="DM4" s="157"/>
+      <c r="DN4" s="157"/>
+      <c r="DO4" s="157"/>
+      <c r="DP4" s="157"/>
+      <c r="DQ4" s="157"/>
+      <c r="DR4" s="158"/>
+      <c r="DS4" s="156" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="160"/>
-      <c r="DU4" s="160"/>
-      <c r="DV4" s="160"/>
-      <c r="DW4" s="160"/>
-      <c r="DX4" s="160"/>
-      <c r="DY4" s="161"/>
-      <c r="DZ4" s="159" t="str">
+      <c r="DT4" s="157"/>
+      <c r="DU4" s="157"/>
+      <c r="DV4" s="157"/>
+      <c r="DW4" s="157"/>
+      <c r="DX4" s="157"/>
+      <c r="DY4" s="158"/>
+      <c r="DZ4" s="156" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="160"/>
-      <c r="EB4" s="160"/>
-      <c r="EC4" s="160"/>
-      <c r="ED4" s="160"/>
-      <c r="EE4" s="160"/>
-      <c r="EF4" s="161"/>
-      <c r="EG4" s="159" t="str">
+      <c r="EA4" s="157"/>
+      <c r="EB4" s="157"/>
+      <c r="EC4" s="157"/>
+      <c r="ED4" s="157"/>
+      <c r="EE4" s="157"/>
+      <c r="EF4" s="158"/>
+      <c r="EG4" s="156" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="160"/>
-      <c r="EI4" s="160"/>
-      <c r="EJ4" s="160"/>
-      <c r="EK4" s="160"/>
-      <c r="EL4" s="160"/>
-      <c r="EM4" s="161"/>
-      <c r="EN4" s="159" t="str">
+      <c r="EH4" s="157"/>
+      <c r="EI4" s="157"/>
+      <c r="EJ4" s="157"/>
+      <c r="EK4" s="157"/>
+      <c r="EL4" s="157"/>
+      <c r="EM4" s="158"/>
+      <c r="EN4" s="156" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="160"/>
-      <c r="EP4" s="160"/>
-      <c r="EQ4" s="160"/>
-      <c r="ER4" s="160"/>
-      <c r="ES4" s="160"/>
-      <c r="ET4" s="161"/>
-      <c r="EU4" s="159" t="str">
+      <c r="EO4" s="157"/>
+      <c r="EP4" s="157"/>
+      <c r="EQ4" s="157"/>
+      <c r="ER4" s="157"/>
+      <c r="ES4" s="157"/>
+      <c r="ET4" s="158"/>
+      <c r="EU4" s="156" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="160"/>
-      <c r="EW4" s="160"/>
-      <c r="EX4" s="160"/>
-      <c r="EY4" s="160"/>
-      <c r="EZ4" s="160"/>
-      <c r="FA4" s="161"/>
-      <c r="FB4" s="159" t="str">
+      <c r="EV4" s="157"/>
+      <c r="EW4" s="157"/>
+      <c r="EX4" s="157"/>
+      <c r="EY4" s="157"/>
+      <c r="EZ4" s="157"/>
+      <c r="FA4" s="158"/>
+      <c r="FB4" s="156" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="160"/>
-      <c r="FD4" s="160"/>
-      <c r="FE4" s="160"/>
-      <c r="FF4" s="160"/>
-      <c r="FG4" s="160"/>
-      <c r="FH4" s="161"/>
-      <c r="FI4" s="159" t="str">
+      <c r="FC4" s="157"/>
+      <c r="FD4" s="157"/>
+      <c r="FE4" s="157"/>
+      <c r="FF4" s="157"/>
+      <c r="FG4" s="157"/>
+      <c r="FH4" s="158"/>
+      <c r="FI4" s="156" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="160"/>
-      <c r="FK4" s="160"/>
-      <c r="FL4" s="160"/>
-      <c r="FM4" s="160"/>
-      <c r="FN4" s="160"/>
-      <c r="FO4" s="161"/>
-      <c r="FP4" s="159" t="str">
+      <c r="FJ4" s="157"/>
+      <c r="FK4" s="157"/>
+      <c r="FL4" s="157"/>
+      <c r="FM4" s="157"/>
+      <c r="FN4" s="157"/>
+      <c r="FO4" s="158"/>
+      <c r="FP4" s="156" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="160"/>
-      <c r="FR4" s="160"/>
-      <c r="FS4" s="160"/>
-      <c r="FT4" s="160"/>
-      <c r="FU4" s="160"/>
-      <c r="FV4" s="161"/>
-      <c r="FW4" s="159" t="str">
+      <c r="FQ4" s="157"/>
+      <c r="FR4" s="157"/>
+      <c r="FS4" s="157"/>
+      <c r="FT4" s="157"/>
+      <c r="FU4" s="157"/>
+      <c r="FV4" s="158"/>
+      <c r="FW4" s="156" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="160"/>
-      <c r="FY4" s="160"/>
-      <c r="FZ4" s="160"/>
-      <c r="GA4" s="160"/>
-      <c r="GB4" s="160"/>
-      <c r="GC4" s="161"/>
-      <c r="GD4" s="159" t="str">
+      <c r="FX4" s="157"/>
+      <c r="FY4" s="157"/>
+      <c r="FZ4" s="157"/>
+      <c r="GA4" s="157"/>
+      <c r="GB4" s="157"/>
+      <c r="GC4" s="158"/>
+      <c r="GD4" s="156" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="160"/>
-      <c r="GF4" s="160"/>
-      <c r="GG4" s="160"/>
-      <c r="GH4" s="160"/>
-      <c r="GI4" s="160"/>
-      <c r="GJ4" s="161"/>
-      <c r="GK4" s="159" t="str">
+      <c r="GE4" s="157"/>
+      <c r="GF4" s="157"/>
+      <c r="GG4" s="157"/>
+      <c r="GH4" s="157"/>
+      <c r="GI4" s="157"/>
+      <c r="GJ4" s="158"/>
+      <c r="GK4" s="156" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="160"/>
-      <c r="GM4" s="160"/>
-      <c r="GN4" s="160"/>
-      <c r="GO4" s="160"/>
-      <c r="GP4" s="160"/>
-      <c r="GQ4" s="161"/>
-      <c r="GR4" s="159" t="str">
+      <c r="GL4" s="157"/>
+      <c r="GM4" s="157"/>
+      <c r="GN4" s="157"/>
+      <c r="GO4" s="157"/>
+      <c r="GP4" s="157"/>
+      <c r="GQ4" s="158"/>
+      <c r="GR4" s="156" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="160"/>
-      <c r="GT4" s="160"/>
-      <c r="GU4" s="160"/>
-      <c r="GV4" s="160"/>
-      <c r="GW4" s="160"/>
-      <c r="GX4" s="161"/>
-      <c r="GY4" s="159" t="str">
+      <c r="GS4" s="157"/>
+      <c r="GT4" s="157"/>
+      <c r="GU4" s="157"/>
+      <c r="GV4" s="157"/>
+      <c r="GW4" s="157"/>
+      <c r="GX4" s="158"/>
+      <c r="GY4" s="156" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="160"/>
-      <c r="HA4" s="160"/>
-      <c r="HB4" s="160"/>
-      <c r="HC4" s="160"/>
-      <c r="HD4" s="160"/>
-      <c r="HE4" s="161"/>
-      <c r="HF4" s="159" t="str">
+      <c r="GZ4" s="157"/>
+      <c r="HA4" s="157"/>
+      <c r="HB4" s="157"/>
+      <c r="HC4" s="157"/>
+      <c r="HD4" s="157"/>
+      <c r="HE4" s="158"/>
+      <c r="HF4" s="156" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="160"/>
-      <c r="HH4" s="160"/>
-      <c r="HI4" s="160"/>
-      <c r="HJ4" s="160"/>
-      <c r="HK4" s="160"/>
-      <c r="HL4" s="161"/>
-      <c r="HM4" s="159" t="str">
+      <c r="HG4" s="157"/>
+      <c r="HH4" s="157"/>
+      <c r="HI4" s="157"/>
+      <c r="HJ4" s="157"/>
+      <c r="HK4" s="157"/>
+      <c r="HL4" s="158"/>
+      <c r="HM4" s="156" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="160"/>
-      <c r="HO4" s="160"/>
-      <c r="HP4" s="160"/>
-      <c r="HQ4" s="160"/>
-      <c r="HR4" s="160"/>
-      <c r="HS4" s="161"/>
-      <c r="HT4" s="159" t="str">
+      <c r="HN4" s="157"/>
+      <c r="HO4" s="157"/>
+      <c r="HP4" s="157"/>
+      <c r="HQ4" s="157"/>
+      <c r="HR4" s="157"/>
+      <c r="HS4" s="158"/>
+      <c r="HT4" s="156" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="160"/>
-      <c r="HV4" s="160"/>
-      <c r="HW4" s="160"/>
-      <c r="HX4" s="160"/>
-      <c r="HY4" s="160"/>
-      <c r="HZ4" s="161"/>
-      <c r="IA4" s="159" t="str">
+      <c r="HU4" s="157"/>
+      <c r="HV4" s="157"/>
+      <c r="HW4" s="157"/>
+      <c r="HX4" s="157"/>
+      <c r="HY4" s="157"/>
+      <c r="HZ4" s="158"/>
+      <c r="IA4" s="156" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="160"/>
-      <c r="IC4" s="160"/>
-      <c r="ID4" s="160"/>
-      <c r="IE4" s="160"/>
-      <c r="IF4" s="160"/>
-      <c r="IG4" s="161"/>
-      <c r="IH4" s="159" t="str">
+      <c r="IB4" s="157"/>
+      <c r="IC4" s="157"/>
+      <c r="ID4" s="157"/>
+      <c r="IE4" s="157"/>
+      <c r="IF4" s="157"/>
+      <c r="IG4" s="158"/>
+      <c r="IH4" s="156" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="160"/>
-      <c r="IJ4" s="160"/>
-      <c r="IK4" s="160"/>
-      <c r="IL4" s="160"/>
-      <c r="IM4" s="160"/>
-      <c r="IN4" s="161"/>
-      <c r="IO4" s="159" t="str">
+      <c r="II4" s="157"/>
+      <c r="IJ4" s="157"/>
+      <c r="IK4" s="157"/>
+      <c r="IL4" s="157"/>
+      <c r="IM4" s="157"/>
+      <c r="IN4" s="158"/>
+      <c r="IO4" s="156" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="160"/>
-      <c r="IQ4" s="160"/>
-      <c r="IR4" s="160"/>
-      <c r="IS4" s="160"/>
-      <c r="IT4" s="160"/>
-      <c r="IU4" s="161"/>
+      <c r="IP4" s="157"/>
+      <c r="IQ4" s="157"/>
+      <c r="IR4" s="157"/>
+      <c r="IS4" s="157"/>
+      <c r="IT4" s="157"/>
+      <c r="IU4" s="158"/>
     </row>
     <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="169"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="170">
+      <c r="K5" s="174">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="174">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="173">
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="177">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="175">
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="162">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="177">
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="164">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="156">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="158"/>
-      <c r="BH5" s="162">
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="159">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="163"/>
-      <c r="BO5" s="156">
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="161"/>
+      <c r="BO5" s="166">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="158"/>
-      <c r="BV5" s="162">
+      <c r="BP5" s="160"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="160"/>
+      <c r="BS5" s="160"/>
+      <c r="BT5" s="160"/>
+      <c r="BU5" s="167"/>
+      <c r="BV5" s="159">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="157"/>
-      <c r="BX5" s="157"/>
-      <c r="BY5" s="157"/>
-      <c r="BZ5" s="157"/>
-      <c r="CA5" s="157"/>
-      <c r="CB5" s="163"/>
-      <c r="CC5" s="162">
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="161"/>
+      <c r="CC5" s="159">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="157"/>
-      <c r="CE5" s="157"/>
-      <c r="CF5" s="157"/>
-      <c r="CG5" s="157"/>
-      <c r="CH5" s="157"/>
-      <c r="CI5" s="163"/>
-      <c r="CJ5" s="156">
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="161"/>
+      <c r="CJ5" s="166">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="157"/>
-      <c r="CL5" s="157"/>
-      <c r="CM5" s="157"/>
-      <c r="CN5" s="157"/>
-      <c r="CO5" s="157"/>
-      <c r="CP5" s="158"/>
-      <c r="CQ5" s="162">
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
+      <c r="CM5" s="160"/>
+      <c r="CN5" s="160"/>
+      <c r="CO5" s="160"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="159">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="157"/>
-      <c r="CS5" s="157"/>
-      <c r="CT5" s="157"/>
-      <c r="CU5" s="157"/>
-      <c r="CV5" s="157"/>
-      <c r="CW5" s="163"/>
-      <c r="CX5" s="162">
+      <c r="CR5" s="160"/>
+      <c r="CS5" s="160"/>
+      <c r="CT5" s="160"/>
+      <c r="CU5" s="160"/>
+      <c r="CV5" s="160"/>
+      <c r="CW5" s="161"/>
+      <c r="CX5" s="159">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="157"/>
-      <c r="CZ5" s="157"/>
-      <c r="DA5" s="157"/>
-      <c r="DB5" s="157"/>
-      <c r="DC5" s="157"/>
-      <c r="DD5" s="163"/>
-      <c r="DE5" s="156">
+      <c r="CY5" s="160"/>
+      <c r="CZ5" s="160"/>
+      <c r="DA5" s="160"/>
+      <c r="DB5" s="160"/>
+      <c r="DC5" s="160"/>
+      <c r="DD5" s="161"/>
+      <c r="DE5" s="166">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="157"/>
-      <c r="DG5" s="157"/>
-      <c r="DH5" s="157"/>
-      <c r="DI5" s="157"/>
-      <c r="DJ5" s="157"/>
-      <c r="DK5" s="158"/>
-      <c r="DL5" s="162">
+      <c r="DF5" s="160"/>
+      <c r="DG5" s="160"/>
+      <c r="DH5" s="160"/>
+      <c r="DI5" s="160"/>
+      <c r="DJ5" s="160"/>
+      <c r="DK5" s="167"/>
+      <c r="DL5" s="159">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="157"/>
-      <c r="DN5" s="157"/>
-      <c r="DO5" s="157"/>
-      <c r="DP5" s="157"/>
-      <c r="DQ5" s="157"/>
-      <c r="DR5" s="163"/>
-      <c r="DS5" s="162">
+      <c r="DM5" s="160"/>
+      <c r="DN5" s="160"/>
+      <c r="DO5" s="160"/>
+      <c r="DP5" s="160"/>
+      <c r="DQ5" s="160"/>
+      <c r="DR5" s="161"/>
+      <c r="DS5" s="159">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="157"/>
-      <c r="DU5" s="157"/>
-      <c r="DV5" s="157"/>
-      <c r="DW5" s="157"/>
-      <c r="DX5" s="157"/>
-      <c r="DY5" s="163"/>
-      <c r="DZ5" s="156">
+      <c r="DT5" s="160"/>
+      <c r="DU5" s="160"/>
+      <c r="DV5" s="160"/>
+      <c r="DW5" s="160"/>
+      <c r="DX5" s="160"/>
+      <c r="DY5" s="161"/>
+      <c r="DZ5" s="166">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="157"/>
-      <c r="EB5" s="157"/>
-      <c r="EC5" s="157"/>
-      <c r="ED5" s="157"/>
-      <c r="EE5" s="157"/>
-      <c r="EF5" s="158"/>
-      <c r="EG5" s="162">
+      <c r="EA5" s="160"/>
+      <c r="EB5" s="160"/>
+      <c r="EC5" s="160"/>
+      <c r="ED5" s="160"/>
+      <c r="EE5" s="160"/>
+      <c r="EF5" s="167"/>
+      <c r="EG5" s="159">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="157"/>
-      <c r="EI5" s="157"/>
-      <c r="EJ5" s="157"/>
-      <c r="EK5" s="157"/>
-      <c r="EL5" s="157"/>
-      <c r="EM5" s="163"/>
-      <c r="EN5" s="162">
+      <c r="EH5" s="160"/>
+      <c r="EI5" s="160"/>
+      <c r="EJ5" s="160"/>
+      <c r="EK5" s="160"/>
+      <c r="EL5" s="160"/>
+      <c r="EM5" s="161"/>
+      <c r="EN5" s="159">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="157"/>
-      <c r="EP5" s="157"/>
-      <c r="EQ5" s="157"/>
-      <c r="ER5" s="157"/>
-      <c r="ES5" s="157"/>
-      <c r="ET5" s="163"/>
-      <c r="EU5" s="156">
+      <c r="EO5" s="160"/>
+      <c r="EP5" s="160"/>
+      <c r="EQ5" s="160"/>
+      <c r="ER5" s="160"/>
+      <c r="ES5" s="160"/>
+      <c r="ET5" s="161"/>
+      <c r="EU5" s="166">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="157"/>
-      <c r="EW5" s="157"/>
-      <c r="EX5" s="157"/>
-      <c r="EY5" s="157"/>
-      <c r="EZ5" s="157"/>
-      <c r="FA5" s="158"/>
-      <c r="FB5" s="162">
+      <c r="EV5" s="160"/>
+      <c r="EW5" s="160"/>
+      <c r="EX5" s="160"/>
+      <c r="EY5" s="160"/>
+      <c r="EZ5" s="160"/>
+      <c r="FA5" s="167"/>
+      <c r="FB5" s="159">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="157"/>
-      <c r="FD5" s="157"/>
-      <c r="FE5" s="157"/>
-      <c r="FF5" s="157"/>
-      <c r="FG5" s="157"/>
-      <c r="FH5" s="163"/>
-      <c r="FI5" s="162">
+      <c r="FC5" s="160"/>
+      <c r="FD5" s="160"/>
+      <c r="FE5" s="160"/>
+      <c r="FF5" s="160"/>
+      <c r="FG5" s="160"/>
+      <c r="FH5" s="161"/>
+      <c r="FI5" s="159">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="157"/>
-      <c r="FK5" s="157"/>
-      <c r="FL5" s="157"/>
-      <c r="FM5" s="157"/>
-      <c r="FN5" s="157"/>
-      <c r="FO5" s="163"/>
-      <c r="FP5" s="156">
+      <c r="FJ5" s="160"/>
+      <c r="FK5" s="160"/>
+      <c r="FL5" s="160"/>
+      <c r="FM5" s="160"/>
+      <c r="FN5" s="160"/>
+      <c r="FO5" s="161"/>
+      <c r="FP5" s="166">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="157"/>
-      <c r="FR5" s="157"/>
-      <c r="FS5" s="157"/>
-      <c r="FT5" s="157"/>
-      <c r="FU5" s="157"/>
-      <c r="FV5" s="158"/>
-      <c r="FW5" s="162">
+      <c r="FQ5" s="160"/>
+      <c r="FR5" s="160"/>
+      <c r="FS5" s="160"/>
+      <c r="FT5" s="160"/>
+      <c r="FU5" s="160"/>
+      <c r="FV5" s="167"/>
+      <c r="FW5" s="159">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="157"/>
-      <c r="FY5" s="157"/>
-      <c r="FZ5" s="157"/>
-      <c r="GA5" s="157"/>
-      <c r="GB5" s="157"/>
-      <c r="GC5" s="163"/>
-      <c r="GD5" s="162">
+      <c r="FX5" s="160"/>
+      <c r="FY5" s="160"/>
+      <c r="FZ5" s="160"/>
+      <c r="GA5" s="160"/>
+      <c r="GB5" s="160"/>
+      <c r="GC5" s="161"/>
+      <c r="GD5" s="159">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="157"/>
-      <c r="GF5" s="157"/>
-      <c r="GG5" s="157"/>
-      <c r="GH5" s="157"/>
-      <c r="GI5" s="157"/>
-      <c r="GJ5" s="163"/>
-      <c r="GK5" s="156">
+      <c r="GE5" s="160"/>
+      <c r="GF5" s="160"/>
+      <c r="GG5" s="160"/>
+      <c r="GH5" s="160"/>
+      <c r="GI5" s="160"/>
+      <c r="GJ5" s="161"/>
+      <c r="GK5" s="166">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="157"/>
-      <c r="GM5" s="157"/>
-      <c r="GN5" s="157"/>
-      <c r="GO5" s="157"/>
-      <c r="GP5" s="157"/>
-      <c r="GQ5" s="158"/>
-      <c r="GR5" s="162">
+      <c r="GL5" s="160"/>
+      <c r="GM5" s="160"/>
+      <c r="GN5" s="160"/>
+      <c r="GO5" s="160"/>
+      <c r="GP5" s="160"/>
+      <c r="GQ5" s="167"/>
+      <c r="GR5" s="159">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="157"/>
-      <c r="GT5" s="157"/>
-      <c r="GU5" s="157"/>
-      <c r="GV5" s="157"/>
-      <c r="GW5" s="157"/>
-      <c r="GX5" s="163"/>
-      <c r="GY5" s="156">
+      <c r="GS5" s="160"/>
+      <c r="GT5" s="160"/>
+      <c r="GU5" s="160"/>
+      <c r="GV5" s="160"/>
+      <c r="GW5" s="160"/>
+      <c r="GX5" s="161"/>
+      <c r="GY5" s="166">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="157"/>
-      <c r="HA5" s="157"/>
-      <c r="HB5" s="157"/>
-      <c r="HC5" s="157"/>
-      <c r="HD5" s="157"/>
-      <c r="HE5" s="158"/>
-      <c r="HF5" s="162">
+      <c r="GZ5" s="160"/>
+      <c r="HA5" s="160"/>
+      <c r="HB5" s="160"/>
+      <c r="HC5" s="160"/>
+      <c r="HD5" s="160"/>
+      <c r="HE5" s="167"/>
+      <c r="HF5" s="159">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="157"/>
-      <c r="HH5" s="157"/>
-      <c r="HI5" s="157"/>
-      <c r="HJ5" s="157"/>
-      <c r="HK5" s="157"/>
-      <c r="HL5" s="163"/>
-      <c r="HM5" s="156">
+      <c r="HG5" s="160"/>
+      <c r="HH5" s="160"/>
+      <c r="HI5" s="160"/>
+      <c r="HJ5" s="160"/>
+      <c r="HK5" s="160"/>
+      <c r="HL5" s="161"/>
+      <c r="HM5" s="166">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="157"/>
-      <c r="HO5" s="157"/>
-      <c r="HP5" s="157"/>
-      <c r="HQ5" s="157"/>
-      <c r="HR5" s="157"/>
-      <c r="HS5" s="158"/>
-      <c r="HT5" s="162">
+      <c r="HN5" s="160"/>
+      <c r="HO5" s="160"/>
+      <c r="HP5" s="160"/>
+      <c r="HQ5" s="160"/>
+      <c r="HR5" s="160"/>
+      <c r="HS5" s="167"/>
+      <c r="HT5" s="159">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="157"/>
-      <c r="HV5" s="157"/>
-      <c r="HW5" s="157"/>
-      <c r="HX5" s="157"/>
-      <c r="HY5" s="157"/>
-      <c r="HZ5" s="163"/>
-      <c r="IA5" s="156">
+      <c r="HU5" s="160"/>
+      <c r="HV5" s="160"/>
+      <c r="HW5" s="160"/>
+      <c r="HX5" s="160"/>
+      <c r="HY5" s="160"/>
+      <c r="HZ5" s="161"/>
+      <c r="IA5" s="166">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="157"/>
-      <c r="IC5" s="157"/>
-      <c r="ID5" s="157"/>
-      <c r="IE5" s="157"/>
-      <c r="IF5" s="157"/>
-      <c r="IG5" s="158"/>
-      <c r="IH5" s="162">
+      <c r="IB5" s="160"/>
+      <c r="IC5" s="160"/>
+      <c r="ID5" s="160"/>
+      <c r="IE5" s="160"/>
+      <c r="IF5" s="160"/>
+      <c r="IG5" s="167"/>
+      <c r="IH5" s="159">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="157"/>
-      <c r="IJ5" s="157"/>
-      <c r="IK5" s="157"/>
-      <c r="IL5" s="157"/>
-      <c r="IM5" s="157"/>
-      <c r="IN5" s="163"/>
-      <c r="IO5" s="156">
+      <c r="II5" s="160"/>
+      <c r="IJ5" s="160"/>
+      <c r="IK5" s="160"/>
+      <c r="IL5" s="160"/>
+      <c r="IM5" s="160"/>
+      <c r="IN5" s="161"/>
+      <c r="IO5" s="166">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="157"/>
-      <c r="IQ5" s="157"/>
-      <c r="IR5" s="157"/>
-      <c r="IS5" s="157"/>
-      <c r="IT5" s="157"/>
-      <c r="IU5" s="158"/>
+      <c r="IP5" s="160"/>
+      <c r="IQ5" s="160"/>
+      <c r="IR5" s="160"/>
+      <c r="IS5" s="160"/>
+      <c r="IT5" s="160"/>
+      <c r="IU5" s="167"/>
     </row>
     <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="146"/>
@@ -15777,49 +15777,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15836,20 +15807,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H36:H40 H8:H33">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D37CE9-B61F-4BA5-AC1D-A36831060600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FBFBD-5CCA-49FA-B834-364F76DC0F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3263,6 +3263,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3275,28 +3284,7 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3333,6 +3321,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4175,9 +4175,9 @@
   </sheetPr>
   <dimension ref="A1:IU43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF38" sqref="AF38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -4255,21 +4255,21 @@
       <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
     </row>
     <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
@@ -4349,729 +4349,729 @@
       <c r="B4" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="167">
         <v>45295</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
       <c r="H4" s="113" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="156" t="str">
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="159" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="156" t="str">
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="159" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="156" t="str">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="159" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="157"/>
-      <c r="AH4" s="157"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="156" t="str">
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160"/>
+      <c r="AJ4" s="160"/>
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="159" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="157"/>
-      <c r="AP4" s="157"/>
-      <c r="AQ4" s="157"/>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="156" t="str">
+      <c r="AN4" s="160"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="159" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="157"/>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="156" t="str">
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160"/>
+      <c r="AZ4" s="161"/>
+      <c r="BA4" s="159" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="157"/>
-      <c r="BC4" s="157"/>
-      <c r="BD4" s="157"/>
-      <c r="BE4" s="157"/>
-      <c r="BF4" s="157"/>
-      <c r="BG4" s="158"/>
-      <c r="BH4" s="156" t="str">
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="161"/>
+      <c r="BH4" s="159" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="157"/>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="158"/>
-      <c r="BO4" s="156" t="str">
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="160"/>
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="160"/>
+      <c r="BN4" s="161"/>
+      <c r="BO4" s="159" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="157"/>
-      <c r="BS4" s="157"/>
-      <c r="BT4" s="157"/>
-      <c r="BU4" s="158"/>
-      <c r="BV4" s="156" t="str">
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="161"/>
+      <c r="BV4" s="159" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="157"/>
-      <c r="BX4" s="157"/>
-      <c r="BY4" s="157"/>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="157"/>
-      <c r="CB4" s="158"/>
-      <c r="CC4" s="156" t="str">
+      <c r="BW4" s="160"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="160"/>
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="161"/>
+      <c r="CC4" s="159" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="157"/>
-      <c r="CE4" s="157"/>
-      <c r="CF4" s="157"/>
-      <c r="CG4" s="157"/>
-      <c r="CH4" s="157"/>
-      <c r="CI4" s="158"/>
-      <c r="CJ4" s="156" t="str">
+      <c r="CD4" s="160"/>
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="160"/>
+      <c r="CG4" s="160"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="161"/>
+      <c r="CJ4" s="159" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="157"/>
-      <c r="CL4" s="157"/>
-      <c r="CM4" s="157"/>
-      <c r="CN4" s="157"/>
-      <c r="CO4" s="157"/>
-      <c r="CP4" s="158"/>
-      <c r="CQ4" s="156" t="str">
+      <c r="CK4" s="160"/>
+      <c r="CL4" s="160"/>
+      <c r="CM4" s="160"/>
+      <c r="CN4" s="160"/>
+      <c r="CO4" s="160"/>
+      <c r="CP4" s="161"/>
+      <c r="CQ4" s="159" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="157"/>
-      <c r="CS4" s="157"/>
-      <c r="CT4" s="157"/>
-      <c r="CU4" s="157"/>
-      <c r="CV4" s="157"/>
-      <c r="CW4" s="158"/>
-      <c r="CX4" s="156" t="str">
+      <c r="CR4" s="160"/>
+      <c r="CS4" s="160"/>
+      <c r="CT4" s="160"/>
+      <c r="CU4" s="160"/>
+      <c r="CV4" s="160"/>
+      <c r="CW4" s="161"/>
+      <c r="CX4" s="159" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="157"/>
-      <c r="CZ4" s="157"/>
-      <c r="DA4" s="157"/>
-      <c r="DB4" s="157"/>
-      <c r="DC4" s="157"/>
-      <c r="DD4" s="158"/>
-      <c r="DE4" s="156" t="str">
+      <c r="CY4" s="160"/>
+      <c r="CZ4" s="160"/>
+      <c r="DA4" s="160"/>
+      <c r="DB4" s="160"/>
+      <c r="DC4" s="160"/>
+      <c r="DD4" s="161"/>
+      <c r="DE4" s="159" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="157"/>
-      <c r="DG4" s="157"/>
-      <c r="DH4" s="157"/>
-      <c r="DI4" s="157"/>
-      <c r="DJ4" s="157"/>
-      <c r="DK4" s="158"/>
-      <c r="DL4" s="156" t="str">
+      <c r="DF4" s="160"/>
+      <c r="DG4" s="160"/>
+      <c r="DH4" s="160"/>
+      <c r="DI4" s="160"/>
+      <c r="DJ4" s="160"/>
+      <c r="DK4" s="161"/>
+      <c r="DL4" s="159" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="157"/>
-      <c r="DN4" s="157"/>
-      <c r="DO4" s="157"/>
-      <c r="DP4" s="157"/>
-      <c r="DQ4" s="157"/>
-      <c r="DR4" s="158"/>
-      <c r="DS4" s="156" t="str">
+      <c r="DM4" s="160"/>
+      <c r="DN4" s="160"/>
+      <c r="DO4" s="160"/>
+      <c r="DP4" s="160"/>
+      <c r="DQ4" s="160"/>
+      <c r="DR4" s="161"/>
+      <c r="DS4" s="159" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="157"/>
-      <c r="DU4" s="157"/>
-      <c r="DV4" s="157"/>
-      <c r="DW4" s="157"/>
-      <c r="DX4" s="157"/>
-      <c r="DY4" s="158"/>
-      <c r="DZ4" s="156" t="str">
+      <c r="DT4" s="160"/>
+      <c r="DU4" s="160"/>
+      <c r="DV4" s="160"/>
+      <c r="DW4" s="160"/>
+      <c r="DX4" s="160"/>
+      <c r="DY4" s="161"/>
+      <c r="DZ4" s="159" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="157"/>
-      <c r="EB4" s="157"/>
-      <c r="EC4" s="157"/>
-      <c r="ED4" s="157"/>
-      <c r="EE4" s="157"/>
-      <c r="EF4" s="158"/>
-      <c r="EG4" s="156" t="str">
+      <c r="EA4" s="160"/>
+      <c r="EB4" s="160"/>
+      <c r="EC4" s="160"/>
+      <c r="ED4" s="160"/>
+      <c r="EE4" s="160"/>
+      <c r="EF4" s="161"/>
+      <c r="EG4" s="159" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="157"/>
-      <c r="EI4" s="157"/>
-      <c r="EJ4" s="157"/>
-      <c r="EK4" s="157"/>
-      <c r="EL4" s="157"/>
-      <c r="EM4" s="158"/>
-      <c r="EN4" s="156" t="str">
+      <c r="EH4" s="160"/>
+      <c r="EI4" s="160"/>
+      <c r="EJ4" s="160"/>
+      <c r="EK4" s="160"/>
+      <c r="EL4" s="160"/>
+      <c r="EM4" s="161"/>
+      <c r="EN4" s="159" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="157"/>
-      <c r="EP4" s="157"/>
-      <c r="EQ4" s="157"/>
-      <c r="ER4" s="157"/>
-      <c r="ES4" s="157"/>
-      <c r="ET4" s="158"/>
-      <c r="EU4" s="156" t="str">
+      <c r="EO4" s="160"/>
+      <c r="EP4" s="160"/>
+      <c r="EQ4" s="160"/>
+      <c r="ER4" s="160"/>
+      <c r="ES4" s="160"/>
+      <c r="ET4" s="161"/>
+      <c r="EU4" s="159" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="157"/>
-      <c r="EW4" s="157"/>
-      <c r="EX4" s="157"/>
-      <c r="EY4" s="157"/>
-      <c r="EZ4" s="157"/>
-      <c r="FA4" s="158"/>
-      <c r="FB4" s="156" t="str">
+      <c r="EV4" s="160"/>
+      <c r="EW4" s="160"/>
+      <c r="EX4" s="160"/>
+      <c r="EY4" s="160"/>
+      <c r="EZ4" s="160"/>
+      <c r="FA4" s="161"/>
+      <c r="FB4" s="159" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="157"/>
-      <c r="FD4" s="157"/>
-      <c r="FE4" s="157"/>
-      <c r="FF4" s="157"/>
-      <c r="FG4" s="157"/>
-      <c r="FH4" s="158"/>
-      <c r="FI4" s="156" t="str">
+      <c r="FC4" s="160"/>
+      <c r="FD4" s="160"/>
+      <c r="FE4" s="160"/>
+      <c r="FF4" s="160"/>
+      <c r="FG4" s="160"/>
+      <c r="FH4" s="161"/>
+      <c r="FI4" s="159" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="157"/>
-      <c r="FK4" s="157"/>
-      <c r="FL4" s="157"/>
-      <c r="FM4" s="157"/>
-      <c r="FN4" s="157"/>
-      <c r="FO4" s="158"/>
-      <c r="FP4" s="156" t="str">
+      <c r="FJ4" s="160"/>
+      <c r="FK4" s="160"/>
+      <c r="FL4" s="160"/>
+      <c r="FM4" s="160"/>
+      <c r="FN4" s="160"/>
+      <c r="FO4" s="161"/>
+      <c r="FP4" s="159" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="157"/>
-      <c r="FR4" s="157"/>
-      <c r="FS4" s="157"/>
-      <c r="FT4" s="157"/>
-      <c r="FU4" s="157"/>
-      <c r="FV4" s="158"/>
-      <c r="FW4" s="156" t="str">
+      <c r="FQ4" s="160"/>
+      <c r="FR4" s="160"/>
+      <c r="FS4" s="160"/>
+      <c r="FT4" s="160"/>
+      <c r="FU4" s="160"/>
+      <c r="FV4" s="161"/>
+      <c r="FW4" s="159" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="157"/>
-      <c r="FY4" s="157"/>
-      <c r="FZ4" s="157"/>
-      <c r="GA4" s="157"/>
-      <c r="GB4" s="157"/>
-      <c r="GC4" s="158"/>
-      <c r="GD4" s="156" t="str">
+      <c r="FX4" s="160"/>
+      <c r="FY4" s="160"/>
+      <c r="FZ4" s="160"/>
+      <c r="GA4" s="160"/>
+      <c r="GB4" s="160"/>
+      <c r="GC4" s="161"/>
+      <c r="GD4" s="159" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="157"/>
-      <c r="GF4" s="157"/>
-      <c r="GG4" s="157"/>
-      <c r="GH4" s="157"/>
-      <c r="GI4" s="157"/>
-      <c r="GJ4" s="158"/>
-      <c r="GK4" s="156" t="str">
+      <c r="GE4" s="160"/>
+      <c r="GF4" s="160"/>
+      <c r="GG4" s="160"/>
+      <c r="GH4" s="160"/>
+      <c r="GI4" s="160"/>
+      <c r="GJ4" s="161"/>
+      <c r="GK4" s="159" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="157"/>
-      <c r="GM4" s="157"/>
-      <c r="GN4" s="157"/>
-      <c r="GO4" s="157"/>
-      <c r="GP4" s="157"/>
-      <c r="GQ4" s="158"/>
-      <c r="GR4" s="156" t="str">
+      <c r="GL4" s="160"/>
+      <c r="GM4" s="160"/>
+      <c r="GN4" s="160"/>
+      <c r="GO4" s="160"/>
+      <c r="GP4" s="160"/>
+      <c r="GQ4" s="161"/>
+      <c r="GR4" s="159" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="157"/>
-      <c r="GT4" s="157"/>
-      <c r="GU4" s="157"/>
-      <c r="GV4" s="157"/>
-      <c r="GW4" s="157"/>
-      <c r="GX4" s="158"/>
-      <c r="GY4" s="156" t="str">
+      <c r="GS4" s="160"/>
+      <c r="GT4" s="160"/>
+      <c r="GU4" s="160"/>
+      <c r="GV4" s="160"/>
+      <c r="GW4" s="160"/>
+      <c r="GX4" s="161"/>
+      <c r="GY4" s="159" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="157"/>
-      <c r="HA4" s="157"/>
-      <c r="HB4" s="157"/>
-      <c r="HC4" s="157"/>
-      <c r="HD4" s="157"/>
-      <c r="HE4" s="158"/>
-      <c r="HF4" s="156" t="str">
+      <c r="GZ4" s="160"/>
+      <c r="HA4" s="160"/>
+      <c r="HB4" s="160"/>
+      <c r="HC4" s="160"/>
+      <c r="HD4" s="160"/>
+      <c r="HE4" s="161"/>
+      <c r="HF4" s="159" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="157"/>
-      <c r="HH4" s="157"/>
-      <c r="HI4" s="157"/>
-      <c r="HJ4" s="157"/>
-      <c r="HK4" s="157"/>
-      <c r="HL4" s="158"/>
-      <c r="HM4" s="156" t="str">
+      <c r="HG4" s="160"/>
+      <c r="HH4" s="160"/>
+      <c r="HI4" s="160"/>
+      <c r="HJ4" s="160"/>
+      <c r="HK4" s="160"/>
+      <c r="HL4" s="161"/>
+      <c r="HM4" s="159" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="157"/>
-      <c r="HO4" s="157"/>
-      <c r="HP4" s="157"/>
-      <c r="HQ4" s="157"/>
-      <c r="HR4" s="157"/>
-      <c r="HS4" s="158"/>
-      <c r="HT4" s="156" t="str">
+      <c r="HN4" s="160"/>
+      <c r="HO4" s="160"/>
+      <c r="HP4" s="160"/>
+      <c r="HQ4" s="160"/>
+      <c r="HR4" s="160"/>
+      <c r="HS4" s="161"/>
+      <c r="HT4" s="159" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="157"/>
-      <c r="HV4" s="157"/>
-      <c r="HW4" s="157"/>
-      <c r="HX4" s="157"/>
-      <c r="HY4" s="157"/>
-      <c r="HZ4" s="158"/>
-      <c r="IA4" s="156" t="str">
+      <c r="HU4" s="160"/>
+      <c r="HV4" s="160"/>
+      <c r="HW4" s="160"/>
+      <c r="HX4" s="160"/>
+      <c r="HY4" s="160"/>
+      <c r="HZ4" s="161"/>
+      <c r="IA4" s="159" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="157"/>
-      <c r="IC4" s="157"/>
-      <c r="ID4" s="157"/>
-      <c r="IE4" s="157"/>
-      <c r="IF4" s="157"/>
-      <c r="IG4" s="158"/>
-      <c r="IH4" s="156" t="str">
+      <c r="IB4" s="160"/>
+      <c r="IC4" s="160"/>
+      <c r="ID4" s="160"/>
+      <c r="IE4" s="160"/>
+      <c r="IF4" s="160"/>
+      <c r="IG4" s="161"/>
+      <c r="IH4" s="159" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="157"/>
-      <c r="IJ4" s="157"/>
-      <c r="IK4" s="157"/>
-      <c r="IL4" s="157"/>
-      <c r="IM4" s="157"/>
-      <c r="IN4" s="158"/>
-      <c r="IO4" s="156" t="str">
+      <c r="II4" s="160"/>
+      <c r="IJ4" s="160"/>
+      <c r="IK4" s="160"/>
+      <c r="IL4" s="160"/>
+      <c r="IM4" s="160"/>
+      <c r="IN4" s="161"/>
+      <c r="IO4" s="159" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="157"/>
-      <c r="IQ4" s="157"/>
-      <c r="IR4" s="157"/>
-      <c r="IS4" s="157"/>
-      <c r="IT4" s="157"/>
-      <c r="IU4" s="158"/>
+      <c r="IP4" s="160"/>
+      <c r="IQ4" s="160"/>
+      <c r="IR4" s="160"/>
+      <c r="IS4" s="160"/>
+      <c r="IT4" s="160"/>
+      <c r="IU4" s="161"/>
     </row>
     <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="174">
+      <c r="K5" s="170">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="174">
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="170">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="177">
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="173">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="169">
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="165">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="162">
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="175">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="163"/>
-      <c r="AT5" s="164">
+      <c r="AN5" s="157"/>
+      <c r="AO5" s="157"/>
+      <c r="AP5" s="157"/>
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="177">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="157"/>
+      <c r="AV5" s="157"/>
+      <c r="AW5" s="157"/>
+      <c r="AX5" s="157"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="156">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="160"/>
-      <c r="BC5" s="160"/>
-      <c r="BD5" s="160"/>
-      <c r="BE5" s="160"/>
-      <c r="BF5" s="160"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="159">
+      <c r="BB5" s="157"/>
+      <c r="BC5" s="157"/>
+      <c r="BD5" s="157"/>
+      <c r="BE5" s="157"/>
+      <c r="BF5" s="157"/>
+      <c r="BG5" s="158"/>
+      <c r="BH5" s="162">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="160"/>
-      <c r="BJ5" s="160"/>
-      <c r="BK5" s="160"/>
-      <c r="BL5" s="160"/>
-      <c r="BM5" s="160"/>
-      <c r="BN5" s="161"/>
-      <c r="BO5" s="166">
+      <c r="BI5" s="157"/>
+      <c r="BJ5" s="157"/>
+      <c r="BK5" s="157"/>
+      <c r="BL5" s="157"/>
+      <c r="BM5" s="157"/>
+      <c r="BN5" s="163"/>
+      <c r="BO5" s="156">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="160"/>
-      <c r="BQ5" s="160"/>
-      <c r="BR5" s="160"/>
-      <c r="BS5" s="160"/>
-      <c r="BT5" s="160"/>
-      <c r="BU5" s="167"/>
-      <c r="BV5" s="159">
+      <c r="BP5" s="157"/>
+      <c r="BQ5" s="157"/>
+      <c r="BR5" s="157"/>
+      <c r="BS5" s="157"/>
+      <c r="BT5" s="157"/>
+      <c r="BU5" s="158"/>
+      <c r="BV5" s="162">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="160"/>
-      <c r="BX5" s="160"/>
-      <c r="BY5" s="160"/>
-      <c r="BZ5" s="160"/>
-      <c r="CA5" s="160"/>
-      <c r="CB5" s="161"/>
-      <c r="CC5" s="159">
+      <c r="BW5" s="157"/>
+      <c r="BX5" s="157"/>
+      <c r="BY5" s="157"/>
+      <c r="BZ5" s="157"/>
+      <c r="CA5" s="157"/>
+      <c r="CB5" s="163"/>
+      <c r="CC5" s="162">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="160"/>
-      <c r="CE5" s="160"/>
-      <c r="CF5" s="160"/>
-      <c r="CG5" s="160"/>
-      <c r="CH5" s="160"/>
-      <c r="CI5" s="161"/>
-      <c r="CJ5" s="166">
+      <c r="CD5" s="157"/>
+      <c r="CE5" s="157"/>
+      <c r="CF5" s="157"/>
+      <c r="CG5" s="157"/>
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="163"/>
+      <c r="CJ5" s="156">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="160"/>
-      <c r="CL5" s="160"/>
-      <c r="CM5" s="160"/>
-      <c r="CN5" s="160"/>
-      <c r="CO5" s="160"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="159">
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="158"/>
+      <c r="CQ5" s="162">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="160"/>
-      <c r="CS5" s="160"/>
-      <c r="CT5" s="160"/>
-      <c r="CU5" s="160"/>
-      <c r="CV5" s="160"/>
-      <c r="CW5" s="161"/>
-      <c r="CX5" s="159">
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="163"/>
+      <c r="CX5" s="162">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="160"/>
-      <c r="CZ5" s="160"/>
-      <c r="DA5" s="160"/>
-      <c r="DB5" s="160"/>
-      <c r="DC5" s="160"/>
-      <c r="DD5" s="161"/>
-      <c r="DE5" s="166">
+      <c r="CY5" s="157"/>
+      <c r="CZ5" s="157"/>
+      <c r="DA5" s="157"/>
+      <c r="DB5" s="157"/>
+      <c r="DC5" s="157"/>
+      <c r="DD5" s="163"/>
+      <c r="DE5" s="156">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="160"/>
-      <c r="DG5" s="160"/>
-      <c r="DH5" s="160"/>
-      <c r="DI5" s="160"/>
-      <c r="DJ5" s="160"/>
-      <c r="DK5" s="167"/>
-      <c r="DL5" s="159">
+      <c r="DF5" s="157"/>
+      <c r="DG5" s="157"/>
+      <c r="DH5" s="157"/>
+      <c r="DI5" s="157"/>
+      <c r="DJ5" s="157"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="162">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="160"/>
-      <c r="DN5" s="160"/>
-      <c r="DO5" s="160"/>
-      <c r="DP5" s="160"/>
-      <c r="DQ5" s="160"/>
-      <c r="DR5" s="161"/>
-      <c r="DS5" s="159">
+      <c r="DM5" s="157"/>
+      <c r="DN5" s="157"/>
+      <c r="DO5" s="157"/>
+      <c r="DP5" s="157"/>
+      <c r="DQ5" s="157"/>
+      <c r="DR5" s="163"/>
+      <c r="DS5" s="162">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="160"/>
-      <c r="DU5" s="160"/>
-      <c r="DV5" s="160"/>
-      <c r="DW5" s="160"/>
-      <c r="DX5" s="160"/>
-      <c r="DY5" s="161"/>
-      <c r="DZ5" s="166">
+      <c r="DT5" s="157"/>
+      <c r="DU5" s="157"/>
+      <c r="DV5" s="157"/>
+      <c r="DW5" s="157"/>
+      <c r="DX5" s="157"/>
+      <c r="DY5" s="163"/>
+      <c r="DZ5" s="156">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="160"/>
-      <c r="EB5" s="160"/>
-      <c r="EC5" s="160"/>
-      <c r="ED5" s="160"/>
-      <c r="EE5" s="160"/>
-      <c r="EF5" s="167"/>
-      <c r="EG5" s="159">
+      <c r="EA5" s="157"/>
+      <c r="EB5" s="157"/>
+      <c r="EC5" s="157"/>
+      <c r="ED5" s="157"/>
+      <c r="EE5" s="157"/>
+      <c r="EF5" s="158"/>
+      <c r="EG5" s="162">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="160"/>
-      <c r="EI5" s="160"/>
-      <c r="EJ5" s="160"/>
-      <c r="EK5" s="160"/>
-      <c r="EL5" s="160"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="159">
+      <c r="EH5" s="157"/>
+      <c r="EI5" s="157"/>
+      <c r="EJ5" s="157"/>
+      <c r="EK5" s="157"/>
+      <c r="EL5" s="157"/>
+      <c r="EM5" s="163"/>
+      <c r="EN5" s="162">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="160"/>
-      <c r="EP5" s="160"/>
-      <c r="EQ5" s="160"/>
-      <c r="ER5" s="160"/>
-      <c r="ES5" s="160"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="166">
+      <c r="EO5" s="157"/>
+      <c r="EP5" s="157"/>
+      <c r="EQ5" s="157"/>
+      <c r="ER5" s="157"/>
+      <c r="ES5" s="157"/>
+      <c r="ET5" s="163"/>
+      <c r="EU5" s="156">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="160"/>
-      <c r="EW5" s="160"/>
-      <c r="EX5" s="160"/>
-      <c r="EY5" s="160"/>
-      <c r="EZ5" s="160"/>
-      <c r="FA5" s="167"/>
-      <c r="FB5" s="159">
+      <c r="EV5" s="157"/>
+      <c r="EW5" s="157"/>
+      <c r="EX5" s="157"/>
+      <c r="EY5" s="157"/>
+      <c r="EZ5" s="157"/>
+      <c r="FA5" s="158"/>
+      <c r="FB5" s="162">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="160"/>
-      <c r="FD5" s="160"/>
-      <c r="FE5" s="160"/>
-      <c r="FF5" s="160"/>
-      <c r="FG5" s="160"/>
-      <c r="FH5" s="161"/>
-      <c r="FI5" s="159">
+      <c r="FC5" s="157"/>
+      <c r="FD5" s="157"/>
+      <c r="FE5" s="157"/>
+      <c r="FF5" s="157"/>
+      <c r="FG5" s="157"/>
+      <c r="FH5" s="163"/>
+      <c r="FI5" s="162">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="160"/>
-      <c r="FK5" s="160"/>
-      <c r="FL5" s="160"/>
-      <c r="FM5" s="160"/>
-      <c r="FN5" s="160"/>
-      <c r="FO5" s="161"/>
-      <c r="FP5" s="166">
+      <c r="FJ5" s="157"/>
+      <c r="FK5" s="157"/>
+      <c r="FL5" s="157"/>
+      <c r="FM5" s="157"/>
+      <c r="FN5" s="157"/>
+      <c r="FO5" s="163"/>
+      <c r="FP5" s="156">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="160"/>
-      <c r="FR5" s="160"/>
-      <c r="FS5" s="160"/>
-      <c r="FT5" s="160"/>
-      <c r="FU5" s="160"/>
-      <c r="FV5" s="167"/>
-      <c r="FW5" s="159">
+      <c r="FQ5" s="157"/>
+      <c r="FR5" s="157"/>
+      <c r="FS5" s="157"/>
+      <c r="FT5" s="157"/>
+      <c r="FU5" s="157"/>
+      <c r="FV5" s="158"/>
+      <c r="FW5" s="162">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="160"/>
-      <c r="FY5" s="160"/>
-      <c r="FZ5" s="160"/>
-      <c r="GA5" s="160"/>
-      <c r="GB5" s="160"/>
-      <c r="GC5" s="161"/>
-      <c r="GD5" s="159">
+      <c r="FX5" s="157"/>
+      <c r="FY5" s="157"/>
+      <c r="FZ5" s="157"/>
+      <c r="GA5" s="157"/>
+      <c r="GB5" s="157"/>
+      <c r="GC5" s="163"/>
+      <c r="GD5" s="162">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="160"/>
-      <c r="GF5" s="160"/>
-      <c r="GG5" s="160"/>
-      <c r="GH5" s="160"/>
-      <c r="GI5" s="160"/>
-      <c r="GJ5" s="161"/>
-      <c r="GK5" s="166">
+      <c r="GE5" s="157"/>
+      <c r="GF5" s="157"/>
+      <c r="GG5" s="157"/>
+      <c r="GH5" s="157"/>
+      <c r="GI5" s="157"/>
+      <c r="GJ5" s="163"/>
+      <c r="GK5" s="156">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="160"/>
-      <c r="GM5" s="160"/>
-      <c r="GN5" s="160"/>
-      <c r="GO5" s="160"/>
-      <c r="GP5" s="160"/>
-      <c r="GQ5" s="167"/>
-      <c r="GR5" s="159">
+      <c r="GL5" s="157"/>
+      <c r="GM5" s="157"/>
+      <c r="GN5" s="157"/>
+      <c r="GO5" s="157"/>
+      <c r="GP5" s="157"/>
+      <c r="GQ5" s="158"/>
+      <c r="GR5" s="162">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="160"/>
-      <c r="GT5" s="160"/>
-      <c r="GU5" s="160"/>
-      <c r="GV5" s="160"/>
-      <c r="GW5" s="160"/>
-      <c r="GX5" s="161"/>
-      <c r="GY5" s="166">
+      <c r="GS5" s="157"/>
+      <c r="GT5" s="157"/>
+      <c r="GU5" s="157"/>
+      <c r="GV5" s="157"/>
+      <c r="GW5" s="157"/>
+      <c r="GX5" s="163"/>
+      <c r="GY5" s="156">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="160"/>
-      <c r="HA5" s="160"/>
-      <c r="HB5" s="160"/>
-      <c r="HC5" s="160"/>
-      <c r="HD5" s="160"/>
-      <c r="HE5" s="167"/>
-      <c r="HF5" s="159">
+      <c r="GZ5" s="157"/>
+      <c r="HA5" s="157"/>
+      <c r="HB5" s="157"/>
+      <c r="HC5" s="157"/>
+      <c r="HD5" s="157"/>
+      <c r="HE5" s="158"/>
+      <c r="HF5" s="162">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="160"/>
-      <c r="HH5" s="160"/>
-      <c r="HI5" s="160"/>
-      <c r="HJ5" s="160"/>
-      <c r="HK5" s="160"/>
-      <c r="HL5" s="161"/>
-      <c r="HM5" s="166">
+      <c r="HG5" s="157"/>
+      <c r="HH5" s="157"/>
+      <c r="HI5" s="157"/>
+      <c r="HJ5" s="157"/>
+      <c r="HK5" s="157"/>
+      <c r="HL5" s="163"/>
+      <c r="HM5" s="156">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="160"/>
-      <c r="HO5" s="160"/>
-      <c r="HP5" s="160"/>
-      <c r="HQ5" s="160"/>
-      <c r="HR5" s="160"/>
-      <c r="HS5" s="167"/>
-      <c r="HT5" s="159">
+      <c r="HN5" s="157"/>
+      <c r="HO5" s="157"/>
+      <c r="HP5" s="157"/>
+      <c r="HQ5" s="157"/>
+      <c r="HR5" s="157"/>
+      <c r="HS5" s="158"/>
+      <c r="HT5" s="162">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="160"/>
-      <c r="HV5" s="160"/>
-      <c r="HW5" s="160"/>
-      <c r="HX5" s="160"/>
-      <c r="HY5" s="160"/>
-      <c r="HZ5" s="161"/>
-      <c r="IA5" s="166">
+      <c r="HU5" s="157"/>
+      <c r="HV5" s="157"/>
+      <c r="HW5" s="157"/>
+      <c r="HX5" s="157"/>
+      <c r="HY5" s="157"/>
+      <c r="HZ5" s="163"/>
+      <c r="IA5" s="156">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="160"/>
-      <c r="IC5" s="160"/>
-      <c r="ID5" s="160"/>
-      <c r="IE5" s="160"/>
-      <c r="IF5" s="160"/>
-      <c r="IG5" s="167"/>
-      <c r="IH5" s="159">
+      <c r="IB5" s="157"/>
+      <c r="IC5" s="157"/>
+      <c r="ID5" s="157"/>
+      <c r="IE5" s="157"/>
+      <c r="IF5" s="157"/>
+      <c r="IG5" s="158"/>
+      <c r="IH5" s="162">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="160"/>
-      <c r="IJ5" s="160"/>
-      <c r="IK5" s="160"/>
-      <c r="IL5" s="160"/>
-      <c r="IM5" s="160"/>
-      <c r="IN5" s="161"/>
-      <c r="IO5" s="166">
+      <c r="II5" s="157"/>
+      <c r="IJ5" s="157"/>
+      <c r="IK5" s="157"/>
+      <c r="IL5" s="157"/>
+      <c r="IM5" s="157"/>
+      <c r="IN5" s="163"/>
+      <c r="IO5" s="156">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="160"/>
-      <c r="IQ5" s="160"/>
-      <c r="IR5" s="160"/>
-      <c r="IS5" s="160"/>
-      <c r="IT5" s="160"/>
-      <c r="IU5" s="167"/>
+      <c r="IP5" s="157"/>
+      <c r="IQ5" s="157"/>
+      <c r="IR5" s="157"/>
+      <c r="IS5" s="157"/>
+      <c r="IT5" s="157"/>
+      <c r="IU5" s="158"/>
     </row>
     <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="146"/>
@@ -8715,7 +8715,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="46">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="102">
         <f t="shared" si="256"/>
@@ -15777,20 +15777,49 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15807,49 +15836,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H36:H40 H8:H33">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FBFBD-5CCA-49FA-B834-364F76DC0F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD24E9CA-444A-43B2-8D11-584EC6EB0A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3263,15 +3263,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3284,7 +3275,28 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3321,18 +3333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4177,7 +4177,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC16" sqref="AC16"/>
+      <selection pane="bottomLeft" activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -4255,21 +4255,21 @@
       <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="164"/>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
     </row>
     <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
@@ -4349,729 +4349,729 @@
       <c r="B4" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="171">
         <v>45295</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="H4" s="113" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="159" t="str">
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="156" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="159" t="str">
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="156" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="159" t="str">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="156" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="159" t="str">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="156" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="159" t="str">
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="156" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="159" t="str">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="156" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="159" t="str">
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="156" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="161"/>
-      <c r="BO4" s="159" t="str">
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="156" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="161"/>
-      <c r="BV4" s="159" t="str">
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="156" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="161"/>
-      <c r="CC4" s="159" t="str">
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="157"/>
+      <c r="BY4" s="157"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="158"/>
+      <c r="CC4" s="156" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="160"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="161"/>
-      <c r="CJ4" s="159" t="str">
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="157"/>
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="157"/>
+      <c r="CH4" s="157"/>
+      <c r="CI4" s="158"/>
+      <c r="CJ4" s="156" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-      <c r="CM4" s="160"/>
-      <c r="CN4" s="160"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="161"/>
-      <c r="CQ4" s="159" t="str">
+      <c r="CK4" s="157"/>
+      <c r="CL4" s="157"/>
+      <c r="CM4" s="157"/>
+      <c r="CN4" s="157"/>
+      <c r="CO4" s="157"/>
+      <c r="CP4" s="158"/>
+      <c r="CQ4" s="156" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="160"/>
-      <c r="CS4" s="160"/>
-      <c r="CT4" s="160"/>
-      <c r="CU4" s="160"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="161"/>
-      <c r="CX4" s="159" t="str">
+      <c r="CR4" s="157"/>
+      <c r="CS4" s="157"/>
+      <c r="CT4" s="157"/>
+      <c r="CU4" s="157"/>
+      <c r="CV4" s="157"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="156" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="160"/>
-      <c r="CZ4" s="160"/>
-      <c r="DA4" s="160"/>
-      <c r="DB4" s="160"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="161"/>
-      <c r="DE4" s="159" t="str">
+      <c r="CY4" s="157"/>
+      <c r="CZ4" s="157"/>
+      <c r="DA4" s="157"/>
+      <c r="DB4" s="157"/>
+      <c r="DC4" s="157"/>
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="156" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="160"/>
-      <c r="DG4" s="160"/>
-      <c r="DH4" s="160"/>
-      <c r="DI4" s="160"/>
-      <c r="DJ4" s="160"/>
-      <c r="DK4" s="161"/>
-      <c r="DL4" s="159" t="str">
+      <c r="DF4" s="157"/>
+      <c r="DG4" s="157"/>
+      <c r="DH4" s="157"/>
+      <c r="DI4" s="157"/>
+      <c r="DJ4" s="157"/>
+      <c r="DK4" s="158"/>
+      <c r="DL4" s="156" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="160"/>
-      <c r="DN4" s="160"/>
-      <c r="DO4" s="160"/>
-      <c r="DP4" s="160"/>
-      <c r="DQ4" s="160"/>
-      <c r="DR4" s="161"/>
-      <c r="DS4" s="159" t="str">
+      <c r="DM4" s="157"/>
+      <c r="DN4" s="157"/>
+      <c r="DO4" s="157"/>
+      <c r="DP4" s="157"/>
+      <c r="DQ4" s="157"/>
+      <c r="DR4" s="158"/>
+      <c r="DS4" s="156" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="160"/>
-      <c r="DU4" s="160"/>
-      <c r="DV4" s="160"/>
-      <c r="DW4" s="160"/>
-      <c r="DX4" s="160"/>
-      <c r="DY4" s="161"/>
-      <c r="DZ4" s="159" t="str">
+      <c r="DT4" s="157"/>
+      <c r="DU4" s="157"/>
+      <c r="DV4" s="157"/>
+      <c r="DW4" s="157"/>
+      <c r="DX4" s="157"/>
+      <c r="DY4" s="158"/>
+      <c r="DZ4" s="156" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="160"/>
-      <c r="EB4" s="160"/>
-      <c r="EC4" s="160"/>
-      <c r="ED4" s="160"/>
-      <c r="EE4" s="160"/>
-      <c r="EF4" s="161"/>
-      <c r="EG4" s="159" t="str">
+      <c r="EA4" s="157"/>
+      <c r="EB4" s="157"/>
+      <c r="EC4" s="157"/>
+      <c r="ED4" s="157"/>
+      <c r="EE4" s="157"/>
+      <c r="EF4" s="158"/>
+      <c r="EG4" s="156" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="160"/>
-      <c r="EI4" s="160"/>
-      <c r="EJ4" s="160"/>
-      <c r="EK4" s="160"/>
-      <c r="EL4" s="160"/>
-      <c r="EM4" s="161"/>
-      <c r="EN4" s="159" t="str">
+      <c r="EH4" s="157"/>
+      <c r="EI4" s="157"/>
+      <c r="EJ4" s="157"/>
+      <c r="EK4" s="157"/>
+      <c r="EL4" s="157"/>
+      <c r="EM4" s="158"/>
+      <c r="EN4" s="156" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="160"/>
-      <c r="EP4" s="160"/>
-      <c r="EQ4" s="160"/>
-      <c r="ER4" s="160"/>
-      <c r="ES4" s="160"/>
-      <c r="ET4" s="161"/>
-      <c r="EU4" s="159" t="str">
+      <c r="EO4" s="157"/>
+      <c r="EP4" s="157"/>
+      <c r="EQ4" s="157"/>
+      <c r="ER4" s="157"/>
+      <c r="ES4" s="157"/>
+      <c r="ET4" s="158"/>
+      <c r="EU4" s="156" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="160"/>
-      <c r="EW4" s="160"/>
-      <c r="EX4" s="160"/>
-      <c r="EY4" s="160"/>
-      <c r="EZ4" s="160"/>
-      <c r="FA4" s="161"/>
-      <c r="FB4" s="159" t="str">
+      <c r="EV4" s="157"/>
+      <c r="EW4" s="157"/>
+      <c r="EX4" s="157"/>
+      <c r="EY4" s="157"/>
+      <c r="EZ4" s="157"/>
+      <c r="FA4" s="158"/>
+      <c r="FB4" s="156" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="160"/>
-      <c r="FD4" s="160"/>
-      <c r="FE4" s="160"/>
-      <c r="FF4" s="160"/>
-      <c r="FG4" s="160"/>
-      <c r="FH4" s="161"/>
-      <c r="FI4" s="159" t="str">
+      <c r="FC4" s="157"/>
+      <c r="FD4" s="157"/>
+      <c r="FE4" s="157"/>
+      <c r="FF4" s="157"/>
+      <c r="FG4" s="157"/>
+      <c r="FH4" s="158"/>
+      <c r="FI4" s="156" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="160"/>
-      <c r="FK4" s="160"/>
-      <c r="FL4" s="160"/>
-      <c r="FM4" s="160"/>
-      <c r="FN4" s="160"/>
-      <c r="FO4" s="161"/>
-      <c r="FP4" s="159" t="str">
+      <c r="FJ4" s="157"/>
+      <c r="FK4" s="157"/>
+      <c r="FL4" s="157"/>
+      <c r="FM4" s="157"/>
+      <c r="FN4" s="157"/>
+      <c r="FO4" s="158"/>
+      <c r="FP4" s="156" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="160"/>
-      <c r="FR4" s="160"/>
-      <c r="FS4" s="160"/>
-      <c r="FT4" s="160"/>
-      <c r="FU4" s="160"/>
-      <c r="FV4" s="161"/>
-      <c r="FW4" s="159" t="str">
+      <c r="FQ4" s="157"/>
+      <c r="FR4" s="157"/>
+      <c r="FS4" s="157"/>
+      <c r="FT4" s="157"/>
+      <c r="FU4" s="157"/>
+      <c r="FV4" s="158"/>
+      <c r="FW4" s="156" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="160"/>
-      <c r="FY4" s="160"/>
-      <c r="FZ4" s="160"/>
-      <c r="GA4" s="160"/>
-      <c r="GB4" s="160"/>
-      <c r="GC4" s="161"/>
-      <c r="GD4" s="159" t="str">
+      <c r="FX4" s="157"/>
+      <c r="FY4" s="157"/>
+      <c r="FZ4" s="157"/>
+      <c r="GA4" s="157"/>
+      <c r="GB4" s="157"/>
+      <c r="GC4" s="158"/>
+      <c r="GD4" s="156" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="160"/>
-      <c r="GF4" s="160"/>
-      <c r="GG4" s="160"/>
-      <c r="GH4" s="160"/>
-      <c r="GI4" s="160"/>
-      <c r="GJ4" s="161"/>
-      <c r="GK4" s="159" t="str">
+      <c r="GE4" s="157"/>
+      <c r="GF4" s="157"/>
+      <c r="GG4" s="157"/>
+      <c r="GH4" s="157"/>
+      <c r="GI4" s="157"/>
+      <c r="GJ4" s="158"/>
+      <c r="GK4" s="156" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="160"/>
-      <c r="GM4" s="160"/>
-      <c r="GN4" s="160"/>
-      <c r="GO4" s="160"/>
-      <c r="GP4" s="160"/>
-      <c r="GQ4" s="161"/>
-      <c r="GR4" s="159" t="str">
+      <c r="GL4" s="157"/>
+      <c r="GM4" s="157"/>
+      <c r="GN4" s="157"/>
+      <c r="GO4" s="157"/>
+      <c r="GP4" s="157"/>
+      <c r="GQ4" s="158"/>
+      <c r="GR4" s="156" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="160"/>
-      <c r="GT4" s="160"/>
-      <c r="GU4" s="160"/>
-      <c r="GV4" s="160"/>
-      <c r="GW4" s="160"/>
-      <c r="GX4" s="161"/>
-      <c r="GY4" s="159" t="str">
+      <c r="GS4" s="157"/>
+      <c r="GT4" s="157"/>
+      <c r="GU4" s="157"/>
+      <c r="GV4" s="157"/>
+      <c r="GW4" s="157"/>
+      <c r="GX4" s="158"/>
+      <c r="GY4" s="156" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="160"/>
-      <c r="HA4" s="160"/>
-      <c r="HB4" s="160"/>
-      <c r="HC4" s="160"/>
-      <c r="HD4" s="160"/>
-      <c r="HE4" s="161"/>
-      <c r="HF4" s="159" t="str">
+      <c r="GZ4" s="157"/>
+      <c r="HA4" s="157"/>
+      <c r="HB4" s="157"/>
+      <c r="HC4" s="157"/>
+      <c r="HD4" s="157"/>
+      <c r="HE4" s="158"/>
+      <c r="HF4" s="156" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="160"/>
-      <c r="HH4" s="160"/>
-      <c r="HI4" s="160"/>
-      <c r="HJ4" s="160"/>
-      <c r="HK4" s="160"/>
-      <c r="HL4" s="161"/>
-      <c r="HM4" s="159" t="str">
+      <c r="HG4" s="157"/>
+      <c r="HH4" s="157"/>
+      <c r="HI4" s="157"/>
+      <c r="HJ4" s="157"/>
+      <c r="HK4" s="157"/>
+      <c r="HL4" s="158"/>
+      <c r="HM4" s="156" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="160"/>
-      <c r="HO4" s="160"/>
-      <c r="HP4" s="160"/>
-      <c r="HQ4" s="160"/>
-      <c r="HR4" s="160"/>
-      <c r="HS4" s="161"/>
-      <c r="HT4" s="159" t="str">
+      <c r="HN4" s="157"/>
+      <c r="HO4" s="157"/>
+      <c r="HP4" s="157"/>
+      <c r="HQ4" s="157"/>
+      <c r="HR4" s="157"/>
+      <c r="HS4" s="158"/>
+      <c r="HT4" s="156" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="160"/>
-      <c r="HV4" s="160"/>
-      <c r="HW4" s="160"/>
-      <c r="HX4" s="160"/>
-      <c r="HY4" s="160"/>
-      <c r="HZ4" s="161"/>
-      <c r="IA4" s="159" t="str">
+      <c r="HU4" s="157"/>
+      <c r="HV4" s="157"/>
+      <c r="HW4" s="157"/>
+      <c r="HX4" s="157"/>
+      <c r="HY4" s="157"/>
+      <c r="HZ4" s="158"/>
+      <c r="IA4" s="156" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="160"/>
-      <c r="IC4" s="160"/>
-      <c r="ID4" s="160"/>
-      <c r="IE4" s="160"/>
-      <c r="IF4" s="160"/>
-      <c r="IG4" s="161"/>
-      <c r="IH4" s="159" t="str">
+      <c r="IB4" s="157"/>
+      <c r="IC4" s="157"/>
+      <c r="ID4" s="157"/>
+      <c r="IE4" s="157"/>
+      <c r="IF4" s="157"/>
+      <c r="IG4" s="158"/>
+      <c r="IH4" s="156" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="160"/>
-      <c r="IJ4" s="160"/>
-      <c r="IK4" s="160"/>
-      <c r="IL4" s="160"/>
-      <c r="IM4" s="160"/>
-      <c r="IN4" s="161"/>
-      <c r="IO4" s="159" t="str">
+      <c r="II4" s="157"/>
+      <c r="IJ4" s="157"/>
+      <c r="IK4" s="157"/>
+      <c r="IL4" s="157"/>
+      <c r="IM4" s="157"/>
+      <c r="IN4" s="158"/>
+      <c r="IO4" s="156" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="160"/>
-      <c r="IQ4" s="160"/>
-      <c r="IR4" s="160"/>
-      <c r="IS4" s="160"/>
-      <c r="IT4" s="160"/>
-      <c r="IU4" s="161"/>
+      <c r="IP4" s="157"/>
+      <c r="IQ4" s="157"/>
+      <c r="IR4" s="157"/>
+      <c r="IS4" s="157"/>
+      <c r="IT4" s="157"/>
+      <c r="IU4" s="158"/>
     </row>
     <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="169"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="170">
+      <c r="K5" s="174">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="174">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="173">
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="177">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="175">
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="162">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="177">
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="164">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="156">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="158"/>
-      <c r="BH5" s="162">
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="159">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="163"/>
-      <c r="BO5" s="156">
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="161"/>
+      <c r="BO5" s="166">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="158"/>
-      <c r="BV5" s="162">
+      <c r="BP5" s="160"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="160"/>
+      <c r="BS5" s="160"/>
+      <c r="BT5" s="160"/>
+      <c r="BU5" s="167"/>
+      <c r="BV5" s="159">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="157"/>
-      <c r="BX5" s="157"/>
-      <c r="BY5" s="157"/>
-      <c r="BZ5" s="157"/>
-      <c r="CA5" s="157"/>
-      <c r="CB5" s="163"/>
-      <c r="CC5" s="162">
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="161"/>
+      <c r="CC5" s="159">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="157"/>
-      <c r="CE5" s="157"/>
-      <c r="CF5" s="157"/>
-      <c r="CG5" s="157"/>
-      <c r="CH5" s="157"/>
-      <c r="CI5" s="163"/>
-      <c r="CJ5" s="156">
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="161"/>
+      <c r="CJ5" s="166">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="157"/>
-      <c r="CL5" s="157"/>
-      <c r="CM5" s="157"/>
-      <c r="CN5" s="157"/>
-      <c r="CO5" s="157"/>
-      <c r="CP5" s="158"/>
-      <c r="CQ5" s="162">
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
+      <c r="CM5" s="160"/>
+      <c r="CN5" s="160"/>
+      <c r="CO5" s="160"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="159">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="157"/>
-      <c r="CS5" s="157"/>
-      <c r="CT5" s="157"/>
-      <c r="CU5" s="157"/>
-      <c r="CV5" s="157"/>
-      <c r="CW5" s="163"/>
-      <c r="CX5" s="162">
+      <c r="CR5" s="160"/>
+      <c r="CS5" s="160"/>
+      <c r="CT5" s="160"/>
+      <c r="CU5" s="160"/>
+      <c r="CV5" s="160"/>
+      <c r="CW5" s="161"/>
+      <c r="CX5" s="159">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="157"/>
-      <c r="CZ5" s="157"/>
-      <c r="DA5" s="157"/>
-      <c r="DB5" s="157"/>
-      <c r="DC5" s="157"/>
-      <c r="DD5" s="163"/>
-      <c r="DE5" s="156">
+      <c r="CY5" s="160"/>
+      <c r="CZ5" s="160"/>
+      <c r="DA5" s="160"/>
+      <c r="DB5" s="160"/>
+      <c r="DC5" s="160"/>
+      <c r="DD5" s="161"/>
+      <c r="DE5" s="166">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="157"/>
-      <c r="DG5" s="157"/>
-      <c r="DH5" s="157"/>
-      <c r="DI5" s="157"/>
-      <c r="DJ5" s="157"/>
-      <c r="DK5" s="158"/>
-      <c r="DL5" s="162">
+      <c r="DF5" s="160"/>
+      <c r="DG5" s="160"/>
+      <c r="DH5" s="160"/>
+      <c r="DI5" s="160"/>
+      <c r="DJ5" s="160"/>
+      <c r="DK5" s="167"/>
+      <c r="DL5" s="159">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="157"/>
-      <c r="DN5" s="157"/>
-      <c r="DO5" s="157"/>
-      <c r="DP5" s="157"/>
-      <c r="DQ5" s="157"/>
-      <c r="DR5" s="163"/>
-      <c r="DS5" s="162">
+      <c r="DM5" s="160"/>
+      <c r="DN5" s="160"/>
+      <c r="DO5" s="160"/>
+      <c r="DP5" s="160"/>
+      <c r="DQ5" s="160"/>
+      <c r="DR5" s="161"/>
+      <c r="DS5" s="159">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="157"/>
-      <c r="DU5" s="157"/>
-      <c r="DV5" s="157"/>
-      <c r="DW5" s="157"/>
-      <c r="DX5" s="157"/>
-      <c r="DY5" s="163"/>
-      <c r="DZ5" s="156">
+      <c r="DT5" s="160"/>
+      <c r="DU5" s="160"/>
+      <c r="DV5" s="160"/>
+      <c r="DW5" s="160"/>
+      <c r="DX5" s="160"/>
+      <c r="DY5" s="161"/>
+      <c r="DZ5" s="166">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="157"/>
-      <c r="EB5" s="157"/>
-      <c r="EC5" s="157"/>
-      <c r="ED5" s="157"/>
-      <c r="EE5" s="157"/>
-      <c r="EF5" s="158"/>
-      <c r="EG5" s="162">
+      <c r="EA5" s="160"/>
+      <c r="EB5" s="160"/>
+      <c r="EC5" s="160"/>
+      <c r="ED5" s="160"/>
+      <c r="EE5" s="160"/>
+      <c r="EF5" s="167"/>
+      <c r="EG5" s="159">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="157"/>
-      <c r="EI5" s="157"/>
-      <c r="EJ5" s="157"/>
-      <c r="EK5" s="157"/>
-      <c r="EL5" s="157"/>
-      <c r="EM5" s="163"/>
-      <c r="EN5" s="162">
+      <c r="EH5" s="160"/>
+      <c r="EI5" s="160"/>
+      <c r="EJ5" s="160"/>
+      <c r="EK5" s="160"/>
+      <c r="EL5" s="160"/>
+      <c r="EM5" s="161"/>
+      <c r="EN5" s="159">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="157"/>
-      <c r="EP5" s="157"/>
-      <c r="EQ5" s="157"/>
-      <c r="ER5" s="157"/>
-      <c r="ES5" s="157"/>
-      <c r="ET5" s="163"/>
-      <c r="EU5" s="156">
+      <c r="EO5" s="160"/>
+      <c r="EP5" s="160"/>
+      <c r="EQ5" s="160"/>
+      <c r="ER5" s="160"/>
+      <c r="ES5" s="160"/>
+      <c r="ET5" s="161"/>
+      <c r="EU5" s="166">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="157"/>
-      <c r="EW5" s="157"/>
-      <c r="EX5" s="157"/>
-      <c r="EY5" s="157"/>
-      <c r="EZ5" s="157"/>
-      <c r="FA5" s="158"/>
-      <c r="FB5" s="162">
+      <c r="EV5" s="160"/>
+      <c r="EW5" s="160"/>
+      <c r="EX5" s="160"/>
+      <c r="EY5" s="160"/>
+      <c r="EZ5" s="160"/>
+      <c r="FA5" s="167"/>
+      <c r="FB5" s="159">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="157"/>
-      <c r="FD5" s="157"/>
-      <c r="FE5" s="157"/>
-      <c r="FF5" s="157"/>
-      <c r="FG5" s="157"/>
-      <c r="FH5" s="163"/>
-      <c r="FI5" s="162">
+      <c r="FC5" s="160"/>
+      <c r="FD5" s="160"/>
+      <c r="FE5" s="160"/>
+      <c r="FF5" s="160"/>
+      <c r="FG5" s="160"/>
+      <c r="FH5" s="161"/>
+      <c r="FI5" s="159">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="157"/>
-      <c r="FK5" s="157"/>
-      <c r="FL5" s="157"/>
-      <c r="FM5" s="157"/>
-      <c r="FN5" s="157"/>
-      <c r="FO5" s="163"/>
-      <c r="FP5" s="156">
+      <c r="FJ5" s="160"/>
+      <c r="FK5" s="160"/>
+      <c r="FL5" s="160"/>
+      <c r="FM5" s="160"/>
+      <c r="FN5" s="160"/>
+      <c r="FO5" s="161"/>
+      <c r="FP5" s="166">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="157"/>
-      <c r="FR5" s="157"/>
-      <c r="FS5" s="157"/>
-      <c r="FT5" s="157"/>
-      <c r="FU5" s="157"/>
-      <c r="FV5" s="158"/>
-      <c r="FW5" s="162">
+      <c r="FQ5" s="160"/>
+      <c r="FR5" s="160"/>
+      <c r="FS5" s="160"/>
+      <c r="FT5" s="160"/>
+      <c r="FU5" s="160"/>
+      <c r="FV5" s="167"/>
+      <c r="FW5" s="159">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="157"/>
-      <c r="FY5" s="157"/>
-      <c r="FZ5" s="157"/>
-      <c r="GA5" s="157"/>
-      <c r="GB5" s="157"/>
-      <c r="GC5" s="163"/>
-      <c r="GD5" s="162">
+      <c r="FX5" s="160"/>
+      <c r="FY5" s="160"/>
+      <c r="FZ5" s="160"/>
+      <c r="GA5" s="160"/>
+      <c r="GB5" s="160"/>
+      <c r="GC5" s="161"/>
+      <c r="GD5" s="159">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="157"/>
-      <c r="GF5" s="157"/>
-      <c r="GG5" s="157"/>
-      <c r="GH5" s="157"/>
-      <c r="GI5" s="157"/>
-      <c r="GJ5" s="163"/>
-      <c r="GK5" s="156">
+      <c r="GE5" s="160"/>
+      <c r="GF5" s="160"/>
+      <c r="GG5" s="160"/>
+      <c r="GH5" s="160"/>
+      <c r="GI5" s="160"/>
+      <c r="GJ5" s="161"/>
+      <c r="GK5" s="166">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="157"/>
-      <c r="GM5" s="157"/>
-      <c r="GN5" s="157"/>
-      <c r="GO5" s="157"/>
-      <c r="GP5" s="157"/>
-      <c r="GQ5" s="158"/>
-      <c r="GR5" s="162">
+      <c r="GL5" s="160"/>
+      <c r="GM5" s="160"/>
+      <c r="GN5" s="160"/>
+      <c r="GO5" s="160"/>
+      <c r="GP5" s="160"/>
+      <c r="GQ5" s="167"/>
+      <c r="GR5" s="159">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="157"/>
-      <c r="GT5" s="157"/>
-      <c r="GU5" s="157"/>
-      <c r="GV5" s="157"/>
-      <c r="GW5" s="157"/>
-      <c r="GX5" s="163"/>
-      <c r="GY5" s="156">
+      <c r="GS5" s="160"/>
+      <c r="GT5" s="160"/>
+      <c r="GU5" s="160"/>
+      <c r="GV5" s="160"/>
+      <c r="GW5" s="160"/>
+      <c r="GX5" s="161"/>
+      <c r="GY5" s="166">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="157"/>
-      <c r="HA5" s="157"/>
-      <c r="HB5" s="157"/>
-      <c r="HC5" s="157"/>
-      <c r="HD5" s="157"/>
-      <c r="HE5" s="158"/>
-      <c r="HF5" s="162">
+      <c r="GZ5" s="160"/>
+      <c r="HA5" s="160"/>
+      <c r="HB5" s="160"/>
+      <c r="HC5" s="160"/>
+      <c r="HD5" s="160"/>
+      <c r="HE5" s="167"/>
+      <c r="HF5" s="159">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="157"/>
-      <c r="HH5" s="157"/>
-      <c r="HI5" s="157"/>
-      <c r="HJ5" s="157"/>
-      <c r="HK5" s="157"/>
-      <c r="HL5" s="163"/>
-      <c r="HM5" s="156">
+      <c r="HG5" s="160"/>
+      <c r="HH5" s="160"/>
+      <c r="HI5" s="160"/>
+      <c r="HJ5" s="160"/>
+      <c r="HK5" s="160"/>
+      <c r="HL5" s="161"/>
+      <c r="HM5" s="166">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="157"/>
-      <c r="HO5" s="157"/>
-      <c r="HP5" s="157"/>
-      <c r="HQ5" s="157"/>
-      <c r="HR5" s="157"/>
-      <c r="HS5" s="158"/>
-      <c r="HT5" s="162">
+      <c r="HN5" s="160"/>
+      <c r="HO5" s="160"/>
+      <c r="HP5" s="160"/>
+      <c r="HQ5" s="160"/>
+      <c r="HR5" s="160"/>
+      <c r="HS5" s="167"/>
+      <c r="HT5" s="159">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="157"/>
-      <c r="HV5" s="157"/>
-      <c r="HW5" s="157"/>
-      <c r="HX5" s="157"/>
-      <c r="HY5" s="157"/>
-      <c r="HZ5" s="163"/>
-      <c r="IA5" s="156">
+      <c r="HU5" s="160"/>
+      <c r="HV5" s="160"/>
+      <c r="HW5" s="160"/>
+      <c r="HX5" s="160"/>
+      <c r="HY5" s="160"/>
+      <c r="HZ5" s="161"/>
+      <c r="IA5" s="166">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="157"/>
-      <c r="IC5" s="157"/>
-      <c r="ID5" s="157"/>
-      <c r="IE5" s="157"/>
-      <c r="IF5" s="157"/>
-      <c r="IG5" s="158"/>
-      <c r="IH5" s="162">
+      <c r="IB5" s="160"/>
+      <c r="IC5" s="160"/>
+      <c r="ID5" s="160"/>
+      <c r="IE5" s="160"/>
+      <c r="IF5" s="160"/>
+      <c r="IG5" s="167"/>
+      <c r="IH5" s="159">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="157"/>
-      <c r="IJ5" s="157"/>
-      <c r="IK5" s="157"/>
-      <c r="IL5" s="157"/>
-      <c r="IM5" s="157"/>
-      <c r="IN5" s="163"/>
-      <c r="IO5" s="156">
+      <c r="II5" s="160"/>
+      <c r="IJ5" s="160"/>
+      <c r="IK5" s="160"/>
+      <c r="IL5" s="160"/>
+      <c r="IM5" s="160"/>
+      <c r="IN5" s="161"/>
+      <c r="IO5" s="166">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="157"/>
-      <c r="IQ5" s="157"/>
-      <c r="IR5" s="157"/>
-      <c r="IS5" s="157"/>
-      <c r="IT5" s="157"/>
-      <c r="IU5" s="158"/>
+      <c r="IP5" s="160"/>
+      <c r="IQ5" s="160"/>
+      <c r="IR5" s="160"/>
+      <c r="IS5" s="160"/>
+      <c r="IT5" s="160"/>
+      <c r="IU5" s="167"/>
     </row>
     <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="146"/>
@@ -8715,7 +8715,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="46">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I14" s="102">
         <f t="shared" si="256"/>
@@ -15777,49 +15777,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15836,20 +15807,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H36:H40 H8:H33">
@@ -15887,7 +15887,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD24E9CA-444A-43B2-8D11-584EC6EB0A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7226C94-D8D1-4779-AA92-E33AD96A26E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3263,6 +3263,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3275,28 +3284,7 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3333,6 +3321,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4177,7 +4177,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ18" sqref="AJ18"/>
+      <selection pane="bottomLeft" activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -4255,21 +4255,21 @@
       <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
     </row>
     <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
@@ -4349,729 +4349,729 @@
       <c r="B4" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="171">
+      <c r="C4" s="167">
         <v>45295</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="173"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
       <c r="H4" s="113" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="156" t="str">
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="159" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157"/>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="156" t="str">
+      <c r="S4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="159" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="156" t="str">
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="159" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="157"/>
-      <c r="AH4" s="157"/>
-      <c r="AI4" s="157"/>
-      <c r="AJ4" s="157"/>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="158"/>
-      <c r="AM4" s="156" t="str">
+      <c r="AG4" s="160"/>
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160"/>
+      <c r="AJ4" s="160"/>
+      <c r="AK4" s="160"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="159" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="157"/>
-      <c r="AP4" s="157"/>
-      <c r="AQ4" s="157"/>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="158"/>
-      <c r="AT4" s="156" t="str">
+      <c r="AN4" s="160"/>
+      <c r="AO4" s="160"/>
+      <c r="AP4" s="160"/>
+      <c r="AQ4" s="160"/>
+      <c r="AR4" s="160"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="159" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="157"/>
-      <c r="AX4" s="157"/>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="158"/>
-      <c r="BA4" s="156" t="str">
+      <c r="AU4" s="160"/>
+      <c r="AV4" s="160"/>
+      <c r="AW4" s="160"/>
+      <c r="AX4" s="160"/>
+      <c r="AY4" s="160"/>
+      <c r="AZ4" s="161"/>
+      <c r="BA4" s="159" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="157"/>
-      <c r="BC4" s="157"/>
-      <c r="BD4" s="157"/>
-      <c r="BE4" s="157"/>
-      <c r="BF4" s="157"/>
-      <c r="BG4" s="158"/>
-      <c r="BH4" s="156" t="str">
+      <c r="BB4" s="160"/>
+      <c r="BC4" s="160"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="161"/>
+      <c r="BH4" s="159" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="157"/>
-      <c r="BL4" s="157"/>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="158"/>
-      <c r="BO4" s="156" t="str">
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="160"/>
+      <c r="BK4" s="160"/>
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="160"/>
+      <c r="BN4" s="161"/>
+      <c r="BO4" s="159" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="157"/>
-      <c r="BS4" s="157"/>
-      <c r="BT4" s="157"/>
-      <c r="BU4" s="158"/>
-      <c r="BV4" s="156" t="str">
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="160"/>
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="160"/>
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="161"/>
+      <c r="BV4" s="159" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="157"/>
-      <c r="BX4" s="157"/>
-      <c r="BY4" s="157"/>
-      <c r="BZ4" s="157"/>
-      <c r="CA4" s="157"/>
-      <c r="CB4" s="158"/>
-      <c r="CC4" s="156" t="str">
+      <c r="BW4" s="160"/>
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="160"/>
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="160"/>
+      <c r="CB4" s="161"/>
+      <c r="CC4" s="159" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="157"/>
-      <c r="CE4" s="157"/>
-      <c r="CF4" s="157"/>
-      <c r="CG4" s="157"/>
-      <c r="CH4" s="157"/>
-      <c r="CI4" s="158"/>
-      <c r="CJ4" s="156" t="str">
+      <c r="CD4" s="160"/>
+      <c r="CE4" s="160"/>
+      <c r="CF4" s="160"/>
+      <c r="CG4" s="160"/>
+      <c r="CH4" s="160"/>
+      <c r="CI4" s="161"/>
+      <c r="CJ4" s="159" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="157"/>
-      <c r="CL4" s="157"/>
-      <c r="CM4" s="157"/>
-      <c r="CN4" s="157"/>
-      <c r="CO4" s="157"/>
-      <c r="CP4" s="158"/>
-      <c r="CQ4" s="156" t="str">
+      <c r="CK4" s="160"/>
+      <c r="CL4" s="160"/>
+      <c r="CM4" s="160"/>
+      <c r="CN4" s="160"/>
+      <c r="CO4" s="160"/>
+      <c r="CP4" s="161"/>
+      <c r="CQ4" s="159" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="157"/>
-      <c r="CS4" s="157"/>
-      <c r="CT4" s="157"/>
-      <c r="CU4" s="157"/>
-      <c r="CV4" s="157"/>
-      <c r="CW4" s="158"/>
-      <c r="CX4" s="156" t="str">
+      <c r="CR4" s="160"/>
+      <c r="CS4" s="160"/>
+      <c r="CT4" s="160"/>
+      <c r="CU4" s="160"/>
+      <c r="CV4" s="160"/>
+      <c r="CW4" s="161"/>
+      <c r="CX4" s="159" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="157"/>
-      <c r="CZ4" s="157"/>
-      <c r="DA4" s="157"/>
-      <c r="DB4" s="157"/>
-      <c r="DC4" s="157"/>
-      <c r="DD4" s="158"/>
-      <c r="DE4" s="156" t="str">
+      <c r="CY4" s="160"/>
+      <c r="CZ4" s="160"/>
+      <c r="DA4" s="160"/>
+      <c r="DB4" s="160"/>
+      <c r="DC4" s="160"/>
+      <c r="DD4" s="161"/>
+      <c r="DE4" s="159" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="157"/>
-      <c r="DG4" s="157"/>
-      <c r="DH4" s="157"/>
-      <c r="DI4" s="157"/>
-      <c r="DJ4" s="157"/>
-      <c r="DK4" s="158"/>
-      <c r="DL4" s="156" t="str">
+      <c r="DF4" s="160"/>
+      <c r="DG4" s="160"/>
+      <c r="DH4" s="160"/>
+      <c r="DI4" s="160"/>
+      <c r="DJ4" s="160"/>
+      <c r="DK4" s="161"/>
+      <c r="DL4" s="159" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="157"/>
-      <c r="DN4" s="157"/>
-      <c r="DO4" s="157"/>
-      <c r="DP4" s="157"/>
-      <c r="DQ4" s="157"/>
-      <c r="DR4" s="158"/>
-      <c r="DS4" s="156" t="str">
+      <c r="DM4" s="160"/>
+      <c r="DN4" s="160"/>
+      <c r="DO4" s="160"/>
+      <c r="DP4" s="160"/>
+      <c r="DQ4" s="160"/>
+      <c r="DR4" s="161"/>
+      <c r="DS4" s="159" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="157"/>
-      <c r="DU4" s="157"/>
-      <c r="DV4" s="157"/>
-      <c r="DW4" s="157"/>
-      <c r="DX4" s="157"/>
-      <c r="DY4" s="158"/>
-      <c r="DZ4" s="156" t="str">
+      <c r="DT4" s="160"/>
+      <c r="DU4" s="160"/>
+      <c r="DV4" s="160"/>
+      <c r="DW4" s="160"/>
+      <c r="DX4" s="160"/>
+      <c r="DY4" s="161"/>
+      <c r="DZ4" s="159" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="157"/>
-      <c r="EB4" s="157"/>
-      <c r="EC4" s="157"/>
-      <c r="ED4" s="157"/>
-      <c r="EE4" s="157"/>
-      <c r="EF4" s="158"/>
-      <c r="EG4" s="156" t="str">
+      <c r="EA4" s="160"/>
+      <c r="EB4" s="160"/>
+      <c r="EC4" s="160"/>
+      <c r="ED4" s="160"/>
+      <c r="EE4" s="160"/>
+      <c r="EF4" s="161"/>
+      <c r="EG4" s="159" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="157"/>
-      <c r="EI4" s="157"/>
-      <c r="EJ4" s="157"/>
-      <c r="EK4" s="157"/>
-      <c r="EL4" s="157"/>
-      <c r="EM4" s="158"/>
-      <c r="EN4" s="156" t="str">
+      <c r="EH4" s="160"/>
+      <c r="EI4" s="160"/>
+      <c r="EJ4" s="160"/>
+      <c r="EK4" s="160"/>
+      <c r="EL4" s="160"/>
+      <c r="EM4" s="161"/>
+      <c r="EN4" s="159" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="157"/>
-      <c r="EP4" s="157"/>
-      <c r="EQ4" s="157"/>
-      <c r="ER4" s="157"/>
-      <c r="ES4" s="157"/>
-      <c r="ET4" s="158"/>
-      <c r="EU4" s="156" t="str">
+      <c r="EO4" s="160"/>
+      <c r="EP4" s="160"/>
+      <c r="EQ4" s="160"/>
+      <c r="ER4" s="160"/>
+      <c r="ES4" s="160"/>
+      <c r="ET4" s="161"/>
+      <c r="EU4" s="159" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="157"/>
-      <c r="EW4" s="157"/>
-      <c r="EX4" s="157"/>
-      <c r="EY4" s="157"/>
-      <c r="EZ4" s="157"/>
-      <c r="FA4" s="158"/>
-      <c r="FB4" s="156" t="str">
+      <c r="EV4" s="160"/>
+      <c r="EW4" s="160"/>
+      <c r="EX4" s="160"/>
+      <c r="EY4" s="160"/>
+      <c r="EZ4" s="160"/>
+      <c r="FA4" s="161"/>
+      <c r="FB4" s="159" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="157"/>
-      <c r="FD4" s="157"/>
-      <c r="FE4" s="157"/>
-      <c r="FF4" s="157"/>
-      <c r="FG4" s="157"/>
-      <c r="FH4" s="158"/>
-      <c r="FI4" s="156" t="str">
+      <c r="FC4" s="160"/>
+      <c r="FD4" s="160"/>
+      <c r="FE4" s="160"/>
+      <c r="FF4" s="160"/>
+      <c r="FG4" s="160"/>
+      <c r="FH4" s="161"/>
+      <c r="FI4" s="159" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="157"/>
-      <c r="FK4" s="157"/>
-      <c r="FL4" s="157"/>
-      <c r="FM4" s="157"/>
-      <c r="FN4" s="157"/>
-      <c r="FO4" s="158"/>
-      <c r="FP4" s="156" t="str">
+      <c r="FJ4" s="160"/>
+      <c r="FK4" s="160"/>
+      <c r="FL4" s="160"/>
+      <c r="FM4" s="160"/>
+      <c r="FN4" s="160"/>
+      <c r="FO4" s="161"/>
+      <c r="FP4" s="159" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="157"/>
-      <c r="FR4" s="157"/>
-      <c r="FS4" s="157"/>
-      <c r="FT4" s="157"/>
-      <c r="FU4" s="157"/>
-      <c r="FV4" s="158"/>
-      <c r="FW4" s="156" t="str">
+      <c r="FQ4" s="160"/>
+      <c r="FR4" s="160"/>
+      <c r="FS4" s="160"/>
+      <c r="FT4" s="160"/>
+      <c r="FU4" s="160"/>
+      <c r="FV4" s="161"/>
+      <c r="FW4" s="159" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="157"/>
-      <c r="FY4" s="157"/>
-      <c r="FZ4" s="157"/>
-      <c r="GA4" s="157"/>
-      <c r="GB4" s="157"/>
-      <c r="GC4" s="158"/>
-      <c r="GD4" s="156" t="str">
+      <c r="FX4" s="160"/>
+      <c r="FY4" s="160"/>
+      <c r="FZ4" s="160"/>
+      <c r="GA4" s="160"/>
+      <c r="GB4" s="160"/>
+      <c r="GC4" s="161"/>
+      <c r="GD4" s="159" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="157"/>
-      <c r="GF4" s="157"/>
-      <c r="GG4" s="157"/>
-      <c r="GH4" s="157"/>
-      <c r="GI4" s="157"/>
-      <c r="GJ4" s="158"/>
-      <c r="GK4" s="156" t="str">
+      <c r="GE4" s="160"/>
+      <c r="GF4" s="160"/>
+      <c r="GG4" s="160"/>
+      <c r="GH4" s="160"/>
+      <c r="GI4" s="160"/>
+      <c r="GJ4" s="161"/>
+      <c r="GK4" s="159" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="157"/>
-      <c r="GM4" s="157"/>
-      <c r="GN4" s="157"/>
-      <c r="GO4" s="157"/>
-      <c r="GP4" s="157"/>
-      <c r="GQ4" s="158"/>
-      <c r="GR4" s="156" t="str">
+      <c r="GL4" s="160"/>
+      <c r="GM4" s="160"/>
+      <c r="GN4" s="160"/>
+      <c r="GO4" s="160"/>
+      <c r="GP4" s="160"/>
+      <c r="GQ4" s="161"/>
+      <c r="GR4" s="159" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="157"/>
-      <c r="GT4" s="157"/>
-      <c r="GU4" s="157"/>
-      <c r="GV4" s="157"/>
-      <c r="GW4" s="157"/>
-      <c r="GX4" s="158"/>
-      <c r="GY4" s="156" t="str">
+      <c r="GS4" s="160"/>
+      <c r="GT4" s="160"/>
+      <c r="GU4" s="160"/>
+      <c r="GV4" s="160"/>
+      <c r="GW4" s="160"/>
+      <c r="GX4" s="161"/>
+      <c r="GY4" s="159" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="157"/>
-      <c r="HA4" s="157"/>
-      <c r="HB4" s="157"/>
-      <c r="HC4" s="157"/>
-      <c r="HD4" s="157"/>
-      <c r="HE4" s="158"/>
-      <c r="HF4" s="156" t="str">
+      <c r="GZ4" s="160"/>
+      <c r="HA4" s="160"/>
+      <c r="HB4" s="160"/>
+      <c r="HC4" s="160"/>
+      <c r="HD4" s="160"/>
+      <c r="HE4" s="161"/>
+      <c r="HF4" s="159" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="157"/>
-      <c r="HH4" s="157"/>
-      <c r="HI4" s="157"/>
-      <c r="HJ4" s="157"/>
-      <c r="HK4" s="157"/>
-      <c r="HL4" s="158"/>
-      <c r="HM4" s="156" t="str">
+      <c r="HG4" s="160"/>
+      <c r="HH4" s="160"/>
+      <c r="HI4" s="160"/>
+      <c r="HJ4" s="160"/>
+      <c r="HK4" s="160"/>
+      <c r="HL4" s="161"/>
+      <c r="HM4" s="159" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="157"/>
-      <c r="HO4" s="157"/>
-      <c r="HP4" s="157"/>
-      <c r="HQ4" s="157"/>
-      <c r="HR4" s="157"/>
-      <c r="HS4" s="158"/>
-      <c r="HT4" s="156" t="str">
+      <c r="HN4" s="160"/>
+      <c r="HO4" s="160"/>
+      <c r="HP4" s="160"/>
+      <c r="HQ4" s="160"/>
+      <c r="HR4" s="160"/>
+      <c r="HS4" s="161"/>
+      <c r="HT4" s="159" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="157"/>
-      <c r="HV4" s="157"/>
-      <c r="HW4" s="157"/>
-      <c r="HX4" s="157"/>
-      <c r="HY4" s="157"/>
-      <c r="HZ4" s="158"/>
-      <c r="IA4" s="156" t="str">
+      <c r="HU4" s="160"/>
+      <c r="HV4" s="160"/>
+      <c r="HW4" s="160"/>
+      <c r="HX4" s="160"/>
+      <c r="HY4" s="160"/>
+      <c r="HZ4" s="161"/>
+      <c r="IA4" s="159" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="157"/>
-      <c r="IC4" s="157"/>
-      <c r="ID4" s="157"/>
-      <c r="IE4" s="157"/>
-      <c r="IF4" s="157"/>
-      <c r="IG4" s="158"/>
-      <c r="IH4" s="156" t="str">
+      <c r="IB4" s="160"/>
+      <c r="IC4" s="160"/>
+      <c r="ID4" s="160"/>
+      <c r="IE4" s="160"/>
+      <c r="IF4" s="160"/>
+      <c r="IG4" s="161"/>
+      <c r="IH4" s="159" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="157"/>
-      <c r="IJ4" s="157"/>
-      <c r="IK4" s="157"/>
-      <c r="IL4" s="157"/>
-      <c r="IM4" s="157"/>
-      <c r="IN4" s="158"/>
-      <c r="IO4" s="156" t="str">
+      <c r="II4" s="160"/>
+      <c r="IJ4" s="160"/>
+      <c r="IK4" s="160"/>
+      <c r="IL4" s="160"/>
+      <c r="IM4" s="160"/>
+      <c r="IN4" s="161"/>
+      <c r="IO4" s="159" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="157"/>
-      <c r="IQ4" s="157"/>
-      <c r="IR4" s="157"/>
-      <c r="IS4" s="157"/>
-      <c r="IT4" s="157"/>
-      <c r="IU4" s="158"/>
+      <c r="IP4" s="160"/>
+      <c r="IQ4" s="160"/>
+      <c r="IR4" s="160"/>
+      <c r="IS4" s="160"/>
+      <c r="IT4" s="160"/>
+      <c r="IU4" s="161"/>
     </row>
     <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="172"/>
-      <c r="E5" s="173"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="174">
+      <c r="K5" s="170">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="174">
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="172"/>
+      <c r="R5" s="170">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="177">
+      <c r="S5" s="157"/>
+      <c r="T5" s="157"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="157"/>
+      <c r="W5" s="157"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="173">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="178"/>
-      <c r="AF5" s="169">
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="165">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="162">
+      <c r="AG5" s="157"/>
+      <c r="AH5" s="157"/>
+      <c r="AI5" s="157"/>
+      <c r="AJ5" s="157"/>
+      <c r="AK5" s="157"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="175">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="160"/>
-      <c r="AO5" s="160"/>
-      <c r="AP5" s="160"/>
-      <c r="AQ5" s="160"/>
-      <c r="AR5" s="160"/>
-      <c r="AS5" s="163"/>
-      <c r="AT5" s="164">
+      <c r="AN5" s="157"/>
+      <c r="AO5" s="157"/>
+      <c r="AP5" s="157"/>
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="177">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="160"/>
-      <c r="AV5" s="160"/>
-      <c r="AW5" s="160"/>
-      <c r="AX5" s="160"/>
-      <c r="AY5" s="160"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="166">
+      <c r="AU5" s="157"/>
+      <c r="AV5" s="157"/>
+      <c r="AW5" s="157"/>
+      <c r="AX5" s="157"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="156">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="160"/>
-      <c r="BC5" s="160"/>
-      <c r="BD5" s="160"/>
-      <c r="BE5" s="160"/>
-      <c r="BF5" s="160"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="159">
+      <c r="BB5" s="157"/>
+      <c r="BC5" s="157"/>
+      <c r="BD5" s="157"/>
+      <c r="BE5" s="157"/>
+      <c r="BF5" s="157"/>
+      <c r="BG5" s="158"/>
+      <c r="BH5" s="162">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="160"/>
-      <c r="BJ5" s="160"/>
-      <c r="BK5" s="160"/>
-      <c r="BL5" s="160"/>
-      <c r="BM5" s="160"/>
-      <c r="BN5" s="161"/>
-      <c r="BO5" s="166">
+      <c r="BI5" s="157"/>
+      <c r="BJ5" s="157"/>
+      <c r="BK5" s="157"/>
+      <c r="BL5" s="157"/>
+      <c r="BM5" s="157"/>
+      <c r="BN5" s="163"/>
+      <c r="BO5" s="156">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="160"/>
-      <c r="BQ5" s="160"/>
-      <c r="BR5" s="160"/>
-      <c r="BS5" s="160"/>
-      <c r="BT5" s="160"/>
-      <c r="BU5" s="167"/>
-      <c r="BV5" s="159">
+      <c r="BP5" s="157"/>
+      <c r="BQ5" s="157"/>
+      <c r="BR5" s="157"/>
+      <c r="BS5" s="157"/>
+      <c r="BT5" s="157"/>
+      <c r="BU5" s="158"/>
+      <c r="BV5" s="162">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="160"/>
-      <c r="BX5" s="160"/>
-      <c r="BY5" s="160"/>
-      <c r="BZ5" s="160"/>
-      <c r="CA5" s="160"/>
-      <c r="CB5" s="161"/>
-      <c r="CC5" s="159">
+      <c r="BW5" s="157"/>
+      <c r="BX5" s="157"/>
+      <c r="BY5" s="157"/>
+      <c r="BZ5" s="157"/>
+      <c r="CA5" s="157"/>
+      <c r="CB5" s="163"/>
+      <c r="CC5" s="162">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="160"/>
-      <c r="CE5" s="160"/>
-      <c r="CF5" s="160"/>
-      <c r="CG5" s="160"/>
-      <c r="CH5" s="160"/>
-      <c r="CI5" s="161"/>
-      <c r="CJ5" s="166">
+      <c r="CD5" s="157"/>
+      <c r="CE5" s="157"/>
+      <c r="CF5" s="157"/>
+      <c r="CG5" s="157"/>
+      <c r="CH5" s="157"/>
+      <c r="CI5" s="163"/>
+      <c r="CJ5" s="156">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="160"/>
-      <c r="CL5" s="160"/>
-      <c r="CM5" s="160"/>
-      <c r="CN5" s="160"/>
-      <c r="CO5" s="160"/>
-      <c r="CP5" s="167"/>
-      <c r="CQ5" s="159">
+      <c r="CK5" s="157"/>
+      <c r="CL5" s="157"/>
+      <c r="CM5" s="157"/>
+      <c r="CN5" s="157"/>
+      <c r="CO5" s="157"/>
+      <c r="CP5" s="158"/>
+      <c r="CQ5" s="162">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="160"/>
-      <c r="CS5" s="160"/>
-      <c r="CT5" s="160"/>
-      <c r="CU5" s="160"/>
-      <c r="CV5" s="160"/>
-      <c r="CW5" s="161"/>
-      <c r="CX5" s="159">
+      <c r="CR5" s="157"/>
+      <c r="CS5" s="157"/>
+      <c r="CT5" s="157"/>
+      <c r="CU5" s="157"/>
+      <c r="CV5" s="157"/>
+      <c r="CW5" s="163"/>
+      <c r="CX5" s="162">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="160"/>
-      <c r="CZ5" s="160"/>
-      <c r="DA5" s="160"/>
-      <c r="DB5" s="160"/>
-      <c r="DC5" s="160"/>
-      <c r="DD5" s="161"/>
-      <c r="DE5" s="166">
+      <c r="CY5" s="157"/>
+      <c r="CZ5" s="157"/>
+      <c r="DA5" s="157"/>
+      <c r="DB5" s="157"/>
+      <c r="DC5" s="157"/>
+      <c r="DD5" s="163"/>
+      <c r="DE5" s="156">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="160"/>
-      <c r="DG5" s="160"/>
-      <c r="DH5" s="160"/>
-      <c r="DI5" s="160"/>
-      <c r="DJ5" s="160"/>
-      <c r="DK5" s="167"/>
-      <c r="DL5" s="159">
+      <c r="DF5" s="157"/>
+      <c r="DG5" s="157"/>
+      <c r="DH5" s="157"/>
+      <c r="DI5" s="157"/>
+      <c r="DJ5" s="157"/>
+      <c r="DK5" s="158"/>
+      <c r="DL5" s="162">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="160"/>
-      <c r="DN5" s="160"/>
-      <c r="DO5" s="160"/>
-      <c r="DP5" s="160"/>
-      <c r="DQ5" s="160"/>
-      <c r="DR5" s="161"/>
-      <c r="DS5" s="159">
+      <c r="DM5" s="157"/>
+      <c r="DN5" s="157"/>
+      <c r="DO5" s="157"/>
+      <c r="DP5" s="157"/>
+      <c r="DQ5" s="157"/>
+      <c r="DR5" s="163"/>
+      <c r="DS5" s="162">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="160"/>
-      <c r="DU5" s="160"/>
-      <c r="DV5" s="160"/>
-      <c r="DW5" s="160"/>
-      <c r="DX5" s="160"/>
-      <c r="DY5" s="161"/>
-      <c r="DZ5" s="166">
+      <c r="DT5" s="157"/>
+      <c r="DU5" s="157"/>
+      <c r="DV5" s="157"/>
+      <c r="DW5" s="157"/>
+      <c r="DX5" s="157"/>
+      <c r="DY5" s="163"/>
+      <c r="DZ5" s="156">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="160"/>
-      <c r="EB5" s="160"/>
-      <c r="EC5" s="160"/>
-      <c r="ED5" s="160"/>
-      <c r="EE5" s="160"/>
-      <c r="EF5" s="167"/>
-      <c r="EG5" s="159">
+      <c r="EA5" s="157"/>
+      <c r="EB5" s="157"/>
+      <c r="EC5" s="157"/>
+      <c r="ED5" s="157"/>
+      <c r="EE5" s="157"/>
+      <c r="EF5" s="158"/>
+      <c r="EG5" s="162">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="160"/>
-      <c r="EI5" s="160"/>
-      <c r="EJ5" s="160"/>
-      <c r="EK5" s="160"/>
-      <c r="EL5" s="160"/>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="159">
+      <c r="EH5" s="157"/>
+      <c r="EI5" s="157"/>
+      <c r="EJ5" s="157"/>
+      <c r="EK5" s="157"/>
+      <c r="EL5" s="157"/>
+      <c r="EM5" s="163"/>
+      <c r="EN5" s="162">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="160"/>
-      <c r="EP5" s="160"/>
-      <c r="EQ5" s="160"/>
-      <c r="ER5" s="160"/>
-      <c r="ES5" s="160"/>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="166">
+      <c r="EO5" s="157"/>
+      <c r="EP5" s="157"/>
+      <c r="EQ5" s="157"/>
+      <c r="ER5" s="157"/>
+      <c r="ES5" s="157"/>
+      <c r="ET5" s="163"/>
+      <c r="EU5" s="156">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="160"/>
-      <c r="EW5" s="160"/>
-      <c r="EX5" s="160"/>
-      <c r="EY5" s="160"/>
-      <c r="EZ5" s="160"/>
-      <c r="FA5" s="167"/>
-      <c r="FB5" s="159">
+      <c r="EV5" s="157"/>
+      <c r="EW5" s="157"/>
+      <c r="EX5" s="157"/>
+      <c r="EY5" s="157"/>
+      <c r="EZ5" s="157"/>
+      <c r="FA5" s="158"/>
+      <c r="FB5" s="162">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="160"/>
-      <c r="FD5" s="160"/>
-      <c r="FE5" s="160"/>
-      <c r="FF5" s="160"/>
-      <c r="FG5" s="160"/>
-      <c r="FH5" s="161"/>
-      <c r="FI5" s="159">
+      <c r="FC5" s="157"/>
+      <c r="FD5" s="157"/>
+      <c r="FE5" s="157"/>
+      <c r="FF5" s="157"/>
+      <c r="FG5" s="157"/>
+      <c r="FH5" s="163"/>
+      <c r="FI5" s="162">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="160"/>
-      <c r="FK5" s="160"/>
-      <c r="FL5" s="160"/>
-      <c r="FM5" s="160"/>
-      <c r="FN5" s="160"/>
-      <c r="FO5" s="161"/>
-      <c r="FP5" s="166">
+      <c r="FJ5" s="157"/>
+      <c r="FK5" s="157"/>
+      <c r="FL5" s="157"/>
+      <c r="FM5" s="157"/>
+      <c r="FN5" s="157"/>
+      <c r="FO5" s="163"/>
+      <c r="FP5" s="156">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="160"/>
-      <c r="FR5" s="160"/>
-      <c r="FS5" s="160"/>
-      <c r="FT5" s="160"/>
-      <c r="FU5" s="160"/>
-      <c r="FV5" s="167"/>
-      <c r="FW5" s="159">
+      <c r="FQ5" s="157"/>
+      <c r="FR5" s="157"/>
+      <c r="FS5" s="157"/>
+      <c r="FT5" s="157"/>
+      <c r="FU5" s="157"/>
+      <c r="FV5" s="158"/>
+      <c r="FW5" s="162">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="160"/>
-      <c r="FY5" s="160"/>
-      <c r="FZ5" s="160"/>
-      <c r="GA5" s="160"/>
-      <c r="GB5" s="160"/>
-      <c r="GC5" s="161"/>
-      <c r="GD5" s="159">
+      <c r="FX5" s="157"/>
+      <c r="FY5" s="157"/>
+      <c r="FZ5" s="157"/>
+      <c r="GA5" s="157"/>
+      <c r="GB5" s="157"/>
+      <c r="GC5" s="163"/>
+      <c r="GD5" s="162">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="160"/>
-      <c r="GF5" s="160"/>
-      <c r="GG5" s="160"/>
-      <c r="GH5" s="160"/>
-      <c r="GI5" s="160"/>
-      <c r="GJ5" s="161"/>
-      <c r="GK5" s="166">
+      <c r="GE5" s="157"/>
+      <c r="GF5" s="157"/>
+      <c r="GG5" s="157"/>
+      <c r="GH5" s="157"/>
+      <c r="GI5" s="157"/>
+      <c r="GJ5" s="163"/>
+      <c r="GK5" s="156">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="160"/>
-      <c r="GM5" s="160"/>
-      <c r="GN5" s="160"/>
-      <c r="GO5" s="160"/>
-      <c r="GP5" s="160"/>
-      <c r="GQ5" s="167"/>
-      <c r="GR5" s="159">
+      <c r="GL5" s="157"/>
+      <c r="GM5" s="157"/>
+      <c r="GN5" s="157"/>
+      <c r="GO5" s="157"/>
+      <c r="GP5" s="157"/>
+      <c r="GQ5" s="158"/>
+      <c r="GR5" s="162">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="160"/>
-      <c r="GT5" s="160"/>
-      <c r="GU5" s="160"/>
-      <c r="GV5" s="160"/>
-      <c r="GW5" s="160"/>
-      <c r="GX5" s="161"/>
-      <c r="GY5" s="166">
+      <c r="GS5" s="157"/>
+      <c r="GT5" s="157"/>
+      <c r="GU5" s="157"/>
+      <c r="GV5" s="157"/>
+      <c r="GW5" s="157"/>
+      <c r="GX5" s="163"/>
+      <c r="GY5" s="156">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="160"/>
-      <c r="HA5" s="160"/>
-      <c r="HB5" s="160"/>
-      <c r="HC5" s="160"/>
-      <c r="HD5" s="160"/>
-      <c r="HE5" s="167"/>
-      <c r="HF5" s="159">
+      <c r="GZ5" s="157"/>
+      <c r="HA5" s="157"/>
+      <c r="HB5" s="157"/>
+      <c r="HC5" s="157"/>
+      <c r="HD5" s="157"/>
+      <c r="HE5" s="158"/>
+      <c r="HF5" s="162">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="160"/>
-      <c r="HH5" s="160"/>
-      <c r="HI5" s="160"/>
-      <c r="HJ5" s="160"/>
-      <c r="HK5" s="160"/>
-      <c r="HL5" s="161"/>
-      <c r="HM5" s="166">
+      <c r="HG5" s="157"/>
+      <c r="HH5" s="157"/>
+      <c r="HI5" s="157"/>
+      <c r="HJ5" s="157"/>
+      <c r="HK5" s="157"/>
+      <c r="HL5" s="163"/>
+      <c r="HM5" s="156">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="160"/>
-      <c r="HO5" s="160"/>
-      <c r="HP5" s="160"/>
-      <c r="HQ5" s="160"/>
-      <c r="HR5" s="160"/>
-      <c r="HS5" s="167"/>
-      <c r="HT5" s="159">
+      <c r="HN5" s="157"/>
+      <c r="HO5" s="157"/>
+      <c r="HP5" s="157"/>
+      <c r="HQ5" s="157"/>
+      <c r="HR5" s="157"/>
+      <c r="HS5" s="158"/>
+      <c r="HT5" s="162">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="160"/>
-      <c r="HV5" s="160"/>
-      <c r="HW5" s="160"/>
-      <c r="HX5" s="160"/>
-      <c r="HY5" s="160"/>
-      <c r="HZ5" s="161"/>
-      <c r="IA5" s="166">
+      <c r="HU5" s="157"/>
+      <c r="HV5" s="157"/>
+      <c r="HW5" s="157"/>
+      <c r="HX5" s="157"/>
+      <c r="HY5" s="157"/>
+      <c r="HZ5" s="163"/>
+      <c r="IA5" s="156">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="160"/>
-      <c r="IC5" s="160"/>
-      <c r="ID5" s="160"/>
-      <c r="IE5" s="160"/>
-      <c r="IF5" s="160"/>
-      <c r="IG5" s="167"/>
-      <c r="IH5" s="159">
+      <c r="IB5" s="157"/>
+      <c r="IC5" s="157"/>
+      <c r="ID5" s="157"/>
+      <c r="IE5" s="157"/>
+      <c r="IF5" s="157"/>
+      <c r="IG5" s="158"/>
+      <c r="IH5" s="162">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="160"/>
-      <c r="IJ5" s="160"/>
-      <c r="IK5" s="160"/>
-      <c r="IL5" s="160"/>
-      <c r="IM5" s="160"/>
-      <c r="IN5" s="161"/>
-      <c r="IO5" s="166">
+      <c r="II5" s="157"/>
+      <c r="IJ5" s="157"/>
+      <c r="IK5" s="157"/>
+      <c r="IL5" s="157"/>
+      <c r="IM5" s="157"/>
+      <c r="IN5" s="163"/>
+      <c r="IO5" s="156">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="160"/>
-      <c r="IQ5" s="160"/>
-      <c r="IR5" s="160"/>
-      <c r="IS5" s="160"/>
-      <c r="IT5" s="160"/>
-      <c r="IU5" s="167"/>
+      <c r="IP5" s="157"/>
+      <c r="IQ5" s="157"/>
+      <c r="IR5" s="157"/>
+      <c r="IS5" s="157"/>
+      <c r="IT5" s="157"/>
+      <c r="IU5" s="158"/>
     </row>
     <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="146"/>
@@ -8715,7 +8715,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="46">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="I14" s="102">
         <f t="shared" si="256"/>
@@ -8986,17 +8986,17 @@
       </c>
       <c r="F15" s="84">
         <f t="shared" ref="F15" si="262">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="G15" s="45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15" s="46">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="34"/>
@@ -15777,20 +15777,49 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15807,49 +15836,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H36:H40 H8:H33">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7226C94-D8D1-4779-AA92-E33AD96A26E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807FA4DE-D081-4695-99D2-5E577DF202DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3263,15 +3263,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3284,7 +3275,28 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3321,18 +3333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4177,7 +4177,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK16" sqref="AK16"/>
+      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -4255,21 +4255,21 @@
       <c r="K1" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="164"/>
-      <c r="AH1" s="164"/>
-      <c r="AI1" s="164"/>
-      <c r="AJ1" s="164"/>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="164"/>
-      <c r="AN1" s="164"/>
-      <c r="AO1" s="164"/>
-      <c r="AP1" s="164"/>
-      <c r="AQ1" s="164"/>
-      <c r="AR1" s="164"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
     </row>
     <row r="2" spans="1:255" s="59" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="112" t="s">
@@ -4349,729 +4349,729 @@
       <c r="B4" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="171">
         <v>45295</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="173"/>
       <c r="H4" s="113" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="114">
         <v>1</v>
       </c>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="159" t="str">
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="156" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="159" t="str">
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="156" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="159" t="str">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="156" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AG4" s="160"/>
-      <c r="AH4" s="160"/>
-      <c r="AI4" s="160"/>
-      <c r="AJ4" s="160"/>
-      <c r="AK4" s="160"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="159" t="str">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="156" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AN4" s="160"/>
-      <c r="AO4" s="160"/>
-      <c r="AP4" s="160"/>
-      <c r="AQ4" s="160"/>
-      <c r="AR4" s="160"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="159" t="str">
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="156" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AU4" s="160"/>
-      <c r="AV4" s="160"/>
-      <c r="AW4" s="160"/>
-      <c r="AX4" s="160"/>
-      <c r="AY4" s="160"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="159" t="str">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="156" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="BB4" s="160"/>
-      <c r="BC4" s="160"/>
-      <c r="BD4" s="160"/>
-      <c r="BE4" s="160"/>
-      <c r="BF4" s="160"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="159" t="str">
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="156" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BI4" s="160"/>
-      <c r="BJ4" s="160"/>
-      <c r="BK4" s="160"/>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="160"/>
-      <c r="BN4" s="161"/>
-      <c r="BO4" s="159" t="str">
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="158"/>
+      <c r="BO4" s="156" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="160"/>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="160"/>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="161"/>
-      <c r="BV4" s="159" t="str">
+      <c r="BP4" s="157"/>
+      <c r="BQ4" s="157"/>
+      <c r="BR4" s="157"/>
+      <c r="BS4" s="157"/>
+      <c r="BT4" s="157"/>
+      <c r="BU4" s="158"/>
+      <c r="BV4" s="156" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BW4" s="160"/>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="160"/>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="160"/>
-      <c r="CB4" s="161"/>
-      <c r="CC4" s="159" t="str">
+      <c r="BW4" s="157"/>
+      <c r="BX4" s="157"/>
+      <c r="BY4" s="157"/>
+      <c r="BZ4" s="157"/>
+      <c r="CA4" s="157"/>
+      <c r="CB4" s="158"/>
+      <c r="CC4" s="156" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="CD4" s="160"/>
-      <c r="CE4" s="160"/>
-      <c r="CF4" s="160"/>
-      <c r="CG4" s="160"/>
-      <c r="CH4" s="160"/>
-      <c r="CI4" s="161"/>
-      <c r="CJ4" s="159" t="str">
+      <c r="CD4" s="157"/>
+      <c r="CE4" s="157"/>
+      <c r="CF4" s="157"/>
+      <c r="CG4" s="157"/>
+      <c r="CH4" s="157"/>
+      <c r="CI4" s="158"/>
+      <c r="CJ4" s="156" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="CK4" s="160"/>
-      <c r="CL4" s="160"/>
-      <c r="CM4" s="160"/>
-      <c r="CN4" s="160"/>
-      <c r="CO4" s="160"/>
-      <c r="CP4" s="161"/>
-      <c r="CQ4" s="159" t="str">
+      <c r="CK4" s="157"/>
+      <c r="CL4" s="157"/>
+      <c r="CM4" s="157"/>
+      <c r="CN4" s="157"/>
+      <c r="CO4" s="157"/>
+      <c r="CP4" s="158"/>
+      <c r="CQ4" s="156" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="CR4" s="160"/>
-      <c r="CS4" s="160"/>
-      <c r="CT4" s="160"/>
-      <c r="CU4" s="160"/>
-      <c r="CV4" s="160"/>
-      <c r="CW4" s="161"/>
-      <c r="CX4" s="159" t="str">
+      <c r="CR4" s="157"/>
+      <c r="CS4" s="157"/>
+      <c r="CT4" s="157"/>
+      <c r="CU4" s="157"/>
+      <c r="CV4" s="157"/>
+      <c r="CW4" s="158"/>
+      <c r="CX4" s="156" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="CY4" s="160"/>
-      <c r="CZ4" s="160"/>
-      <c r="DA4" s="160"/>
-      <c r="DB4" s="160"/>
-      <c r="DC4" s="160"/>
-      <c r="DD4" s="161"/>
-      <c r="DE4" s="159" t="str">
+      <c r="CY4" s="157"/>
+      <c r="CZ4" s="157"/>
+      <c r="DA4" s="157"/>
+      <c r="DB4" s="157"/>
+      <c r="DC4" s="157"/>
+      <c r="DD4" s="158"/>
+      <c r="DE4" s="156" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="DF4" s="160"/>
-      <c r="DG4" s="160"/>
-      <c r="DH4" s="160"/>
-      <c r="DI4" s="160"/>
-      <c r="DJ4" s="160"/>
-      <c r="DK4" s="161"/>
-      <c r="DL4" s="159" t="str">
+      <c r="DF4" s="157"/>
+      <c r="DG4" s="157"/>
+      <c r="DH4" s="157"/>
+      <c r="DI4" s="157"/>
+      <c r="DJ4" s="157"/>
+      <c r="DK4" s="158"/>
+      <c r="DL4" s="156" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="DM4" s="160"/>
-      <c r="DN4" s="160"/>
-      <c r="DO4" s="160"/>
-      <c r="DP4" s="160"/>
-      <c r="DQ4" s="160"/>
-      <c r="DR4" s="161"/>
-      <c r="DS4" s="159" t="str">
+      <c r="DM4" s="157"/>
+      <c r="DN4" s="157"/>
+      <c r="DO4" s="157"/>
+      <c r="DP4" s="157"/>
+      <c r="DQ4" s="157"/>
+      <c r="DR4" s="158"/>
+      <c r="DS4" s="156" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="DT4" s="160"/>
-      <c r="DU4" s="160"/>
-      <c r="DV4" s="160"/>
-      <c r="DW4" s="160"/>
-      <c r="DX4" s="160"/>
-      <c r="DY4" s="161"/>
-      <c r="DZ4" s="159" t="str">
+      <c r="DT4" s="157"/>
+      <c r="DU4" s="157"/>
+      <c r="DV4" s="157"/>
+      <c r="DW4" s="157"/>
+      <c r="DX4" s="157"/>
+      <c r="DY4" s="158"/>
+      <c r="DZ4" s="156" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="EA4" s="160"/>
-      <c r="EB4" s="160"/>
-      <c r="EC4" s="160"/>
-      <c r="ED4" s="160"/>
-      <c r="EE4" s="160"/>
-      <c r="EF4" s="161"/>
-      <c r="EG4" s="159" t="str">
+      <c r="EA4" s="157"/>
+      <c r="EB4" s="157"/>
+      <c r="EC4" s="157"/>
+      <c r="ED4" s="157"/>
+      <c r="EE4" s="157"/>
+      <c r="EF4" s="158"/>
+      <c r="EG4" s="156" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="EH4" s="160"/>
-      <c r="EI4" s="160"/>
-      <c r="EJ4" s="160"/>
-      <c r="EK4" s="160"/>
-      <c r="EL4" s="160"/>
-      <c r="EM4" s="161"/>
-      <c r="EN4" s="159" t="str">
+      <c r="EH4" s="157"/>
+      <c r="EI4" s="157"/>
+      <c r="EJ4" s="157"/>
+      <c r="EK4" s="157"/>
+      <c r="EL4" s="157"/>
+      <c r="EM4" s="158"/>
+      <c r="EN4" s="156" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="EO4" s="160"/>
-      <c r="EP4" s="160"/>
-      <c r="EQ4" s="160"/>
-      <c r="ER4" s="160"/>
-      <c r="ES4" s="160"/>
-      <c r="ET4" s="161"/>
-      <c r="EU4" s="159" t="str">
+      <c r="EO4" s="157"/>
+      <c r="EP4" s="157"/>
+      <c r="EQ4" s="157"/>
+      <c r="ER4" s="157"/>
+      <c r="ES4" s="157"/>
+      <c r="ET4" s="158"/>
+      <c r="EU4" s="156" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="EV4" s="160"/>
-      <c r="EW4" s="160"/>
-      <c r="EX4" s="160"/>
-      <c r="EY4" s="160"/>
-      <c r="EZ4" s="160"/>
-      <c r="FA4" s="161"/>
-      <c r="FB4" s="159" t="str">
+      <c r="EV4" s="157"/>
+      <c r="EW4" s="157"/>
+      <c r="EX4" s="157"/>
+      <c r="EY4" s="157"/>
+      <c r="EZ4" s="157"/>
+      <c r="FA4" s="158"/>
+      <c r="FB4" s="156" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="FC4" s="160"/>
-      <c r="FD4" s="160"/>
-      <c r="FE4" s="160"/>
-      <c r="FF4" s="160"/>
-      <c r="FG4" s="160"/>
-      <c r="FH4" s="161"/>
-      <c r="FI4" s="159" t="str">
+      <c r="FC4" s="157"/>
+      <c r="FD4" s="157"/>
+      <c r="FE4" s="157"/>
+      <c r="FF4" s="157"/>
+      <c r="FG4" s="157"/>
+      <c r="FH4" s="158"/>
+      <c r="FI4" s="156" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="FJ4" s="160"/>
-      <c r="FK4" s="160"/>
-      <c r="FL4" s="160"/>
-      <c r="FM4" s="160"/>
-      <c r="FN4" s="160"/>
-      <c r="FO4" s="161"/>
-      <c r="FP4" s="159" t="str">
+      <c r="FJ4" s="157"/>
+      <c r="FK4" s="157"/>
+      <c r="FL4" s="157"/>
+      <c r="FM4" s="157"/>
+      <c r="FN4" s="157"/>
+      <c r="FO4" s="158"/>
+      <c r="FP4" s="156" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="FQ4" s="160"/>
-      <c r="FR4" s="160"/>
-      <c r="FS4" s="160"/>
-      <c r="FT4" s="160"/>
-      <c r="FU4" s="160"/>
-      <c r="FV4" s="161"/>
-      <c r="FW4" s="159" t="str">
+      <c r="FQ4" s="157"/>
+      <c r="FR4" s="157"/>
+      <c r="FS4" s="157"/>
+      <c r="FT4" s="157"/>
+      <c r="FU4" s="157"/>
+      <c r="FV4" s="158"/>
+      <c r="FW4" s="156" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="FX4" s="160"/>
-      <c r="FY4" s="160"/>
-      <c r="FZ4" s="160"/>
-      <c r="GA4" s="160"/>
-      <c r="GB4" s="160"/>
-      <c r="GC4" s="161"/>
-      <c r="GD4" s="159" t="str">
+      <c r="FX4" s="157"/>
+      <c r="FY4" s="157"/>
+      <c r="FZ4" s="157"/>
+      <c r="GA4" s="157"/>
+      <c r="GB4" s="157"/>
+      <c r="GC4" s="158"/>
+      <c r="GD4" s="156" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="GE4" s="160"/>
-      <c r="GF4" s="160"/>
-      <c r="GG4" s="160"/>
-      <c r="GH4" s="160"/>
-      <c r="GI4" s="160"/>
-      <c r="GJ4" s="161"/>
-      <c r="GK4" s="159" t="str">
+      <c r="GE4" s="157"/>
+      <c r="GF4" s="157"/>
+      <c r="GG4" s="157"/>
+      <c r="GH4" s="157"/>
+      <c r="GI4" s="157"/>
+      <c r="GJ4" s="158"/>
+      <c r="GK4" s="156" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="GL4" s="160"/>
-      <c r="GM4" s="160"/>
-      <c r="GN4" s="160"/>
-      <c r="GO4" s="160"/>
-      <c r="GP4" s="160"/>
-      <c r="GQ4" s="161"/>
-      <c r="GR4" s="159" t="str">
+      <c r="GL4" s="157"/>
+      <c r="GM4" s="157"/>
+      <c r="GN4" s="157"/>
+      <c r="GO4" s="157"/>
+      <c r="GP4" s="157"/>
+      <c r="GQ4" s="158"/>
+      <c r="GR4" s="156" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="GS4" s="160"/>
-      <c r="GT4" s="160"/>
-      <c r="GU4" s="160"/>
-      <c r="GV4" s="160"/>
-      <c r="GW4" s="160"/>
-      <c r="GX4" s="161"/>
-      <c r="GY4" s="159" t="str">
+      <c r="GS4" s="157"/>
+      <c r="GT4" s="157"/>
+      <c r="GU4" s="157"/>
+      <c r="GV4" s="157"/>
+      <c r="GW4" s="157"/>
+      <c r="GX4" s="158"/>
+      <c r="GY4" s="156" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="GZ4" s="160"/>
-      <c r="HA4" s="160"/>
-      <c r="HB4" s="160"/>
-      <c r="HC4" s="160"/>
-      <c r="HD4" s="160"/>
-      <c r="HE4" s="161"/>
-      <c r="HF4" s="159" t="str">
+      <c r="GZ4" s="157"/>
+      <c r="HA4" s="157"/>
+      <c r="HB4" s="157"/>
+      <c r="HC4" s="157"/>
+      <c r="HD4" s="157"/>
+      <c r="HE4" s="158"/>
+      <c r="HF4" s="156" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="HG4" s="160"/>
-      <c r="HH4" s="160"/>
-      <c r="HI4" s="160"/>
-      <c r="HJ4" s="160"/>
-      <c r="HK4" s="160"/>
-      <c r="HL4" s="161"/>
-      <c r="HM4" s="159" t="str">
+      <c r="HG4" s="157"/>
+      <c r="HH4" s="157"/>
+      <c r="HI4" s="157"/>
+      <c r="HJ4" s="157"/>
+      <c r="HK4" s="157"/>
+      <c r="HL4" s="158"/>
+      <c r="HM4" s="156" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="HN4" s="160"/>
-      <c r="HO4" s="160"/>
-      <c r="HP4" s="160"/>
-      <c r="HQ4" s="160"/>
-      <c r="HR4" s="160"/>
-      <c r="HS4" s="161"/>
-      <c r="HT4" s="159" t="str">
+      <c r="HN4" s="157"/>
+      <c r="HO4" s="157"/>
+      <c r="HP4" s="157"/>
+      <c r="HQ4" s="157"/>
+      <c r="HR4" s="157"/>
+      <c r="HS4" s="158"/>
+      <c r="HT4" s="156" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="HU4" s="160"/>
-      <c r="HV4" s="160"/>
-      <c r="HW4" s="160"/>
-      <c r="HX4" s="160"/>
-      <c r="HY4" s="160"/>
-      <c r="HZ4" s="161"/>
-      <c r="IA4" s="159" t="str">
+      <c r="HU4" s="157"/>
+      <c r="HV4" s="157"/>
+      <c r="HW4" s="157"/>
+      <c r="HX4" s="157"/>
+      <c r="HY4" s="157"/>
+      <c r="HZ4" s="158"/>
+      <c r="IA4" s="156" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="IB4" s="160"/>
-      <c r="IC4" s="160"/>
-      <c r="ID4" s="160"/>
-      <c r="IE4" s="160"/>
-      <c r="IF4" s="160"/>
-      <c r="IG4" s="161"/>
-      <c r="IH4" s="159" t="str">
+      <c r="IB4" s="157"/>
+      <c r="IC4" s="157"/>
+      <c r="ID4" s="157"/>
+      <c r="IE4" s="157"/>
+      <c r="IF4" s="157"/>
+      <c r="IG4" s="158"/>
+      <c r="IH4" s="156" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="II4" s="160"/>
-      <c r="IJ4" s="160"/>
-      <c r="IK4" s="160"/>
-      <c r="IL4" s="160"/>
-      <c r="IM4" s="160"/>
-      <c r="IN4" s="161"/>
-      <c r="IO4" s="159" t="str">
+      <c r="II4" s="157"/>
+      <c r="IJ4" s="157"/>
+      <c r="IK4" s="157"/>
+      <c r="IL4" s="157"/>
+      <c r="IM4" s="157"/>
+      <c r="IN4" s="158"/>
+      <c r="IO4" s="156" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="IP4" s="160"/>
-      <c r="IQ4" s="160"/>
-      <c r="IR4" s="160"/>
-      <c r="IS4" s="160"/>
-      <c r="IT4" s="160"/>
-      <c r="IU4" s="161"/>
+      <c r="IP4" s="157"/>
+      <c r="IQ4" s="157"/>
+      <c r="IR4" s="157"/>
+      <c r="IS4" s="157"/>
+      <c r="IT4" s="157"/>
+      <c r="IU4" s="158"/>
     </row>
     <row r="5" spans="1:255" s="55" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="111"/>
       <c r="B5" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="169"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="111"/>
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
-      <c r="K5" s="170">
+      <c r="K5" s="174">
         <f>K6</f>
         <v>45292</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
-      <c r="N5" s="157"/>
-      <c r="O5" s="157"/>
-      <c r="P5" s="157"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="170">
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="174">
         <f>R6</f>
         <v>45299</v>
       </c>
-      <c r="S5" s="157"/>
-      <c r="T5" s="157"/>
-      <c r="U5" s="157"/>
-      <c r="V5" s="157"/>
-      <c r="W5" s="157"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="173">
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="175"/>
+      <c r="Y5" s="177">
         <f>Y6</f>
         <v>45306</v>
       </c>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="174"/>
-      <c r="AF5" s="165">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="178"/>
+      <c r="AF5" s="169">
         <f>AF6</f>
         <v>45313</v>
       </c>
-      <c r="AG5" s="157"/>
-      <c r="AH5" s="157"/>
-      <c r="AI5" s="157"/>
-      <c r="AJ5" s="157"/>
-      <c r="AK5" s="157"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="175">
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="162">
         <f>AM6</f>
         <v>45320</v>
       </c>
-      <c r="AN5" s="157"/>
-      <c r="AO5" s="157"/>
-      <c r="AP5" s="157"/>
-      <c r="AQ5" s="157"/>
-      <c r="AR5" s="157"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="177">
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="164">
         <f>AT6</f>
         <v>45327</v>
       </c>
-      <c r="AU5" s="157"/>
-      <c r="AV5" s="157"/>
-      <c r="AW5" s="157"/>
-      <c r="AX5" s="157"/>
-      <c r="AY5" s="157"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="156">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="166">
         <f>BA6</f>
         <v>45334</v>
       </c>
-      <c r="BB5" s="157"/>
-      <c r="BC5" s="157"/>
-      <c r="BD5" s="157"/>
-      <c r="BE5" s="157"/>
-      <c r="BF5" s="157"/>
-      <c r="BG5" s="158"/>
-      <c r="BH5" s="162">
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="159">
         <f>BH6</f>
         <v>45341</v>
       </c>
-      <c r="BI5" s="157"/>
-      <c r="BJ5" s="157"/>
-      <c r="BK5" s="157"/>
-      <c r="BL5" s="157"/>
-      <c r="BM5" s="157"/>
-      <c r="BN5" s="163"/>
-      <c r="BO5" s="156">
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="161"/>
+      <c r="BO5" s="166">
         <f>BO6</f>
         <v>45348</v>
       </c>
-      <c r="BP5" s="157"/>
-      <c r="BQ5" s="157"/>
-      <c r="BR5" s="157"/>
-      <c r="BS5" s="157"/>
-      <c r="BT5" s="157"/>
-      <c r="BU5" s="158"/>
-      <c r="BV5" s="162">
+      <c r="BP5" s="160"/>
+      <c r="BQ5" s="160"/>
+      <c r="BR5" s="160"/>
+      <c r="BS5" s="160"/>
+      <c r="BT5" s="160"/>
+      <c r="BU5" s="167"/>
+      <c r="BV5" s="159">
         <f>BV6</f>
         <v>45355</v>
       </c>
-      <c r="BW5" s="157"/>
-      <c r="BX5" s="157"/>
-      <c r="BY5" s="157"/>
-      <c r="BZ5" s="157"/>
-      <c r="CA5" s="157"/>
-      <c r="CB5" s="163"/>
-      <c r="CC5" s="162">
+      <c r="BW5" s="160"/>
+      <c r="BX5" s="160"/>
+      <c r="BY5" s="160"/>
+      <c r="BZ5" s="160"/>
+      <c r="CA5" s="160"/>
+      <c r="CB5" s="161"/>
+      <c r="CC5" s="159">
         <f>CC6</f>
         <v>45362</v>
       </c>
-      <c r="CD5" s="157"/>
-      <c r="CE5" s="157"/>
-      <c r="CF5" s="157"/>
-      <c r="CG5" s="157"/>
-      <c r="CH5" s="157"/>
-      <c r="CI5" s="163"/>
-      <c r="CJ5" s="156">
+      <c r="CD5" s="160"/>
+      <c r="CE5" s="160"/>
+      <c r="CF5" s="160"/>
+      <c r="CG5" s="160"/>
+      <c r="CH5" s="160"/>
+      <c r="CI5" s="161"/>
+      <c r="CJ5" s="166">
         <f>CJ6</f>
         <v>45369</v>
       </c>
-      <c r="CK5" s="157"/>
-      <c r="CL5" s="157"/>
-      <c r="CM5" s="157"/>
-      <c r="CN5" s="157"/>
-      <c r="CO5" s="157"/>
-      <c r="CP5" s="158"/>
-      <c r="CQ5" s="162">
+      <c r="CK5" s="160"/>
+      <c r="CL5" s="160"/>
+      <c r="CM5" s="160"/>
+      <c r="CN5" s="160"/>
+      <c r="CO5" s="160"/>
+      <c r="CP5" s="167"/>
+      <c r="CQ5" s="159">
         <f>CQ6</f>
         <v>45376</v>
       </c>
-      <c r="CR5" s="157"/>
-      <c r="CS5" s="157"/>
-      <c r="CT5" s="157"/>
-      <c r="CU5" s="157"/>
-      <c r="CV5" s="157"/>
-      <c r="CW5" s="163"/>
-      <c r="CX5" s="162">
+      <c r="CR5" s="160"/>
+      <c r="CS5" s="160"/>
+      <c r="CT5" s="160"/>
+      <c r="CU5" s="160"/>
+      <c r="CV5" s="160"/>
+      <c r="CW5" s="161"/>
+      <c r="CX5" s="159">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45383</v>
       </c>
-      <c r="CY5" s="157"/>
-      <c r="CZ5" s="157"/>
-      <c r="DA5" s="157"/>
-      <c r="DB5" s="157"/>
-      <c r="DC5" s="157"/>
-      <c r="DD5" s="163"/>
-      <c r="DE5" s="156">
+      <c r="CY5" s="160"/>
+      <c r="CZ5" s="160"/>
+      <c r="DA5" s="160"/>
+      <c r="DB5" s="160"/>
+      <c r="DC5" s="160"/>
+      <c r="DD5" s="161"/>
+      <c r="DE5" s="166">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45390</v>
       </c>
-      <c r="DF5" s="157"/>
-      <c r="DG5" s="157"/>
-      <c r="DH5" s="157"/>
-      <c r="DI5" s="157"/>
-      <c r="DJ5" s="157"/>
-      <c r="DK5" s="158"/>
-      <c r="DL5" s="162">
+      <c r="DF5" s="160"/>
+      <c r="DG5" s="160"/>
+      <c r="DH5" s="160"/>
+      <c r="DI5" s="160"/>
+      <c r="DJ5" s="160"/>
+      <c r="DK5" s="167"/>
+      <c r="DL5" s="159">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45397</v>
       </c>
-      <c r="DM5" s="157"/>
-      <c r="DN5" s="157"/>
-      <c r="DO5" s="157"/>
-      <c r="DP5" s="157"/>
-      <c r="DQ5" s="157"/>
-      <c r="DR5" s="163"/>
-      <c r="DS5" s="162">
+      <c r="DM5" s="160"/>
+      <c r="DN5" s="160"/>
+      <c r="DO5" s="160"/>
+      <c r="DP5" s="160"/>
+      <c r="DQ5" s="160"/>
+      <c r="DR5" s="161"/>
+      <c r="DS5" s="159">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45404</v>
       </c>
-      <c r="DT5" s="157"/>
-      <c r="DU5" s="157"/>
-      <c r="DV5" s="157"/>
-      <c r="DW5" s="157"/>
-      <c r="DX5" s="157"/>
-      <c r="DY5" s="163"/>
-      <c r="DZ5" s="156">
+      <c r="DT5" s="160"/>
+      <c r="DU5" s="160"/>
+      <c r="DV5" s="160"/>
+      <c r="DW5" s="160"/>
+      <c r="DX5" s="160"/>
+      <c r="DY5" s="161"/>
+      <c r="DZ5" s="166">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45411</v>
       </c>
-      <c r="EA5" s="157"/>
-      <c r="EB5" s="157"/>
-      <c r="EC5" s="157"/>
-      <c r="ED5" s="157"/>
-      <c r="EE5" s="157"/>
-      <c r="EF5" s="158"/>
-      <c r="EG5" s="162">
+      <c r="EA5" s="160"/>
+      <c r="EB5" s="160"/>
+      <c r="EC5" s="160"/>
+      <c r="ED5" s="160"/>
+      <c r="EE5" s="160"/>
+      <c r="EF5" s="167"/>
+      <c r="EG5" s="159">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45418</v>
       </c>
-      <c r="EH5" s="157"/>
-      <c r="EI5" s="157"/>
-      <c r="EJ5" s="157"/>
-      <c r="EK5" s="157"/>
-      <c r="EL5" s="157"/>
-      <c r="EM5" s="163"/>
-      <c r="EN5" s="162">
+      <c r="EH5" s="160"/>
+      <c r="EI5" s="160"/>
+      <c r="EJ5" s="160"/>
+      <c r="EK5" s="160"/>
+      <c r="EL5" s="160"/>
+      <c r="EM5" s="161"/>
+      <c r="EN5" s="159">
         <f>EN6</f>
         <v>45425</v>
       </c>
-      <c r="EO5" s="157"/>
-      <c r="EP5" s="157"/>
-      <c r="EQ5" s="157"/>
-      <c r="ER5" s="157"/>
-      <c r="ES5" s="157"/>
-      <c r="ET5" s="163"/>
-      <c r="EU5" s="156">
+      <c r="EO5" s="160"/>
+      <c r="EP5" s="160"/>
+      <c r="EQ5" s="160"/>
+      <c r="ER5" s="160"/>
+      <c r="ES5" s="160"/>
+      <c r="ET5" s="161"/>
+      <c r="EU5" s="166">
         <f>EU6</f>
         <v>45432</v>
       </c>
-      <c r="EV5" s="157"/>
-      <c r="EW5" s="157"/>
-      <c r="EX5" s="157"/>
-      <c r="EY5" s="157"/>
-      <c r="EZ5" s="157"/>
-      <c r="FA5" s="158"/>
-      <c r="FB5" s="162">
+      <c r="EV5" s="160"/>
+      <c r="EW5" s="160"/>
+      <c r="EX5" s="160"/>
+      <c r="EY5" s="160"/>
+      <c r="EZ5" s="160"/>
+      <c r="FA5" s="167"/>
+      <c r="FB5" s="159">
         <f>FB6</f>
         <v>45439</v>
       </c>
-      <c r="FC5" s="157"/>
-      <c r="FD5" s="157"/>
-      <c r="FE5" s="157"/>
-      <c r="FF5" s="157"/>
-      <c r="FG5" s="157"/>
-      <c r="FH5" s="163"/>
-      <c r="FI5" s="162">
+      <c r="FC5" s="160"/>
+      <c r="FD5" s="160"/>
+      <c r="FE5" s="160"/>
+      <c r="FF5" s="160"/>
+      <c r="FG5" s="160"/>
+      <c r="FH5" s="161"/>
+      <c r="FI5" s="159">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45446</v>
       </c>
-      <c r="FJ5" s="157"/>
-      <c r="FK5" s="157"/>
-      <c r="FL5" s="157"/>
-      <c r="FM5" s="157"/>
-      <c r="FN5" s="157"/>
-      <c r="FO5" s="163"/>
-      <c r="FP5" s="156">
+      <c r="FJ5" s="160"/>
+      <c r="FK5" s="160"/>
+      <c r="FL5" s="160"/>
+      <c r="FM5" s="160"/>
+      <c r="FN5" s="160"/>
+      <c r="FO5" s="161"/>
+      <c r="FP5" s="166">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45453</v>
       </c>
-      <c r="FQ5" s="157"/>
-      <c r="FR5" s="157"/>
-      <c r="FS5" s="157"/>
-      <c r="FT5" s="157"/>
-      <c r="FU5" s="157"/>
-      <c r="FV5" s="158"/>
-      <c r="FW5" s="162">
+      <c r="FQ5" s="160"/>
+      <c r="FR5" s="160"/>
+      <c r="FS5" s="160"/>
+      <c r="FT5" s="160"/>
+      <c r="FU5" s="160"/>
+      <c r="FV5" s="167"/>
+      <c r="FW5" s="159">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45460</v>
       </c>
-      <c r="FX5" s="157"/>
-      <c r="FY5" s="157"/>
-      <c r="FZ5" s="157"/>
-      <c r="GA5" s="157"/>
-      <c r="GB5" s="157"/>
-      <c r="GC5" s="163"/>
-      <c r="GD5" s="162">
+      <c r="FX5" s="160"/>
+      <c r="FY5" s="160"/>
+      <c r="FZ5" s="160"/>
+      <c r="GA5" s="160"/>
+      <c r="GB5" s="160"/>
+      <c r="GC5" s="161"/>
+      <c r="GD5" s="159">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45467</v>
       </c>
-      <c r="GE5" s="157"/>
-      <c r="GF5" s="157"/>
-      <c r="GG5" s="157"/>
-      <c r="GH5" s="157"/>
-      <c r="GI5" s="157"/>
-      <c r="GJ5" s="163"/>
-      <c r="GK5" s="156">
+      <c r="GE5" s="160"/>
+      <c r="GF5" s="160"/>
+      <c r="GG5" s="160"/>
+      <c r="GH5" s="160"/>
+      <c r="GI5" s="160"/>
+      <c r="GJ5" s="161"/>
+      <c r="GK5" s="166">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45474</v>
       </c>
-      <c r="GL5" s="157"/>
-      <c r="GM5" s="157"/>
-      <c r="GN5" s="157"/>
-      <c r="GO5" s="157"/>
-      <c r="GP5" s="157"/>
-      <c r="GQ5" s="158"/>
-      <c r="GR5" s="162">
+      <c r="GL5" s="160"/>
+      <c r="GM5" s="160"/>
+      <c r="GN5" s="160"/>
+      <c r="GO5" s="160"/>
+      <c r="GP5" s="160"/>
+      <c r="GQ5" s="167"/>
+      <c r="GR5" s="159">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45481</v>
       </c>
-      <c r="GS5" s="157"/>
-      <c r="GT5" s="157"/>
-      <c r="GU5" s="157"/>
-      <c r="GV5" s="157"/>
-      <c r="GW5" s="157"/>
-      <c r="GX5" s="163"/>
-      <c r="GY5" s="156">
+      <c r="GS5" s="160"/>
+      <c r="GT5" s="160"/>
+      <c r="GU5" s="160"/>
+      <c r="GV5" s="160"/>
+      <c r="GW5" s="160"/>
+      <c r="GX5" s="161"/>
+      <c r="GY5" s="166">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45488</v>
       </c>
-      <c r="GZ5" s="157"/>
-      <c r="HA5" s="157"/>
-      <c r="HB5" s="157"/>
-      <c r="HC5" s="157"/>
-      <c r="HD5" s="157"/>
-      <c r="HE5" s="158"/>
-      <c r="HF5" s="162">
+      <c r="GZ5" s="160"/>
+      <c r="HA5" s="160"/>
+      <c r="HB5" s="160"/>
+      <c r="HC5" s="160"/>
+      <c r="HD5" s="160"/>
+      <c r="HE5" s="167"/>
+      <c r="HF5" s="159">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45495</v>
       </c>
-      <c r="HG5" s="157"/>
-      <c r="HH5" s="157"/>
-      <c r="HI5" s="157"/>
-      <c r="HJ5" s="157"/>
-      <c r="HK5" s="157"/>
-      <c r="HL5" s="163"/>
-      <c r="HM5" s="156">
+      <c r="HG5" s="160"/>
+      <c r="HH5" s="160"/>
+      <c r="HI5" s="160"/>
+      <c r="HJ5" s="160"/>
+      <c r="HK5" s="160"/>
+      <c r="HL5" s="161"/>
+      <c r="HM5" s="166">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45502</v>
       </c>
-      <c r="HN5" s="157"/>
-      <c r="HO5" s="157"/>
-      <c r="HP5" s="157"/>
-      <c r="HQ5" s="157"/>
-      <c r="HR5" s="157"/>
-      <c r="HS5" s="158"/>
-      <c r="HT5" s="162">
+      <c r="HN5" s="160"/>
+      <c r="HO5" s="160"/>
+      <c r="HP5" s="160"/>
+      <c r="HQ5" s="160"/>
+      <c r="HR5" s="160"/>
+      <c r="HS5" s="167"/>
+      <c r="HT5" s="159">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45509</v>
       </c>
-      <c r="HU5" s="157"/>
-      <c r="HV5" s="157"/>
-      <c r="HW5" s="157"/>
-      <c r="HX5" s="157"/>
-      <c r="HY5" s="157"/>
-      <c r="HZ5" s="163"/>
-      <c r="IA5" s="156">
+      <c r="HU5" s="160"/>
+      <c r="HV5" s="160"/>
+      <c r="HW5" s="160"/>
+      <c r="HX5" s="160"/>
+      <c r="HY5" s="160"/>
+      <c r="HZ5" s="161"/>
+      <c r="IA5" s="166">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45516</v>
       </c>
-      <c r="IB5" s="157"/>
-      <c r="IC5" s="157"/>
-      <c r="ID5" s="157"/>
-      <c r="IE5" s="157"/>
-      <c r="IF5" s="157"/>
-      <c r="IG5" s="158"/>
-      <c r="IH5" s="162">
+      <c r="IB5" s="160"/>
+      <c r="IC5" s="160"/>
+      <c r="ID5" s="160"/>
+      <c r="IE5" s="160"/>
+      <c r="IF5" s="160"/>
+      <c r="IG5" s="167"/>
+      <c r="IH5" s="159">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45523</v>
       </c>
-      <c r="II5" s="157"/>
-      <c r="IJ5" s="157"/>
-      <c r="IK5" s="157"/>
-      <c r="IL5" s="157"/>
-      <c r="IM5" s="157"/>
-      <c r="IN5" s="163"/>
-      <c r="IO5" s="156">
+      <c r="II5" s="160"/>
+      <c r="IJ5" s="160"/>
+      <c r="IK5" s="160"/>
+      <c r="IL5" s="160"/>
+      <c r="IM5" s="160"/>
+      <c r="IN5" s="161"/>
+      <c r="IO5" s="166">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45530</v>
       </c>
-      <c r="IP5" s="157"/>
-      <c r="IQ5" s="157"/>
-      <c r="IR5" s="157"/>
-      <c r="IS5" s="157"/>
-      <c r="IT5" s="157"/>
-      <c r="IU5" s="158"/>
+      <c r="IP5" s="160"/>
+      <c r="IQ5" s="160"/>
+      <c r="IR5" s="160"/>
+      <c r="IS5" s="160"/>
+      <c r="IT5" s="160"/>
+      <c r="IU5" s="167"/>
     </row>
     <row r="6" spans="1:255" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="146"/>
@@ -8992,7 +8992,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="46">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
@@ -9268,7 +9268,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="46">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I16" s="102">
         <f t="shared" ref="I16" si="265">IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -15777,49 +15777,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -15836,20 +15807,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H36:H40 H8:H33">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807FA4DE-D081-4695-99D2-5E577DF202DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F3F472-444E-4165-A4E8-B48AE2696C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4177,7 +4177,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -8986,17 +8986,17 @@
       </c>
       <c r="F15" s="84">
         <f t="shared" ref="F15" si="262">IF(ISBLANK(E15)," - ",IF(G15=0,E15,E15+G15-1))</f>
-        <v>45317</v>
+        <v>45325</v>
       </c>
       <c r="G15" s="45">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H15" s="46">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J15" s="94"/>
       <c r="K15" s="34"/>
@@ -9262,17 +9262,17 @@
       </c>
       <c r="F16" s="84">
         <f t="shared" ref="F16" si="264">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
-        <v>45321</v>
+        <v>45325</v>
       </c>
       <c r="G16" s="45">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H16" s="46">
         <v>0.4</v>
       </c>
       <c r="I16" s="102">
         <f t="shared" ref="I16" si="265">IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="34"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3B1E1-4BCE-4673-BAEC-9B128630052C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C64FD-3E4D-4D50-8DB4-539282B413A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -3803,28 +3803,40 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3861,18 +3873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4057,7 +4057,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="5"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4715,74 +4715,74 @@
   </sheetPr>
   <dimension ref="A1:IU44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.86328125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="5.86328125" style="137" customWidth="1"/>
-    <col min="4" max="4" width="6.86328125" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="137" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
-    <col min="7" max="7" width="5.1328125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.73046875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.86328125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="0.59765625" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.3984375" style="25" customWidth="1"/>
-    <col min="67" max="68" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="25" customWidth="1"/>
+    <col min="67" max="68" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.1328125" style="25"/>
+    <col min="229" max="229" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:255" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="102" t="s">
         <v>138</v>
       </c>
@@ -4795,23 +4795,23 @@
       <c r="K1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="250"/>
-      <c r="AE1" s="250"/>
-      <c r="AF1" s="250"/>
-      <c r="AG1" s="250"/>
-      <c r="AH1" s="250"/>
-      <c r="AI1" s="250"/>
-      <c r="AJ1" s="250"/>
-      <c r="AK1" s="250"/>
-      <c r="AL1" s="250"/>
-      <c r="AM1" s="250"/>
-      <c r="AN1" s="250"/>
-      <c r="AO1" s="250"/>
-      <c r="AP1" s="250"/>
-      <c r="AQ1" s="250"/>
-      <c r="AR1" s="250"/>
-    </row>
-    <row r="2" spans="1:255" s="52" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="254"/>
+      <c r="AF1" s="254"/>
+      <c r="AG1" s="254"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="254"/>
+      <c r="AJ1" s="254"/>
+      <c r="AK1" s="254"/>
+      <c r="AL1" s="254"/>
+      <c r="AM1" s="254"/>
+      <c r="AN1" s="254"/>
+      <c r="AO1" s="254"/>
+      <c r="AP1" s="254"/>
+      <c r="AQ1" s="254"/>
+      <c r="AR1" s="254"/>
+    </row>
+    <row r="2" spans="1:255" s="52" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="96" t="s">
         <v>139</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:255" s="85" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:255" s="85" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81"/>
       <c r="B3" s="82"/>
       <c r="C3" s="129"/>
@@ -4885,1715 +4885,1715 @@
       <c r="BM3" s="100"/>
       <c r="BN3" s="101"/>
     </row>
-    <row r="4" spans="1:255" s="94" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:255" s="94" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="253">
+      <c r="C4" s="257">
         <v>45295</v>
       </c>
-      <c r="D4" s="254"/>
-      <c r="E4" s="255"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259"/>
       <c r="H4" s="97" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="98">
-        <v>1</v>
-      </c>
-      <c r="K4" s="245"/>
-      <c r="L4" s="246"/>
-      <c r="M4" s="246"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="246"/>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="247"/>
-      <c r="R4" s="245" t="str">
+        <v>5</v>
+      </c>
+      <c r="K4" s="242"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243"/>
+      <c r="P4" s="243"/>
+      <c r="Q4" s="244"/>
+      <c r="R4" s="242" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 1</v>
-      </c>
-      <c r="S4" s="246"/>
-      <c r="T4" s="246"/>
-      <c r="U4" s="246"/>
-      <c r="V4" s="246"/>
-      <c r="W4" s="246"/>
-      <c r="X4" s="247"/>
-      <c r="Y4" s="245" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="S4" s="243"/>
+      <c r="T4" s="243"/>
+      <c r="U4" s="243"/>
+      <c r="V4" s="243"/>
+      <c r="W4" s="243"/>
+      <c r="X4" s="244"/>
+      <c r="Y4" s="242" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="Z4" s="246"/>
-      <c r="AA4" s="246"/>
-      <c r="AB4" s="246"/>
-      <c r="AC4" s="246"/>
-      <c r="AD4" s="246"/>
-      <c r="AE4" s="247"/>
-      <c r="AF4" s="245" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="Z4" s="243"/>
+      <c r="AA4" s="243"/>
+      <c r="AB4" s="243"/>
+      <c r="AC4" s="243"/>
+      <c r="AD4" s="243"/>
+      <c r="AE4" s="244"/>
+      <c r="AF4" s="242" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="AG4" s="246"/>
-      <c r="AH4" s="246"/>
-      <c r="AI4" s="246"/>
-      <c r="AJ4" s="246"/>
-      <c r="AK4" s="246"/>
-      <c r="AL4" s="247"/>
-      <c r="AM4" s="245" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="AG4" s="243"/>
+      <c r="AH4" s="243"/>
+      <c r="AI4" s="243"/>
+      <c r="AJ4" s="243"/>
+      <c r="AK4" s="243"/>
+      <c r="AL4" s="244"/>
+      <c r="AM4" s="242" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="AN4" s="246"/>
-      <c r="AO4" s="246"/>
-      <c r="AP4" s="246"/>
-      <c r="AQ4" s="246"/>
-      <c r="AR4" s="246"/>
-      <c r="AS4" s="247"/>
-      <c r="AT4" s="245" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="AN4" s="243"/>
+      <c r="AO4" s="243"/>
+      <c r="AP4" s="243"/>
+      <c r="AQ4" s="243"/>
+      <c r="AR4" s="243"/>
+      <c r="AS4" s="244"/>
+      <c r="AT4" s="242" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AU4" s="246"/>
-      <c r="AV4" s="246"/>
-      <c r="AW4" s="246"/>
-      <c r="AX4" s="246"/>
-      <c r="AY4" s="246"/>
-      <c r="AZ4" s="247"/>
-      <c r="BA4" s="245" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="AU4" s="243"/>
+      <c r="AV4" s="243"/>
+      <c r="AW4" s="243"/>
+      <c r="AX4" s="243"/>
+      <c r="AY4" s="243"/>
+      <c r="AZ4" s="244"/>
+      <c r="BA4" s="242" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="BB4" s="246"/>
-      <c r="BC4" s="246"/>
-      <c r="BD4" s="246"/>
-      <c r="BE4" s="246"/>
-      <c r="BF4" s="246"/>
-      <c r="BG4" s="247"/>
-      <c r="BH4" s="245" t="str">
+        <v>Week 10</v>
+      </c>
+      <c r="BB4" s="243"/>
+      <c r="BC4" s="243"/>
+      <c r="BD4" s="243"/>
+      <c r="BE4" s="243"/>
+      <c r="BF4" s="243"/>
+      <c r="BG4" s="244"/>
+      <c r="BH4" s="242" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="BI4" s="246"/>
-      <c r="BJ4" s="246"/>
-      <c r="BK4" s="246"/>
-      <c r="BL4" s="246"/>
-      <c r="BM4" s="246"/>
-      <c r="BN4" s="247"/>
-      <c r="BO4" s="245" t="str">
+        <v>Week 11</v>
+      </c>
+      <c r="BI4" s="243"/>
+      <c r="BJ4" s="243"/>
+      <c r="BK4" s="243"/>
+      <c r="BL4" s="243"/>
+      <c r="BM4" s="243"/>
+      <c r="BN4" s="244"/>
+      <c r="BO4" s="242" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BP4" s="246"/>
-      <c r="BQ4" s="246"/>
-      <c r="BR4" s="246"/>
-      <c r="BS4" s="246"/>
-      <c r="BT4" s="246"/>
-      <c r="BU4" s="247"/>
-      <c r="BV4" s="245" t="str">
+        <v>Week 12</v>
+      </c>
+      <c r="BP4" s="243"/>
+      <c r="BQ4" s="243"/>
+      <c r="BR4" s="243"/>
+      <c r="BS4" s="243"/>
+      <c r="BT4" s="243"/>
+      <c r="BU4" s="244"/>
+      <c r="BV4" s="242" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
-      </c>
-      <c r="BW4" s="246"/>
-      <c r="BX4" s="246"/>
-      <c r="BY4" s="246"/>
-      <c r="BZ4" s="246"/>
-      <c r="CA4" s="246"/>
-      <c r="CB4" s="247"/>
-      <c r="CC4" s="245" t="str">
+        <v>Week 13</v>
+      </c>
+      <c r="BW4" s="243"/>
+      <c r="BX4" s="243"/>
+      <c r="BY4" s="243"/>
+      <c r="BZ4" s="243"/>
+      <c r="CA4" s="243"/>
+      <c r="CB4" s="244"/>
+      <c r="CC4" s="242" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 10</v>
-      </c>
-      <c r="CD4" s="246"/>
-      <c r="CE4" s="246"/>
-      <c r="CF4" s="246"/>
-      <c r="CG4" s="246"/>
-      <c r="CH4" s="246"/>
-      <c r="CI4" s="247"/>
-      <c r="CJ4" s="245" t="str">
+        <v>Week 14</v>
+      </c>
+      <c r="CD4" s="243"/>
+      <c r="CE4" s="243"/>
+      <c r="CF4" s="243"/>
+      <c r="CG4" s="243"/>
+      <c r="CH4" s="243"/>
+      <c r="CI4" s="244"/>
+      <c r="CJ4" s="242" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 11</v>
-      </c>
-      <c r="CK4" s="246"/>
-      <c r="CL4" s="246"/>
-      <c r="CM4" s="246"/>
-      <c r="CN4" s="246"/>
-      <c r="CO4" s="246"/>
-      <c r="CP4" s="247"/>
-      <c r="CQ4" s="245" t="str">
+        <v>Week 15</v>
+      </c>
+      <c r="CK4" s="243"/>
+      <c r="CL4" s="243"/>
+      <c r="CM4" s="243"/>
+      <c r="CN4" s="243"/>
+      <c r="CO4" s="243"/>
+      <c r="CP4" s="244"/>
+      <c r="CQ4" s="242" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 12</v>
-      </c>
-      <c r="CR4" s="246"/>
-      <c r="CS4" s="246"/>
-      <c r="CT4" s="246"/>
-      <c r="CU4" s="246"/>
-      <c r="CV4" s="246"/>
-      <c r="CW4" s="247"/>
-      <c r="CX4" s="245" t="str">
+        <v>Week 16</v>
+      </c>
+      <c r="CR4" s="243"/>
+      <c r="CS4" s="243"/>
+      <c r="CT4" s="243"/>
+      <c r="CU4" s="243"/>
+      <c r="CV4" s="243"/>
+      <c r="CW4" s="244"/>
+      <c r="CX4" s="242" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 13</v>
-      </c>
-      <c r="CY4" s="246"/>
-      <c r="CZ4" s="246"/>
-      <c r="DA4" s="246"/>
-      <c r="DB4" s="246"/>
-      <c r="DC4" s="246"/>
-      <c r="DD4" s="247"/>
-      <c r="DE4" s="245" t="str">
+        <v>Week 17</v>
+      </c>
+      <c r="CY4" s="243"/>
+      <c r="CZ4" s="243"/>
+      <c r="DA4" s="243"/>
+      <c r="DB4" s="243"/>
+      <c r="DC4" s="243"/>
+      <c r="DD4" s="244"/>
+      <c r="DE4" s="242" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 14</v>
-      </c>
-      <c r="DF4" s="246"/>
-      <c r="DG4" s="246"/>
-      <c r="DH4" s="246"/>
-      <c r="DI4" s="246"/>
-      <c r="DJ4" s="246"/>
-      <c r="DK4" s="247"/>
-      <c r="DL4" s="245" t="str">
+        <v>Week 18</v>
+      </c>
+      <c r="DF4" s="243"/>
+      <c r="DG4" s="243"/>
+      <c r="DH4" s="243"/>
+      <c r="DI4" s="243"/>
+      <c r="DJ4" s="243"/>
+      <c r="DK4" s="244"/>
+      <c r="DL4" s="242" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 15</v>
-      </c>
-      <c r="DM4" s="246"/>
-      <c r="DN4" s="246"/>
-      <c r="DO4" s="246"/>
-      <c r="DP4" s="246"/>
-      <c r="DQ4" s="246"/>
-      <c r="DR4" s="247"/>
-      <c r="DS4" s="245" t="str">
+        <v>Week 19</v>
+      </c>
+      <c r="DM4" s="243"/>
+      <c r="DN4" s="243"/>
+      <c r="DO4" s="243"/>
+      <c r="DP4" s="243"/>
+      <c r="DQ4" s="243"/>
+      <c r="DR4" s="244"/>
+      <c r="DS4" s="242" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 16</v>
-      </c>
-      <c r="DT4" s="246"/>
-      <c r="DU4" s="246"/>
-      <c r="DV4" s="246"/>
-      <c r="DW4" s="246"/>
-      <c r="DX4" s="246"/>
-      <c r="DY4" s="247"/>
-      <c r="DZ4" s="245" t="str">
+        <v>Week 20</v>
+      </c>
+      <c r="DT4" s="243"/>
+      <c r="DU4" s="243"/>
+      <c r="DV4" s="243"/>
+      <c r="DW4" s="243"/>
+      <c r="DX4" s="243"/>
+      <c r="DY4" s="244"/>
+      <c r="DZ4" s="242" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 17</v>
-      </c>
-      <c r="EA4" s="246"/>
-      <c r="EB4" s="246"/>
-      <c r="EC4" s="246"/>
-      <c r="ED4" s="246"/>
-      <c r="EE4" s="246"/>
-      <c r="EF4" s="247"/>
-      <c r="EG4" s="245" t="str">
+        <v>Week 21</v>
+      </c>
+      <c r="EA4" s="243"/>
+      <c r="EB4" s="243"/>
+      <c r="EC4" s="243"/>
+      <c r="ED4" s="243"/>
+      <c r="EE4" s="243"/>
+      <c r="EF4" s="244"/>
+      <c r="EG4" s="242" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 18</v>
-      </c>
-      <c r="EH4" s="246"/>
-      <c r="EI4" s="246"/>
-      <c r="EJ4" s="246"/>
-      <c r="EK4" s="246"/>
-      <c r="EL4" s="246"/>
-      <c r="EM4" s="247"/>
-      <c r="EN4" s="245" t="str">
+        <v>Week 22</v>
+      </c>
+      <c r="EH4" s="243"/>
+      <c r="EI4" s="243"/>
+      <c r="EJ4" s="243"/>
+      <c r="EK4" s="243"/>
+      <c r="EL4" s="243"/>
+      <c r="EM4" s="244"/>
+      <c r="EN4" s="242" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 19</v>
-      </c>
-      <c r="EO4" s="246"/>
-      <c r="EP4" s="246"/>
-      <c r="EQ4" s="246"/>
-      <c r="ER4" s="246"/>
-      <c r="ES4" s="246"/>
-      <c r="ET4" s="247"/>
-      <c r="EU4" s="245" t="str">
+        <v>Week 23</v>
+      </c>
+      <c r="EO4" s="243"/>
+      <c r="EP4" s="243"/>
+      <c r="EQ4" s="243"/>
+      <c r="ER4" s="243"/>
+      <c r="ES4" s="243"/>
+      <c r="ET4" s="244"/>
+      <c r="EU4" s="242" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 20</v>
-      </c>
-      <c r="EV4" s="246"/>
-      <c r="EW4" s="246"/>
-      <c r="EX4" s="246"/>
-      <c r="EY4" s="246"/>
-      <c r="EZ4" s="246"/>
-      <c r="FA4" s="247"/>
-      <c r="FB4" s="245" t="str">
+        <v>Week 24</v>
+      </c>
+      <c r="EV4" s="243"/>
+      <c r="EW4" s="243"/>
+      <c r="EX4" s="243"/>
+      <c r="EY4" s="243"/>
+      <c r="EZ4" s="243"/>
+      <c r="FA4" s="244"/>
+      <c r="FB4" s="242" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 21</v>
-      </c>
-      <c r="FC4" s="246"/>
-      <c r="FD4" s="246"/>
-      <c r="FE4" s="246"/>
-      <c r="FF4" s="246"/>
-      <c r="FG4" s="246"/>
-      <c r="FH4" s="247"/>
-      <c r="FI4" s="245" t="str">
+        <v>Week 25</v>
+      </c>
+      <c r="FC4" s="243"/>
+      <c r="FD4" s="243"/>
+      <c r="FE4" s="243"/>
+      <c r="FF4" s="243"/>
+      <c r="FG4" s="243"/>
+      <c r="FH4" s="244"/>
+      <c r="FI4" s="242" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 22</v>
-      </c>
-      <c r="FJ4" s="246"/>
-      <c r="FK4" s="246"/>
-      <c r="FL4" s="246"/>
-      <c r="FM4" s="246"/>
-      <c r="FN4" s="246"/>
-      <c r="FO4" s="247"/>
-      <c r="FP4" s="245" t="str">
+        <v>Week 26</v>
+      </c>
+      <c r="FJ4" s="243"/>
+      <c r="FK4" s="243"/>
+      <c r="FL4" s="243"/>
+      <c r="FM4" s="243"/>
+      <c r="FN4" s="243"/>
+      <c r="FO4" s="244"/>
+      <c r="FP4" s="242" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 23</v>
-      </c>
-      <c r="FQ4" s="246"/>
-      <c r="FR4" s="246"/>
-      <c r="FS4" s="246"/>
-      <c r="FT4" s="246"/>
-      <c r="FU4" s="246"/>
-      <c r="FV4" s="247"/>
-      <c r="FW4" s="245" t="str">
+        <v>Week 27</v>
+      </c>
+      <c r="FQ4" s="243"/>
+      <c r="FR4" s="243"/>
+      <c r="FS4" s="243"/>
+      <c r="FT4" s="243"/>
+      <c r="FU4" s="243"/>
+      <c r="FV4" s="244"/>
+      <c r="FW4" s="242" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 24</v>
-      </c>
-      <c r="FX4" s="246"/>
-      <c r="FY4" s="246"/>
-      <c r="FZ4" s="246"/>
-      <c r="GA4" s="246"/>
-      <c r="GB4" s="246"/>
-      <c r="GC4" s="247"/>
-      <c r="GD4" s="245" t="str">
+        <v>Week 28</v>
+      </c>
+      <c r="FX4" s="243"/>
+      <c r="FY4" s="243"/>
+      <c r="FZ4" s="243"/>
+      <c r="GA4" s="243"/>
+      <c r="GB4" s="243"/>
+      <c r="GC4" s="244"/>
+      <c r="GD4" s="242" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 25</v>
-      </c>
-      <c r="GE4" s="246"/>
-      <c r="GF4" s="246"/>
-      <c r="GG4" s="246"/>
-      <c r="GH4" s="246"/>
-      <c r="GI4" s="246"/>
-      <c r="GJ4" s="247"/>
-      <c r="GK4" s="245" t="str">
+        <v>Week 29</v>
+      </c>
+      <c r="GE4" s="243"/>
+      <c r="GF4" s="243"/>
+      <c r="GG4" s="243"/>
+      <c r="GH4" s="243"/>
+      <c r="GI4" s="243"/>
+      <c r="GJ4" s="244"/>
+      <c r="GK4" s="242" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 26</v>
-      </c>
-      <c r="GL4" s="246"/>
-      <c r="GM4" s="246"/>
-      <c r="GN4" s="246"/>
-      <c r="GO4" s="246"/>
-      <c r="GP4" s="246"/>
-      <c r="GQ4" s="247"/>
-      <c r="GR4" s="245" t="str">
+        <v>Week 30</v>
+      </c>
+      <c r="GL4" s="243"/>
+      <c r="GM4" s="243"/>
+      <c r="GN4" s="243"/>
+      <c r="GO4" s="243"/>
+      <c r="GP4" s="243"/>
+      <c r="GQ4" s="244"/>
+      <c r="GR4" s="242" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 27</v>
-      </c>
-      <c r="GS4" s="246"/>
-      <c r="GT4" s="246"/>
-      <c r="GU4" s="246"/>
-      <c r="GV4" s="246"/>
-      <c r="GW4" s="246"/>
-      <c r="GX4" s="247"/>
-      <c r="GY4" s="245" t="str">
+        <v>Week 31</v>
+      </c>
+      <c r="GS4" s="243"/>
+      <c r="GT4" s="243"/>
+      <c r="GU4" s="243"/>
+      <c r="GV4" s="243"/>
+      <c r="GW4" s="243"/>
+      <c r="GX4" s="244"/>
+      <c r="GY4" s="242" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 28</v>
-      </c>
-      <c r="GZ4" s="246"/>
-      <c r="HA4" s="246"/>
-      <c r="HB4" s="246"/>
-      <c r="HC4" s="246"/>
-      <c r="HD4" s="246"/>
-      <c r="HE4" s="247"/>
-      <c r="HF4" s="245" t="str">
+        <v>Week 32</v>
+      </c>
+      <c r="GZ4" s="243"/>
+      <c r="HA4" s="243"/>
+      <c r="HB4" s="243"/>
+      <c r="HC4" s="243"/>
+      <c r="HD4" s="243"/>
+      <c r="HE4" s="244"/>
+      <c r="HF4" s="242" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 29</v>
-      </c>
-      <c r="HG4" s="246"/>
-      <c r="HH4" s="246"/>
-      <c r="HI4" s="246"/>
-      <c r="HJ4" s="246"/>
-      <c r="HK4" s="246"/>
-      <c r="HL4" s="247"/>
-      <c r="HM4" s="245" t="str">
+        <v>Week 33</v>
+      </c>
+      <c r="HG4" s="243"/>
+      <c r="HH4" s="243"/>
+      <c r="HI4" s="243"/>
+      <c r="HJ4" s="243"/>
+      <c r="HK4" s="243"/>
+      <c r="HL4" s="244"/>
+      <c r="HM4" s="242" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 30</v>
-      </c>
-      <c r="HN4" s="246"/>
-      <c r="HO4" s="246"/>
-      <c r="HP4" s="246"/>
-      <c r="HQ4" s="246"/>
-      <c r="HR4" s="246"/>
-      <c r="HS4" s="247"/>
-      <c r="HT4" s="245" t="str">
+        <v>Week 34</v>
+      </c>
+      <c r="HN4" s="243"/>
+      <c r="HO4" s="243"/>
+      <c r="HP4" s="243"/>
+      <c r="HQ4" s="243"/>
+      <c r="HR4" s="243"/>
+      <c r="HS4" s="244"/>
+      <c r="HT4" s="242" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 31</v>
-      </c>
-      <c r="HU4" s="246"/>
-      <c r="HV4" s="246"/>
-      <c r="HW4" s="246"/>
-      <c r="HX4" s="246"/>
-      <c r="HY4" s="246"/>
-      <c r="HZ4" s="247"/>
-      <c r="IA4" s="245" t="str">
+        <v>Week 35</v>
+      </c>
+      <c r="HU4" s="243"/>
+      <c r="HV4" s="243"/>
+      <c r="HW4" s="243"/>
+      <c r="HX4" s="243"/>
+      <c r="HY4" s="243"/>
+      <c r="HZ4" s="244"/>
+      <c r="IA4" s="242" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 32</v>
-      </c>
-      <c r="IB4" s="246"/>
-      <c r="IC4" s="246"/>
-      <c r="ID4" s="246"/>
-      <c r="IE4" s="246"/>
-      <c r="IF4" s="246"/>
-      <c r="IG4" s="247"/>
-      <c r="IH4" s="245" t="str">
+        <v>Week 36</v>
+      </c>
+      <c r="IB4" s="243"/>
+      <c r="IC4" s="243"/>
+      <c r="ID4" s="243"/>
+      <c r="IE4" s="243"/>
+      <c r="IF4" s="243"/>
+      <c r="IG4" s="244"/>
+      <c r="IH4" s="242" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 33</v>
-      </c>
-      <c r="II4" s="246"/>
-      <c r="IJ4" s="246"/>
-      <c r="IK4" s="246"/>
-      <c r="IL4" s="246"/>
-      <c r="IM4" s="246"/>
-      <c r="IN4" s="247"/>
-      <c r="IO4" s="245" t="str">
+        <v>Week 37</v>
+      </c>
+      <c r="II4" s="243"/>
+      <c r="IJ4" s="243"/>
+      <c r="IK4" s="243"/>
+      <c r="IL4" s="243"/>
+      <c r="IM4" s="243"/>
+      <c r="IN4" s="244"/>
+      <c r="IO4" s="242" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 34</v>
-      </c>
-      <c r="IP4" s="246"/>
-      <c r="IQ4" s="246"/>
-      <c r="IR4" s="246"/>
-      <c r="IS4" s="246"/>
-      <c r="IT4" s="246"/>
-      <c r="IU4" s="247"/>
-    </row>
-    <row r="5" spans="1:255" s="48" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>Week 38</v>
+      </c>
+      <c r="IP4" s="243"/>
+      <c r="IQ4" s="243"/>
+      <c r="IR4" s="243"/>
+      <c r="IS4" s="243"/>
+      <c r="IT4" s="243"/>
+      <c r="IU4" s="244"/>
+    </row>
+    <row r="5" spans="1:255" s="48" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95"/>
       <c r="B5" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="253" t="s">
+      <c r="C5" s="257" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="255"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="259"/>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
-      <c r="K5" s="256">
+      <c r="K5" s="260">
         <f>K6</f>
-        <v>45292</v>
-      </c>
-      <c r="L5" s="243"/>
-      <c r="M5" s="243"/>
-      <c r="N5" s="243"/>
-      <c r="O5" s="243"/>
-      <c r="P5" s="243"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="256">
+        <v>45320</v>
+      </c>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="246"/>
+      <c r="P5" s="246"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="260">
         <f>R6</f>
-        <v>45299</v>
-      </c>
-      <c r="S5" s="243"/>
-      <c r="T5" s="243"/>
-      <c r="U5" s="243"/>
-      <c r="V5" s="243"/>
-      <c r="W5" s="243"/>
-      <c r="X5" s="257"/>
-      <c r="Y5" s="259">
+        <v>45327</v>
+      </c>
+      <c r="S5" s="246"/>
+      <c r="T5" s="246"/>
+      <c r="U5" s="246"/>
+      <c r="V5" s="246"/>
+      <c r="W5" s="246"/>
+      <c r="X5" s="261"/>
+      <c r="Y5" s="263">
         <f>Y6</f>
-        <v>45306</v>
-      </c>
-      <c r="Z5" s="243"/>
-      <c r="AA5" s="243"/>
-      <c r="AB5" s="243"/>
-      <c r="AC5" s="243"/>
-      <c r="AD5" s="243"/>
-      <c r="AE5" s="260"/>
-      <c r="AF5" s="251">
+        <v>45334</v>
+      </c>
+      <c r="Z5" s="246"/>
+      <c r="AA5" s="246"/>
+      <c r="AB5" s="246"/>
+      <c r="AC5" s="246"/>
+      <c r="AD5" s="246"/>
+      <c r="AE5" s="264"/>
+      <c r="AF5" s="255">
         <f>AF6</f>
-        <v>45313</v>
-      </c>
-      <c r="AG5" s="243"/>
-      <c r="AH5" s="243"/>
-      <c r="AI5" s="243"/>
-      <c r="AJ5" s="243"/>
-      <c r="AK5" s="243"/>
-      <c r="AL5" s="252"/>
-      <c r="AM5" s="261">
+        <v>45341</v>
+      </c>
+      <c r="AG5" s="246"/>
+      <c r="AH5" s="246"/>
+      <c r="AI5" s="246"/>
+      <c r="AJ5" s="246"/>
+      <c r="AK5" s="246"/>
+      <c r="AL5" s="256"/>
+      <c r="AM5" s="248">
         <f>AM6</f>
-        <v>45320</v>
-      </c>
-      <c r="AN5" s="243"/>
-      <c r="AO5" s="243"/>
-      <c r="AP5" s="243"/>
-      <c r="AQ5" s="243"/>
-      <c r="AR5" s="243"/>
-      <c r="AS5" s="262"/>
-      <c r="AT5" s="263">
+        <v>45348</v>
+      </c>
+      <c r="AN5" s="246"/>
+      <c r="AO5" s="246"/>
+      <c r="AP5" s="246"/>
+      <c r="AQ5" s="246"/>
+      <c r="AR5" s="246"/>
+      <c r="AS5" s="249"/>
+      <c r="AT5" s="250">
         <f>AT6</f>
-        <v>45327</v>
-      </c>
-      <c r="AU5" s="243"/>
-      <c r="AV5" s="243"/>
-      <c r="AW5" s="243"/>
-      <c r="AX5" s="243"/>
-      <c r="AY5" s="243"/>
-      <c r="AZ5" s="264"/>
-      <c r="BA5" s="242">
+        <v>45355</v>
+      </c>
+      <c r="AU5" s="246"/>
+      <c r="AV5" s="246"/>
+      <c r="AW5" s="246"/>
+      <c r="AX5" s="246"/>
+      <c r="AY5" s="246"/>
+      <c r="AZ5" s="251"/>
+      <c r="BA5" s="252">
         <f>BA6</f>
-        <v>45334</v>
-      </c>
-      <c r="BB5" s="243"/>
-      <c r="BC5" s="243"/>
-      <c r="BD5" s="243"/>
-      <c r="BE5" s="243"/>
-      <c r="BF5" s="243"/>
-      <c r="BG5" s="244"/>
-      <c r="BH5" s="248">
+        <v>45362</v>
+      </c>
+      <c r="BB5" s="246"/>
+      <c r="BC5" s="246"/>
+      <c r="BD5" s="246"/>
+      <c r="BE5" s="246"/>
+      <c r="BF5" s="246"/>
+      <c r="BG5" s="253"/>
+      <c r="BH5" s="245">
         <f>BH6</f>
-        <v>45341</v>
-      </c>
-      <c r="BI5" s="243"/>
-      <c r="BJ5" s="243"/>
-      <c r="BK5" s="243"/>
-      <c r="BL5" s="243"/>
-      <c r="BM5" s="243"/>
-      <c r="BN5" s="249"/>
-      <c r="BO5" s="242">
+        <v>45369</v>
+      </c>
+      <c r="BI5" s="246"/>
+      <c r="BJ5" s="246"/>
+      <c r="BK5" s="246"/>
+      <c r="BL5" s="246"/>
+      <c r="BM5" s="246"/>
+      <c r="BN5" s="247"/>
+      <c r="BO5" s="252">
         <f>BO6</f>
-        <v>45348</v>
-      </c>
-      <c r="BP5" s="243"/>
-      <c r="BQ5" s="243"/>
-      <c r="BR5" s="243"/>
-      <c r="BS5" s="243"/>
-      <c r="BT5" s="243"/>
-      <c r="BU5" s="244"/>
-      <c r="BV5" s="248">
+        <v>45376</v>
+      </c>
+      <c r="BP5" s="246"/>
+      <c r="BQ5" s="246"/>
+      <c r="BR5" s="246"/>
+      <c r="BS5" s="246"/>
+      <c r="BT5" s="246"/>
+      <c r="BU5" s="253"/>
+      <c r="BV5" s="245">
         <f>BV6</f>
-        <v>45355</v>
-      </c>
-      <c r="BW5" s="243"/>
-      <c r="BX5" s="243"/>
-      <c r="BY5" s="243"/>
-      <c r="BZ5" s="243"/>
-      <c r="CA5" s="243"/>
-      <c r="CB5" s="249"/>
-      <c r="CC5" s="248">
+        <v>45383</v>
+      </c>
+      <c r="BW5" s="246"/>
+      <c r="BX5" s="246"/>
+      <c r="BY5" s="246"/>
+      <c r="BZ5" s="246"/>
+      <c r="CA5" s="246"/>
+      <c r="CB5" s="247"/>
+      <c r="CC5" s="245">
         <f>CC6</f>
-        <v>45362</v>
-      </c>
-      <c r="CD5" s="243"/>
-      <c r="CE5" s="243"/>
-      <c r="CF5" s="243"/>
-      <c r="CG5" s="243"/>
-      <c r="CH5" s="243"/>
-      <c r="CI5" s="249"/>
-      <c r="CJ5" s="242">
+        <v>45390</v>
+      </c>
+      <c r="CD5" s="246"/>
+      <c r="CE5" s="246"/>
+      <c r="CF5" s="246"/>
+      <c r="CG5" s="246"/>
+      <c r="CH5" s="246"/>
+      <c r="CI5" s="247"/>
+      <c r="CJ5" s="252">
         <f>CJ6</f>
-        <v>45369</v>
-      </c>
-      <c r="CK5" s="243"/>
-      <c r="CL5" s="243"/>
-      <c r="CM5" s="243"/>
-      <c r="CN5" s="243"/>
-      <c r="CO5" s="243"/>
-      <c r="CP5" s="244"/>
-      <c r="CQ5" s="248">
+        <v>45397</v>
+      </c>
+      <c r="CK5" s="246"/>
+      <c r="CL5" s="246"/>
+      <c r="CM5" s="246"/>
+      <c r="CN5" s="246"/>
+      <c r="CO5" s="246"/>
+      <c r="CP5" s="253"/>
+      <c r="CQ5" s="245">
         <f>CQ6</f>
-        <v>45376</v>
-      </c>
-      <c r="CR5" s="243"/>
-      <c r="CS5" s="243"/>
-      <c r="CT5" s="243"/>
-      <c r="CU5" s="243"/>
-      <c r="CV5" s="243"/>
-      <c r="CW5" s="249"/>
-      <c r="CX5" s="248">
+        <v>45404</v>
+      </c>
+      <c r="CR5" s="246"/>
+      <c r="CS5" s="246"/>
+      <c r="CT5" s="246"/>
+      <c r="CU5" s="246"/>
+      <c r="CV5" s="246"/>
+      <c r="CW5" s="247"/>
+      <c r="CX5" s="245">
         <f t="shared" ref="CX5" si="33">CX6</f>
-        <v>45383</v>
-      </c>
-      <c r="CY5" s="243"/>
-      <c r="CZ5" s="243"/>
-      <c r="DA5" s="243"/>
-      <c r="DB5" s="243"/>
-      <c r="DC5" s="243"/>
-      <c r="DD5" s="249"/>
-      <c r="DE5" s="242">
+        <v>45411</v>
+      </c>
+      <c r="CY5" s="246"/>
+      <c r="CZ5" s="246"/>
+      <c r="DA5" s="246"/>
+      <c r="DB5" s="246"/>
+      <c r="DC5" s="246"/>
+      <c r="DD5" s="247"/>
+      <c r="DE5" s="252">
         <f t="shared" ref="DE5" si="34">DE6</f>
-        <v>45390</v>
-      </c>
-      <c r="DF5" s="243"/>
-      <c r="DG5" s="243"/>
-      <c r="DH5" s="243"/>
-      <c r="DI5" s="243"/>
-      <c r="DJ5" s="243"/>
-      <c r="DK5" s="244"/>
-      <c r="DL5" s="248">
+        <v>45418</v>
+      </c>
+      <c r="DF5" s="246"/>
+      <c r="DG5" s="246"/>
+      <c r="DH5" s="246"/>
+      <c r="DI5" s="246"/>
+      <c r="DJ5" s="246"/>
+      <c r="DK5" s="253"/>
+      <c r="DL5" s="245">
         <f t="shared" ref="DL5" si="35">DL6</f>
-        <v>45397</v>
-      </c>
-      <c r="DM5" s="243"/>
-      <c r="DN5" s="243"/>
-      <c r="DO5" s="243"/>
-      <c r="DP5" s="243"/>
-      <c r="DQ5" s="243"/>
-      <c r="DR5" s="249"/>
-      <c r="DS5" s="248">
+        <v>45425</v>
+      </c>
+      <c r="DM5" s="246"/>
+      <c r="DN5" s="246"/>
+      <c r="DO5" s="246"/>
+      <c r="DP5" s="246"/>
+      <c r="DQ5" s="246"/>
+      <c r="DR5" s="247"/>
+      <c r="DS5" s="245">
         <f t="shared" ref="DS5" si="36">DS6</f>
-        <v>45404</v>
-      </c>
-      <c r="DT5" s="243"/>
-      <c r="DU5" s="243"/>
-      <c r="DV5" s="243"/>
-      <c r="DW5" s="243"/>
-      <c r="DX5" s="243"/>
-      <c r="DY5" s="249"/>
-      <c r="DZ5" s="242">
+        <v>45432</v>
+      </c>
+      <c r="DT5" s="246"/>
+      <c r="DU5" s="246"/>
+      <c r="DV5" s="246"/>
+      <c r="DW5" s="246"/>
+      <c r="DX5" s="246"/>
+      <c r="DY5" s="247"/>
+      <c r="DZ5" s="252">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
-        <v>45411</v>
-      </c>
-      <c r="EA5" s="243"/>
-      <c r="EB5" s="243"/>
-      <c r="EC5" s="243"/>
-      <c r="ED5" s="243"/>
-      <c r="EE5" s="243"/>
-      <c r="EF5" s="244"/>
-      <c r="EG5" s="248">
+        <v>45439</v>
+      </c>
+      <c r="EA5" s="246"/>
+      <c r="EB5" s="246"/>
+      <c r="EC5" s="246"/>
+      <c r="ED5" s="246"/>
+      <c r="EE5" s="246"/>
+      <c r="EF5" s="253"/>
+      <c r="EG5" s="245">
         <f t="shared" ref="EG5" si="38">EG6</f>
-        <v>45418</v>
-      </c>
-      <c r="EH5" s="243"/>
-      <c r="EI5" s="243"/>
-      <c r="EJ5" s="243"/>
-      <c r="EK5" s="243"/>
-      <c r="EL5" s="243"/>
-      <c r="EM5" s="249"/>
-      <c r="EN5" s="248">
+        <v>45446</v>
+      </c>
+      <c r="EH5" s="246"/>
+      <c r="EI5" s="246"/>
+      <c r="EJ5" s="246"/>
+      <c r="EK5" s="246"/>
+      <c r="EL5" s="246"/>
+      <c r="EM5" s="247"/>
+      <c r="EN5" s="245">
         <f>EN6</f>
-        <v>45425</v>
-      </c>
-      <c r="EO5" s="243"/>
-      <c r="EP5" s="243"/>
-      <c r="EQ5" s="243"/>
-      <c r="ER5" s="243"/>
-      <c r="ES5" s="243"/>
-      <c r="ET5" s="249"/>
-      <c r="EU5" s="242">
+        <v>45453</v>
+      </c>
+      <c r="EO5" s="246"/>
+      <c r="EP5" s="246"/>
+      <c r="EQ5" s="246"/>
+      <c r="ER5" s="246"/>
+      <c r="ES5" s="246"/>
+      <c r="ET5" s="247"/>
+      <c r="EU5" s="252">
         <f>EU6</f>
-        <v>45432</v>
-      </c>
-      <c r="EV5" s="243"/>
-      <c r="EW5" s="243"/>
-      <c r="EX5" s="243"/>
-      <c r="EY5" s="243"/>
-      <c r="EZ5" s="243"/>
-      <c r="FA5" s="244"/>
-      <c r="FB5" s="248">
+        <v>45460</v>
+      </c>
+      <c r="EV5" s="246"/>
+      <c r="EW5" s="246"/>
+      <c r="EX5" s="246"/>
+      <c r="EY5" s="246"/>
+      <c r="EZ5" s="246"/>
+      <c r="FA5" s="253"/>
+      <c r="FB5" s="245">
         <f>FB6</f>
-        <v>45439</v>
-      </c>
-      <c r="FC5" s="243"/>
-      <c r="FD5" s="243"/>
-      <c r="FE5" s="243"/>
-      <c r="FF5" s="243"/>
-      <c r="FG5" s="243"/>
-      <c r="FH5" s="249"/>
-      <c r="FI5" s="248">
+        <v>45467</v>
+      </c>
+      <c r="FC5" s="246"/>
+      <c r="FD5" s="246"/>
+      <c r="FE5" s="246"/>
+      <c r="FF5" s="246"/>
+      <c r="FG5" s="246"/>
+      <c r="FH5" s="247"/>
+      <c r="FI5" s="245">
         <f t="shared" ref="FI5" si="39">FI6</f>
-        <v>45446</v>
-      </c>
-      <c r="FJ5" s="243"/>
-      <c r="FK5" s="243"/>
-      <c r="FL5" s="243"/>
-      <c r="FM5" s="243"/>
-      <c r="FN5" s="243"/>
-      <c r="FO5" s="249"/>
-      <c r="FP5" s="242">
+        <v>45474</v>
+      </c>
+      <c r="FJ5" s="246"/>
+      <c r="FK5" s="246"/>
+      <c r="FL5" s="246"/>
+      <c r="FM5" s="246"/>
+      <c r="FN5" s="246"/>
+      <c r="FO5" s="247"/>
+      <c r="FP5" s="252">
         <f t="shared" ref="FP5" si="40">FP6</f>
-        <v>45453</v>
-      </c>
-      <c r="FQ5" s="243"/>
-      <c r="FR5" s="243"/>
-      <c r="FS5" s="243"/>
-      <c r="FT5" s="243"/>
-      <c r="FU5" s="243"/>
-      <c r="FV5" s="244"/>
-      <c r="FW5" s="248">
+        <v>45481</v>
+      </c>
+      <c r="FQ5" s="246"/>
+      <c r="FR5" s="246"/>
+      <c r="FS5" s="246"/>
+      <c r="FT5" s="246"/>
+      <c r="FU5" s="246"/>
+      <c r="FV5" s="253"/>
+      <c r="FW5" s="245">
         <f t="shared" ref="FW5" si="41">FW6</f>
-        <v>45460</v>
-      </c>
-      <c r="FX5" s="243"/>
-      <c r="FY5" s="243"/>
-      <c r="FZ5" s="243"/>
-      <c r="GA5" s="243"/>
-      <c r="GB5" s="243"/>
-      <c r="GC5" s="249"/>
-      <c r="GD5" s="248">
+        <v>45488</v>
+      </c>
+      <c r="FX5" s="246"/>
+      <c r="FY5" s="246"/>
+      <c r="FZ5" s="246"/>
+      <c r="GA5" s="246"/>
+      <c r="GB5" s="246"/>
+      <c r="GC5" s="247"/>
+      <c r="GD5" s="245">
         <f t="shared" ref="GD5" si="42">GD6</f>
-        <v>45467</v>
-      </c>
-      <c r="GE5" s="243"/>
-      <c r="GF5" s="243"/>
-      <c r="GG5" s="243"/>
-      <c r="GH5" s="243"/>
-      <c r="GI5" s="243"/>
-      <c r="GJ5" s="249"/>
-      <c r="GK5" s="242">
+        <v>45495</v>
+      </c>
+      <c r="GE5" s="246"/>
+      <c r="GF5" s="246"/>
+      <c r="GG5" s="246"/>
+      <c r="GH5" s="246"/>
+      <c r="GI5" s="246"/>
+      <c r="GJ5" s="247"/>
+      <c r="GK5" s="252">
         <f t="shared" ref="GK5" si="43">GK6</f>
-        <v>45474</v>
-      </c>
-      <c r="GL5" s="243"/>
-      <c r="GM5" s="243"/>
-      <c r="GN5" s="243"/>
-      <c r="GO5" s="243"/>
-      <c r="GP5" s="243"/>
-      <c r="GQ5" s="244"/>
-      <c r="GR5" s="248">
+        <v>45502</v>
+      </c>
+      <c r="GL5" s="246"/>
+      <c r="GM5" s="246"/>
+      <c r="GN5" s="246"/>
+      <c r="GO5" s="246"/>
+      <c r="GP5" s="246"/>
+      <c r="GQ5" s="253"/>
+      <c r="GR5" s="245">
         <f t="shared" ref="GR5" si="44">GR6</f>
-        <v>45481</v>
-      </c>
-      <c r="GS5" s="243"/>
-      <c r="GT5" s="243"/>
-      <c r="GU5" s="243"/>
-      <c r="GV5" s="243"/>
-      <c r="GW5" s="243"/>
-      <c r="GX5" s="249"/>
-      <c r="GY5" s="242">
+        <v>45509</v>
+      </c>
+      <c r="GS5" s="246"/>
+      <c r="GT5" s="246"/>
+      <c r="GU5" s="246"/>
+      <c r="GV5" s="246"/>
+      <c r="GW5" s="246"/>
+      <c r="GX5" s="247"/>
+      <c r="GY5" s="252">
         <f t="shared" ref="GY5" si="45">GY6</f>
-        <v>45488</v>
-      </c>
-      <c r="GZ5" s="243"/>
-      <c r="HA5" s="243"/>
-      <c r="HB5" s="243"/>
-      <c r="HC5" s="243"/>
-      <c r="HD5" s="243"/>
-      <c r="HE5" s="244"/>
-      <c r="HF5" s="248">
+        <v>45516</v>
+      </c>
+      <c r="GZ5" s="246"/>
+      <c r="HA5" s="246"/>
+      <c r="HB5" s="246"/>
+      <c r="HC5" s="246"/>
+      <c r="HD5" s="246"/>
+      <c r="HE5" s="253"/>
+      <c r="HF5" s="245">
         <f t="shared" ref="HF5" si="46">HF6</f>
-        <v>45495</v>
-      </c>
-      <c r="HG5" s="243"/>
-      <c r="HH5" s="243"/>
-      <c r="HI5" s="243"/>
-      <c r="HJ5" s="243"/>
-      <c r="HK5" s="243"/>
-      <c r="HL5" s="249"/>
-      <c r="HM5" s="242">
+        <v>45523</v>
+      </c>
+      <c r="HG5" s="246"/>
+      <c r="HH5" s="246"/>
+      <c r="HI5" s="246"/>
+      <c r="HJ5" s="246"/>
+      <c r="HK5" s="246"/>
+      <c r="HL5" s="247"/>
+      <c r="HM5" s="252">
         <f t="shared" ref="HM5" si="47">HM6</f>
-        <v>45502</v>
-      </c>
-      <c r="HN5" s="243"/>
-      <c r="HO5" s="243"/>
-      <c r="HP5" s="243"/>
-      <c r="HQ5" s="243"/>
-      <c r="HR5" s="243"/>
-      <c r="HS5" s="244"/>
-      <c r="HT5" s="248">
+        <v>45530</v>
+      </c>
+      <c r="HN5" s="246"/>
+      <c r="HO5" s="246"/>
+      <c r="HP5" s="246"/>
+      <c r="HQ5" s="246"/>
+      <c r="HR5" s="246"/>
+      <c r="HS5" s="253"/>
+      <c r="HT5" s="245">
         <f t="shared" ref="HT5" si="48">HT6</f>
-        <v>45509</v>
-      </c>
-      <c r="HU5" s="243"/>
-      <c r="HV5" s="243"/>
-      <c r="HW5" s="243"/>
-      <c r="HX5" s="243"/>
-      <c r="HY5" s="243"/>
-      <c r="HZ5" s="249"/>
-      <c r="IA5" s="242">
+        <v>45537</v>
+      </c>
+      <c r="HU5" s="246"/>
+      <c r="HV5" s="246"/>
+      <c r="HW5" s="246"/>
+      <c r="HX5" s="246"/>
+      <c r="HY5" s="246"/>
+      <c r="HZ5" s="247"/>
+      <c r="IA5" s="252">
         <f t="shared" ref="IA5" si="49">IA6</f>
-        <v>45516</v>
-      </c>
-      <c r="IB5" s="243"/>
-      <c r="IC5" s="243"/>
-      <c r="ID5" s="243"/>
-      <c r="IE5" s="243"/>
-      <c r="IF5" s="243"/>
-      <c r="IG5" s="244"/>
-      <c r="IH5" s="248">
+        <v>45544</v>
+      </c>
+      <c r="IB5" s="246"/>
+      <c r="IC5" s="246"/>
+      <c r="ID5" s="246"/>
+      <c r="IE5" s="246"/>
+      <c r="IF5" s="246"/>
+      <c r="IG5" s="253"/>
+      <c r="IH5" s="245">
         <f t="shared" ref="IH5" si="50">IH6</f>
-        <v>45523</v>
-      </c>
-      <c r="II5" s="243"/>
-      <c r="IJ5" s="243"/>
-      <c r="IK5" s="243"/>
-      <c r="IL5" s="243"/>
-      <c r="IM5" s="243"/>
-      <c r="IN5" s="249"/>
-      <c r="IO5" s="242">
+        <v>45551</v>
+      </c>
+      <c r="II5" s="246"/>
+      <c r="IJ5" s="246"/>
+      <c r="IK5" s="246"/>
+      <c r="IL5" s="246"/>
+      <c r="IM5" s="246"/>
+      <c r="IN5" s="247"/>
+      <c r="IO5" s="252">
         <f t="shared" ref="IO5" si="51">IO6</f>
-        <v>45530</v>
-      </c>
-      <c r="IP5" s="243"/>
-      <c r="IQ5" s="243"/>
-      <c r="IR5" s="243"/>
-      <c r="IS5" s="243"/>
-      <c r="IT5" s="243"/>
-      <c r="IU5" s="244"/>
-    </row>
-    <row r="6" spans="1:255" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45558</v>
+      </c>
+      <c r="IP5" s="246"/>
+      <c r="IQ5" s="246"/>
+      <c r="IR5" s="246"/>
+      <c r="IS5" s="246"/>
+      <c r="IT5" s="246"/>
+      <c r="IU5" s="253"/>
+    </row>
+    <row r="6" spans="1:255" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="130"/>
       <c r="K6" s="57">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
-        <v>45292</v>
+        <v>45320</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" ref="L6:AQ6" si="52">K6+1</f>
-        <v>45293</v>
+        <v>45321</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="52"/>
-        <v>45294</v>
+        <v>45322</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="52"/>
-        <v>45295</v>
+        <v>45323</v>
       </c>
       <c r="O6" s="47">
         <f t="shared" si="52"/>
-        <v>45296</v>
+        <v>45324</v>
       </c>
       <c r="P6" s="47">
         <f t="shared" si="52"/>
-        <v>45297</v>
+        <v>45325</v>
       </c>
       <c r="Q6" s="58">
         <f t="shared" si="52"/>
-        <v>45298</v>
+        <v>45326</v>
       </c>
       <c r="R6" s="57">
         <f t="shared" si="52"/>
-        <v>45299</v>
+        <v>45327</v>
       </c>
       <c r="S6" s="47">
         <f t="shared" si="52"/>
-        <v>45300</v>
+        <v>45328</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="52"/>
-        <v>45301</v>
+        <v>45329</v>
       </c>
       <c r="U6" s="47">
         <f t="shared" ref="U6" si="53">T6+1</f>
-        <v>45302</v>
+        <v>45330</v>
       </c>
       <c r="V6" s="47">
         <f t="shared" ref="V6" si="54">U6+1</f>
-        <v>45303</v>
+        <v>45331</v>
       </c>
       <c r="W6" s="47">
         <f t="shared" ref="W6" si="55">V6+1</f>
-        <v>45304</v>
+        <v>45332</v>
       </c>
       <c r="X6" s="59">
         <f t="shared" si="52"/>
-        <v>45305</v>
+        <v>45333</v>
       </c>
       <c r="Y6" s="60">
         <f t="shared" si="52"/>
-        <v>45306</v>
+        <v>45334</v>
       </c>
       <c r="Z6" s="47">
         <f t="shared" si="52"/>
-        <v>45307</v>
+        <v>45335</v>
       </c>
       <c r="AA6" s="47">
         <f t="shared" si="52"/>
-        <v>45308</v>
+        <v>45336</v>
       </c>
       <c r="AB6" s="47">
         <f t="shared" si="52"/>
-        <v>45309</v>
+        <v>45337</v>
       </c>
       <c r="AC6" s="47">
         <f t="shared" si="52"/>
-        <v>45310</v>
+        <v>45338</v>
       </c>
       <c r="AD6" s="47">
         <f t="shared" si="52"/>
-        <v>45311</v>
+        <v>45339</v>
       </c>
       <c r="AE6" s="61">
         <f t="shared" si="52"/>
-        <v>45312</v>
+        <v>45340</v>
       </c>
       <c r="AF6" s="62">
         <f t="shared" si="52"/>
-        <v>45313</v>
+        <v>45341</v>
       </c>
       <c r="AG6" s="47">
         <f t="shared" si="52"/>
-        <v>45314</v>
+        <v>45342</v>
       </c>
       <c r="AH6" s="47">
         <f t="shared" si="52"/>
-        <v>45315</v>
+        <v>45343</v>
       </c>
       <c r="AI6" s="47">
         <f t="shared" si="52"/>
-        <v>45316</v>
+        <v>45344</v>
       </c>
       <c r="AJ6" s="47">
         <f t="shared" si="52"/>
-        <v>45317</v>
+        <v>45345</v>
       </c>
       <c r="AK6" s="47">
         <f t="shared" si="52"/>
-        <v>45318</v>
+        <v>45346</v>
       </c>
       <c r="AL6" s="63">
         <f t="shared" si="52"/>
-        <v>45319</v>
+        <v>45347</v>
       </c>
       <c r="AM6" s="64">
         <f t="shared" si="52"/>
-        <v>45320</v>
+        <v>45348</v>
       </c>
       <c r="AN6" s="47">
         <f t="shared" si="52"/>
-        <v>45321</v>
+        <v>45349</v>
       </c>
       <c r="AO6" s="47">
         <f t="shared" si="52"/>
-        <v>45322</v>
+        <v>45350</v>
       </c>
       <c r="AP6" s="47">
         <f t="shared" si="52"/>
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="AQ6" s="47">
         <f t="shared" si="52"/>
-        <v>45324</v>
+        <v>45352</v>
       </c>
       <c r="AR6" s="47">
         <f t="shared" ref="AR6:BN6" si="56">AQ6+1</f>
-        <v>45325</v>
+        <v>45353</v>
       </c>
       <c r="AS6" s="65">
         <f t="shared" si="56"/>
-        <v>45326</v>
+        <v>45354</v>
       </c>
       <c r="AT6" s="66">
         <f t="shared" si="56"/>
-        <v>45327</v>
+        <v>45355</v>
       </c>
       <c r="AU6" s="47">
         <f t="shared" si="56"/>
-        <v>45328</v>
+        <v>45356</v>
       </c>
       <c r="AV6" s="47">
         <f t="shared" si="56"/>
-        <v>45329</v>
+        <v>45357</v>
       </c>
       <c r="AW6" s="47">
         <f t="shared" si="56"/>
-        <v>45330</v>
+        <v>45358</v>
       </c>
       <c r="AX6" s="47">
         <f t="shared" si="56"/>
-        <v>45331</v>
+        <v>45359</v>
       </c>
       <c r="AY6" s="47">
         <f t="shared" si="56"/>
-        <v>45332</v>
+        <v>45360</v>
       </c>
       <c r="AZ6" s="67">
         <f t="shared" si="56"/>
-        <v>45333</v>
+        <v>45361</v>
       </c>
       <c r="BA6" s="68">
         <f t="shared" si="56"/>
-        <v>45334</v>
+        <v>45362</v>
       </c>
       <c r="BB6" s="47">
         <f t="shared" si="56"/>
-        <v>45335</v>
+        <v>45363</v>
       </c>
       <c r="BC6" s="47">
         <f t="shared" si="56"/>
-        <v>45336</v>
+        <v>45364</v>
       </c>
       <c r="BD6" s="47">
         <f t="shared" si="56"/>
-        <v>45337</v>
+        <v>45365</v>
       </c>
       <c r="BE6" s="47">
         <f t="shared" si="56"/>
-        <v>45338</v>
+        <v>45366</v>
       </c>
       <c r="BF6" s="47">
         <f t="shared" si="56"/>
-        <v>45339</v>
+        <v>45367</v>
       </c>
       <c r="BG6" s="69">
         <f t="shared" si="56"/>
-        <v>45340</v>
+        <v>45368</v>
       </c>
       <c r="BH6" s="70">
         <f t="shared" si="56"/>
-        <v>45341</v>
+        <v>45369</v>
       </c>
       <c r="BI6" s="47">
         <f t="shared" si="56"/>
-        <v>45342</v>
+        <v>45370</v>
       </c>
       <c r="BJ6" s="47">
         <f t="shared" si="56"/>
-        <v>45343</v>
+        <v>45371</v>
       </c>
       <c r="BK6" s="47">
         <f t="shared" si="56"/>
-        <v>45344</v>
+        <v>45372</v>
       </c>
       <c r="BL6" s="47">
         <f t="shared" si="56"/>
-        <v>45345</v>
+        <v>45373</v>
       </c>
       <c r="BM6" s="47">
         <f t="shared" si="56"/>
-        <v>45346</v>
+        <v>45374</v>
       </c>
       <c r="BN6" s="71">
         <f t="shared" si="56"/>
-        <v>45347</v>
+        <v>45375</v>
       </c>
       <c r="BO6" s="68">
         <f t="shared" ref="BO6" si="57">BN6+1</f>
-        <v>45348</v>
+        <v>45376</v>
       </c>
       <c r="BP6" s="47">
         <f t="shared" ref="BP6" si="58">BO6+1</f>
-        <v>45349</v>
+        <v>45377</v>
       </c>
       <c r="BQ6" s="47">
         <f t="shared" ref="BQ6" si="59">BP6+1</f>
-        <v>45350</v>
+        <v>45378</v>
       </c>
       <c r="BR6" s="47">
         <f t="shared" ref="BR6" si="60">BQ6+1</f>
-        <v>45351</v>
+        <v>45379</v>
       </c>
       <c r="BS6" s="47">
         <f t="shared" ref="BS6" si="61">BR6+1</f>
-        <v>45352</v>
+        <v>45380</v>
       </c>
       <c r="BT6" s="47">
         <f t="shared" ref="BT6" si="62">BS6+1</f>
-        <v>45353</v>
+        <v>45381</v>
       </c>
       <c r="BU6" s="69">
         <f t="shared" ref="BU6" si="63">BT6+1</f>
-        <v>45354</v>
+        <v>45382</v>
       </c>
       <c r="BV6" s="70">
         <f t="shared" ref="BV6" si="64">BU6+1</f>
-        <v>45355</v>
+        <v>45383</v>
       </c>
       <c r="BW6" s="47">
         <f t="shared" ref="BW6" si="65">BV6+1</f>
-        <v>45356</v>
+        <v>45384</v>
       </c>
       <c r="BX6" s="47">
         <f t="shared" ref="BX6" si="66">BW6+1</f>
-        <v>45357</v>
+        <v>45385</v>
       </c>
       <c r="BY6" s="47">
         <f t="shared" ref="BY6" si="67">BX6+1</f>
-        <v>45358</v>
+        <v>45386</v>
       </c>
       <c r="BZ6" s="47">
         <f t="shared" ref="BZ6" si="68">BY6+1</f>
-        <v>45359</v>
+        <v>45387</v>
       </c>
       <c r="CA6" s="47">
         <f t="shared" ref="CA6" si="69">BZ6+1</f>
-        <v>45360</v>
+        <v>45388</v>
       </c>
       <c r="CB6" s="71">
         <f t="shared" ref="CB6" si="70">CA6+1</f>
-        <v>45361</v>
+        <v>45389</v>
       </c>
       <c r="CC6" s="70">
         <f t="shared" ref="CC6" si="71">CB6+1</f>
-        <v>45362</v>
+        <v>45390</v>
       </c>
       <c r="CD6" s="47">
         <f t="shared" ref="CD6" si="72">CC6+1</f>
-        <v>45363</v>
+        <v>45391</v>
       </c>
       <c r="CE6" s="47">
         <f t="shared" ref="CE6" si="73">CD6+1</f>
-        <v>45364</v>
+        <v>45392</v>
       </c>
       <c r="CF6" s="47">
         <f t="shared" ref="CF6" si="74">CE6+1</f>
-        <v>45365</v>
+        <v>45393</v>
       </c>
       <c r="CG6" s="47">
         <f t="shared" ref="CG6" si="75">CF6+1</f>
-        <v>45366</v>
+        <v>45394</v>
       </c>
       <c r="CH6" s="47">
         <f t="shared" ref="CH6" si="76">CG6+1</f>
-        <v>45367</v>
+        <v>45395</v>
       </c>
       <c r="CI6" s="71">
         <f t="shared" ref="CI6" si="77">CH6+1</f>
-        <v>45368</v>
+        <v>45396</v>
       </c>
       <c r="CJ6" s="68">
         <f t="shared" ref="CJ6" si="78">CI6+1</f>
-        <v>45369</v>
+        <v>45397</v>
       </c>
       <c r="CK6" s="47">
         <f t="shared" ref="CK6" si="79">CJ6+1</f>
-        <v>45370</v>
+        <v>45398</v>
       </c>
       <c r="CL6" s="47">
         <f t="shared" ref="CL6" si="80">CK6+1</f>
-        <v>45371</v>
+        <v>45399</v>
       </c>
       <c r="CM6" s="47">
         <f t="shared" ref="CM6" si="81">CL6+1</f>
-        <v>45372</v>
+        <v>45400</v>
       </c>
       <c r="CN6" s="47">
         <f t="shared" ref="CN6" si="82">CM6+1</f>
-        <v>45373</v>
+        <v>45401</v>
       </c>
       <c r="CO6" s="47">
         <f t="shared" ref="CO6" si="83">CN6+1</f>
-        <v>45374</v>
+        <v>45402</v>
       </c>
       <c r="CP6" s="69">
         <f t="shared" ref="CP6" si="84">CO6+1</f>
-        <v>45375</v>
+        <v>45403</v>
       </c>
       <c r="CQ6" s="70">
         <f t="shared" ref="CQ6" si="85">CP6+1</f>
-        <v>45376</v>
+        <v>45404</v>
       </c>
       <c r="CR6" s="47">
         <f t="shared" ref="CR6" si="86">CQ6+1</f>
-        <v>45377</v>
+        <v>45405</v>
       </c>
       <c r="CS6" s="47">
         <f t="shared" ref="CS6" si="87">CR6+1</f>
-        <v>45378</v>
+        <v>45406</v>
       </c>
       <c r="CT6" s="47">
         <f t="shared" ref="CT6" si="88">CS6+1</f>
-        <v>45379</v>
+        <v>45407</v>
       </c>
       <c r="CU6" s="47">
         <f t="shared" ref="CU6" si="89">CT6+1</f>
-        <v>45380</v>
+        <v>45408</v>
       </c>
       <c r="CV6" s="47">
         <f t="shared" ref="CV6" si="90">CU6+1</f>
-        <v>45381</v>
+        <v>45409</v>
       </c>
       <c r="CW6" s="71">
         <f t="shared" ref="CW6" si="91">CV6+1</f>
-        <v>45382</v>
+        <v>45410</v>
       </c>
       <c r="CX6" s="70">
         <f t="shared" ref="CX6" si="92">CW6+1</f>
-        <v>45383</v>
+        <v>45411</v>
       </c>
       <c r="CY6" s="47">
         <f t="shared" ref="CY6" si="93">CX6+1</f>
-        <v>45384</v>
+        <v>45412</v>
       </c>
       <c r="CZ6" s="47">
         <f t="shared" ref="CZ6" si="94">CY6+1</f>
-        <v>45385</v>
+        <v>45413</v>
       </c>
       <c r="DA6" s="47">
         <f t="shared" ref="DA6" si="95">CZ6+1</f>
-        <v>45386</v>
+        <v>45414</v>
       </c>
       <c r="DB6" s="47">
         <f t="shared" ref="DB6" si="96">DA6+1</f>
-        <v>45387</v>
+        <v>45415</v>
       </c>
       <c r="DC6" s="47">
         <f t="shared" ref="DC6" si="97">DB6+1</f>
-        <v>45388</v>
+        <v>45416</v>
       </c>
       <c r="DD6" s="71">
         <f t="shared" ref="DD6" si="98">DC6+1</f>
-        <v>45389</v>
+        <v>45417</v>
       </c>
       <c r="DE6" s="68">
         <f t="shared" ref="DE6" si="99">DD6+1</f>
-        <v>45390</v>
+        <v>45418</v>
       </c>
       <c r="DF6" s="47">
         <f t="shared" ref="DF6" si="100">DE6+1</f>
-        <v>45391</v>
+        <v>45419</v>
       </c>
       <c r="DG6" s="47">
         <f t="shared" ref="DG6" si="101">DF6+1</f>
-        <v>45392</v>
+        <v>45420</v>
       </c>
       <c r="DH6" s="47">
         <f t="shared" ref="DH6" si="102">DG6+1</f>
-        <v>45393</v>
+        <v>45421</v>
       </c>
       <c r="DI6" s="47">
         <f t="shared" ref="DI6" si="103">DH6+1</f>
-        <v>45394</v>
+        <v>45422</v>
       </c>
       <c r="DJ6" s="47">
         <f t="shared" ref="DJ6" si="104">DI6+1</f>
-        <v>45395</v>
+        <v>45423</v>
       </c>
       <c r="DK6" s="69">
         <f t="shared" ref="DK6" si="105">DJ6+1</f>
-        <v>45396</v>
+        <v>45424</v>
       </c>
       <c r="DL6" s="70">
         <f t="shared" ref="DL6" si="106">DK6+1</f>
-        <v>45397</v>
+        <v>45425</v>
       </c>
       <c r="DM6" s="47">
         <f t="shared" ref="DM6" si="107">DL6+1</f>
-        <v>45398</v>
+        <v>45426</v>
       </c>
       <c r="DN6" s="47">
         <f t="shared" ref="DN6" si="108">DM6+1</f>
-        <v>45399</v>
+        <v>45427</v>
       </c>
       <c r="DO6" s="47">
         <f t="shared" ref="DO6" si="109">DN6+1</f>
-        <v>45400</v>
+        <v>45428</v>
       </c>
       <c r="DP6" s="47">
         <f t="shared" ref="DP6" si="110">DO6+1</f>
-        <v>45401</v>
+        <v>45429</v>
       </c>
       <c r="DQ6" s="47">
         <f t="shared" ref="DQ6" si="111">DP6+1</f>
-        <v>45402</v>
+        <v>45430</v>
       </c>
       <c r="DR6" s="71">
         <f t="shared" ref="DR6" si="112">DQ6+1</f>
-        <v>45403</v>
+        <v>45431</v>
       </c>
       <c r="DS6" s="70">
         <f t="shared" ref="DS6" si="113">DR6+1</f>
-        <v>45404</v>
+        <v>45432</v>
       </c>
       <c r="DT6" s="47">
         <f t="shared" ref="DT6" si="114">DS6+1</f>
-        <v>45405</v>
+        <v>45433</v>
       </c>
       <c r="DU6" s="47">
         <f t="shared" ref="DU6" si="115">DT6+1</f>
-        <v>45406</v>
+        <v>45434</v>
       </c>
       <c r="DV6" s="47">
         <f t="shared" ref="DV6" si="116">DU6+1</f>
-        <v>45407</v>
+        <v>45435</v>
       </c>
       <c r="DW6" s="47">
         <f t="shared" ref="DW6" si="117">DV6+1</f>
-        <v>45408</v>
+        <v>45436</v>
       </c>
       <c r="DX6" s="47">
         <f t="shared" ref="DX6" si="118">DW6+1</f>
-        <v>45409</v>
+        <v>45437</v>
       </c>
       <c r="DY6" s="71">
         <f t="shared" ref="DY6" si="119">DX6+1</f>
-        <v>45410</v>
+        <v>45438</v>
       </c>
       <c r="DZ6" s="68">
         <f t="shared" ref="DZ6" si="120">DY6+1</f>
-        <v>45411</v>
+        <v>45439</v>
       </c>
       <c r="EA6" s="47">
         <f t="shared" ref="EA6" si="121">DZ6+1</f>
-        <v>45412</v>
+        <v>45440</v>
       </c>
       <c r="EB6" s="47">
         <f t="shared" ref="EB6" si="122">EA6+1</f>
-        <v>45413</v>
+        <v>45441</v>
       </c>
       <c r="EC6" s="47">
         <f t="shared" ref="EC6" si="123">EB6+1</f>
-        <v>45414</v>
+        <v>45442</v>
       </c>
       <c r="ED6" s="47">
         <f t="shared" ref="ED6" si="124">EC6+1</f>
-        <v>45415</v>
+        <v>45443</v>
       </c>
       <c r="EE6" s="47">
         <f t="shared" ref="EE6" si="125">ED6+1</f>
-        <v>45416</v>
+        <v>45444</v>
       </c>
       <c r="EF6" s="69">
         <f t="shared" ref="EF6" si="126">EE6+1</f>
-        <v>45417</v>
+        <v>45445</v>
       </c>
       <c r="EG6" s="70">
         <f t="shared" ref="EG6" si="127">EF6+1</f>
-        <v>45418</v>
+        <v>45446</v>
       </c>
       <c r="EH6" s="47">
         <f t="shared" ref="EH6" si="128">EG6+1</f>
-        <v>45419</v>
+        <v>45447</v>
       </c>
       <c r="EI6" s="47">
         <f t="shared" ref="EI6" si="129">EH6+1</f>
-        <v>45420</v>
+        <v>45448</v>
       </c>
       <c r="EJ6" s="47">
         <f t="shared" ref="EJ6" si="130">EI6+1</f>
-        <v>45421</v>
+        <v>45449</v>
       </c>
       <c r="EK6" s="47">
         <f t="shared" ref="EK6" si="131">EJ6+1</f>
-        <v>45422</v>
+        <v>45450</v>
       </c>
       <c r="EL6" s="47">
         <f t="shared" ref="EL6" si="132">EK6+1</f>
-        <v>45423</v>
+        <v>45451</v>
       </c>
       <c r="EM6" s="71">
         <f t="shared" ref="EM6" si="133">EL6+1</f>
-        <v>45424</v>
+        <v>45452</v>
       </c>
       <c r="EN6" s="70">
         <f t="shared" ref="EN6" si="134">EM6+1</f>
-        <v>45425</v>
+        <v>45453</v>
       </c>
       <c r="EO6" s="47">
         <f t="shared" ref="EO6" si="135">EN6+1</f>
-        <v>45426</v>
+        <v>45454</v>
       </c>
       <c r="EP6" s="47">
         <f t="shared" ref="EP6" si="136">EO6+1</f>
-        <v>45427</v>
+        <v>45455</v>
       </c>
       <c r="EQ6" s="47">
         <f t="shared" ref="EQ6" si="137">EP6+1</f>
-        <v>45428</v>
+        <v>45456</v>
       </c>
       <c r="ER6" s="47">
         <f t="shared" ref="ER6" si="138">EQ6+1</f>
-        <v>45429</v>
+        <v>45457</v>
       </c>
       <c r="ES6" s="47">
         <f t="shared" ref="ES6" si="139">ER6+1</f>
-        <v>45430</v>
+        <v>45458</v>
       </c>
       <c r="ET6" s="71">
         <f t="shared" ref="ET6" si="140">ES6+1</f>
-        <v>45431</v>
+        <v>45459</v>
       </c>
       <c r="EU6" s="68">
         <f t="shared" ref="EU6" si="141">ET6+1</f>
-        <v>45432</v>
+        <v>45460</v>
       </c>
       <c r="EV6" s="47">
         <f t="shared" ref="EV6" si="142">EU6+1</f>
-        <v>45433</v>
+        <v>45461</v>
       </c>
       <c r="EW6" s="47">
         <f t="shared" ref="EW6" si="143">EV6+1</f>
-        <v>45434</v>
+        <v>45462</v>
       </c>
       <c r="EX6" s="47">
         <f t="shared" ref="EX6" si="144">EW6+1</f>
-        <v>45435</v>
+        <v>45463</v>
       </c>
       <c r="EY6" s="47">
         <f t="shared" ref="EY6" si="145">EX6+1</f>
-        <v>45436</v>
+        <v>45464</v>
       </c>
       <c r="EZ6" s="47">
         <f t="shared" ref="EZ6" si="146">EY6+1</f>
-        <v>45437</v>
+        <v>45465</v>
       </c>
       <c r="FA6" s="69">
         <f t="shared" ref="FA6" si="147">EZ6+1</f>
-        <v>45438</v>
+        <v>45466</v>
       </c>
       <c r="FB6" s="70">
         <f t="shared" ref="FB6" si="148">FA6+1</f>
-        <v>45439</v>
+        <v>45467</v>
       </c>
       <c r="FC6" s="47">
         <f t="shared" ref="FC6" si="149">FB6+1</f>
-        <v>45440</v>
+        <v>45468</v>
       </c>
       <c r="FD6" s="47">
         <f t="shared" ref="FD6" si="150">FC6+1</f>
-        <v>45441</v>
+        <v>45469</v>
       </c>
       <c r="FE6" s="47">
         <f t="shared" ref="FE6" si="151">FD6+1</f>
-        <v>45442</v>
+        <v>45470</v>
       </c>
       <c r="FF6" s="47">
         <f t="shared" ref="FF6" si="152">FE6+1</f>
-        <v>45443</v>
+        <v>45471</v>
       </c>
       <c r="FG6" s="47">
         <f t="shared" ref="FG6" si="153">FF6+1</f>
-        <v>45444</v>
+        <v>45472</v>
       </c>
       <c r="FH6" s="71">
         <f t="shared" ref="FH6" si="154">FG6+1</f>
-        <v>45445</v>
+        <v>45473</v>
       </c>
       <c r="FI6" s="70">
         <f t="shared" ref="FI6" si="155">FH6+1</f>
-        <v>45446</v>
+        <v>45474</v>
       </c>
       <c r="FJ6" s="47">
         <f t="shared" ref="FJ6" si="156">FI6+1</f>
-        <v>45447</v>
+        <v>45475</v>
       </c>
       <c r="FK6" s="47">
         <f t="shared" ref="FK6" si="157">FJ6+1</f>
-        <v>45448</v>
+        <v>45476</v>
       </c>
       <c r="FL6" s="47">
         <f t="shared" ref="FL6" si="158">FK6+1</f>
-        <v>45449</v>
+        <v>45477</v>
       </c>
       <c r="FM6" s="47">
         <f t="shared" ref="FM6" si="159">FL6+1</f>
-        <v>45450</v>
+        <v>45478</v>
       </c>
       <c r="FN6" s="47">
         <f t="shared" ref="FN6" si="160">FM6+1</f>
-        <v>45451</v>
+        <v>45479</v>
       </c>
       <c r="FO6" s="71">
         <f t="shared" ref="FO6" si="161">FN6+1</f>
-        <v>45452</v>
+        <v>45480</v>
       </c>
       <c r="FP6" s="68">
         <f t="shared" ref="FP6" si="162">FO6+1</f>
-        <v>45453</v>
+        <v>45481</v>
       </c>
       <c r="FQ6" s="47">
         <f t="shared" ref="FQ6" si="163">FP6+1</f>
-        <v>45454</v>
+        <v>45482</v>
       </c>
       <c r="FR6" s="47">
         <f t="shared" ref="FR6" si="164">FQ6+1</f>
-        <v>45455</v>
+        <v>45483</v>
       </c>
       <c r="FS6" s="47">
         <f t="shared" ref="FS6" si="165">FR6+1</f>
-        <v>45456</v>
+        <v>45484</v>
       </c>
       <c r="FT6" s="47">
         <f t="shared" ref="FT6" si="166">FS6+1</f>
-        <v>45457</v>
+        <v>45485</v>
       </c>
       <c r="FU6" s="47">
         <f t="shared" ref="FU6" si="167">FT6+1</f>
-        <v>45458</v>
+        <v>45486</v>
       </c>
       <c r="FV6" s="69">
         <f t="shared" ref="FV6" si="168">FU6+1</f>
-        <v>45459</v>
+        <v>45487</v>
       </c>
       <c r="FW6" s="70">
         <f t="shared" ref="FW6" si="169">FV6+1</f>
-        <v>45460</v>
+        <v>45488</v>
       </c>
       <c r="FX6" s="47">
         <f t="shared" ref="FX6" si="170">FW6+1</f>
-        <v>45461</v>
+        <v>45489</v>
       </c>
       <c r="FY6" s="47">
         <f t="shared" ref="FY6" si="171">FX6+1</f>
-        <v>45462</v>
+        <v>45490</v>
       </c>
       <c r="FZ6" s="47">
         <f t="shared" ref="FZ6" si="172">FY6+1</f>
-        <v>45463</v>
+        <v>45491</v>
       </c>
       <c r="GA6" s="47">
         <f t="shared" ref="GA6" si="173">FZ6+1</f>
-        <v>45464</v>
+        <v>45492</v>
       </c>
       <c r="GB6" s="47">
         <f t="shared" ref="GB6" si="174">GA6+1</f>
-        <v>45465</v>
+        <v>45493</v>
       </c>
       <c r="GC6" s="71">
         <f t="shared" ref="GC6" si="175">GB6+1</f>
-        <v>45466</v>
+        <v>45494</v>
       </c>
       <c r="GD6" s="70">
         <f t="shared" ref="GD6" si="176">GC6+1</f>
-        <v>45467</v>
+        <v>45495</v>
       </c>
       <c r="GE6" s="47">
         <f t="shared" ref="GE6" si="177">GD6+1</f>
-        <v>45468</v>
+        <v>45496</v>
       </c>
       <c r="GF6" s="47">
         <f t="shared" ref="GF6" si="178">GE6+1</f>
-        <v>45469</v>
+        <v>45497</v>
       </c>
       <c r="GG6" s="47">
         <f t="shared" ref="GG6" si="179">GF6+1</f>
-        <v>45470</v>
+        <v>45498</v>
       </c>
       <c r="GH6" s="47">
         <f t="shared" ref="GH6" si="180">GG6+1</f>
-        <v>45471</v>
+        <v>45499</v>
       </c>
       <c r="GI6" s="47">
         <f t="shared" ref="GI6" si="181">GH6+1</f>
-        <v>45472</v>
+        <v>45500</v>
       </c>
       <c r="GJ6" s="71">
         <f t="shared" ref="GJ6" si="182">GI6+1</f>
-        <v>45473</v>
+        <v>45501</v>
       </c>
       <c r="GK6" s="68">
         <f t="shared" ref="GK6" si="183">GJ6+1</f>
-        <v>45474</v>
+        <v>45502</v>
       </c>
       <c r="GL6" s="47">
         <f t="shared" ref="GL6" si="184">GK6+1</f>
-        <v>45475</v>
+        <v>45503</v>
       </c>
       <c r="GM6" s="47">
         <f t="shared" ref="GM6" si="185">GL6+1</f>
-        <v>45476</v>
+        <v>45504</v>
       </c>
       <c r="GN6" s="47">
         <f t="shared" ref="GN6" si="186">GM6+1</f>
-        <v>45477</v>
+        <v>45505</v>
       </c>
       <c r="GO6" s="47">
         <f t="shared" ref="GO6" si="187">GN6+1</f>
-        <v>45478</v>
+        <v>45506</v>
       </c>
       <c r="GP6" s="47">
         <f t="shared" ref="GP6" si="188">GO6+1</f>
-        <v>45479</v>
+        <v>45507</v>
       </c>
       <c r="GQ6" s="69">
         <f t="shared" ref="GQ6" si="189">GP6+1</f>
-        <v>45480</v>
+        <v>45508</v>
       </c>
       <c r="GR6" s="70">
         <f t="shared" ref="GR6" si="190">GQ6+1</f>
-        <v>45481</v>
+        <v>45509</v>
       </c>
       <c r="GS6" s="47">
         <f t="shared" ref="GS6" si="191">GR6+1</f>
-        <v>45482</v>
+        <v>45510</v>
       </c>
       <c r="GT6" s="47">
         <f t="shared" ref="GT6" si="192">GS6+1</f>
-        <v>45483</v>
+        <v>45511</v>
       </c>
       <c r="GU6" s="47">
         <f t="shared" ref="GU6" si="193">GT6+1</f>
-        <v>45484</v>
+        <v>45512</v>
       </c>
       <c r="GV6" s="47">
         <f t="shared" ref="GV6" si="194">GU6+1</f>
-        <v>45485</v>
+        <v>45513</v>
       </c>
       <c r="GW6" s="47">
         <f t="shared" ref="GW6" si="195">GV6+1</f>
-        <v>45486</v>
+        <v>45514</v>
       </c>
       <c r="GX6" s="71">
         <f t="shared" ref="GX6" si="196">GW6+1</f>
-        <v>45487</v>
+        <v>45515</v>
       </c>
       <c r="GY6" s="68">
         <f t="shared" ref="GY6" si="197">GX6+1</f>
-        <v>45488</v>
+        <v>45516</v>
       </c>
       <c r="GZ6" s="47">
         <f t="shared" ref="GZ6" si="198">GY6+1</f>
-        <v>45489</v>
+        <v>45517</v>
       </c>
       <c r="HA6" s="47">
         <f t="shared" ref="HA6" si="199">GZ6+1</f>
-        <v>45490</v>
+        <v>45518</v>
       </c>
       <c r="HB6" s="47">
         <f t="shared" ref="HB6" si="200">HA6+1</f>
-        <v>45491</v>
+        <v>45519</v>
       </c>
       <c r="HC6" s="47">
         <f t="shared" ref="HC6" si="201">HB6+1</f>
-        <v>45492</v>
+        <v>45520</v>
       </c>
       <c r="HD6" s="47">
         <f t="shared" ref="HD6" si="202">HC6+1</f>
-        <v>45493</v>
+        <v>45521</v>
       </c>
       <c r="HE6" s="69">
         <f t="shared" ref="HE6" si="203">HD6+1</f>
-        <v>45494</v>
+        <v>45522</v>
       </c>
       <c r="HF6" s="70">
         <f t="shared" ref="HF6" si="204">HE6+1</f>
-        <v>45495</v>
+        <v>45523</v>
       </c>
       <c r="HG6" s="47">
         <f t="shared" ref="HG6" si="205">HF6+1</f>
-        <v>45496</v>
+        <v>45524</v>
       </c>
       <c r="HH6" s="47">
         <f t="shared" ref="HH6" si="206">HG6+1</f>
-        <v>45497</v>
+        <v>45525</v>
       </c>
       <c r="HI6" s="47">
         <f t="shared" ref="HI6" si="207">HH6+1</f>
-        <v>45498</v>
+        <v>45526</v>
       </c>
       <c r="HJ6" s="47">
         <f t="shared" ref="HJ6" si="208">HI6+1</f>
-        <v>45499</v>
+        <v>45527</v>
       </c>
       <c r="HK6" s="47">
         <f t="shared" ref="HK6" si="209">HJ6+1</f>
-        <v>45500</v>
+        <v>45528</v>
       </c>
       <c r="HL6" s="71">
         <f t="shared" ref="HL6" si="210">HK6+1</f>
-        <v>45501</v>
+        <v>45529</v>
       </c>
       <c r="HM6" s="68">
         <f t="shared" ref="HM6" si="211">HL6+1</f>
-        <v>45502</v>
+        <v>45530</v>
       </c>
       <c r="HN6" s="47">
         <f t="shared" ref="HN6" si="212">HM6+1</f>
-        <v>45503</v>
+        <v>45531</v>
       </c>
       <c r="HO6" s="47">
         <f t="shared" ref="HO6" si="213">HN6+1</f>
-        <v>45504</v>
+        <v>45532</v>
       </c>
       <c r="HP6" s="47">
         <f t="shared" ref="HP6" si="214">HO6+1</f>
-        <v>45505</v>
+        <v>45533</v>
       </c>
       <c r="HQ6" s="47">
         <f t="shared" ref="HQ6" si="215">HP6+1</f>
-        <v>45506</v>
+        <v>45534</v>
       </c>
       <c r="HR6" s="47">
         <f t="shared" ref="HR6" si="216">HQ6+1</f>
-        <v>45507</v>
+        <v>45535</v>
       </c>
       <c r="HS6" s="69">
         <f t="shared" ref="HS6" si="217">HR6+1</f>
-        <v>45508</v>
+        <v>45536</v>
       </c>
       <c r="HT6" s="70">
         <f t="shared" ref="HT6" si="218">HS6+1</f>
-        <v>45509</v>
+        <v>45537</v>
       </c>
       <c r="HU6" s="47">
         <f t="shared" ref="HU6" si="219">HT6+1</f>
-        <v>45510</v>
+        <v>45538</v>
       </c>
       <c r="HV6" s="47">
         <f t="shared" ref="HV6" si="220">HU6+1</f>
-        <v>45511</v>
+        <v>45539</v>
       </c>
       <c r="HW6" s="47">
         <f t="shared" ref="HW6" si="221">HV6+1</f>
-        <v>45512</v>
+        <v>45540</v>
       </c>
       <c r="HX6" s="47">
         <f t="shared" ref="HX6" si="222">HW6+1</f>
-        <v>45513</v>
+        <v>45541</v>
       </c>
       <c r="HY6" s="47">
         <f t="shared" ref="HY6" si="223">HX6+1</f>
-        <v>45514</v>
+        <v>45542</v>
       </c>
       <c r="HZ6" s="71">
         <f t="shared" ref="HZ6" si="224">HY6+1</f>
-        <v>45515</v>
+        <v>45543</v>
       </c>
       <c r="IA6" s="68">
         <f t="shared" ref="IA6" si="225">HZ6+1</f>
-        <v>45516</v>
+        <v>45544</v>
       </c>
       <c r="IB6" s="47">
         <f t="shared" ref="IB6" si="226">IA6+1</f>
-        <v>45517</v>
+        <v>45545</v>
       </c>
       <c r="IC6" s="47">
         <f t="shared" ref="IC6" si="227">IB6+1</f>
-        <v>45518</v>
+        <v>45546</v>
       </c>
       <c r="ID6" s="47">
         <f t="shared" ref="ID6" si="228">IC6+1</f>
-        <v>45519</v>
+        <v>45547</v>
       </c>
       <c r="IE6" s="47">
         <f t="shared" ref="IE6" si="229">ID6+1</f>
-        <v>45520</v>
+        <v>45548</v>
       </c>
       <c r="IF6" s="47">
         <f t="shared" ref="IF6" si="230">IE6+1</f>
-        <v>45521</v>
+        <v>45549</v>
       </c>
       <c r="IG6" s="69">
         <f t="shared" ref="IG6" si="231">IF6+1</f>
-        <v>45522</v>
+        <v>45550</v>
       </c>
       <c r="IH6" s="70">
         <f t="shared" ref="IH6" si="232">IG6+1</f>
-        <v>45523</v>
+        <v>45551</v>
       </c>
       <c r="II6" s="47">
         <f t="shared" ref="II6" si="233">IH6+1</f>
-        <v>45524</v>
+        <v>45552</v>
       </c>
       <c r="IJ6" s="47">
         <f t="shared" ref="IJ6" si="234">II6+1</f>
-        <v>45525</v>
+        <v>45553</v>
       </c>
       <c r="IK6" s="47">
         <f t="shared" ref="IK6" si="235">IJ6+1</f>
-        <v>45526</v>
+        <v>45554</v>
       </c>
       <c r="IL6" s="47">
         <f t="shared" ref="IL6" si="236">IK6+1</f>
-        <v>45527</v>
+        <v>45555</v>
       </c>
       <c r="IM6" s="47">
         <f t="shared" ref="IM6" si="237">IL6+1</f>
-        <v>45528</v>
+        <v>45556</v>
       </c>
       <c r="IN6" s="71">
         <f t="shared" ref="IN6" si="238">IM6+1</f>
-        <v>45529</v>
+        <v>45557</v>
       </c>
       <c r="IO6" s="68">
         <f t="shared" ref="IO6" si="239">IN6+1</f>
-        <v>45530</v>
+        <v>45558</v>
       </c>
       <c r="IP6" s="47">
         <f t="shared" ref="IP6" si="240">IO6+1</f>
-        <v>45531</v>
+        <v>45559</v>
       </c>
       <c r="IQ6" s="47">
         <f t="shared" ref="IQ6" si="241">IP6+1</f>
-        <v>45532</v>
+        <v>45560</v>
       </c>
       <c r="IR6" s="47">
         <f t="shared" ref="IR6" si="242">IQ6+1</f>
-        <v>45533</v>
+        <v>45561</v>
       </c>
       <c r="IS6" s="47">
         <f t="shared" ref="IS6" si="243">IR6+1</f>
-        <v>45534</v>
+        <v>45562</v>
       </c>
       <c r="IT6" s="47">
         <f t="shared" ref="IT6" si="244">IS6+1</f>
-        <v>45535</v>
+        <v>45563</v>
       </c>
       <c r="IU6" s="69"/>
     </row>
-    <row r="7" spans="1:255" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:255" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>0</v>
       </c>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="IU7" s="55"/>
     </row>
-    <row r="8" spans="1:255" s="222" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:255" s="222" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="215" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -7862,7 +7862,7 @@
       <c r="IT8" s="218"/>
       <c r="IU8" s="218"/>
     </row>
-    <row r="9" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="189" t="str">
         <f t="shared" ref="A9:A23" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -8136,7 +8136,7 @@
       <c r="IT9" s="198"/>
       <c r="IU9" s="198"/>
     </row>
-    <row r="10" spans="1:255" s="199" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:255" s="199" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="189" t="str">
         <f t="shared" ref="A10:A21" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -8410,7 +8410,7 @@
       <c r="IT10" s="198"/>
       <c r="IU10" s="198"/>
     </row>
-    <row r="11" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.2</v>
@@ -8684,7 +8684,7 @@
       <c r="IT11" s="198"/>
       <c r="IU11" s="198"/>
     </row>
-    <row r="12" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.3</v>
@@ -8959,7 +8959,7 @@
       <c r="IT12" s="198"/>
       <c r="IU12" s="198"/>
     </row>
-    <row r="13" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.4</v>
@@ -9233,7 +9233,7 @@
       <c r="IT13" s="198"/>
       <c r="IU13" s="198"/>
     </row>
-    <row r="14" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.5</v>
@@ -9510,7 +9510,7 @@
       <c r="IT14" s="198"/>
       <c r="IU14" s="198"/>
     </row>
-    <row r="15" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.6</v>
@@ -9532,7 +9532,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="196">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I15" s="233">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
@@ -9787,7 +9787,7 @@
       <c r="IT15" s="198"/>
       <c r="IU15" s="198"/>
     </row>
-    <row r="16" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.7</v>
@@ -9808,7 +9808,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="196">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="I16" s="233">
         <f t="shared" ref="I16" si="265">IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -10063,7 +10063,7 @@
       <c r="IT16" s="198"/>
       <c r="IU16" s="198"/>
     </row>
-    <row r="17" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.8</v>
@@ -10339,7 +10339,7 @@
       <c r="IT17" s="198"/>
       <c r="IU17" s="198"/>
     </row>
-    <row r="18" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.9</v>
@@ -10613,7 +10613,7 @@
       <c r="IT18" s="198"/>
       <c r="IU18" s="198"/>
     </row>
-    <row r="19" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.10</v>
@@ -10889,7 +10889,7 @@
       <c r="IT19" s="198"/>
       <c r="IU19" s="198"/>
     </row>
-    <row r="20" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.11</v>
@@ -11166,7 +11166,7 @@
       <c r="IT20" s="198"/>
       <c r="IU20" s="198"/>
     </row>
-    <row r="21" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.12</v>
@@ -11443,7 +11443,7 @@
       <c r="IT21" s="198"/>
       <c r="IU21" s="198"/>
     </row>
-    <row r="22" spans="1:255" s="139" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:255" s="139" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -11705,7 +11705,7 @@
       <c r="IT22" s="138"/>
       <c r="IU22" s="138"/>
     </row>
-    <row r="23" spans="1:255" s="151" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:255" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="141" t="str">
         <f t="shared" si="254"/>
         <v>2.1</v>
@@ -11980,7 +11980,7 @@
       <c r="IT23" s="150"/>
       <c r="IU23" s="150"/>
     </row>
-    <row r="24" spans="1:255" s="151" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:255" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
@@ -12257,7 +12257,7 @@
       <c r="IT24" s="150"/>
       <c r="IU24" s="150"/>
     </row>
-    <row r="25" spans="1:255" s="151" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:255" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
@@ -12533,7 +12533,7 @@
       <c r="IT25" s="150"/>
       <c r="IU25" s="150"/>
     </row>
-    <row r="26" spans="1:255" s="159" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:255" s="159" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="152" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -12795,7 +12795,7 @@
       <c r="IT26" s="155"/>
       <c r="IU26" s="155"/>
     </row>
-    <row r="27" spans="1:255" s="167" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:255" s="167" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="160" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -13070,7 +13070,7 @@
       <c r="IT27" s="166"/>
       <c r="IU27" s="166"/>
     </row>
-    <row r="28" spans="1:255" s="167" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:255" s="167" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="160" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
@@ -13347,7 +13347,7 @@
       <c r="IT28" s="166"/>
       <c r="IU28" s="166"/>
     </row>
-    <row r="29" spans="1:255" s="167" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:255" s="167" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="160" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
@@ -13623,7 +13623,7 @@
       <c r="IT29" s="166"/>
       <c r="IU29" s="166"/>
     </row>
-    <row r="30" spans="1:255" s="177" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:255" s="177" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="168" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -13885,7 +13885,7 @@
       <c r="IT30" s="171"/>
       <c r="IU30" s="171"/>
     </row>
-    <row r="31" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -14160,7 +14160,7 @@
       <c r="IT31" s="187"/>
       <c r="IU31" s="187"/>
     </row>
-    <row r="32" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -14437,7 +14437,7 @@
       <c r="IT32" s="187"/>
       <c r="IU32" s="187"/>
     </row>
-    <row r="33" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -14713,7 +14713,7 @@
       <c r="IT33" s="187"/>
       <c r="IU33" s="187"/>
     </row>
-    <row r="34" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -14990,7 +14990,7 @@
       <c r="IT34" s="187"/>
       <c r="IU34" s="187"/>
     </row>
-    <row r="36" spans="1:255" s="33" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:255" s="33" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="89" t="s">
         <v>1</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="IT36" s="27"/>
       <c r="IU36" s="27"/>
     </row>
-    <row r="37" spans="1:255" s="32" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:255" s="32" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A37" s="90" t="s">
         <v>74</v>
       </c>
@@ -15504,7 +15504,7 @@
       <c r="IT37" s="27"/>
       <c r="IU37" s="27"/>
     </row>
-    <row r="38" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="78" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -15768,7 +15768,7 @@
       <c r="IT38" s="27"/>
       <c r="IU38" s="27"/>
     </row>
-    <row r="39" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="77" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -16040,7 +16040,7 @@
       <c r="IT39" s="27"/>
       <c r="IU39" s="27"/>
     </row>
-    <row r="40" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="77" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -16312,7 +16312,7 @@
       <c r="IT40" s="27"/>
       <c r="IU40" s="27"/>
     </row>
-    <row r="41" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="77" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -16582,61 +16582,32 @@
       <c r="IT41" s="27"/>
       <c r="IU41" s="27"/>
     </row>
-    <row r="42" spans="1:255" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:255" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="126" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
       <c r="C42" s="136"/>
     </row>
-    <row r="43" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -16653,20 +16624,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H37:H41 H8:H34">
@@ -16777,62 +16777,62 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.86328125" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="103" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B5" s="105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B7" s="105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B9" s="103" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="106" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="265" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="265"/>
     </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="107"/>
       <c r="B15" s="108" t="s">
         <v>78</v>
@@ -16840,7 +16840,7 @@
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
     </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="107"/>
       <c r="B16" s="108" t="s">
         <v>79</v>
@@ -16848,162 +16848,162 @@
       <c r="C16" s="109"/>
       <c r="D16" s="109"/>
     </row>
-    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="108" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="110"/>
       <c r="B18" s="108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="110"/>
       <c r="B19" s="108" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="108" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="110"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="265" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="265"/>
     </row>
-    <row r="24" spans="1:2" ht="40.9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="108" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="108"/>
     </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="112" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="110"/>
       <c r="B27" s="108" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="110"/>
       <c r="B28" s="108" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="110"/>
       <c r="B29" s="108"/>
     </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="110"/>
       <c r="B30" s="112" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="110"/>
       <c r="B31" s="108" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="110"/>
       <c r="B32" s="108" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="110"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="110"/>
       <c r="B34" s="108" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="110"/>
       <c r="B35" s="113" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="110"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="265" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="265"/>
     </row>
-    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="108" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B40" s="108" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="108" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="108" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="108" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="265" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="265"/>
     </row>
-    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B49" s="108" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="114" t="s">
         <v>8</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="114" t="s">
         <v>10</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="114" t="s">
         <v>12</v>
       </c>
@@ -17027,19 +17027,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="106"/>
       <c r="B54" s="108" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="106"/>
       <c r="B55" s="108" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="114" t="s">
         <v>14</v>
       </c>
@@ -17047,19 +17047,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="106"/>
       <c r="B57" s="108" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="106"/>
       <c r="B58" s="108" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="114" t="s">
         <v>16</v>
       </c>
@@ -17067,13 +17067,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="106"/>
       <c r="B60" s="108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="114" t="s">
         <v>105</v>
       </c>
@@ -17081,33 +17081,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="115"/>
       <c r="B62" s="108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="265" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="265"/>
     </row>
-    <row r="65" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B65" s="108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="265" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="265"/>
     </row>
-    <row r="68" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="116" t="s">
         <v>4</v>
       </c>
@@ -17115,17 +17115,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="115"/>
       <c r="B69" s="118" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="115"/>
       <c r="B70" s="119"/>
     </row>
-    <row r="71" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="116" t="s">
         <v>4</v>
       </c>
@@ -17133,17 +17133,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="115"/>
       <c r="B72" s="118" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="115"/>
       <c r="B73" s="119"/>
     </row>
-    <row r="74" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="116" t="s">
         <v>4</v>
       </c>
@@ -17151,17 +17151,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="115"/>
       <c r="B75" s="105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="115"/>
       <c r="B76" s="115"/>
     </row>
-    <row r="77" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="116" t="s">
         <v>4</v>
       </c>
@@ -17169,17 +17169,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="115"/>
       <c r="B78" s="105" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="115"/>
       <c r="B79" s="115"/>
     </row>
-    <row r="80" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="116" t="s">
         <v>4</v>
       </c>
@@ -17187,29 +17187,29 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="115"/>
       <c r="B81" s="121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="115"/>
       <c r="B82" s="121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="115"/>
       <c r="B83" s="121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="115"/>
       <c r="B84" s="122"/>
     </row>
-    <row r="85" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="116" t="s">
         <v>4</v>
       </c>
@@ -17217,29 +17217,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A86" s="115"/>
       <c r="B86" s="105" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="115"/>
       <c r="B87" s="123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A88" s="115"/>
       <c r="B88" s="124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="115"/>
       <c r="B89" s="115"/>
     </row>
-    <row r="90" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="116" t="s">
         <v>4</v>
       </c>
@@ -17247,13 +17247,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="106"/>
       <c r="B91" s="121" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>51</v>
       </c>
@@ -17291,172 +17291,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="37.73046875" customWidth="1"/>
-    <col min="3" max="3" width="55.1328125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
@@ -17481,172 +17481,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C64FD-3E4D-4D50-8DB4-539282B413A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADEEC8F-A493-4EB5-AA8A-84649D8BD2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -3803,6 +3803,15 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3815,28 +3824,7 @@
     <xf numFmtId="167" fontId="52" fillId="23" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="52" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3873,6 +3861,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="52" fillId="23" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="52" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4716,73 +4716,73 @@
   <dimension ref="A1:IU44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF40" sqref="AF40"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="137" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.86328125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="38.86328125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="5.86328125" style="137" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" style="25" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="25" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="25" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="25" customWidth="1"/>
-    <col min="67" max="68" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1328125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="5.86328125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="0.59765625" style="25" customWidth="1"/>
+    <col min="11" max="66" width="2.3984375" style="25" customWidth="1"/>
+    <col min="67" max="68" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.86328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="25"/>
+    <col min="229" max="229" width="1.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.73046875" style="25" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.1328125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:255" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="102" t="s">
         <v>138</v>
       </c>
@@ -4795,23 +4795,23 @@
       <c r="K1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="254"/>
-      <c r="AE1" s="254"/>
-      <c r="AF1" s="254"/>
-      <c r="AG1" s="254"/>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="254"/>
-      <c r="AJ1" s="254"/>
-      <c r="AK1" s="254"/>
-      <c r="AL1" s="254"/>
-      <c r="AM1" s="254"/>
-      <c r="AN1" s="254"/>
-      <c r="AO1" s="254"/>
-      <c r="AP1" s="254"/>
-      <c r="AQ1" s="254"/>
-      <c r="AR1" s="254"/>
-    </row>
-    <row r="2" spans="1:255" s="52" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD1" s="250"/>
+      <c r="AE1" s="250"/>
+      <c r="AF1" s="250"/>
+      <c r="AG1" s="250"/>
+      <c r="AH1" s="250"/>
+      <c r="AI1" s="250"/>
+      <c r="AJ1" s="250"/>
+      <c r="AK1" s="250"/>
+      <c r="AL1" s="250"/>
+      <c r="AM1" s="250"/>
+      <c r="AN1" s="250"/>
+      <c r="AO1" s="250"/>
+      <c r="AP1" s="250"/>
+      <c r="AQ1" s="250"/>
+      <c r="AR1" s="250"/>
+    </row>
+    <row r="2" spans="1:255" s="52" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>139</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="51"/>
     </row>
-    <row r="3" spans="1:255" s="85" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="85" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="81"/>
       <c r="B3" s="82"/>
       <c r="C3" s="129"/>
@@ -4885,735 +4885,735 @@
       <c r="BM3" s="100"/>
       <c r="BN3" s="101"/>
     </row>
-    <row r="4" spans="1:255" s="94" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="94" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="257">
+      <c r="C4" s="253">
         <v>45295</v>
       </c>
-      <c r="D4" s="258"/>
-      <c r="E4" s="259"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="255"/>
       <c r="H4" s="97" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="98">
         <v>5</v>
       </c>
-      <c r="K4" s="242"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="243"/>
-      <c r="O4" s="243"/>
-      <c r="P4" s="243"/>
-      <c r="Q4" s="244"/>
-      <c r="R4" s="242" t="str">
+      <c r="K4" s="245"/>
+      <c r="L4" s="246"/>
+      <c r="M4" s="246"/>
+      <c r="N4" s="246"/>
+      <c r="O4" s="246"/>
+      <c r="P4" s="246"/>
+      <c r="Q4" s="247"/>
+      <c r="R4" s="245" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="S4" s="243"/>
-      <c r="T4" s="243"/>
-      <c r="U4" s="243"/>
-      <c r="V4" s="243"/>
-      <c r="W4" s="243"/>
-      <c r="X4" s="244"/>
-      <c r="Y4" s="242" t="str">
+      <c r="S4" s="246"/>
+      <c r="T4" s="246"/>
+      <c r="U4" s="246"/>
+      <c r="V4" s="246"/>
+      <c r="W4" s="246"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="245" t="str">
         <f t="shared" ref="Y4" si="0">"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="Z4" s="243"/>
-      <c r="AA4" s="243"/>
-      <c r="AB4" s="243"/>
-      <c r="AC4" s="243"/>
-      <c r="AD4" s="243"/>
-      <c r="AE4" s="244"/>
-      <c r="AF4" s="242" t="str">
+      <c r="Z4" s="246"/>
+      <c r="AA4" s="246"/>
+      <c r="AB4" s="246"/>
+      <c r="AC4" s="246"/>
+      <c r="AD4" s="246"/>
+      <c r="AE4" s="247"/>
+      <c r="AF4" s="245" t="str">
         <f t="shared" ref="AF4" si="1">"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AG4" s="243"/>
-      <c r="AH4" s="243"/>
-      <c r="AI4" s="243"/>
-      <c r="AJ4" s="243"/>
-      <c r="AK4" s="243"/>
-      <c r="AL4" s="244"/>
-      <c r="AM4" s="242" t="str">
+      <c r="AG4" s="246"/>
+      <c r="AH4" s="246"/>
+      <c r="AI4" s="246"/>
+      <c r="AJ4" s="246"/>
+      <c r="AK4" s="246"/>
+      <c r="AL4" s="247"/>
+      <c r="AM4" s="245" t="str">
         <f t="shared" ref="AM4" si="2">"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="AN4" s="243"/>
-      <c r="AO4" s="243"/>
-      <c r="AP4" s="243"/>
-      <c r="AQ4" s="243"/>
-      <c r="AR4" s="243"/>
-      <c r="AS4" s="244"/>
-      <c r="AT4" s="242" t="str">
+      <c r="AN4" s="246"/>
+      <c r="AO4" s="246"/>
+      <c r="AP4" s="246"/>
+      <c r="AQ4" s="246"/>
+      <c r="AR4" s="246"/>
+      <c r="AS4" s="247"/>
+      <c r="AT4" s="245" t="str">
         <f t="shared" ref="AT4" si="3">"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="AU4" s="243"/>
-      <c r="AV4" s="243"/>
-      <c r="AW4" s="243"/>
-      <c r="AX4" s="243"/>
-      <c r="AY4" s="243"/>
-      <c r="AZ4" s="244"/>
-      <c r="BA4" s="242" t="str">
+      <c r="AU4" s="246"/>
+      <c r="AV4" s="246"/>
+      <c r="AW4" s="246"/>
+      <c r="AX4" s="246"/>
+      <c r="AY4" s="246"/>
+      <c r="AZ4" s="247"/>
+      <c r="BA4" s="245" t="str">
         <f t="shared" ref="BA4" si="4">"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="BB4" s="243"/>
-      <c r="BC4" s="243"/>
-      <c r="BD4" s="243"/>
-      <c r="BE4" s="243"/>
-      <c r="BF4" s="243"/>
-      <c r="BG4" s="244"/>
-      <c r="BH4" s="242" t="str">
+      <c r="BB4" s="246"/>
+      <c r="BC4" s="246"/>
+      <c r="BD4" s="246"/>
+      <c r="BE4" s="246"/>
+      <c r="BF4" s="246"/>
+      <c r="BG4" s="247"/>
+      <c r="BH4" s="245" t="str">
         <f t="shared" ref="BH4" si="5">"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="BI4" s="243"/>
-      <c r="BJ4" s="243"/>
-      <c r="BK4" s="243"/>
-      <c r="BL4" s="243"/>
-      <c r="BM4" s="243"/>
-      <c r="BN4" s="244"/>
-      <c r="BO4" s="242" t="str">
+      <c r="BI4" s="246"/>
+      <c r="BJ4" s="246"/>
+      <c r="BK4" s="246"/>
+      <c r="BL4" s="246"/>
+      <c r="BM4" s="246"/>
+      <c r="BN4" s="247"/>
+      <c r="BO4" s="245" t="str">
         <f t="shared" ref="BO4" si="6">"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="BP4" s="243"/>
-      <c r="BQ4" s="243"/>
-      <c r="BR4" s="243"/>
-      <c r="BS4" s="243"/>
-      <c r="BT4" s="243"/>
-      <c r="BU4" s="244"/>
-      <c r="BV4" s="242" t="str">
+      <c r="BP4" s="246"/>
+      <c r="BQ4" s="246"/>
+      <c r="BR4" s="246"/>
+      <c r="BS4" s="246"/>
+      <c r="BT4" s="246"/>
+      <c r="BU4" s="247"/>
+      <c r="BV4" s="245" t="str">
         <f t="shared" ref="BV4" si="7">"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="BW4" s="243"/>
-      <c r="BX4" s="243"/>
-      <c r="BY4" s="243"/>
-      <c r="BZ4" s="243"/>
-      <c r="CA4" s="243"/>
-      <c r="CB4" s="244"/>
-      <c r="CC4" s="242" t="str">
+      <c r="BW4" s="246"/>
+      <c r="BX4" s="246"/>
+      <c r="BY4" s="246"/>
+      <c r="BZ4" s="246"/>
+      <c r="CA4" s="246"/>
+      <c r="CB4" s="247"/>
+      <c r="CC4" s="245" t="str">
         <f t="shared" ref="CC4" si="8">"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="CD4" s="243"/>
-      <c r="CE4" s="243"/>
-      <c r="CF4" s="243"/>
-      <c r="CG4" s="243"/>
-      <c r="CH4" s="243"/>
-      <c r="CI4" s="244"/>
-      <c r="CJ4" s="242" t="str">
+      <c r="CD4" s="246"/>
+      <c r="CE4" s="246"/>
+      <c r="CF4" s="246"/>
+      <c r="CG4" s="246"/>
+      <c r="CH4" s="246"/>
+      <c r="CI4" s="247"/>
+      <c r="CJ4" s="245" t="str">
         <f t="shared" ref="CJ4" si="9">"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="CK4" s="243"/>
-      <c r="CL4" s="243"/>
-      <c r="CM4" s="243"/>
-      <c r="CN4" s="243"/>
-      <c r="CO4" s="243"/>
-      <c r="CP4" s="244"/>
-      <c r="CQ4" s="242" t="str">
+      <c r="CK4" s="246"/>
+      <c r="CL4" s="246"/>
+      <c r="CM4" s="246"/>
+      <c r="CN4" s="246"/>
+      <c r="CO4" s="246"/>
+      <c r="CP4" s="247"/>
+      <c r="CQ4" s="245" t="str">
         <f t="shared" ref="CQ4" si="10">"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="CR4" s="243"/>
-      <c r="CS4" s="243"/>
-      <c r="CT4" s="243"/>
-      <c r="CU4" s="243"/>
-      <c r="CV4" s="243"/>
-      <c r="CW4" s="244"/>
-      <c r="CX4" s="242" t="str">
+      <c r="CR4" s="246"/>
+      <c r="CS4" s="246"/>
+      <c r="CT4" s="246"/>
+      <c r="CU4" s="246"/>
+      <c r="CV4" s="246"/>
+      <c r="CW4" s="247"/>
+      <c r="CX4" s="245" t="str">
         <f t="shared" ref="CX4" si="11">"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="CY4" s="243"/>
-      <c r="CZ4" s="243"/>
-      <c r="DA4" s="243"/>
-      <c r="DB4" s="243"/>
-      <c r="DC4" s="243"/>
-      <c r="DD4" s="244"/>
-      <c r="DE4" s="242" t="str">
+      <c r="CY4" s="246"/>
+      <c r="CZ4" s="246"/>
+      <c r="DA4" s="246"/>
+      <c r="DB4" s="246"/>
+      <c r="DC4" s="246"/>
+      <c r="DD4" s="247"/>
+      <c r="DE4" s="245" t="str">
         <f t="shared" ref="DE4" si="12">"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="DF4" s="243"/>
-      <c r="DG4" s="243"/>
-      <c r="DH4" s="243"/>
-      <c r="DI4" s="243"/>
-      <c r="DJ4" s="243"/>
-      <c r="DK4" s="244"/>
-      <c r="DL4" s="242" t="str">
+      <c r="DF4" s="246"/>
+      <c r="DG4" s="246"/>
+      <c r="DH4" s="246"/>
+      <c r="DI4" s="246"/>
+      <c r="DJ4" s="246"/>
+      <c r="DK4" s="247"/>
+      <c r="DL4" s="245" t="str">
         <f t="shared" ref="DL4" si="13">"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="DM4" s="243"/>
-      <c r="DN4" s="243"/>
-      <c r="DO4" s="243"/>
-      <c r="DP4" s="243"/>
-      <c r="DQ4" s="243"/>
-      <c r="DR4" s="244"/>
-      <c r="DS4" s="242" t="str">
+      <c r="DM4" s="246"/>
+      <c r="DN4" s="246"/>
+      <c r="DO4" s="246"/>
+      <c r="DP4" s="246"/>
+      <c r="DQ4" s="246"/>
+      <c r="DR4" s="247"/>
+      <c r="DS4" s="245" t="str">
         <f t="shared" ref="DS4" si="14">"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="DT4" s="243"/>
-      <c r="DU4" s="243"/>
-      <c r="DV4" s="243"/>
-      <c r="DW4" s="243"/>
-      <c r="DX4" s="243"/>
-      <c r="DY4" s="244"/>
-      <c r="DZ4" s="242" t="str">
+      <c r="DT4" s="246"/>
+      <c r="DU4" s="246"/>
+      <c r="DV4" s="246"/>
+      <c r="DW4" s="246"/>
+      <c r="DX4" s="246"/>
+      <c r="DY4" s="247"/>
+      <c r="DZ4" s="245" t="str">
         <f t="shared" ref="DZ4" si="15">"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="EA4" s="243"/>
-      <c r="EB4" s="243"/>
-      <c r="EC4" s="243"/>
-      <c r="ED4" s="243"/>
-      <c r="EE4" s="243"/>
-      <c r="EF4" s="244"/>
-      <c r="EG4" s="242" t="str">
+      <c r="EA4" s="246"/>
+      <c r="EB4" s="246"/>
+      <c r="EC4" s="246"/>
+      <c r="ED4" s="246"/>
+      <c r="EE4" s="246"/>
+      <c r="EF4" s="247"/>
+      <c r="EG4" s="245" t="str">
         <f t="shared" ref="EG4" si="16">"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="EH4" s="243"/>
-      <c r="EI4" s="243"/>
-      <c r="EJ4" s="243"/>
-      <c r="EK4" s="243"/>
-      <c r="EL4" s="243"/>
-      <c r="EM4" s="244"/>
-      <c r="EN4" s="242" t="str">
+      <c r="EH4" s="246"/>
+      <c r="EI4" s="246"/>
+      <c r="EJ4" s="246"/>
+      <c r="EK4" s="246"/>
+      <c r="EL4" s="246"/>
+      <c r="EM4" s="247"/>
+      <c r="EN4" s="245" t="str">
         <f t="shared" ref="EN4" si="17">"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="EO4" s="243"/>
-      <c r="EP4" s="243"/>
-      <c r="EQ4" s="243"/>
-      <c r="ER4" s="243"/>
-      <c r="ES4" s="243"/>
-      <c r="ET4" s="244"/>
-      <c r="EU4" s="242" t="str">
+      <c r="EO4" s="246"/>
+      <c r="EP4" s="246"/>
+      <c r="EQ4" s="246"/>
+      <c r="ER4" s="246"/>
+      <c r="ES4" s="246"/>
+      <c r="ET4" s="247"/>
+      <c r="EU4" s="245" t="str">
         <f t="shared" ref="EU4" si="18">"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="EV4" s="243"/>
-      <c r="EW4" s="243"/>
-      <c r="EX4" s="243"/>
-      <c r="EY4" s="243"/>
-      <c r="EZ4" s="243"/>
-      <c r="FA4" s="244"/>
-      <c r="FB4" s="242" t="str">
+      <c r="EV4" s="246"/>
+      <c r="EW4" s="246"/>
+      <c r="EX4" s="246"/>
+      <c r="EY4" s="246"/>
+      <c r="EZ4" s="246"/>
+      <c r="FA4" s="247"/>
+      <c r="FB4" s="245" t="str">
         <f t="shared" ref="FB4" si="19">"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="FC4" s="243"/>
-      <c r="FD4" s="243"/>
-      <c r="FE4" s="243"/>
-      <c r="FF4" s="243"/>
-      <c r="FG4" s="243"/>
-      <c r="FH4" s="244"/>
-      <c r="FI4" s="242" t="str">
+      <c r="FC4" s="246"/>
+      <c r="FD4" s="246"/>
+      <c r="FE4" s="246"/>
+      <c r="FF4" s="246"/>
+      <c r="FG4" s="246"/>
+      <c r="FH4" s="247"/>
+      <c r="FI4" s="245" t="str">
         <f t="shared" ref="FI4" si="20">"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="FJ4" s="243"/>
-      <c r="FK4" s="243"/>
-      <c r="FL4" s="243"/>
-      <c r="FM4" s="243"/>
-      <c r="FN4" s="243"/>
-      <c r="FO4" s="244"/>
-      <c r="FP4" s="242" t="str">
+      <c r="FJ4" s="246"/>
+      <c r="FK4" s="246"/>
+      <c r="FL4" s="246"/>
+      <c r="FM4" s="246"/>
+      <c r="FN4" s="246"/>
+      <c r="FO4" s="247"/>
+      <c r="FP4" s="245" t="str">
         <f t="shared" ref="FP4" si="21">"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="FQ4" s="243"/>
-      <c r="FR4" s="243"/>
-      <c r="FS4" s="243"/>
-      <c r="FT4" s="243"/>
-      <c r="FU4" s="243"/>
-      <c r="FV4" s="244"/>
-      <c r="FW4" s="242" t="str">
+      <c r="FQ4" s="246"/>
+      <c r="FR4" s="246"/>
+      <c r="FS4" s="246"/>
+      <c r="FT4" s="246"/>
+      <c r="FU4" s="246"/>
+      <c r="FV4" s="247"/>
+      <c r="FW4" s="245" t="str">
         <f t="shared" ref="FW4" si="22">"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="FX4" s="243"/>
-      <c r="FY4" s="243"/>
-      <c r="FZ4" s="243"/>
-      <c r="GA4" s="243"/>
-      <c r="GB4" s="243"/>
-      <c r="GC4" s="244"/>
-      <c r="GD4" s="242" t="str">
+      <c r="FX4" s="246"/>
+      <c r="FY4" s="246"/>
+      <c r="FZ4" s="246"/>
+      <c r="GA4" s="246"/>
+      <c r="GB4" s="246"/>
+      <c r="GC4" s="247"/>
+      <c r="GD4" s="245" t="str">
         <f t="shared" ref="GD4" si="23">"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="GE4" s="243"/>
-      <c r="GF4" s="243"/>
-      <c r="GG4" s="243"/>
-      <c r="GH4" s="243"/>
-      <c r="GI4" s="243"/>
-      <c r="GJ4" s="244"/>
-      <c r="GK4" s="242" t="str">
+      <c r="GE4" s="246"/>
+      <c r="GF4" s="246"/>
+      <c r="GG4" s="246"/>
+      <c r="GH4" s="246"/>
+      <c r="GI4" s="246"/>
+      <c r="GJ4" s="247"/>
+      <c r="GK4" s="245" t="str">
         <f t="shared" ref="GK4" si="24">"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="GL4" s="243"/>
-      <c r="GM4" s="243"/>
-      <c r="GN4" s="243"/>
-      <c r="GO4" s="243"/>
-      <c r="GP4" s="243"/>
-      <c r="GQ4" s="244"/>
-      <c r="GR4" s="242" t="str">
+      <c r="GL4" s="246"/>
+      <c r="GM4" s="246"/>
+      <c r="GN4" s="246"/>
+      <c r="GO4" s="246"/>
+      <c r="GP4" s="246"/>
+      <c r="GQ4" s="247"/>
+      <c r="GR4" s="245" t="str">
         <f t="shared" ref="GR4" si="25">"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="GS4" s="243"/>
-      <c r="GT4" s="243"/>
-      <c r="GU4" s="243"/>
-      <c r="GV4" s="243"/>
-      <c r="GW4" s="243"/>
-      <c r="GX4" s="244"/>
-      <c r="GY4" s="242" t="str">
+      <c r="GS4" s="246"/>
+      <c r="GT4" s="246"/>
+      <c r="GU4" s="246"/>
+      <c r="GV4" s="246"/>
+      <c r="GW4" s="246"/>
+      <c r="GX4" s="247"/>
+      <c r="GY4" s="245" t="str">
         <f t="shared" ref="GY4" si="26">"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="GZ4" s="243"/>
-      <c r="HA4" s="243"/>
-      <c r="HB4" s="243"/>
-      <c r="HC4" s="243"/>
-      <c r="HD4" s="243"/>
-      <c r="HE4" s="244"/>
-      <c r="HF4" s="242" t="str">
+      <c r="GZ4" s="246"/>
+      <c r="HA4" s="246"/>
+      <c r="HB4" s="246"/>
+      <c r="HC4" s="246"/>
+      <c r="HD4" s="246"/>
+      <c r="HE4" s="247"/>
+      <c r="HF4" s="245" t="str">
         <f t="shared" ref="HF4" si="27">"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="HG4" s="243"/>
-      <c r="HH4" s="243"/>
-      <c r="HI4" s="243"/>
-      <c r="HJ4" s="243"/>
-      <c r="HK4" s="243"/>
-      <c r="HL4" s="244"/>
-      <c r="HM4" s="242" t="str">
+      <c r="HG4" s="246"/>
+      <c r="HH4" s="246"/>
+      <c r="HI4" s="246"/>
+      <c r="HJ4" s="246"/>
+      <c r="HK4" s="246"/>
+      <c r="HL4" s="247"/>
+      <c r="HM4" s="245" t="str">
         <f t="shared" ref="HM4" si="28">"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="HN4" s="243"/>
-      <c r="HO4" s="243"/>
-      <c r="HP4" s="243"/>
-      <c r="HQ4" s="243"/>
-      <c r="HR4" s="243"/>
-      <c r="HS4" s="244"/>
-      <c r="HT4" s="242" t="str">
+      <c r="HN4" s="246"/>
+      <c r="HO4" s="246"/>
+      <c r="HP4" s="246"/>
+      <c r="HQ4" s="246"/>
+      <c r="HR4" s="246"/>
+      <c r="HS4" s="247"/>
+      <c r="HT4" s="245" t="str">
         <f t="shared" ref="HT4" si="29">"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="HU4" s="243"/>
-      <c r="HV4" s="243"/>
-      <c r="HW4" s="243"/>
-      <c r="HX4" s="243"/>
-      <c r="HY4" s="243"/>
-      <c r="HZ4" s="244"/>
-      <c r="IA4" s="242" t="str">
+      <c r="HU4" s="246"/>
+      <c r="HV4" s="246"/>
+      <c r="HW4" s="246"/>
+      <c r="HX4" s="246"/>
+      <c r="HY4" s="246"/>
+      <c r="HZ4" s="247"/>
+      <c r="IA4" s="245" t="str">
         <f t="shared" ref="IA4" si="30">"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 36</v>
       </c>
-      <c r="IB4" s="243"/>
-      <c r="IC4" s="243"/>
-      <c r="ID4" s="243"/>
-      <c r="IE4" s="243"/>
-      <c r="IF4" s="243"/>
-      <c r="IG4" s="244"/>
-      <c r="IH4" s="242" t="str">
+      <c r="IB4" s="246"/>
+      <c r="IC4" s="246"/>
+      <c r="ID4" s="246"/>
+      <c r="IE4" s="246"/>
+      <c r="IF4" s="246"/>
+      <c r="IG4" s="247"/>
+      <c r="IH4" s="245" t="str">
         <f t="shared" ref="IH4" si="31">"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 37</v>
       </c>
-      <c r="II4" s="243"/>
-      <c r="IJ4" s="243"/>
-      <c r="IK4" s="243"/>
-      <c r="IL4" s="243"/>
-      <c r="IM4" s="243"/>
-      <c r="IN4" s="244"/>
-      <c r="IO4" s="242" t="str">
+      <c r="II4" s="246"/>
+      <c r="IJ4" s="246"/>
+      <c r="IK4" s="246"/>
+      <c r="IL4" s="246"/>
+      <c r="IM4" s="246"/>
+      <c r="IN4" s="247"/>
+      <c r="IO4" s="245" t="str">
         <f t="shared" ref="IO4" si="32">"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 38</v>
       </c>
-      <c r="IP4" s="243"/>
-      <c r="IQ4" s="243"/>
-      <c r="IR4" s="243"/>
-      <c r="IS4" s="243"/>
-      <c r="IT4" s="243"/>
-      <c r="IU4" s="244"/>
-    </row>
-    <row r="5" spans="1:255" s="48" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="IP4" s="246"/>
+      <c r="IQ4" s="246"/>
+      <c r="IR4" s="246"/>
+      <c r="IS4" s="246"/>
+      <c r="IT4" s="246"/>
+      <c r="IU4" s="247"/>
+    </row>
+    <row r="5" spans="1:255" s="48" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="95"/>
       <c r="B5" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="253" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="258"/>
-      <c r="E5" s="259"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="255"/>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
-      <c r="K5" s="260">
+      <c r="K5" s="256">
         <f>K6</f>
         <v>45320</v>
       </c>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="246"/>
-      <c r="P5" s="246"/>
-      <c r="Q5" s="262"/>
-      <c r="R5" s="260">
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
+      <c r="N5" s="243"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="243"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="256">
         <f>R6</f>
         <v>45327</v>
       </c>
-      <c r="S5" s="246"/>
-      <c r="T5" s="246"/>
-      <c r="U5" s="246"/>
-      <c r="V5" s="246"/>
-      <c r="W5" s="246"/>
-      <c r="X5" s="261"/>
-      <c r="Y5" s="263">
+      <c r="S5" s="243"/>
+      <c r="T5" s="243"/>
+      <c r="U5" s="243"/>
+      <c r="V5" s="243"/>
+      <c r="W5" s="243"/>
+      <c r="X5" s="257"/>
+      <c r="Y5" s="259">
         <f>Y6</f>
         <v>45334</v>
       </c>
-      <c r="Z5" s="246"/>
-      <c r="AA5" s="246"/>
-      <c r="AB5" s="246"/>
-      <c r="AC5" s="246"/>
-      <c r="AD5" s="246"/>
-      <c r="AE5" s="264"/>
-      <c r="AF5" s="255">
+      <c r="Z5" s="243"/>
+      <c r="AA5" s="243"/>
+      <c r="AB5" s="243"/>
+      <c r="AC5" s="243"/>
+      <c r="AD5" s="243"/>
+      <c r="AE5" s="260"/>
+      <c r="AF5" s="251">
         <f>AF6</f>
         <v>45341</v>
       </c>
-      <c r="AG5" s="246"/>
-      <c r="AH5" s="246"/>
-      <c r="AI5" s="246"/>
-      <c r="AJ5" s="246"/>
-      <c r="AK5" s="246"/>
-      <c r="AL5" s="256"/>
-      <c r="AM5" s="248">
+      <c r="AG5" s="243"/>
+      <c r="AH5" s="243"/>
+      <c r="AI5" s="243"/>
+      <c r="AJ5" s="243"/>
+      <c r="AK5" s="243"/>
+      <c r="AL5" s="252"/>
+      <c r="AM5" s="261">
         <f>AM6</f>
         <v>45348</v>
       </c>
-      <c r="AN5" s="246"/>
-      <c r="AO5" s="246"/>
-      <c r="AP5" s="246"/>
-      <c r="AQ5" s="246"/>
-      <c r="AR5" s="246"/>
-      <c r="AS5" s="249"/>
-      <c r="AT5" s="250">
+      <c r="AN5" s="243"/>
+      <c r="AO5" s="243"/>
+      <c r="AP5" s="243"/>
+      <c r="AQ5" s="243"/>
+      <c r="AR5" s="243"/>
+      <c r="AS5" s="262"/>
+      <c r="AT5" s="263">
         <f>AT6</f>
         <v>45355</v>
       </c>
-      <c r="AU5" s="246"/>
-      <c r="AV5" s="246"/>
-      <c r="AW5" s="246"/>
-      <c r="AX5" s="246"/>
-      <c r="AY5" s="246"/>
-      <c r="AZ5" s="251"/>
-      <c r="BA5" s="252">
+      <c r="AU5" s="243"/>
+      <c r="AV5" s="243"/>
+      <c r="AW5" s="243"/>
+      <c r="AX5" s="243"/>
+      <c r="AY5" s="243"/>
+      <c r="AZ5" s="264"/>
+      <c r="BA5" s="242">
         <f>BA6</f>
         <v>45362</v>
       </c>
-      <c r="BB5" s="246"/>
-      <c r="BC5" s="246"/>
-      <c r="BD5" s="246"/>
-      <c r="BE5" s="246"/>
-      <c r="BF5" s="246"/>
-      <c r="BG5" s="253"/>
-      <c r="BH5" s="245">
+      <c r="BB5" s="243"/>
+      <c r="BC5" s="243"/>
+      <c r="BD5" s="243"/>
+      <c r="BE5" s="243"/>
+      <c r="BF5" s="243"/>
+      <c r="BG5" s="244"/>
+      <c r="BH5" s="248">
         <f>BH6</f>
         <v>45369</v>
       </c>
-      <c r="BI5" s="246"/>
-      <c r="BJ5" s="246"/>
-      <c r="BK5" s="246"/>
-      <c r="BL5" s="246"/>
-      <c r="BM5" s="246"/>
-      <c r="BN5" s="247"/>
-      <c r="BO5" s="252">
+      <c r="BI5" s="243"/>
+      <c r="BJ5" s="243"/>
+      <c r="BK5" s="243"/>
+      <c r="BL5" s="243"/>
+      <c r="BM5" s="243"/>
+      <c r="BN5" s="249"/>
+      <c r="BO5" s="242">
         <f>BO6</f>
         <v>45376</v>
       </c>
-      <c r="BP5" s="246"/>
-      <c r="BQ5" s="246"/>
-      <c r="BR5" s="246"/>
-      <c r="BS5" s="246"/>
-      <c r="BT5" s="246"/>
-      <c r="BU5" s="253"/>
-      <c r="BV5" s="245">
+      <c r="BP5" s="243"/>
+      <c r="BQ5" s="243"/>
+      <c r="BR5" s="243"/>
+      <c r="BS5" s="243"/>
+      <c r="BT5" s="243"/>
+      <c r="BU5" s="244"/>
+      <c r="BV5" s="248">
         <f>BV6</f>
         <v>45383</v>
       </c>
-      <c r="BW5" s="246"/>
-      <c r="BX5" s="246"/>
-      <c r="BY5" s="246"/>
-      <c r="BZ5" s="246"/>
-      <c r="CA5" s="246"/>
-      <c r="CB5" s="247"/>
-      <c r="CC5" s="245">
+      <c r="BW5" s="243"/>
+      <c r="BX5" s="243"/>
+      <c r="BY5" s="243"/>
+      <c r="BZ5" s="243"/>
+      <c r="CA5" s="243"/>
+      <c r="CB5" s="249"/>
+      <c r="CC5" s="248">
         <f>CC6</f>
         <v>45390</v>
       </c>
-      <c r="CD5" s="246"/>
-      <c r="CE5" s="246"/>
-      <c r="CF5" s="246"/>
-      <c r="CG5" s="246"/>
-      <c r="CH5" s="246"/>
-      <c r="CI5" s="247"/>
-      <c r="CJ5" s="252">
+      <c r="CD5" s="243"/>
+      <c r="CE5" s="243"/>
+      <c r="CF5" s="243"/>
+      <c r="CG5" s="243"/>
+      <c r="CH5" s="243"/>
+      <c r="CI5" s="249"/>
+      <c r="CJ5" s="242">
         <f>CJ6</f>
         <v>45397</v>
       </c>
-      <c r="CK5" s="246"/>
-      <c r="CL5" s="246"/>
-      <c r="CM5" s="246"/>
-      <c r="CN5" s="246"/>
-      <c r="CO5" s="246"/>
-      <c r="CP5" s="253"/>
-      <c r="CQ5" s="245">
+      <c r="CK5" s="243"/>
+      <c r="CL5" s="243"/>
+      <c r="CM5" s="243"/>
+      <c r="CN5" s="243"/>
+      <c r="CO5" s="243"/>
+      <c r="CP5" s="244"/>
+      <c r="CQ5" s="248">
         <f>CQ6</f>
         <v>45404</v>
       </c>
-      <c r="CR5" s="246"/>
-      <c r="CS5" s="246"/>
-      <c r="CT5" s="246"/>
-      <c r="CU5" s="246"/>
-      <c r="CV5" s="246"/>
-      <c r="CW5" s="247"/>
-      <c r="CX5" s="245">
+      <c r="CR5" s="243"/>
+      <c r="CS5" s="243"/>
+      <c r="CT5" s="243"/>
+      <c r="CU5" s="243"/>
+      <c r="CV5" s="243"/>
+      <c r="CW5" s="249"/>
+      <c r="CX5" s="248">
         <f t="shared" ref="CX5" si="33">CX6</f>
         <v>45411</v>
       </c>
-      <c r="CY5" s="246"/>
-      <c r="CZ5" s="246"/>
-      <c r="DA5" s="246"/>
-      <c r="DB5" s="246"/>
-      <c r="DC5" s="246"/>
-      <c r="DD5" s="247"/>
-      <c r="DE5" s="252">
+      <c r="CY5" s="243"/>
+      <c r="CZ5" s="243"/>
+      <c r="DA5" s="243"/>
+      <c r="DB5" s="243"/>
+      <c r="DC5" s="243"/>
+      <c r="DD5" s="249"/>
+      <c r="DE5" s="242">
         <f t="shared" ref="DE5" si="34">DE6</f>
         <v>45418</v>
       </c>
-      <c r="DF5" s="246"/>
-      <c r="DG5" s="246"/>
-      <c r="DH5" s="246"/>
-      <c r="DI5" s="246"/>
-      <c r="DJ5" s="246"/>
-      <c r="DK5" s="253"/>
-      <c r="DL5" s="245">
+      <c r="DF5" s="243"/>
+      <c r="DG5" s="243"/>
+      <c r="DH5" s="243"/>
+      <c r="DI5" s="243"/>
+      <c r="DJ5" s="243"/>
+      <c r="DK5" s="244"/>
+      <c r="DL5" s="248">
         <f t="shared" ref="DL5" si="35">DL6</f>
         <v>45425</v>
       </c>
-      <c r="DM5" s="246"/>
-      <c r="DN5" s="246"/>
-      <c r="DO5" s="246"/>
-      <c r="DP5" s="246"/>
-      <c r="DQ5" s="246"/>
-      <c r="DR5" s="247"/>
-      <c r="DS5" s="245">
+      <c r="DM5" s="243"/>
+      <c r="DN5" s="243"/>
+      <c r="DO5" s="243"/>
+      <c r="DP5" s="243"/>
+      <c r="DQ5" s="243"/>
+      <c r="DR5" s="249"/>
+      <c r="DS5" s="248">
         <f t="shared" ref="DS5" si="36">DS6</f>
         <v>45432</v>
       </c>
-      <c r="DT5" s="246"/>
-      <c r="DU5" s="246"/>
-      <c r="DV5" s="246"/>
-      <c r="DW5" s="246"/>
-      <c r="DX5" s="246"/>
-      <c r="DY5" s="247"/>
-      <c r="DZ5" s="252">
+      <c r="DT5" s="243"/>
+      <c r="DU5" s="243"/>
+      <c r="DV5" s="243"/>
+      <c r="DW5" s="243"/>
+      <c r="DX5" s="243"/>
+      <c r="DY5" s="249"/>
+      <c r="DZ5" s="242">
         <f t="shared" ref="DZ5" si="37">DZ6</f>
         <v>45439</v>
       </c>
-      <c r="EA5" s="246"/>
-      <c r="EB5" s="246"/>
-      <c r="EC5" s="246"/>
-      <c r="ED5" s="246"/>
-      <c r="EE5" s="246"/>
-      <c r="EF5" s="253"/>
-      <c r="EG5" s="245">
+      <c r="EA5" s="243"/>
+      <c r="EB5" s="243"/>
+      <c r="EC5" s="243"/>
+      <c r="ED5" s="243"/>
+      <c r="EE5" s="243"/>
+      <c r="EF5" s="244"/>
+      <c r="EG5" s="248">
         <f t="shared" ref="EG5" si="38">EG6</f>
         <v>45446</v>
       </c>
-      <c r="EH5" s="246"/>
-      <c r="EI5" s="246"/>
-      <c r="EJ5" s="246"/>
-      <c r="EK5" s="246"/>
-      <c r="EL5" s="246"/>
-      <c r="EM5" s="247"/>
-      <c r="EN5" s="245">
+      <c r="EH5" s="243"/>
+      <c r="EI5" s="243"/>
+      <c r="EJ5" s="243"/>
+      <c r="EK5" s="243"/>
+      <c r="EL5" s="243"/>
+      <c r="EM5" s="249"/>
+      <c r="EN5" s="248">
         <f>EN6</f>
         <v>45453</v>
       </c>
-      <c r="EO5" s="246"/>
-      <c r="EP5" s="246"/>
-      <c r="EQ5" s="246"/>
-      <c r="ER5" s="246"/>
-      <c r="ES5" s="246"/>
-      <c r="ET5" s="247"/>
-      <c r="EU5" s="252">
+      <c r="EO5" s="243"/>
+      <c r="EP5" s="243"/>
+      <c r="EQ5" s="243"/>
+      <c r="ER5" s="243"/>
+      <c r="ES5" s="243"/>
+      <c r="ET5" s="249"/>
+      <c r="EU5" s="242">
         <f>EU6</f>
         <v>45460</v>
       </c>
-      <c r="EV5" s="246"/>
-      <c r="EW5" s="246"/>
-      <c r="EX5" s="246"/>
-      <c r="EY5" s="246"/>
-      <c r="EZ5" s="246"/>
-      <c r="FA5" s="253"/>
-      <c r="FB5" s="245">
+      <c r="EV5" s="243"/>
+      <c r="EW5" s="243"/>
+      <c r="EX5" s="243"/>
+      <c r="EY5" s="243"/>
+      <c r="EZ5" s="243"/>
+      <c r="FA5" s="244"/>
+      <c r="FB5" s="248">
         <f>FB6</f>
         <v>45467</v>
       </c>
-      <c r="FC5" s="246"/>
-      <c r="FD5" s="246"/>
-      <c r="FE5" s="246"/>
-      <c r="FF5" s="246"/>
-      <c r="FG5" s="246"/>
-      <c r="FH5" s="247"/>
-      <c r="FI5" s="245">
+      <c r="FC5" s="243"/>
+      <c r="FD5" s="243"/>
+      <c r="FE5" s="243"/>
+      <c r="FF5" s="243"/>
+      <c r="FG5" s="243"/>
+      <c r="FH5" s="249"/>
+      <c r="FI5" s="248">
         <f t="shared" ref="FI5" si="39">FI6</f>
         <v>45474</v>
       </c>
-      <c r="FJ5" s="246"/>
-      <c r="FK5" s="246"/>
-      <c r="FL5" s="246"/>
-      <c r="FM5" s="246"/>
-      <c r="FN5" s="246"/>
-      <c r="FO5" s="247"/>
-      <c r="FP5" s="252">
+      <c r="FJ5" s="243"/>
+      <c r="FK5" s="243"/>
+      <c r="FL5" s="243"/>
+      <c r="FM5" s="243"/>
+      <c r="FN5" s="243"/>
+      <c r="FO5" s="249"/>
+      <c r="FP5" s="242">
         <f t="shared" ref="FP5" si="40">FP6</f>
         <v>45481</v>
       </c>
-      <c r="FQ5" s="246"/>
-      <c r="FR5" s="246"/>
-      <c r="FS5" s="246"/>
-      <c r="FT5" s="246"/>
-      <c r="FU5" s="246"/>
-      <c r="FV5" s="253"/>
-      <c r="FW5" s="245">
+      <c r="FQ5" s="243"/>
+      <c r="FR5" s="243"/>
+      <c r="FS5" s="243"/>
+      <c r="FT5" s="243"/>
+      <c r="FU5" s="243"/>
+      <c r="FV5" s="244"/>
+      <c r="FW5" s="248">
         <f t="shared" ref="FW5" si="41">FW6</f>
         <v>45488</v>
       </c>
-      <c r="FX5" s="246"/>
-      <c r="FY5" s="246"/>
-      <c r="FZ5" s="246"/>
-      <c r="GA5" s="246"/>
-      <c r="GB5" s="246"/>
-      <c r="GC5" s="247"/>
-      <c r="GD5" s="245">
+      <c r="FX5" s="243"/>
+      <c r="FY5" s="243"/>
+      <c r="FZ5" s="243"/>
+      <c r="GA5" s="243"/>
+      <c r="GB5" s="243"/>
+      <c r="GC5" s="249"/>
+      <c r="GD5" s="248">
         <f t="shared" ref="GD5" si="42">GD6</f>
         <v>45495</v>
       </c>
-      <c r="GE5" s="246"/>
-      <c r="GF5" s="246"/>
-      <c r="GG5" s="246"/>
-      <c r="GH5" s="246"/>
-      <c r="GI5" s="246"/>
-      <c r="GJ5" s="247"/>
-      <c r="GK5" s="252">
+      <c r="GE5" s="243"/>
+      <c r="GF5" s="243"/>
+      <c r="GG5" s="243"/>
+      <c r="GH5" s="243"/>
+      <c r="GI5" s="243"/>
+      <c r="GJ5" s="249"/>
+      <c r="GK5" s="242">
         <f t="shared" ref="GK5" si="43">GK6</f>
         <v>45502</v>
       </c>
-      <c r="GL5" s="246"/>
-      <c r="GM5" s="246"/>
-      <c r="GN5" s="246"/>
-      <c r="GO5" s="246"/>
-      <c r="GP5" s="246"/>
-      <c r="GQ5" s="253"/>
-      <c r="GR5" s="245">
+      <c r="GL5" s="243"/>
+      <c r="GM5" s="243"/>
+      <c r="GN5" s="243"/>
+      <c r="GO5" s="243"/>
+      <c r="GP5" s="243"/>
+      <c r="GQ5" s="244"/>
+      <c r="GR5" s="248">
         <f t="shared" ref="GR5" si="44">GR6</f>
         <v>45509</v>
       </c>
-      <c r="GS5" s="246"/>
-      <c r="GT5" s="246"/>
-      <c r="GU5" s="246"/>
-      <c r="GV5" s="246"/>
-      <c r="GW5" s="246"/>
-      <c r="GX5" s="247"/>
-      <c r="GY5" s="252">
+      <c r="GS5" s="243"/>
+      <c r="GT5" s="243"/>
+      <c r="GU5" s="243"/>
+      <c r="GV5" s="243"/>
+      <c r="GW5" s="243"/>
+      <c r="GX5" s="249"/>
+      <c r="GY5" s="242">
         <f t="shared" ref="GY5" si="45">GY6</f>
         <v>45516</v>
       </c>
-      <c r="GZ5" s="246"/>
-      <c r="HA5" s="246"/>
-      <c r="HB5" s="246"/>
-      <c r="HC5" s="246"/>
-      <c r="HD5" s="246"/>
-      <c r="HE5" s="253"/>
-      <c r="HF5" s="245">
+      <c r="GZ5" s="243"/>
+      <c r="HA5" s="243"/>
+      <c r="HB5" s="243"/>
+      <c r="HC5" s="243"/>
+      <c r="HD5" s="243"/>
+      <c r="HE5" s="244"/>
+      <c r="HF5" s="248">
         <f t="shared" ref="HF5" si="46">HF6</f>
         <v>45523</v>
       </c>
-      <c r="HG5" s="246"/>
-      <c r="HH5" s="246"/>
-      <c r="HI5" s="246"/>
-      <c r="HJ5" s="246"/>
-      <c r="HK5" s="246"/>
-      <c r="HL5" s="247"/>
-      <c r="HM5" s="252">
+      <c r="HG5" s="243"/>
+      <c r="HH5" s="243"/>
+      <c r="HI5" s="243"/>
+      <c r="HJ5" s="243"/>
+      <c r="HK5" s="243"/>
+      <c r="HL5" s="249"/>
+      <c r="HM5" s="242">
         <f t="shared" ref="HM5" si="47">HM6</f>
         <v>45530</v>
       </c>
-      <c r="HN5" s="246"/>
-      <c r="HO5" s="246"/>
-      <c r="HP5" s="246"/>
-      <c r="HQ5" s="246"/>
-      <c r="HR5" s="246"/>
-      <c r="HS5" s="253"/>
-      <c r="HT5" s="245">
+      <c r="HN5" s="243"/>
+      <c r="HO5" s="243"/>
+      <c r="HP5" s="243"/>
+      <c r="HQ5" s="243"/>
+      <c r="HR5" s="243"/>
+      <c r="HS5" s="244"/>
+      <c r="HT5" s="248">
         <f t="shared" ref="HT5" si="48">HT6</f>
         <v>45537</v>
       </c>
-      <c r="HU5" s="246"/>
-      <c r="HV5" s="246"/>
-      <c r="HW5" s="246"/>
-      <c r="HX5" s="246"/>
-      <c r="HY5" s="246"/>
-      <c r="HZ5" s="247"/>
-      <c r="IA5" s="252">
+      <c r="HU5" s="243"/>
+      <c r="HV5" s="243"/>
+      <c r="HW5" s="243"/>
+      <c r="HX5" s="243"/>
+      <c r="HY5" s="243"/>
+      <c r="HZ5" s="249"/>
+      <c r="IA5" s="242">
         <f t="shared" ref="IA5" si="49">IA6</f>
         <v>45544</v>
       </c>
-      <c r="IB5" s="246"/>
-      <c r="IC5" s="246"/>
-      <c r="ID5" s="246"/>
-      <c r="IE5" s="246"/>
-      <c r="IF5" s="246"/>
-      <c r="IG5" s="253"/>
-      <c r="IH5" s="245">
+      <c r="IB5" s="243"/>
+      <c r="IC5" s="243"/>
+      <c r="ID5" s="243"/>
+      <c r="IE5" s="243"/>
+      <c r="IF5" s="243"/>
+      <c r="IG5" s="244"/>
+      <c r="IH5" s="248">
         <f t="shared" ref="IH5" si="50">IH6</f>
         <v>45551</v>
       </c>
-      <c r="II5" s="246"/>
-      <c r="IJ5" s="246"/>
-      <c r="IK5" s="246"/>
-      <c r="IL5" s="246"/>
-      <c r="IM5" s="246"/>
-      <c r="IN5" s="247"/>
-      <c r="IO5" s="252">
+      <c r="II5" s="243"/>
+      <c r="IJ5" s="243"/>
+      <c r="IK5" s="243"/>
+      <c r="IL5" s="243"/>
+      <c r="IM5" s="243"/>
+      <c r="IN5" s="249"/>
+      <c r="IO5" s="242">
         <f t="shared" ref="IO5" si="51">IO6</f>
         <v>45558</v>
       </c>
-      <c r="IP5" s="246"/>
-      <c r="IQ5" s="246"/>
-      <c r="IR5" s="246"/>
-      <c r="IS5" s="246"/>
-      <c r="IT5" s="246"/>
-      <c r="IU5" s="253"/>
-    </row>
-    <row r="6" spans="1:255" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="IP5" s="243"/>
+      <c r="IQ5" s="243"/>
+      <c r="IR5" s="243"/>
+      <c r="IS5" s="243"/>
+      <c r="IT5" s="243"/>
+      <c r="IU5" s="244"/>
+    </row>
+    <row r="6" spans="1:255" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="130"/>
       <c r="K6" s="57">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="IU6" s="69"/>
     </row>
-    <row r="7" spans="1:255" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:255" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>0</v>
       </c>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="IU7" s="55"/>
     </row>
-    <row r="8" spans="1:255" s="222" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:255" s="222" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="215" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -7862,7 +7862,7 @@
       <c r="IT8" s="218"/>
       <c r="IU8" s="218"/>
     </row>
-    <row r="9" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="189" t="str">
         <f t="shared" ref="A9:A23" si="254">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -8136,7 +8136,7 @@
       <c r="IT9" s="198"/>
       <c r="IU9" s="198"/>
     </row>
-    <row r="10" spans="1:255" s="199" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:255" s="199" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="189" t="str">
         <f t="shared" ref="A10:A21" si="257">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -8410,7 +8410,7 @@
       <c r="IT10" s="198"/>
       <c r="IU10" s="198"/>
     </row>
-    <row r="11" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.2</v>
@@ -8684,7 +8684,7 @@
       <c r="IT11" s="198"/>
       <c r="IU11" s="198"/>
     </row>
-    <row r="12" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.3</v>
@@ -8959,7 +8959,7 @@
       <c r="IT12" s="198"/>
       <c r="IU12" s="198"/>
     </row>
-    <row r="13" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.4</v>
@@ -9233,7 +9233,7 @@
       <c r="IT13" s="198"/>
       <c r="IU13" s="198"/>
     </row>
-    <row r="14" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.5</v>
@@ -9255,7 +9255,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="196">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I14" s="233">
         <f t="shared" si="256"/>
@@ -9510,7 +9510,7 @@
       <c r="IT14" s="198"/>
       <c r="IU14" s="198"/>
     </row>
-    <row r="15" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.6</v>
@@ -9532,7 +9532,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="196">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="233">
         <f t="shared" ref="I15" si="263">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
@@ -9787,7 +9787,7 @@
       <c r="IT15" s="198"/>
       <c r="IU15" s="198"/>
     </row>
-    <row r="16" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.7</v>
@@ -10063,7 +10063,7 @@
       <c r="IT16" s="198"/>
       <c r="IU16" s="198"/>
     </row>
-    <row r="17" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.8</v>
@@ -10339,7 +10339,7 @@
       <c r="IT17" s="198"/>
       <c r="IU17" s="198"/>
     </row>
-    <row r="18" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:255" s="199" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.9</v>
@@ -10360,7 +10360,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="196">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I18" s="233">
         <f t="shared" ref="I18" si="269">IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
@@ -10613,7 +10613,7 @@
       <c r="IT18" s="198"/>
       <c r="IU18" s="198"/>
     </row>
-    <row r="19" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.10</v>
@@ -10889,7 +10889,7 @@
       <c r="IT19" s="198"/>
       <c r="IU19" s="198"/>
     </row>
-    <row r="20" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.11</v>
@@ -11166,7 +11166,7 @@
       <c r="IT20" s="198"/>
       <c r="IU20" s="198"/>
     </row>
-    <row r="21" spans="1:255" s="199" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:255" s="199" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="189" t="str">
         <f t="shared" si="257"/>
         <v>1.1.12</v>
@@ -11443,7 +11443,7 @@
       <c r="IT21" s="198"/>
       <c r="IU21" s="198"/>
     </row>
-    <row r="22" spans="1:255" s="139" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:255" s="139" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="205" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -11705,7 +11705,7 @@
       <c r="IT22" s="138"/>
       <c r="IU22" s="138"/>
     </row>
-    <row r="23" spans="1:255" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:255" s="151" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="141" t="str">
         <f t="shared" si="254"/>
         <v>2.1</v>
@@ -11980,7 +11980,7 @@
       <c r="IT23" s="150"/>
       <c r="IU23" s="150"/>
     </row>
-    <row r="24" spans="1:255" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:255" s="151" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
@@ -12257,7 +12257,7 @@
       <c r="IT24" s="150"/>
       <c r="IU24" s="150"/>
     </row>
-    <row r="25" spans="1:255" s="151" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:255" s="151" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A25" s="141" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
@@ -12533,7 +12533,7 @@
       <c r="IT25" s="150"/>
       <c r="IU25" s="150"/>
     </row>
-    <row r="26" spans="1:255" s="159" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:255" s="159" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A26" s="152" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -12795,7 +12795,7 @@
       <c r="IT26" s="155"/>
       <c r="IU26" s="155"/>
     </row>
-    <row r="27" spans="1:255" s="167" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:255" s="167" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A27" s="160" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -13070,7 +13070,7 @@
       <c r="IT27" s="166"/>
       <c r="IU27" s="166"/>
     </row>
-    <row r="28" spans="1:255" s="167" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:255" s="167" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="160" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
@@ -13347,7 +13347,7 @@
       <c r="IT28" s="166"/>
       <c r="IU28" s="166"/>
     </row>
-    <row r="29" spans="1:255" s="167" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:255" s="167" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="160" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.2</v>
@@ -13623,7 +13623,7 @@
       <c r="IT29" s="166"/>
       <c r="IU29" s="166"/>
     </row>
-    <row r="30" spans="1:255" s="177" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:255" s="177" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A30" s="168" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -13885,7 +13885,7 @@
       <c r="IT30" s="171"/>
       <c r="IU30" s="171"/>
     </row>
-    <row r="31" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -14160,7 +14160,7 @@
       <c r="IT31" s="187"/>
       <c r="IU31" s="187"/>
     </row>
-    <row r="32" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A32" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -14437,7 +14437,7 @@
       <c r="IT32" s="187"/>
       <c r="IU32" s="187"/>
     </row>
-    <row r="33" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -14713,7 +14713,7 @@
       <c r="IT33" s="187"/>
       <c r="IU33" s="187"/>
     </row>
-    <row r="34" spans="1:255" s="188" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:255" s="188" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="178" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -14990,7 +14990,7 @@
       <c r="IT34" s="187"/>
       <c r="IU34" s="187"/>
     </row>
-    <row r="36" spans="1:255" s="33" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:255" s="33" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="89" t="s">
         <v>1</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="IT36" s="27"/>
       <c r="IU36" s="27"/>
     </row>
-    <row r="37" spans="1:255" s="32" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:255" s="32" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A37" s="90" t="s">
         <v>74</v>
       </c>
@@ -15504,7 +15504,7 @@
       <c r="IT37" s="27"/>
       <c r="IU37" s="27"/>
     </row>
-    <row r="38" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="78" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -15768,7 +15768,7 @@
       <c r="IT38" s="27"/>
       <c r="IU38" s="27"/>
     </row>
-    <row r="39" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="77" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -16040,7 +16040,7 @@
       <c r="IT39" s="27"/>
       <c r="IU39" s="27"/>
     </row>
-    <row r="40" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A40" s="77" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -16312,7 +16312,7 @@
       <c r="IT40" s="27"/>
       <c r="IU40" s="27"/>
     </row>
-    <row r="41" spans="1:255" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:255" s="32" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A41" s="77" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -16582,32 +16582,61 @@
       <c r="IT41" s="27"/>
       <c r="IU41" s="27"/>
     </row>
-    <row r="42" spans="1:255" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:255" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="126" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
       <c r="C42" s="136"/>
     </row>
-    <row r="43" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -16624,49 +16653,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H37:H41 H8:H34">
@@ -16777,62 +16777,62 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="21"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A4" s="104" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.35">
       <c r="B5" s="105" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="B7" s="105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B9" s="103" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.35">
       <c r="B11" s="106" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A13" s="265" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="265"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="107"/>
       <c r="B15" s="108" t="s">
         <v>78</v>
@@ -16840,7 +16840,7 @@
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="107"/>
       <c r="B16" s="108" t="s">
         <v>79</v>
@@ -16848,162 +16848,162 @@
       <c r="C16" s="109"/>
       <c r="D16" s="109"/>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A17" s="110"/>
       <c r="B17" s="108" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A18" s="110"/>
       <c r="B18" s="108" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A19" s="110"/>
       <c r="B19" s="108" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A20" s="110"/>
       <c r="B20" s="108" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A21" s="110"/>
       <c r="B21" s="111" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A22" s="110"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A23" s="265" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="265"/>
     </row>
-    <row r="24" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="40.9" x14ac:dyDescent="0.45">
       <c r="A24" s="110"/>
       <c r="B24" s="108" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A25" s="110"/>
       <c r="B25" s="108"/>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A26" s="110"/>
       <c r="B26" s="112" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A27" s="110"/>
       <c r="B27" s="108" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A28" s="110"/>
       <c r="B28" s="108" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A29" s="110"/>
       <c r="B29" s="108"/>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A30" s="110"/>
       <c r="B30" s="112" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A31" s="110"/>
       <c r="B31" s="108" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A32" s="110"/>
       <c r="B32" s="108" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A33" s="110"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.45">
       <c r="A34" s="110"/>
       <c r="B34" s="108" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A35" s="110"/>
       <c r="B35" s="113" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A36" s="110"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A37" s="265" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="265"/>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="B38" s="108" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B40" s="108" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="B42" s="108" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="B44" s="108" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="B46" s="108" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A48" s="265" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="265"/>
     </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="B49" s="108" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="114" t="s">
         <v>8</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="114" t="s">
         <v>10</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="114" t="s">
         <v>12</v>
       </c>
@@ -17027,19 +17027,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A54" s="106"/>
       <c r="B54" s="108" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A55" s="106"/>
       <c r="B55" s="108" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A56" s="114" t="s">
         <v>14</v>
       </c>
@@ -17047,19 +17047,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A57" s="106"/>
       <c r="B57" s="108" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A58" s="106"/>
       <c r="B58" s="108" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A59" s="114" t="s">
         <v>16</v>
       </c>
@@ -17067,13 +17067,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A60" s="106"/>
       <c r="B60" s="108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A61" s="114" t="s">
         <v>105</v>
       </c>
@@ -17081,33 +17081,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="115"/>
       <c r="B62" s="108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A64" s="265" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="265"/>
     </row>
-    <row r="65" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B65" s="108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="A67" s="265" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="265"/>
     </row>
-    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A68" s="116" t="s">
         <v>4</v>
       </c>
@@ -17115,17 +17115,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="A69" s="115"/>
       <c r="B69" s="118" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A70" s="115"/>
       <c r="B70" s="119"/>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A71" s="116" t="s">
         <v>4</v>
       </c>
@@ -17133,17 +17133,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="27.4" x14ac:dyDescent="0.35">
       <c r="A72" s="115"/>
       <c r="B72" s="118" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A73" s="115"/>
       <c r="B73" s="119"/>
     </row>
-    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A74" s="116" t="s">
         <v>4</v>
       </c>
@@ -17151,17 +17151,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A75" s="115"/>
       <c r="B75" s="105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A76" s="115"/>
       <c r="B76" s="115"/>
     </row>
-    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A77" s="116" t="s">
         <v>4</v>
       </c>
@@ -17169,17 +17169,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="A78" s="115"/>
       <c r="B78" s="105" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A79" s="115"/>
       <c r="B79" s="115"/>
     </row>
-    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A80" s="116" t="s">
         <v>4</v>
       </c>
@@ -17187,29 +17187,29 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A81" s="115"/>
       <c r="B81" s="121" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A82" s="115"/>
       <c r="B82" s="121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A83" s="115"/>
       <c r="B83" s="121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A84" s="115"/>
       <c r="B84" s="122"/>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A85" s="116" t="s">
         <v>4</v>
       </c>
@@ -17217,29 +17217,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A86" s="115"/>
       <c r="B86" s="105" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A87" s="115"/>
       <c r="B87" s="123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A88" s="115"/>
       <c r="B88" s="124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A89" s="115"/>
       <c r="B89" s="115"/>
     </row>
-    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A90" s="116" t="s">
         <v>4</v>
       </c>
@@ -17247,13 +17247,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="27" x14ac:dyDescent="0.35">
       <c r="A91" s="106"/>
       <c r="B91" s="121" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>51</v>
       </c>
@@ -17291,172 +17291,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="2" width="37.73046875" customWidth="1"/>
+    <col min="3" max="3" width="55.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
       <c r="C7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.45">
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B22" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
@@ -17481,172 +17481,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955F3559-A93A-43C9-A166-E9C9F8F13AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FE33B-A46D-43E0-93DF-817A373B9E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>WBS</t>
   </si>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>write accompanying texts</t>
+  </si>
+  <si>
+    <t>greenlight, 1 week for feedback, 1 week for incorporating 2 weeks before defence submit final thesis</t>
   </si>
 </sst>
 </file>
@@ -2621,28 +2624,40 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2679,18 +2694,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2948,13 +2951,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -3288,75 +3291,75 @@
   </sheetPr>
   <dimension ref="A1:IU62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomLeft" activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="91" customWidth="1"/>
-    <col min="4" max="4" width="0.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.5546875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
-    <col min="67" max="68" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
+    <col min="67" max="68" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.109375" style="1"/>
+    <col min="229" max="229" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
@@ -3369,23 +3372,23 @@
       <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
-      <c r="AN1" s="204"/>
-      <c r="AO1" s="204"/>
-      <c r="AP1" s="204"/>
-      <c r="AQ1" s="204"/>
-      <c r="AR1" s="204"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="208"/>
+      <c r="AR1" s="208"/>
     </row>
-    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
@@ -3459,735 +3462,735 @@
       <c r="BM3" s="76"/>
       <c r="BN3" s="77"/>
     </row>
-    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="207">
+      <c r="C4" s="211">
         <v>45295</v>
       </c>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="H4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="74">
         <v>9</v>
       </c>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="199" t="str">
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="196" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="199" t="str">
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="196" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="199" t="str">
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="196" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="200"/>
-      <c r="AI4" s="200"/>
-      <c r="AJ4" s="200"/>
-      <c r="AK4" s="200"/>
-      <c r="AL4" s="201"/>
-      <c r="AM4" s="199" t="str">
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="196" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="AN4" s="200"/>
-      <c r="AO4" s="200"/>
-      <c r="AP4" s="200"/>
-      <c r="AQ4" s="200"/>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="201"/>
-      <c r="AT4" s="199" t="str">
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="196" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AU4" s="200"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="200"/>
-      <c r="AX4" s="200"/>
-      <c r="AY4" s="200"/>
-      <c r="AZ4" s="201"/>
-      <c r="BA4" s="199" t="str">
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="197"/>
+      <c r="AW4" s="197"/>
+      <c r="AX4" s="197"/>
+      <c r="AY4" s="197"/>
+      <c r="AZ4" s="198"/>
+      <c r="BA4" s="196" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="BB4" s="200"/>
-      <c r="BC4" s="200"/>
-      <c r="BD4" s="200"/>
-      <c r="BE4" s="200"/>
-      <c r="BF4" s="200"/>
-      <c r="BG4" s="201"/>
-      <c r="BH4" s="199" t="str">
+      <c r="BB4" s="197"/>
+      <c r="BC4" s="197"/>
+      <c r="BD4" s="197"/>
+      <c r="BE4" s="197"/>
+      <c r="BF4" s="197"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="196" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="BI4" s="200"/>
-      <c r="BJ4" s="200"/>
-      <c r="BK4" s="200"/>
-      <c r="BL4" s="200"/>
-      <c r="BM4" s="200"/>
-      <c r="BN4" s="201"/>
-      <c r="BO4" s="199" t="str">
+      <c r="BI4" s="197"/>
+      <c r="BJ4" s="197"/>
+      <c r="BK4" s="197"/>
+      <c r="BL4" s="197"/>
+      <c r="BM4" s="197"/>
+      <c r="BN4" s="198"/>
+      <c r="BO4" s="196" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="BP4" s="200"/>
-      <c r="BQ4" s="200"/>
-      <c r="BR4" s="200"/>
-      <c r="BS4" s="200"/>
-      <c r="BT4" s="200"/>
-      <c r="BU4" s="201"/>
-      <c r="BV4" s="199" t="str">
+      <c r="BP4" s="197"/>
+      <c r="BQ4" s="197"/>
+      <c r="BR4" s="197"/>
+      <c r="BS4" s="197"/>
+      <c r="BT4" s="197"/>
+      <c r="BU4" s="198"/>
+      <c r="BV4" s="196" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="BW4" s="200"/>
-      <c r="BX4" s="200"/>
-      <c r="BY4" s="200"/>
-      <c r="BZ4" s="200"/>
-      <c r="CA4" s="200"/>
-      <c r="CB4" s="201"/>
-      <c r="CC4" s="199" t="str">
+      <c r="BW4" s="197"/>
+      <c r="BX4" s="197"/>
+      <c r="BY4" s="197"/>
+      <c r="BZ4" s="197"/>
+      <c r="CA4" s="197"/>
+      <c r="CB4" s="198"/>
+      <c r="CC4" s="196" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="CD4" s="200"/>
-      <c r="CE4" s="200"/>
-      <c r="CF4" s="200"/>
-      <c r="CG4" s="200"/>
-      <c r="CH4" s="200"/>
-      <c r="CI4" s="201"/>
-      <c r="CJ4" s="199" t="str">
+      <c r="CD4" s="197"/>
+      <c r="CE4" s="197"/>
+      <c r="CF4" s="197"/>
+      <c r="CG4" s="197"/>
+      <c r="CH4" s="197"/>
+      <c r="CI4" s="198"/>
+      <c r="CJ4" s="196" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="CK4" s="200"/>
-      <c r="CL4" s="200"/>
-      <c r="CM4" s="200"/>
-      <c r="CN4" s="200"/>
-      <c r="CO4" s="200"/>
-      <c r="CP4" s="201"/>
-      <c r="CQ4" s="199" t="str">
+      <c r="CK4" s="197"/>
+      <c r="CL4" s="197"/>
+      <c r="CM4" s="197"/>
+      <c r="CN4" s="197"/>
+      <c r="CO4" s="197"/>
+      <c r="CP4" s="198"/>
+      <c r="CQ4" s="196" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="CR4" s="200"/>
-      <c r="CS4" s="200"/>
-      <c r="CT4" s="200"/>
-      <c r="CU4" s="200"/>
-      <c r="CV4" s="200"/>
-      <c r="CW4" s="201"/>
-      <c r="CX4" s="199" t="str">
+      <c r="CR4" s="197"/>
+      <c r="CS4" s="197"/>
+      <c r="CT4" s="197"/>
+      <c r="CU4" s="197"/>
+      <c r="CV4" s="197"/>
+      <c r="CW4" s="198"/>
+      <c r="CX4" s="196" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="CY4" s="200"/>
-      <c r="CZ4" s="200"/>
-      <c r="DA4" s="200"/>
-      <c r="DB4" s="200"/>
-      <c r="DC4" s="200"/>
-      <c r="DD4" s="201"/>
-      <c r="DE4" s="199" t="str">
+      <c r="CY4" s="197"/>
+      <c r="CZ4" s="197"/>
+      <c r="DA4" s="197"/>
+      <c r="DB4" s="197"/>
+      <c r="DC4" s="197"/>
+      <c r="DD4" s="198"/>
+      <c r="DE4" s="196" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="DF4" s="200"/>
-      <c r="DG4" s="200"/>
-      <c r="DH4" s="200"/>
-      <c r="DI4" s="200"/>
-      <c r="DJ4" s="200"/>
-      <c r="DK4" s="201"/>
-      <c r="DL4" s="199" t="str">
+      <c r="DF4" s="197"/>
+      <c r="DG4" s="197"/>
+      <c r="DH4" s="197"/>
+      <c r="DI4" s="197"/>
+      <c r="DJ4" s="197"/>
+      <c r="DK4" s="198"/>
+      <c r="DL4" s="196" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="DM4" s="200"/>
-      <c r="DN4" s="200"/>
-      <c r="DO4" s="200"/>
-      <c r="DP4" s="200"/>
-      <c r="DQ4" s="200"/>
-      <c r="DR4" s="201"/>
-      <c r="DS4" s="199" t="str">
+      <c r="DM4" s="197"/>
+      <c r="DN4" s="197"/>
+      <c r="DO4" s="197"/>
+      <c r="DP4" s="197"/>
+      <c r="DQ4" s="197"/>
+      <c r="DR4" s="198"/>
+      <c r="DS4" s="196" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="DT4" s="200"/>
-      <c r="DU4" s="200"/>
-      <c r="DV4" s="200"/>
-      <c r="DW4" s="200"/>
-      <c r="DX4" s="200"/>
-      <c r="DY4" s="201"/>
-      <c r="DZ4" s="199" t="str">
+      <c r="DT4" s="197"/>
+      <c r="DU4" s="197"/>
+      <c r="DV4" s="197"/>
+      <c r="DW4" s="197"/>
+      <c r="DX4" s="197"/>
+      <c r="DY4" s="198"/>
+      <c r="DZ4" s="196" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="EA4" s="200"/>
-      <c r="EB4" s="200"/>
-      <c r="EC4" s="200"/>
-      <c r="ED4" s="200"/>
-      <c r="EE4" s="200"/>
-      <c r="EF4" s="201"/>
-      <c r="EG4" s="199" t="str">
+      <c r="EA4" s="197"/>
+      <c r="EB4" s="197"/>
+      <c r="EC4" s="197"/>
+      <c r="ED4" s="197"/>
+      <c r="EE4" s="197"/>
+      <c r="EF4" s="198"/>
+      <c r="EG4" s="196" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="EH4" s="200"/>
-      <c r="EI4" s="200"/>
-      <c r="EJ4" s="200"/>
-      <c r="EK4" s="200"/>
-      <c r="EL4" s="200"/>
-      <c r="EM4" s="201"/>
-      <c r="EN4" s="199" t="str">
+      <c r="EH4" s="197"/>
+      <c r="EI4" s="197"/>
+      <c r="EJ4" s="197"/>
+      <c r="EK4" s="197"/>
+      <c r="EL4" s="197"/>
+      <c r="EM4" s="198"/>
+      <c r="EN4" s="196" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="EO4" s="200"/>
-      <c r="EP4" s="200"/>
-      <c r="EQ4" s="200"/>
-      <c r="ER4" s="200"/>
-      <c r="ES4" s="200"/>
-      <c r="ET4" s="201"/>
-      <c r="EU4" s="199" t="str">
+      <c r="EO4" s="197"/>
+      <c r="EP4" s="197"/>
+      <c r="EQ4" s="197"/>
+      <c r="ER4" s="197"/>
+      <c r="ES4" s="197"/>
+      <c r="ET4" s="198"/>
+      <c r="EU4" s="196" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="EV4" s="200"/>
-      <c r="EW4" s="200"/>
-      <c r="EX4" s="200"/>
-      <c r="EY4" s="200"/>
-      <c r="EZ4" s="200"/>
-      <c r="FA4" s="201"/>
-      <c r="FB4" s="199" t="str">
+      <c r="EV4" s="197"/>
+      <c r="EW4" s="197"/>
+      <c r="EX4" s="197"/>
+      <c r="EY4" s="197"/>
+      <c r="EZ4" s="197"/>
+      <c r="FA4" s="198"/>
+      <c r="FB4" s="196" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="FC4" s="200"/>
-      <c r="FD4" s="200"/>
-      <c r="FE4" s="200"/>
-      <c r="FF4" s="200"/>
-      <c r="FG4" s="200"/>
-      <c r="FH4" s="201"/>
-      <c r="FI4" s="199" t="str">
+      <c r="FC4" s="197"/>
+      <c r="FD4" s="197"/>
+      <c r="FE4" s="197"/>
+      <c r="FF4" s="197"/>
+      <c r="FG4" s="197"/>
+      <c r="FH4" s="198"/>
+      <c r="FI4" s="196" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="FJ4" s="200"/>
-      <c r="FK4" s="200"/>
-      <c r="FL4" s="200"/>
-      <c r="FM4" s="200"/>
-      <c r="FN4" s="200"/>
-      <c r="FO4" s="201"/>
-      <c r="FP4" s="199" t="str">
+      <c r="FJ4" s="197"/>
+      <c r="FK4" s="197"/>
+      <c r="FL4" s="197"/>
+      <c r="FM4" s="197"/>
+      <c r="FN4" s="197"/>
+      <c r="FO4" s="198"/>
+      <c r="FP4" s="196" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="FQ4" s="200"/>
-      <c r="FR4" s="200"/>
-      <c r="FS4" s="200"/>
-      <c r="FT4" s="200"/>
-      <c r="FU4" s="200"/>
-      <c r="FV4" s="201"/>
-      <c r="FW4" s="199" t="str">
+      <c r="FQ4" s="197"/>
+      <c r="FR4" s="197"/>
+      <c r="FS4" s="197"/>
+      <c r="FT4" s="197"/>
+      <c r="FU4" s="197"/>
+      <c r="FV4" s="198"/>
+      <c r="FW4" s="196" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="FX4" s="200"/>
-      <c r="FY4" s="200"/>
-      <c r="FZ4" s="200"/>
-      <c r="GA4" s="200"/>
-      <c r="GB4" s="200"/>
-      <c r="GC4" s="201"/>
-      <c r="GD4" s="199" t="str">
+      <c r="FX4" s="197"/>
+      <c r="FY4" s="197"/>
+      <c r="FZ4" s="197"/>
+      <c r="GA4" s="197"/>
+      <c r="GB4" s="197"/>
+      <c r="GC4" s="198"/>
+      <c r="GD4" s="196" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="GE4" s="200"/>
-      <c r="GF4" s="200"/>
-      <c r="GG4" s="200"/>
-      <c r="GH4" s="200"/>
-      <c r="GI4" s="200"/>
-      <c r="GJ4" s="201"/>
-      <c r="GK4" s="199" t="str">
+      <c r="GE4" s="197"/>
+      <c r="GF4" s="197"/>
+      <c r="GG4" s="197"/>
+      <c r="GH4" s="197"/>
+      <c r="GI4" s="197"/>
+      <c r="GJ4" s="198"/>
+      <c r="GK4" s="196" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="GL4" s="200"/>
-      <c r="GM4" s="200"/>
-      <c r="GN4" s="200"/>
-      <c r="GO4" s="200"/>
-      <c r="GP4" s="200"/>
-      <c r="GQ4" s="201"/>
-      <c r="GR4" s="199" t="str">
+      <c r="GL4" s="197"/>
+      <c r="GM4" s="197"/>
+      <c r="GN4" s="197"/>
+      <c r="GO4" s="197"/>
+      <c r="GP4" s="197"/>
+      <c r="GQ4" s="198"/>
+      <c r="GR4" s="196" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="GS4" s="200"/>
-      <c r="GT4" s="200"/>
-      <c r="GU4" s="200"/>
-      <c r="GV4" s="200"/>
-      <c r="GW4" s="200"/>
-      <c r="GX4" s="201"/>
-      <c r="GY4" s="199" t="str">
+      <c r="GS4" s="197"/>
+      <c r="GT4" s="197"/>
+      <c r="GU4" s="197"/>
+      <c r="GV4" s="197"/>
+      <c r="GW4" s="197"/>
+      <c r="GX4" s="198"/>
+      <c r="GY4" s="196" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 36</v>
       </c>
-      <c r="GZ4" s="200"/>
-      <c r="HA4" s="200"/>
-      <c r="HB4" s="200"/>
-      <c r="HC4" s="200"/>
-      <c r="HD4" s="200"/>
-      <c r="HE4" s="201"/>
-      <c r="HF4" s="199" t="str">
+      <c r="GZ4" s="197"/>
+      <c r="HA4" s="197"/>
+      <c r="HB4" s="197"/>
+      <c r="HC4" s="197"/>
+      <c r="HD4" s="197"/>
+      <c r="HE4" s="198"/>
+      <c r="HF4" s="196" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 37</v>
       </c>
-      <c r="HG4" s="200"/>
-      <c r="HH4" s="200"/>
-      <c r="HI4" s="200"/>
-      <c r="HJ4" s="200"/>
-      <c r="HK4" s="200"/>
-      <c r="HL4" s="201"/>
-      <c r="HM4" s="199" t="str">
+      <c r="HG4" s="197"/>
+      <c r="HH4" s="197"/>
+      <c r="HI4" s="197"/>
+      <c r="HJ4" s="197"/>
+      <c r="HK4" s="197"/>
+      <c r="HL4" s="198"/>
+      <c r="HM4" s="196" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 38</v>
       </c>
-      <c r="HN4" s="200"/>
-      <c r="HO4" s="200"/>
-      <c r="HP4" s="200"/>
-      <c r="HQ4" s="200"/>
-      <c r="HR4" s="200"/>
-      <c r="HS4" s="201"/>
-      <c r="HT4" s="199" t="str">
+      <c r="HN4" s="197"/>
+      <c r="HO4" s="197"/>
+      <c r="HP4" s="197"/>
+      <c r="HQ4" s="197"/>
+      <c r="HR4" s="197"/>
+      <c r="HS4" s="198"/>
+      <c r="HT4" s="196" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 39</v>
       </c>
-      <c r="HU4" s="200"/>
-      <c r="HV4" s="200"/>
-      <c r="HW4" s="200"/>
-      <c r="HX4" s="200"/>
-      <c r="HY4" s="200"/>
-      <c r="HZ4" s="201"/>
-      <c r="IA4" s="199" t="str">
+      <c r="HU4" s="197"/>
+      <c r="HV4" s="197"/>
+      <c r="HW4" s="197"/>
+      <c r="HX4" s="197"/>
+      <c r="HY4" s="197"/>
+      <c r="HZ4" s="198"/>
+      <c r="IA4" s="196" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 40</v>
       </c>
-      <c r="IB4" s="200"/>
-      <c r="IC4" s="200"/>
-      <c r="ID4" s="200"/>
-      <c r="IE4" s="200"/>
-      <c r="IF4" s="200"/>
-      <c r="IG4" s="201"/>
-      <c r="IH4" s="199" t="str">
+      <c r="IB4" s="197"/>
+      <c r="IC4" s="197"/>
+      <c r="ID4" s="197"/>
+      <c r="IE4" s="197"/>
+      <c r="IF4" s="197"/>
+      <c r="IG4" s="198"/>
+      <c r="IH4" s="196" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 41</v>
       </c>
-      <c r="II4" s="200"/>
-      <c r="IJ4" s="200"/>
-      <c r="IK4" s="200"/>
-      <c r="IL4" s="200"/>
-      <c r="IM4" s="200"/>
-      <c r="IN4" s="201"/>
-      <c r="IO4" s="199" t="str">
+      <c r="II4" s="197"/>
+      <c r="IJ4" s="197"/>
+      <c r="IK4" s="197"/>
+      <c r="IL4" s="197"/>
+      <c r="IM4" s="197"/>
+      <c r="IN4" s="198"/>
+      <c r="IO4" s="196" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 42</v>
       </c>
-      <c r="IP4" s="200"/>
-      <c r="IQ4" s="200"/>
-      <c r="IR4" s="200"/>
-      <c r="IS4" s="200"/>
-      <c r="IT4" s="200"/>
-      <c r="IU4" s="201"/>
+      <c r="IP4" s="197"/>
+      <c r="IQ4" s="197"/>
+      <c r="IR4" s="197"/>
+      <c r="IS4" s="197"/>
+      <c r="IT4" s="197"/>
+      <c r="IU4" s="198"/>
     </row>
-    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
-      <c r="K5" s="210">
+      <c r="K5" s="214">
         <f>K6</f>
         <v>45348</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="210">
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="214">
         <f>R6</f>
         <v>45355</v>
       </c>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="211"/>
-      <c r="Y5" s="213">
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="215"/>
+      <c r="Y5" s="217">
         <f>Y6</f>
         <v>45362</v>
       </c>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="214"/>
-      <c r="AF5" s="205">
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="218"/>
+      <c r="AF5" s="209">
         <f>AF6</f>
         <v>45369</v>
       </c>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="215">
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="210"/>
+      <c r="AM5" s="202">
         <f>AM6</f>
         <v>45376</v>
       </c>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="216"/>
-      <c r="AT5" s="217">
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="204">
         <f>AT6</f>
         <v>45383</v>
       </c>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="197"/>
-      <c r="AY5" s="197"/>
-      <c r="AZ5" s="218"/>
-      <c r="BA5" s="196">
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="205"/>
+      <c r="BA5" s="206">
         <f>BA6</f>
         <v>45390</v>
       </c>
-      <c r="BB5" s="197"/>
-      <c r="BC5" s="197"/>
-      <c r="BD5" s="197"/>
-      <c r="BE5" s="197"/>
-      <c r="BF5" s="197"/>
-      <c r="BG5" s="198"/>
-      <c r="BH5" s="202">
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="200"/>
+      <c r="BE5" s="200"/>
+      <c r="BF5" s="200"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="199">
         <f>BH6</f>
         <v>45397</v>
       </c>
-      <c r="BI5" s="197"/>
-      <c r="BJ5" s="197"/>
-      <c r="BK5" s="197"/>
-      <c r="BL5" s="197"/>
-      <c r="BM5" s="197"/>
-      <c r="BN5" s="203"/>
-      <c r="BO5" s="196">
+      <c r="BI5" s="200"/>
+      <c r="BJ5" s="200"/>
+      <c r="BK5" s="200"/>
+      <c r="BL5" s="200"/>
+      <c r="BM5" s="200"/>
+      <c r="BN5" s="201"/>
+      <c r="BO5" s="206">
         <f>BO6</f>
         <v>45404</v>
       </c>
-      <c r="BP5" s="197"/>
-      <c r="BQ5" s="197"/>
-      <c r="BR5" s="197"/>
-      <c r="BS5" s="197"/>
-      <c r="BT5" s="197"/>
-      <c r="BU5" s="198"/>
-      <c r="BV5" s="202">
+      <c r="BP5" s="200"/>
+      <c r="BQ5" s="200"/>
+      <c r="BR5" s="200"/>
+      <c r="BS5" s="200"/>
+      <c r="BT5" s="200"/>
+      <c r="BU5" s="207"/>
+      <c r="BV5" s="199">
         <f>BV6</f>
         <v>45411</v>
       </c>
-      <c r="BW5" s="197"/>
-      <c r="BX5" s="197"/>
-      <c r="BY5" s="197"/>
-      <c r="BZ5" s="197"/>
-      <c r="CA5" s="197"/>
-      <c r="CB5" s="203"/>
-      <c r="CC5" s="202">
+      <c r="BW5" s="200"/>
+      <c r="BX5" s="200"/>
+      <c r="BY5" s="200"/>
+      <c r="BZ5" s="200"/>
+      <c r="CA5" s="200"/>
+      <c r="CB5" s="201"/>
+      <c r="CC5" s="199">
         <f>CC6</f>
         <v>45418</v>
       </c>
-      <c r="CD5" s="197"/>
-      <c r="CE5" s="197"/>
-      <c r="CF5" s="197"/>
-      <c r="CG5" s="197"/>
-      <c r="CH5" s="197"/>
-      <c r="CI5" s="203"/>
-      <c r="CJ5" s="196">
+      <c r="CD5" s="200"/>
+      <c r="CE5" s="200"/>
+      <c r="CF5" s="200"/>
+      <c r="CG5" s="200"/>
+      <c r="CH5" s="200"/>
+      <c r="CI5" s="201"/>
+      <c r="CJ5" s="206">
         <f>CJ6</f>
         <v>45425</v>
       </c>
-      <c r="CK5" s="197"/>
-      <c r="CL5" s="197"/>
-      <c r="CM5" s="197"/>
-      <c r="CN5" s="197"/>
-      <c r="CO5" s="197"/>
-      <c r="CP5" s="198"/>
-      <c r="CQ5" s="202">
+      <c r="CK5" s="200"/>
+      <c r="CL5" s="200"/>
+      <c r="CM5" s="200"/>
+      <c r="CN5" s="200"/>
+      <c r="CO5" s="200"/>
+      <c r="CP5" s="207"/>
+      <c r="CQ5" s="199">
         <f>CQ6</f>
         <v>45432</v>
       </c>
-      <c r="CR5" s="197"/>
-      <c r="CS5" s="197"/>
-      <c r="CT5" s="197"/>
-      <c r="CU5" s="197"/>
-      <c r="CV5" s="197"/>
-      <c r="CW5" s="203"/>
-      <c r="CX5" s="202">
+      <c r="CR5" s="200"/>
+      <c r="CS5" s="200"/>
+      <c r="CT5" s="200"/>
+      <c r="CU5" s="200"/>
+      <c r="CV5" s="200"/>
+      <c r="CW5" s="201"/>
+      <c r="CX5" s="199">
         <f>CX6</f>
         <v>45439</v>
       </c>
-      <c r="CY5" s="197"/>
-      <c r="CZ5" s="197"/>
-      <c r="DA5" s="197"/>
-      <c r="DB5" s="197"/>
-      <c r="DC5" s="197"/>
-      <c r="DD5" s="203"/>
-      <c r="DE5" s="196">
+      <c r="CY5" s="200"/>
+      <c r="CZ5" s="200"/>
+      <c r="DA5" s="200"/>
+      <c r="DB5" s="200"/>
+      <c r="DC5" s="200"/>
+      <c r="DD5" s="201"/>
+      <c r="DE5" s="206">
         <f>DE6</f>
         <v>45446</v>
       </c>
-      <c r="DF5" s="197"/>
-      <c r="DG5" s="197"/>
-      <c r="DH5" s="197"/>
-      <c r="DI5" s="197"/>
-      <c r="DJ5" s="197"/>
-      <c r="DK5" s="198"/>
-      <c r="DL5" s="202">
+      <c r="DF5" s="200"/>
+      <c r="DG5" s="200"/>
+      <c r="DH5" s="200"/>
+      <c r="DI5" s="200"/>
+      <c r="DJ5" s="200"/>
+      <c r="DK5" s="207"/>
+      <c r="DL5" s="199">
         <f>DL6</f>
         <v>45453</v>
       </c>
-      <c r="DM5" s="197"/>
-      <c r="DN5" s="197"/>
-      <c r="DO5" s="197"/>
-      <c r="DP5" s="197"/>
-      <c r="DQ5" s="197"/>
-      <c r="DR5" s="203"/>
-      <c r="DS5" s="202">
+      <c r="DM5" s="200"/>
+      <c r="DN5" s="200"/>
+      <c r="DO5" s="200"/>
+      <c r="DP5" s="200"/>
+      <c r="DQ5" s="200"/>
+      <c r="DR5" s="201"/>
+      <c r="DS5" s="199">
         <f>DS6</f>
         <v>45460</v>
       </c>
-      <c r="DT5" s="197"/>
-      <c r="DU5" s="197"/>
-      <c r="DV5" s="197"/>
-      <c r="DW5" s="197"/>
-      <c r="DX5" s="197"/>
-      <c r="DY5" s="203"/>
-      <c r="DZ5" s="196">
+      <c r="DT5" s="200"/>
+      <c r="DU5" s="200"/>
+      <c r="DV5" s="200"/>
+      <c r="DW5" s="200"/>
+      <c r="DX5" s="200"/>
+      <c r="DY5" s="201"/>
+      <c r="DZ5" s="206">
         <f>DZ6</f>
         <v>45467</v>
       </c>
-      <c r="EA5" s="197"/>
-      <c r="EB5" s="197"/>
-      <c r="EC5" s="197"/>
-      <c r="ED5" s="197"/>
-      <c r="EE5" s="197"/>
-      <c r="EF5" s="198"/>
-      <c r="EG5" s="202">
+      <c r="EA5" s="200"/>
+      <c r="EB5" s="200"/>
+      <c r="EC5" s="200"/>
+      <c r="ED5" s="200"/>
+      <c r="EE5" s="200"/>
+      <c r="EF5" s="207"/>
+      <c r="EG5" s="199">
         <f>EG6</f>
         <v>45474</v>
       </c>
-      <c r="EH5" s="197"/>
-      <c r="EI5" s="197"/>
-      <c r="EJ5" s="197"/>
-      <c r="EK5" s="197"/>
-      <c r="EL5" s="197"/>
-      <c r="EM5" s="203"/>
-      <c r="EN5" s="202">
+      <c r="EH5" s="200"/>
+      <c r="EI5" s="200"/>
+      <c r="EJ5" s="200"/>
+      <c r="EK5" s="200"/>
+      <c r="EL5" s="200"/>
+      <c r="EM5" s="201"/>
+      <c r="EN5" s="199">
         <f>EN6</f>
         <v>45481</v>
       </c>
-      <c r="EO5" s="197"/>
-      <c r="EP5" s="197"/>
-      <c r="EQ5" s="197"/>
-      <c r="ER5" s="197"/>
-      <c r="ES5" s="197"/>
-      <c r="ET5" s="203"/>
-      <c r="EU5" s="196">
+      <c r="EO5" s="200"/>
+      <c r="EP5" s="200"/>
+      <c r="EQ5" s="200"/>
+      <c r="ER5" s="200"/>
+      <c r="ES5" s="200"/>
+      <c r="ET5" s="201"/>
+      <c r="EU5" s="206">
         <f>EU6</f>
         <v>45488</v>
       </c>
-      <c r="EV5" s="197"/>
-      <c r="EW5" s="197"/>
-      <c r="EX5" s="197"/>
-      <c r="EY5" s="197"/>
-      <c r="EZ5" s="197"/>
-      <c r="FA5" s="198"/>
-      <c r="FB5" s="202">
+      <c r="EV5" s="200"/>
+      <c r="EW5" s="200"/>
+      <c r="EX5" s="200"/>
+      <c r="EY5" s="200"/>
+      <c r="EZ5" s="200"/>
+      <c r="FA5" s="207"/>
+      <c r="FB5" s="199">
         <f>FB6</f>
         <v>45495</v>
       </c>
-      <c r="FC5" s="197"/>
-      <c r="FD5" s="197"/>
-      <c r="FE5" s="197"/>
-      <c r="FF5" s="197"/>
-      <c r="FG5" s="197"/>
-      <c r="FH5" s="203"/>
-      <c r="FI5" s="202">
+      <c r="FC5" s="200"/>
+      <c r="FD5" s="200"/>
+      <c r="FE5" s="200"/>
+      <c r="FF5" s="200"/>
+      <c r="FG5" s="200"/>
+      <c r="FH5" s="201"/>
+      <c r="FI5" s="199">
         <f>FI6</f>
         <v>45502</v>
       </c>
-      <c r="FJ5" s="197"/>
-      <c r="FK5" s="197"/>
-      <c r="FL5" s="197"/>
-      <c r="FM5" s="197"/>
-      <c r="FN5" s="197"/>
-      <c r="FO5" s="203"/>
-      <c r="FP5" s="196">
+      <c r="FJ5" s="200"/>
+      <c r="FK5" s="200"/>
+      <c r="FL5" s="200"/>
+      <c r="FM5" s="200"/>
+      <c r="FN5" s="200"/>
+      <c r="FO5" s="201"/>
+      <c r="FP5" s="206">
         <f>FP6</f>
         <v>45509</v>
       </c>
-      <c r="FQ5" s="197"/>
-      <c r="FR5" s="197"/>
-      <c r="FS5" s="197"/>
-      <c r="FT5" s="197"/>
-      <c r="FU5" s="197"/>
-      <c r="FV5" s="198"/>
-      <c r="FW5" s="202">
+      <c r="FQ5" s="200"/>
+      <c r="FR5" s="200"/>
+      <c r="FS5" s="200"/>
+      <c r="FT5" s="200"/>
+      <c r="FU5" s="200"/>
+      <c r="FV5" s="207"/>
+      <c r="FW5" s="199">
         <f>FW6</f>
         <v>45516</v>
       </c>
-      <c r="FX5" s="197"/>
-      <c r="FY5" s="197"/>
-      <c r="FZ5" s="197"/>
-      <c r="GA5" s="197"/>
-      <c r="GB5" s="197"/>
-      <c r="GC5" s="203"/>
-      <c r="GD5" s="202">
+      <c r="FX5" s="200"/>
+      <c r="FY5" s="200"/>
+      <c r="FZ5" s="200"/>
+      <c r="GA5" s="200"/>
+      <c r="GB5" s="200"/>
+      <c r="GC5" s="201"/>
+      <c r="GD5" s="199">
         <f>GD6</f>
         <v>45523</v>
       </c>
-      <c r="GE5" s="197"/>
-      <c r="GF5" s="197"/>
-      <c r="GG5" s="197"/>
-      <c r="GH5" s="197"/>
-      <c r="GI5" s="197"/>
-      <c r="GJ5" s="203"/>
-      <c r="GK5" s="196">
+      <c r="GE5" s="200"/>
+      <c r="GF5" s="200"/>
+      <c r="GG5" s="200"/>
+      <c r="GH5" s="200"/>
+      <c r="GI5" s="200"/>
+      <c r="GJ5" s="201"/>
+      <c r="GK5" s="206">
         <f>GK6</f>
         <v>45530</v>
       </c>
-      <c r="GL5" s="197"/>
-      <c r="GM5" s="197"/>
-      <c r="GN5" s="197"/>
-      <c r="GO5" s="197"/>
-      <c r="GP5" s="197"/>
-      <c r="GQ5" s="198"/>
-      <c r="GR5" s="202">
+      <c r="GL5" s="200"/>
+      <c r="GM5" s="200"/>
+      <c r="GN5" s="200"/>
+      <c r="GO5" s="200"/>
+      <c r="GP5" s="200"/>
+      <c r="GQ5" s="207"/>
+      <c r="GR5" s="199">
         <f>GR6</f>
         <v>45537</v>
       </c>
-      <c r="GS5" s="197"/>
-      <c r="GT5" s="197"/>
-      <c r="GU5" s="197"/>
-      <c r="GV5" s="197"/>
-      <c r="GW5" s="197"/>
-      <c r="GX5" s="203"/>
-      <c r="GY5" s="196">
+      <c r="GS5" s="200"/>
+      <c r="GT5" s="200"/>
+      <c r="GU5" s="200"/>
+      <c r="GV5" s="200"/>
+      <c r="GW5" s="200"/>
+      <c r="GX5" s="201"/>
+      <c r="GY5" s="206">
         <f>GY6</f>
         <v>45544</v>
       </c>
-      <c r="GZ5" s="197"/>
-      <c r="HA5" s="197"/>
-      <c r="HB5" s="197"/>
-      <c r="HC5" s="197"/>
-      <c r="HD5" s="197"/>
-      <c r="HE5" s="198"/>
-      <c r="HF5" s="202">
+      <c r="GZ5" s="200"/>
+      <c r="HA5" s="200"/>
+      <c r="HB5" s="200"/>
+      <c r="HC5" s="200"/>
+      <c r="HD5" s="200"/>
+      <c r="HE5" s="207"/>
+      <c r="HF5" s="199">
         <f>HF6</f>
         <v>45551</v>
       </c>
-      <c r="HG5" s="197"/>
-      <c r="HH5" s="197"/>
-      <c r="HI5" s="197"/>
-      <c r="HJ5" s="197"/>
-      <c r="HK5" s="197"/>
-      <c r="HL5" s="203"/>
-      <c r="HM5" s="196">
+      <c r="HG5" s="200"/>
+      <c r="HH5" s="200"/>
+      <c r="HI5" s="200"/>
+      <c r="HJ5" s="200"/>
+      <c r="HK5" s="200"/>
+      <c r="HL5" s="201"/>
+      <c r="HM5" s="206">
         <f>HM6</f>
         <v>45558</v>
       </c>
-      <c r="HN5" s="197"/>
-      <c r="HO5" s="197"/>
-      <c r="HP5" s="197"/>
-      <c r="HQ5" s="197"/>
-      <c r="HR5" s="197"/>
-      <c r="HS5" s="198"/>
-      <c r="HT5" s="202">
+      <c r="HN5" s="200"/>
+      <c r="HO5" s="200"/>
+      <c r="HP5" s="200"/>
+      <c r="HQ5" s="200"/>
+      <c r="HR5" s="200"/>
+      <c r="HS5" s="207"/>
+      <c r="HT5" s="199">
         <f>HT6</f>
         <v>45565</v>
       </c>
-      <c r="HU5" s="197"/>
-      <c r="HV5" s="197"/>
-      <c r="HW5" s="197"/>
-      <c r="HX5" s="197"/>
-      <c r="HY5" s="197"/>
-      <c r="HZ5" s="203"/>
-      <c r="IA5" s="196">
+      <c r="HU5" s="200"/>
+      <c r="HV5" s="200"/>
+      <c r="HW5" s="200"/>
+      <c r="HX5" s="200"/>
+      <c r="HY5" s="200"/>
+      <c r="HZ5" s="201"/>
+      <c r="IA5" s="206">
         <f>IA6</f>
         <v>45572</v>
       </c>
-      <c r="IB5" s="197"/>
-      <c r="IC5" s="197"/>
-      <c r="ID5" s="197"/>
-      <c r="IE5" s="197"/>
-      <c r="IF5" s="197"/>
-      <c r="IG5" s="198"/>
-      <c r="IH5" s="202">
+      <c r="IB5" s="200"/>
+      <c r="IC5" s="200"/>
+      <c r="ID5" s="200"/>
+      <c r="IE5" s="200"/>
+      <c r="IF5" s="200"/>
+      <c r="IG5" s="207"/>
+      <c r="IH5" s="199">
         <f>IH6</f>
         <v>45579</v>
       </c>
-      <c r="II5" s="197"/>
-      <c r="IJ5" s="197"/>
-      <c r="IK5" s="197"/>
-      <c r="IL5" s="197"/>
-      <c r="IM5" s="197"/>
-      <c r="IN5" s="203"/>
-      <c r="IO5" s="196">
+      <c r="II5" s="200"/>
+      <c r="IJ5" s="200"/>
+      <c r="IK5" s="200"/>
+      <c r="IL5" s="200"/>
+      <c r="IM5" s="200"/>
+      <c r="IN5" s="201"/>
+      <c r="IO5" s="206">
         <f>IO6</f>
         <v>45586</v>
       </c>
-      <c r="IP5" s="197"/>
-      <c r="IQ5" s="197"/>
-      <c r="IR5" s="197"/>
-      <c r="IS5" s="197"/>
-      <c r="IT5" s="197"/>
-      <c r="IU5" s="198"/>
+      <c r="IP5" s="200"/>
+      <c r="IQ5" s="200"/>
+      <c r="IR5" s="200"/>
+      <c r="IS5" s="200"/>
+      <c r="IT5" s="200"/>
+      <c r="IU5" s="207"/>
     </row>
-    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="84"/>
       <c r="K6" s="33">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -6174,7 +6177,7 @@
       </c>
       <c r="IU7" s="31"/>
     </row>
-    <row r="8" spans="1:255" s="176" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:255" s="176" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="169" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -6436,7 +6439,7 @@
       <c r="IT8" s="172"/>
       <c r="IU8" s="172"/>
     </row>
-    <row r="9" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="143">
         <v>1</v>
       </c>
@@ -6709,7 +6712,7 @@
       <c r="IT9" s="152"/>
       <c r="IU9" s="152"/>
     </row>
-    <row r="10" spans="1:255" s="153" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="143" t="str">
         <f t="shared" ref="A10:A19" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1</v>
@@ -6983,7 +6986,7 @@
       <c r="IT10" s="152"/>
       <c r="IU10" s="152"/>
     </row>
-    <row r="11" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.1</v>
@@ -7257,7 +7260,7 @@
       <c r="IT11" s="152"/>
       <c r="IU11" s="152"/>
     </row>
-    <row r="12" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.2</v>
@@ -7532,7 +7535,7 @@
       <c r="IT12" s="152"/>
       <c r="IU12" s="152"/>
     </row>
-    <row r="13" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.3</v>
@@ -7806,7 +7809,7 @@
       <c r="IT13" s="152"/>
       <c r="IU13" s="152"/>
     </row>
-    <row r="14" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.4</v>
@@ -8083,7 +8086,7 @@
       <c r="IT14" s="152"/>
       <c r="IU14" s="152"/>
     </row>
-    <row r="15" spans="1:255" s="153" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.5</v>
@@ -8105,7 +8108,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="150">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="I15" s="187">
         <f t="shared" ref="I15:I21" si="20">IF(OR(F15=0,E15=0),0,NETWORKDAYS(E15,F15))</f>
@@ -8360,7 +8363,7 @@
       <c r="IT15" s="152"/>
       <c r="IU15" s="152"/>
     </row>
-    <row r="16" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.6</v>
@@ -8636,7 +8639,7 @@
       <c r="IT16" s="152"/>
       <c r="IU16" s="152"/>
     </row>
-    <row r="17" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.7</v>
@@ -8912,7 +8915,7 @@
       <c r="IT17" s="152"/>
       <c r="IU17" s="152"/>
     </row>
-    <row r="18" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.8</v>
@@ -9186,7 +9189,7 @@
       <c r="IT18" s="152"/>
       <c r="IU18" s="152"/>
     </row>
-    <row r="19" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.9</v>
@@ -9462,7 +9465,7 @@
       <c r="IT19" s="152"/>
       <c r="IU19" s="152"/>
     </row>
-    <row r="20" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="143"/>
       <c r="B20" s="144" t="s">
         <v>32</v>
@@ -9736,7 +9739,7 @@
       <c r="IT20" s="152"/>
       <c r="IU20" s="152"/>
     </row>
-    <row r="21" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="143"/>
       <c r="B21" s="144" t="s">
         <v>31</v>
@@ -10010,7 +10013,7 @@
       <c r="IT21" s="152"/>
       <c r="IU21" s="152"/>
     </row>
-    <row r="22" spans="1:255" s="93" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:255" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="159">
         <v>2</v>
       </c>
@@ -10271,7 +10274,7 @@
       <c r="IT22" s="92"/>
       <c r="IU22" s="92"/>
     </row>
-    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="95">
         <v>2</v>
       </c>
@@ -10545,7 +10548,7 @@
       <c r="IT23" s="104"/>
       <c r="IU23" s="104"/>
     </row>
-    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="95">
         <v>2.1</v>
       </c>
@@ -10819,7 +10822,7 @@
       <c r="IT24" s="104"/>
       <c r="IU24" s="104"/>
     </row>
-    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="95">
         <v>2.2000000000000002</v>
       </c>
@@ -11093,7 +11096,7 @@
       <c r="IT25" s="104"/>
       <c r="IU25" s="104"/>
     </row>
-    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="95">
         <v>2.2999999999999998</v>
       </c>
@@ -11367,7 +11370,7 @@
       <c r="IT26" s="104"/>
       <c r="IU26" s="104"/>
     </row>
-    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="95">
         <v>2.4</v>
       </c>
@@ -11641,7 +11644,7 @@
       <c r="IT27" s="104"/>
       <c r="IU27" s="104"/>
     </row>
-    <row r="28" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="95">
         <v>2.5</v>
       </c>
@@ -11917,7 +11920,7 @@
       <c r="IT28" s="104"/>
       <c r="IU28" s="104"/>
     </row>
-    <row r="29" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="95">
         <v>2.6</v>
       </c>
@@ -12192,7 +12195,7 @@
       <c r="IT29" s="104"/>
       <c r="IU29" s="104"/>
     </row>
-    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
         <v>2.7</v>
       </c>
@@ -12468,7 +12471,7 @@
       <c r="IT30" s="104"/>
       <c r="IU30" s="104"/>
     </row>
-    <row r="31" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
         <v>2.8</v>
       </c>
@@ -12742,7 +12745,7 @@
       <c r="IT31" s="104"/>
       <c r="IU31" s="104"/>
     </row>
-    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="95" t="s">
         <v>67</v>
       </c>
@@ -13016,7 +13019,7 @@
       <c r="IT32" s="104"/>
       <c r="IU32" s="104"/>
     </row>
-    <row r="33" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="95" t="s">
         <v>68</v>
       </c>
@@ -13290,7 +13293,7 @@
       <c r="IT33" s="104"/>
       <c r="IU33" s="104"/>
     </row>
-    <row r="34" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="95" t="s">
         <v>69</v>
       </c>
@@ -13564,7 +13567,7 @@
       <c r="IT34" s="104"/>
       <c r="IU34" s="104"/>
     </row>
-    <row r="35" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="95"/>
       <c r="B35" s="96" t="s">
         <v>37</v>
@@ -13838,7 +13841,7 @@
       <c r="IT35" s="104"/>
       <c r="IU35" s="104"/>
     </row>
-    <row r="36" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="95"/>
       <c r="B36" s="96" t="s">
         <v>36</v>
@@ -14112,7 +14115,7 @@
       <c r="IT36" s="104"/>
       <c r="IU36" s="104"/>
     </row>
-    <row r="37" spans="1:255" s="113" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:255" s="113" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="106">
         <v>3</v>
       </c>
@@ -14373,7 +14376,7 @@
       <c r="IT37" s="109"/>
       <c r="IU37" s="109"/>
     </row>
-    <row r="38" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="114">
         <v>3</v>
       </c>
@@ -14647,7 +14650,7 @@
       <c r="IT38" s="120"/>
       <c r="IU38" s="120"/>
     </row>
-    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="114">
         <v>3.1</v>
       </c>
@@ -14921,7 +14924,7 @@
       <c r="IT39" s="120"/>
       <c r="IU39" s="120"/>
     </row>
-    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114">
         <v>3.2</v>
       </c>
@@ -15195,7 +15198,7 @@
       <c r="IT40" s="120"/>
       <c r="IU40" s="120"/>
     </row>
-    <row r="41" spans="1:255" s="121" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:255" s="121" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="114">
         <v>3.3</v>
       </c>
@@ -15469,7 +15472,7 @@
       <c r="IT41" s="120"/>
       <c r="IU41" s="120"/>
     </row>
-    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="114">
         <v>3.4</v>
       </c>
@@ -15743,7 +15746,7 @@
       <c r="IT42" s="120"/>
       <c r="IU42" s="120"/>
     </row>
-    <row r="43" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
         <v>70</v>
       </c>
@@ -16017,7 +16020,7 @@
       <c r="IT43" s="120"/>
       <c r="IU43" s="120"/>
     </row>
-    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="114" t="s">
         <v>71</v>
       </c>
@@ -16291,7 +16294,7 @@
       <c r="IT44" s="120"/>
       <c r="IU44" s="120"/>
     </row>
-    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="114" t="s">
         <v>72</v>
       </c>
@@ -16565,7 +16568,7 @@
       <c r="IT45" s="120"/>
       <c r="IU45" s="120"/>
     </row>
-    <row r="46" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="114"/>
       <c r="B46" s="154" t="s">
         <v>29</v>
@@ -16839,7 +16842,7 @@
       <c r="IT46" s="120"/>
       <c r="IU46" s="120"/>
     </row>
-    <row r="47" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="114"/>
       <c r="B47" s="154" t="s">
         <v>30</v>
@@ -17113,7 +17116,7 @@
       <c r="IT47" s="120"/>
       <c r="IU47" s="120"/>
     </row>
-    <row r="48" spans="1:255" s="131" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:255" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="122">
         <v>4</v>
       </c>
@@ -17374,7 +17377,7 @@
       <c r="IT48" s="125"/>
       <c r="IU48" s="125"/>
     </row>
-    <row r="49" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -17649,7 +17652,7 @@
       <c r="IT49" s="141"/>
       <c r="IU49" s="141"/>
     </row>
-    <row r="50" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -17926,7 +17929,7 @@
       <c r="IT50" s="141"/>
       <c r="IU50" s="141"/>
     </row>
-    <row r="51" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -18202,7 +18205,7 @@
       <c r="IT51" s="141"/>
       <c r="IU51" s="141"/>
     </row>
-    <row r="52" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -18479,7 +18482,7 @@
       <c r="IT52" s="141"/>
       <c r="IU52" s="141"/>
     </row>
-    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>1</v>
       </c>
@@ -18738,7 +18741,7 @@
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
     </row>
-    <row r="55" spans="1:255" s="8" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:255" s="8" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="66" t="s">
         <v>16</v>
       </c>
@@ -18993,7 +18996,7 @@
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
     </row>
-    <row r="56" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -19257,7 +19260,7 @@
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
     </row>
-    <row r="57" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -19529,7 +19532,7 @@
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
     </row>
-    <row r="58" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -19801,7 +19804,7 @@
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
     </row>
-    <row r="59" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -20071,61 +20074,35 @@
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
     </row>
-    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="80" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
       <c r="C60" s="90"/>
+      <c r="AD60" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -20142,20 +20119,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H55:H59 H8:H52">
@@ -20218,13 +20224,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815FE33B-A46D-43E0-93DF-817A373B9E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57682B4-9726-49AE-BF91-D8358005884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>WBS</t>
   </si>
@@ -593,9 +593,6 @@
     <t>compile and document performances</t>
   </si>
   <si>
-    <t>write preliminary results chapters</t>
-  </si>
-  <si>
     <t>integrate DSAC and IDHP implementations</t>
   </si>
   <si>
@@ -626,9 +623,6 @@
     <t>implement &amp; verify DSAC on lin model</t>
   </si>
   <si>
-    <t>write scientific article and additional results chapters</t>
-  </si>
-  <si>
     <t>2.8.1</t>
   </si>
   <si>
@@ -651,6 +645,15 @@
   </si>
   <si>
     <t>greenlight, 1 week for feedback, 1 week for incorporating 2 weeks before defence submit final thesis</t>
+  </si>
+  <si>
+    <t>compile + document preliminary results</t>
+  </si>
+  <si>
+    <t>compile and document results</t>
+  </si>
+  <si>
+    <t>write scientific article, additional results, and accompanying chapters</t>
   </si>
 </sst>
 </file>
@@ -2624,6 +2627,15 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2636,28 +2648,7 @@
     <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2694,6 +2685,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3292,74 +3295,74 @@
   <dimension ref="A1:IU62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y54" sqref="Y54"/>
+      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="91" customWidth="1"/>
-    <col min="4" max="4" width="0.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
-    <col min="67" max="68" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.59765625" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.3984375" style="1" customWidth="1"/>
+    <col min="67" max="68" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="1"/>
+    <col min="229" max="229" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
@@ -3372,23 +3375,23 @@
       <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
-      <c r="AP1" s="208"/>
-      <c r="AQ1" s="208"/>
-      <c r="AR1" s="208"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
+      <c r="AK1" s="204"/>
+      <c r="AL1" s="204"/>
+      <c r="AM1" s="204"/>
+      <c r="AN1" s="204"/>
+      <c r="AO1" s="204"/>
+      <c r="AP1" s="204"/>
+      <c r="AQ1" s="204"/>
+      <c r="AR1" s="204"/>
     </row>
-    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
@@ -3398,7 +3401,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
       <c r="C3" s="83"/>
@@ -3462,735 +3465,735 @@
       <c r="BM3" s="76"/>
       <c r="BN3" s="77"/>
     </row>
-    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="211">
+      <c r="C4" s="207">
         <v>45295</v>
       </c>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
       <c r="H4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="74">
         <v>9</v>
       </c>
-      <c r="K4" s="196"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="196" t="str">
+      <c r="K4" s="199"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="199" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="196" t="str">
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="199" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="196" t="str">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="199" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AG4" s="197"/>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="196" t="str">
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
+      <c r="AL4" s="201"/>
+      <c r="AM4" s="199" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="AN4" s="197"/>
-      <c r="AO4" s="197"/>
-      <c r="AP4" s="197"/>
-      <c r="AQ4" s="197"/>
-      <c r="AR4" s="197"/>
-      <c r="AS4" s="198"/>
-      <c r="AT4" s="196" t="str">
+      <c r="AN4" s="200"/>
+      <c r="AO4" s="200"/>
+      <c r="AP4" s="200"/>
+      <c r="AQ4" s="200"/>
+      <c r="AR4" s="200"/>
+      <c r="AS4" s="201"/>
+      <c r="AT4" s="199" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AU4" s="197"/>
-      <c r="AV4" s="197"/>
-      <c r="AW4" s="197"/>
-      <c r="AX4" s="197"/>
-      <c r="AY4" s="197"/>
-      <c r="AZ4" s="198"/>
-      <c r="BA4" s="196" t="str">
+      <c r="AU4" s="200"/>
+      <c r="AV4" s="200"/>
+      <c r="AW4" s="200"/>
+      <c r="AX4" s="200"/>
+      <c r="AY4" s="200"/>
+      <c r="AZ4" s="201"/>
+      <c r="BA4" s="199" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="BB4" s="197"/>
-      <c r="BC4" s="197"/>
-      <c r="BD4" s="197"/>
-      <c r="BE4" s="197"/>
-      <c r="BF4" s="197"/>
-      <c r="BG4" s="198"/>
-      <c r="BH4" s="196" t="str">
+      <c r="BB4" s="200"/>
+      <c r="BC4" s="200"/>
+      <c r="BD4" s="200"/>
+      <c r="BE4" s="200"/>
+      <c r="BF4" s="200"/>
+      <c r="BG4" s="201"/>
+      <c r="BH4" s="199" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="BI4" s="197"/>
-      <c r="BJ4" s="197"/>
-      <c r="BK4" s="197"/>
-      <c r="BL4" s="197"/>
-      <c r="BM4" s="197"/>
-      <c r="BN4" s="198"/>
-      <c r="BO4" s="196" t="str">
+      <c r="BI4" s="200"/>
+      <c r="BJ4" s="200"/>
+      <c r="BK4" s="200"/>
+      <c r="BL4" s="200"/>
+      <c r="BM4" s="200"/>
+      <c r="BN4" s="201"/>
+      <c r="BO4" s="199" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="BP4" s="197"/>
-      <c r="BQ4" s="197"/>
-      <c r="BR4" s="197"/>
-      <c r="BS4" s="197"/>
-      <c r="BT4" s="197"/>
-      <c r="BU4" s="198"/>
-      <c r="BV4" s="196" t="str">
+      <c r="BP4" s="200"/>
+      <c r="BQ4" s="200"/>
+      <c r="BR4" s="200"/>
+      <c r="BS4" s="200"/>
+      <c r="BT4" s="200"/>
+      <c r="BU4" s="201"/>
+      <c r="BV4" s="199" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="BW4" s="197"/>
-      <c r="BX4" s="197"/>
-      <c r="BY4" s="197"/>
-      <c r="BZ4" s="197"/>
-      <c r="CA4" s="197"/>
-      <c r="CB4" s="198"/>
-      <c r="CC4" s="196" t="str">
+      <c r="BW4" s="200"/>
+      <c r="BX4" s="200"/>
+      <c r="BY4" s="200"/>
+      <c r="BZ4" s="200"/>
+      <c r="CA4" s="200"/>
+      <c r="CB4" s="201"/>
+      <c r="CC4" s="199" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="CD4" s="197"/>
-      <c r="CE4" s="197"/>
-      <c r="CF4" s="197"/>
-      <c r="CG4" s="197"/>
-      <c r="CH4" s="197"/>
-      <c r="CI4" s="198"/>
-      <c r="CJ4" s="196" t="str">
+      <c r="CD4" s="200"/>
+      <c r="CE4" s="200"/>
+      <c r="CF4" s="200"/>
+      <c r="CG4" s="200"/>
+      <c r="CH4" s="200"/>
+      <c r="CI4" s="201"/>
+      <c r="CJ4" s="199" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="CK4" s="197"/>
-      <c r="CL4" s="197"/>
-      <c r="CM4" s="197"/>
-      <c r="CN4" s="197"/>
-      <c r="CO4" s="197"/>
-      <c r="CP4" s="198"/>
-      <c r="CQ4" s="196" t="str">
+      <c r="CK4" s="200"/>
+      <c r="CL4" s="200"/>
+      <c r="CM4" s="200"/>
+      <c r="CN4" s="200"/>
+      <c r="CO4" s="200"/>
+      <c r="CP4" s="201"/>
+      <c r="CQ4" s="199" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="CR4" s="197"/>
-      <c r="CS4" s="197"/>
-      <c r="CT4" s="197"/>
-      <c r="CU4" s="197"/>
-      <c r="CV4" s="197"/>
-      <c r="CW4" s="198"/>
-      <c r="CX4" s="196" t="str">
+      <c r="CR4" s="200"/>
+      <c r="CS4" s="200"/>
+      <c r="CT4" s="200"/>
+      <c r="CU4" s="200"/>
+      <c r="CV4" s="200"/>
+      <c r="CW4" s="201"/>
+      <c r="CX4" s="199" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="CY4" s="197"/>
-      <c r="CZ4" s="197"/>
-      <c r="DA4" s="197"/>
-      <c r="DB4" s="197"/>
-      <c r="DC4" s="197"/>
-      <c r="DD4" s="198"/>
-      <c r="DE4" s="196" t="str">
+      <c r="CY4" s="200"/>
+      <c r="CZ4" s="200"/>
+      <c r="DA4" s="200"/>
+      <c r="DB4" s="200"/>
+      <c r="DC4" s="200"/>
+      <c r="DD4" s="201"/>
+      <c r="DE4" s="199" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="DF4" s="197"/>
-      <c r="DG4" s="197"/>
-      <c r="DH4" s="197"/>
-      <c r="DI4" s="197"/>
-      <c r="DJ4" s="197"/>
-      <c r="DK4" s="198"/>
-      <c r="DL4" s="196" t="str">
+      <c r="DF4" s="200"/>
+      <c r="DG4" s="200"/>
+      <c r="DH4" s="200"/>
+      <c r="DI4" s="200"/>
+      <c r="DJ4" s="200"/>
+      <c r="DK4" s="201"/>
+      <c r="DL4" s="199" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="DM4" s="197"/>
-      <c r="DN4" s="197"/>
-      <c r="DO4" s="197"/>
-      <c r="DP4" s="197"/>
-      <c r="DQ4" s="197"/>
-      <c r="DR4" s="198"/>
-      <c r="DS4" s="196" t="str">
+      <c r="DM4" s="200"/>
+      <c r="DN4" s="200"/>
+      <c r="DO4" s="200"/>
+      <c r="DP4" s="200"/>
+      <c r="DQ4" s="200"/>
+      <c r="DR4" s="201"/>
+      <c r="DS4" s="199" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="DT4" s="197"/>
-      <c r="DU4" s="197"/>
-      <c r="DV4" s="197"/>
-      <c r="DW4" s="197"/>
-      <c r="DX4" s="197"/>
-      <c r="DY4" s="198"/>
-      <c r="DZ4" s="196" t="str">
+      <c r="DT4" s="200"/>
+      <c r="DU4" s="200"/>
+      <c r="DV4" s="200"/>
+      <c r="DW4" s="200"/>
+      <c r="DX4" s="200"/>
+      <c r="DY4" s="201"/>
+      <c r="DZ4" s="199" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="EA4" s="197"/>
-      <c r="EB4" s="197"/>
-      <c r="EC4" s="197"/>
-      <c r="ED4" s="197"/>
-      <c r="EE4" s="197"/>
-      <c r="EF4" s="198"/>
-      <c r="EG4" s="196" t="str">
+      <c r="EA4" s="200"/>
+      <c r="EB4" s="200"/>
+      <c r="EC4" s="200"/>
+      <c r="ED4" s="200"/>
+      <c r="EE4" s="200"/>
+      <c r="EF4" s="201"/>
+      <c r="EG4" s="199" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="EH4" s="197"/>
-      <c r="EI4" s="197"/>
-      <c r="EJ4" s="197"/>
-      <c r="EK4" s="197"/>
-      <c r="EL4" s="197"/>
-      <c r="EM4" s="198"/>
-      <c r="EN4" s="196" t="str">
+      <c r="EH4" s="200"/>
+      <c r="EI4" s="200"/>
+      <c r="EJ4" s="200"/>
+      <c r="EK4" s="200"/>
+      <c r="EL4" s="200"/>
+      <c r="EM4" s="201"/>
+      <c r="EN4" s="199" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="EO4" s="197"/>
-      <c r="EP4" s="197"/>
-      <c r="EQ4" s="197"/>
-      <c r="ER4" s="197"/>
-      <c r="ES4" s="197"/>
-      <c r="ET4" s="198"/>
-      <c r="EU4" s="196" t="str">
+      <c r="EO4" s="200"/>
+      <c r="EP4" s="200"/>
+      <c r="EQ4" s="200"/>
+      <c r="ER4" s="200"/>
+      <c r="ES4" s="200"/>
+      <c r="ET4" s="201"/>
+      <c r="EU4" s="199" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="EV4" s="197"/>
-      <c r="EW4" s="197"/>
-      <c r="EX4" s="197"/>
-      <c r="EY4" s="197"/>
-      <c r="EZ4" s="197"/>
-      <c r="FA4" s="198"/>
-      <c r="FB4" s="196" t="str">
+      <c r="EV4" s="200"/>
+      <c r="EW4" s="200"/>
+      <c r="EX4" s="200"/>
+      <c r="EY4" s="200"/>
+      <c r="EZ4" s="200"/>
+      <c r="FA4" s="201"/>
+      <c r="FB4" s="199" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="FC4" s="197"/>
-      <c r="FD4" s="197"/>
-      <c r="FE4" s="197"/>
-      <c r="FF4" s="197"/>
-      <c r="FG4" s="197"/>
-      <c r="FH4" s="198"/>
-      <c r="FI4" s="196" t="str">
+      <c r="FC4" s="200"/>
+      <c r="FD4" s="200"/>
+      <c r="FE4" s="200"/>
+      <c r="FF4" s="200"/>
+      <c r="FG4" s="200"/>
+      <c r="FH4" s="201"/>
+      <c r="FI4" s="199" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="FJ4" s="197"/>
-      <c r="FK4" s="197"/>
-      <c r="FL4" s="197"/>
-      <c r="FM4" s="197"/>
-      <c r="FN4" s="197"/>
-      <c r="FO4" s="198"/>
-      <c r="FP4" s="196" t="str">
+      <c r="FJ4" s="200"/>
+      <c r="FK4" s="200"/>
+      <c r="FL4" s="200"/>
+      <c r="FM4" s="200"/>
+      <c r="FN4" s="200"/>
+      <c r="FO4" s="201"/>
+      <c r="FP4" s="199" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="FQ4" s="197"/>
-      <c r="FR4" s="197"/>
-      <c r="FS4" s="197"/>
-      <c r="FT4" s="197"/>
-      <c r="FU4" s="197"/>
-      <c r="FV4" s="198"/>
-      <c r="FW4" s="196" t="str">
+      <c r="FQ4" s="200"/>
+      <c r="FR4" s="200"/>
+      <c r="FS4" s="200"/>
+      <c r="FT4" s="200"/>
+      <c r="FU4" s="200"/>
+      <c r="FV4" s="201"/>
+      <c r="FW4" s="199" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="FX4" s="197"/>
-      <c r="FY4" s="197"/>
-      <c r="FZ4" s="197"/>
-      <c r="GA4" s="197"/>
-      <c r="GB4" s="197"/>
-      <c r="GC4" s="198"/>
-      <c r="GD4" s="196" t="str">
+      <c r="FX4" s="200"/>
+      <c r="FY4" s="200"/>
+      <c r="FZ4" s="200"/>
+      <c r="GA4" s="200"/>
+      <c r="GB4" s="200"/>
+      <c r="GC4" s="201"/>
+      <c r="GD4" s="199" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="GE4" s="197"/>
-      <c r="GF4" s="197"/>
-      <c r="GG4" s="197"/>
-      <c r="GH4" s="197"/>
-      <c r="GI4" s="197"/>
-      <c r="GJ4" s="198"/>
-      <c r="GK4" s="196" t="str">
+      <c r="GE4" s="200"/>
+      <c r="GF4" s="200"/>
+      <c r="GG4" s="200"/>
+      <c r="GH4" s="200"/>
+      <c r="GI4" s="200"/>
+      <c r="GJ4" s="201"/>
+      <c r="GK4" s="199" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="GL4" s="197"/>
-      <c r="GM4" s="197"/>
-      <c r="GN4" s="197"/>
-      <c r="GO4" s="197"/>
-      <c r="GP4" s="197"/>
-      <c r="GQ4" s="198"/>
-      <c r="GR4" s="196" t="str">
+      <c r="GL4" s="200"/>
+      <c r="GM4" s="200"/>
+      <c r="GN4" s="200"/>
+      <c r="GO4" s="200"/>
+      <c r="GP4" s="200"/>
+      <c r="GQ4" s="201"/>
+      <c r="GR4" s="199" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="GS4" s="197"/>
-      <c r="GT4" s="197"/>
-      <c r="GU4" s="197"/>
-      <c r="GV4" s="197"/>
-      <c r="GW4" s="197"/>
-      <c r="GX4" s="198"/>
-      <c r="GY4" s="196" t="str">
+      <c r="GS4" s="200"/>
+      <c r="GT4" s="200"/>
+      <c r="GU4" s="200"/>
+      <c r="GV4" s="200"/>
+      <c r="GW4" s="200"/>
+      <c r="GX4" s="201"/>
+      <c r="GY4" s="199" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 36</v>
       </c>
-      <c r="GZ4" s="197"/>
-      <c r="HA4" s="197"/>
-      <c r="HB4" s="197"/>
-      <c r="HC4" s="197"/>
-      <c r="HD4" s="197"/>
-      <c r="HE4" s="198"/>
-      <c r="HF4" s="196" t="str">
+      <c r="GZ4" s="200"/>
+      <c r="HA4" s="200"/>
+      <c r="HB4" s="200"/>
+      <c r="HC4" s="200"/>
+      <c r="HD4" s="200"/>
+      <c r="HE4" s="201"/>
+      <c r="HF4" s="199" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 37</v>
       </c>
-      <c r="HG4" s="197"/>
-      <c r="HH4" s="197"/>
-      <c r="HI4" s="197"/>
-      <c r="HJ4" s="197"/>
-      <c r="HK4" s="197"/>
-      <c r="HL4" s="198"/>
-      <c r="HM4" s="196" t="str">
+      <c r="HG4" s="200"/>
+      <c r="HH4" s="200"/>
+      <c r="HI4" s="200"/>
+      <c r="HJ4" s="200"/>
+      <c r="HK4" s="200"/>
+      <c r="HL4" s="201"/>
+      <c r="HM4" s="199" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 38</v>
       </c>
-      <c r="HN4" s="197"/>
-      <c r="HO4" s="197"/>
-      <c r="HP4" s="197"/>
-      <c r="HQ4" s="197"/>
-      <c r="HR4" s="197"/>
-      <c r="HS4" s="198"/>
-      <c r="HT4" s="196" t="str">
+      <c r="HN4" s="200"/>
+      <c r="HO4" s="200"/>
+      <c r="HP4" s="200"/>
+      <c r="HQ4" s="200"/>
+      <c r="HR4" s="200"/>
+      <c r="HS4" s="201"/>
+      <c r="HT4" s="199" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 39</v>
       </c>
-      <c r="HU4" s="197"/>
-      <c r="HV4" s="197"/>
-      <c r="HW4" s="197"/>
-      <c r="HX4" s="197"/>
-      <c r="HY4" s="197"/>
-      <c r="HZ4" s="198"/>
-      <c r="IA4" s="196" t="str">
+      <c r="HU4" s="200"/>
+      <c r="HV4" s="200"/>
+      <c r="HW4" s="200"/>
+      <c r="HX4" s="200"/>
+      <c r="HY4" s="200"/>
+      <c r="HZ4" s="201"/>
+      <c r="IA4" s="199" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 40</v>
       </c>
-      <c r="IB4" s="197"/>
-      <c r="IC4" s="197"/>
-      <c r="ID4" s="197"/>
-      <c r="IE4" s="197"/>
-      <c r="IF4" s="197"/>
-      <c r="IG4" s="198"/>
-      <c r="IH4" s="196" t="str">
+      <c r="IB4" s="200"/>
+      <c r="IC4" s="200"/>
+      <c r="ID4" s="200"/>
+      <c r="IE4" s="200"/>
+      <c r="IF4" s="200"/>
+      <c r="IG4" s="201"/>
+      <c r="IH4" s="199" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 41</v>
       </c>
-      <c r="II4" s="197"/>
-      <c r="IJ4" s="197"/>
-      <c r="IK4" s="197"/>
-      <c r="IL4" s="197"/>
-      <c r="IM4" s="197"/>
-      <c r="IN4" s="198"/>
-      <c r="IO4" s="196" t="str">
+      <c r="II4" s="200"/>
+      <c r="IJ4" s="200"/>
+      <c r="IK4" s="200"/>
+      <c r="IL4" s="200"/>
+      <c r="IM4" s="200"/>
+      <c r="IN4" s="201"/>
+      <c r="IO4" s="199" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 42</v>
       </c>
-      <c r="IP4" s="197"/>
-      <c r="IQ4" s="197"/>
-      <c r="IR4" s="197"/>
-      <c r="IS4" s="197"/>
-      <c r="IT4" s="197"/>
-      <c r="IU4" s="198"/>
+      <c r="IP4" s="200"/>
+      <c r="IQ4" s="200"/>
+      <c r="IR4" s="200"/>
+      <c r="IS4" s="200"/>
+      <c r="IT4" s="200"/>
+      <c r="IU4" s="201"/>
     </row>
-    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="211" t="s">
+      <c r="C5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
-      <c r="K5" s="214">
+      <c r="K5" s="210">
         <f>K6</f>
         <v>45348</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="214">
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="210">
         <f>R6</f>
         <v>45355</v>
       </c>
-      <c r="S5" s="200"/>
-      <c r="T5" s="200"/>
-      <c r="U5" s="200"/>
-      <c r="V5" s="200"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="215"/>
-      <c r="Y5" s="217">
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="211"/>
+      <c r="Y5" s="213">
         <f>Y6</f>
         <v>45362</v>
       </c>
-      <c r="Z5" s="200"/>
-      <c r="AA5" s="200"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="200"/>
-      <c r="AE5" s="218"/>
-      <c r="AF5" s="209">
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="205">
         <f>AF6</f>
         <v>45369</v>
       </c>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="200"/>
-      <c r="AI5" s="200"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="200"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="202">
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="215">
         <f>AM6</f>
         <v>45376</v>
       </c>
-      <c r="AN5" s="200"/>
-      <c r="AO5" s="200"/>
-      <c r="AP5" s="200"/>
-      <c r="AQ5" s="200"/>
-      <c r="AR5" s="200"/>
-      <c r="AS5" s="203"/>
-      <c r="AT5" s="204">
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="216"/>
+      <c r="AT5" s="217">
         <f>AT6</f>
         <v>45383</v>
       </c>
-      <c r="AU5" s="200"/>
-      <c r="AV5" s="200"/>
-      <c r="AW5" s="200"/>
-      <c r="AX5" s="200"/>
-      <c r="AY5" s="200"/>
-      <c r="AZ5" s="205"/>
-      <c r="BA5" s="206">
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="218"/>
+      <c r="BA5" s="196">
         <f>BA6</f>
         <v>45390</v>
       </c>
-      <c r="BB5" s="200"/>
-      <c r="BC5" s="200"/>
-      <c r="BD5" s="200"/>
-      <c r="BE5" s="200"/>
-      <c r="BF5" s="200"/>
-      <c r="BG5" s="207"/>
-      <c r="BH5" s="199">
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="197"/>
+      <c r="BF5" s="197"/>
+      <c r="BG5" s="198"/>
+      <c r="BH5" s="202">
         <f>BH6</f>
         <v>45397</v>
       </c>
-      <c r="BI5" s="200"/>
-      <c r="BJ5" s="200"/>
-      <c r="BK5" s="200"/>
-      <c r="BL5" s="200"/>
-      <c r="BM5" s="200"/>
-      <c r="BN5" s="201"/>
-      <c r="BO5" s="206">
+      <c r="BI5" s="197"/>
+      <c r="BJ5" s="197"/>
+      <c r="BK5" s="197"/>
+      <c r="BL5" s="197"/>
+      <c r="BM5" s="197"/>
+      <c r="BN5" s="203"/>
+      <c r="BO5" s="196">
         <f>BO6</f>
         <v>45404</v>
       </c>
-      <c r="BP5" s="200"/>
-      <c r="BQ5" s="200"/>
-      <c r="BR5" s="200"/>
-      <c r="BS5" s="200"/>
-      <c r="BT5" s="200"/>
-      <c r="BU5" s="207"/>
-      <c r="BV5" s="199">
+      <c r="BP5" s="197"/>
+      <c r="BQ5" s="197"/>
+      <c r="BR5" s="197"/>
+      <c r="BS5" s="197"/>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="198"/>
+      <c r="BV5" s="202">
         <f>BV6</f>
         <v>45411</v>
       </c>
-      <c r="BW5" s="200"/>
-      <c r="BX5" s="200"/>
-      <c r="BY5" s="200"/>
-      <c r="BZ5" s="200"/>
-      <c r="CA5" s="200"/>
-      <c r="CB5" s="201"/>
-      <c r="CC5" s="199">
+      <c r="BW5" s="197"/>
+      <c r="BX5" s="197"/>
+      <c r="BY5" s="197"/>
+      <c r="BZ5" s="197"/>
+      <c r="CA5" s="197"/>
+      <c r="CB5" s="203"/>
+      <c r="CC5" s="202">
         <f>CC6</f>
         <v>45418</v>
       </c>
-      <c r="CD5" s="200"/>
-      <c r="CE5" s="200"/>
-      <c r="CF5" s="200"/>
-      <c r="CG5" s="200"/>
-      <c r="CH5" s="200"/>
-      <c r="CI5" s="201"/>
-      <c r="CJ5" s="206">
+      <c r="CD5" s="197"/>
+      <c r="CE5" s="197"/>
+      <c r="CF5" s="197"/>
+      <c r="CG5" s="197"/>
+      <c r="CH5" s="197"/>
+      <c r="CI5" s="203"/>
+      <c r="CJ5" s="196">
         <f>CJ6</f>
         <v>45425</v>
       </c>
-      <c r="CK5" s="200"/>
-      <c r="CL5" s="200"/>
-      <c r="CM5" s="200"/>
-      <c r="CN5" s="200"/>
-      <c r="CO5" s="200"/>
-      <c r="CP5" s="207"/>
-      <c r="CQ5" s="199">
+      <c r="CK5" s="197"/>
+      <c r="CL5" s="197"/>
+      <c r="CM5" s="197"/>
+      <c r="CN5" s="197"/>
+      <c r="CO5" s="197"/>
+      <c r="CP5" s="198"/>
+      <c r="CQ5" s="202">
         <f>CQ6</f>
         <v>45432</v>
       </c>
-      <c r="CR5" s="200"/>
-      <c r="CS5" s="200"/>
-      <c r="CT5" s="200"/>
-      <c r="CU5" s="200"/>
-      <c r="CV5" s="200"/>
-      <c r="CW5" s="201"/>
-      <c r="CX5" s="199">
+      <c r="CR5" s="197"/>
+      <c r="CS5" s="197"/>
+      <c r="CT5" s="197"/>
+      <c r="CU5" s="197"/>
+      <c r="CV5" s="197"/>
+      <c r="CW5" s="203"/>
+      <c r="CX5" s="202">
         <f>CX6</f>
         <v>45439</v>
       </c>
-      <c r="CY5" s="200"/>
-      <c r="CZ5" s="200"/>
-      <c r="DA5" s="200"/>
-      <c r="DB5" s="200"/>
-      <c r="DC5" s="200"/>
-      <c r="DD5" s="201"/>
-      <c r="DE5" s="206">
+      <c r="CY5" s="197"/>
+      <c r="CZ5" s="197"/>
+      <c r="DA5" s="197"/>
+      <c r="DB5" s="197"/>
+      <c r="DC5" s="197"/>
+      <c r="DD5" s="203"/>
+      <c r="DE5" s="196">
         <f>DE6</f>
         <v>45446</v>
       </c>
-      <c r="DF5" s="200"/>
-      <c r="DG5" s="200"/>
-      <c r="DH5" s="200"/>
-      <c r="DI5" s="200"/>
-      <c r="DJ5" s="200"/>
-      <c r="DK5" s="207"/>
-      <c r="DL5" s="199">
+      <c r="DF5" s="197"/>
+      <c r="DG5" s="197"/>
+      <c r="DH5" s="197"/>
+      <c r="DI5" s="197"/>
+      <c r="DJ5" s="197"/>
+      <c r="DK5" s="198"/>
+      <c r="DL5" s="202">
         <f>DL6</f>
         <v>45453</v>
       </c>
-      <c r="DM5" s="200"/>
-      <c r="DN5" s="200"/>
-      <c r="DO5" s="200"/>
-      <c r="DP5" s="200"/>
-      <c r="DQ5" s="200"/>
-      <c r="DR5" s="201"/>
-      <c r="DS5" s="199">
+      <c r="DM5" s="197"/>
+      <c r="DN5" s="197"/>
+      <c r="DO5" s="197"/>
+      <c r="DP5" s="197"/>
+      <c r="DQ5" s="197"/>
+      <c r="DR5" s="203"/>
+      <c r="DS5" s="202">
         <f>DS6</f>
         <v>45460</v>
       </c>
-      <c r="DT5" s="200"/>
-      <c r="DU5" s="200"/>
-      <c r="DV5" s="200"/>
-      <c r="DW5" s="200"/>
-      <c r="DX5" s="200"/>
-      <c r="DY5" s="201"/>
-      <c r="DZ5" s="206">
+      <c r="DT5" s="197"/>
+      <c r="DU5" s="197"/>
+      <c r="DV5" s="197"/>
+      <c r="DW5" s="197"/>
+      <c r="DX5" s="197"/>
+      <c r="DY5" s="203"/>
+      <c r="DZ5" s="196">
         <f>DZ6</f>
         <v>45467</v>
       </c>
-      <c r="EA5" s="200"/>
-      <c r="EB5" s="200"/>
-      <c r="EC5" s="200"/>
-      <c r="ED5" s="200"/>
-      <c r="EE5" s="200"/>
-      <c r="EF5" s="207"/>
-      <c r="EG5" s="199">
+      <c r="EA5" s="197"/>
+      <c r="EB5" s="197"/>
+      <c r="EC5" s="197"/>
+      <c r="ED5" s="197"/>
+      <c r="EE5" s="197"/>
+      <c r="EF5" s="198"/>
+      <c r="EG5" s="202">
         <f>EG6</f>
         <v>45474</v>
       </c>
-      <c r="EH5" s="200"/>
-      <c r="EI5" s="200"/>
-      <c r="EJ5" s="200"/>
-      <c r="EK5" s="200"/>
-      <c r="EL5" s="200"/>
-      <c r="EM5" s="201"/>
-      <c r="EN5" s="199">
+      <c r="EH5" s="197"/>
+      <c r="EI5" s="197"/>
+      <c r="EJ5" s="197"/>
+      <c r="EK5" s="197"/>
+      <c r="EL5" s="197"/>
+      <c r="EM5" s="203"/>
+      <c r="EN5" s="202">
         <f>EN6</f>
         <v>45481</v>
       </c>
-      <c r="EO5" s="200"/>
-      <c r="EP5" s="200"/>
-      <c r="EQ5" s="200"/>
-      <c r="ER5" s="200"/>
-      <c r="ES5" s="200"/>
-      <c r="ET5" s="201"/>
-      <c r="EU5" s="206">
+      <c r="EO5" s="197"/>
+      <c r="EP5" s="197"/>
+      <c r="EQ5" s="197"/>
+      <c r="ER5" s="197"/>
+      <c r="ES5" s="197"/>
+      <c r="ET5" s="203"/>
+      <c r="EU5" s="196">
         <f>EU6</f>
         <v>45488</v>
       </c>
-      <c r="EV5" s="200"/>
-      <c r="EW5" s="200"/>
-      <c r="EX5" s="200"/>
-      <c r="EY5" s="200"/>
-      <c r="EZ5" s="200"/>
-      <c r="FA5" s="207"/>
-      <c r="FB5" s="199">
+      <c r="EV5" s="197"/>
+      <c r="EW5" s="197"/>
+      <c r="EX5" s="197"/>
+      <c r="EY5" s="197"/>
+      <c r="EZ5" s="197"/>
+      <c r="FA5" s="198"/>
+      <c r="FB5" s="202">
         <f>FB6</f>
         <v>45495</v>
       </c>
-      <c r="FC5" s="200"/>
-      <c r="FD5" s="200"/>
-      <c r="FE5" s="200"/>
-      <c r="FF5" s="200"/>
-      <c r="FG5" s="200"/>
-      <c r="FH5" s="201"/>
-      <c r="FI5" s="199">
+      <c r="FC5" s="197"/>
+      <c r="FD5" s="197"/>
+      <c r="FE5" s="197"/>
+      <c r="FF5" s="197"/>
+      <c r="FG5" s="197"/>
+      <c r="FH5" s="203"/>
+      <c r="FI5" s="202">
         <f>FI6</f>
         <v>45502</v>
       </c>
-      <c r="FJ5" s="200"/>
-      <c r="FK5" s="200"/>
-      <c r="FL5" s="200"/>
-      <c r="FM5" s="200"/>
-      <c r="FN5" s="200"/>
-      <c r="FO5" s="201"/>
-      <c r="FP5" s="206">
+      <c r="FJ5" s="197"/>
+      <c r="FK5" s="197"/>
+      <c r="FL5" s="197"/>
+      <c r="FM5" s="197"/>
+      <c r="FN5" s="197"/>
+      <c r="FO5" s="203"/>
+      <c r="FP5" s="196">
         <f>FP6</f>
         <v>45509</v>
       </c>
-      <c r="FQ5" s="200"/>
-      <c r="FR5" s="200"/>
-      <c r="FS5" s="200"/>
-      <c r="FT5" s="200"/>
-      <c r="FU5" s="200"/>
-      <c r="FV5" s="207"/>
-      <c r="FW5" s="199">
+      <c r="FQ5" s="197"/>
+      <c r="FR5" s="197"/>
+      <c r="FS5" s="197"/>
+      <c r="FT5" s="197"/>
+      <c r="FU5" s="197"/>
+      <c r="FV5" s="198"/>
+      <c r="FW5" s="202">
         <f>FW6</f>
         <v>45516</v>
       </c>
-      <c r="FX5" s="200"/>
-      <c r="FY5" s="200"/>
-      <c r="FZ5" s="200"/>
-      <c r="GA5" s="200"/>
-      <c r="GB5" s="200"/>
-      <c r="GC5" s="201"/>
-      <c r="GD5" s="199">
+      <c r="FX5" s="197"/>
+      <c r="FY5" s="197"/>
+      <c r="FZ5" s="197"/>
+      <c r="GA5" s="197"/>
+      <c r="GB5" s="197"/>
+      <c r="GC5" s="203"/>
+      <c r="GD5" s="202">
         <f>GD6</f>
         <v>45523</v>
       </c>
-      <c r="GE5" s="200"/>
-      <c r="GF5" s="200"/>
-      <c r="GG5" s="200"/>
-      <c r="GH5" s="200"/>
-      <c r="GI5" s="200"/>
-      <c r="GJ5" s="201"/>
-      <c r="GK5" s="206">
+      <c r="GE5" s="197"/>
+      <c r="GF5" s="197"/>
+      <c r="GG5" s="197"/>
+      <c r="GH5" s="197"/>
+      <c r="GI5" s="197"/>
+      <c r="GJ5" s="203"/>
+      <c r="GK5" s="196">
         <f>GK6</f>
         <v>45530</v>
       </c>
-      <c r="GL5" s="200"/>
-      <c r="GM5" s="200"/>
-      <c r="GN5" s="200"/>
-      <c r="GO5" s="200"/>
-      <c r="GP5" s="200"/>
-      <c r="GQ5" s="207"/>
-      <c r="GR5" s="199">
+      <c r="GL5" s="197"/>
+      <c r="GM5" s="197"/>
+      <c r="GN5" s="197"/>
+      <c r="GO5" s="197"/>
+      <c r="GP5" s="197"/>
+      <c r="GQ5" s="198"/>
+      <c r="GR5" s="202">
         <f>GR6</f>
         <v>45537</v>
       </c>
-      <c r="GS5" s="200"/>
-      <c r="GT5" s="200"/>
-      <c r="GU5" s="200"/>
-      <c r="GV5" s="200"/>
-      <c r="GW5" s="200"/>
-      <c r="GX5" s="201"/>
-      <c r="GY5" s="206">
+      <c r="GS5" s="197"/>
+      <c r="GT5" s="197"/>
+      <c r="GU5" s="197"/>
+      <c r="GV5" s="197"/>
+      <c r="GW5" s="197"/>
+      <c r="GX5" s="203"/>
+      <c r="GY5" s="196">
         <f>GY6</f>
         <v>45544</v>
       </c>
-      <c r="GZ5" s="200"/>
-      <c r="HA5" s="200"/>
-      <c r="HB5" s="200"/>
-      <c r="HC5" s="200"/>
-      <c r="HD5" s="200"/>
-      <c r="HE5" s="207"/>
-      <c r="HF5" s="199">
+      <c r="GZ5" s="197"/>
+      <c r="HA5" s="197"/>
+      <c r="HB5" s="197"/>
+      <c r="HC5" s="197"/>
+      <c r="HD5" s="197"/>
+      <c r="HE5" s="198"/>
+      <c r="HF5" s="202">
         <f>HF6</f>
         <v>45551</v>
       </c>
-      <c r="HG5" s="200"/>
-      <c r="HH5" s="200"/>
-      <c r="HI5" s="200"/>
-      <c r="HJ5" s="200"/>
-      <c r="HK5" s="200"/>
-      <c r="HL5" s="201"/>
-      <c r="HM5" s="206">
+      <c r="HG5" s="197"/>
+      <c r="HH5" s="197"/>
+      <c r="HI5" s="197"/>
+      <c r="HJ5" s="197"/>
+      <c r="HK5" s="197"/>
+      <c r="HL5" s="203"/>
+      <c r="HM5" s="196">
         <f>HM6</f>
         <v>45558</v>
       </c>
-      <c r="HN5" s="200"/>
-      <c r="HO5" s="200"/>
-      <c r="HP5" s="200"/>
-      <c r="HQ5" s="200"/>
-      <c r="HR5" s="200"/>
-      <c r="HS5" s="207"/>
-      <c r="HT5" s="199">
+      <c r="HN5" s="197"/>
+      <c r="HO5" s="197"/>
+      <c r="HP5" s="197"/>
+      <c r="HQ5" s="197"/>
+      <c r="HR5" s="197"/>
+      <c r="HS5" s="198"/>
+      <c r="HT5" s="202">
         <f>HT6</f>
         <v>45565</v>
       </c>
-      <c r="HU5" s="200"/>
-      <c r="HV5" s="200"/>
-      <c r="HW5" s="200"/>
-      <c r="HX5" s="200"/>
-      <c r="HY5" s="200"/>
-      <c r="HZ5" s="201"/>
-      <c r="IA5" s="206">
+      <c r="HU5" s="197"/>
+      <c r="HV5" s="197"/>
+      <c r="HW5" s="197"/>
+      <c r="HX5" s="197"/>
+      <c r="HY5" s="197"/>
+      <c r="HZ5" s="203"/>
+      <c r="IA5" s="196">
         <f>IA6</f>
         <v>45572</v>
       </c>
-      <c r="IB5" s="200"/>
-      <c r="IC5" s="200"/>
-      <c r="ID5" s="200"/>
-      <c r="IE5" s="200"/>
-      <c r="IF5" s="200"/>
-      <c r="IG5" s="207"/>
-      <c r="IH5" s="199">
+      <c r="IB5" s="197"/>
+      <c r="IC5" s="197"/>
+      <c r="ID5" s="197"/>
+      <c r="IE5" s="197"/>
+      <c r="IF5" s="197"/>
+      <c r="IG5" s="198"/>
+      <c r="IH5" s="202">
         <f>IH6</f>
         <v>45579</v>
       </c>
-      <c r="II5" s="200"/>
-      <c r="IJ5" s="200"/>
-      <c r="IK5" s="200"/>
-      <c r="IL5" s="200"/>
-      <c r="IM5" s="200"/>
-      <c r="IN5" s="201"/>
-      <c r="IO5" s="206">
+      <c r="II5" s="197"/>
+      <c r="IJ5" s="197"/>
+      <c r="IK5" s="197"/>
+      <c r="IL5" s="197"/>
+      <c r="IM5" s="197"/>
+      <c r="IN5" s="203"/>
+      <c r="IO5" s="196">
         <f>IO6</f>
         <v>45586</v>
       </c>
-      <c r="IP5" s="200"/>
-      <c r="IQ5" s="200"/>
-      <c r="IR5" s="200"/>
-      <c r="IS5" s="200"/>
-      <c r="IT5" s="200"/>
-      <c r="IU5" s="207"/>
+      <c r="IP5" s="197"/>
+      <c r="IQ5" s="197"/>
+      <c r="IR5" s="197"/>
+      <c r="IS5" s="197"/>
+      <c r="IT5" s="197"/>
+      <c r="IU5" s="198"/>
     </row>
-    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="84"/>
       <c r="K6" s="33">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -5170,7 +5173,7 @@
       </c>
       <c r="IU6" s="45"/>
     </row>
-    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -6177,7 +6180,7 @@
       </c>
       <c r="IU7" s="31"/>
     </row>
-    <row r="8" spans="1:255" s="176" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:255" s="176" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="169" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -6439,7 +6442,7 @@
       <c r="IT8" s="172"/>
       <c r="IU8" s="172"/>
     </row>
-    <row r="9" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="143">
         <v>1</v>
       </c>
@@ -6712,7 +6715,7 @@
       <c r="IT9" s="152"/>
       <c r="IU9" s="152"/>
     </row>
-    <row r="10" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="143" t="str">
         <f t="shared" ref="A10:A19" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1</v>
@@ -6986,7 +6989,7 @@
       <c r="IT10" s="152"/>
       <c r="IU10" s="152"/>
     </row>
-    <row r="11" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.1</v>
@@ -7260,7 +7263,7 @@
       <c r="IT11" s="152"/>
       <c r="IU11" s="152"/>
     </row>
-    <row r="12" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.2</v>
@@ -7535,7 +7538,7 @@
       <c r="IT12" s="152"/>
       <c r="IU12" s="152"/>
     </row>
-    <row r="13" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.3</v>
@@ -7809,7 +7812,7 @@
       <c r="IT13" s="152"/>
       <c r="IU13" s="152"/>
     </row>
-    <row r="14" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.4</v>
@@ -8086,7 +8089,7 @@
       <c r="IT14" s="152"/>
       <c r="IU14" s="152"/>
     </row>
-    <row r="15" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.5</v>
@@ -8363,7 +8366,7 @@
       <c r="IT15" s="152"/>
       <c r="IU15" s="152"/>
     </row>
-    <row r="16" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.6</v>
@@ -8639,7 +8642,7 @@
       <c r="IT16" s="152"/>
       <c r="IU16" s="152"/>
     </row>
-    <row r="17" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.7</v>
@@ -8915,13 +8918,13 @@
       <c r="IT17" s="152"/>
       <c r="IU17" s="152"/>
     </row>
-    <row r="18" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.8</v>
       </c>
       <c r="B18" s="144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="145"/>
       <c r="D18" s="146"/>
@@ -9189,7 +9192,7 @@
       <c r="IT18" s="152"/>
       <c r="IU18" s="152"/>
     </row>
-    <row r="19" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.9</v>
@@ -9465,7 +9468,7 @@
       <c r="IT19" s="152"/>
       <c r="IU19" s="152"/>
     </row>
-    <row r="20" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="143"/>
       <c r="B20" s="144" t="s">
         <v>32</v>
@@ -9739,7 +9742,7 @@
       <c r="IT20" s="152"/>
       <c r="IU20" s="152"/>
     </row>
-    <row r="21" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="143"/>
       <c r="B21" s="144" t="s">
         <v>31</v>
@@ -10013,7 +10016,7 @@
       <c r="IT21" s="152"/>
       <c r="IU21" s="152"/>
     </row>
-    <row r="22" spans="1:255" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:255" s="93" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="159">
         <v>2</v>
       </c>
@@ -10274,7 +10277,7 @@
       <c r="IT22" s="92"/>
       <c r="IU22" s="92"/>
     </row>
-    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="95">
         <v>2</v>
       </c>
@@ -10548,12 +10551,12 @@
       <c r="IT23" s="104"/>
       <c r="IU23" s="104"/>
     </row>
-    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="95">
         <v>2.1</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="98"/>
@@ -10822,7 +10825,7 @@
       <c r="IT24" s="104"/>
       <c r="IU24" s="104"/>
     </row>
-    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="95">
         <v>2.2000000000000002</v>
       </c>
@@ -11096,12 +11099,12 @@
       <c r="IT25" s="104"/>
       <c r="IU25" s="104"/>
     </row>
-    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="95">
         <v>2.2999999999999998</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="98"/>
@@ -11111,17 +11114,17 @@
       </c>
       <c r="F26" s="100">
         <f t="shared" si="21"/>
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="G26" s="101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26" s="102">
         <v>0</v>
       </c>
       <c r="I26" s="191">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J26" s="103"/>
       <c r="K26" s="104"/>
@@ -11370,7 +11373,7 @@
       <c r="IT26" s="104"/>
       <c r="IU26" s="104"/>
     </row>
-    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="95">
         <v>2.4</v>
       </c>
@@ -11381,21 +11384,21 @@
       <c r="D27" s="98"/>
       <c r="E27" s="99">
         <f>F26+1</f>
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="F27" s="100">
         <f t="shared" si="21"/>
-        <v>45380</v>
+        <v>45386</v>
       </c>
       <c r="G27" s="101">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H27" s="102">
         <v>0</v>
       </c>
       <c r="I27" s="191">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J27" s="103"/>
       <c r="K27" s="104"/>
@@ -11644,12 +11647,12 @@
       <c r="IT27" s="104"/>
       <c r="IU27" s="104"/>
     </row>
-    <row r="28" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="95">
         <v>2.5</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="97">
         <v>2</v>
@@ -11657,21 +11660,21 @@
       <c r="D28" s="98"/>
       <c r="E28" s="99">
         <f>F27+1</f>
-        <v>45381</v>
+        <v>45387</v>
       </c>
       <c r="F28" s="100">
         <f t="shared" si="21"/>
-        <v>45392</v>
+        <v>45401</v>
       </c>
       <c r="G28" s="101">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H28" s="102">
         <v>0</v>
       </c>
       <c r="I28" s="191">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J28" s="103"/>
       <c r="K28" s="104"/>
@@ -11920,33 +11923,34 @@
       <c r="IT28" s="104"/>
       <c r="IU28" s="104"/>
     </row>
-    <row r="29" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="95">
         <v>2.6</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="97">
         <v>2</v>
       </c>
       <c r="D29" s="98"/>
       <c r="E29" s="99">
-        <v>45381</v>
+        <f>F27+1</f>
+        <v>45387</v>
       </c>
       <c r="F29" s="100">
         <f t="shared" si="21"/>
-        <v>45388</v>
+        <v>45395</v>
       </c>
       <c r="G29" s="101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="102">
         <v>0</v>
       </c>
       <c r="I29" s="191">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" s="103"/>
       <c r="K29" s="104"/>
@@ -12195,12 +12199,12 @@
       <c r="IT29" s="104"/>
       <c r="IU29" s="104"/>
     </row>
-    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="95">
         <v>2.7</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="97">
         <v>2</v>
@@ -12208,21 +12212,21 @@
       <c r="D30" s="98"/>
       <c r="E30" s="99">
         <f>F29+1</f>
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="F30" s="100">
         <f t="shared" si="21"/>
-        <v>45394</v>
+        <v>45404</v>
       </c>
       <c r="G30" s="101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H30" s="102">
         <v>0</v>
       </c>
       <c r="I30" s="191">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J30" s="103"/>
       <c r="K30" s="104"/>
@@ -12471,22 +12475,22 @@
       <c r="IT30" s="104"/>
       <c r="IU30" s="104"/>
     </row>
-    <row r="31" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="95">
         <v>2.8</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="98"/>
       <c r="E31" s="99">
         <f>E32</f>
-        <v>45395</v>
+        <v>45405</v>
       </c>
       <c r="F31" s="100">
         <f t="shared" si="21"/>
-        <v>45415</v>
+        <v>45425</v>
       </c>
       <c r="G31" s="101">
         <v>21</v>
@@ -12745,22 +12749,22 @@
       <c r="IT31" s="104"/>
       <c r="IU31" s="104"/>
     </row>
-    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="95" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="98"/>
       <c r="E32" s="99">
         <f>MAX(F30,F28)+1</f>
-        <v>45395</v>
+        <v>45405</v>
       </c>
       <c r="F32" s="100">
         <f t="shared" si="21"/>
-        <v>45401</v>
+        <v>45411</v>
       </c>
       <c r="G32" s="101">
         <v>7</v>
@@ -13019,9 +13023,9 @@
       <c r="IT32" s="104"/>
       <c r="IU32" s="104"/>
     </row>
-    <row r="33" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="96" t="s">
         <v>54</v>
@@ -13030,11 +13034,11 @@
       <c r="D33" s="98"/>
       <c r="E33" s="99">
         <f>F32+1</f>
-        <v>45402</v>
+        <v>45412</v>
       </c>
       <c r="F33" s="100">
         <f t="shared" si="21"/>
-        <v>45406</v>
+        <v>45416</v>
       </c>
       <c r="G33" s="101">
         <v>5</v>
@@ -13044,7 +13048,7 @@
       </c>
       <c r="I33" s="191">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33" s="103"/>
       <c r="K33" s="104"/>
@@ -13293,22 +13297,22 @@
       <c r="IT33" s="104"/>
       <c r="IU33" s="104"/>
     </row>
-    <row r="34" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="95" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="98"/>
       <c r="E34" s="99">
         <f>F33+1</f>
-        <v>45407</v>
+        <v>45417</v>
       </c>
       <c r="F34" s="100">
         <f t="shared" si="21"/>
-        <v>45415</v>
+        <v>45425</v>
       </c>
       <c r="G34" s="101">
         <v>9</v>
@@ -13318,7 +13322,7 @@
       </c>
       <c r="I34" s="191">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="104"/>
@@ -13567,7 +13571,7 @@
       <c r="IT34" s="104"/>
       <c r="IU34" s="104"/>
     </row>
-    <row r="35" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="95"/>
       <c r="B35" s="96" t="s">
         <v>37</v>
@@ -13577,12 +13581,12 @@
       </c>
       <c r="D35" s="98"/>
       <c r="E35" s="99">
-        <f>E36-14</f>
-        <v>45418</v>
+        <f>E36-5</f>
+        <v>45427</v>
       </c>
       <c r="F35" s="100">
         <f t="shared" si="21"/>
-        <v>45418</v>
+        <v>45427</v>
       </c>
       <c r="G35" s="101">
         <v>1</v>
@@ -13841,7 +13845,7 @@
       <c r="IT35" s="104"/>
       <c r="IU35" s="104"/>
     </row>
-    <row r="36" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="95"/>
       <c r="B36" s="96" t="s">
         <v>36</v>
@@ -14115,7 +14119,7 @@
       <c r="IT36" s="104"/>
       <c r="IU36" s="104"/>
     </row>
-    <row r="37" spans="1:255" s="113" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:255" s="113" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="106">
         <v>3</v>
       </c>
@@ -14376,7 +14380,7 @@
       <c r="IT37" s="109"/>
       <c r="IU37" s="109"/>
     </row>
-    <row r="38" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="114">
         <v>3</v>
       </c>
@@ -14650,12 +14654,12 @@
       <c r="IT38" s="120"/>
       <c r="IU38" s="120"/>
     </row>
-    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="114">
         <v>3.1</v>
       </c>
       <c r="B39" s="154" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" s="155"/>
       <c r="D39" s="156"/>
@@ -14924,7 +14928,7 @@
       <c r="IT39" s="120"/>
       <c r="IU39" s="120"/>
     </row>
-    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="114">
         <v>3.2</v>
       </c>
@@ -15198,7 +15202,7 @@
       <c r="IT40" s="120"/>
       <c r="IU40" s="120"/>
     </row>
-    <row r="41" spans="1:255" s="121" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:255" s="121" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="114">
         <v>3.3</v>
       </c>
@@ -15213,17 +15217,17 @@
       </c>
       <c r="F41" s="116">
         <f t="shared" si="23"/>
-        <v>45449</v>
+        <v>45457</v>
       </c>
       <c r="G41" s="117">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H41" s="118">
         <v>0</v>
       </c>
       <c r="I41" s="185">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J41" s="119"/>
       <c r="K41" s="120"/>
@@ -15472,22 +15476,22 @@
       <c r="IT41" s="120"/>
       <c r="IU41" s="120"/>
     </row>
-    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="114">
         <v>3.4</v>
       </c>
       <c r="B42" s="154" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C42" s="155"/>
       <c r="D42" s="156"/>
       <c r="E42" s="115">
         <f>F41+1</f>
-        <v>45450</v>
+        <v>45458</v>
       </c>
       <c r="F42" s="116">
         <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G42" s="117">
         <v>32</v>
@@ -15746,22 +15750,22 @@
       <c r="IT42" s="120"/>
       <c r="IU42" s="120"/>
     </row>
-    <row r="43" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A43" s="114" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="155"/>
       <c r="D43" s="156"/>
       <c r="E43" s="115">
         <f>E42</f>
-        <v>45450</v>
+        <v>45458</v>
       </c>
       <c r="F43" s="116">
         <f t="shared" si="23"/>
-        <v>45455</v>
+        <v>45463</v>
       </c>
       <c r="G43" s="117">
         <v>6</v>
@@ -16020,9 +16024,9 @@
       <c r="IT43" s="120"/>
       <c r="IU43" s="120"/>
     </row>
-    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B44" s="154" t="s">
         <v>54</v>
@@ -16031,11 +16035,11 @@
       <c r="D44" s="156"/>
       <c r="E44" s="115">
         <f>F43+1</f>
-        <v>45456</v>
+        <v>45464</v>
       </c>
       <c r="F44" s="116">
         <f>IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="G44" s="117">
         <v>5</v>
@@ -16294,22 +16298,22 @@
       <c r="IT44" s="120"/>
       <c r="IU44" s="120"/>
     </row>
-    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" s="154" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C45" s="155"/>
       <c r="D45" s="156"/>
       <c r="E45" s="115">
         <f>F44+1</f>
-        <v>45461</v>
+        <v>45469</v>
       </c>
       <c r="F45" s="116">
         <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G45" s="117">
         <v>21</v>
@@ -16568,7 +16572,7 @@
       <c r="IT45" s="120"/>
       <c r="IU45" s="120"/>
     </row>
-    <row r="46" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A46" s="114"/>
       <c r="B46" s="154" t="s">
         <v>29</v>
@@ -16578,12 +16582,12 @@
       </c>
       <c r="D46" s="156"/>
       <c r="E46" s="115">
-        <f>E47-14</f>
-        <v>45488</v>
+        <f>E47-5</f>
+        <v>45497</v>
       </c>
       <c r="F46" s="116">
         <f>IF(ISBLANK(E46)," - ",IF(G46=0,E46,E46+G46-1))</f>
-        <v>45488</v>
+        <v>45497</v>
       </c>
       <c r="G46" s="117">
         <v>1</v>
@@ -16842,7 +16846,7 @@
       <c r="IT46" s="120"/>
       <c r="IU46" s="120"/>
     </row>
-    <row r="47" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A47" s="114"/>
       <c r="B47" s="154" t="s">
         <v>30</v>
@@ -17116,7 +17120,7 @@
       <c r="IT47" s="120"/>
       <c r="IU47" s="120"/>
     </row>
-    <row r="48" spans="1:255" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:255" s="131" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A48" s="122">
         <v>4</v>
       </c>
@@ -17377,7 +17381,7 @@
       <c r="IT48" s="125"/>
       <c r="IU48" s="125"/>
     </row>
-    <row r="49" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -17652,7 +17656,7 @@
       <c r="IT49" s="141"/>
       <c r="IU49" s="141"/>
     </row>
-    <row r="50" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -17929,7 +17933,7 @@
       <c r="IT50" s="141"/>
       <c r="IU50" s="141"/>
     </row>
-    <row r="51" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A51" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -18205,7 +18209,7 @@
       <c r="IT51" s="141"/>
       <c r="IU51" s="141"/>
     </row>
-    <row r="52" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A52" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -18482,7 +18486,7 @@
       <c r="IT52" s="141"/>
       <c r="IU52" s="141"/>
     </row>
-    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="65" t="s">
         <v>1</v>
       </c>
@@ -18741,7 +18745,7 @@
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
     </row>
-    <row r="55" spans="1:255" s="8" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:255" s="8" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A55" s="66" t="s">
         <v>16</v>
       </c>
@@ -18996,7 +19000,7 @@
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
     </row>
-    <row r="56" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A56" s="54" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -19260,7 +19264,7 @@
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
     </row>
-    <row r="57" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A57" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -19532,7 +19536,7 @@
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
     </row>
-    <row r="58" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A58" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -19804,7 +19808,7 @@
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
     </row>
-    <row r="59" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A59" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -20074,35 +20078,64 @@
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
     </row>
-    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="80" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
       <c r="C60" s="90"/>
       <c r="AD60" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -20119,49 +20152,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H55:H59 H8:H52">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57682B4-9726-49AE-BF91-D8358005884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7F3FA-AF89-45F9-8B2E-8C92B583D73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2627,28 +2627,40 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2685,18 +2697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3294,75 +3294,75 @@
   </sheetPr>
   <dimension ref="A1:IU62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="91" customWidth="1"/>
-    <col min="4" max="4" width="0.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.59765625" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.3984375" style="1" customWidth="1"/>
-    <col min="67" max="68" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
+    <col min="67" max="68" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.1328125" style="1"/>
+    <col min="229" max="229" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
@@ -3375,23 +3375,23 @@
       <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
-      <c r="AN1" s="204"/>
-      <c r="AO1" s="204"/>
-      <c r="AP1" s="204"/>
-      <c r="AQ1" s="204"/>
-      <c r="AR1" s="204"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="208"/>
+      <c r="AR1" s="208"/>
     </row>
-    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
       <c r="C3" s="83"/>
@@ -3465,735 +3465,735 @@
       <c r="BM3" s="76"/>
       <c r="BN3" s="77"/>
     </row>
-    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="207">
+      <c r="C4" s="211">
         <v>45295</v>
       </c>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="H4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="74">
         <v>9</v>
       </c>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="199" t="str">
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="196" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="199" t="str">
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="196" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="199" t="str">
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="196" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="200"/>
-      <c r="AI4" s="200"/>
-      <c r="AJ4" s="200"/>
-      <c r="AK4" s="200"/>
-      <c r="AL4" s="201"/>
-      <c r="AM4" s="199" t="str">
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="196" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="AN4" s="200"/>
-      <c r="AO4" s="200"/>
-      <c r="AP4" s="200"/>
-      <c r="AQ4" s="200"/>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="201"/>
-      <c r="AT4" s="199" t="str">
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="196" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AU4" s="200"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="200"/>
-      <c r="AX4" s="200"/>
-      <c r="AY4" s="200"/>
-      <c r="AZ4" s="201"/>
-      <c r="BA4" s="199" t="str">
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="197"/>
+      <c r="AW4" s="197"/>
+      <c r="AX4" s="197"/>
+      <c r="AY4" s="197"/>
+      <c r="AZ4" s="198"/>
+      <c r="BA4" s="196" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="BB4" s="200"/>
-      <c r="BC4" s="200"/>
-      <c r="BD4" s="200"/>
-      <c r="BE4" s="200"/>
-      <c r="BF4" s="200"/>
-      <c r="BG4" s="201"/>
-      <c r="BH4" s="199" t="str">
+      <c r="BB4" s="197"/>
+      <c r="BC4" s="197"/>
+      <c r="BD4" s="197"/>
+      <c r="BE4" s="197"/>
+      <c r="BF4" s="197"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="196" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="BI4" s="200"/>
-      <c r="BJ4" s="200"/>
-      <c r="BK4" s="200"/>
-      <c r="BL4" s="200"/>
-      <c r="BM4" s="200"/>
-      <c r="BN4" s="201"/>
-      <c r="BO4" s="199" t="str">
+      <c r="BI4" s="197"/>
+      <c r="BJ4" s="197"/>
+      <c r="BK4" s="197"/>
+      <c r="BL4" s="197"/>
+      <c r="BM4" s="197"/>
+      <c r="BN4" s="198"/>
+      <c r="BO4" s="196" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="BP4" s="200"/>
-      <c r="BQ4" s="200"/>
-      <c r="BR4" s="200"/>
-      <c r="BS4" s="200"/>
-      <c r="BT4" s="200"/>
-      <c r="BU4" s="201"/>
-      <c r="BV4" s="199" t="str">
+      <c r="BP4" s="197"/>
+      <c r="BQ4" s="197"/>
+      <c r="BR4" s="197"/>
+      <c r="BS4" s="197"/>
+      <c r="BT4" s="197"/>
+      <c r="BU4" s="198"/>
+      <c r="BV4" s="196" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="BW4" s="200"/>
-      <c r="BX4" s="200"/>
-      <c r="BY4" s="200"/>
-      <c r="BZ4" s="200"/>
-      <c r="CA4" s="200"/>
-      <c r="CB4" s="201"/>
-      <c r="CC4" s="199" t="str">
+      <c r="BW4" s="197"/>
+      <c r="BX4" s="197"/>
+      <c r="BY4" s="197"/>
+      <c r="BZ4" s="197"/>
+      <c r="CA4" s="197"/>
+      <c r="CB4" s="198"/>
+      <c r="CC4" s="196" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="CD4" s="200"/>
-      <c r="CE4" s="200"/>
-      <c r="CF4" s="200"/>
-      <c r="CG4" s="200"/>
-      <c r="CH4" s="200"/>
-      <c r="CI4" s="201"/>
-      <c r="CJ4" s="199" t="str">
+      <c r="CD4" s="197"/>
+      <c r="CE4" s="197"/>
+      <c r="CF4" s="197"/>
+      <c r="CG4" s="197"/>
+      <c r="CH4" s="197"/>
+      <c r="CI4" s="198"/>
+      <c r="CJ4" s="196" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="CK4" s="200"/>
-      <c r="CL4" s="200"/>
-      <c r="CM4" s="200"/>
-      <c r="CN4" s="200"/>
-      <c r="CO4" s="200"/>
-      <c r="CP4" s="201"/>
-      <c r="CQ4" s="199" t="str">
+      <c r="CK4" s="197"/>
+      <c r="CL4" s="197"/>
+      <c r="CM4" s="197"/>
+      <c r="CN4" s="197"/>
+      <c r="CO4" s="197"/>
+      <c r="CP4" s="198"/>
+      <c r="CQ4" s="196" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="CR4" s="200"/>
-      <c r="CS4" s="200"/>
-      <c r="CT4" s="200"/>
-      <c r="CU4" s="200"/>
-      <c r="CV4" s="200"/>
-      <c r="CW4" s="201"/>
-      <c r="CX4" s="199" t="str">
+      <c r="CR4" s="197"/>
+      <c r="CS4" s="197"/>
+      <c r="CT4" s="197"/>
+      <c r="CU4" s="197"/>
+      <c r="CV4" s="197"/>
+      <c r="CW4" s="198"/>
+      <c r="CX4" s="196" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="CY4" s="200"/>
-      <c r="CZ4" s="200"/>
-      <c r="DA4" s="200"/>
-      <c r="DB4" s="200"/>
-      <c r="DC4" s="200"/>
-      <c r="DD4" s="201"/>
-      <c r="DE4" s="199" t="str">
+      <c r="CY4" s="197"/>
+      <c r="CZ4" s="197"/>
+      <c r="DA4" s="197"/>
+      <c r="DB4" s="197"/>
+      <c r="DC4" s="197"/>
+      <c r="DD4" s="198"/>
+      <c r="DE4" s="196" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="DF4" s="200"/>
-      <c r="DG4" s="200"/>
-      <c r="DH4" s="200"/>
-      <c r="DI4" s="200"/>
-      <c r="DJ4" s="200"/>
-      <c r="DK4" s="201"/>
-      <c r="DL4" s="199" t="str">
+      <c r="DF4" s="197"/>
+      <c r="DG4" s="197"/>
+      <c r="DH4" s="197"/>
+      <c r="DI4" s="197"/>
+      <c r="DJ4" s="197"/>
+      <c r="DK4" s="198"/>
+      <c r="DL4" s="196" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="DM4" s="200"/>
-      <c r="DN4" s="200"/>
-      <c r="DO4" s="200"/>
-      <c r="DP4" s="200"/>
-      <c r="DQ4" s="200"/>
-      <c r="DR4" s="201"/>
-      <c r="DS4" s="199" t="str">
+      <c r="DM4" s="197"/>
+      <c r="DN4" s="197"/>
+      <c r="DO4" s="197"/>
+      <c r="DP4" s="197"/>
+      <c r="DQ4" s="197"/>
+      <c r="DR4" s="198"/>
+      <c r="DS4" s="196" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="DT4" s="200"/>
-      <c r="DU4" s="200"/>
-      <c r="DV4" s="200"/>
-      <c r="DW4" s="200"/>
-      <c r="DX4" s="200"/>
-      <c r="DY4" s="201"/>
-      <c r="DZ4" s="199" t="str">
+      <c r="DT4" s="197"/>
+      <c r="DU4" s="197"/>
+      <c r="DV4" s="197"/>
+      <c r="DW4" s="197"/>
+      <c r="DX4" s="197"/>
+      <c r="DY4" s="198"/>
+      <c r="DZ4" s="196" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="EA4" s="200"/>
-      <c r="EB4" s="200"/>
-      <c r="EC4" s="200"/>
-      <c r="ED4" s="200"/>
-      <c r="EE4" s="200"/>
-      <c r="EF4" s="201"/>
-      <c r="EG4" s="199" t="str">
+      <c r="EA4" s="197"/>
+      <c r="EB4" s="197"/>
+      <c r="EC4" s="197"/>
+      <c r="ED4" s="197"/>
+      <c r="EE4" s="197"/>
+      <c r="EF4" s="198"/>
+      <c r="EG4" s="196" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="EH4" s="200"/>
-      <c r="EI4" s="200"/>
-      <c r="EJ4" s="200"/>
-      <c r="EK4" s="200"/>
-      <c r="EL4" s="200"/>
-      <c r="EM4" s="201"/>
-      <c r="EN4" s="199" t="str">
+      <c r="EH4" s="197"/>
+      <c r="EI4" s="197"/>
+      <c r="EJ4" s="197"/>
+      <c r="EK4" s="197"/>
+      <c r="EL4" s="197"/>
+      <c r="EM4" s="198"/>
+      <c r="EN4" s="196" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="EO4" s="200"/>
-      <c r="EP4" s="200"/>
-      <c r="EQ4" s="200"/>
-      <c r="ER4" s="200"/>
-      <c r="ES4" s="200"/>
-      <c r="ET4" s="201"/>
-      <c r="EU4" s="199" t="str">
+      <c r="EO4" s="197"/>
+      <c r="EP4" s="197"/>
+      <c r="EQ4" s="197"/>
+      <c r="ER4" s="197"/>
+      <c r="ES4" s="197"/>
+      <c r="ET4" s="198"/>
+      <c r="EU4" s="196" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="EV4" s="200"/>
-      <c r="EW4" s="200"/>
-      <c r="EX4" s="200"/>
-      <c r="EY4" s="200"/>
-      <c r="EZ4" s="200"/>
-      <c r="FA4" s="201"/>
-      <c r="FB4" s="199" t="str">
+      <c r="EV4" s="197"/>
+      <c r="EW4" s="197"/>
+      <c r="EX4" s="197"/>
+      <c r="EY4" s="197"/>
+      <c r="EZ4" s="197"/>
+      <c r="FA4" s="198"/>
+      <c r="FB4" s="196" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="FC4" s="200"/>
-      <c r="FD4" s="200"/>
-      <c r="FE4" s="200"/>
-      <c r="FF4" s="200"/>
-      <c r="FG4" s="200"/>
-      <c r="FH4" s="201"/>
-      <c r="FI4" s="199" t="str">
+      <c r="FC4" s="197"/>
+      <c r="FD4" s="197"/>
+      <c r="FE4" s="197"/>
+      <c r="FF4" s="197"/>
+      <c r="FG4" s="197"/>
+      <c r="FH4" s="198"/>
+      <c r="FI4" s="196" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="FJ4" s="200"/>
-      <c r="FK4" s="200"/>
-      <c r="FL4" s="200"/>
-      <c r="FM4" s="200"/>
-      <c r="FN4" s="200"/>
-      <c r="FO4" s="201"/>
-      <c r="FP4" s="199" t="str">
+      <c r="FJ4" s="197"/>
+      <c r="FK4" s="197"/>
+      <c r="FL4" s="197"/>
+      <c r="FM4" s="197"/>
+      <c r="FN4" s="197"/>
+      <c r="FO4" s="198"/>
+      <c r="FP4" s="196" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="FQ4" s="200"/>
-      <c r="FR4" s="200"/>
-      <c r="FS4" s="200"/>
-      <c r="FT4" s="200"/>
-      <c r="FU4" s="200"/>
-      <c r="FV4" s="201"/>
-      <c r="FW4" s="199" t="str">
+      <c r="FQ4" s="197"/>
+      <c r="FR4" s="197"/>
+      <c r="FS4" s="197"/>
+      <c r="FT4" s="197"/>
+      <c r="FU4" s="197"/>
+      <c r="FV4" s="198"/>
+      <c r="FW4" s="196" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="FX4" s="200"/>
-      <c r="FY4" s="200"/>
-      <c r="FZ4" s="200"/>
-      <c r="GA4" s="200"/>
-      <c r="GB4" s="200"/>
-      <c r="GC4" s="201"/>
-      <c r="GD4" s="199" t="str">
+      <c r="FX4" s="197"/>
+      <c r="FY4" s="197"/>
+      <c r="FZ4" s="197"/>
+      <c r="GA4" s="197"/>
+      <c r="GB4" s="197"/>
+      <c r="GC4" s="198"/>
+      <c r="GD4" s="196" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="GE4" s="200"/>
-      <c r="GF4" s="200"/>
-      <c r="GG4" s="200"/>
-      <c r="GH4" s="200"/>
-      <c r="GI4" s="200"/>
-      <c r="GJ4" s="201"/>
-      <c r="GK4" s="199" t="str">
+      <c r="GE4" s="197"/>
+      <c r="GF4" s="197"/>
+      <c r="GG4" s="197"/>
+      <c r="GH4" s="197"/>
+      <c r="GI4" s="197"/>
+      <c r="GJ4" s="198"/>
+      <c r="GK4" s="196" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="GL4" s="200"/>
-      <c r="GM4" s="200"/>
-      <c r="GN4" s="200"/>
-      <c r="GO4" s="200"/>
-      <c r="GP4" s="200"/>
-      <c r="GQ4" s="201"/>
-      <c r="GR4" s="199" t="str">
+      <c r="GL4" s="197"/>
+      <c r="GM4" s="197"/>
+      <c r="GN4" s="197"/>
+      <c r="GO4" s="197"/>
+      <c r="GP4" s="197"/>
+      <c r="GQ4" s="198"/>
+      <c r="GR4" s="196" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="GS4" s="200"/>
-      <c r="GT4" s="200"/>
-      <c r="GU4" s="200"/>
-      <c r="GV4" s="200"/>
-      <c r="GW4" s="200"/>
-      <c r="GX4" s="201"/>
-      <c r="GY4" s="199" t="str">
+      <c r="GS4" s="197"/>
+      <c r="GT4" s="197"/>
+      <c r="GU4" s="197"/>
+      <c r="GV4" s="197"/>
+      <c r="GW4" s="197"/>
+      <c r="GX4" s="198"/>
+      <c r="GY4" s="196" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 36</v>
       </c>
-      <c r="GZ4" s="200"/>
-      <c r="HA4" s="200"/>
-      <c r="HB4" s="200"/>
-      <c r="HC4" s="200"/>
-      <c r="HD4" s="200"/>
-      <c r="HE4" s="201"/>
-      <c r="HF4" s="199" t="str">
+      <c r="GZ4" s="197"/>
+      <c r="HA4" s="197"/>
+      <c r="HB4" s="197"/>
+      <c r="HC4" s="197"/>
+      <c r="HD4" s="197"/>
+      <c r="HE4" s="198"/>
+      <c r="HF4" s="196" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 37</v>
       </c>
-      <c r="HG4" s="200"/>
-      <c r="HH4" s="200"/>
-      <c r="HI4" s="200"/>
-      <c r="HJ4" s="200"/>
-      <c r="HK4" s="200"/>
-      <c r="HL4" s="201"/>
-      <c r="HM4" s="199" t="str">
+      <c r="HG4" s="197"/>
+      <c r="HH4" s="197"/>
+      <c r="HI4" s="197"/>
+      <c r="HJ4" s="197"/>
+      <c r="HK4" s="197"/>
+      <c r="HL4" s="198"/>
+      <c r="HM4" s="196" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 38</v>
       </c>
-      <c r="HN4" s="200"/>
-      <c r="HO4" s="200"/>
-      <c r="HP4" s="200"/>
-      <c r="HQ4" s="200"/>
-      <c r="HR4" s="200"/>
-      <c r="HS4" s="201"/>
-      <c r="HT4" s="199" t="str">
+      <c r="HN4" s="197"/>
+      <c r="HO4" s="197"/>
+      <c r="HP4" s="197"/>
+      <c r="HQ4" s="197"/>
+      <c r="HR4" s="197"/>
+      <c r="HS4" s="198"/>
+      <c r="HT4" s="196" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 39</v>
       </c>
-      <c r="HU4" s="200"/>
-      <c r="HV4" s="200"/>
-      <c r="HW4" s="200"/>
-      <c r="HX4" s="200"/>
-      <c r="HY4" s="200"/>
-      <c r="HZ4" s="201"/>
-      <c r="IA4" s="199" t="str">
+      <c r="HU4" s="197"/>
+      <c r="HV4" s="197"/>
+      <c r="HW4" s="197"/>
+      <c r="HX4" s="197"/>
+      <c r="HY4" s="197"/>
+      <c r="HZ4" s="198"/>
+      <c r="IA4" s="196" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 40</v>
       </c>
-      <c r="IB4" s="200"/>
-      <c r="IC4" s="200"/>
-      <c r="ID4" s="200"/>
-      <c r="IE4" s="200"/>
-      <c r="IF4" s="200"/>
-      <c r="IG4" s="201"/>
-      <c r="IH4" s="199" t="str">
+      <c r="IB4" s="197"/>
+      <c r="IC4" s="197"/>
+      <c r="ID4" s="197"/>
+      <c r="IE4" s="197"/>
+      <c r="IF4" s="197"/>
+      <c r="IG4" s="198"/>
+      <c r="IH4" s="196" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 41</v>
       </c>
-      <c r="II4" s="200"/>
-      <c r="IJ4" s="200"/>
-      <c r="IK4" s="200"/>
-      <c r="IL4" s="200"/>
-      <c r="IM4" s="200"/>
-      <c r="IN4" s="201"/>
-      <c r="IO4" s="199" t="str">
+      <c r="II4" s="197"/>
+      <c r="IJ4" s="197"/>
+      <c r="IK4" s="197"/>
+      <c r="IL4" s="197"/>
+      <c r="IM4" s="197"/>
+      <c r="IN4" s="198"/>
+      <c r="IO4" s="196" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 42</v>
       </c>
-      <c r="IP4" s="200"/>
-      <c r="IQ4" s="200"/>
-      <c r="IR4" s="200"/>
-      <c r="IS4" s="200"/>
-      <c r="IT4" s="200"/>
-      <c r="IU4" s="201"/>
+      <c r="IP4" s="197"/>
+      <c r="IQ4" s="197"/>
+      <c r="IR4" s="197"/>
+      <c r="IS4" s="197"/>
+      <c r="IT4" s="197"/>
+      <c r="IU4" s="198"/>
     </row>
-    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
-      <c r="K5" s="210">
+      <c r="K5" s="214">
         <f>K6</f>
         <v>45348</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="210">
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="214">
         <f>R6</f>
         <v>45355</v>
       </c>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="211"/>
-      <c r="Y5" s="213">
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="215"/>
+      <c r="Y5" s="217">
         <f>Y6</f>
         <v>45362</v>
       </c>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="214"/>
-      <c r="AF5" s="205">
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="218"/>
+      <c r="AF5" s="209">
         <f>AF6</f>
         <v>45369</v>
       </c>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="215">
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="210"/>
+      <c r="AM5" s="202">
         <f>AM6</f>
         <v>45376</v>
       </c>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="216"/>
-      <c r="AT5" s="217">
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="204">
         <f>AT6</f>
         <v>45383</v>
       </c>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="197"/>
-      <c r="AY5" s="197"/>
-      <c r="AZ5" s="218"/>
-      <c r="BA5" s="196">
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="205"/>
+      <c r="BA5" s="206">
         <f>BA6</f>
         <v>45390</v>
       </c>
-      <c r="BB5" s="197"/>
-      <c r="BC5" s="197"/>
-      <c r="BD5" s="197"/>
-      <c r="BE5" s="197"/>
-      <c r="BF5" s="197"/>
-      <c r="BG5" s="198"/>
-      <c r="BH5" s="202">
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="200"/>
+      <c r="BE5" s="200"/>
+      <c r="BF5" s="200"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="199">
         <f>BH6</f>
         <v>45397</v>
       </c>
-      <c r="BI5" s="197"/>
-      <c r="BJ5" s="197"/>
-      <c r="BK5" s="197"/>
-      <c r="BL5" s="197"/>
-      <c r="BM5" s="197"/>
-      <c r="BN5" s="203"/>
-      <c r="BO5" s="196">
+      <c r="BI5" s="200"/>
+      <c r="BJ5" s="200"/>
+      <c r="BK5" s="200"/>
+      <c r="BL5" s="200"/>
+      <c r="BM5" s="200"/>
+      <c r="BN5" s="201"/>
+      <c r="BO5" s="206">
         <f>BO6</f>
         <v>45404</v>
       </c>
-      <c r="BP5" s="197"/>
-      <c r="BQ5" s="197"/>
-      <c r="BR5" s="197"/>
-      <c r="BS5" s="197"/>
-      <c r="BT5" s="197"/>
-      <c r="BU5" s="198"/>
-      <c r="BV5" s="202">
+      <c r="BP5" s="200"/>
+      <c r="BQ5" s="200"/>
+      <c r="BR5" s="200"/>
+      <c r="BS5" s="200"/>
+      <c r="BT5" s="200"/>
+      <c r="BU5" s="207"/>
+      <c r="BV5" s="199">
         <f>BV6</f>
         <v>45411</v>
       </c>
-      <c r="BW5" s="197"/>
-      <c r="BX5" s="197"/>
-      <c r="BY5" s="197"/>
-      <c r="BZ5" s="197"/>
-      <c r="CA5" s="197"/>
-      <c r="CB5" s="203"/>
-      <c r="CC5" s="202">
+      <c r="BW5" s="200"/>
+      <c r="BX5" s="200"/>
+      <c r="BY5" s="200"/>
+      <c r="BZ5" s="200"/>
+      <c r="CA5" s="200"/>
+      <c r="CB5" s="201"/>
+      <c r="CC5" s="199">
         <f>CC6</f>
         <v>45418</v>
       </c>
-      <c r="CD5" s="197"/>
-      <c r="CE5" s="197"/>
-      <c r="CF5" s="197"/>
-      <c r="CG5" s="197"/>
-      <c r="CH5" s="197"/>
-      <c r="CI5" s="203"/>
-      <c r="CJ5" s="196">
+      <c r="CD5" s="200"/>
+      <c r="CE5" s="200"/>
+      <c r="CF5" s="200"/>
+      <c r="CG5" s="200"/>
+      <c r="CH5" s="200"/>
+      <c r="CI5" s="201"/>
+      <c r="CJ5" s="206">
         <f>CJ6</f>
         <v>45425</v>
       </c>
-      <c r="CK5" s="197"/>
-      <c r="CL5" s="197"/>
-      <c r="CM5" s="197"/>
-      <c r="CN5" s="197"/>
-      <c r="CO5" s="197"/>
-      <c r="CP5" s="198"/>
-      <c r="CQ5" s="202">
+      <c r="CK5" s="200"/>
+      <c r="CL5" s="200"/>
+      <c r="CM5" s="200"/>
+      <c r="CN5" s="200"/>
+      <c r="CO5" s="200"/>
+      <c r="CP5" s="207"/>
+      <c r="CQ5" s="199">
         <f>CQ6</f>
         <v>45432</v>
       </c>
-      <c r="CR5" s="197"/>
-      <c r="CS5" s="197"/>
-      <c r="CT5" s="197"/>
-      <c r="CU5" s="197"/>
-      <c r="CV5" s="197"/>
-      <c r="CW5" s="203"/>
-      <c r="CX5" s="202">
+      <c r="CR5" s="200"/>
+      <c r="CS5" s="200"/>
+      <c r="CT5" s="200"/>
+      <c r="CU5" s="200"/>
+      <c r="CV5" s="200"/>
+      <c r="CW5" s="201"/>
+      <c r="CX5" s="199">
         <f>CX6</f>
         <v>45439</v>
       </c>
-      <c r="CY5" s="197"/>
-      <c r="CZ5" s="197"/>
-      <c r="DA5" s="197"/>
-      <c r="DB5" s="197"/>
-      <c r="DC5" s="197"/>
-      <c r="DD5" s="203"/>
-      <c r="DE5" s="196">
+      <c r="CY5" s="200"/>
+      <c r="CZ5" s="200"/>
+      <c r="DA5" s="200"/>
+      <c r="DB5" s="200"/>
+      <c r="DC5" s="200"/>
+      <c r="DD5" s="201"/>
+      <c r="DE5" s="206">
         <f>DE6</f>
         <v>45446</v>
       </c>
-      <c r="DF5" s="197"/>
-      <c r="DG5" s="197"/>
-      <c r="DH5" s="197"/>
-      <c r="DI5" s="197"/>
-      <c r="DJ5" s="197"/>
-      <c r="DK5" s="198"/>
-      <c r="DL5" s="202">
+      <c r="DF5" s="200"/>
+      <c r="DG5" s="200"/>
+      <c r="DH5" s="200"/>
+      <c r="DI5" s="200"/>
+      <c r="DJ5" s="200"/>
+      <c r="DK5" s="207"/>
+      <c r="DL5" s="199">
         <f>DL6</f>
         <v>45453</v>
       </c>
-      <c r="DM5" s="197"/>
-      <c r="DN5" s="197"/>
-      <c r="DO5" s="197"/>
-      <c r="DP5" s="197"/>
-      <c r="DQ5" s="197"/>
-      <c r="DR5" s="203"/>
-      <c r="DS5" s="202">
+      <c r="DM5" s="200"/>
+      <c r="DN5" s="200"/>
+      <c r="DO5" s="200"/>
+      <c r="DP5" s="200"/>
+      <c r="DQ5" s="200"/>
+      <c r="DR5" s="201"/>
+      <c r="DS5" s="199">
         <f>DS6</f>
         <v>45460</v>
       </c>
-      <c r="DT5" s="197"/>
-      <c r="DU5" s="197"/>
-      <c r="DV5" s="197"/>
-      <c r="DW5" s="197"/>
-      <c r="DX5" s="197"/>
-      <c r="DY5" s="203"/>
-      <c r="DZ5" s="196">
+      <c r="DT5" s="200"/>
+      <c r="DU5" s="200"/>
+      <c r="DV5" s="200"/>
+      <c r="DW5" s="200"/>
+      <c r="DX5" s="200"/>
+      <c r="DY5" s="201"/>
+      <c r="DZ5" s="206">
         <f>DZ6</f>
         <v>45467</v>
       </c>
-      <c r="EA5" s="197"/>
-      <c r="EB5" s="197"/>
-      <c r="EC5" s="197"/>
-      <c r="ED5" s="197"/>
-      <c r="EE5" s="197"/>
-      <c r="EF5" s="198"/>
-      <c r="EG5" s="202">
+      <c r="EA5" s="200"/>
+      <c r="EB5" s="200"/>
+      <c r="EC5" s="200"/>
+      <c r="ED5" s="200"/>
+      <c r="EE5" s="200"/>
+      <c r="EF5" s="207"/>
+      <c r="EG5" s="199">
         <f>EG6</f>
         <v>45474</v>
       </c>
-      <c r="EH5" s="197"/>
-      <c r="EI5" s="197"/>
-      <c r="EJ5" s="197"/>
-      <c r="EK5" s="197"/>
-      <c r="EL5" s="197"/>
-      <c r="EM5" s="203"/>
-      <c r="EN5" s="202">
+      <c r="EH5" s="200"/>
+      <c r="EI5" s="200"/>
+      <c r="EJ5" s="200"/>
+      <c r="EK5" s="200"/>
+      <c r="EL5" s="200"/>
+      <c r="EM5" s="201"/>
+      <c r="EN5" s="199">
         <f>EN6</f>
         <v>45481</v>
       </c>
-      <c r="EO5" s="197"/>
-      <c r="EP5" s="197"/>
-      <c r="EQ5" s="197"/>
-      <c r="ER5" s="197"/>
-      <c r="ES5" s="197"/>
-      <c r="ET5" s="203"/>
-      <c r="EU5" s="196">
+      <c r="EO5" s="200"/>
+      <c r="EP5" s="200"/>
+      <c r="EQ5" s="200"/>
+      <c r="ER5" s="200"/>
+      <c r="ES5" s="200"/>
+      <c r="ET5" s="201"/>
+      <c r="EU5" s="206">
         <f>EU6</f>
         <v>45488</v>
       </c>
-      <c r="EV5" s="197"/>
-      <c r="EW5" s="197"/>
-      <c r="EX5" s="197"/>
-      <c r="EY5" s="197"/>
-      <c r="EZ5" s="197"/>
-      <c r="FA5" s="198"/>
-      <c r="FB5" s="202">
+      <c r="EV5" s="200"/>
+      <c r="EW5" s="200"/>
+      <c r="EX5" s="200"/>
+      <c r="EY5" s="200"/>
+      <c r="EZ5" s="200"/>
+      <c r="FA5" s="207"/>
+      <c r="FB5" s="199">
         <f>FB6</f>
         <v>45495</v>
       </c>
-      <c r="FC5" s="197"/>
-      <c r="FD5" s="197"/>
-      <c r="FE5" s="197"/>
-      <c r="FF5" s="197"/>
-      <c r="FG5" s="197"/>
-      <c r="FH5" s="203"/>
-      <c r="FI5" s="202">
+      <c r="FC5" s="200"/>
+      <c r="FD5" s="200"/>
+      <c r="FE5" s="200"/>
+      <c r="FF5" s="200"/>
+      <c r="FG5" s="200"/>
+      <c r="FH5" s="201"/>
+      <c r="FI5" s="199">
         <f>FI6</f>
         <v>45502</v>
       </c>
-      <c r="FJ5" s="197"/>
-      <c r="FK5" s="197"/>
-      <c r="FL5" s="197"/>
-      <c r="FM5" s="197"/>
-      <c r="FN5" s="197"/>
-      <c r="FO5" s="203"/>
-      <c r="FP5" s="196">
+      <c r="FJ5" s="200"/>
+      <c r="FK5" s="200"/>
+      <c r="FL5" s="200"/>
+      <c r="FM5" s="200"/>
+      <c r="FN5" s="200"/>
+      <c r="FO5" s="201"/>
+      <c r="FP5" s="206">
         <f>FP6</f>
         <v>45509</v>
       </c>
-      <c r="FQ5" s="197"/>
-      <c r="FR5" s="197"/>
-      <c r="FS5" s="197"/>
-      <c r="FT5" s="197"/>
-      <c r="FU5" s="197"/>
-      <c r="FV5" s="198"/>
-      <c r="FW5" s="202">
+      <c r="FQ5" s="200"/>
+      <c r="FR5" s="200"/>
+      <c r="FS5" s="200"/>
+      <c r="FT5" s="200"/>
+      <c r="FU5" s="200"/>
+      <c r="FV5" s="207"/>
+      <c r="FW5" s="199">
         <f>FW6</f>
         <v>45516</v>
       </c>
-      <c r="FX5" s="197"/>
-      <c r="FY5" s="197"/>
-      <c r="FZ5" s="197"/>
-      <c r="GA5" s="197"/>
-      <c r="GB5" s="197"/>
-      <c r="GC5" s="203"/>
-      <c r="GD5" s="202">
+      <c r="FX5" s="200"/>
+      <c r="FY5" s="200"/>
+      <c r="FZ5" s="200"/>
+      <c r="GA5" s="200"/>
+      <c r="GB5" s="200"/>
+      <c r="GC5" s="201"/>
+      <c r="GD5" s="199">
         <f>GD6</f>
         <v>45523</v>
       </c>
-      <c r="GE5" s="197"/>
-      <c r="GF5" s="197"/>
-      <c r="GG5" s="197"/>
-      <c r="GH5" s="197"/>
-      <c r="GI5" s="197"/>
-      <c r="GJ5" s="203"/>
-      <c r="GK5" s="196">
+      <c r="GE5" s="200"/>
+      <c r="GF5" s="200"/>
+      <c r="GG5" s="200"/>
+      <c r="GH5" s="200"/>
+      <c r="GI5" s="200"/>
+      <c r="GJ5" s="201"/>
+      <c r="GK5" s="206">
         <f>GK6</f>
         <v>45530</v>
       </c>
-      <c r="GL5" s="197"/>
-      <c r="GM5" s="197"/>
-      <c r="GN5" s="197"/>
-      <c r="GO5" s="197"/>
-      <c r="GP5" s="197"/>
-      <c r="GQ5" s="198"/>
-      <c r="GR5" s="202">
+      <c r="GL5" s="200"/>
+      <c r="GM5" s="200"/>
+      <c r="GN5" s="200"/>
+      <c r="GO5" s="200"/>
+      <c r="GP5" s="200"/>
+      <c r="GQ5" s="207"/>
+      <c r="GR5" s="199">
         <f>GR6</f>
         <v>45537</v>
       </c>
-      <c r="GS5" s="197"/>
-      <c r="GT5" s="197"/>
-      <c r="GU5" s="197"/>
-      <c r="GV5" s="197"/>
-      <c r="GW5" s="197"/>
-      <c r="GX5" s="203"/>
-      <c r="GY5" s="196">
+      <c r="GS5" s="200"/>
+      <c r="GT5" s="200"/>
+      <c r="GU5" s="200"/>
+      <c r="GV5" s="200"/>
+      <c r="GW5" s="200"/>
+      <c r="GX5" s="201"/>
+      <c r="GY5" s="206">
         <f>GY6</f>
         <v>45544</v>
       </c>
-      <c r="GZ5" s="197"/>
-      <c r="HA5" s="197"/>
-      <c r="HB5" s="197"/>
-      <c r="HC5" s="197"/>
-      <c r="HD5" s="197"/>
-      <c r="HE5" s="198"/>
-      <c r="HF5" s="202">
+      <c r="GZ5" s="200"/>
+      <c r="HA5" s="200"/>
+      <c r="HB5" s="200"/>
+      <c r="HC5" s="200"/>
+      <c r="HD5" s="200"/>
+      <c r="HE5" s="207"/>
+      <c r="HF5" s="199">
         <f>HF6</f>
         <v>45551</v>
       </c>
-      <c r="HG5" s="197"/>
-      <c r="HH5" s="197"/>
-      <c r="HI5" s="197"/>
-      <c r="HJ5" s="197"/>
-      <c r="HK5" s="197"/>
-      <c r="HL5" s="203"/>
-      <c r="HM5" s="196">
+      <c r="HG5" s="200"/>
+      <c r="HH5" s="200"/>
+      <c r="HI5" s="200"/>
+      <c r="HJ5" s="200"/>
+      <c r="HK5" s="200"/>
+      <c r="HL5" s="201"/>
+      <c r="HM5" s="206">
         <f>HM6</f>
         <v>45558</v>
       </c>
-      <c r="HN5" s="197"/>
-      <c r="HO5" s="197"/>
-      <c r="HP5" s="197"/>
-      <c r="HQ5" s="197"/>
-      <c r="HR5" s="197"/>
-      <c r="HS5" s="198"/>
-      <c r="HT5" s="202">
+      <c r="HN5" s="200"/>
+      <c r="HO5" s="200"/>
+      <c r="HP5" s="200"/>
+      <c r="HQ5" s="200"/>
+      <c r="HR5" s="200"/>
+      <c r="HS5" s="207"/>
+      <c r="HT5" s="199">
         <f>HT6</f>
         <v>45565</v>
       </c>
-      <c r="HU5" s="197"/>
-      <c r="HV5" s="197"/>
-      <c r="HW5" s="197"/>
-      <c r="HX5" s="197"/>
-      <c r="HY5" s="197"/>
-      <c r="HZ5" s="203"/>
-      <c r="IA5" s="196">
+      <c r="HU5" s="200"/>
+      <c r="HV5" s="200"/>
+      <c r="HW5" s="200"/>
+      <c r="HX5" s="200"/>
+      <c r="HY5" s="200"/>
+      <c r="HZ5" s="201"/>
+      <c r="IA5" s="206">
         <f>IA6</f>
         <v>45572</v>
       </c>
-      <c r="IB5" s="197"/>
-      <c r="IC5" s="197"/>
-      <c r="ID5" s="197"/>
-      <c r="IE5" s="197"/>
-      <c r="IF5" s="197"/>
-      <c r="IG5" s="198"/>
-      <c r="IH5" s="202">
+      <c r="IB5" s="200"/>
+      <c r="IC5" s="200"/>
+      <c r="ID5" s="200"/>
+      <c r="IE5" s="200"/>
+      <c r="IF5" s="200"/>
+      <c r="IG5" s="207"/>
+      <c r="IH5" s="199">
         <f>IH6</f>
         <v>45579</v>
       </c>
-      <c r="II5" s="197"/>
-      <c r="IJ5" s="197"/>
-      <c r="IK5" s="197"/>
-      <c r="IL5" s="197"/>
-      <c r="IM5" s="197"/>
-      <c r="IN5" s="203"/>
-      <c r="IO5" s="196">
+      <c r="II5" s="200"/>
+      <c r="IJ5" s="200"/>
+      <c r="IK5" s="200"/>
+      <c r="IL5" s="200"/>
+      <c r="IM5" s="200"/>
+      <c r="IN5" s="201"/>
+      <c r="IO5" s="206">
         <f>IO6</f>
         <v>45586</v>
       </c>
-      <c r="IP5" s="197"/>
-      <c r="IQ5" s="197"/>
-      <c r="IR5" s="197"/>
-      <c r="IS5" s="197"/>
-      <c r="IT5" s="197"/>
-      <c r="IU5" s="198"/>
+      <c r="IP5" s="200"/>
+      <c r="IQ5" s="200"/>
+      <c r="IR5" s="200"/>
+      <c r="IS5" s="200"/>
+      <c r="IT5" s="200"/>
+      <c r="IU5" s="207"/>
     </row>
-    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="84"/>
       <c r="K6" s="33">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="IU6" s="45"/>
     </row>
-    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="IU7" s="31"/>
     </row>
-    <row r="8" spans="1:255" s="176" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:255" s="176" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="169" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -6442,7 +6442,7 @@
       <c r="IT8" s="172"/>
       <c r="IU8" s="172"/>
     </row>
-    <row r="9" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="143">
         <v>1</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="IT9" s="152"/>
       <c r="IU9" s="152"/>
     </row>
-    <row r="10" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="143" t="str">
         <f t="shared" ref="A10:A19" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1</v>
@@ -6989,7 +6989,7 @@
       <c r="IT10" s="152"/>
       <c r="IU10" s="152"/>
     </row>
-    <row r="11" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.1</v>
@@ -7263,7 +7263,7 @@
       <c r="IT11" s="152"/>
       <c r="IU11" s="152"/>
     </row>
-    <row r="12" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.2</v>
@@ -7538,7 +7538,7 @@
       <c r="IT12" s="152"/>
       <c r="IU12" s="152"/>
     </row>
-    <row r="13" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.3</v>
@@ -7812,7 +7812,7 @@
       <c r="IT13" s="152"/>
       <c r="IU13" s="152"/>
     </row>
-    <row r="14" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.4</v>
@@ -8089,7 +8089,7 @@
       <c r="IT14" s="152"/>
       <c r="IU14" s="152"/>
     </row>
-    <row r="15" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.5</v>
@@ -8366,7 +8366,7 @@
       <c r="IT15" s="152"/>
       <c r="IU15" s="152"/>
     </row>
-    <row r="16" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.6</v>
@@ -8642,7 +8642,7 @@
       <c r="IT16" s="152"/>
       <c r="IU16" s="152"/>
     </row>
-    <row r="17" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.7</v>
@@ -8918,7 +8918,7 @@
       <c r="IT17" s="152"/>
       <c r="IU17" s="152"/>
     </row>
-    <row r="18" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.8</v>
@@ -9192,7 +9192,7 @@
       <c r="IT18" s="152"/>
       <c r="IU18" s="152"/>
     </row>
-    <row r="19" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.9</v>
@@ -9468,7 +9468,7 @@
       <c r="IT19" s="152"/>
       <c r="IU19" s="152"/>
     </row>
-    <row r="20" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="143"/>
       <c r="B20" s="144" t="s">
         <v>32</v>
@@ -9742,7 +9742,7 @@
       <c r="IT20" s="152"/>
       <c r="IU20" s="152"/>
     </row>
-    <row r="21" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="143"/>
       <c r="B21" s="144" t="s">
         <v>31</v>
@@ -10016,7 +10016,7 @@
       <c r="IT21" s="152"/>
       <c r="IU21" s="152"/>
     </row>
-    <row r="22" spans="1:255" s="93" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:255" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="159">
         <v>2</v>
       </c>
@@ -10277,7 +10277,7 @@
       <c r="IT22" s="92"/>
       <c r="IU22" s="92"/>
     </row>
-    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="95">
         <v>2</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="IT23" s="104"/>
       <c r="IU23" s="104"/>
     </row>
-    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="95">
         <v>2.1</v>
       </c>
@@ -10825,7 +10825,7 @@
       <c r="IT24" s="104"/>
       <c r="IU24" s="104"/>
     </row>
-    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="95">
         <v>2.2000000000000002</v>
       </c>
@@ -11099,7 +11099,7 @@
       <c r="IT25" s="104"/>
       <c r="IU25" s="104"/>
     </row>
-    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="95">
         <v>2.2999999999999998</v>
       </c>
@@ -11373,7 +11373,7 @@
       <c r="IT26" s="104"/>
       <c r="IU26" s="104"/>
     </row>
-    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="95">
         <v>2.4</v>
       </c>
@@ -11647,7 +11647,7 @@
       <c r="IT27" s="104"/>
       <c r="IU27" s="104"/>
     </row>
-    <row r="28" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:255" s="105" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="95">
         <v>2.5</v>
       </c>
@@ -11923,7 +11923,7 @@
       <c r="IT28" s="104"/>
       <c r="IU28" s="104"/>
     </row>
-    <row r="29" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="95">
         <v>2.6</v>
       </c>
@@ -12199,7 +12199,7 @@
       <c r="IT29" s="104"/>
       <c r="IU29" s="104"/>
     </row>
-    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
         <v>2.7</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="IT30" s="104"/>
       <c r="IU30" s="104"/>
     </row>
-    <row r="31" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:255" s="105" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
         <v>2.8</v>
       </c>
@@ -12749,7 +12749,7 @@
       <c r="IT31" s="104"/>
       <c r="IU31" s="104"/>
     </row>
-    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="95" t="s">
         <v>65</v>
       </c>
@@ -13023,7 +13023,7 @@
       <c r="IT32" s="104"/>
       <c r="IU32" s="104"/>
     </row>
-    <row r="33" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="95" t="s">
         <v>66</v>
       </c>
@@ -13297,7 +13297,7 @@
       <c r="IT33" s="104"/>
       <c r="IU33" s="104"/>
     </row>
-    <row r="34" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="95" t="s">
         <v>67</v>
       </c>
@@ -13571,7 +13571,7 @@
       <c r="IT34" s="104"/>
       <c r="IU34" s="104"/>
     </row>
-    <row r="35" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="95"/>
       <c r="B35" s="96" t="s">
         <v>37</v>
@@ -13845,7 +13845,7 @@
       <c r="IT35" s="104"/>
       <c r="IU35" s="104"/>
     </row>
-    <row r="36" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="95"/>
       <c r="B36" s="96" t="s">
         <v>36</v>
@@ -14119,7 +14119,7 @@
       <c r="IT36" s="104"/>
       <c r="IU36" s="104"/>
     </row>
-    <row r="37" spans="1:255" s="113" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:255" s="113" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="106">
         <v>3</v>
       </c>
@@ -14380,7 +14380,7 @@
       <c r="IT37" s="109"/>
       <c r="IU37" s="109"/>
     </row>
-    <row r="38" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="114">
         <v>3</v>
       </c>
@@ -14654,7 +14654,7 @@
       <c r="IT38" s="120"/>
       <c r="IU38" s="120"/>
     </row>
-    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="114">
         <v>3.1</v>
       </c>
@@ -14928,7 +14928,7 @@
       <c r="IT39" s="120"/>
       <c r="IU39" s="120"/>
     </row>
-    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114">
         <v>3.2</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="IT40" s="120"/>
       <c r="IU40" s="120"/>
     </row>
-    <row r="41" spans="1:255" s="121" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:255" s="121" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="114">
         <v>3.3</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="IT41" s="120"/>
       <c r="IU41" s="120"/>
     </row>
-    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="114">
         <v>3.4</v>
       </c>
@@ -15750,7 +15750,7 @@
       <c r="IT42" s="120"/>
       <c r="IU42" s="120"/>
     </row>
-    <row r="43" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
         <v>68</v>
       </c>
@@ -16024,7 +16024,7 @@
       <c r="IT43" s="120"/>
       <c r="IU43" s="120"/>
     </row>
-    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="114" t="s">
         <v>69</v>
       </c>
@@ -16298,7 +16298,7 @@
       <c r="IT44" s="120"/>
       <c r="IU44" s="120"/>
     </row>
-    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="114" t="s">
         <v>70</v>
       </c>
@@ -16572,7 +16572,7 @@
       <c r="IT45" s="120"/>
       <c r="IU45" s="120"/>
     </row>
-    <row r="46" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="114"/>
       <c r="B46" s="154" t="s">
         <v>29</v>
@@ -16846,7 +16846,7 @@
       <c r="IT46" s="120"/>
       <c r="IU46" s="120"/>
     </row>
-    <row r="47" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="114"/>
       <c r="B47" s="154" t="s">
         <v>30</v>
@@ -17120,7 +17120,7 @@
       <c r="IT47" s="120"/>
       <c r="IU47" s="120"/>
     </row>
-    <row r="48" spans="1:255" s="131" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:255" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="122">
         <v>4</v>
       </c>
@@ -17381,7 +17381,7 @@
       <c r="IT48" s="125"/>
       <c r="IU48" s="125"/>
     </row>
-    <row r="49" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -17656,7 +17656,7 @@
       <c r="IT49" s="141"/>
       <c r="IU49" s="141"/>
     </row>
-    <row r="50" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -17933,7 +17933,7 @@
       <c r="IT50" s="141"/>
       <c r="IU50" s="141"/>
     </row>
-    <row r="51" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -18209,7 +18209,7 @@
       <c r="IT51" s="141"/>
       <c r="IU51" s="141"/>
     </row>
-    <row r="52" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -18486,7 +18486,7 @@
       <c r="IT52" s="141"/>
       <c r="IU52" s="141"/>
     </row>
-    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>1</v>
       </c>
@@ -18745,7 +18745,7 @@
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
     </row>
-    <row r="55" spans="1:255" s="8" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:255" s="8" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="66" t="s">
         <v>16</v>
       </c>
@@ -19000,7 +19000,7 @@
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
     </row>
-    <row r="56" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -19264,7 +19264,7 @@
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
     </row>
-    <row r="57" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -19536,7 +19536,7 @@
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
     </row>
-    <row r="58" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -19808,7 +19808,7 @@
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
     </row>
-    <row r="59" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -20078,7 +20078,7 @@
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
     </row>
-    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="80" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
@@ -20088,54 +20088,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -20152,20 +20123,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H55:H59 H8:H52">
@@ -20206,7 +20206,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Start Date." sqref="I4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7F3FA-AF89-45F9-8B2E-8C92B583D73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6EAB2A-60D2-40D4-8909-DAF9BB45D606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2627,6 +2627,15 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,28 +2648,7 @@
     <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2697,6 +2685,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3295,8 +3295,8 @@
   <dimension ref="A1:IU62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3375,21 +3375,21 @@
       <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
-      <c r="AP1" s="208"/>
-      <c r="AQ1" s="208"/>
-      <c r="AR1" s="208"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
+      <c r="AK1" s="204"/>
+      <c r="AL1" s="204"/>
+      <c r="AM1" s="204"/>
+      <c r="AN1" s="204"/>
+      <c r="AO1" s="204"/>
+      <c r="AP1" s="204"/>
+      <c r="AQ1" s="204"/>
+      <c r="AR1" s="204"/>
     </row>
     <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
@@ -3469,729 +3469,729 @@
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="211">
+      <c r="C4" s="207">
         <v>45295</v>
       </c>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
       <c r="H4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="74">
         <v>9</v>
       </c>
-      <c r="K4" s="196"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="196" t="str">
+      <c r="K4" s="199"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="199" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="196" t="str">
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="199" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="196" t="str">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="199" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AG4" s="197"/>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="196" t="str">
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
+      <c r="AL4" s="201"/>
+      <c r="AM4" s="199" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="AN4" s="197"/>
-      <c r="AO4" s="197"/>
-      <c r="AP4" s="197"/>
-      <c r="AQ4" s="197"/>
-      <c r="AR4" s="197"/>
-      <c r="AS4" s="198"/>
-      <c r="AT4" s="196" t="str">
+      <c r="AN4" s="200"/>
+      <c r="AO4" s="200"/>
+      <c r="AP4" s="200"/>
+      <c r="AQ4" s="200"/>
+      <c r="AR4" s="200"/>
+      <c r="AS4" s="201"/>
+      <c r="AT4" s="199" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AU4" s="197"/>
-      <c r="AV4" s="197"/>
-      <c r="AW4" s="197"/>
-      <c r="AX4" s="197"/>
-      <c r="AY4" s="197"/>
-      <c r="AZ4" s="198"/>
-      <c r="BA4" s="196" t="str">
+      <c r="AU4" s="200"/>
+      <c r="AV4" s="200"/>
+      <c r="AW4" s="200"/>
+      <c r="AX4" s="200"/>
+      <c r="AY4" s="200"/>
+      <c r="AZ4" s="201"/>
+      <c r="BA4" s="199" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="BB4" s="197"/>
-      <c r="BC4" s="197"/>
-      <c r="BD4" s="197"/>
-      <c r="BE4" s="197"/>
-      <c r="BF4" s="197"/>
-      <c r="BG4" s="198"/>
-      <c r="BH4" s="196" t="str">
+      <c r="BB4" s="200"/>
+      <c r="BC4" s="200"/>
+      <c r="BD4" s="200"/>
+      <c r="BE4" s="200"/>
+      <c r="BF4" s="200"/>
+      <c r="BG4" s="201"/>
+      <c r="BH4" s="199" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="BI4" s="197"/>
-      <c r="BJ4" s="197"/>
-      <c r="BK4" s="197"/>
-      <c r="BL4" s="197"/>
-      <c r="BM4" s="197"/>
-      <c r="BN4" s="198"/>
-      <c r="BO4" s="196" t="str">
+      <c r="BI4" s="200"/>
+      <c r="BJ4" s="200"/>
+      <c r="BK4" s="200"/>
+      <c r="BL4" s="200"/>
+      <c r="BM4" s="200"/>
+      <c r="BN4" s="201"/>
+      <c r="BO4" s="199" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="BP4" s="197"/>
-      <c r="BQ4" s="197"/>
-      <c r="BR4" s="197"/>
-      <c r="BS4" s="197"/>
-      <c r="BT4" s="197"/>
-      <c r="BU4" s="198"/>
-      <c r="BV4" s="196" t="str">
+      <c r="BP4" s="200"/>
+      <c r="BQ4" s="200"/>
+      <c r="BR4" s="200"/>
+      <c r="BS4" s="200"/>
+      <c r="BT4" s="200"/>
+      <c r="BU4" s="201"/>
+      <c r="BV4" s="199" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="BW4" s="197"/>
-      <c r="BX4" s="197"/>
-      <c r="BY4" s="197"/>
-      <c r="BZ4" s="197"/>
-      <c r="CA4" s="197"/>
-      <c r="CB4" s="198"/>
-      <c r="CC4" s="196" t="str">
+      <c r="BW4" s="200"/>
+      <c r="BX4" s="200"/>
+      <c r="BY4" s="200"/>
+      <c r="BZ4" s="200"/>
+      <c r="CA4" s="200"/>
+      <c r="CB4" s="201"/>
+      <c r="CC4" s="199" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="CD4" s="197"/>
-      <c r="CE4" s="197"/>
-      <c r="CF4" s="197"/>
-      <c r="CG4" s="197"/>
-      <c r="CH4" s="197"/>
-      <c r="CI4" s="198"/>
-      <c r="CJ4" s="196" t="str">
+      <c r="CD4" s="200"/>
+      <c r="CE4" s="200"/>
+      <c r="CF4" s="200"/>
+      <c r="CG4" s="200"/>
+      <c r="CH4" s="200"/>
+      <c r="CI4" s="201"/>
+      <c r="CJ4" s="199" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="CK4" s="197"/>
-      <c r="CL4" s="197"/>
-      <c r="CM4" s="197"/>
-      <c r="CN4" s="197"/>
-      <c r="CO4" s="197"/>
-      <c r="CP4" s="198"/>
-      <c r="CQ4" s="196" t="str">
+      <c r="CK4" s="200"/>
+      <c r="CL4" s="200"/>
+      <c r="CM4" s="200"/>
+      <c r="CN4" s="200"/>
+      <c r="CO4" s="200"/>
+      <c r="CP4" s="201"/>
+      <c r="CQ4" s="199" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="CR4" s="197"/>
-      <c r="CS4" s="197"/>
-      <c r="CT4" s="197"/>
-      <c r="CU4" s="197"/>
-      <c r="CV4" s="197"/>
-      <c r="CW4" s="198"/>
-      <c r="CX4" s="196" t="str">
+      <c r="CR4" s="200"/>
+      <c r="CS4" s="200"/>
+      <c r="CT4" s="200"/>
+      <c r="CU4" s="200"/>
+      <c r="CV4" s="200"/>
+      <c r="CW4" s="201"/>
+      <c r="CX4" s="199" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="CY4" s="197"/>
-      <c r="CZ4" s="197"/>
-      <c r="DA4" s="197"/>
-      <c r="DB4" s="197"/>
-      <c r="DC4" s="197"/>
-      <c r="DD4" s="198"/>
-      <c r="DE4" s="196" t="str">
+      <c r="CY4" s="200"/>
+      <c r="CZ4" s="200"/>
+      <c r="DA4" s="200"/>
+      <c r="DB4" s="200"/>
+      <c r="DC4" s="200"/>
+      <c r="DD4" s="201"/>
+      <c r="DE4" s="199" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="DF4" s="197"/>
-      <c r="DG4" s="197"/>
-      <c r="DH4" s="197"/>
-      <c r="DI4" s="197"/>
-      <c r="DJ4" s="197"/>
-      <c r="DK4" s="198"/>
-      <c r="DL4" s="196" t="str">
+      <c r="DF4" s="200"/>
+      <c r="DG4" s="200"/>
+      <c r="DH4" s="200"/>
+      <c r="DI4" s="200"/>
+      <c r="DJ4" s="200"/>
+      <c r="DK4" s="201"/>
+      <c r="DL4" s="199" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="DM4" s="197"/>
-      <c r="DN4" s="197"/>
-      <c r="DO4" s="197"/>
-      <c r="DP4" s="197"/>
-      <c r="DQ4" s="197"/>
-      <c r="DR4" s="198"/>
-      <c r="DS4" s="196" t="str">
+      <c r="DM4" s="200"/>
+      <c r="DN4" s="200"/>
+      <c r="DO4" s="200"/>
+      <c r="DP4" s="200"/>
+      <c r="DQ4" s="200"/>
+      <c r="DR4" s="201"/>
+      <c r="DS4" s="199" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="DT4" s="197"/>
-      <c r="DU4" s="197"/>
-      <c r="DV4" s="197"/>
-      <c r="DW4" s="197"/>
-      <c r="DX4" s="197"/>
-      <c r="DY4" s="198"/>
-      <c r="DZ4" s="196" t="str">
+      <c r="DT4" s="200"/>
+      <c r="DU4" s="200"/>
+      <c r="DV4" s="200"/>
+      <c r="DW4" s="200"/>
+      <c r="DX4" s="200"/>
+      <c r="DY4" s="201"/>
+      <c r="DZ4" s="199" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="EA4" s="197"/>
-      <c r="EB4" s="197"/>
-      <c r="EC4" s="197"/>
-      <c r="ED4" s="197"/>
-      <c r="EE4" s="197"/>
-      <c r="EF4" s="198"/>
-      <c r="EG4" s="196" t="str">
+      <c r="EA4" s="200"/>
+      <c r="EB4" s="200"/>
+      <c r="EC4" s="200"/>
+      <c r="ED4" s="200"/>
+      <c r="EE4" s="200"/>
+      <c r="EF4" s="201"/>
+      <c r="EG4" s="199" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="EH4" s="197"/>
-      <c r="EI4" s="197"/>
-      <c r="EJ4" s="197"/>
-      <c r="EK4" s="197"/>
-      <c r="EL4" s="197"/>
-      <c r="EM4" s="198"/>
-      <c r="EN4" s="196" t="str">
+      <c r="EH4" s="200"/>
+      <c r="EI4" s="200"/>
+      <c r="EJ4" s="200"/>
+      <c r="EK4" s="200"/>
+      <c r="EL4" s="200"/>
+      <c r="EM4" s="201"/>
+      <c r="EN4" s="199" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="EO4" s="197"/>
-      <c r="EP4" s="197"/>
-      <c r="EQ4" s="197"/>
-      <c r="ER4" s="197"/>
-      <c r="ES4" s="197"/>
-      <c r="ET4" s="198"/>
-      <c r="EU4" s="196" t="str">
+      <c r="EO4" s="200"/>
+      <c r="EP4" s="200"/>
+      <c r="EQ4" s="200"/>
+      <c r="ER4" s="200"/>
+      <c r="ES4" s="200"/>
+      <c r="ET4" s="201"/>
+      <c r="EU4" s="199" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="EV4" s="197"/>
-      <c r="EW4" s="197"/>
-      <c r="EX4" s="197"/>
-      <c r="EY4" s="197"/>
-      <c r="EZ4" s="197"/>
-      <c r="FA4" s="198"/>
-      <c r="FB4" s="196" t="str">
+      <c r="EV4" s="200"/>
+      <c r="EW4" s="200"/>
+      <c r="EX4" s="200"/>
+      <c r="EY4" s="200"/>
+      <c r="EZ4" s="200"/>
+      <c r="FA4" s="201"/>
+      <c r="FB4" s="199" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="FC4" s="197"/>
-      <c r="FD4" s="197"/>
-      <c r="FE4" s="197"/>
-      <c r="FF4" s="197"/>
-      <c r="FG4" s="197"/>
-      <c r="FH4" s="198"/>
-      <c r="FI4" s="196" t="str">
+      <c r="FC4" s="200"/>
+      <c r="FD4" s="200"/>
+      <c r="FE4" s="200"/>
+      <c r="FF4" s="200"/>
+      <c r="FG4" s="200"/>
+      <c r="FH4" s="201"/>
+      <c r="FI4" s="199" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="FJ4" s="197"/>
-      <c r="FK4" s="197"/>
-      <c r="FL4" s="197"/>
-      <c r="FM4" s="197"/>
-      <c r="FN4" s="197"/>
-      <c r="FO4" s="198"/>
-      <c r="FP4" s="196" t="str">
+      <c r="FJ4" s="200"/>
+      <c r="FK4" s="200"/>
+      <c r="FL4" s="200"/>
+      <c r="FM4" s="200"/>
+      <c r="FN4" s="200"/>
+      <c r="FO4" s="201"/>
+      <c r="FP4" s="199" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="FQ4" s="197"/>
-      <c r="FR4" s="197"/>
-      <c r="FS4" s="197"/>
-      <c r="FT4" s="197"/>
-      <c r="FU4" s="197"/>
-      <c r="FV4" s="198"/>
-      <c r="FW4" s="196" t="str">
+      <c r="FQ4" s="200"/>
+      <c r="FR4" s="200"/>
+      <c r="FS4" s="200"/>
+      <c r="FT4" s="200"/>
+      <c r="FU4" s="200"/>
+      <c r="FV4" s="201"/>
+      <c r="FW4" s="199" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="FX4" s="197"/>
-      <c r="FY4" s="197"/>
-      <c r="FZ4" s="197"/>
-      <c r="GA4" s="197"/>
-      <c r="GB4" s="197"/>
-      <c r="GC4" s="198"/>
-      <c r="GD4" s="196" t="str">
+      <c r="FX4" s="200"/>
+      <c r="FY4" s="200"/>
+      <c r="FZ4" s="200"/>
+      <c r="GA4" s="200"/>
+      <c r="GB4" s="200"/>
+      <c r="GC4" s="201"/>
+      <c r="GD4" s="199" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="GE4" s="197"/>
-      <c r="GF4" s="197"/>
-      <c r="GG4" s="197"/>
-      <c r="GH4" s="197"/>
-      <c r="GI4" s="197"/>
-      <c r="GJ4" s="198"/>
-      <c r="GK4" s="196" t="str">
+      <c r="GE4" s="200"/>
+      <c r="GF4" s="200"/>
+      <c r="GG4" s="200"/>
+      <c r="GH4" s="200"/>
+      <c r="GI4" s="200"/>
+      <c r="GJ4" s="201"/>
+      <c r="GK4" s="199" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="GL4" s="197"/>
-      <c r="GM4" s="197"/>
-      <c r="GN4" s="197"/>
-      <c r="GO4" s="197"/>
-      <c r="GP4" s="197"/>
-      <c r="GQ4" s="198"/>
-      <c r="GR4" s="196" t="str">
+      <c r="GL4" s="200"/>
+      <c r="GM4" s="200"/>
+      <c r="GN4" s="200"/>
+      <c r="GO4" s="200"/>
+      <c r="GP4" s="200"/>
+      <c r="GQ4" s="201"/>
+      <c r="GR4" s="199" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="GS4" s="197"/>
-      <c r="GT4" s="197"/>
-      <c r="GU4" s="197"/>
-      <c r="GV4" s="197"/>
-      <c r="GW4" s="197"/>
-      <c r="GX4" s="198"/>
-      <c r="GY4" s="196" t="str">
+      <c r="GS4" s="200"/>
+      <c r="GT4" s="200"/>
+      <c r="GU4" s="200"/>
+      <c r="GV4" s="200"/>
+      <c r="GW4" s="200"/>
+      <c r="GX4" s="201"/>
+      <c r="GY4" s="199" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 36</v>
       </c>
-      <c r="GZ4" s="197"/>
-      <c r="HA4" s="197"/>
-      <c r="HB4" s="197"/>
-      <c r="HC4" s="197"/>
-      <c r="HD4" s="197"/>
-      <c r="HE4" s="198"/>
-      <c r="HF4" s="196" t="str">
+      <c r="GZ4" s="200"/>
+      <c r="HA4" s="200"/>
+      <c r="HB4" s="200"/>
+      <c r="HC4" s="200"/>
+      <c r="HD4" s="200"/>
+      <c r="HE4" s="201"/>
+      <c r="HF4" s="199" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 37</v>
       </c>
-      <c r="HG4" s="197"/>
-      <c r="HH4" s="197"/>
-      <c r="HI4" s="197"/>
-      <c r="HJ4" s="197"/>
-      <c r="HK4" s="197"/>
-      <c r="HL4" s="198"/>
-      <c r="HM4" s="196" t="str">
+      <c r="HG4" s="200"/>
+      <c r="HH4" s="200"/>
+      <c r="HI4" s="200"/>
+      <c r="HJ4" s="200"/>
+      <c r="HK4" s="200"/>
+      <c r="HL4" s="201"/>
+      <c r="HM4" s="199" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 38</v>
       </c>
-      <c r="HN4" s="197"/>
-      <c r="HO4" s="197"/>
-      <c r="HP4" s="197"/>
-      <c r="HQ4" s="197"/>
-      <c r="HR4" s="197"/>
-      <c r="HS4" s="198"/>
-      <c r="HT4" s="196" t="str">
+      <c r="HN4" s="200"/>
+      <c r="HO4" s="200"/>
+      <c r="HP4" s="200"/>
+      <c r="HQ4" s="200"/>
+      <c r="HR4" s="200"/>
+      <c r="HS4" s="201"/>
+      <c r="HT4" s="199" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 39</v>
       </c>
-      <c r="HU4" s="197"/>
-      <c r="HV4" s="197"/>
-      <c r="HW4" s="197"/>
-      <c r="HX4" s="197"/>
-      <c r="HY4" s="197"/>
-      <c r="HZ4" s="198"/>
-      <c r="IA4" s="196" t="str">
+      <c r="HU4" s="200"/>
+      <c r="HV4" s="200"/>
+      <c r="HW4" s="200"/>
+      <c r="HX4" s="200"/>
+      <c r="HY4" s="200"/>
+      <c r="HZ4" s="201"/>
+      <c r="IA4" s="199" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 40</v>
       </c>
-      <c r="IB4" s="197"/>
-      <c r="IC4" s="197"/>
-      <c r="ID4" s="197"/>
-      <c r="IE4" s="197"/>
-      <c r="IF4" s="197"/>
-      <c r="IG4" s="198"/>
-      <c r="IH4" s="196" t="str">
+      <c r="IB4" s="200"/>
+      <c r="IC4" s="200"/>
+      <c r="ID4" s="200"/>
+      <c r="IE4" s="200"/>
+      <c r="IF4" s="200"/>
+      <c r="IG4" s="201"/>
+      <c r="IH4" s="199" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 41</v>
       </c>
-      <c r="II4" s="197"/>
-      <c r="IJ4" s="197"/>
-      <c r="IK4" s="197"/>
-      <c r="IL4" s="197"/>
-      <c r="IM4" s="197"/>
-      <c r="IN4" s="198"/>
-      <c r="IO4" s="196" t="str">
+      <c r="II4" s="200"/>
+      <c r="IJ4" s="200"/>
+      <c r="IK4" s="200"/>
+      <c r="IL4" s="200"/>
+      <c r="IM4" s="200"/>
+      <c r="IN4" s="201"/>
+      <c r="IO4" s="199" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 42</v>
       </c>
-      <c r="IP4" s="197"/>
-      <c r="IQ4" s="197"/>
-      <c r="IR4" s="197"/>
-      <c r="IS4" s="197"/>
-      <c r="IT4" s="197"/>
-      <c r="IU4" s="198"/>
+      <c r="IP4" s="200"/>
+      <c r="IQ4" s="200"/>
+      <c r="IR4" s="200"/>
+      <c r="IS4" s="200"/>
+      <c r="IT4" s="200"/>
+      <c r="IU4" s="201"/>
     </row>
     <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="211" t="s">
+      <c r="C5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
-      <c r="K5" s="214">
+      <c r="K5" s="210">
         <f>K6</f>
         <v>45348</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="214">
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="210">
         <f>R6</f>
         <v>45355</v>
       </c>
-      <c r="S5" s="200"/>
-      <c r="T5" s="200"/>
-      <c r="U5" s="200"/>
-      <c r="V5" s="200"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="215"/>
-      <c r="Y5" s="217">
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="211"/>
+      <c r="Y5" s="213">
         <f>Y6</f>
         <v>45362</v>
       </c>
-      <c r="Z5" s="200"/>
-      <c r="AA5" s="200"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="200"/>
-      <c r="AE5" s="218"/>
-      <c r="AF5" s="209">
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="205">
         <f>AF6</f>
         <v>45369</v>
       </c>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="200"/>
-      <c r="AI5" s="200"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="200"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="202">
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="215">
         <f>AM6</f>
         <v>45376</v>
       </c>
-      <c r="AN5" s="200"/>
-      <c r="AO5" s="200"/>
-      <c r="AP5" s="200"/>
-      <c r="AQ5" s="200"/>
-      <c r="AR5" s="200"/>
-      <c r="AS5" s="203"/>
-      <c r="AT5" s="204">
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="216"/>
+      <c r="AT5" s="217">
         <f>AT6</f>
         <v>45383</v>
       </c>
-      <c r="AU5" s="200"/>
-      <c r="AV5" s="200"/>
-      <c r="AW5" s="200"/>
-      <c r="AX5" s="200"/>
-      <c r="AY5" s="200"/>
-      <c r="AZ5" s="205"/>
-      <c r="BA5" s="206">
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="218"/>
+      <c r="BA5" s="196">
         <f>BA6</f>
         <v>45390</v>
       </c>
-      <c r="BB5" s="200"/>
-      <c r="BC5" s="200"/>
-      <c r="BD5" s="200"/>
-      <c r="BE5" s="200"/>
-      <c r="BF5" s="200"/>
-      <c r="BG5" s="207"/>
-      <c r="BH5" s="199">
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="197"/>
+      <c r="BF5" s="197"/>
+      <c r="BG5" s="198"/>
+      <c r="BH5" s="202">
         <f>BH6</f>
         <v>45397</v>
       </c>
-      <c r="BI5" s="200"/>
-      <c r="BJ5" s="200"/>
-      <c r="BK5" s="200"/>
-      <c r="BL5" s="200"/>
-      <c r="BM5" s="200"/>
-      <c r="BN5" s="201"/>
-      <c r="BO5" s="206">
+      <c r="BI5" s="197"/>
+      <c r="BJ5" s="197"/>
+      <c r="BK5" s="197"/>
+      <c r="BL5" s="197"/>
+      <c r="BM5" s="197"/>
+      <c r="BN5" s="203"/>
+      <c r="BO5" s="196">
         <f>BO6</f>
         <v>45404</v>
       </c>
-      <c r="BP5" s="200"/>
-      <c r="BQ5" s="200"/>
-      <c r="BR5" s="200"/>
-      <c r="BS5" s="200"/>
-      <c r="BT5" s="200"/>
-      <c r="BU5" s="207"/>
-      <c r="BV5" s="199">
+      <c r="BP5" s="197"/>
+      <c r="BQ5" s="197"/>
+      <c r="BR5" s="197"/>
+      <c r="BS5" s="197"/>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="198"/>
+      <c r="BV5" s="202">
         <f>BV6</f>
         <v>45411</v>
       </c>
-      <c r="BW5" s="200"/>
-      <c r="BX5" s="200"/>
-      <c r="BY5" s="200"/>
-      <c r="BZ5" s="200"/>
-      <c r="CA5" s="200"/>
-      <c r="CB5" s="201"/>
-      <c r="CC5" s="199">
+      <c r="BW5" s="197"/>
+      <c r="BX5" s="197"/>
+      <c r="BY5" s="197"/>
+      <c r="BZ5" s="197"/>
+      <c r="CA5" s="197"/>
+      <c r="CB5" s="203"/>
+      <c r="CC5" s="202">
         <f>CC6</f>
         <v>45418</v>
       </c>
-      <c r="CD5" s="200"/>
-      <c r="CE5" s="200"/>
-      <c r="CF5" s="200"/>
-      <c r="CG5" s="200"/>
-      <c r="CH5" s="200"/>
-      <c r="CI5" s="201"/>
-      <c r="CJ5" s="206">
+      <c r="CD5" s="197"/>
+      <c r="CE5" s="197"/>
+      <c r="CF5" s="197"/>
+      <c r="CG5" s="197"/>
+      <c r="CH5" s="197"/>
+      <c r="CI5" s="203"/>
+      <c r="CJ5" s="196">
         <f>CJ6</f>
         <v>45425</v>
       </c>
-      <c r="CK5" s="200"/>
-      <c r="CL5" s="200"/>
-      <c r="CM5" s="200"/>
-      <c r="CN5" s="200"/>
-      <c r="CO5" s="200"/>
-      <c r="CP5" s="207"/>
-      <c r="CQ5" s="199">
+      <c r="CK5" s="197"/>
+      <c r="CL5" s="197"/>
+      <c r="CM5" s="197"/>
+      <c r="CN5" s="197"/>
+      <c r="CO5" s="197"/>
+      <c r="CP5" s="198"/>
+      <c r="CQ5" s="202">
         <f>CQ6</f>
         <v>45432</v>
       </c>
-      <c r="CR5" s="200"/>
-      <c r="CS5" s="200"/>
-      <c r="CT5" s="200"/>
-      <c r="CU5" s="200"/>
-      <c r="CV5" s="200"/>
-      <c r="CW5" s="201"/>
-      <c r="CX5" s="199">
+      <c r="CR5" s="197"/>
+      <c r="CS5" s="197"/>
+      <c r="CT5" s="197"/>
+      <c r="CU5" s="197"/>
+      <c r="CV5" s="197"/>
+      <c r="CW5" s="203"/>
+      <c r="CX5" s="202">
         <f>CX6</f>
         <v>45439</v>
       </c>
-      <c r="CY5" s="200"/>
-      <c r="CZ5" s="200"/>
-      <c r="DA5" s="200"/>
-      <c r="DB5" s="200"/>
-      <c r="DC5" s="200"/>
-      <c r="DD5" s="201"/>
-      <c r="DE5" s="206">
+      <c r="CY5" s="197"/>
+      <c r="CZ5" s="197"/>
+      <c r="DA5" s="197"/>
+      <c r="DB5" s="197"/>
+      <c r="DC5" s="197"/>
+      <c r="DD5" s="203"/>
+      <c r="DE5" s="196">
         <f>DE6</f>
         <v>45446</v>
       </c>
-      <c r="DF5" s="200"/>
-      <c r="DG5" s="200"/>
-      <c r="DH5" s="200"/>
-      <c r="DI5" s="200"/>
-      <c r="DJ5" s="200"/>
-      <c r="DK5" s="207"/>
-      <c r="DL5" s="199">
+      <c r="DF5" s="197"/>
+      <c r="DG5" s="197"/>
+      <c r="DH5" s="197"/>
+      <c r="DI5" s="197"/>
+      <c r="DJ5" s="197"/>
+      <c r="DK5" s="198"/>
+      <c r="DL5" s="202">
         <f>DL6</f>
         <v>45453</v>
       </c>
-      <c r="DM5" s="200"/>
-      <c r="DN5" s="200"/>
-      <c r="DO5" s="200"/>
-      <c r="DP5" s="200"/>
-      <c r="DQ5" s="200"/>
-      <c r="DR5" s="201"/>
-      <c r="DS5" s="199">
+      <c r="DM5" s="197"/>
+      <c r="DN5" s="197"/>
+      <c r="DO5" s="197"/>
+      <c r="DP5" s="197"/>
+      <c r="DQ5" s="197"/>
+      <c r="DR5" s="203"/>
+      <c r="DS5" s="202">
         <f>DS6</f>
         <v>45460</v>
       </c>
-      <c r="DT5" s="200"/>
-      <c r="DU5" s="200"/>
-      <c r="DV5" s="200"/>
-      <c r="DW5" s="200"/>
-      <c r="DX5" s="200"/>
-      <c r="DY5" s="201"/>
-      <c r="DZ5" s="206">
+      <c r="DT5" s="197"/>
+      <c r="DU5" s="197"/>
+      <c r="DV5" s="197"/>
+      <c r="DW5" s="197"/>
+      <c r="DX5" s="197"/>
+      <c r="DY5" s="203"/>
+      <c r="DZ5" s="196">
         <f>DZ6</f>
         <v>45467</v>
       </c>
-      <c r="EA5" s="200"/>
-      <c r="EB5" s="200"/>
-      <c r="EC5" s="200"/>
-      <c r="ED5" s="200"/>
-      <c r="EE5" s="200"/>
-      <c r="EF5" s="207"/>
-      <c r="EG5" s="199">
+      <c r="EA5" s="197"/>
+      <c r="EB5" s="197"/>
+      <c r="EC5" s="197"/>
+      <c r="ED5" s="197"/>
+      <c r="EE5" s="197"/>
+      <c r="EF5" s="198"/>
+      <c r="EG5" s="202">
         <f>EG6</f>
         <v>45474</v>
       </c>
-      <c r="EH5" s="200"/>
-      <c r="EI5" s="200"/>
-      <c r="EJ5" s="200"/>
-      <c r="EK5" s="200"/>
-      <c r="EL5" s="200"/>
-      <c r="EM5" s="201"/>
-      <c r="EN5" s="199">
+      <c r="EH5" s="197"/>
+      <c r="EI5" s="197"/>
+      <c r="EJ5" s="197"/>
+      <c r="EK5" s="197"/>
+      <c r="EL5" s="197"/>
+      <c r="EM5" s="203"/>
+      <c r="EN5" s="202">
         <f>EN6</f>
         <v>45481</v>
       </c>
-      <c r="EO5" s="200"/>
-      <c r="EP5" s="200"/>
-      <c r="EQ5" s="200"/>
-      <c r="ER5" s="200"/>
-      <c r="ES5" s="200"/>
-      <c r="ET5" s="201"/>
-      <c r="EU5" s="206">
+      <c r="EO5" s="197"/>
+      <c r="EP5" s="197"/>
+      <c r="EQ5" s="197"/>
+      <c r="ER5" s="197"/>
+      <c r="ES5" s="197"/>
+      <c r="ET5" s="203"/>
+      <c r="EU5" s="196">
         <f>EU6</f>
         <v>45488</v>
       </c>
-      <c r="EV5" s="200"/>
-      <c r="EW5" s="200"/>
-      <c r="EX5" s="200"/>
-      <c r="EY5" s="200"/>
-      <c r="EZ5" s="200"/>
-      <c r="FA5" s="207"/>
-      <c r="FB5" s="199">
+      <c r="EV5" s="197"/>
+      <c r="EW5" s="197"/>
+      <c r="EX5" s="197"/>
+      <c r="EY5" s="197"/>
+      <c r="EZ5" s="197"/>
+      <c r="FA5" s="198"/>
+      <c r="FB5" s="202">
         <f>FB6</f>
         <v>45495</v>
       </c>
-      <c r="FC5" s="200"/>
-      <c r="FD5" s="200"/>
-      <c r="FE5" s="200"/>
-      <c r="FF5" s="200"/>
-      <c r="FG5" s="200"/>
-      <c r="FH5" s="201"/>
-      <c r="FI5" s="199">
+      <c r="FC5" s="197"/>
+      <c r="FD5" s="197"/>
+      <c r="FE5" s="197"/>
+      <c r="FF5" s="197"/>
+      <c r="FG5" s="197"/>
+      <c r="FH5" s="203"/>
+      <c r="FI5" s="202">
         <f>FI6</f>
         <v>45502</v>
       </c>
-      <c r="FJ5" s="200"/>
-      <c r="FK5" s="200"/>
-      <c r="FL5" s="200"/>
-      <c r="FM5" s="200"/>
-      <c r="FN5" s="200"/>
-      <c r="FO5" s="201"/>
-      <c r="FP5" s="206">
+      <c r="FJ5" s="197"/>
+      <c r="FK5" s="197"/>
+      <c r="FL5" s="197"/>
+      <c r="FM5" s="197"/>
+      <c r="FN5" s="197"/>
+      <c r="FO5" s="203"/>
+      <c r="FP5" s="196">
         <f>FP6</f>
         <v>45509</v>
       </c>
-      <c r="FQ5" s="200"/>
-      <c r="FR5" s="200"/>
-      <c r="FS5" s="200"/>
-      <c r="FT5" s="200"/>
-      <c r="FU5" s="200"/>
-      <c r="FV5" s="207"/>
-      <c r="FW5" s="199">
+      <c r="FQ5" s="197"/>
+      <c r="FR5" s="197"/>
+      <c r="FS5" s="197"/>
+      <c r="FT5" s="197"/>
+      <c r="FU5" s="197"/>
+      <c r="FV5" s="198"/>
+      <c r="FW5" s="202">
         <f>FW6</f>
         <v>45516</v>
       </c>
-      <c r="FX5" s="200"/>
-      <c r="FY5" s="200"/>
-      <c r="FZ5" s="200"/>
-      <c r="GA5" s="200"/>
-      <c r="GB5" s="200"/>
-      <c r="GC5" s="201"/>
-      <c r="GD5" s="199">
+      <c r="FX5" s="197"/>
+      <c r="FY5" s="197"/>
+      <c r="FZ5" s="197"/>
+      <c r="GA5" s="197"/>
+      <c r="GB5" s="197"/>
+      <c r="GC5" s="203"/>
+      <c r="GD5" s="202">
         <f>GD6</f>
         <v>45523</v>
       </c>
-      <c r="GE5" s="200"/>
-      <c r="GF5" s="200"/>
-      <c r="GG5" s="200"/>
-      <c r="GH5" s="200"/>
-      <c r="GI5" s="200"/>
-      <c r="GJ5" s="201"/>
-      <c r="GK5" s="206">
+      <c r="GE5" s="197"/>
+      <c r="GF5" s="197"/>
+      <c r="GG5" s="197"/>
+      <c r="GH5" s="197"/>
+      <c r="GI5" s="197"/>
+      <c r="GJ5" s="203"/>
+      <c r="GK5" s="196">
         <f>GK6</f>
         <v>45530</v>
       </c>
-      <c r="GL5" s="200"/>
-      <c r="GM5" s="200"/>
-      <c r="GN5" s="200"/>
-      <c r="GO5" s="200"/>
-      <c r="GP5" s="200"/>
-      <c r="GQ5" s="207"/>
-      <c r="GR5" s="199">
+      <c r="GL5" s="197"/>
+      <c r="GM5" s="197"/>
+      <c r="GN5" s="197"/>
+      <c r="GO5" s="197"/>
+      <c r="GP5" s="197"/>
+      <c r="GQ5" s="198"/>
+      <c r="GR5" s="202">
         <f>GR6</f>
         <v>45537</v>
       </c>
-      <c r="GS5" s="200"/>
-      <c r="GT5" s="200"/>
-      <c r="GU5" s="200"/>
-      <c r="GV5" s="200"/>
-      <c r="GW5" s="200"/>
-      <c r="GX5" s="201"/>
-      <c r="GY5" s="206">
+      <c r="GS5" s="197"/>
+      <c r="GT5" s="197"/>
+      <c r="GU5" s="197"/>
+      <c r="GV5" s="197"/>
+      <c r="GW5" s="197"/>
+      <c r="GX5" s="203"/>
+      <c r="GY5" s="196">
         <f>GY6</f>
         <v>45544</v>
       </c>
-      <c r="GZ5" s="200"/>
-      <c r="HA5" s="200"/>
-      <c r="HB5" s="200"/>
-      <c r="HC5" s="200"/>
-      <c r="HD5" s="200"/>
-      <c r="HE5" s="207"/>
-      <c r="HF5" s="199">
+      <c r="GZ5" s="197"/>
+      <c r="HA5" s="197"/>
+      <c r="HB5" s="197"/>
+      <c r="HC5" s="197"/>
+      <c r="HD5" s="197"/>
+      <c r="HE5" s="198"/>
+      <c r="HF5" s="202">
         <f>HF6</f>
         <v>45551</v>
       </c>
-      <c r="HG5" s="200"/>
-      <c r="HH5" s="200"/>
-      <c r="HI5" s="200"/>
-      <c r="HJ5" s="200"/>
-      <c r="HK5" s="200"/>
-      <c r="HL5" s="201"/>
-      <c r="HM5" s="206">
+      <c r="HG5" s="197"/>
+      <c r="HH5" s="197"/>
+      <c r="HI5" s="197"/>
+      <c r="HJ5" s="197"/>
+      <c r="HK5" s="197"/>
+      <c r="HL5" s="203"/>
+      <c r="HM5" s="196">
         <f>HM6</f>
         <v>45558</v>
       </c>
-      <c r="HN5" s="200"/>
-      <c r="HO5" s="200"/>
-      <c r="HP5" s="200"/>
-      <c r="HQ5" s="200"/>
-      <c r="HR5" s="200"/>
-      <c r="HS5" s="207"/>
-      <c r="HT5" s="199">
+      <c r="HN5" s="197"/>
+      <c r="HO5" s="197"/>
+      <c r="HP5" s="197"/>
+      <c r="HQ5" s="197"/>
+      <c r="HR5" s="197"/>
+      <c r="HS5" s="198"/>
+      <c r="HT5" s="202">
         <f>HT6</f>
         <v>45565</v>
       </c>
-      <c r="HU5" s="200"/>
-      <c r="HV5" s="200"/>
-      <c r="HW5" s="200"/>
-      <c r="HX5" s="200"/>
-      <c r="HY5" s="200"/>
-      <c r="HZ5" s="201"/>
-      <c r="IA5" s="206">
+      <c r="HU5" s="197"/>
+      <c r="HV5" s="197"/>
+      <c r="HW5" s="197"/>
+      <c r="HX5" s="197"/>
+      <c r="HY5" s="197"/>
+      <c r="HZ5" s="203"/>
+      <c r="IA5" s="196">
         <f>IA6</f>
         <v>45572</v>
       </c>
-      <c r="IB5" s="200"/>
-      <c r="IC5" s="200"/>
-      <c r="ID5" s="200"/>
-      <c r="IE5" s="200"/>
-      <c r="IF5" s="200"/>
-      <c r="IG5" s="207"/>
-      <c r="IH5" s="199">
+      <c r="IB5" s="197"/>
+      <c r="IC5" s="197"/>
+      <c r="ID5" s="197"/>
+      <c r="IE5" s="197"/>
+      <c r="IF5" s="197"/>
+      <c r="IG5" s="198"/>
+      <c r="IH5" s="202">
         <f>IH6</f>
         <v>45579</v>
       </c>
-      <c r="II5" s="200"/>
-      <c r="IJ5" s="200"/>
-      <c r="IK5" s="200"/>
-      <c r="IL5" s="200"/>
-      <c r="IM5" s="200"/>
-      <c r="IN5" s="201"/>
-      <c r="IO5" s="206">
+      <c r="II5" s="197"/>
+      <c r="IJ5" s="197"/>
+      <c r="IK5" s="197"/>
+      <c r="IL5" s="197"/>
+      <c r="IM5" s="197"/>
+      <c r="IN5" s="203"/>
+      <c r="IO5" s="196">
         <f>IO6</f>
         <v>45586</v>
       </c>
-      <c r="IP5" s="200"/>
-      <c r="IQ5" s="200"/>
-      <c r="IR5" s="200"/>
-      <c r="IS5" s="200"/>
-      <c r="IT5" s="200"/>
-      <c r="IU5" s="207"/>
+      <c r="IP5" s="197"/>
+      <c r="IQ5" s="197"/>
+      <c r="IR5" s="197"/>
+      <c r="IS5" s="197"/>
+      <c r="IT5" s="197"/>
+      <c r="IU5" s="198"/>
     </row>
     <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="84"/>
@@ -8366,7 +8366,7 @@
       <c r="IT15" s="152"/>
       <c r="IU15" s="152"/>
     </row>
-    <row r="16" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.6</v>
@@ -11647,7 +11647,7 @@
       <c r="IT27" s="104"/>
       <c r="IU27" s="104"/>
     </row>
-    <row r="28" spans="1:255" s="105" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="95">
         <v>2.5</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="IT30" s="104"/>
       <c r="IU30" s="104"/>
     </row>
-    <row r="31" spans="1:255" s="105" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
         <v>2.8</v>
       </c>
@@ -20093,20 +20093,49 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -20123,49 +20152,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H55:H59 H8:H52">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6EAB2A-60D2-40D4-8909-DAF9BB45D606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388E0666-93CB-47E6-8474-4A9569029187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2627,28 +2627,40 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2685,18 +2697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2748,18 +2748,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
@@ -2786,6 +2774,18 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3294,75 +3294,75 @@
   </sheetPr>
   <dimension ref="A1:IU62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="91" customWidth="1"/>
-    <col min="4" max="4" width="0.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
-    <col min="67" max="68" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.59765625" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.3984375" style="1" customWidth="1"/>
+    <col min="67" max="68" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="1"/>
+    <col min="229" max="229" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
@@ -3375,23 +3375,23 @@
       <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
-      <c r="AN1" s="204"/>
-      <c r="AO1" s="204"/>
-      <c r="AP1" s="204"/>
-      <c r="AQ1" s="204"/>
-      <c r="AR1" s="204"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="208"/>
+      <c r="AR1" s="208"/>
     </row>
-    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
       <c r="C3" s="83"/>
@@ -3465,735 +3465,735 @@
       <c r="BM3" s="76"/>
       <c r="BN3" s="77"/>
     </row>
-    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="207">
+      <c r="C4" s="211">
         <v>45295</v>
       </c>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="H4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="74">
         <v>9</v>
       </c>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="199" t="str">
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="196" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="199" t="str">
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="196" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="199" t="str">
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="196" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="200"/>
-      <c r="AI4" s="200"/>
-      <c r="AJ4" s="200"/>
-      <c r="AK4" s="200"/>
-      <c r="AL4" s="201"/>
-      <c r="AM4" s="199" t="str">
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="196" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="AN4" s="200"/>
-      <c r="AO4" s="200"/>
-      <c r="AP4" s="200"/>
-      <c r="AQ4" s="200"/>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="201"/>
-      <c r="AT4" s="199" t="str">
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="196" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AU4" s="200"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="200"/>
-      <c r="AX4" s="200"/>
-      <c r="AY4" s="200"/>
-      <c r="AZ4" s="201"/>
-      <c r="BA4" s="199" t="str">
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="197"/>
+      <c r="AW4" s="197"/>
+      <c r="AX4" s="197"/>
+      <c r="AY4" s="197"/>
+      <c r="AZ4" s="198"/>
+      <c r="BA4" s="196" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="BB4" s="200"/>
-      <c r="BC4" s="200"/>
-      <c r="BD4" s="200"/>
-      <c r="BE4" s="200"/>
-      <c r="BF4" s="200"/>
-      <c r="BG4" s="201"/>
-      <c r="BH4" s="199" t="str">
+      <c r="BB4" s="197"/>
+      <c r="BC4" s="197"/>
+      <c r="BD4" s="197"/>
+      <c r="BE4" s="197"/>
+      <c r="BF4" s="197"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="196" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="BI4" s="200"/>
-      <c r="BJ4" s="200"/>
-      <c r="BK4" s="200"/>
-      <c r="BL4" s="200"/>
-      <c r="BM4" s="200"/>
-      <c r="BN4" s="201"/>
-      <c r="BO4" s="199" t="str">
+      <c r="BI4" s="197"/>
+      <c r="BJ4" s="197"/>
+      <c r="BK4" s="197"/>
+      <c r="BL4" s="197"/>
+      <c r="BM4" s="197"/>
+      <c r="BN4" s="198"/>
+      <c r="BO4" s="196" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="BP4" s="200"/>
-      <c r="BQ4" s="200"/>
-      <c r="BR4" s="200"/>
-      <c r="BS4" s="200"/>
-      <c r="BT4" s="200"/>
-      <c r="BU4" s="201"/>
-      <c r="BV4" s="199" t="str">
+      <c r="BP4" s="197"/>
+      <c r="BQ4" s="197"/>
+      <c r="BR4" s="197"/>
+      <c r="BS4" s="197"/>
+      <c r="BT4" s="197"/>
+      <c r="BU4" s="198"/>
+      <c r="BV4" s="196" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="BW4" s="200"/>
-      <c r="BX4" s="200"/>
-      <c r="BY4" s="200"/>
-      <c r="BZ4" s="200"/>
-      <c r="CA4" s="200"/>
-      <c r="CB4" s="201"/>
-      <c r="CC4" s="199" t="str">
+      <c r="BW4" s="197"/>
+      <c r="BX4" s="197"/>
+      <c r="BY4" s="197"/>
+      <c r="BZ4" s="197"/>
+      <c r="CA4" s="197"/>
+      <c r="CB4" s="198"/>
+      <c r="CC4" s="196" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="CD4" s="200"/>
-      <c r="CE4" s="200"/>
-      <c r="CF4" s="200"/>
-      <c r="CG4" s="200"/>
-      <c r="CH4" s="200"/>
-      <c r="CI4" s="201"/>
-      <c r="CJ4" s="199" t="str">
+      <c r="CD4" s="197"/>
+      <c r="CE4" s="197"/>
+      <c r="CF4" s="197"/>
+      <c r="CG4" s="197"/>
+      <c r="CH4" s="197"/>
+      <c r="CI4" s="198"/>
+      <c r="CJ4" s="196" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="CK4" s="200"/>
-      <c r="CL4" s="200"/>
-      <c r="CM4" s="200"/>
-      <c r="CN4" s="200"/>
-      <c r="CO4" s="200"/>
-      <c r="CP4" s="201"/>
-      <c r="CQ4" s="199" t="str">
+      <c r="CK4" s="197"/>
+      <c r="CL4" s="197"/>
+      <c r="CM4" s="197"/>
+      <c r="CN4" s="197"/>
+      <c r="CO4" s="197"/>
+      <c r="CP4" s="198"/>
+      <c r="CQ4" s="196" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="CR4" s="200"/>
-      <c r="CS4" s="200"/>
-      <c r="CT4" s="200"/>
-      <c r="CU4" s="200"/>
-      <c r="CV4" s="200"/>
-      <c r="CW4" s="201"/>
-      <c r="CX4" s="199" t="str">
+      <c r="CR4" s="197"/>
+      <c r="CS4" s="197"/>
+      <c r="CT4" s="197"/>
+      <c r="CU4" s="197"/>
+      <c r="CV4" s="197"/>
+      <c r="CW4" s="198"/>
+      <c r="CX4" s="196" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="CY4" s="200"/>
-      <c r="CZ4" s="200"/>
-      <c r="DA4" s="200"/>
-      <c r="DB4" s="200"/>
-      <c r="DC4" s="200"/>
-      <c r="DD4" s="201"/>
-      <c r="DE4" s="199" t="str">
+      <c r="CY4" s="197"/>
+      <c r="CZ4" s="197"/>
+      <c r="DA4" s="197"/>
+      <c r="DB4" s="197"/>
+      <c r="DC4" s="197"/>
+      <c r="DD4" s="198"/>
+      <c r="DE4" s="196" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="DF4" s="200"/>
-      <c r="DG4" s="200"/>
-      <c r="DH4" s="200"/>
-      <c r="DI4" s="200"/>
-      <c r="DJ4" s="200"/>
-      <c r="DK4" s="201"/>
-      <c r="DL4" s="199" t="str">
+      <c r="DF4" s="197"/>
+      <c r="DG4" s="197"/>
+      <c r="DH4" s="197"/>
+      <c r="DI4" s="197"/>
+      <c r="DJ4" s="197"/>
+      <c r="DK4" s="198"/>
+      <c r="DL4" s="196" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="DM4" s="200"/>
-      <c r="DN4" s="200"/>
-      <c r="DO4" s="200"/>
-      <c r="DP4" s="200"/>
-      <c r="DQ4" s="200"/>
-      <c r="DR4" s="201"/>
-      <c r="DS4" s="199" t="str">
+      <c r="DM4" s="197"/>
+      <c r="DN4" s="197"/>
+      <c r="DO4" s="197"/>
+      <c r="DP4" s="197"/>
+      <c r="DQ4" s="197"/>
+      <c r="DR4" s="198"/>
+      <c r="DS4" s="196" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="DT4" s="200"/>
-      <c r="DU4" s="200"/>
-      <c r="DV4" s="200"/>
-      <c r="DW4" s="200"/>
-      <c r="DX4" s="200"/>
-      <c r="DY4" s="201"/>
-      <c r="DZ4" s="199" t="str">
+      <c r="DT4" s="197"/>
+      <c r="DU4" s="197"/>
+      <c r="DV4" s="197"/>
+      <c r="DW4" s="197"/>
+      <c r="DX4" s="197"/>
+      <c r="DY4" s="198"/>
+      <c r="DZ4" s="196" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="EA4" s="200"/>
-      <c r="EB4" s="200"/>
-      <c r="EC4" s="200"/>
-      <c r="ED4" s="200"/>
-      <c r="EE4" s="200"/>
-      <c r="EF4" s="201"/>
-      <c r="EG4" s="199" t="str">
+      <c r="EA4" s="197"/>
+      <c r="EB4" s="197"/>
+      <c r="EC4" s="197"/>
+      <c r="ED4" s="197"/>
+      <c r="EE4" s="197"/>
+      <c r="EF4" s="198"/>
+      <c r="EG4" s="196" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="EH4" s="200"/>
-      <c r="EI4" s="200"/>
-      <c r="EJ4" s="200"/>
-      <c r="EK4" s="200"/>
-      <c r="EL4" s="200"/>
-      <c r="EM4" s="201"/>
-      <c r="EN4" s="199" t="str">
+      <c r="EH4" s="197"/>
+      <c r="EI4" s="197"/>
+      <c r="EJ4" s="197"/>
+      <c r="EK4" s="197"/>
+      <c r="EL4" s="197"/>
+      <c r="EM4" s="198"/>
+      <c r="EN4" s="196" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="EO4" s="200"/>
-      <c r="EP4" s="200"/>
-      <c r="EQ4" s="200"/>
-      <c r="ER4" s="200"/>
-      <c r="ES4" s="200"/>
-      <c r="ET4" s="201"/>
-      <c r="EU4" s="199" t="str">
+      <c r="EO4" s="197"/>
+      <c r="EP4" s="197"/>
+      <c r="EQ4" s="197"/>
+      <c r="ER4" s="197"/>
+      <c r="ES4" s="197"/>
+      <c r="ET4" s="198"/>
+      <c r="EU4" s="196" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="EV4" s="200"/>
-      <c r="EW4" s="200"/>
-      <c r="EX4" s="200"/>
-      <c r="EY4" s="200"/>
-      <c r="EZ4" s="200"/>
-      <c r="FA4" s="201"/>
-      <c r="FB4" s="199" t="str">
+      <c r="EV4" s="197"/>
+      <c r="EW4" s="197"/>
+      <c r="EX4" s="197"/>
+      <c r="EY4" s="197"/>
+      <c r="EZ4" s="197"/>
+      <c r="FA4" s="198"/>
+      <c r="FB4" s="196" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="FC4" s="200"/>
-      <c r="FD4" s="200"/>
-      <c r="FE4" s="200"/>
-      <c r="FF4" s="200"/>
-      <c r="FG4" s="200"/>
-      <c r="FH4" s="201"/>
-      <c r="FI4" s="199" t="str">
+      <c r="FC4" s="197"/>
+      <c r="FD4" s="197"/>
+      <c r="FE4" s="197"/>
+      <c r="FF4" s="197"/>
+      <c r="FG4" s="197"/>
+      <c r="FH4" s="198"/>
+      <c r="FI4" s="196" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="FJ4" s="200"/>
-      <c r="FK4" s="200"/>
-      <c r="FL4" s="200"/>
-      <c r="FM4" s="200"/>
-      <c r="FN4" s="200"/>
-      <c r="FO4" s="201"/>
-      <c r="FP4" s="199" t="str">
+      <c r="FJ4" s="197"/>
+      <c r="FK4" s="197"/>
+      <c r="FL4" s="197"/>
+      <c r="FM4" s="197"/>
+      <c r="FN4" s="197"/>
+      <c r="FO4" s="198"/>
+      <c r="FP4" s="196" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="FQ4" s="200"/>
-      <c r="FR4" s="200"/>
-      <c r="FS4" s="200"/>
-      <c r="FT4" s="200"/>
-      <c r="FU4" s="200"/>
-      <c r="FV4" s="201"/>
-      <c r="FW4" s="199" t="str">
+      <c r="FQ4" s="197"/>
+      <c r="FR4" s="197"/>
+      <c r="FS4" s="197"/>
+      <c r="FT4" s="197"/>
+      <c r="FU4" s="197"/>
+      <c r="FV4" s="198"/>
+      <c r="FW4" s="196" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="FX4" s="200"/>
-      <c r="FY4" s="200"/>
-      <c r="FZ4" s="200"/>
-      <c r="GA4" s="200"/>
-      <c r="GB4" s="200"/>
-      <c r="GC4" s="201"/>
-      <c r="GD4" s="199" t="str">
+      <c r="FX4" s="197"/>
+      <c r="FY4" s="197"/>
+      <c r="FZ4" s="197"/>
+      <c r="GA4" s="197"/>
+      <c r="GB4" s="197"/>
+      <c r="GC4" s="198"/>
+      <c r="GD4" s="196" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="GE4" s="200"/>
-      <c r="GF4" s="200"/>
-      <c r="GG4" s="200"/>
-      <c r="GH4" s="200"/>
-      <c r="GI4" s="200"/>
-      <c r="GJ4" s="201"/>
-      <c r="GK4" s="199" t="str">
+      <c r="GE4" s="197"/>
+      <c r="GF4" s="197"/>
+      <c r="GG4" s="197"/>
+      <c r="GH4" s="197"/>
+      <c r="GI4" s="197"/>
+      <c r="GJ4" s="198"/>
+      <c r="GK4" s="196" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="GL4" s="200"/>
-      <c r="GM4" s="200"/>
-      <c r="GN4" s="200"/>
-      <c r="GO4" s="200"/>
-      <c r="GP4" s="200"/>
-      <c r="GQ4" s="201"/>
-      <c r="GR4" s="199" t="str">
+      <c r="GL4" s="197"/>
+      <c r="GM4" s="197"/>
+      <c r="GN4" s="197"/>
+      <c r="GO4" s="197"/>
+      <c r="GP4" s="197"/>
+      <c r="GQ4" s="198"/>
+      <c r="GR4" s="196" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="GS4" s="200"/>
-      <c r="GT4" s="200"/>
-      <c r="GU4" s="200"/>
-      <c r="GV4" s="200"/>
-      <c r="GW4" s="200"/>
-      <c r="GX4" s="201"/>
-      <c r="GY4" s="199" t="str">
+      <c r="GS4" s="197"/>
+      <c r="GT4" s="197"/>
+      <c r="GU4" s="197"/>
+      <c r="GV4" s="197"/>
+      <c r="GW4" s="197"/>
+      <c r="GX4" s="198"/>
+      <c r="GY4" s="196" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 36</v>
       </c>
-      <c r="GZ4" s="200"/>
-      <c r="HA4" s="200"/>
-      <c r="HB4" s="200"/>
-      <c r="HC4" s="200"/>
-      <c r="HD4" s="200"/>
-      <c r="HE4" s="201"/>
-      <c r="HF4" s="199" t="str">
+      <c r="GZ4" s="197"/>
+      <c r="HA4" s="197"/>
+      <c r="HB4" s="197"/>
+      <c r="HC4" s="197"/>
+      <c r="HD4" s="197"/>
+      <c r="HE4" s="198"/>
+      <c r="HF4" s="196" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 37</v>
       </c>
-      <c r="HG4" s="200"/>
-      <c r="HH4" s="200"/>
-      <c r="HI4" s="200"/>
-      <c r="HJ4" s="200"/>
-      <c r="HK4" s="200"/>
-      <c r="HL4" s="201"/>
-      <c r="HM4" s="199" t="str">
+      <c r="HG4" s="197"/>
+      <c r="HH4" s="197"/>
+      <c r="HI4" s="197"/>
+      <c r="HJ4" s="197"/>
+      <c r="HK4" s="197"/>
+      <c r="HL4" s="198"/>
+      <c r="HM4" s="196" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 38</v>
       </c>
-      <c r="HN4" s="200"/>
-      <c r="HO4" s="200"/>
-      <c r="HP4" s="200"/>
-      <c r="HQ4" s="200"/>
-      <c r="HR4" s="200"/>
-      <c r="HS4" s="201"/>
-      <c r="HT4" s="199" t="str">
+      <c r="HN4" s="197"/>
+      <c r="HO4" s="197"/>
+      <c r="HP4" s="197"/>
+      <c r="HQ4" s="197"/>
+      <c r="HR4" s="197"/>
+      <c r="HS4" s="198"/>
+      <c r="HT4" s="196" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 39</v>
       </c>
-      <c r="HU4" s="200"/>
-      <c r="HV4" s="200"/>
-      <c r="HW4" s="200"/>
-      <c r="HX4" s="200"/>
-      <c r="HY4" s="200"/>
-      <c r="HZ4" s="201"/>
-      <c r="IA4" s="199" t="str">
+      <c r="HU4" s="197"/>
+      <c r="HV4" s="197"/>
+      <c r="HW4" s="197"/>
+      <c r="HX4" s="197"/>
+      <c r="HY4" s="197"/>
+      <c r="HZ4" s="198"/>
+      <c r="IA4" s="196" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 40</v>
       </c>
-      <c r="IB4" s="200"/>
-      <c r="IC4" s="200"/>
-      <c r="ID4" s="200"/>
-      <c r="IE4" s="200"/>
-      <c r="IF4" s="200"/>
-      <c r="IG4" s="201"/>
-      <c r="IH4" s="199" t="str">
+      <c r="IB4" s="197"/>
+      <c r="IC4" s="197"/>
+      <c r="ID4" s="197"/>
+      <c r="IE4" s="197"/>
+      <c r="IF4" s="197"/>
+      <c r="IG4" s="198"/>
+      <c r="IH4" s="196" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 41</v>
       </c>
-      <c r="II4" s="200"/>
-      <c r="IJ4" s="200"/>
-      <c r="IK4" s="200"/>
-      <c r="IL4" s="200"/>
-      <c r="IM4" s="200"/>
-      <c r="IN4" s="201"/>
-      <c r="IO4" s="199" t="str">
+      <c r="II4" s="197"/>
+      <c r="IJ4" s="197"/>
+      <c r="IK4" s="197"/>
+      <c r="IL4" s="197"/>
+      <c r="IM4" s="197"/>
+      <c r="IN4" s="198"/>
+      <c r="IO4" s="196" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 42</v>
       </c>
-      <c r="IP4" s="200"/>
-      <c r="IQ4" s="200"/>
-      <c r="IR4" s="200"/>
-      <c r="IS4" s="200"/>
-      <c r="IT4" s="200"/>
-      <c r="IU4" s="201"/>
+      <c r="IP4" s="197"/>
+      <c r="IQ4" s="197"/>
+      <c r="IR4" s="197"/>
+      <c r="IS4" s="197"/>
+      <c r="IT4" s="197"/>
+      <c r="IU4" s="198"/>
     </row>
-    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
-      <c r="K5" s="210">
+      <c r="K5" s="214">
         <f>K6</f>
         <v>45348</v>
       </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="210">
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="214">
         <f>R6</f>
         <v>45355</v>
       </c>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="211"/>
-      <c r="Y5" s="213">
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="215"/>
+      <c r="Y5" s="217">
         <f>Y6</f>
         <v>45362</v>
       </c>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="214"/>
-      <c r="AF5" s="205">
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="218"/>
+      <c r="AF5" s="209">
         <f>AF6</f>
         <v>45369</v>
       </c>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="215">
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="210"/>
+      <c r="AM5" s="202">
         <f>AM6</f>
         <v>45376</v>
       </c>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="216"/>
-      <c r="AT5" s="217">
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="204">
         <f>AT6</f>
         <v>45383</v>
       </c>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="197"/>
-      <c r="AY5" s="197"/>
-      <c r="AZ5" s="218"/>
-      <c r="BA5" s="196">
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="205"/>
+      <c r="BA5" s="206">
         <f>BA6</f>
         <v>45390</v>
       </c>
-      <c r="BB5" s="197"/>
-      <c r="BC5" s="197"/>
-      <c r="BD5" s="197"/>
-      <c r="BE5" s="197"/>
-      <c r="BF5" s="197"/>
-      <c r="BG5" s="198"/>
-      <c r="BH5" s="202">
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="200"/>
+      <c r="BE5" s="200"/>
+      <c r="BF5" s="200"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="199">
         <f>BH6</f>
         <v>45397</v>
       </c>
-      <c r="BI5" s="197"/>
-      <c r="BJ5" s="197"/>
-      <c r="BK5" s="197"/>
-      <c r="BL5" s="197"/>
-      <c r="BM5" s="197"/>
-      <c r="BN5" s="203"/>
-      <c r="BO5" s="196">
+      <c r="BI5" s="200"/>
+      <c r="BJ5" s="200"/>
+      <c r="BK5" s="200"/>
+      <c r="BL5" s="200"/>
+      <c r="BM5" s="200"/>
+      <c r="BN5" s="201"/>
+      <c r="BO5" s="206">
         <f>BO6</f>
         <v>45404</v>
       </c>
-      <c r="BP5" s="197"/>
-      <c r="BQ5" s="197"/>
-      <c r="BR5" s="197"/>
-      <c r="BS5" s="197"/>
-      <c r="BT5" s="197"/>
-      <c r="BU5" s="198"/>
-      <c r="BV5" s="202">
+      <c r="BP5" s="200"/>
+      <c r="BQ5" s="200"/>
+      <c r="BR5" s="200"/>
+      <c r="BS5" s="200"/>
+      <c r="BT5" s="200"/>
+      <c r="BU5" s="207"/>
+      <c r="BV5" s="199">
         <f>BV6</f>
         <v>45411</v>
       </c>
-      <c r="BW5" s="197"/>
-      <c r="BX5" s="197"/>
-      <c r="BY5" s="197"/>
-      <c r="BZ5" s="197"/>
-      <c r="CA5" s="197"/>
-      <c r="CB5" s="203"/>
-      <c r="CC5" s="202">
+      <c r="BW5" s="200"/>
+      <c r="BX5" s="200"/>
+      <c r="BY5" s="200"/>
+      <c r="BZ5" s="200"/>
+      <c r="CA5" s="200"/>
+      <c r="CB5" s="201"/>
+      <c r="CC5" s="199">
         <f>CC6</f>
         <v>45418</v>
       </c>
-      <c r="CD5" s="197"/>
-      <c r="CE5" s="197"/>
-      <c r="CF5" s="197"/>
-      <c r="CG5" s="197"/>
-      <c r="CH5" s="197"/>
-      <c r="CI5" s="203"/>
-      <c r="CJ5" s="196">
+      <c r="CD5" s="200"/>
+      <c r="CE5" s="200"/>
+      <c r="CF5" s="200"/>
+      <c r="CG5" s="200"/>
+      <c r="CH5" s="200"/>
+      <c r="CI5" s="201"/>
+      <c r="CJ5" s="206">
         <f>CJ6</f>
         <v>45425</v>
       </c>
-      <c r="CK5" s="197"/>
-      <c r="CL5" s="197"/>
-      <c r="CM5" s="197"/>
-      <c r="CN5" s="197"/>
-      <c r="CO5" s="197"/>
-      <c r="CP5" s="198"/>
-      <c r="CQ5" s="202">
+      <c r="CK5" s="200"/>
+      <c r="CL5" s="200"/>
+      <c r="CM5" s="200"/>
+      <c r="CN5" s="200"/>
+      <c r="CO5" s="200"/>
+      <c r="CP5" s="207"/>
+      <c r="CQ5" s="199">
         <f>CQ6</f>
         <v>45432</v>
       </c>
-      <c r="CR5" s="197"/>
-      <c r="CS5" s="197"/>
-      <c r="CT5" s="197"/>
-      <c r="CU5" s="197"/>
-      <c r="CV5" s="197"/>
-      <c r="CW5" s="203"/>
-      <c r="CX5" s="202">
+      <c r="CR5" s="200"/>
+      <c r="CS5" s="200"/>
+      <c r="CT5" s="200"/>
+      <c r="CU5" s="200"/>
+      <c r="CV5" s="200"/>
+      <c r="CW5" s="201"/>
+      <c r="CX5" s="199">
         <f>CX6</f>
         <v>45439</v>
       </c>
-      <c r="CY5" s="197"/>
-      <c r="CZ5" s="197"/>
-      <c r="DA5" s="197"/>
-      <c r="DB5" s="197"/>
-      <c r="DC5" s="197"/>
-      <c r="DD5" s="203"/>
-      <c r="DE5" s="196">
+      <c r="CY5" s="200"/>
+      <c r="CZ5" s="200"/>
+      <c r="DA5" s="200"/>
+      <c r="DB5" s="200"/>
+      <c r="DC5" s="200"/>
+      <c r="DD5" s="201"/>
+      <c r="DE5" s="206">
         <f>DE6</f>
         <v>45446</v>
       </c>
-      <c r="DF5" s="197"/>
-      <c r="DG5" s="197"/>
-      <c r="DH5" s="197"/>
-      <c r="DI5" s="197"/>
-      <c r="DJ5" s="197"/>
-      <c r="DK5" s="198"/>
-      <c r="DL5" s="202">
+      <c r="DF5" s="200"/>
+      <c r="DG5" s="200"/>
+      <c r="DH5" s="200"/>
+      <c r="DI5" s="200"/>
+      <c r="DJ5" s="200"/>
+      <c r="DK5" s="207"/>
+      <c r="DL5" s="199">
         <f>DL6</f>
         <v>45453</v>
       </c>
-      <c r="DM5" s="197"/>
-      <c r="DN5" s="197"/>
-      <c r="DO5" s="197"/>
-      <c r="DP5" s="197"/>
-      <c r="DQ5" s="197"/>
-      <c r="DR5" s="203"/>
-      <c r="DS5" s="202">
+      <c r="DM5" s="200"/>
+      <c r="DN5" s="200"/>
+      <c r="DO5" s="200"/>
+      <c r="DP5" s="200"/>
+      <c r="DQ5" s="200"/>
+      <c r="DR5" s="201"/>
+      <c r="DS5" s="199">
         <f>DS6</f>
         <v>45460</v>
       </c>
-      <c r="DT5" s="197"/>
-      <c r="DU5" s="197"/>
-      <c r="DV5" s="197"/>
-      <c r="DW5" s="197"/>
-      <c r="DX5" s="197"/>
-      <c r="DY5" s="203"/>
-      <c r="DZ5" s="196">
+      <c r="DT5" s="200"/>
+      <c r="DU5" s="200"/>
+      <c r="DV5" s="200"/>
+      <c r="DW5" s="200"/>
+      <c r="DX5" s="200"/>
+      <c r="DY5" s="201"/>
+      <c r="DZ5" s="206">
         <f>DZ6</f>
         <v>45467</v>
       </c>
-      <c r="EA5" s="197"/>
-      <c r="EB5" s="197"/>
-      <c r="EC5" s="197"/>
-      <c r="ED5" s="197"/>
-      <c r="EE5" s="197"/>
-      <c r="EF5" s="198"/>
-      <c r="EG5" s="202">
+      <c r="EA5" s="200"/>
+      <c r="EB5" s="200"/>
+      <c r="EC5" s="200"/>
+      <c r="ED5" s="200"/>
+      <c r="EE5" s="200"/>
+      <c r="EF5" s="207"/>
+      <c r="EG5" s="199">
         <f>EG6</f>
         <v>45474</v>
       </c>
-      <c r="EH5" s="197"/>
-      <c r="EI5" s="197"/>
-      <c r="EJ5" s="197"/>
-      <c r="EK5" s="197"/>
-      <c r="EL5" s="197"/>
-      <c r="EM5" s="203"/>
-      <c r="EN5" s="202">
+      <c r="EH5" s="200"/>
+      <c r="EI5" s="200"/>
+      <c r="EJ5" s="200"/>
+      <c r="EK5" s="200"/>
+      <c r="EL5" s="200"/>
+      <c r="EM5" s="201"/>
+      <c r="EN5" s="199">
         <f>EN6</f>
         <v>45481</v>
       </c>
-      <c r="EO5" s="197"/>
-      <c r="EP5" s="197"/>
-      <c r="EQ5" s="197"/>
-      <c r="ER5" s="197"/>
-      <c r="ES5" s="197"/>
-      <c r="ET5" s="203"/>
-      <c r="EU5" s="196">
+      <c r="EO5" s="200"/>
+      <c r="EP5" s="200"/>
+      <c r="EQ5" s="200"/>
+      <c r="ER5" s="200"/>
+      <c r="ES5" s="200"/>
+      <c r="ET5" s="201"/>
+      <c r="EU5" s="206">
         <f>EU6</f>
         <v>45488</v>
       </c>
-      <c r="EV5" s="197"/>
-      <c r="EW5" s="197"/>
-      <c r="EX5" s="197"/>
-      <c r="EY5" s="197"/>
-      <c r="EZ5" s="197"/>
-      <c r="FA5" s="198"/>
-      <c r="FB5" s="202">
+      <c r="EV5" s="200"/>
+      <c r="EW5" s="200"/>
+      <c r="EX5" s="200"/>
+      <c r="EY5" s="200"/>
+      <c r="EZ5" s="200"/>
+      <c r="FA5" s="207"/>
+      <c r="FB5" s="199">
         <f>FB6</f>
         <v>45495</v>
       </c>
-      <c r="FC5" s="197"/>
-      <c r="FD5" s="197"/>
-      <c r="FE5" s="197"/>
-      <c r="FF5" s="197"/>
-      <c r="FG5" s="197"/>
-      <c r="FH5" s="203"/>
-      <c r="FI5" s="202">
+      <c r="FC5" s="200"/>
+      <c r="FD5" s="200"/>
+      <c r="FE5" s="200"/>
+      <c r="FF5" s="200"/>
+      <c r="FG5" s="200"/>
+      <c r="FH5" s="201"/>
+      <c r="FI5" s="199">
         <f>FI6</f>
         <v>45502</v>
       </c>
-      <c r="FJ5" s="197"/>
-      <c r="FK5" s="197"/>
-      <c r="FL5" s="197"/>
-      <c r="FM5" s="197"/>
-      <c r="FN5" s="197"/>
-      <c r="FO5" s="203"/>
-      <c r="FP5" s="196">
+      <c r="FJ5" s="200"/>
+      <c r="FK5" s="200"/>
+      <c r="FL5" s="200"/>
+      <c r="FM5" s="200"/>
+      <c r="FN5" s="200"/>
+      <c r="FO5" s="201"/>
+      <c r="FP5" s="206">
         <f>FP6</f>
         <v>45509</v>
       </c>
-      <c r="FQ5" s="197"/>
-      <c r="FR5" s="197"/>
-      <c r="FS5" s="197"/>
-      <c r="FT5" s="197"/>
-      <c r="FU5" s="197"/>
-      <c r="FV5" s="198"/>
-      <c r="FW5" s="202">
+      <c r="FQ5" s="200"/>
+      <c r="FR5" s="200"/>
+      <c r="FS5" s="200"/>
+      <c r="FT5" s="200"/>
+      <c r="FU5" s="200"/>
+      <c r="FV5" s="207"/>
+      <c r="FW5" s="199">
         <f>FW6</f>
         <v>45516</v>
       </c>
-      <c r="FX5" s="197"/>
-      <c r="FY5" s="197"/>
-      <c r="FZ5" s="197"/>
-      <c r="GA5" s="197"/>
-      <c r="GB5" s="197"/>
-      <c r="GC5" s="203"/>
-      <c r="GD5" s="202">
+      <c r="FX5" s="200"/>
+      <c r="FY5" s="200"/>
+      <c r="FZ5" s="200"/>
+      <c r="GA5" s="200"/>
+      <c r="GB5" s="200"/>
+      <c r="GC5" s="201"/>
+      <c r="GD5" s="199">
         <f>GD6</f>
         <v>45523</v>
       </c>
-      <c r="GE5" s="197"/>
-      <c r="GF5" s="197"/>
-      <c r="GG5" s="197"/>
-      <c r="GH5" s="197"/>
-      <c r="GI5" s="197"/>
-      <c r="GJ5" s="203"/>
-      <c r="GK5" s="196">
+      <c r="GE5" s="200"/>
+      <c r="GF5" s="200"/>
+      <c r="GG5" s="200"/>
+      <c r="GH5" s="200"/>
+      <c r="GI5" s="200"/>
+      <c r="GJ5" s="201"/>
+      <c r="GK5" s="206">
         <f>GK6</f>
         <v>45530</v>
       </c>
-      <c r="GL5" s="197"/>
-      <c r="GM5" s="197"/>
-      <c r="GN5" s="197"/>
-      <c r="GO5" s="197"/>
-      <c r="GP5" s="197"/>
-      <c r="GQ5" s="198"/>
-      <c r="GR5" s="202">
+      <c r="GL5" s="200"/>
+      <c r="GM5" s="200"/>
+      <c r="GN5" s="200"/>
+      <c r="GO5" s="200"/>
+      <c r="GP5" s="200"/>
+      <c r="GQ5" s="207"/>
+      <c r="GR5" s="199">
         <f>GR6</f>
         <v>45537</v>
       </c>
-      <c r="GS5" s="197"/>
-      <c r="GT5" s="197"/>
-      <c r="GU5" s="197"/>
-      <c r="GV5" s="197"/>
-      <c r="GW5" s="197"/>
-      <c r="GX5" s="203"/>
-      <c r="GY5" s="196">
+      <c r="GS5" s="200"/>
+      <c r="GT5" s="200"/>
+      <c r="GU5" s="200"/>
+      <c r="GV5" s="200"/>
+      <c r="GW5" s="200"/>
+      <c r="GX5" s="201"/>
+      <c r="GY5" s="206">
         <f>GY6</f>
         <v>45544</v>
       </c>
-      <c r="GZ5" s="197"/>
-      <c r="HA5" s="197"/>
-      <c r="HB5" s="197"/>
-      <c r="HC5" s="197"/>
-      <c r="HD5" s="197"/>
-      <c r="HE5" s="198"/>
-      <c r="HF5" s="202">
+      <c r="GZ5" s="200"/>
+      <c r="HA5" s="200"/>
+      <c r="HB5" s="200"/>
+      <c r="HC5" s="200"/>
+      <c r="HD5" s="200"/>
+      <c r="HE5" s="207"/>
+      <c r="HF5" s="199">
         <f>HF6</f>
         <v>45551</v>
       </c>
-      <c r="HG5" s="197"/>
-      <c r="HH5" s="197"/>
-      <c r="HI5" s="197"/>
-      <c r="HJ5" s="197"/>
-      <c r="HK5" s="197"/>
-      <c r="HL5" s="203"/>
-      <c r="HM5" s="196">
+      <c r="HG5" s="200"/>
+      <c r="HH5" s="200"/>
+      <c r="HI5" s="200"/>
+      <c r="HJ5" s="200"/>
+      <c r="HK5" s="200"/>
+      <c r="HL5" s="201"/>
+      <c r="HM5" s="206">
         <f>HM6</f>
         <v>45558</v>
       </c>
-      <c r="HN5" s="197"/>
-      <c r="HO5" s="197"/>
-      <c r="HP5" s="197"/>
-      <c r="HQ5" s="197"/>
-      <c r="HR5" s="197"/>
-      <c r="HS5" s="198"/>
-      <c r="HT5" s="202">
+      <c r="HN5" s="200"/>
+      <c r="HO5" s="200"/>
+      <c r="HP5" s="200"/>
+      <c r="HQ5" s="200"/>
+      <c r="HR5" s="200"/>
+      <c r="HS5" s="207"/>
+      <c r="HT5" s="199">
         <f>HT6</f>
         <v>45565</v>
       </c>
-      <c r="HU5" s="197"/>
-      <c r="HV5" s="197"/>
-      <c r="HW5" s="197"/>
-      <c r="HX5" s="197"/>
-      <c r="HY5" s="197"/>
-      <c r="HZ5" s="203"/>
-      <c r="IA5" s="196">
+      <c r="HU5" s="200"/>
+      <c r="HV5" s="200"/>
+      <c r="HW5" s="200"/>
+      <c r="HX5" s="200"/>
+      <c r="HY5" s="200"/>
+      <c r="HZ5" s="201"/>
+      <c r="IA5" s="206">
         <f>IA6</f>
         <v>45572</v>
       </c>
-      <c r="IB5" s="197"/>
-      <c r="IC5" s="197"/>
-      <c r="ID5" s="197"/>
-      <c r="IE5" s="197"/>
-      <c r="IF5" s="197"/>
-      <c r="IG5" s="198"/>
-      <c r="IH5" s="202">
+      <c r="IB5" s="200"/>
+      <c r="IC5" s="200"/>
+      <c r="ID5" s="200"/>
+      <c r="IE5" s="200"/>
+      <c r="IF5" s="200"/>
+      <c r="IG5" s="207"/>
+      <c r="IH5" s="199">
         <f>IH6</f>
         <v>45579</v>
       </c>
-      <c r="II5" s="197"/>
-      <c r="IJ5" s="197"/>
-      <c r="IK5" s="197"/>
-      <c r="IL5" s="197"/>
-      <c r="IM5" s="197"/>
-      <c r="IN5" s="203"/>
-      <c r="IO5" s="196">
+      <c r="II5" s="200"/>
+      <c r="IJ5" s="200"/>
+      <c r="IK5" s="200"/>
+      <c r="IL5" s="200"/>
+      <c r="IM5" s="200"/>
+      <c r="IN5" s="201"/>
+      <c r="IO5" s="206">
         <f>IO6</f>
         <v>45586</v>
       </c>
-      <c r="IP5" s="197"/>
-      <c r="IQ5" s="197"/>
-      <c r="IR5" s="197"/>
-      <c r="IS5" s="197"/>
-      <c r="IT5" s="197"/>
-      <c r="IU5" s="198"/>
+      <c r="IP5" s="200"/>
+      <c r="IQ5" s="200"/>
+      <c r="IR5" s="200"/>
+      <c r="IS5" s="200"/>
+      <c r="IT5" s="200"/>
+      <c r="IU5" s="207"/>
     </row>
-    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="84"/>
       <c r="K6" s="33">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="IU6" s="45"/>
     </row>
-    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="IU7" s="31"/>
     </row>
-    <row r="8" spans="1:255" s="176" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:255" s="176" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="169" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -6442,7 +6442,7 @@
       <c r="IT8" s="172"/>
       <c r="IU8" s="172"/>
     </row>
-    <row r="9" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="143">
         <v>1</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="IT9" s="152"/>
       <c r="IU9" s="152"/>
     </row>
-    <row r="10" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="143" t="str">
         <f t="shared" ref="A10:A19" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1</v>
@@ -6989,7 +6989,7 @@
       <c r="IT10" s="152"/>
       <c r="IU10" s="152"/>
     </row>
-    <row r="11" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.1</v>
@@ -7263,7 +7263,7 @@
       <c r="IT11" s="152"/>
       <c r="IU11" s="152"/>
     </row>
-    <row r="12" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.2</v>
@@ -7538,7 +7538,7 @@
       <c r="IT12" s="152"/>
       <c r="IU12" s="152"/>
     </row>
-    <row r="13" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.3</v>
@@ -7812,7 +7812,7 @@
       <c r="IT13" s="152"/>
       <c r="IU13" s="152"/>
     </row>
-    <row r="14" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.4</v>
@@ -8089,7 +8089,7 @@
       <c r="IT14" s="152"/>
       <c r="IU14" s="152"/>
     </row>
-    <row r="15" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.5</v>
@@ -8366,7 +8366,7 @@
       <c r="IT15" s="152"/>
       <c r="IU15" s="152"/>
     </row>
-    <row r="16" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.6</v>
@@ -8642,7 +8642,7 @@
       <c r="IT16" s="152"/>
       <c r="IU16" s="152"/>
     </row>
-    <row r="17" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.7</v>
@@ -8918,7 +8918,7 @@
       <c r="IT17" s="152"/>
       <c r="IU17" s="152"/>
     </row>
-    <row r="18" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.8</v>
@@ -9192,7 +9192,7 @@
       <c r="IT18" s="152"/>
       <c r="IU18" s="152"/>
     </row>
-    <row r="19" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.9</v>
@@ -9468,7 +9468,7 @@
       <c r="IT19" s="152"/>
       <c r="IU19" s="152"/>
     </row>
-    <row r="20" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="143"/>
       <c r="B20" s="144" t="s">
         <v>32</v>
@@ -9742,7 +9742,7 @@
       <c r="IT20" s="152"/>
       <c r="IU20" s="152"/>
     </row>
-    <row r="21" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="143"/>
       <c r="B21" s="144" t="s">
         <v>31</v>
@@ -10016,7 +10016,7 @@
       <c r="IT21" s="152"/>
       <c r="IU21" s="152"/>
     </row>
-    <row r="22" spans="1:255" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:255" s="93" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="159">
         <v>2</v>
       </c>
@@ -10277,7 +10277,7 @@
       <c r="IT22" s="92"/>
       <c r="IU22" s="92"/>
     </row>
-    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="95">
         <v>2</v>
       </c>
@@ -10551,7 +10551,7 @@
       <c r="IT23" s="104"/>
       <c r="IU23" s="104"/>
     </row>
-    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="95">
         <v>2.1</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="102">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I24" s="191">
         <f t="shared" si="22"/>
@@ -10825,7 +10825,7 @@
       <c r="IT24" s="104"/>
       <c r="IU24" s="104"/>
     </row>
-    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="95">
         <v>2.2000000000000002</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>6</v>
       </c>
       <c r="H25" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="191">
         <f t="shared" si="22"/>
@@ -11099,7 +11099,7 @@
       <c r="IT25" s="104"/>
       <c r="IU25" s="104"/>
     </row>
-    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="95">
         <v>2.2999999999999998</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="191">
         <f t="shared" si="22"/>
@@ -11373,7 +11373,7 @@
       <c r="IT26" s="104"/>
       <c r="IU26" s="104"/>
     </row>
-    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="95">
         <v>2.4</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>16</v>
       </c>
       <c r="H27" s="102">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I27" s="191">
         <f t="shared" si="22"/>
@@ -11647,7 +11647,7 @@
       <c r="IT27" s="104"/>
       <c r="IU27" s="104"/>
     </row>
-    <row r="28" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A28" s="95">
         <v>2.5</v>
       </c>
@@ -11923,7 +11923,7 @@
       <c r="IT28" s="104"/>
       <c r="IU28" s="104"/>
     </row>
-    <row r="29" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A29" s="95">
         <v>2.6</v>
       </c>
@@ -12199,7 +12199,7 @@
       <c r="IT29" s="104"/>
       <c r="IU29" s="104"/>
     </row>
-    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="95">
         <v>2.7</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="IT30" s="104"/>
       <c r="IU30" s="104"/>
     </row>
-    <row r="31" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="95">
         <v>2.8</v>
       </c>
@@ -12749,7 +12749,7 @@
       <c r="IT31" s="104"/>
       <c r="IU31" s="104"/>
     </row>
-    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="95" t="s">
         <v>65</v>
       </c>
@@ -13023,7 +13023,7 @@
       <c r="IT32" s="104"/>
       <c r="IU32" s="104"/>
     </row>
-    <row r="33" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A33" s="95" t="s">
         <v>66</v>
       </c>
@@ -13297,7 +13297,7 @@
       <c r="IT33" s="104"/>
       <c r="IU33" s="104"/>
     </row>
-    <row r="34" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="95" t="s">
         <v>67</v>
       </c>
@@ -13571,7 +13571,7 @@
       <c r="IT34" s="104"/>
       <c r="IU34" s="104"/>
     </row>
-    <row r="35" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="95"/>
       <c r="B35" s="96" t="s">
         <v>37</v>
@@ -13845,7 +13845,7 @@
       <c r="IT35" s="104"/>
       <c r="IU35" s="104"/>
     </row>
-    <row r="36" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="95"/>
       <c r="B36" s="96" t="s">
         <v>36</v>
@@ -14119,7 +14119,7 @@
       <c r="IT36" s="104"/>
       <c r="IU36" s="104"/>
     </row>
-    <row r="37" spans="1:255" s="113" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:255" s="113" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="106">
         <v>3</v>
       </c>
@@ -14380,7 +14380,7 @@
       <c r="IT37" s="109"/>
       <c r="IU37" s="109"/>
     </row>
-    <row r="38" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="114">
         <v>3</v>
       </c>
@@ -14654,7 +14654,7 @@
       <c r="IT38" s="120"/>
       <c r="IU38" s="120"/>
     </row>
-    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="114">
         <v>3.1</v>
       </c>
@@ -14928,7 +14928,7 @@
       <c r="IT39" s="120"/>
       <c r="IU39" s="120"/>
     </row>
-    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="114">
         <v>3.2</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="IT40" s="120"/>
       <c r="IU40" s="120"/>
     </row>
-    <row r="41" spans="1:255" s="121" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:255" s="121" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="114">
         <v>3.3</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="IT41" s="120"/>
       <c r="IU41" s="120"/>
     </row>
-    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="114">
         <v>3.4</v>
       </c>
@@ -15750,7 +15750,7 @@
       <c r="IT42" s="120"/>
       <c r="IU42" s="120"/>
     </row>
-    <row r="43" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A43" s="114" t="s">
         <v>68</v>
       </c>
@@ -16024,7 +16024,7 @@
       <c r="IT43" s="120"/>
       <c r="IU43" s="120"/>
     </row>
-    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="114" t="s">
         <v>69</v>
       </c>
@@ -16298,7 +16298,7 @@
       <c r="IT44" s="120"/>
       <c r="IU44" s="120"/>
     </row>
-    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="114" t="s">
         <v>70</v>
       </c>
@@ -16572,7 +16572,7 @@
       <c r="IT45" s="120"/>
       <c r="IU45" s="120"/>
     </row>
-    <row r="46" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A46" s="114"/>
       <c r="B46" s="154" t="s">
         <v>29</v>
@@ -16846,7 +16846,7 @@
       <c r="IT46" s="120"/>
       <c r="IU46" s="120"/>
     </row>
-    <row r="47" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A47" s="114"/>
       <c r="B47" s="154" t="s">
         <v>30</v>
@@ -17120,7 +17120,7 @@
       <c r="IT47" s="120"/>
       <c r="IU47" s="120"/>
     </row>
-    <row r="48" spans="1:255" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:255" s="131" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A48" s="122">
         <v>4</v>
       </c>
@@ -17381,7 +17381,7 @@
       <c r="IT48" s="125"/>
       <c r="IU48" s="125"/>
     </row>
-    <row r="49" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A49" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -17656,7 +17656,7 @@
       <c r="IT49" s="141"/>
       <c r="IU49" s="141"/>
     </row>
-    <row r="50" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A50" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -17933,7 +17933,7 @@
       <c r="IT50" s="141"/>
       <c r="IU50" s="141"/>
     </row>
-    <row r="51" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A51" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -18209,7 +18209,7 @@
       <c r="IT51" s="141"/>
       <c r="IU51" s="141"/>
     </row>
-    <row r="52" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A52" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -18486,7 +18486,7 @@
       <c r="IT52" s="141"/>
       <c r="IU52" s="141"/>
     </row>
-    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="65" t="s">
         <v>1</v>
       </c>
@@ -18745,7 +18745,7 @@
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
     </row>
-    <row r="55" spans="1:255" s="8" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:255" s="8" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A55" s="66" t="s">
         <v>16</v>
       </c>
@@ -19000,7 +19000,7 @@
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
     </row>
-    <row r="56" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A56" s="54" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -19264,7 +19264,7 @@
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
     </row>
-    <row r="57" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A57" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -19536,7 +19536,7 @@
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
     </row>
-    <row r="58" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A58" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -19808,7 +19808,7 @@
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
     </row>
-    <row r="59" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A59" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -20078,7 +20078,7 @@
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
     </row>
-    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="80" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
@@ -20088,54 +20088,25 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -20152,20 +20123,49 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H55:H59 H8:H52">
@@ -20182,28 +20182,28 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BM7 BO6:CA7 CC6:CH7 CJ6:CV7 CX6:DC7 DS6:DX7 DE6:DQ7 DZ6:EL7 EN6:ES7 EU6:FG7 FI6:FN7 GD6:GI7 FP6:GB7 GK6:GW7 GY6:HK7 HM6:HY7 IA6:IM7 IO6:IU7">
+  <conditionalFormatting sqref="K6:BM7 BO6:CA7 CC6:CH7 CJ6:CV7 CX6:DC7 DE6:DQ7 DS6:DX7 DZ6:EL7 EN6:ES7 EU6:FG7 FI6:FN7 FP6:GB7 GD6:GI7 GK6:GW7 GY6:HK7 HM6:HY7 IA6:IM7 IO6:IU7">
     <cfRule type="expression" dxfId="5" priority="48">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:IU59 K8:IU52">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="K6:IU52 K54:IU59">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>K$6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:IU52 K54:IU59">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6,$C8=1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6,$C8=2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="1" priority="51">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="52">
+    <cfRule type="expression" dxfId="0" priority="52">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:IU59 K6:IU52">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388E0666-93CB-47E6-8474-4A9569029187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537BD04-C794-4A65-AEB0-ABEAD1A2E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2627,6 +2627,15 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2639,28 +2648,7 @@
     <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2697,6 +2685,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2954,13 +2954,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -3294,75 +3294,75 @@
   </sheetPr>
   <dimension ref="A1:IU62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="91" customWidth="1"/>
-    <col min="4" max="4" width="0.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.59765625" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.3984375" style="1" customWidth="1"/>
-    <col min="67" max="68" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.5546875" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
+    <col min="67" max="68" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="164" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.1328125" style="1"/>
+    <col min="229" max="229" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
@@ -3375,23 +3375,23 @@
       <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
-      <c r="AF1" s="208"/>
-      <c r="AG1" s="208"/>
-      <c r="AH1" s="208"/>
-      <c r="AI1" s="208"/>
-      <c r="AJ1" s="208"/>
-      <c r="AK1" s="208"/>
-      <c r="AL1" s="208"/>
-      <c r="AM1" s="208"/>
-      <c r="AN1" s="208"/>
-      <c r="AO1" s="208"/>
-      <c r="AP1" s="208"/>
-      <c r="AQ1" s="208"/>
-      <c r="AR1" s="208"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
+      <c r="AK1" s="204"/>
+      <c r="AL1" s="204"/>
+      <c r="AM1" s="204"/>
+      <c r="AN1" s="204"/>
+      <c r="AO1" s="204"/>
+      <c r="AP1" s="204"/>
+      <c r="AQ1" s="204"/>
+      <c r="AR1" s="204"/>
     </row>
-    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
@@ -3401,7 +3401,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
       <c r="C3" s="83"/>
@@ -3465,735 +3465,735 @@
       <c r="BM3" s="76"/>
       <c r="BN3" s="77"/>
     </row>
-    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="211">
+      <c r="C4" s="207">
         <v>45295</v>
       </c>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="209"/>
       <c r="H4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="74">
         <v>9</v>
       </c>
-      <c r="K4" s="196"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="196" t="str">
+      <c r="K4" s="199"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="199" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="196" t="str">
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="199" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 10</v>
       </c>
-      <c r="Z4" s="197"/>
-      <c r="AA4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="196" t="str">
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="199" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 11</v>
       </c>
-      <c r="AG4" s="197"/>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-      <c r="AK4" s="197"/>
-      <c r="AL4" s="198"/>
-      <c r="AM4" s="196" t="str">
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
+      <c r="AL4" s="201"/>
+      <c r="AM4" s="199" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 12</v>
       </c>
-      <c r="AN4" s="197"/>
-      <c r="AO4" s="197"/>
-      <c r="AP4" s="197"/>
-      <c r="AQ4" s="197"/>
-      <c r="AR4" s="197"/>
-      <c r="AS4" s="198"/>
-      <c r="AT4" s="196" t="str">
+      <c r="AN4" s="200"/>
+      <c r="AO4" s="200"/>
+      <c r="AP4" s="200"/>
+      <c r="AQ4" s="200"/>
+      <c r="AR4" s="200"/>
+      <c r="AS4" s="201"/>
+      <c r="AT4" s="199" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 13</v>
       </c>
-      <c r="AU4" s="197"/>
-      <c r="AV4" s="197"/>
-      <c r="AW4" s="197"/>
-      <c r="AX4" s="197"/>
-      <c r="AY4" s="197"/>
-      <c r="AZ4" s="198"/>
-      <c r="BA4" s="196" t="str">
+      <c r="AU4" s="200"/>
+      <c r="AV4" s="200"/>
+      <c r="AW4" s="200"/>
+      <c r="AX4" s="200"/>
+      <c r="AY4" s="200"/>
+      <c r="AZ4" s="201"/>
+      <c r="BA4" s="199" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 14</v>
       </c>
-      <c r="BB4" s="197"/>
-      <c r="BC4" s="197"/>
-      <c r="BD4" s="197"/>
-      <c r="BE4" s="197"/>
-      <c r="BF4" s="197"/>
-      <c r="BG4" s="198"/>
-      <c r="BH4" s="196" t="str">
+      <c r="BB4" s="200"/>
+      <c r="BC4" s="200"/>
+      <c r="BD4" s="200"/>
+      <c r="BE4" s="200"/>
+      <c r="BF4" s="200"/>
+      <c r="BG4" s="201"/>
+      <c r="BH4" s="199" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 15</v>
       </c>
-      <c r="BI4" s="197"/>
-      <c r="BJ4" s="197"/>
-      <c r="BK4" s="197"/>
-      <c r="BL4" s="197"/>
-      <c r="BM4" s="197"/>
-      <c r="BN4" s="198"/>
-      <c r="BO4" s="196" t="str">
+      <c r="BI4" s="200"/>
+      <c r="BJ4" s="200"/>
+      <c r="BK4" s="200"/>
+      <c r="BL4" s="200"/>
+      <c r="BM4" s="200"/>
+      <c r="BN4" s="201"/>
+      <c r="BO4" s="199" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 16</v>
       </c>
-      <c r="BP4" s="197"/>
-      <c r="BQ4" s="197"/>
-      <c r="BR4" s="197"/>
-      <c r="BS4" s="197"/>
-      <c r="BT4" s="197"/>
-      <c r="BU4" s="198"/>
-      <c r="BV4" s="196" t="str">
+      <c r="BP4" s="200"/>
+      <c r="BQ4" s="200"/>
+      <c r="BR4" s="200"/>
+      <c r="BS4" s="200"/>
+      <c r="BT4" s="200"/>
+      <c r="BU4" s="201"/>
+      <c r="BV4" s="199" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 17</v>
       </c>
-      <c r="BW4" s="197"/>
-      <c r="BX4" s="197"/>
-      <c r="BY4" s="197"/>
-      <c r="BZ4" s="197"/>
-      <c r="CA4" s="197"/>
-      <c r="CB4" s="198"/>
-      <c r="CC4" s="196" t="str">
+      <c r="BW4" s="200"/>
+      <c r="BX4" s="200"/>
+      <c r="BY4" s="200"/>
+      <c r="BZ4" s="200"/>
+      <c r="CA4" s="200"/>
+      <c r="CB4" s="201"/>
+      <c r="CC4" s="199" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 18</v>
       </c>
-      <c r="CD4" s="197"/>
-      <c r="CE4" s="197"/>
-      <c r="CF4" s="197"/>
-      <c r="CG4" s="197"/>
-      <c r="CH4" s="197"/>
-      <c r="CI4" s="198"/>
-      <c r="CJ4" s="196" t="str">
+      <c r="CD4" s="200"/>
+      <c r="CE4" s="200"/>
+      <c r="CF4" s="200"/>
+      <c r="CG4" s="200"/>
+      <c r="CH4" s="200"/>
+      <c r="CI4" s="201"/>
+      <c r="CJ4" s="199" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 19</v>
       </c>
-      <c r="CK4" s="197"/>
-      <c r="CL4" s="197"/>
-      <c r="CM4" s="197"/>
-      <c r="CN4" s="197"/>
-      <c r="CO4" s="197"/>
-      <c r="CP4" s="198"/>
-      <c r="CQ4" s="196" t="str">
+      <c r="CK4" s="200"/>
+      <c r="CL4" s="200"/>
+      <c r="CM4" s="200"/>
+      <c r="CN4" s="200"/>
+      <c r="CO4" s="200"/>
+      <c r="CP4" s="201"/>
+      <c r="CQ4" s="199" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 20</v>
       </c>
-      <c r="CR4" s="197"/>
-      <c r="CS4" s="197"/>
-      <c r="CT4" s="197"/>
-      <c r="CU4" s="197"/>
-      <c r="CV4" s="197"/>
-      <c r="CW4" s="198"/>
-      <c r="CX4" s="196" t="str">
+      <c r="CR4" s="200"/>
+      <c r="CS4" s="200"/>
+      <c r="CT4" s="200"/>
+      <c r="CU4" s="200"/>
+      <c r="CV4" s="200"/>
+      <c r="CW4" s="201"/>
+      <c r="CX4" s="199" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 21</v>
       </c>
-      <c r="CY4" s="197"/>
-      <c r="CZ4" s="197"/>
-      <c r="DA4" s="197"/>
-      <c r="DB4" s="197"/>
-      <c r="DC4" s="197"/>
-      <c r="DD4" s="198"/>
-      <c r="DE4" s="196" t="str">
+      <c r="CY4" s="200"/>
+      <c r="CZ4" s="200"/>
+      <c r="DA4" s="200"/>
+      <c r="DB4" s="200"/>
+      <c r="DC4" s="200"/>
+      <c r="DD4" s="201"/>
+      <c r="DE4" s="199" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 22</v>
       </c>
-      <c r="DF4" s="197"/>
-      <c r="DG4" s="197"/>
-      <c r="DH4" s="197"/>
-      <c r="DI4" s="197"/>
-      <c r="DJ4" s="197"/>
-      <c r="DK4" s="198"/>
-      <c r="DL4" s="196" t="str">
+      <c r="DF4" s="200"/>
+      <c r="DG4" s="200"/>
+      <c r="DH4" s="200"/>
+      <c r="DI4" s="200"/>
+      <c r="DJ4" s="200"/>
+      <c r="DK4" s="201"/>
+      <c r="DL4" s="199" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 23</v>
       </c>
-      <c r="DM4" s="197"/>
-      <c r="DN4" s="197"/>
-      <c r="DO4" s="197"/>
-      <c r="DP4" s="197"/>
-      <c r="DQ4" s="197"/>
-      <c r="DR4" s="198"/>
-      <c r="DS4" s="196" t="str">
+      <c r="DM4" s="200"/>
+      <c r="DN4" s="200"/>
+      <c r="DO4" s="200"/>
+      <c r="DP4" s="200"/>
+      <c r="DQ4" s="200"/>
+      <c r="DR4" s="201"/>
+      <c r="DS4" s="199" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 24</v>
       </c>
-      <c r="DT4" s="197"/>
-      <c r="DU4" s="197"/>
-      <c r="DV4" s="197"/>
-      <c r="DW4" s="197"/>
-      <c r="DX4" s="197"/>
-      <c r="DY4" s="198"/>
-      <c r="DZ4" s="196" t="str">
+      <c r="DT4" s="200"/>
+      <c r="DU4" s="200"/>
+      <c r="DV4" s="200"/>
+      <c r="DW4" s="200"/>
+      <c r="DX4" s="200"/>
+      <c r="DY4" s="201"/>
+      <c r="DZ4" s="199" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 25</v>
       </c>
-      <c r="EA4" s="197"/>
-      <c r="EB4" s="197"/>
-      <c r="EC4" s="197"/>
-      <c r="ED4" s="197"/>
-      <c r="EE4" s="197"/>
-      <c r="EF4" s="198"/>
-      <c r="EG4" s="196" t="str">
+      <c r="EA4" s="200"/>
+      <c r="EB4" s="200"/>
+      <c r="EC4" s="200"/>
+      <c r="ED4" s="200"/>
+      <c r="EE4" s="200"/>
+      <c r="EF4" s="201"/>
+      <c r="EG4" s="199" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 26</v>
       </c>
-      <c r="EH4" s="197"/>
-      <c r="EI4" s="197"/>
-      <c r="EJ4" s="197"/>
-      <c r="EK4" s="197"/>
-      <c r="EL4" s="197"/>
-      <c r="EM4" s="198"/>
-      <c r="EN4" s="196" t="str">
+      <c r="EH4" s="200"/>
+      <c r="EI4" s="200"/>
+      <c r="EJ4" s="200"/>
+      <c r="EK4" s="200"/>
+      <c r="EL4" s="200"/>
+      <c r="EM4" s="201"/>
+      <c r="EN4" s="199" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 27</v>
       </c>
-      <c r="EO4" s="197"/>
-      <c r="EP4" s="197"/>
-      <c r="EQ4" s="197"/>
-      <c r="ER4" s="197"/>
-      <c r="ES4" s="197"/>
-      <c r="ET4" s="198"/>
-      <c r="EU4" s="196" t="str">
+      <c r="EO4" s="200"/>
+      <c r="EP4" s="200"/>
+      <c r="EQ4" s="200"/>
+      <c r="ER4" s="200"/>
+      <c r="ES4" s="200"/>
+      <c r="ET4" s="201"/>
+      <c r="EU4" s="199" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 28</v>
       </c>
-      <c r="EV4" s="197"/>
-      <c r="EW4" s="197"/>
-      <c r="EX4" s="197"/>
-      <c r="EY4" s="197"/>
-      <c r="EZ4" s="197"/>
-      <c r="FA4" s="198"/>
-      <c r="FB4" s="196" t="str">
+      <c r="EV4" s="200"/>
+      <c r="EW4" s="200"/>
+      <c r="EX4" s="200"/>
+      <c r="EY4" s="200"/>
+      <c r="EZ4" s="200"/>
+      <c r="FA4" s="201"/>
+      <c r="FB4" s="199" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 29</v>
       </c>
-      <c r="FC4" s="197"/>
-      <c r="FD4" s="197"/>
-      <c r="FE4" s="197"/>
-      <c r="FF4" s="197"/>
-      <c r="FG4" s="197"/>
-      <c r="FH4" s="198"/>
-      <c r="FI4" s="196" t="str">
+      <c r="FC4" s="200"/>
+      <c r="FD4" s="200"/>
+      <c r="FE4" s="200"/>
+      <c r="FF4" s="200"/>
+      <c r="FG4" s="200"/>
+      <c r="FH4" s="201"/>
+      <c r="FI4" s="199" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 30</v>
       </c>
-      <c r="FJ4" s="197"/>
-      <c r="FK4" s="197"/>
-      <c r="FL4" s="197"/>
-      <c r="FM4" s="197"/>
-      <c r="FN4" s="197"/>
-      <c r="FO4" s="198"/>
-      <c r="FP4" s="196" t="str">
+      <c r="FJ4" s="200"/>
+      <c r="FK4" s="200"/>
+      <c r="FL4" s="200"/>
+      <c r="FM4" s="200"/>
+      <c r="FN4" s="200"/>
+      <c r="FO4" s="201"/>
+      <c r="FP4" s="199" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 31</v>
       </c>
-      <c r="FQ4" s="197"/>
-      <c r="FR4" s="197"/>
-      <c r="FS4" s="197"/>
-      <c r="FT4" s="197"/>
-      <c r="FU4" s="197"/>
-      <c r="FV4" s="198"/>
-      <c r="FW4" s="196" t="str">
+      <c r="FQ4" s="200"/>
+      <c r="FR4" s="200"/>
+      <c r="FS4" s="200"/>
+      <c r="FT4" s="200"/>
+      <c r="FU4" s="200"/>
+      <c r="FV4" s="201"/>
+      <c r="FW4" s="199" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 32</v>
       </c>
-      <c r="FX4" s="197"/>
-      <c r="FY4" s="197"/>
-      <c r="FZ4" s="197"/>
-      <c r="GA4" s="197"/>
-      <c r="GB4" s="197"/>
-      <c r="GC4" s="198"/>
-      <c r="GD4" s="196" t="str">
+      <c r="FX4" s="200"/>
+      <c r="FY4" s="200"/>
+      <c r="FZ4" s="200"/>
+      <c r="GA4" s="200"/>
+      <c r="GB4" s="200"/>
+      <c r="GC4" s="201"/>
+      <c r="GD4" s="199" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 33</v>
       </c>
-      <c r="GE4" s="197"/>
-      <c r="GF4" s="197"/>
-      <c r="GG4" s="197"/>
-      <c r="GH4" s="197"/>
-      <c r="GI4" s="197"/>
-      <c r="GJ4" s="198"/>
-      <c r="GK4" s="196" t="str">
+      <c r="GE4" s="200"/>
+      <c r="GF4" s="200"/>
+      <c r="GG4" s="200"/>
+      <c r="GH4" s="200"/>
+      <c r="GI4" s="200"/>
+      <c r="GJ4" s="201"/>
+      <c r="GK4" s="199" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 34</v>
       </c>
-      <c r="GL4" s="197"/>
-      <c r="GM4" s="197"/>
-      <c r="GN4" s="197"/>
-      <c r="GO4" s="197"/>
-      <c r="GP4" s="197"/>
-      <c r="GQ4" s="198"/>
-      <c r="GR4" s="196" t="str">
+      <c r="GL4" s="200"/>
+      <c r="GM4" s="200"/>
+      <c r="GN4" s="200"/>
+      <c r="GO4" s="200"/>
+      <c r="GP4" s="200"/>
+      <c r="GQ4" s="201"/>
+      <c r="GR4" s="199" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 35</v>
       </c>
-      <c r="GS4" s="197"/>
-      <c r="GT4" s="197"/>
-      <c r="GU4" s="197"/>
-      <c r="GV4" s="197"/>
-      <c r="GW4" s="197"/>
-      <c r="GX4" s="198"/>
-      <c r="GY4" s="196" t="str">
+      <c r="GS4" s="200"/>
+      <c r="GT4" s="200"/>
+      <c r="GU4" s="200"/>
+      <c r="GV4" s="200"/>
+      <c r="GW4" s="200"/>
+      <c r="GX4" s="201"/>
+      <c r="GY4" s="199" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 36</v>
       </c>
-      <c r="GZ4" s="197"/>
-      <c r="HA4" s="197"/>
-      <c r="HB4" s="197"/>
-      <c r="HC4" s="197"/>
-      <c r="HD4" s="197"/>
-      <c r="HE4" s="198"/>
-      <c r="HF4" s="196" t="str">
+      <c r="GZ4" s="200"/>
+      <c r="HA4" s="200"/>
+      <c r="HB4" s="200"/>
+      <c r="HC4" s="200"/>
+      <c r="HD4" s="200"/>
+      <c r="HE4" s="201"/>
+      <c r="HF4" s="199" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 37</v>
       </c>
-      <c r="HG4" s="197"/>
-      <c r="HH4" s="197"/>
-      <c r="HI4" s="197"/>
-      <c r="HJ4" s="197"/>
-      <c r="HK4" s="197"/>
-      <c r="HL4" s="198"/>
-      <c r="HM4" s="196" t="str">
+      <c r="HG4" s="200"/>
+      <c r="HH4" s="200"/>
+      <c r="HI4" s="200"/>
+      <c r="HJ4" s="200"/>
+      <c r="HK4" s="200"/>
+      <c r="HL4" s="201"/>
+      <c r="HM4" s="199" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 38</v>
       </c>
-      <c r="HN4" s="197"/>
-      <c r="HO4" s="197"/>
-      <c r="HP4" s="197"/>
-      <c r="HQ4" s="197"/>
-      <c r="HR4" s="197"/>
-      <c r="HS4" s="198"/>
-      <c r="HT4" s="196" t="str">
+      <c r="HN4" s="200"/>
+      <c r="HO4" s="200"/>
+      <c r="HP4" s="200"/>
+      <c r="HQ4" s="200"/>
+      <c r="HR4" s="200"/>
+      <c r="HS4" s="201"/>
+      <c r="HT4" s="199" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 39</v>
       </c>
-      <c r="HU4" s="197"/>
-      <c r="HV4" s="197"/>
-      <c r="HW4" s="197"/>
-      <c r="HX4" s="197"/>
-      <c r="HY4" s="197"/>
-      <c r="HZ4" s="198"/>
-      <c r="IA4" s="196" t="str">
+      <c r="HU4" s="200"/>
+      <c r="HV4" s="200"/>
+      <c r="HW4" s="200"/>
+      <c r="HX4" s="200"/>
+      <c r="HY4" s="200"/>
+      <c r="HZ4" s="201"/>
+      <c r="IA4" s="199" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 40</v>
       </c>
-      <c r="IB4" s="197"/>
-      <c r="IC4" s="197"/>
-      <c r="ID4" s="197"/>
-      <c r="IE4" s="197"/>
-      <c r="IF4" s="197"/>
-      <c r="IG4" s="198"/>
-      <c r="IH4" s="196" t="str">
+      <c r="IB4" s="200"/>
+      <c r="IC4" s="200"/>
+      <c r="ID4" s="200"/>
+      <c r="IE4" s="200"/>
+      <c r="IF4" s="200"/>
+      <c r="IG4" s="201"/>
+      <c r="IH4" s="199" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 41</v>
       </c>
-      <c r="II4" s="197"/>
-      <c r="IJ4" s="197"/>
-      <c r="IK4" s="197"/>
-      <c r="IL4" s="197"/>
-      <c r="IM4" s="197"/>
-      <c r="IN4" s="198"/>
-      <c r="IO4" s="196" t="str">
+      <c r="II4" s="200"/>
+      <c r="IJ4" s="200"/>
+      <c r="IK4" s="200"/>
+      <c r="IL4" s="200"/>
+      <c r="IM4" s="200"/>
+      <c r="IN4" s="201"/>
+      <c r="IO4" s="199" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 42</v>
       </c>
-      <c r="IP4" s="197"/>
-      <c r="IQ4" s="197"/>
-      <c r="IR4" s="197"/>
-      <c r="IS4" s="197"/>
-      <c r="IT4" s="197"/>
-      <c r="IU4" s="198"/>
+      <c r="IP4" s="200"/>
+      <c r="IQ4" s="200"/>
+      <c r="IR4" s="200"/>
+      <c r="IS4" s="200"/>
+      <c r="IT4" s="200"/>
+      <c r="IU4" s="201"/>
     </row>
-    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="211" t="s">
+      <c r="C5" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="213"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
-      <c r="K5" s="214">
+      <c r="K5" s="210">
         <f>K6</f>
         <v>45348</v>
       </c>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="214">
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="210">
         <f>R6</f>
         <v>45355</v>
       </c>
-      <c r="S5" s="200"/>
-      <c r="T5" s="200"/>
-      <c r="U5" s="200"/>
-      <c r="V5" s="200"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="215"/>
-      <c r="Y5" s="217">
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="211"/>
+      <c r="Y5" s="213">
         <f>Y6</f>
         <v>45362</v>
       </c>
-      <c r="Z5" s="200"/>
-      <c r="AA5" s="200"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="200"/>
-      <c r="AE5" s="218"/>
-      <c r="AF5" s="209">
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="205">
         <f>AF6</f>
         <v>45369</v>
       </c>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="200"/>
-      <c r="AI5" s="200"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="200"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="202">
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="215">
         <f>AM6</f>
         <v>45376</v>
       </c>
-      <c r="AN5" s="200"/>
-      <c r="AO5" s="200"/>
-      <c r="AP5" s="200"/>
-      <c r="AQ5" s="200"/>
-      <c r="AR5" s="200"/>
-      <c r="AS5" s="203"/>
-      <c r="AT5" s="204">
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="216"/>
+      <c r="AT5" s="217">
         <f>AT6</f>
         <v>45383</v>
       </c>
-      <c r="AU5" s="200"/>
-      <c r="AV5" s="200"/>
-      <c r="AW5" s="200"/>
-      <c r="AX5" s="200"/>
-      <c r="AY5" s="200"/>
-      <c r="AZ5" s="205"/>
-      <c r="BA5" s="206">
+      <c r="AU5" s="197"/>
+      <c r="AV5" s="197"/>
+      <c r="AW5" s="197"/>
+      <c r="AX5" s="197"/>
+      <c r="AY5" s="197"/>
+      <c r="AZ5" s="218"/>
+      <c r="BA5" s="196">
         <f>BA6</f>
         <v>45390</v>
       </c>
-      <c r="BB5" s="200"/>
-      <c r="BC5" s="200"/>
-      <c r="BD5" s="200"/>
-      <c r="BE5" s="200"/>
-      <c r="BF5" s="200"/>
-      <c r="BG5" s="207"/>
-      <c r="BH5" s="199">
+      <c r="BB5" s="197"/>
+      <c r="BC5" s="197"/>
+      <c r="BD5" s="197"/>
+      <c r="BE5" s="197"/>
+      <c r="BF5" s="197"/>
+      <c r="BG5" s="198"/>
+      <c r="BH5" s="202">
         <f>BH6</f>
         <v>45397</v>
       </c>
-      <c r="BI5" s="200"/>
-      <c r="BJ5" s="200"/>
-      <c r="BK5" s="200"/>
-      <c r="BL5" s="200"/>
-      <c r="BM5" s="200"/>
-      <c r="BN5" s="201"/>
-      <c r="BO5" s="206">
+      <c r="BI5" s="197"/>
+      <c r="BJ5" s="197"/>
+      <c r="BK5" s="197"/>
+      <c r="BL5" s="197"/>
+      <c r="BM5" s="197"/>
+      <c r="BN5" s="203"/>
+      <c r="BO5" s="196">
         <f>BO6</f>
         <v>45404</v>
       </c>
-      <c r="BP5" s="200"/>
-      <c r="BQ5" s="200"/>
-      <c r="BR5" s="200"/>
-      <c r="BS5" s="200"/>
-      <c r="BT5" s="200"/>
-      <c r="BU5" s="207"/>
-      <c r="BV5" s="199">
+      <c r="BP5" s="197"/>
+      <c r="BQ5" s="197"/>
+      <c r="BR5" s="197"/>
+      <c r="BS5" s="197"/>
+      <c r="BT5" s="197"/>
+      <c r="BU5" s="198"/>
+      <c r="BV5" s="202">
         <f>BV6</f>
         <v>45411</v>
       </c>
-      <c r="BW5" s="200"/>
-      <c r="BX5" s="200"/>
-      <c r="BY5" s="200"/>
-      <c r="BZ5" s="200"/>
-      <c r="CA5" s="200"/>
-      <c r="CB5" s="201"/>
-      <c r="CC5" s="199">
+      <c r="BW5" s="197"/>
+      <c r="BX5" s="197"/>
+      <c r="BY5" s="197"/>
+      <c r="BZ5" s="197"/>
+      <c r="CA5" s="197"/>
+      <c r="CB5" s="203"/>
+      <c r="CC5" s="202">
         <f>CC6</f>
         <v>45418</v>
       </c>
-      <c r="CD5" s="200"/>
-      <c r="CE5" s="200"/>
-      <c r="CF5" s="200"/>
-      <c r="CG5" s="200"/>
-      <c r="CH5" s="200"/>
-      <c r="CI5" s="201"/>
-      <c r="CJ5" s="206">
+      <c r="CD5" s="197"/>
+      <c r="CE5" s="197"/>
+      <c r="CF5" s="197"/>
+      <c r="CG5" s="197"/>
+      <c r="CH5" s="197"/>
+      <c r="CI5" s="203"/>
+      <c r="CJ5" s="196">
         <f>CJ6</f>
         <v>45425</v>
       </c>
-      <c r="CK5" s="200"/>
-      <c r="CL5" s="200"/>
-      <c r="CM5" s="200"/>
-      <c r="CN5" s="200"/>
-      <c r="CO5" s="200"/>
-      <c r="CP5" s="207"/>
-      <c r="CQ5" s="199">
+      <c r="CK5" s="197"/>
+      <c r="CL5" s="197"/>
+      <c r="CM5" s="197"/>
+      <c r="CN5" s="197"/>
+      <c r="CO5" s="197"/>
+      <c r="CP5" s="198"/>
+      <c r="CQ5" s="202">
         <f>CQ6</f>
         <v>45432</v>
       </c>
-      <c r="CR5" s="200"/>
-      <c r="CS5" s="200"/>
-      <c r="CT5" s="200"/>
-      <c r="CU5" s="200"/>
-      <c r="CV5" s="200"/>
-      <c r="CW5" s="201"/>
-      <c r="CX5" s="199">
+      <c r="CR5" s="197"/>
+      <c r="CS5" s="197"/>
+      <c r="CT5" s="197"/>
+      <c r="CU5" s="197"/>
+      <c r="CV5" s="197"/>
+      <c r="CW5" s="203"/>
+      <c r="CX5" s="202">
         <f>CX6</f>
         <v>45439</v>
       </c>
-      <c r="CY5" s="200"/>
-      <c r="CZ5" s="200"/>
-      <c r="DA5" s="200"/>
-      <c r="DB5" s="200"/>
-      <c r="DC5" s="200"/>
-      <c r="DD5" s="201"/>
-      <c r="DE5" s="206">
+      <c r="CY5" s="197"/>
+      <c r="CZ5" s="197"/>
+      <c r="DA5" s="197"/>
+      <c r="DB5" s="197"/>
+      <c r="DC5" s="197"/>
+      <c r="DD5" s="203"/>
+      <c r="DE5" s="196">
         <f>DE6</f>
         <v>45446</v>
       </c>
-      <c r="DF5" s="200"/>
-      <c r="DG5" s="200"/>
-      <c r="DH5" s="200"/>
-      <c r="DI5" s="200"/>
-      <c r="DJ5" s="200"/>
-      <c r="DK5" s="207"/>
-      <c r="DL5" s="199">
+      <c r="DF5" s="197"/>
+      <c r="DG5" s="197"/>
+      <c r="DH5" s="197"/>
+      <c r="DI5" s="197"/>
+      <c r="DJ5" s="197"/>
+      <c r="DK5" s="198"/>
+      <c r="DL5" s="202">
         <f>DL6</f>
         <v>45453</v>
       </c>
-      <c r="DM5" s="200"/>
-      <c r="DN5" s="200"/>
-      <c r="DO5" s="200"/>
-      <c r="DP5" s="200"/>
-      <c r="DQ5" s="200"/>
-      <c r="DR5" s="201"/>
-      <c r="DS5" s="199">
+      <c r="DM5" s="197"/>
+      <c r="DN5" s="197"/>
+      <c r="DO5" s="197"/>
+      <c r="DP5" s="197"/>
+      <c r="DQ5" s="197"/>
+      <c r="DR5" s="203"/>
+      <c r="DS5" s="202">
         <f>DS6</f>
         <v>45460</v>
       </c>
-      <c r="DT5" s="200"/>
-      <c r="DU5" s="200"/>
-      <c r="DV5" s="200"/>
-      <c r="DW5" s="200"/>
-      <c r="DX5" s="200"/>
-      <c r="DY5" s="201"/>
-      <c r="DZ5" s="206">
+      <c r="DT5" s="197"/>
+      <c r="DU5" s="197"/>
+      <c r="DV5" s="197"/>
+      <c r="DW5" s="197"/>
+      <c r="DX5" s="197"/>
+      <c r="DY5" s="203"/>
+      <c r="DZ5" s="196">
         <f>DZ6</f>
         <v>45467</v>
       </c>
-      <c r="EA5" s="200"/>
-      <c r="EB5" s="200"/>
-      <c r="EC5" s="200"/>
-      <c r="ED5" s="200"/>
-      <c r="EE5" s="200"/>
-      <c r="EF5" s="207"/>
-      <c r="EG5" s="199">
+      <c r="EA5" s="197"/>
+      <c r="EB5" s="197"/>
+      <c r="EC5" s="197"/>
+      <c r="ED5" s="197"/>
+      <c r="EE5" s="197"/>
+      <c r="EF5" s="198"/>
+      <c r="EG5" s="202">
         <f>EG6</f>
         <v>45474</v>
       </c>
-      <c r="EH5" s="200"/>
-      <c r="EI5" s="200"/>
-      <c r="EJ5" s="200"/>
-      <c r="EK5" s="200"/>
-      <c r="EL5" s="200"/>
-      <c r="EM5" s="201"/>
-      <c r="EN5" s="199">
+      <c r="EH5" s="197"/>
+      <c r="EI5" s="197"/>
+      <c r="EJ5" s="197"/>
+      <c r="EK5" s="197"/>
+      <c r="EL5" s="197"/>
+      <c r="EM5" s="203"/>
+      <c r="EN5" s="202">
         <f>EN6</f>
         <v>45481</v>
       </c>
-      <c r="EO5" s="200"/>
-      <c r="EP5" s="200"/>
-      <c r="EQ5" s="200"/>
-      <c r="ER5" s="200"/>
-      <c r="ES5" s="200"/>
-      <c r="ET5" s="201"/>
-      <c r="EU5" s="206">
+      <c r="EO5" s="197"/>
+      <c r="EP5" s="197"/>
+      <c r="EQ5" s="197"/>
+      <c r="ER5" s="197"/>
+      <c r="ES5" s="197"/>
+      <c r="ET5" s="203"/>
+      <c r="EU5" s="196">
         <f>EU6</f>
         <v>45488</v>
       </c>
-      <c r="EV5" s="200"/>
-      <c r="EW5" s="200"/>
-      <c r="EX5" s="200"/>
-      <c r="EY5" s="200"/>
-      <c r="EZ5" s="200"/>
-      <c r="FA5" s="207"/>
-      <c r="FB5" s="199">
+      <c r="EV5" s="197"/>
+      <c r="EW5" s="197"/>
+      <c r="EX5" s="197"/>
+      <c r="EY5" s="197"/>
+      <c r="EZ5" s="197"/>
+      <c r="FA5" s="198"/>
+      <c r="FB5" s="202">
         <f>FB6</f>
         <v>45495</v>
       </c>
-      <c r="FC5" s="200"/>
-      <c r="FD5" s="200"/>
-      <c r="FE5" s="200"/>
-      <c r="FF5" s="200"/>
-      <c r="FG5" s="200"/>
-      <c r="FH5" s="201"/>
-      <c r="FI5" s="199">
+      <c r="FC5" s="197"/>
+      <c r="FD5" s="197"/>
+      <c r="FE5" s="197"/>
+      <c r="FF5" s="197"/>
+      <c r="FG5" s="197"/>
+      <c r="FH5" s="203"/>
+      <c r="FI5" s="202">
         <f>FI6</f>
         <v>45502</v>
       </c>
-      <c r="FJ5" s="200"/>
-      <c r="FK5" s="200"/>
-      <c r="FL5" s="200"/>
-      <c r="FM5" s="200"/>
-      <c r="FN5" s="200"/>
-      <c r="FO5" s="201"/>
-      <c r="FP5" s="206">
+      <c r="FJ5" s="197"/>
+      <c r="FK5" s="197"/>
+      <c r="FL5" s="197"/>
+      <c r="FM5" s="197"/>
+      <c r="FN5" s="197"/>
+      <c r="FO5" s="203"/>
+      <c r="FP5" s="196">
         <f>FP6</f>
         <v>45509</v>
       </c>
-      <c r="FQ5" s="200"/>
-      <c r="FR5" s="200"/>
-      <c r="FS5" s="200"/>
-      <c r="FT5" s="200"/>
-      <c r="FU5" s="200"/>
-      <c r="FV5" s="207"/>
-      <c r="FW5" s="199">
+      <c r="FQ5" s="197"/>
+      <c r="FR5" s="197"/>
+      <c r="FS5" s="197"/>
+      <c r="FT5" s="197"/>
+      <c r="FU5" s="197"/>
+      <c r="FV5" s="198"/>
+      <c r="FW5" s="202">
         <f>FW6</f>
         <v>45516</v>
       </c>
-      <c r="FX5" s="200"/>
-      <c r="FY5" s="200"/>
-      <c r="FZ5" s="200"/>
-      <c r="GA5" s="200"/>
-      <c r="GB5" s="200"/>
-      <c r="GC5" s="201"/>
-      <c r="GD5" s="199">
+      <c r="FX5" s="197"/>
+      <c r="FY5" s="197"/>
+      <c r="FZ5" s="197"/>
+      <c r="GA5" s="197"/>
+      <c r="GB5" s="197"/>
+      <c r="GC5" s="203"/>
+      <c r="GD5" s="202">
         <f>GD6</f>
         <v>45523</v>
       </c>
-      <c r="GE5" s="200"/>
-      <c r="GF5" s="200"/>
-      <c r="GG5" s="200"/>
-      <c r="GH5" s="200"/>
-      <c r="GI5" s="200"/>
-      <c r="GJ5" s="201"/>
-      <c r="GK5" s="206">
+      <c r="GE5" s="197"/>
+      <c r="GF5" s="197"/>
+      <c r="GG5" s="197"/>
+      <c r="GH5" s="197"/>
+      <c r="GI5" s="197"/>
+      <c r="GJ5" s="203"/>
+      <c r="GK5" s="196">
         <f>GK6</f>
         <v>45530</v>
       </c>
-      <c r="GL5" s="200"/>
-      <c r="GM5" s="200"/>
-      <c r="GN5" s="200"/>
-      <c r="GO5" s="200"/>
-      <c r="GP5" s="200"/>
-      <c r="GQ5" s="207"/>
-      <c r="GR5" s="199">
+      <c r="GL5" s="197"/>
+      <c r="GM5" s="197"/>
+      <c r="GN5" s="197"/>
+      <c r="GO5" s="197"/>
+      <c r="GP5" s="197"/>
+      <c r="GQ5" s="198"/>
+      <c r="GR5" s="202">
         <f>GR6</f>
         <v>45537</v>
       </c>
-      <c r="GS5" s="200"/>
-      <c r="GT5" s="200"/>
-      <c r="GU5" s="200"/>
-      <c r="GV5" s="200"/>
-      <c r="GW5" s="200"/>
-      <c r="GX5" s="201"/>
-      <c r="GY5" s="206">
+      <c r="GS5" s="197"/>
+      <c r="GT5" s="197"/>
+      <c r="GU5" s="197"/>
+      <c r="GV5" s="197"/>
+      <c r="GW5" s="197"/>
+      <c r="GX5" s="203"/>
+      <c r="GY5" s="196">
         <f>GY6</f>
         <v>45544</v>
       </c>
-      <c r="GZ5" s="200"/>
-      <c r="HA5" s="200"/>
-      <c r="HB5" s="200"/>
-      <c r="HC5" s="200"/>
-      <c r="HD5" s="200"/>
-      <c r="HE5" s="207"/>
-      <c r="HF5" s="199">
+      <c r="GZ5" s="197"/>
+      <c r="HA5" s="197"/>
+      <c r="HB5" s="197"/>
+      <c r="HC5" s="197"/>
+      <c r="HD5" s="197"/>
+      <c r="HE5" s="198"/>
+      <c r="HF5" s="202">
         <f>HF6</f>
         <v>45551</v>
       </c>
-      <c r="HG5" s="200"/>
-      <c r="HH5" s="200"/>
-      <c r="HI5" s="200"/>
-      <c r="HJ5" s="200"/>
-      <c r="HK5" s="200"/>
-      <c r="HL5" s="201"/>
-      <c r="HM5" s="206">
+      <c r="HG5" s="197"/>
+      <c r="HH5" s="197"/>
+      <c r="HI5" s="197"/>
+      <c r="HJ5" s="197"/>
+      <c r="HK5" s="197"/>
+      <c r="HL5" s="203"/>
+      <c r="HM5" s="196">
         <f>HM6</f>
         <v>45558</v>
       </c>
-      <c r="HN5" s="200"/>
-      <c r="HO5" s="200"/>
-      <c r="HP5" s="200"/>
-      <c r="HQ5" s="200"/>
-      <c r="HR5" s="200"/>
-      <c r="HS5" s="207"/>
-      <c r="HT5" s="199">
+      <c r="HN5" s="197"/>
+      <c r="HO5" s="197"/>
+      <c r="HP5" s="197"/>
+      <c r="HQ5" s="197"/>
+      <c r="HR5" s="197"/>
+      <c r="HS5" s="198"/>
+      <c r="HT5" s="202">
         <f>HT6</f>
         <v>45565</v>
       </c>
-      <c r="HU5" s="200"/>
-      <c r="HV5" s="200"/>
-      <c r="HW5" s="200"/>
-      <c r="HX5" s="200"/>
-      <c r="HY5" s="200"/>
-      <c r="HZ5" s="201"/>
-      <c r="IA5" s="206">
+      <c r="HU5" s="197"/>
+      <c r="HV5" s="197"/>
+      <c r="HW5" s="197"/>
+      <c r="HX5" s="197"/>
+      <c r="HY5" s="197"/>
+      <c r="HZ5" s="203"/>
+      <c r="IA5" s="196">
         <f>IA6</f>
         <v>45572</v>
       </c>
-      <c r="IB5" s="200"/>
-      <c r="IC5" s="200"/>
-      <c r="ID5" s="200"/>
-      <c r="IE5" s="200"/>
-      <c r="IF5" s="200"/>
-      <c r="IG5" s="207"/>
-      <c r="IH5" s="199">
+      <c r="IB5" s="197"/>
+      <c r="IC5" s="197"/>
+      <c r="ID5" s="197"/>
+      <c r="IE5" s="197"/>
+      <c r="IF5" s="197"/>
+      <c r="IG5" s="198"/>
+      <c r="IH5" s="202">
         <f>IH6</f>
         <v>45579</v>
       </c>
-      <c r="II5" s="200"/>
-      <c r="IJ5" s="200"/>
-      <c r="IK5" s="200"/>
-      <c r="IL5" s="200"/>
-      <c r="IM5" s="200"/>
-      <c r="IN5" s="201"/>
-      <c r="IO5" s="206">
+      <c r="II5" s="197"/>
+      <c r="IJ5" s="197"/>
+      <c r="IK5" s="197"/>
+      <c r="IL5" s="197"/>
+      <c r="IM5" s="197"/>
+      <c r="IN5" s="203"/>
+      <c r="IO5" s="196">
         <f>IO6</f>
         <v>45586</v>
       </c>
-      <c r="IP5" s="200"/>
-      <c r="IQ5" s="200"/>
-      <c r="IR5" s="200"/>
-      <c r="IS5" s="200"/>
-      <c r="IT5" s="200"/>
-      <c r="IU5" s="207"/>
+      <c r="IP5" s="197"/>
+      <c r="IQ5" s="197"/>
+      <c r="IR5" s="197"/>
+      <c r="IS5" s="197"/>
+      <c r="IT5" s="197"/>
+      <c r="IU5" s="198"/>
     </row>
-    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="84"/>
       <c r="K6" s="33">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="IU6" s="45"/>
     </row>
-    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:255" s="21" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="IU7" s="31"/>
     </row>
-    <row r="8" spans="1:255" s="176" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:255" s="176" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -6442,7 +6442,7 @@
       <c r="IT8" s="172"/>
       <c r="IU8" s="172"/>
     </row>
-    <row r="9" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="143">
         <v>1</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="150">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="I9" s="189">
         <f t="shared" ref="I9:I14" si="17">IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
@@ -6715,7 +6715,7 @@
       <c r="IT9" s="152"/>
       <c r="IU9" s="152"/>
     </row>
-    <row r="10" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:255" s="153" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A10" s="143" t="str">
         <f t="shared" ref="A10:A19" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1</v>
@@ -6989,7 +6989,7 @@
       <c r="IT10" s="152"/>
       <c r="IU10" s="152"/>
     </row>
-    <row r="11" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.1</v>
@@ -7263,7 +7263,7 @@
       <c r="IT11" s="152"/>
       <c r="IU11" s="152"/>
     </row>
-    <row r="12" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.2</v>
@@ -7538,7 +7538,7 @@
       <c r="IT12" s="152"/>
       <c r="IU12" s="152"/>
     </row>
-    <row r="13" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.3</v>
@@ -7812,7 +7812,7 @@
       <c r="IT13" s="152"/>
       <c r="IU13" s="152"/>
     </row>
-    <row r="14" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.4</v>
@@ -8089,7 +8089,7 @@
       <c r="IT14" s="152"/>
       <c r="IU14" s="152"/>
     </row>
-    <row r="15" spans="1:255" s="153" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:255" s="153" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A15" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.5</v>
@@ -8366,7 +8366,7 @@
       <c r="IT15" s="152"/>
       <c r="IU15" s="152"/>
     </row>
-    <row r="16" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.6</v>
@@ -8642,7 +8642,7 @@
       <c r="IT16" s="152"/>
       <c r="IU16" s="152"/>
     </row>
-    <row r="17" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.7</v>
@@ -8918,7 +8918,7 @@
       <c r="IT17" s="152"/>
       <c r="IU17" s="152"/>
     </row>
-    <row r="18" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.8</v>
@@ -9192,7 +9192,7 @@
       <c r="IT18" s="152"/>
       <c r="IU18" s="152"/>
     </row>
-    <row r="19" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.9</v>
@@ -9468,7 +9468,7 @@
       <c r="IT19" s="152"/>
       <c r="IU19" s="152"/>
     </row>
-    <row r="20" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="143"/>
       <c r="B20" s="144" t="s">
         <v>32</v>
@@ -9742,7 +9742,7 @@
       <c r="IT20" s="152"/>
       <c r="IU20" s="152"/>
     </row>
-    <row r="21" spans="1:255" s="153" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="143"/>
       <c r="B21" s="144" t="s">
         <v>31</v>
@@ -10016,7 +10016,7 @@
       <c r="IT21" s="152"/>
       <c r="IU21" s="152"/>
     </row>
-    <row r="22" spans="1:255" s="93" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:255" s="93" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="159">
         <v>2</v>
       </c>
@@ -10277,7 +10277,7 @@
       <c r="IT22" s="92"/>
       <c r="IU22" s="92"/>
     </row>
-    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="95">
         <v>2</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="102">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I23" s="190">
         <f t="shared" ref="I23:I36" si="22">IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
@@ -10551,7 +10551,7 @@
       <c r="IT23" s="104"/>
       <c r="IU23" s="104"/>
     </row>
-    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="95">
         <v>2.1</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="102">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I24" s="191">
         <f t="shared" si="22"/>
@@ -10825,7 +10825,7 @@
       <c r="IT24" s="104"/>
       <c r="IU24" s="104"/>
     </row>
-    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="95">
         <v>2.2000000000000002</v>
       </c>
@@ -11099,7 +11099,7 @@
       <c r="IT25" s="104"/>
       <c r="IU25" s="104"/>
     </row>
-    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="95">
         <v>2.2999999999999998</v>
       </c>
@@ -11373,7 +11373,7 @@
       <c r="IT26" s="104"/>
       <c r="IU26" s="104"/>
     </row>
-    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="95">
         <v>2.4</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>16</v>
       </c>
       <c r="H27" s="102">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="I27" s="191">
         <f t="shared" si="22"/>
@@ -11647,7 +11647,7 @@
       <c r="IT27" s="104"/>
       <c r="IU27" s="104"/>
     </row>
-    <row r="28" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="95">
         <v>2.5</v>
       </c>
@@ -11923,7 +11923,7 @@
       <c r="IT28" s="104"/>
       <c r="IU28" s="104"/>
     </row>
-    <row r="29" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="95">
         <v>2.6</v>
       </c>
@@ -12199,7 +12199,7 @@
       <c r="IT29" s="104"/>
       <c r="IU29" s="104"/>
     </row>
-    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="95">
         <v>2.7</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="IT30" s="104"/>
       <c r="IU30" s="104"/>
     </row>
-    <row r="31" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="95">
         <v>2.8</v>
       </c>
@@ -12749,7 +12749,7 @@
       <c r="IT31" s="104"/>
       <c r="IU31" s="104"/>
     </row>
-    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="95" t="s">
         <v>65</v>
       </c>
@@ -13023,7 +13023,7 @@
       <c r="IT32" s="104"/>
       <c r="IU32" s="104"/>
     </row>
-    <row r="33" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="95" t="s">
         <v>66</v>
       </c>
@@ -13297,7 +13297,7 @@
       <c r="IT33" s="104"/>
       <c r="IU33" s="104"/>
     </row>
-    <row r="34" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="95" t="s">
         <v>67</v>
       </c>
@@ -13571,7 +13571,7 @@
       <c r="IT34" s="104"/>
       <c r="IU34" s="104"/>
     </row>
-    <row r="35" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="95"/>
       <c r="B35" s="96" t="s">
         <v>37</v>
@@ -13845,7 +13845,7 @@
       <c r="IT35" s="104"/>
       <c r="IU35" s="104"/>
     </row>
-    <row r="36" spans="1:255" s="105" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="95"/>
       <c r="B36" s="96" t="s">
         <v>36</v>
@@ -14119,7 +14119,7 @@
       <c r="IT36" s="104"/>
       <c r="IU36" s="104"/>
     </row>
-    <row r="37" spans="1:255" s="113" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:255" s="113" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="106">
         <v>3</v>
       </c>
@@ -14380,7 +14380,7 @@
       <c r="IT37" s="109"/>
       <c r="IU37" s="109"/>
     </row>
-    <row r="38" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="114">
         <v>3</v>
       </c>
@@ -14654,7 +14654,7 @@
       <c r="IT38" s="120"/>
       <c r="IU38" s="120"/>
     </row>
-    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="114">
         <v>3.1</v>
       </c>
@@ -14928,7 +14928,7 @@
       <c r="IT39" s="120"/>
       <c r="IU39" s="120"/>
     </row>
-    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="114">
         <v>3.2</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="IT40" s="120"/>
       <c r="IU40" s="120"/>
     </row>
-    <row r="41" spans="1:255" s="121" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:255" s="121" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A41" s="114">
         <v>3.3</v>
       </c>
@@ -15476,7 +15476,7 @@
       <c r="IT41" s="120"/>
       <c r="IU41" s="120"/>
     </row>
-    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="114">
         <v>3.4</v>
       </c>
@@ -15750,7 +15750,7 @@
       <c r="IT42" s="120"/>
       <c r="IU42" s="120"/>
     </row>
-    <row r="43" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="114" t="s">
         <v>68</v>
       </c>
@@ -16024,7 +16024,7 @@
       <c r="IT43" s="120"/>
       <c r="IU43" s="120"/>
     </row>
-    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="114" t="s">
         <v>69</v>
       </c>
@@ -16298,7 +16298,7 @@
       <c r="IT44" s="120"/>
       <c r="IU44" s="120"/>
     </row>
-    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="114" t="s">
         <v>70</v>
       </c>
@@ -16572,7 +16572,7 @@
       <c r="IT45" s="120"/>
       <c r="IU45" s="120"/>
     </row>
-    <row r="46" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A46" s="114"/>
       <c r="B46" s="154" t="s">
         <v>29</v>
@@ -16846,7 +16846,7 @@
       <c r="IT46" s="120"/>
       <c r="IU46" s="120"/>
     </row>
-    <row r="47" spans="1:255" s="121" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A47" s="114"/>
       <c r="B47" s="154" t="s">
         <v>30</v>
@@ -17120,7 +17120,7 @@
       <c r="IT47" s="120"/>
       <c r="IU47" s="120"/>
     </row>
-    <row r="48" spans="1:255" s="131" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:255" s="131" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A48" s="122">
         <v>4</v>
       </c>
@@ -17381,7 +17381,7 @@
       <c r="IT48" s="125"/>
       <c r="IU48" s="125"/>
     </row>
-    <row r="49" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A49" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -17656,7 +17656,7 @@
       <c r="IT49" s="141"/>
       <c r="IU49" s="141"/>
     </row>
-    <row r="50" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A50" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -17933,7 +17933,7 @@
       <c r="IT50" s="141"/>
       <c r="IU50" s="141"/>
     </row>
-    <row r="51" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A51" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -18209,7 +18209,7 @@
       <c r="IT51" s="141"/>
       <c r="IU51" s="141"/>
     </row>
-    <row r="52" spans="1:255" s="142" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A52" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -18486,7 +18486,7 @@
       <c r="IT52" s="141"/>
       <c r="IU52" s="141"/>
     </row>
-    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
         <v>1</v>
       </c>
@@ -18745,7 +18745,7 @@
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
     </row>
-    <row r="55" spans="1:255" s="8" customFormat="1" ht="17.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:255" s="8" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="66" t="s">
         <v>16</v>
       </c>
@@ -19000,7 +19000,7 @@
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
     </row>
-    <row r="56" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -19264,7 +19264,7 @@
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
     </row>
-    <row r="57" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -19536,7 +19536,7 @@
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
     </row>
-    <row r="58" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -19808,7 +19808,7 @@
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
     </row>
-    <row r="59" spans="1:255" s="8" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A59" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -20078,7 +20078,7 @@
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
     </row>
-    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="80" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
@@ -20088,25 +20088,54 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
-    <mergeCell ref="IO5:IU5"/>
-    <mergeCell ref="IO4:IU4"/>
-    <mergeCell ref="HT4:HZ4"/>
-    <mergeCell ref="IA4:IG4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="HM5:HS5"/>
-    <mergeCell ref="HT5:HZ5"/>
-    <mergeCell ref="IA5:IG5"/>
-    <mergeCell ref="IH5:IN5"/>
-    <mergeCell ref="GY4:HE4"/>
-    <mergeCell ref="HF4:HL4"/>
-    <mergeCell ref="GY5:HE5"/>
-    <mergeCell ref="HF5:HL5"/>
-    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="BH4:BN4"/>
+    <mergeCell ref="BH5:BN5"/>
+    <mergeCell ref="AM5:AS5"/>
+    <mergeCell ref="AT4:AZ4"/>
+    <mergeCell ref="AT5:AZ5"/>
+    <mergeCell ref="AM4:AS4"/>
+    <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="AD1:AR1"/>
+    <mergeCell ref="AF4:AL4"/>
+    <mergeCell ref="AF5:AL5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="BO4:BU4"/>
+    <mergeCell ref="BV4:CB4"/>
+    <mergeCell ref="CC4:CI4"/>
+    <mergeCell ref="CJ4:CP4"/>
+    <mergeCell ref="CQ4:CW4"/>
+    <mergeCell ref="BO5:BU5"/>
+    <mergeCell ref="BV5:CB5"/>
+    <mergeCell ref="CC5:CI5"/>
+    <mergeCell ref="CJ5:CP5"/>
+    <mergeCell ref="CQ5:CW5"/>
+    <mergeCell ref="FI4:FO4"/>
+    <mergeCell ref="FP4:FV4"/>
+    <mergeCell ref="EG4:EM4"/>
+    <mergeCell ref="CX5:DD5"/>
+    <mergeCell ref="DE5:DK5"/>
+    <mergeCell ref="DL5:DR5"/>
+    <mergeCell ref="DS5:DY5"/>
+    <mergeCell ref="DZ5:EF5"/>
+    <mergeCell ref="EG5:EM5"/>
+    <mergeCell ref="CX4:DD4"/>
+    <mergeCell ref="DE4:DK4"/>
+    <mergeCell ref="DL4:DR4"/>
+    <mergeCell ref="DS4:DY4"/>
+    <mergeCell ref="DZ4:EF4"/>
     <mergeCell ref="FW4:GC4"/>
     <mergeCell ref="GD4:GJ4"/>
     <mergeCell ref="GK4:GQ4"/>
@@ -20123,49 +20152,20 @@
     <mergeCell ref="EN4:ET4"/>
     <mergeCell ref="EU4:FA4"/>
     <mergeCell ref="FB4:FH4"/>
-    <mergeCell ref="FI4:FO4"/>
-    <mergeCell ref="FP4:FV4"/>
-    <mergeCell ref="EG4:EM4"/>
-    <mergeCell ref="CX5:DD5"/>
-    <mergeCell ref="DE5:DK5"/>
-    <mergeCell ref="DL5:DR5"/>
-    <mergeCell ref="DS5:DY5"/>
-    <mergeCell ref="DZ5:EF5"/>
-    <mergeCell ref="EG5:EM5"/>
-    <mergeCell ref="CX4:DD4"/>
-    <mergeCell ref="DE4:DK4"/>
-    <mergeCell ref="DL4:DR4"/>
-    <mergeCell ref="DS4:DY4"/>
-    <mergeCell ref="DZ4:EF4"/>
-    <mergeCell ref="BO5:BU5"/>
-    <mergeCell ref="BV5:CB5"/>
-    <mergeCell ref="CC5:CI5"/>
-    <mergeCell ref="CJ5:CP5"/>
-    <mergeCell ref="CQ5:CW5"/>
-    <mergeCell ref="BO4:BU4"/>
-    <mergeCell ref="BV4:CB4"/>
-    <mergeCell ref="CC4:CI4"/>
-    <mergeCell ref="CJ4:CP4"/>
-    <mergeCell ref="CQ4:CW4"/>
-    <mergeCell ref="AD1:AR1"/>
-    <mergeCell ref="AF4:AL4"/>
-    <mergeCell ref="AF5:AL5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="BH4:BN4"/>
-    <mergeCell ref="BH5:BN5"/>
-    <mergeCell ref="AM5:AS5"/>
-    <mergeCell ref="AT4:AZ4"/>
-    <mergeCell ref="AT5:AZ5"/>
-    <mergeCell ref="AM4:AS4"/>
-    <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="HM5:HS5"/>
+    <mergeCell ref="HT5:HZ5"/>
+    <mergeCell ref="IA5:IG5"/>
+    <mergeCell ref="IH5:IN5"/>
+    <mergeCell ref="GY4:HE4"/>
+    <mergeCell ref="HF4:HL4"/>
+    <mergeCell ref="GY5:HE5"/>
+    <mergeCell ref="HF5:HL5"/>
+    <mergeCell ref="HM4:HS4"/>
+    <mergeCell ref="IO5:IU5"/>
+    <mergeCell ref="IO4:IU4"/>
+    <mergeCell ref="HT4:HZ4"/>
+    <mergeCell ref="IA4:IG4"/>
+    <mergeCell ref="IH4:IN4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H55:H59 H8:H52">
@@ -20228,13 +20228,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>7620</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6537BD04-C794-4A65-AEB0-ABEAD1A2E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B2875-5A2A-4B1B-8608-C7DA8288FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2885,7 +2885,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="15"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2954,13 +2954,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>104775</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -3294,75 +3294,70 @@
   </sheetPr>
   <dimension ref="A1:IU62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW25" sqref="AW25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="91" customWidth="1"/>
-    <col min="4" max="4" width="0.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.5546875" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.44140625" style="1" customWidth="1"/>
-    <col min="67" max="68" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="164" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="1.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.5703125" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
+    <col min="67" max="68" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="74" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="102" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="137" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="165" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="200" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.109375" style="1"/>
+    <col min="229" max="229" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
@@ -3391,7 +3386,7 @@
       <c r="AQ1" s="204"/>
       <c r="AR1" s="204"/>
     </row>
-    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
@@ -3465,7 +3460,7 @@
       <c r="BM3" s="76"/>
       <c r="BN3" s="77"/>
     </row>
-    <row r="4" spans="1:255" s="70" customFormat="1" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:255" s="70" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
@@ -3478,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="74">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K4" s="199"/>
       <c r="L4" s="200"/>
@@ -3489,7 +3484,7 @@
       <c r="Q4" s="201"/>
       <c r="R4" s="199" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
+        <v>Week 15</v>
       </c>
       <c r="S4" s="200"/>
       <c r="T4" s="200"/>
@@ -3499,7 +3494,7 @@
       <c r="X4" s="201"/>
       <c r="Y4" s="199" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 10</v>
+        <v>Week 16</v>
       </c>
       <c r="Z4" s="200"/>
       <c r="AA4" s="200"/>
@@ -3509,7 +3504,7 @@
       <c r="AE4" s="201"/>
       <c r="AF4" s="199" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 11</v>
+        <v>Week 17</v>
       </c>
       <c r="AG4" s="200"/>
       <c r="AH4" s="200"/>
@@ -3519,7 +3514,7 @@
       <c r="AL4" s="201"/>
       <c r="AM4" s="199" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 12</v>
+        <v>Week 18</v>
       </c>
       <c r="AN4" s="200"/>
       <c r="AO4" s="200"/>
@@ -3529,7 +3524,7 @@
       <c r="AS4" s="201"/>
       <c r="AT4" s="199" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 13</v>
+        <v>Week 19</v>
       </c>
       <c r="AU4" s="200"/>
       <c r="AV4" s="200"/>
@@ -3539,7 +3534,7 @@
       <c r="AZ4" s="201"/>
       <c r="BA4" s="199" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 14</v>
+        <v>Week 20</v>
       </c>
       <c r="BB4" s="200"/>
       <c r="BC4" s="200"/>
@@ -3549,7 +3544,7 @@
       <c r="BG4" s="201"/>
       <c r="BH4" s="199" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 15</v>
+        <v>Week 21</v>
       </c>
       <c r="BI4" s="200"/>
       <c r="BJ4" s="200"/>
@@ -3559,7 +3554,7 @@
       <c r="BN4" s="201"/>
       <c r="BO4" s="199" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 16</v>
+        <v>Week 22</v>
       </c>
       <c r="BP4" s="200"/>
       <c r="BQ4" s="200"/>
@@ -3569,7 +3564,7 @@
       <c r="BU4" s="201"/>
       <c r="BV4" s="199" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 17</v>
+        <v>Week 23</v>
       </c>
       <c r="BW4" s="200"/>
       <c r="BX4" s="200"/>
@@ -3579,7 +3574,7 @@
       <c r="CB4" s="201"/>
       <c r="CC4" s="199" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 18</v>
+        <v>Week 24</v>
       </c>
       <c r="CD4" s="200"/>
       <c r="CE4" s="200"/>
@@ -3589,7 +3584,7 @@
       <c r="CI4" s="201"/>
       <c r="CJ4" s="199" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 19</v>
+        <v>Week 25</v>
       </c>
       <c r="CK4" s="200"/>
       <c r="CL4" s="200"/>
@@ -3599,7 +3594,7 @@
       <c r="CP4" s="201"/>
       <c r="CQ4" s="199" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 20</v>
+        <v>Week 26</v>
       </c>
       <c r="CR4" s="200"/>
       <c r="CS4" s="200"/>
@@ -3609,7 +3604,7 @@
       <c r="CW4" s="201"/>
       <c r="CX4" s="199" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 21</v>
+        <v>Week 27</v>
       </c>
       <c r="CY4" s="200"/>
       <c r="CZ4" s="200"/>
@@ -3619,7 +3614,7 @@
       <c r="DD4" s="201"/>
       <c r="DE4" s="199" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 22</v>
+        <v>Week 28</v>
       </c>
       <c r="DF4" s="200"/>
       <c r="DG4" s="200"/>
@@ -3629,7 +3624,7 @@
       <c r="DK4" s="201"/>
       <c r="DL4" s="199" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 23</v>
+        <v>Week 29</v>
       </c>
       <c r="DM4" s="200"/>
       <c r="DN4" s="200"/>
@@ -3639,7 +3634,7 @@
       <c r="DR4" s="201"/>
       <c r="DS4" s="199" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 24</v>
+        <v>Week 30</v>
       </c>
       <c r="DT4" s="200"/>
       <c r="DU4" s="200"/>
@@ -3649,7 +3644,7 @@
       <c r="DY4" s="201"/>
       <c r="DZ4" s="199" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 25</v>
+        <v>Week 31</v>
       </c>
       <c r="EA4" s="200"/>
       <c r="EB4" s="200"/>
@@ -3659,7 +3654,7 @@
       <c r="EF4" s="201"/>
       <c r="EG4" s="199" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 26</v>
+        <v>Week 32</v>
       </c>
       <c r="EH4" s="200"/>
       <c r="EI4" s="200"/>
@@ -3669,7 +3664,7 @@
       <c r="EM4" s="201"/>
       <c r="EN4" s="199" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 27</v>
+        <v>Week 33</v>
       </c>
       <c r="EO4" s="200"/>
       <c r="EP4" s="200"/>
@@ -3679,7 +3674,7 @@
       <c r="ET4" s="201"/>
       <c r="EU4" s="199" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 28</v>
+        <v>Week 34</v>
       </c>
       <c r="EV4" s="200"/>
       <c r="EW4" s="200"/>
@@ -3689,7 +3684,7 @@
       <c r="FA4" s="201"/>
       <c r="FB4" s="199" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 29</v>
+        <v>Week 35</v>
       </c>
       <c r="FC4" s="200"/>
       <c r="FD4" s="200"/>
@@ -3699,7 +3694,7 @@
       <c r="FH4" s="201"/>
       <c r="FI4" s="199" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 30</v>
+        <v>Week 36</v>
       </c>
       <c r="FJ4" s="200"/>
       <c r="FK4" s="200"/>
@@ -3709,7 +3704,7 @@
       <c r="FO4" s="201"/>
       <c r="FP4" s="199" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 31</v>
+        <v>Week 37</v>
       </c>
       <c r="FQ4" s="200"/>
       <c r="FR4" s="200"/>
@@ -3719,7 +3714,7 @@
       <c r="FV4" s="201"/>
       <c r="FW4" s="199" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 32</v>
+        <v>Week 38</v>
       </c>
       <c r="FX4" s="200"/>
       <c r="FY4" s="200"/>
@@ -3729,7 +3724,7 @@
       <c r="GC4" s="201"/>
       <c r="GD4" s="199" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 33</v>
+        <v>Week 39</v>
       </c>
       <c r="GE4" s="200"/>
       <c r="GF4" s="200"/>
@@ -3739,7 +3734,7 @@
       <c r="GJ4" s="201"/>
       <c r="GK4" s="199" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 34</v>
+        <v>Week 40</v>
       </c>
       <c r="GL4" s="200"/>
       <c r="GM4" s="200"/>
@@ -3749,7 +3744,7 @@
       <c r="GQ4" s="201"/>
       <c r="GR4" s="199" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 35</v>
+        <v>Week 41</v>
       </c>
       <c r="GS4" s="200"/>
       <c r="GT4" s="200"/>
@@ -3759,7 +3754,7 @@
       <c r="GX4" s="201"/>
       <c r="GY4" s="199" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 36</v>
+        <v>Week 42</v>
       </c>
       <c r="GZ4" s="200"/>
       <c r="HA4" s="200"/>
@@ -3769,7 +3764,7 @@
       <c r="HE4" s="201"/>
       <c r="HF4" s="199" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 37</v>
+        <v>Week 43</v>
       </c>
       <c r="HG4" s="200"/>
       <c r="HH4" s="200"/>
@@ -3779,7 +3774,7 @@
       <c r="HL4" s="201"/>
       <c r="HM4" s="199" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 38</v>
+        <v>Week 44</v>
       </c>
       <c r="HN4" s="200"/>
       <c r="HO4" s="200"/>
@@ -3789,7 +3784,7 @@
       <c r="HS4" s="201"/>
       <c r="HT4" s="199" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 39</v>
+        <v>Week 45</v>
       </c>
       <c r="HU4" s="200"/>
       <c r="HV4" s="200"/>
@@ -3799,7 +3794,7 @@
       <c r="HZ4" s="201"/>
       <c r="IA4" s="199" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 40</v>
+        <v>Week 46</v>
       </c>
       <c r="IB4" s="200"/>
       <c r="IC4" s="200"/>
@@ -3809,7 +3804,7 @@
       <c r="IG4" s="201"/>
       <c r="IH4" s="199" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 41</v>
+        <v>Week 47</v>
       </c>
       <c r="II4" s="200"/>
       <c r="IJ4" s="200"/>
@@ -3819,7 +3814,7 @@
       <c r="IN4" s="201"/>
       <c r="IO4" s="199" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 42</v>
+        <v>Week 48</v>
       </c>
       <c r="IP4" s="200"/>
       <c r="IQ4" s="200"/>
@@ -3828,7 +3823,7 @@
       <c r="IT4" s="200"/>
       <c r="IU4" s="201"/>
     </row>
-    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
@@ -3844,7 +3839,7 @@
       <c r="I5" s="71"/>
       <c r="K5" s="210">
         <f>K6</f>
-        <v>45348</v>
+        <v>45390</v>
       </c>
       <c r="L5" s="197"/>
       <c r="M5" s="197"/>
@@ -3854,7 +3849,7 @@
       <c r="Q5" s="212"/>
       <c r="R5" s="210">
         <f>R6</f>
-        <v>45355</v>
+        <v>45397</v>
       </c>
       <c r="S5" s="197"/>
       <c r="T5" s="197"/>
@@ -3864,7 +3859,7 @@
       <c r="X5" s="211"/>
       <c r="Y5" s="213">
         <f>Y6</f>
-        <v>45362</v>
+        <v>45404</v>
       </c>
       <c r="Z5" s="197"/>
       <c r="AA5" s="197"/>
@@ -3874,7 +3869,7 @@
       <c r="AE5" s="214"/>
       <c r="AF5" s="205">
         <f>AF6</f>
-        <v>45369</v>
+        <v>45411</v>
       </c>
       <c r="AG5" s="197"/>
       <c r="AH5" s="197"/>
@@ -3884,7 +3879,7 @@
       <c r="AL5" s="206"/>
       <c r="AM5" s="215">
         <f>AM6</f>
-        <v>45376</v>
+        <v>45418</v>
       </c>
       <c r="AN5" s="197"/>
       <c r="AO5" s="197"/>
@@ -3894,7 +3889,7 @@
       <c r="AS5" s="216"/>
       <c r="AT5" s="217">
         <f>AT6</f>
-        <v>45383</v>
+        <v>45425</v>
       </c>
       <c r="AU5" s="197"/>
       <c r="AV5" s="197"/>
@@ -3904,7 +3899,7 @@
       <c r="AZ5" s="218"/>
       <c r="BA5" s="196">
         <f>BA6</f>
-        <v>45390</v>
+        <v>45432</v>
       </c>
       <c r="BB5" s="197"/>
       <c r="BC5" s="197"/>
@@ -3914,7 +3909,7 @@
       <c r="BG5" s="198"/>
       <c r="BH5" s="202">
         <f>BH6</f>
-        <v>45397</v>
+        <v>45439</v>
       </c>
       <c r="BI5" s="197"/>
       <c r="BJ5" s="197"/>
@@ -3924,7 +3919,7 @@
       <c r="BN5" s="203"/>
       <c r="BO5" s="196">
         <f>BO6</f>
-        <v>45404</v>
+        <v>45446</v>
       </c>
       <c r="BP5" s="197"/>
       <c r="BQ5" s="197"/>
@@ -3934,7 +3929,7 @@
       <c r="BU5" s="198"/>
       <c r="BV5" s="202">
         <f>BV6</f>
-        <v>45411</v>
+        <v>45453</v>
       </c>
       <c r="BW5" s="197"/>
       <c r="BX5" s="197"/>
@@ -3944,7 +3939,7 @@
       <c r="CB5" s="203"/>
       <c r="CC5" s="202">
         <f>CC6</f>
-        <v>45418</v>
+        <v>45460</v>
       </c>
       <c r="CD5" s="197"/>
       <c r="CE5" s="197"/>
@@ -3954,7 +3949,7 @@
       <c r="CI5" s="203"/>
       <c r="CJ5" s="196">
         <f>CJ6</f>
-        <v>45425</v>
+        <v>45467</v>
       </c>
       <c r="CK5" s="197"/>
       <c r="CL5" s="197"/>
@@ -3964,7 +3959,7 @@
       <c r="CP5" s="198"/>
       <c r="CQ5" s="202">
         <f>CQ6</f>
-        <v>45432</v>
+        <v>45474</v>
       </c>
       <c r="CR5" s="197"/>
       <c r="CS5" s="197"/>
@@ -3974,7 +3969,7 @@
       <c r="CW5" s="203"/>
       <c r="CX5" s="202">
         <f>CX6</f>
-        <v>45439</v>
+        <v>45481</v>
       </c>
       <c r="CY5" s="197"/>
       <c r="CZ5" s="197"/>
@@ -3984,7 +3979,7 @@
       <c r="DD5" s="203"/>
       <c r="DE5" s="196">
         <f>DE6</f>
-        <v>45446</v>
+        <v>45488</v>
       </c>
       <c r="DF5" s="197"/>
       <c r="DG5" s="197"/>
@@ -3994,7 +3989,7 @@
       <c r="DK5" s="198"/>
       <c r="DL5" s="202">
         <f>DL6</f>
-        <v>45453</v>
+        <v>45495</v>
       </c>
       <c r="DM5" s="197"/>
       <c r="DN5" s="197"/>
@@ -4004,7 +3999,7 @@
       <c r="DR5" s="203"/>
       <c r="DS5" s="202">
         <f>DS6</f>
-        <v>45460</v>
+        <v>45502</v>
       </c>
       <c r="DT5" s="197"/>
       <c r="DU5" s="197"/>
@@ -4014,7 +4009,7 @@
       <c r="DY5" s="203"/>
       <c r="DZ5" s="196">
         <f>DZ6</f>
-        <v>45467</v>
+        <v>45509</v>
       </c>
       <c r="EA5" s="197"/>
       <c r="EB5" s="197"/>
@@ -4024,7 +4019,7 @@
       <c r="EF5" s="198"/>
       <c r="EG5" s="202">
         <f>EG6</f>
-        <v>45474</v>
+        <v>45516</v>
       </c>
       <c r="EH5" s="197"/>
       <c r="EI5" s="197"/>
@@ -4034,7 +4029,7 @@
       <c r="EM5" s="203"/>
       <c r="EN5" s="202">
         <f>EN6</f>
-        <v>45481</v>
+        <v>45523</v>
       </c>
       <c r="EO5" s="197"/>
       <c r="EP5" s="197"/>
@@ -4044,7 +4039,7 @@
       <c r="ET5" s="203"/>
       <c r="EU5" s="196">
         <f>EU6</f>
-        <v>45488</v>
+        <v>45530</v>
       </c>
       <c r="EV5" s="197"/>
       <c r="EW5" s="197"/>
@@ -4054,7 +4049,7 @@
       <c r="FA5" s="198"/>
       <c r="FB5" s="202">
         <f>FB6</f>
-        <v>45495</v>
+        <v>45537</v>
       </c>
       <c r="FC5" s="197"/>
       <c r="FD5" s="197"/>
@@ -4064,7 +4059,7 @@
       <c r="FH5" s="203"/>
       <c r="FI5" s="202">
         <f>FI6</f>
-        <v>45502</v>
+        <v>45544</v>
       </c>
       <c r="FJ5" s="197"/>
       <c r="FK5" s="197"/>
@@ -4074,7 +4069,7 @@
       <c r="FO5" s="203"/>
       <c r="FP5" s="196">
         <f>FP6</f>
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="FQ5" s="197"/>
       <c r="FR5" s="197"/>
@@ -4084,7 +4079,7 @@
       <c r="FV5" s="198"/>
       <c r="FW5" s="202">
         <f>FW6</f>
-        <v>45516</v>
+        <v>45558</v>
       </c>
       <c r="FX5" s="197"/>
       <c r="FY5" s="197"/>
@@ -4094,7 +4089,7 @@
       <c r="GC5" s="203"/>
       <c r="GD5" s="202">
         <f>GD6</f>
-        <v>45523</v>
+        <v>45565</v>
       </c>
       <c r="GE5" s="197"/>
       <c r="GF5" s="197"/>
@@ -4104,7 +4099,7 @@
       <c r="GJ5" s="203"/>
       <c r="GK5" s="196">
         <f>GK6</f>
-        <v>45530</v>
+        <v>45572</v>
       </c>
       <c r="GL5" s="197"/>
       <c r="GM5" s="197"/>
@@ -4114,7 +4109,7 @@
       <c r="GQ5" s="198"/>
       <c r="GR5" s="202">
         <f>GR6</f>
-        <v>45537</v>
+        <v>45579</v>
       </c>
       <c r="GS5" s="197"/>
       <c r="GT5" s="197"/>
@@ -4124,7 +4119,7 @@
       <c r="GX5" s="203"/>
       <c r="GY5" s="196">
         <f>GY6</f>
-        <v>45544</v>
+        <v>45586</v>
       </c>
       <c r="GZ5" s="197"/>
       <c r="HA5" s="197"/>
@@ -4134,7 +4129,7 @@
       <c r="HE5" s="198"/>
       <c r="HF5" s="202">
         <f>HF6</f>
-        <v>45551</v>
+        <v>45593</v>
       </c>
       <c r="HG5" s="197"/>
       <c r="HH5" s="197"/>
@@ -4144,7 +4139,7 @@
       <c r="HL5" s="203"/>
       <c r="HM5" s="196">
         <f>HM6</f>
-        <v>45558</v>
+        <v>45600</v>
       </c>
       <c r="HN5" s="197"/>
       <c r="HO5" s="197"/>
@@ -4154,7 +4149,7 @@
       <c r="HS5" s="198"/>
       <c r="HT5" s="202">
         <f>HT6</f>
-        <v>45565</v>
+        <v>45607</v>
       </c>
       <c r="HU5" s="197"/>
       <c r="HV5" s="197"/>
@@ -4164,7 +4159,7 @@
       <c r="HZ5" s="203"/>
       <c r="IA5" s="196">
         <f>IA6</f>
-        <v>45572</v>
+        <v>45614</v>
       </c>
       <c r="IB5" s="197"/>
       <c r="IC5" s="197"/>
@@ -4174,7 +4169,7 @@
       <c r="IG5" s="198"/>
       <c r="IH5" s="202">
         <f>IH6</f>
-        <v>45579</v>
+        <v>45621</v>
       </c>
       <c r="II5" s="197"/>
       <c r="IJ5" s="197"/>
@@ -4184,7 +4179,7 @@
       <c r="IN5" s="203"/>
       <c r="IO5" s="196">
         <f>IO6</f>
-        <v>45586</v>
+        <v>45628</v>
       </c>
       <c r="IP5" s="197"/>
       <c r="IQ5" s="197"/>
@@ -4193,983 +4188,983 @@
       <c r="IT5" s="197"/>
       <c r="IU5" s="198"/>
     </row>
-    <row r="6" spans="1:255" s="22" customFormat="1" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:255" s="22" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="84"/>
       <c r="K6" s="33">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
-        <v>45348</v>
+        <v>45390</v>
       </c>
       <c r="L6" s="23">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>45349</v>
+        <v>45391</v>
       </c>
       <c r="M6" s="23">
         <f t="shared" si="0"/>
-        <v>45350</v>
+        <v>45392</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="0"/>
-        <v>45351</v>
+        <v>45393</v>
       </c>
       <c r="O6" s="23">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45394</v>
       </c>
       <c r="P6" s="23">
         <f t="shared" si="0"/>
-        <v>45353</v>
+        <v>45395</v>
       </c>
       <c r="Q6" s="34">
         <f t="shared" si="0"/>
-        <v>45354</v>
+        <v>45396</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="0"/>
-        <v>45355</v>
+        <v>45397</v>
       </c>
       <c r="S6" s="23">
         <f t="shared" si="0"/>
-        <v>45356</v>
+        <v>45398</v>
       </c>
       <c r="T6" s="23">
         <f t="shared" si="0"/>
-        <v>45357</v>
+        <v>45399</v>
       </c>
       <c r="U6" s="23">
         <f>T6+1</f>
-        <v>45358</v>
+        <v>45400</v>
       </c>
       <c r="V6" s="23">
         <f>U6+1</f>
-        <v>45359</v>
+        <v>45401</v>
       </c>
       <c r="W6" s="23">
         <f>V6+1</f>
-        <v>45360</v>
+        <v>45402</v>
       </c>
       <c r="X6" s="35">
         <f t="shared" si="0"/>
-        <v>45361</v>
+        <v>45403</v>
       </c>
       <c r="Y6" s="36">
         <f t="shared" si="0"/>
-        <v>45362</v>
+        <v>45404</v>
       </c>
       <c r="Z6" s="23">
         <f t="shared" si="0"/>
-        <v>45363</v>
+        <v>45405</v>
       </c>
       <c r="AA6" s="23">
         <f t="shared" si="0"/>
-        <v>45364</v>
+        <v>45406</v>
       </c>
       <c r="AB6" s="23">
         <f t="shared" si="0"/>
-        <v>45365</v>
+        <v>45407</v>
       </c>
       <c r="AC6" s="23">
         <f t="shared" si="0"/>
-        <v>45366</v>
+        <v>45408</v>
       </c>
       <c r="AD6" s="23">
         <f t="shared" si="0"/>
-        <v>45367</v>
+        <v>45409</v>
       </c>
       <c r="AE6" s="37">
         <f t="shared" si="0"/>
-        <v>45368</v>
+        <v>45410</v>
       </c>
       <c r="AF6" s="38">
         <f t="shared" si="0"/>
-        <v>45369</v>
+        <v>45411</v>
       </c>
       <c r="AG6" s="23">
         <f t="shared" si="0"/>
-        <v>45370</v>
+        <v>45412</v>
       </c>
       <c r="AH6" s="23">
         <f t="shared" si="0"/>
-        <v>45371</v>
+        <v>45413</v>
       </c>
       <c r="AI6" s="23">
         <f t="shared" si="0"/>
-        <v>45372</v>
+        <v>45414</v>
       </c>
       <c r="AJ6" s="23">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45415</v>
       </c>
       <c r="AK6" s="23">
         <f t="shared" si="0"/>
-        <v>45374</v>
+        <v>45416</v>
       </c>
       <c r="AL6" s="39">
         <f t="shared" si="0"/>
-        <v>45375</v>
+        <v>45417</v>
       </c>
       <c r="AM6" s="40">
         <f t="shared" si="0"/>
-        <v>45376</v>
+        <v>45418</v>
       </c>
       <c r="AN6" s="23">
         <f t="shared" si="0"/>
-        <v>45377</v>
+        <v>45419</v>
       </c>
       <c r="AO6" s="23">
         <f t="shared" si="0"/>
-        <v>45378</v>
+        <v>45420</v>
       </c>
       <c r="AP6" s="23">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45421</v>
       </c>
       <c r="AQ6" s="23">
         <f t="shared" si="0"/>
-        <v>45380</v>
+        <v>45422</v>
       </c>
       <c r="AR6" s="23">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>45381</v>
+        <v>45423</v>
       </c>
       <c r="AS6" s="41">
         <f t="shared" si="1"/>
-        <v>45382</v>
+        <v>45424</v>
       </c>
       <c r="AT6" s="42">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45425</v>
       </c>
       <c r="AU6" s="23">
         <f t="shared" si="1"/>
-        <v>45384</v>
+        <v>45426</v>
       </c>
       <c r="AV6" s="23">
         <f t="shared" si="1"/>
-        <v>45385</v>
+        <v>45427</v>
       </c>
       <c r="AW6" s="23">
         <f t="shared" si="1"/>
-        <v>45386</v>
+        <v>45428</v>
       </c>
       <c r="AX6" s="23">
         <f t="shared" si="1"/>
-        <v>45387</v>
+        <v>45429</v>
       </c>
       <c r="AY6" s="23">
         <f t="shared" si="1"/>
-        <v>45388</v>
+        <v>45430</v>
       </c>
       <c r="AZ6" s="43">
         <f t="shared" si="1"/>
-        <v>45389</v>
+        <v>45431</v>
       </c>
       <c r="BA6" s="44">
         <f t="shared" si="1"/>
-        <v>45390</v>
+        <v>45432</v>
       </c>
       <c r="BB6" s="23">
         <f t="shared" si="1"/>
-        <v>45391</v>
+        <v>45433</v>
       </c>
       <c r="BC6" s="23">
         <f t="shared" si="1"/>
-        <v>45392</v>
+        <v>45434</v>
       </c>
       <c r="BD6" s="23">
         <f t="shared" si="1"/>
-        <v>45393</v>
+        <v>45435</v>
       </c>
       <c r="BE6" s="23">
         <f t="shared" si="1"/>
-        <v>45394</v>
+        <v>45436</v>
       </c>
       <c r="BF6" s="23">
         <f t="shared" si="1"/>
-        <v>45395</v>
+        <v>45437</v>
       </c>
       <c r="BG6" s="45">
         <f t="shared" si="1"/>
-        <v>45396</v>
+        <v>45438</v>
       </c>
       <c r="BH6" s="46">
         <f t="shared" si="1"/>
-        <v>45397</v>
+        <v>45439</v>
       </c>
       <c r="BI6" s="23">
         <f t="shared" si="1"/>
-        <v>45398</v>
+        <v>45440</v>
       </c>
       <c r="BJ6" s="23">
         <f t="shared" si="1"/>
-        <v>45399</v>
+        <v>45441</v>
       </c>
       <c r="BK6" s="23">
         <f t="shared" si="1"/>
-        <v>45400</v>
+        <v>45442</v>
       </c>
       <c r="BL6" s="23">
         <f t="shared" si="1"/>
-        <v>45401</v>
+        <v>45443</v>
       </c>
       <c r="BM6" s="23">
         <f t="shared" si="1"/>
-        <v>45402</v>
+        <v>45444</v>
       </c>
       <c r="BN6" s="47">
         <f t="shared" si="1"/>
-        <v>45403</v>
+        <v>45445</v>
       </c>
       <c r="BO6" s="44">
         <f t="shared" ref="BO6:CT6" si="2">BN6+1</f>
-        <v>45404</v>
+        <v>45446</v>
       </c>
       <c r="BP6" s="23">
         <f t="shared" si="2"/>
-        <v>45405</v>
+        <v>45447</v>
       </c>
       <c r="BQ6" s="23">
         <f t="shared" si="2"/>
-        <v>45406</v>
+        <v>45448</v>
       </c>
       <c r="BR6" s="23">
         <f t="shared" si="2"/>
-        <v>45407</v>
+        <v>45449</v>
       </c>
       <c r="BS6" s="23">
         <f t="shared" si="2"/>
-        <v>45408</v>
+        <v>45450</v>
       </c>
       <c r="BT6" s="23">
         <f t="shared" si="2"/>
-        <v>45409</v>
+        <v>45451</v>
       </c>
       <c r="BU6" s="45">
         <f t="shared" si="2"/>
-        <v>45410</v>
+        <v>45452</v>
       </c>
       <c r="BV6" s="46">
         <f t="shared" si="2"/>
-        <v>45411</v>
+        <v>45453</v>
       </c>
       <c r="BW6" s="23">
         <f t="shared" si="2"/>
-        <v>45412</v>
+        <v>45454</v>
       </c>
       <c r="BX6" s="23">
         <f t="shared" si="2"/>
-        <v>45413</v>
+        <v>45455</v>
       </c>
       <c r="BY6" s="23">
         <f t="shared" si="2"/>
-        <v>45414</v>
+        <v>45456</v>
       </c>
       <c r="BZ6" s="23">
         <f t="shared" si="2"/>
-        <v>45415</v>
+        <v>45457</v>
       </c>
       <c r="CA6" s="23">
         <f t="shared" si="2"/>
-        <v>45416</v>
+        <v>45458</v>
       </c>
       <c r="CB6" s="47">
         <f t="shared" si="2"/>
-        <v>45417</v>
+        <v>45459</v>
       </c>
       <c r="CC6" s="46">
         <f t="shared" si="2"/>
-        <v>45418</v>
+        <v>45460</v>
       </c>
       <c r="CD6" s="23">
         <f t="shared" si="2"/>
-        <v>45419</v>
+        <v>45461</v>
       </c>
       <c r="CE6" s="23">
         <f t="shared" si="2"/>
-        <v>45420</v>
+        <v>45462</v>
       </c>
       <c r="CF6" s="23">
         <f t="shared" si="2"/>
-        <v>45421</v>
+        <v>45463</v>
       </c>
       <c r="CG6" s="23">
         <f t="shared" si="2"/>
-        <v>45422</v>
+        <v>45464</v>
       </c>
       <c r="CH6" s="23">
         <f t="shared" si="2"/>
-        <v>45423</v>
+        <v>45465</v>
       </c>
       <c r="CI6" s="47">
         <f t="shared" si="2"/>
-        <v>45424</v>
+        <v>45466</v>
       </c>
       <c r="CJ6" s="44">
         <f t="shared" si="2"/>
-        <v>45425</v>
+        <v>45467</v>
       </c>
       <c r="CK6" s="23">
         <f t="shared" si="2"/>
-        <v>45426</v>
+        <v>45468</v>
       </c>
       <c r="CL6" s="23">
         <f t="shared" si="2"/>
-        <v>45427</v>
+        <v>45469</v>
       </c>
       <c r="CM6" s="23">
         <f t="shared" si="2"/>
-        <v>45428</v>
+        <v>45470</v>
       </c>
       <c r="CN6" s="23">
         <f t="shared" si="2"/>
-        <v>45429</v>
+        <v>45471</v>
       </c>
       <c r="CO6" s="23">
         <f t="shared" si="2"/>
-        <v>45430</v>
+        <v>45472</v>
       </c>
       <c r="CP6" s="45">
         <f t="shared" si="2"/>
-        <v>45431</v>
+        <v>45473</v>
       </c>
       <c r="CQ6" s="46">
         <f t="shared" si="2"/>
-        <v>45432</v>
+        <v>45474</v>
       </c>
       <c r="CR6" s="23">
         <f t="shared" si="2"/>
-        <v>45433</v>
+        <v>45475</v>
       </c>
       <c r="CS6" s="23">
         <f t="shared" si="2"/>
-        <v>45434</v>
+        <v>45476</v>
       </c>
       <c r="CT6" s="23">
         <f t="shared" si="2"/>
-        <v>45435</v>
+        <v>45477</v>
       </c>
       <c r="CU6" s="23">
         <f t="shared" ref="CU6:DZ6" si="3">CT6+1</f>
-        <v>45436</v>
+        <v>45478</v>
       </c>
       <c r="CV6" s="23">
         <f t="shared" si="3"/>
-        <v>45437</v>
+        <v>45479</v>
       </c>
       <c r="CW6" s="47">
         <f t="shared" si="3"/>
-        <v>45438</v>
+        <v>45480</v>
       </c>
       <c r="CX6" s="46">
         <f t="shared" si="3"/>
-        <v>45439</v>
+        <v>45481</v>
       </c>
       <c r="CY6" s="23">
         <f t="shared" si="3"/>
-        <v>45440</v>
+        <v>45482</v>
       </c>
       <c r="CZ6" s="23">
         <f t="shared" si="3"/>
-        <v>45441</v>
+        <v>45483</v>
       </c>
       <c r="DA6" s="23">
         <f t="shared" si="3"/>
-        <v>45442</v>
+        <v>45484</v>
       </c>
       <c r="DB6" s="23">
         <f t="shared" si="3"/>
-        <v>45443</v>
+        <v>45485</v>
       </c>
       <c r="DC6" s="23">
         <f t="shared" si="3"/>
-        <v>45444</v>
+        <v>45486</v>
       </c>
       <c r="DD6" s="47">
         <f t="shared" si="3"/>
-        <v>45445</v>
+        <v>45487</v>
       </c>
       <c r="DE6" s="44">
         <f t="shared" si="3"/>
-        <v>45446</v>
+        <v>45488</v>
       </c>
       <c r="DF6" s="23">
         <f t="shared" si="3"/>
-        <v>45447</v>
+        <v>45489</v>
       </c>
       <c r="DG6" s="23">
         <f t="shared" si="3"/>
-        <v>45448</v>
+        <v>45490</v>
       </c>
       <c r="DH6" s="23">
         <f t="shared" si="3"/>
-        <v>45449</v>
+        <v>45491</v>
       </c>
       <c r="DI6" s="23">
         <f t="shared" si="3"/>
-        <v>45450</v>
+        <v>45492</v>
       </c>
       <c r="DJ6" s="23">
         <f t="shared" si="3"/>
-        <v>45451</v>
+        <v>45493</v>
       </c>
       <c r="DK6" s="45">
         <f t="shared" si="3"/>
-        <v>45452</v>
+        <v>45494</v>
       </c>
       <c r="DL6" s="46">
         <f t="shared" si="3"/>
-        <v>45453</v>
+        <v>45495</v>
       </c>
       <c r="DM6" s="23">
         <f t="shared" si="3"/>
-        <v>45454</v>
+        <v>45496</v>
       </c>
       <c r="DN6" s="23">
         <f t="shared" si="3"/>
-        <v>45455</v>
+        <v>45497</v>
       </c>
       <c r="DO6" s="23">
         <f t="shared" si="3"/>
-        <v>45456</v>
+        <v>45498</v>
       </c>
       <c r="DP6" s="23">
         <f t="shared" si="3"/>
-        <v>45457</v>
+        <v>45499</v>
       </c>
       <c r="DQ6" s="23">
         <f t="shared" si="3"/>
-        <v>45458</v>
+        <v>45500</v>
       </c>
       <c r="DR6" s="47">
         <f t="shared" si="3"/>
-        <v>45459</v>
+        <v>45501</v>
       </c>
       <c r="DS6" s="46">
         <f t="shared" si="3"/>
-        <v>45460</v>
+        <v>45502</v>
       </c>
       <c r="DT6" s="23">
         <f t="shared" si="3"/>
-        <v>45461</v>
+        <v>45503</v>
       </c>
       <c r="DU6" s="23">
         <f t="shared" si="3"/>
-        <v>45462</v>
+        <v>45504</v>
       </c>
       <c r="DV6" s="23">
         <f t="shared" si="3"/>
-        <v>45463</v>
+        <v>45505</v>
       </c>
       <c r="DW6" s="23">
         <f t="shared" si="3"/>
-        <v>45464</v>
+        <v>45506</v>
       </c>
       <c r="DX6" s="23">
         <f t="shared" si="3"/>
-        <v>45465</v>
+        <v>45507</v>
       </c>
       <c r="DY6" s="47">
         <f t="shared" si="3"/>
-        <v>45466</v>
+        <v>45508</v>
       </c>
       <c r="DZ6" s="44">
         <f t="shared" si="3"/>
-        <v>45467</v>
+        <v>45509</v>
       </c>
       <c r="EA6" s="23">
         <f t="shared" ref="EA6:FF6" si="4">DZ6+1</f>
-        <v>45468</v>
+        <v>45510</v>
       </c>
       <c r="EB6" s="23">
         <f t="shared" si="4"/>
-        <v>45469</v>
+        <v>45511</v>
       </c>
       <c r="EC6" s="23">
         <f t="shared" si="4"/>
-        <v>45470</v>
+        <v>45512</v>
       </c>
       <c r="ED6" s="23">
         <f t="shared" si="4"/>
-        <v>45471</v>
+        <v>45513</v>
       </c>
       <c r="EE6" s="23">
         <f t="shared" si="4"/>
-        <v>45472</v>
+        <v>45514</v>
       </c>
       <c r="EF6" s="45">
         <f t="shared" si="4"/>
-        <v>45473</v>
+        <v>45515</v>
       </c>
       <c r="EG6" s="46">
         <f t="shared" si="4"/>
-        <v>45474</v>
+        <v>45516</v>
       </c>
       <c r="EH6" s="23">
         <f t="shared" si="4"/>
-        <v>45475</v>
+        <v>45517</v>
       </c>
       <c r="EI6" s="23">
         <f t="shared" si="4"/>
-        <v>45476</v>
+        <v>45518</v>
       </c>
       <c r="EJ6" s="23">
         <f t="shared" si="4"/>
-        <v>45477</v>
+        <v>45519</v>
       </c>
       <c r="EK6" s="23">
         <f t="shared" si="4"/>
-        <v>45478</v>
+        <v>45520</v>
       </c>
       <c r="EL6" s="23">
         <f t="shared" si="4"/>
-        <v>45479</v>
+        <v>45521</v>
       </c>
       <c r="EM6" s="47">
         <f t="shared" si="4"/>
-        <v>45480</v>
+        <v>45522</v>
       </c>
       <c r="EN6" s="46">
         <f t="shared" si="4"/>
-        <v>45481</v>
+        <v>45523</v>
       </c>
       <c r="EO6" s="23">
         <f t="shared" si="4"/>
-        <v>45482</v>
+        <v>45524</v>
       </c>
       <c r="EP6" s="23">
         <f t="shared" si="4"/>
-        <v>45483</v>
+        <v>45525</v>
       </c>
       <c r="EQ6" s="23">
         <f t="shared" si="4"/>
-        <v>45484</v>
+        <v>45526</v>
       </c>
       <c r="ER6" s="23">
         <f t="shared" si="4"/>
-        <v>45485</v>
+        <v>45527</v>
       </c>
       <c r="ES6" s="23">
         <f t="shared" si="4"/>
-        <v>45486</v>
+        <v>45528</v>
       </c>
       <c r="ET6" s="47">
         <f t="shared" si="4"/>
-        <v>45487</v>
+        <v>45529</v>
       </c>
       <c r="EU6" s="44">
         <f t="shared" si="4"/>
-        <v>45488</v>
+        <v>45530</v>
       </c>
       <c r="EV6" s="23">
         <f t="shared" si="4"/>
-        <v>45489</v>
+        <v>45531</v>
       </c>
       <c r="EW6" s="23">
         <f t="shared" si="4"/>
-        <v>45490</v>
+        <v>45532</v>
       </c>
       <c r="EX6" s="23">
         <f t="shared" si="4"/>
-        <v>45491</v>
+        <v>45533</v>
       </c>
       <c r="EY6" s="23">
         <f t="shared" si="4"/>
-        <v>45492</v>
+        <v>45534</v>
       </c>
       <c r="EZ6" s="23">
         <f t="shared" si="4"/>
-        <v>45493</v>
+        <v>45535</v>
       </c>
       <c r="FA6" s="45">
         <f t="shared" si="4"/>
-        <v>45494</v>
+        <v>45536</v>
       </c>
       <c r="FB6" s="46">
         <f t="shared" si="4"/>
-        <v>45495</v>
+        <v>45537</v>
       </c>
       <c r="FC6" s="23">
         <f t="shared" si="4"/>
-        <v>45496</v>
+        <v>45538</v>
       </c>
       <c r="FD6" s="23">
         <f t="shared" si="4"/>
-        <v>45497</v>
+        <v>45539</v>
       </c>
       <c r="FE6" s="23">
         <f t="shared" si="4"/>
-        <v>45498</v>
+        <v>45540</v>
       </c>
       <c r="FF6" s="23">
         <f t="shared" si="4"/>
-        <v>45499</v>
+        <v>45541</v>
       </c>
       <c r="FG6" s="23">
         <f t="shared" ref="FG6:GL6" si="5">FF6+1</f>
-        <v>45500</v>
+        <v>45542</v>
       </c>
       <c r="FH6" s="47">
         <f t="shared" si="5"/>
-        <v>45501</v>
+        <v>45543</v>
       </c>
       <c r="FI6" s="46">
         <f t="shared" si="5"/>
-        <v>45502</v>
+        <v>45544</v>
       </c>
       <c r="FJ6" s="23">
         <f t="shared" si="5"/>
-        <v>45503</v>
+        <v>45545</v>
       </c>
       <c r="FK6" s="23">
         <f t="shared" si="5"/>
-        <v>45504</v>
+        <v>45546</v>
       </c>
       <c r="FL6" s="23">
         <f t="shared" si="5"/>
-        <v>45505</v>
+        <v>45547</v>
       </c>
       <c r="FM6" s="23">
         <f t="shared" si="5"/>
-        <v>45506</v>
+        <v>45548</v>
       </c>
       <c r="FN6" s="23">
         <f t="shared" si="5"/>
-        <v>45507</v>
+        <v>45549</v>
       </c>
       <c r="FO6" s="47">
         <f t="shared" si="5"/>
-        <v>45508</v>
+        <v>45550</v>
       </c>
       <c r="FP6" s="44">
         <f t="shared" si="5"/>
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="FQ6" s="23">
         <f t="shared" si="5"/>
-        <v>45510</v>
+        <v>45552</v>
       </c>
       <c r="FR6" s="23">
         <f t="shared" si="5"/>
-        <v>45511</v>
+        <v>45553</v>
       </c>
       <c r="FS6" s="23">
         <f t="shared" si="5"/>
-        <v>45512</v>
+        <v>45554</v>
       </c>
       <c r="FT6" s="23">
         <f t="shared" si="5"/>
-        <v>45513</v>
+        <v>45555</v>
       </c>
       <c r="FU6" s="23">
         <f t="shared" si="5"/>
-        <v>45514</v>
+        <v>45556</v>
       </c>
       <c r="FV6" s="45">
         <f t="shared" si="5"/>
-        <v>45515</v>
+        <v>45557</v>
       </c>
       <c r="FW6" s="46">
         <f t="shared" si="5"/>
-        <v>45516</v>
+        <v>45558</v>
       </c>
       <c r="FX6" s="23">
         <f t="shared" si="5"/>
-        <v>45517</v>
+        <v>45559</v>
       </c>
       <c r="FY6" s="23">
         <f t="shared" si="5"/>
-        <v>45518</v>
+        <v>45560</v>
       </c>
       <c r="FZ6" s="23">
         <f t="shared" si="5"/>
-        <v>45519</v>
+        <v>45561</v>
       </c>
       <c r="GA6" s="23">
         <f t="shared" si="5"/>
-        <v>45520</v>
+        <v>45562</v>
       </c>
       <c r="GB6" s="23">
         <f t="shared" si="5"/>
-        <v>45521</v>
+        <v>45563</v>
       </c>
       <c r="GC6" s="47">
         <f t="shared" si="5"/>
-        <v>45522</v>
+        <v>45564</v>
       </c>
       <c r="GD6" s="46">
         <f t="shared" si="5"/>
-        <v>45523</v>
+        <v>45565</v>
       </c>
       <c r="GE6" s="23">
         <f t="shared" si="5"/>
-        <v>45524</v>
+        <v>45566</v>
       </c>
       <c r="GF6" s="23">
         <f t="shared" si="5"/>
-        <v>45525</v>
+        <v>45567</v>
       </c>
       <c r="GG6" s="23">
         <f t="shared" si="5"/>
-        <v>45526</v>
+        <v>45568</v>
       </c>
       <c r="GH6" s="23">
         <f t="shared" si="5"/>
-        <v>45527</v>
+        <v>45569</v>
       </c>
       <c r="GI6" s="23">
         <f t="shared" si="5"/>
-        <v>45528</v>
+        <v>45570</v>
       </c>
       <c r="GJ6" s="47">
         <f t="shared" si="5"/>
-        <v>45529</v>
+        <v>45571</v>
       </c>
       <c r="GK6" s="44">
         <f t="shared" si="5"/>
-        <v>45530</v>
+        <v>45572</v>
       </c>
       <c r="GL6" s="23">
         <f t="shared" si="5"/>
-        <v>45531</v>
+        <v>45573</v>
       </c>
       <c r="GM6" s="23">
         <f t="shared" ref="GM6:HR6" si="6">GL6+1</f>
-        <v>45532</v>
+        <v>45574</v>
       </c>
       <c r="GN6" s="23">
         <f t="shared" si="6"/>
-        <v>45533</v>
+        <v>45575</v>
       </c>
       <c r="GO6" s="23">
         <f t="shared" si="6"/>
-        <v>45534</v>
+        <v>45576</v>
       </c>
       <c r="GP6" s="23">
         <f t="shared" si="6"/>
-        <v>45535</v>
+        <v>45577</v>
       </c>
       <c r="GQ6" s="45">
         <f t="shared" si="6"/>
-        <v>45536</v>
+        <v>45578</v>
       </c>
       <c r="GR6" s="46">
         <f t="shared" si="6"/>
-        <v>45537</v>
+        <v>45579</v>
       </c>
       <c r="GS6" s="23">
         <f t="shared" si="6"/>
-        <v>45538</v>
+        <v>45580</v>
       </c>
       <c r="GT6" s="23">
         <f t="shared" si="6"/>
-        <v>45539</v>
+        <v>45581</v>
       </c>
       <c r="GU6" s="23">
         <f t="shared" si="6"/>
-        <v>45540</v>
+        <v>45582</v>
       </c>
       <c r="GV6" s="23">
         <f t="shared" si="6"/>
-        <v>45541</v>
+        <v>45583</v>
       </c>
       <c r="GW6" s="23">
         <f t="shared" si="6"/>
-        <v>45542</v>
+        <v>45584</v>
       </c>
       <c r="GX6" s="47">
         <f t="shared" si="6"/>
-        <v>45543</v>
+        <v>45585</v>
       </c>
       <c r="GY6" s="44">
         <f t="shared" si="6"/>
-        <v>45544</v>
+        <v>45586</v>
       </c>
       <c r="GZ6" s="23">
         <f t="shared" si="6"/>
-        <v>45545</v>
+        <v>45587</v>
       </c>
       <c r="HA6" s="23">
         <f t="shared" si="6"/>
-        <v>45546</v>
+        <v>45588</v>
       </c>
       <c r="HB6" s="23">
         <f t="shared" si="6"/>
-        <v>45547</v>
+        <v>45589</v>
       </c>
       <c r="HC6" s="23">
         <f t="shared" si="6"/>
-        <v>45548</v>
+        <v>45590</v>
       </c>
       <c r="HD6" s="23">
         <f t="shared" si="6"/>
-        <v>45549</v>
+        <v>45591</v>
       </c>
       <c r="HE6" s="45">
         <f t="shared" si="6"/>
-        <v>45550</v>
+        <v>45592</v>
       </c>
       <c r="HF6" s="46">
         <f t="shared" si="6"/>
-        <v>45551</v>
+        <v>45593</v>
       </c>
       <c r="HG6" s="23">
         <f t="shared" si="6"/>
-        <v>45552</v>
+        <v>45594</v>
       </c>
       <c r="HH6" s="23">
         <f t="shared" si="6"/>
-        <v>45553</v>
+        <v>45595</v>
       </c>
       <c r="HI6" s="23">
         <f t="shared" si="6"/>
-        <v>45554</v>
+        <v>45596</v>
       </c>
       <c r="HJ6" s="23">
         <f t="shared" si="6"/>
-        <v>45555</v>
+        <v>45597</v>
       </c>
       <c r="HK6" s="23">
         <f t="shared" si="6"/>
-        <v>45556</v>
+        <v>45598</v>
       </c>
       <c r="HL6" s="47">
         <f t="shared" si="6"/>
-        <v>45557</v>
+        <v>45599</v>
       </c>
       <c r="HM6" s="44">
         <f t="shared" si="6"/>
-        <v>45558</v>
+        <v>45600</v>
       </c>
       <c r="HN6" s="23">
         <f t="shared" si="6"/>
-        <v>45559</v>
+        <v>45601</v>
       </c>
       <c r="HO6" s="23">
         <f t="shared" si="6"/>
-        <v>45560</v>
+        <v>45602</v>
       </c>
       <c r="HP6" s="23">
         <f t="shared" si="6"/>
-        <v>45561</v>
+        <v>45603</v>
       </c>
       <c r="HQ6" s="23">
         <f t="shared" si="6"/>
-        <v>45562</v>
+        <v>45604</v>
       </c>
       <c r="HR6" s="23">
         <f t="shared" si="6"/>
-        <v>45563</v>
+        <v>45605</v>
       </c>
       <c r="HS6" s="45">
         <f t="shared" ref="HS6:IT6" si="7">HR6+1</f>
-        <v>45564</v>
+        <v>45606</v>
       </c>
       <c r="HT6" s="46">
         <f t="shared" si="7"/>
-        <v>45565</v>
+        <v>45607</v>
       </c>
       <c r="HU6" s="23">
         <f t="shared" si="7"/>
-        <v>45566</v>
+        <v>45608</v>
       </c>
       <c r="HV6" s="23">
         <f t="shared" si="7"/>
-        <v>45567</v>
+        <v>45609</v>
       </c>
       <c r="HW6" s="23">
         <f t="shared" si="7"/>
-        <v>45568</v>
+        <v>45610</v>
       </c>
       <c r="HX6" s="23">
         <f t="shared" si="7"/>
-        <v>45569</v>
+        <v>45611</v>
       </c>
       <c r="HY6" s="23">
         <f t="shared" si="7"/>
-        <v>45570</v>
+        <v>45612</v>
       </c>
       <c r="HZ6" s="47">
         <f t="shared" si="7"/>
-        <v>45571</v>
+        <v>45613</v>
       </c>
       <c r="IA6" s="44">
         <f t="shared" si="7"/>
-        <v>45572</v>
+        <v>45614</v>
       </c>
       <c r="IB6" s="23">
         <f t="shared" si="7"/>
-        <v>45573</v>
+        <v>45615</v>
       </c>
       <c r="IC6" s="23">
         <f t="shared" si="7"/>
-        <v>45574</v>
+        <v>45616</v>
       </c>
       <c r="ID6" s="23">
         <f t="shared" si="7"/>
-        <v>45575</v>
+        <v>45617</v>
       </c>
       <c r="IE6" s="23">
         <f t="shared" si="7"/>
-        <v>45576</v>
+        <v>45618</v>
       </c>
       <c r="IF6" s="23">
         <f t="shared" si="7"/>
-        <v>45577</v>
+        <v>45619</v>
       </c>
       <c r="IG6" s="45">
         <f t="shared" si="7"/>
-        <v>45578</v>
+        <v>45620</v>
       </c>
       <c r="IH6" s="46">
         <f t="shared" si="7"/>
-        <v>45579</v>
+        <v>45621</v>
       </c>
       <c r="II6" s="23">
         <f t="shared" si="7"/>
-        <v>45580</v>
+        <v>45622</v>
       </c>
       <c r="IJ6" s="23">
         <f t="shared" si="7"/>
-        <v>45581</v>
+        <v>45623</v>
       </c>
       <c r="IK6" s="23">
         <f t="shared" si="7"/>
-        <v>45582</v>
+        <v>45624</v>
       </c>
       <c r="IL6" s="23">
         <f t="shared" si="7"/>
-        <v>45583</v>
+        <v>45625</v>
       </c>
       <c r="IM6" s="23">
         <f t="shared" si="7"/>
-        <v>45584</v>
+        <v>45626</v>
       </c>
       <c r="IN6" s="47">
         <f t="shared" si="7"/>
-        <v>45585</v>
+        <v>45627</v>
       </c>
       <c r="IO6" s="44">
         <f t="shared" si="7"/>
-        <v>45586</v>
+        <v>45628</v>
       </c>
       <c r="IP6" s="23">
         <f t="shared" si="7"/>
-        <v>45587</v>
+        <v>45629</v>
       </c>
       <c r="IQ6" s="23">
         <f t="shared" si="7"/>
-        <v>45588</v>
+        <v>45630</v>
       </c>
       <c r="IR6" s="23">
         <f t="shared" si="7"/>
-        <v>45589</v>
+        <v>45631</v>
       </c>
       <c r="IS6" s="23">
         <f t="shared" si="7"/>
-        <v>45590</v>
+        <v>45632</v>
       </c>
       <c r="IT6" s="23">
         <f t="shared" si="7"/>
-        <v>45591</v>
+        <v>45633</v>
       </c>
       <c r="IU6" s="45"/>
     </row>
@@ -6180,7 +6175,7 @@
       </c>
       <c r="IU7" s="31"/>
     </row>
-    <row r="8" spans="1:255" s="176" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:255" s="176" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="169" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -6442,7 +6437,7 @@
       <c r="IT8" s="172"/>
       <c r="IU8" s="172"/>
     </row>
-    <row r="9" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="143">
         <v>1</v>
       </c>
@@ -6715,7 +6710,7 @@
       <c r="IT9" s="152"/>
       <c r="IU9" s="152"/>
     </row>
-    <row r="10" spans="1:255" s="153" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="143" t="str">
         <f t="shared" ref="A10:A19" si="18">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1</v>
@@ -6989,7 +6984,7 @@
       <c r="IT10" s="152"/>
       <c r="IU10" s="152"/>
     </row>
-    <row r="11" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.1</v>
@@ -7263,7 +7258,7 @@
       <c r="IT11" s="152"/>
       <c r="IU11" s="152"/>
     </row>
-    <row r="12" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.2</v>
@@ -7538,7 +7533,7 @@
       <c r="IT12" s="152"/>
       <c r="IU12" s="152"/>
     </row>
-    <row r="13" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.3</v>
@@ -7812,7 +7807,7 @@
       <c r="IT13" s="152"/>
       <c r="IU13" s="152"/>
     </row>
-    <row r="14" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.4</v>
@@ -8089,7 +8084,7 @@
       <c r="IT14" s="152"/>
       <c r="IU14" s="152"/>
     </row>
-    <row r="15" spans="1:255" s="153" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:255" s="153" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A15" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.5</v>
@@ -8366,7 +8361,7 @@
       <c r="IT15" s="152"/>
       <c r="IU15" s="152"/>
     </row>
-    <row r="16" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.6</v>
@@ -8642,7 +8637,7 @@
       <c r="IT16" s="152"/>
       <c r="IU16" s="152"/>
     </row>
-    <row r="17" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.7</v>
@@ -8918,7 +8913,7 @@
       <c r="IT17" s="152"/>
       <c r="IU17" s="152"/>
     </row>
-    <row r="18" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.8</v>
@@ -9192,7 +9187,7 @@
       <c r="IT18" s="152"/>
       <c r="IU18" s="152"/>
     </row>
-    <row r="19" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="143" t="str">
         <f t="shared" si="18"/>
         <v>1.1.9</v>
@@ -9468,7 +9463,7 @@
       <c r="IT19" s="152"/>
       <c r="IU19" s="152"/>
     </row>
-    <row r="20" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="143"/>
       <c r="B20" s="144" t="s">
         <v>32</v>
@@ -9742,7 +9737,7 @@
       <c r="IT20" s="152"/>
       <c r="IU20" s="152"/>
     </row>
-    <row r="21" spans="1:255" s="153" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:255" s="153" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="143"/>
       <c r="B21" s="144" t="s">
         <v>31</v>
@@ -10016,7 +10011,7 @@
       <c r="IT21" s="152"/>
       <c r="IU21" s="152"/>
     </row>
-    <row r="22" spans="1:255" s="93" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:255" s="93" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="159">
         <v>2</v>
       </c>
@@ -10277,7 +10272,7 @@
       <c r="IT22" s="92"/>
       <c r="IU22" s="92"/>
     </row>
-    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="95">
         <v>2</v>
       </c>
@@ -10292,17 +10287,17 @@
       </c>
       <c r="F23" s="100">
         <f t="shared" ref="F23:F36" si="21">IF(ISBLANK(E23)," - ",IF(G23=0,E23,E23+G23-1))</f>
-        <v>45432</v>
+        <v>45429</v>
       </c>
       <c r="G23" s="101">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H23" s="102">
         <v>0.3</v>
       </c>
       <c r="I23" s="190">
         <f t="shared" ref="I23:I36" si="22">IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="103"/>
       <c r="K23" s="104"/>
@@ -10551,7 +10546,7 @@
       <c r="IT23" s="104"/>
       <c r="IU23" s="104"/>
     </row>
-    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:255" s="105" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="95">
         <v>2.1</v>
       </c>
@@ -10825,7 +10820,7 @@
       <c r="IT24" s="104"/>
       <c r="IU24" s="104"/>
     </row>
-    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:255" s="105" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="95">
         <v>2.2000000000000002</v>
       </c>
@@ -11099,7 +11094,7 @@
       <c r="IT25" s="104"/>
       <c r="IU25" s="104"/>
     </row>
-    <row r="26" spans="1:255" s="105" customFormat="1" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:255" s="105" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="95">
         <v>2.2999999999999998</v>
       </c>
@@ -11373,7 +11368,7 @@
       <c r="IT26" s="104"/>
       <c r="IU26" s="104"/>
     </row>
-    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:255" s="105" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="95">
         <v>2.4</v>
       </c>
@@ -11394,7 +11389,7 @@
         <v>16</v>
       </c>
       <c r="H27" s="102">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="I27" s="191">
         <f t="shared" si="22"/>
@@ -11647,16 +11642,14 @@
       <c r="IT27" s="104"/>
       <c r="IU27" s="104"/>
     </row>
-    <row r="28" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:255" s="105" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A28" s="95">
         <v>2.5</v>
       </c>
       <c r="B28" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="97">
-        <v>2</v>
-      </c>
+      <c r="C28" s="97"/>
       <c r="D28" s="98"/>
       <c r="E28" s="99">
         <f>F27+1</f>
@@ -11664,17 +11657,17 @@
       </c>
       <c r="F28" s="100">
         <f t="shared" si="21"/>
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="G28" s="101">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H28" s="102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="191">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" s="103"/>
       <c r="K28" s="104"/>
@@ -11923,7 +11916,7 @@
       <c r="IT28" s="104"/>
       <c r="IU28" s="104"/>
     </row>
-    <row r="29" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="95">
         <v>2.6</v>
       </c>
@@ -12199,7 +12192,7 @@
       <c r="IT29" s="104"/>
       <c r="IU29" s="104"/>
     </row>
-    <row r="30" spans="1:255" s="105" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:255" s="105" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="95">
         <v>2.7</v>
       </c>
@@ -12475,7 +12468,7 @@
       <c r="IT30" s="104"/>
       <c r="IU30" s="104"/>
     </row>
-    <row r="31" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
         <v>2.8</v>
       </c>
@@ -12490,17 +12483,17 @@
       </c>
       <c r="F31" s="100">
         <f t="shared" si="21"/>
-        <v>45425</v>
+        <v>45424</v>
       </c>
       <c r="G31" s="101">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="102">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I31" s="191">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J31" s="103"/>
       <c r="K31" s="104"/>
@@ -12749,7 +12742,7 @@
       <c r="IT31" s="104"/>
       <c r="IU31" s="104"/>
     </row>
-    <row r="32" spans="1:255" s="105" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:255" s="105" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="95" t="s">
         <v>65</v>
       </c>
@@ -13023,7 +13016,7 @@
       <c r="IT32" s="104"/>
       <c r="IU32" s="104"/>
     </row>
-    <row r="33" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="95" t="s">
         <v>66</v>
       </c>
@@ -13297,7 +13290,7 @@
       <c r="IT33" s="104"/>
       <c r="IU33" s="104"/>
     </row>
-    <row r="34" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="95" t="s">
         <v>67</v>
       </c>
@@ -13312,17 +13305,17 @@
       </c>
       <c r="F34" s="100">
         <f t="shared" si="21"/>
-        <v>45425</v>
+        <v>45424</v>
       </c>
       <c r="G34" s="101">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="102">
         <v>0</v>
       </c>
       <c r="I34" s="191">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J34" s="103"/>
       <c r="K34" s="104"/>
@@ -13571,8 +13564,7 @@
       <c r="IT34" s="104"/>
       <c r="IU34" s="104"/>
     </row>
-    <row r="35" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
+    <row r="35" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="96" t="s">
         <v>37</v>
       </c>
@@ -13582,11 +13574,11 @@
       <c r="D35" s="98"/>
       <c r="E35" s="99">
         <f>E36-5</f>
-        <v>45427</v>
+        <v>45424</v>
       </c>
       <c r="F35" s="100">
         <f t="shared" si="21"/>
-        <v>45427</v>
+        <v>45424</v>
       </c>
       <c r="G35" s="101">
         <v>1</v>
@@ -13596,7 +13588,7 @@
       </c>
       <c r="I35" s="191">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="103"/>
       <c r="K35" s="104"/>
@@ -13845,7 +13837,7 @@
       <c r="IT35" s="104"/>
       <c r="IU35" s="104"/>
     </row>
-    <row r="36" spans="1:255" s="105" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:255" s="105" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="95"/>
       <c r="B36" s="96" t="s">
         <v>36</v>
@@ -13855,12 +13847,11 @@
       </c>
       <c r="D36" s="98"/>
       <c r="E36" s="99">
-        <f>F23</f>
-        <v>45432</v>
+        <v>45429</v>
       </c>
       <c r="F36" s="100">
         <f t="shared" si="21"/>
-        <v>45432</v>
+        <v>45429</v>
       </c>
       <c r="G36" s="101">
         <v>1</v>
@@ -14119,7 +14110,7 @@
       <c r="IT36" s="104"/>
       <c r="IU36" s="104"/>
     </row>
-    <row r="37" spans="1:255" s="113" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:255" s="113" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="106">
         <v>3</v>
       </c>
@@ -14380,7 +14371,7 @@
       <c r="IT37" s="109"/>
       <c r="IU37" s="109"/>
     </row>
-    <row r="38" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="114">
         <v>3</v>
       </c>
@@ -14391,21 +14382,21 @@
       <c r="D38" s="156"/>
       <c r="E38" s="115">
         <f>$F$23+1</f>
-        <v>45433</v>
+        <v>45430</v>
       </c>
       <c r="F38" s="116">
         <f t="shared" ref="F38:F43" si="23">IF(ISBLANK(E38)," - ",IF(G38=0,E38,E38+G38-1))</f>
         <v>45502</v>
       </c>
       <c r="G38" s="117">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H38" s="118">
         <v>0</v>
       </c>
       <c r="I38" s="184">
         <f t="shared" ref="I38:I47" si="24">IF(OR(F38=0,E38=0),0,NETWORKDAYS(E38,F38))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J38" s="119"/>
       <c r="K38" s="120"/>
@@ -14654,7 +14645,7 @@
       <c r="IT38" s="120"/>
       <c r="IU38" s="120"/>
     </row>
-    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:255" s="121" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="114">
         <v>3.1</v>
       </c>
@@ -14665,11 +14656,11 @@
       <c r="D39" s="156"/>
       <c r="E39" s="115">
         <f>E40</f>
-        <v>45433</v>
+        <v>45430</v>
       </c>
       <c r="F39" s="116">
         <f>IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
-        <v>45436</v>
+        <v>45433</v>
       </c>
       <c r="G39" s="117">
         <v>4</v>
@@ -14679,7 +14670,7 @@
       </c>
       <c r="I39" s="185">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" s="119"/>
       <c r="K39" s="120"/>
@@ -14928,7 +14919,7 @@
       <c r="IT39" s="120"/>
       <c r="IU39" s="120"/>
     </row>
-    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:255" s="121" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114">
         <v>3.2</v>
       </c>
@@ -14939,11 +14930,11 @@
       <c r="D40" s="156"/>
       <c r="E40" s="115">
         <f>E38</f>
-        <v>45433</v>
+        <v>45430</v>
       </c>
       <c r="F40" s="116">
         <f t="shared" si="23"/>
-        <v>45439</v>
+        <v>45436</v>
       </c>
       <c r="G40" s="117">
         <v>7</v>
@@ -15202,7 +15193,7 @@
       <c r="IT40" s="120"/>
       <c r="IU40" s="120"/>
     </row>
-    <row r="41" spans="1:255" s="121" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:255" s="121" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A41" s="114">
         <v>3.3</v>
       </c>
@@ -15213,11 +15204,11 @@
       <c r="D41" s="156"/>
       <c r="E41" s="115">
         <f>MAX(F40,F39)+1</f>
-        <v>45440</v>
+        <v>45437</v>
       </c>
       <c r="F41" s="116">
         <f t="shared" si="23"/>
-        <v>45457</v>
+        <v>45454</v>
       </c>
       <c r="G41" s="117">
         <v>18</v>
@@ -15227,7 +15218,7 @@
       </c>
       <c r="I41" s="185">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J41" s="119"/>
       <c r="K41" s="120"/>
@@ -15476,7 +15467,7 @@
       <c r="IT41" s="120"/>
       <c r="IU41" s="120"/>
     </row>
-    <row r="42" spans="1:255" s="121" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:255" s="121" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="114">
         <v>3.4</v>
       </c>
@@ -15487,11 +15478,11 @@
       <c r="D42" s="156"/>
       <c r="E42" s="115">
         <f>F41+1</f>
-        <v>45458</v>
+        <v>45455</v>
       </c>
       <c r="F42" s="116">
         <f>IF(ISBLANK(E42)," - ",IF(G42=0,E42,E42+G42-1))</f>
-        <v>45489</v>
+        <v>45486</v>
       </c>
       <c r="G42" s="117">
         <v>32</v>
@@ -15501,7 +15492,7 @@
       </c>
       <c r="I42" s="185">
         <f t="shared" si="24"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J42" s="119"/>
       <c r="K42" s="120"/>
@@ -15750,7 +15741,7 @@
       <c r="IT42" s="120"/>
       <c r="IU42" s="120"/>
     </row>
-    <row r="43" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
         <v>68</v>
       </c>
@@ -15761,11 +15752,11 @@
       <c r="D43" s="156"/>
       <c r="E43" s="115">
         <f>E42</f>
-        <v>45458</v>
+        <v>45455</v>
       </c>
       <c r="F43" s="116">
         <f t="shared" si="23"/>
-        <v>45463</v>
+        <v>45460</v>
       </c>
       <c r="G43" s="117">
         <v>6</v>
@@ -16024,7 +16015,7 @@
       <c r="IT43" s="120"/>
       <c r="IU43" s="120"/>
     </row>
-    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="114" t="s">
         <v>69</v>
       </c>
@@ -16035,11 +16026,11 @@
       <c r="D44" s="156"/>
       <c r="E44" s="115">
         <f>F43+1</f>
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="F44" s="116">
         <f>IF(ISBLANK(E44)," - ",IF(G44=0,E44,E44+G44-1))</f>
-        <v>45468</v>
+        <v>45465</v>
       </c>
       <c r="G44" s="117">
         <v>5</v>
@@ -16049,7 +16040,7 @@
       </c>
       <c r="I44" s="185">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" s="119"/>
       <c r="K44" s="120"/>
@@ -16298,7 +16289,7 @@
       <c r="IT44" s="120"/>
       <c r="IU44" s="120"/>
     </row>
-    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:255" s="121" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="114" t="s">
         <v>70</v>
       </c>
@@ -16309,11 +16300,11 @@
       <c r="D45" s="156"/>
       <c r="E45" s="115">
         <f>F44+1</f>
-        <v>45469</v>
+        <v>45466</v>
       </c>
       <c r="F45" s="116">
         <f>IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
-        <v>45489</v>
+        <v>45486</v>
       </c>
       <c r="G45" s="117">
         <v>21</v>
@@ -16572,7 +16563,7 @@
       <c r="IT45" s="120"/>
       <c r="IU45" s="120"/>
     </row>
-    <row r="46" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="114"/>
       <c r="B46" s="154" t="s">
         <v>29</v>
@@ -16846,7 +16837,7 @@
       <c r="IT46" s="120"/>
       <c r="IU46" s="120"/>
     </row>
-    <row r="47" spans="1:255" s="121" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:255" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="114"/>
       <c r="B47" s="154" t="s">
         <v>30</v>
@@ -17120,7 +17111,7 @@
       <c r="IT47" s="120"/>
       <c r="IU47" s="120"/>
     </row>
-    <row r="48" spans="1:255" s="131" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:255" s="131" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="122">
         <v>4</v>
       </c>
@@ -17381,7 +17372,7 @@
       <c r="IT48" s="125"/>
       <c r="IU48" s="125"/>
     </row>
-    <row r="49" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -17656,7 +17647,7 @@
       <c r="IT49" s="141"/>
       <c r="IU49" s="141"/>
     </row>
-    <row r="50" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.1</v>
@@ -17933,7 +17924,7 @@
       <c r="IT50" s="141"/>
       <c r="IU50" s="141"/>
     </row>
-    <row r="51" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.2</v>
@@ -18209,7 +18200,7 @@
       <c r="IT51" s="141"/>
       <c r="IU51" s="141"/>
     </row>
-    <row r="52" spans="1:255" s="142" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:255" s="142" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="132" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>4.1.3</v>
@@ -18486,7 +18477,7 @@
       <c r="IT52" s="141"/>
       <c r="IU52" s="141"/>
     </row>
-    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:255" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="65" t="s">
         <v>1</v>
       </c>
@@ -18745,7 +18736,7 @@
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
     </row>
-    <row r="55" spans="1:255" s="8" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:255" s="8" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A55" s="66" t="s">
         <v>16</v>
       </c>
@@ -19000,7 +18991,7 @@
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
     </row>
-    <row r="56" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="54" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -19264,7 +19255,7 @@
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
     </row>
-    <row r="57" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -19536,7 +19527,7 @@
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
     </row>
-    <row r="58" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -19808,7 +19799,7 @@
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
     </row>
-    <row r="59" spans="1:255" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:255" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="53" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>1.1.1.1</v>
@@ -20078,7 +20069,7 @@
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
     </row>
-    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:255" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="80" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
@@ -20088,8 +20079,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:255" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="73">
@@ -20228,13 +20219,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>7620</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>28</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>104775</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>

--- a/thesis gantt chart.xlsx
+++ b/thesis gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micky\Desktop\wings_stuff\srus\TUD\yr5\thesis\thesis_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B2875-5A2A-4B1B-8608-C7DA8288FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62657886-CB21-4166-B646-A2DDA5593AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="3210" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -2627,28 +2627,40 @@
     <xf numFmtId="0" fontId="28" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="24" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2685,18 +2697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="41" fillId="23" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="41" fillId="23" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2885,7 +2885,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="15"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$I$4" horiz="1" max="100" min="1" page="0" val="20"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3295,69 +3295,69 @@
   <dimension ref="A1:IU62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW25" sqref="AW25"/>
+      <pane ySplit="7" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="91" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.5703125" style="1" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" style="1" customWidth="1"/>
-    <col min="67" max="68" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="74" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="99" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="102" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="108" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="131" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="137" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="162" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="165" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="169" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="192" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="200" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="221" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="227" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.86328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.59765625" style="1" customWidth="1"/>
+    <col min="11" max="66" width="2.3984375" style="1" customWidth="1"/>
+    <col min="67" max="68" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="74" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="99" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="102" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="131" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="137" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="162" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="165" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="169" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="192" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="200" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="221" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="227" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="252" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="254" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="1"/>
+    <col min="229" max="229" width="1.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="2.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="252" width="2.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="254" width="2.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="1.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:255" s="12" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
@@ -3370,23 +3370,23 @@
       <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
-      <c r="AN1" s="204"/>
-      <c r="AO1" s="204"/>
-      <c r="AP1" s="204"/>
-      <c r="AQ1" s="204"/>
-      <c r="AR1" s="204"/>
+      <c r="AD1" s="208"/>
+      <c r="AE1" s="208"/>
+      <c r="AF1" s="208"/>
+      <c r="AG1" s="208"/>
+      <c r="AH1" s="208"/>
+      <c r="AI1" s="208"/>
+      <c r="AJ1" s="208"/>
+      <c r="AK1" s="208"/>
+      <c r="AL1" s="208"/>
+      <c r="AM1" s="208"/>
+      <c r="AN1" s="208"/>
+      <c r="AO1" s="208"/>
+      <c r="AP1" s="208"/>
+      <c r="AQ1" s="208"/>
+      <c r="AR1" s="208"/>
     </row>
-    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:255" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>25</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="E2" s="25"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:255" s="61" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
       <c r="B3" s="58"/>
       <c r="C3" s="83"/>
@@ -3460,1715 +3460,1715 @@
       <c r="BM3" s="76"/>
       <c r="BN3" s="77"/>
     </row>
-    <row r="4" spans="1:255" s="70" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:255" s="70" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="207">
+      <c r="C4" s="211">
         <v>45295</v>
       </c>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="H4" s="73" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="74">
-        <v>15</v>
-      </c>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="201"/>
-      <c r="R4" s="199" t="str">
+        <v>20</v>
+      </c>
+      <c r="K4" s="196"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="196" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 15</v>
-      </c>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="200"/>
-      <c r="V4" s="200"/>
-      <c r="W4" s="200"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="199" t="str">
+        <v>Week 20</v>
+      </c>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="196" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 16</v>
-      </c>
-      <c r="Z4" s="200"/>
-      <c r="AA4" s="200"/>
-      <c r="AB4" s="200"/>
-      <c r="AC4" s="200"/>
-      <c r="AD4" s="200"/>
-      <c r="AE4" s="201"/>
-      <c r="AF4" s="199" t="str">
+        <v>Week 21</v>
+      </c>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="198"/>
+      <c r="AF4" s="196" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 17</v>
-      </c>
-      <c r="AG4" s="200"/>
-      <c r="AH4" s="200"/>
-      <c r="AI4" s="200"/>
-      <c r="AJ4" s="200"/>
-      <c r="AK4" s="200"/>
-      <c r="AL4" s="201"/>
-      <c r="AM4" s="199" t="str">
+        <v>Week 22</v>
+      </c>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+      <c r="AL4" s="198"/>
+      <c r="AM4" s="196" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 18</v>
-      </c>
-      <c r="AN4" s="200"/>
-      <c r="AO4" s="200"/>
-      <c r="AP4" s="200"/>
-      <c r="AQ4" s="200"/>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="201"/>
-      <c r="AT4" s="199" t="str">
+        <v>Week 23</v>
+      </c>
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="197"/>
+      <c r="AP4" s="197"/>
+      <c r="AQ4" s="197"/>
+      <c r="AR4" s="197"/>
+      <c r="AS4" s="198"/>
+      <c r="AT4" s="196" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 19</v>
-      </c>
-      <c r="AU4" s="200"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="200"/>
-      <c r="AX4" s="200"/>
-      <c r="AY4" s="200"/>
-      <c r="AZ4" s="201"/>
-      <c r="BA4" s="199" t="str">
+        <v>Week 24</v>
+      </c>
+      <c r="AU4" s="197"/>
+      <c r="AV4" s="197"/>
+      <c r="AW4" s="197"/>
+      <c r="AX4" s="197"/>
+      <c r="AY4" s="197"/>
+      <c r="AZ4" s="198"/>
+      <c r="BA4" s="196" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 20</v>
-      </c>
-      <c r="BB4" s="200"/>
-      <c r="BC4" s="200"/>
-      <c r="BD4" s="200"/>
-      <c r="BE4" s="200"/>
-      <c r="BF4" s="200"/>
-      <c r="BG4" s="201"/>
-      <c r="BH4" s="199" t="str">
+        <v>Week 25</v>
+      </c>
+      <c r="BB4" s="197"/>
+      <c r="BC4" s="197"/>
+      <c r="BD4" s="197"/>
+      <c r="BE4" s="197"/>
+      <c r="BF4" s="197"/>
+      <c r="BG4" s="198"/>
+      <c r="BH4" s="196" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 21</v>
-      </c>
-      <c r="BI4" s="200"/>
-      <c r="BJ4" s="200"/>
-      <c r="BK4" s="200"/>
-      <c r="BL4" s="200"/>
-      <c r="BM4" s="200"/>
-      <c r="BN4" s="201"/>
-      <c r="BO4" s="199" t="str">
+        <v>Week 26</v>
+      </c>
+      <c r="BI4" s="197"/>
+      <c r="BJ4" s="197"/>
+      <c r="BK4" s="197"/>
+      <c r="BL4" s="197"/>
+      <c r="BM4" s="197"/>
+      <c r="BN4" s="198"/>
+      <c r="BO4" s="196" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 22</v>
-      </c>
-      <c r="BP4" s="200"/>
-      <c r="BQ4" s="200"/>
-      <c r="BR4" s="200"/>
-      <c r="BS4" s="200"/>
-      <c r="BT4" s="200"/>
-      <c r="BU4" s="201"/>
-      <c r="BV4" s="199" t="str">
+        <v>Week 27</v>
+      </c>
+      <c r="BP4" s="197"/>
+      <c r="BQ4" s="197"/>
+      <c r="BR4" s="197"/>
+      <c r="BS4" s="197"/>
+      <c r="BT4" s="197"/>
+      <c r="BU4" s="198"/>
+      <c r="BV4" s="196" t="str">
         <f>"Week "&amp;(BO6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 23</v>
-      </c>
-      <c r="BW4" s="200"/>
-      <c r="BX4" s="200"/>
-      <c r="BY4" s="200"/>
-      <c r="BZ4" s="200"/>
-      <c r="CA4" s="200"/>
-      <c r="CB4" s="201"/>
-      <c r="CC4" s="199" t="str">
+        <v>Week 28</v>
+      </c>
+      <c r="BW4" s="197"/>
+      <c r="BX4" s="197"/>
+      <c r="BY4" s="197"/>
+      <c r="BZ4" s="197"/>
+      <c r="CA4" s="197"/>
+      <c r="CB4" s="198"/>
+      <c r="CC4" s="196" t="str">
         <f>"Week "&amp;(BV6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 24</v>
-      </c>
-      <c r="CD4" s="200"/>
-      <c r="CE4" s="200"/>
-      <c r="CF4" s="200"/>
-      <c r="CG4" s="200"/>
-      <c r="CH4" s="200"/>
-      <c r="CI4" s="201"/>
-      <c r="CJ4" s="199" t="str">
+        <v>Week 29</v>
+      </c>
+      <c r="CD4" s="197"/>
+      <c r="CE4" s="197"/>
+      <c r="CF4" s="197"/>
+      <c r="CG4" s="197"/>
+      <c r="CH4" s="197"/>
+      <c r="CI4" s="198"/>
+      <c r="CJ4" s="196" t="str">
         <f>"Week "&amp;(CC6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 25</v>
-      </c>
-      <c r="CK4" s="200"/>
-      <c r="CL4" s="200"/>
-      <c r="CM4" s="200"/>
-      <c r="CN4" s="200"/>
-      <c r="CO4" s="200"/>
-      <c r="CP4" s="201"/>
-      <c r="CQ4" s="199" t="str">
+        <v>Week 30</v>
+      </c>
+      <c r="CK4" s="197"/>
+      <c r="CL4" s="197"/>
+      <c r="CM4" s="197"/>
+      <c r="CN4" s="197"/>
+      <c r="CO4" s="197"/>
+      <c r="CP4" s="198"/>
+      <c r="CQ4" s="196" t="str">
         <f>"Week "&amp;(CJ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 26</v>
-      </c>
-      <c r="CR4" s="200"/>
-      <c r="CS4" s="200"/>
-      <c r="CT4" s="200"/>
-      <c r="CU4" s="200"/>
-      <c r="CV4" s="200"/>
-      <c r="CW4" s="201"/>
-      <c r="CX4" s="199" t="str">
+        <v>Week 31</v>
+      </c>
+      <c r="CR4" s="197"/>
+      <c r="CS4" s="197"/>
+      <c r="CT4" s="197"/>
+      <c r="CU4" s="197"/>
+      <c r="CV4" s="197"/>
+      <c r="CW4" s="198"/>
+      <c r="CX4" s="196" t="str">
         <f>"Week "&amp;(CQ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 27</v>
-      </c>
-      <c r="CY4" s="200"/>
-      <c r="CZ4" s="200"/>
-      <c r="DA4" s="200"/>
-      <c r="DB4" s="200"/>
-      <c r="DC4" s="200"/>
-      <c r="DD4" s="201"/>
-      <c r="DE4" s="199" t="str">
+        <v>Week 32</v>
+      </c>
+      <c r="CY4" s="197"/>
+      <c r="CZ4" s="197"/>
+      <c r="DA4" s="197"/>
+      <c r="DB4" s="197"/>
+      <c r="DC4" s="197"/>
+      <c r="DD4" s="198"/>
+      <c r="DE4" s="196" t="str">
         <f>"Week "&amp;(CX6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 28</v>
-      </c>
-      <c r="DF4" s="200"/>
-      <c r="DG4" s="200"/>
-      <c r="DH4" s="200"/>
-      <c r="DI4" s="200"/>
-      <c r="DJ4" s="200"/>
-      <c r="DK4" s="201"/>
-      <c r="DL4" s="199" t="str">
+        <v>Week 33</v>
+      </c>
+      <c r="DF4" s="197"/>
+      <c r="DG4" s="197"/>
+      <c r="DH4" s="197"/>
+      <c r="DI4" s="197"/>
+      <c r="DJ4" s="197"/>
+      <c r="DK4" s="198"/>
+      <c r="DL4" s="196" t="str">
         <f>"Week "&amp;(DE6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 29</v>
-      </c>
-      <c r="DM4" s="200"/>
-      <c r="DN4" s="200"/>
-      <c r="DO4" s="200"/>
-      <c r="DP4" s="200"/>
-      <c r="DQ4" s="200"/>
-      <c r="DR4" s="201"/>
-      <c r="DS4" s="199" t="str">
+        <v>Week 34</v>
+      </c>
+      <c r="DM4" s="197"/>
+      <c r="DN4" s="197"/>
+      <c r="DO4" s="197"/>
+      <c r="DP4" s="197"/>
+      <c r="DQ4" s="197"/>
+      <c r="DR4" s="198"/>
+      <c r="DS4" s="196" t="str">
         <f>"Week "&amp;(DL6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 30</v>
-      </c>
-      <c r="DT4" s="200"/>
-      <c r="DU4" s="200"/>
-      <c r="DV4" s="200"/>
-      <c r="DW4" s="200"/>
-      <c r="DX4" s="200"/>
-      <c r="DY4" s="201"/>
-      <c r="DZ4" s="199" t="str">
+        <v>Week 35</v>
+      </c>
+      <c r="DT4" s="197"/>
+      <c r="DU4" s="197"/>
+      <c r="DV4" s="197"/>
+      <c r="DW4" s="197"/>
+      <c r="DX4" s="197"/>
+      <c r="DY4" s="198"/>
+      <c r="DZ4" s="196" t="str">
         <f>"Week "&amp;(DS6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 31</v>
-      </c>
-      <c r="EA4" s="200"/>
-      <c r="EB4" s="200"/>
-      <c r="EC4" s="200"/>
-      <c r="ED4" s="200"/>
-      <c r="EE4" s="200"/>
-      <c r="EF4" s="201"/>
-      <c r="EG4" s="199" t="str">
+        <v>Week 36</v>
+      </c>
+      <c r="EA4" s="197"/>
+      <c r="EB4" s="197"/>
+      <c r="EC4" s="197"/>
+      <c r="ED4" s="197"/>
+      <c r="EE4" s="197"/>
+      <c r="EF4" s="198"/>
+      <c r="EG4" s="196" t="str">
         <f>"Week "&amp;(DZ6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 32</v>
-      </c>
-      <c r="EH4" s="200"/>
-      <c r="EI4" s="200"/>
-      <c r="EJ4" s="200"/>
-      <c r="EK4" s="200"/>
-      <c r="EL4" s="200"/>
-      <c r="EM4" s="201"/>
-      <c r="EN4" s="199" t="str">
+        <v>Week 37</v>
+      </c>
+      <c r="EH4" s="197"/>
+      <c r="EI4" s="197"/>
+      <c r="EJ4" s="197"/>
+      <c r="EK4" s="197"/>
+      <c r="EL4" s="197"/>
+      <c r="EM4" s="198"/>
+      <c r="EN4" s="196" t="str">
         <f>"Week "&amp;(EG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 33</v>
-      </c>
-      <c r="EO4" s="200"/>
-      <c r="EP4" s="200"/>
-      <c r="EQ4" s="200"/>
-      <c r="ER4" s="200"/>
-      <c r="ES4" s="200"/>
-      <c r="ET4" s="201"/>
-      <c r="EU4" s="199" t="str">
+        <v>Week 38</v>
+      </c>
+      <c r="EO4" s="197"/>
+      <c r="EP4" s="197"/>
+      <c r="EQ4" s="197"/>
+      <c r="ER4" s="197"/>
+      <c r="ES4" s="197"/>
+      <c r="ET4" s="198"/>
+      <c r="EU4" s="196" t="str">
         <f>"Week "&amp;(EN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 34</v>
-      </c>
-      <c r="EV4" s="200"/>
-      <c r="EW4" s="200"/>
-      <c r="EX4" s="200"/>
-      <c r="EY4" s="200"/>
-      <c r="EZ4" s="200"/>
-      <c r="FA4" s="201"/>
-      <c r="FB4" s="199" t="str">
+        <v>Week 39</v>
+      </c>
+      <c r="EV4" s="197"/>
+      <c r="EW4" s="197"/>
+      <c r="EX4" s="197"/>
+      <c r="EY4" s="197"/>
+      <c r="EZ4" s="197"/>
+      <c r="FA4" s="198"/>
+      <c r="FB4" s="196" t="str">
         <f>"Week "&amp;(EU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 35</v>
-      </c>
-      <c r="FC4" s="200"/>
-      <c r="FD4" s="200"/>
-      <c r="FE4" s="200"/>
-      <c r="FF4" s="200"/>
-      <c r="FG4" s="200"/>
-      <c r="FH4" s="201"/>
-      <c r="FI4" s="199" t="str">
+        <v>Week 40</v>
+      </c>
+      <c r="FC4" s="197"/>
+      <c r="FD4" s="197"/>
+      <c r="FE4" s="197"/>
+      <c r="FF4" s="197"/>
+      <c r="FG4" s="197"/>
+      <c r="FH4" s="198"/>
+      <c r="FI4" s="196" t="str">
         <f>"Week "&amp;(FB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 36</v>
-      </c>
-      <c r="FJ4" s="200"/>
-      <c r="FK4" s="200"/>
-      <c r="FL4" s="200"/>
-      <c r="FM4" s="200"/>
-      <c r="FN4" s="200"/>
-      <c r="FO4" s="201"/>
-      <c r="FP4" s="199" t="str">
+        <v>Week 41</v>
+      </c>
+      <c r="FJ4" s="197"/>
+      <c r="FK4" s="197"/>
+      <c r="FL4" s="197"/>
+      <c r="FM4" s="197"/>
+      <c r="FN4" s="197"/>
+      <c r="FO4" s="198"/>
+      <c r="FP4" s="196" t="str">
         <f>"Week "&amp;(FI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 37</v>
-      </c>
-      <c r="FQ4" s="200"/>
-      <c r="FR4" s="200"/>
-      <c r="FS4" s="200"/>
-      <c r="FT4" s="200"/>
-      <c r="FU4" s="200"/>
-      <c r="FV4" s="201"/>
-      <c r="FW4" s="199" t="str">
+        <v>Week 42</v>
+      </c>
+      <c r="FQ4" s="197"/>
+      <c r="FR4" s="197"/>
+      <c r="FS4" s="197"/>
+      <c r="FT4" s="197"/>
+      <c r="FU4" s="197"/>
+      <c r="FV4" s="198"/>
+      <c r="FW4" s="196" t="str">
         <f>"Week "&amp;(FP6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 38</v>
-      </c>
-      <c r="FX4" s="200"/>
-      <c r="FY4" s="200"/>
-      <c r="FZ4" s="200"/>
-      <c r="GA4" s="200"/>
-      <c r="GB4" s="200"/>
-      <c r="GC4" s="201"/>
-      <c r="GD4" s="199" t="str">
+        <v>Week 43</v>
+      </c>
+      <c r="FX4" s="197"/>
+      <c r="FY4" s="197"/>
+      <c r="FZ4" s="197"/>
+      <c r="GA4" s="197"/>
+      <c r="GB4" s="197"/>
+      <c r="GC4" s="198"/>
+      <c r="GD4" s="196" t="str">
         <f>"Week "&amp;(FW6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 39</v>
-      </c>
-      <c r="GE4" s="200"/>
-      <c r="GF4" s="200"/>
-      <c r="GG4" s="200"/>
-      <c r="GH4" s="200"/>
-      <c r="GI4" s="200"/>
-      <c r="GJ4" s="201"/>
-      <c r="GK4" s="199" t="str">
+        <v>Week 44</v>
+      </c>
+      <c r="GE4" s="197"/>
+      <c r="GF4" s="197"/>
+      <c r="GG4" s="197"/>
+      <c r="GH4" s="197"/>
+      <c r="GI4" s="197"/>
+      <c r="GJ4" s="198"/>
+      <c r="GK4" s="196" t="str">
         <f>"Week "&amp;(GD6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 40</v>
-      </c>
-      <c r="GL4" s="200"/>
-      <c r="GM4" s="200"/>
-      <c r="GN4" s="200"/>
-      <c r="GO4" s="200"/>
-      <c r="GP4" s="200"/>
-      <c r="GQ4" s="201"/>
-      <c r="GR4" s="199" t="str">
+        <v>Week 45</v>
+      </c>
+      <c r="GL4" s="197"/>
+      <c r="GM4" s="197"/>
+      <c r="GN4" s="197"/>
+      <c r="GO4" s="197"/>
+      <c r="GP4" s="197"/>
+      <c r="GQ4" s="198"/>
+      <c r="GR4" s="196" t="str">
         <f>"Week "&amp;(GK6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 41</v>
-      </c>
-      <c r="GS4" s="200"/>
-      <c r="GT4" s="200"/>
-      <c r="GU4" s="200"/>
-      <c r="GV4" s="200"/>
-      <c r="GW4" s="200"/>
-      <c r="GX4" s="201"/>
-      <c r="GY4" s="199" t="str">
+        <v>Week 46</v>
+      </c>
+      <c r="GS4" s="197"/>
+      <c r="GT4" s="197"/>
+      <c r="GU4" s="197"/>
+      <c r="GV4" s="197"/>
+      <c r="GW4" s="197"/>
+      <c r="GX4" s="198"/>
+      <c r="GY4" s="196" t="str">
         <f>"Week "&amp;(GR6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 42</v>
-      </c>
-      <c r="GZ4" s="200"/>
-      <c r="HA4" s="200"/>
-      <c r="HB4" s="200"/>
-      <c r="HC4" s="200"/>
-      <c r="HD4" s="200"/>
-      <c r="HE4" s="201"/>
-      <c r="HF4" s="199" t="str">
+        <v>Week 47</v>
+      </c>
+      <c r="GZ4" s="197"/>
+      <c r="HA4" s="197"/>
+      <c r="HB4" s="197"/>
+      <c r="HC4" s="197"/>
+      <c r="HD4" s="197"/>
+      <c r="HE4" s="198"/>
+      <c r="HF4" s="196" t="str">
         <f>"Week "&amp;(GY6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 43</v>
-      </c>
-      <c r="HG4" s="200"/>
-      <c r="HH4" s="200"/>
-      <c r="HI4" s="200"/>
-      <c r="HJ4" s="200"/>
-      <c r="HK4" s="200"/>
-      <c r="HL4" s="201"/>
-      <c r="HM4" s="199" t="str">
+        <v>Week 48</v>
+      </c>
+      <c r="HG4" s="197"/>
+      <c r="HH4" s="197"/>
+      <c r="HI4" s="197"/>
+      <c r="HJ4" s="197"/>
+      <c r="HK4" s="197"/>
+      <c r="HL4" s="198"/>
+      <c r="HM4" s="196" t="str">
         <f>"Week "&amp;(HF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 44</v>
-      </c>
-      <c r="HN4" s="200"/>
-      <c r="HO4" s="200"/>
-      <c r="HP4" s="200"/>
-      <c r="HQ4" s="200"/>
-      <c r="HR4" s="200"/>
-      <c r="HS4" s="201"/>
-      <c r="HT4" s="199" t="str">
+        <v>Week 49</v>
+      </c>
+      <c r="HN4" s="197"/>
+      <c r="HO4" s="197"/>
+      <c r="HP4" s="197"/>
+      <c r="HQ4" s="197"/>
+      <c r="HR4" s="197"/>
+      <c r="HS4" s="198"/>
+      <c r="HT4" s="196" t="str">
         <f>"Week "&amp;(HM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 45</v>
-      </c>
-      <c r="HU4" s="200"/>
-      <c r="HV4" s="200"/>
-      <c r="HW4" s="200"/>
-      <c r="HX4" s="200"/>
-      <c r="HY4" s="200"/>
-      <c r="HZ4" s="201"/>
-      <c r="IA4" s="199" t="str">
+        <v>Week 50</v>
+      </c>
+      <c r="HU4" s="197"/>
+      <c r="HV4" s="197"/>
+      <c r="HW4" s="197"/>
+      <c r="HX4" s="197"/>
+      <c r="HY4" s="197"/>
+      <c r="HZ4" s="198"/>
+      <c r="IA4" s="196" t="str">
         <f>"Week "&amp;(HT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 46</v>
-      </c>
-      <c r="IB4" s="200"/>
-      <c r="IC4" s="200"/>
-      <c r="ID4" s="200"/>
-      <c r="IE4" s="200"/>
-      <c r="IF4" s="200"/>
-      <c r="IG4" s="201"/>
-      <c r="IH4" s="199" t="str">
+        <v>Week 51</v>
+      </c>
+      <c r="IB4" s="197"/>
+      <c r="IC4" s="197"/>
+      <c r="ID4" s="197"/>
+      <c r="IE4" s="197"/>
+      <c r="IF4" s="197"/>
+      <c r="IG4" s="198"/>
+      <c r="IH4" s="196" t="str">
         <f>"Week "&amp;(IA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 47</v>
-      </c>
-      <c r="II4" s="200"/>
-      <c r="IJ4" s="200"/>
-      <c r="IK4" s="200"/>
-      <c r="IL4" s="200"/>
-      <c r="IM4" s="200"/>
-      <c r="IN4" s="201"/>
-      <c r="IO4" s="199" t="str">
+        <v>Week 52</v>
+      </c>
+      <c r="II4" s="197"/>
+      <c r="IJ4" s="197"/>
+      <c r="IK4" s="197"/>
+      <c r="IL4" s="197"/>
+      <c r="IM4" s="197"/>
+      <c r="IN4" s="198"/>
+      <c r="IO4" s="196" t="str">
         <f>"Week "&amp;(IH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 48</v>
-      </c>
-      <c r="IP4" s="200"/>
-      <c r="IQ4" s="200"/>
-      <c r="IR4" s="200"/>
-      <c r="IS4" s="200"/>
-      <c r="IT4" s="200"/>
-      <c r="IU4" s="201"/>
+        <v>Week 53</v>
+      </c>
+      <c r="IP4" s="197"/>
+      <c r="IQ4" s="197"/>
+      <c r="IR4" s="197"/>
+      <c r="IS4" s="197"/>
+      <c r="IT4" s="197"/>
+      <c r="IU4" s="198"/>
     </row>
-    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:255" s="24" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71"/>
       <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="209"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="213"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
-      <c r="K5" s="210">
+      <c r="K5" s="214">
         <f>K6</f>
-        <v>45390</v>
-      </c>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="210">
+        <v>45425</v>
+      </c>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="214">
         <f>R6</f>
-        <v>45397</v>
-      </c>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="211"/>
-      <c r="Y5" s="213">
+        <v>45432</v>
+      </c>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="215"/>
+      <c r="Y5" s="217">
         <f>Y6</f>
-        <v>45404</v>
-      </c>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="214"/>
-      <c r="AF5" s="205">
+        <v>45439</v>
+      </c>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="218"/>
+      <c r="AF5" s="209">
         <f>AF6</f>
-        <v>45411</v>
-      </c>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="215">
+        <v>45446</v>
+      </c>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="210"/>
+      <c r="AM5" s="202">
         <f>AM6</f>
-        <v>45418</v>
-      </c>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="216"/>
-      <c r="AT5" s="217">
+        <v>45453</v>
+      </c>
+      <c r="AN5" s="200"/>
+      <c r="AO5" s="200"/>
+      <c r="AP5" s="200"/>
+      <c r="AQ5" s="200"/>
+      <c r="AR5" s="200"/>
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="204">
         <f>AT6</f>
-        <v>45425</v>
-      </c>
-      <c r="AU5" s="197"/>
-      <c r="AV5" s="197"/>
-      <c r="AW5" s="197"/>
-      <c r="AX5" s="197"/>
-      <c r="AY5" s="197"/>
-      <c r="AZ5" s="218"/>
-      <c r="BA5" s="196">
+        <v>45460</v>
+      </c>
+      <c r="AU5" s="200"/>
+      <c r="AV5" s="200"/>
+      <c r="AW5" s="200"/>
+      <c r="AX5" s="200"/>
+      <c r="AY5" s="200"/>
+      <c r="AZ5" s="205"/>
+      <c r="BA5" s="206">
         <f>BA6</f>
-        <v>45432</v>
-      </c>
-      <c r="BB5" s="197"/>
-      <c r="BC5" s="197"/>
-      <c r="BD5" s="197"/>
-      <c r="BE5" s="197"/>
-      <c r="BF5" s="197"/>
-      <c r="BG5" s="198"/>
-      <c r="BH5" s="202">
+        <v>45467</v>
+      </c>
+      <c r="BB5" s="200"/>
+      <c r="BC5" s="200"/>
+      <c r="BD5" s="200"/>
+      <c r="BE5" s="200"/>
+      <c r="BF5" s="200"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="199">
         <f>BH6</f>
-        <v>45439</v>
-      </c>
-      <c r="BI5" s="197"/>
-      <c r="BJ5" s="197"/>
-      <c r="BK5" s="197"/>
-      <c r="BL5" s="197"/>
-      <c r="BM5" s="197"/>
-      <c r="BN5" s="203"/>
-      <c r="BO5" s="196">
+        <v>45474</v>
+      </c>
+      <c r="BI5" s="200"/>
+      <c r="BJ5" s="200"/>
+      <c r="BK5" s="200"/>
+      <c r="BL5" s="200"/>
+      <c r="BM5" s="200"/>
+      <c r="BN5" s="201"/>
+      <c r="BO5" s="206">
         <f>BO6</f>
-        <v>45446</v>
-      </c>
-      <c r="BP5" s="197"/>
-      <c r="BQ5" s="197"/>
-      <c r="BR5" s="197"/>
-      <c r="BS5" s="197"/>
-      <c r="BT5" s="197"/>
-      <c r="BU5" s="198"/>
-      <c r="BV5" s="202">
+        <v>45481</v>
+      </c>
+      <c r="BP5" s="200"/>
+      <c r="BQ5" s="200"/>
+      <c r="BR5" s="200"/>
+      <c r="BS5" s="200"/>
+      <c r="BT5" s="200"/>
+      <c r="BU5" s="207"/>
+      <c r="BV5" s="199">
         <f>BV6</f>
-        <v>45453</v>
-      </c>
-      <c r="BW5" s="197"/>
-      <c r="BX5" s="197"/>
-      <c r="BY5" s="197"/>
-      <c r="BZ5" s="197"/>
-      <c r="CA5" s="197"/>
-      <c r="CB5" s="203"/>
-      <c r="CC5" s="202">
+        <v>45488</v>
+      </c>
+      <c r="BW5" s="200"/>
+      <c r="BX5" s="200"/>
+      <c r="BY5" s="200"/>
+      <c r="BZ5" s="200"/>
+      <c r="CA5" s="200"/>
+      <c r="CB5" s="201"/>
+      <c r="CC5" s="199">
         <f>CC6</f>
-        <v>45460</v>
-      </c>
-      <c r="CD5" s="197"/>
-      <c r="CE5" s="197"/>
-      <c r="CF5" s="197"/>
-      <c r="CG5" s="197"/>
-      <c r="CH5" s="197"/>
-      <c r="CI5" s="203"/>
-      <c r="CJ5" s="196">
+        <v>45495</v>
+      </c>
+      <c r="CD5" s="200"/>
+      <c r="CE5" s="200"/>
+      <c r="CF5" s="200"/>
+      <c r="CG5" s="200"/>
+      <c r="CH5" s="200"/>
+      <c r="CI5" s="201"/>
+      <c r="CJ5" s="206">
         <f>CJ6</f>
-        <v>45467</v>
-      </c>
-      <c r="CK5" s="197"/>
-      <c r="CL5" s="197"/>
-      <c r="CM5" s="197"/>
-      <c r="CN5" s="197"/>
-      <c r="CO5" s="197"/>
-      <c r="CP5" s="198"/>
-      <c r="CQ5" s="202">
+        <v>45502</v>
+      </c>
+      <c r="CK5" s="200"/>
+      <c r="CL5" s="200"/>
+      <c r="CM5" s="200"/>
+      <c r="CN5" s="200"/>
+      <c r="CO5" s="200"/>
+      <c r="CP5" s="207"/>
+      <c r="CQ5" s="199">
         <f>CQ6</f>
-        <v>45474</v>
-      </c>
-      <c r="CR5" s="197"/>
-      <c r="CS5" s="197"/>
-      <c r="CT5" s="197"/>
-      <c r="CU5" s="197"/>
-      <c r="CV5" s="197"/>
-      <c r="CW5" s="203"/>
-      <c r="CX5" s="202">
+        <v>45509</v>
+      </c>
+      <c r="CR5" s="200"/>
+      <c r="CS5" s="200"/>
+      <c r="CT5" s="200"/>
+      <c r="CU5" s="200"/>
+      <c r="CV5" s="200"/>
+      <c r="CW5" s="201"/>
+      <c r="CX5" s="199">
         <f>CX6</f>
-        <v>45481</v>
-      </c>
-      <c r="CY5" s="197"/>
-      <c r="CZ5" s="197"/>
-      <c r="DA5" s="197"/>
-      <c r="DB5" s="197"/>
-      <c r="DC5" s="197"/>
-      <c r="DD5" s="203"/>
-      <c r="DE5" s="196">
+        <v>45516</v>
+      </c>
+      <c r="CY5" s="200"/>
+      <c r="CZ5" s="200"/>
+      <c r="DA5" s="200"/>
+      <c r="DB5" s="200"/>
+      <c r="DC5" s="200"/>
+      <c r="DD5" s="201"/>
+      <c r="DE5" s="206">
         <f>DE6</f>
-        <v>45488</v>
-      </c>
-      <c r="DF5" s="197"/>
-      <c r="DG5" s="197"/>
-      <c r="DH5" s="197"/>
-      <c r="DI5" s="197"/>
-      <c r="DJ5" s="197"/>
-      <c r="DK5" s="198"/>
-      <c r="DL5" s="202">
+        <v>45523</v>
+      </c>
+      <c r="DF5" s="200"/>
+      <c r="DG5" s="200"/>
+      <c r="DH5" s="200"/>
+      <c r="DI5" s="200"/>
+      <c r="DJ5" s="200"/>
+      <c r="DK5" s="207"/>
+      <c r="DL5" s="199">
         <f>DL6</f>
-        <v>45495</v>
-      </c>
-      <c r="DM5" s="197"/>
-      <c r="DN5" s="197"/>
-      <c r="DO5" s="197"/>
-      <c r="DP5" s="197"/>
-      <c r="DQ5" s="197"/>
-      <c r="DR5" s="203"/>
-      <c r="DS5" s="202">
+        <v>45530</v>
+      </c>
+      <c r="DM5" s="200"/>
+      <c r="DN5" s="200"/>
+      <c r="DO5" s="200"/>
+      <c r="DP5" s="200"/>
+      <c r="DQ5" s="200"/>
+      <c r="DR5" s="201"/>
+      <c r="DS5" s="199">
         <f>DS6</f>
-        <v>45502</v>
-      </c>
-      <c r="DT5" s="197"/>
-      <c r="DU5" s="197"/>
-      <c r="DV5" s="197"/>
-      <c r="DW5" s="197"/>
-      <c r="DX5" s="197"/>
-      <c r="DY5" s="203"/>
-      <c r="DZ5" s="196">
+        <v>45537</v>
+      </c>
+      <c r="DT5" s="200"/>
+      <c r="DU5" s="200"/>
+      <c r="DV5" s="200"/>
+      <c r="DW5" s="200"/>
+      <c r="DX5" s="200"/>
+      <c r="DY5" s="201"/>
+      <c r="DZ5" s="206">
         <f>DZ6</f>
-        <v>45509</v>
-      </c>
-      <c r="EA5" s="197"/>
-      <c r="EB5" s="197"/>
-      <c r="EC5" s="197"/>
-      <c r="ED5" s="197"/>
-      <c r="EE5" s="197"/>
-      <c r="EF5" s="198"/>
-      <c r="EG5" s="202">
+        <v>45544</v>
+      </c>
+      <c r="EA5" s="200"/>
+      <c r="EB5" s="200"/>
+      <c r="EC5" s="200"/>
+      <c r="ED5" s="200"/>
+      <c r="EE5" s="200"/>
+      <c r="EF5" s="207"/>
+      <c r="EG5" s="199">
         <f>EG6</f>
-        <v>45516</v>
-      </c>
-      <c r="EH5" s="197"/>
-      <c r="EI5" s="197"/>
-      <c r="EJ5" s="197"/>
-      <c r="EK5" s="197"/>
-      <c r="EL5" s="197"/>
-      <c r="EM5" s="203"/>
-      <c r="EN5" s="202">
+        <v>45551</v>
+      </c>
+      <c r="EH5" s="200"/>
+      <c r="EI5" s="200"/>
+      <c r="EJ5" s="200"/>
+      <c r="EK5" s="200"/>
+      <c r="EL5" s="200"/>
+      <c r="EM5" s="201"/>
+      <c r="EN5" s="199">
         <f>EN6</f>
-        <v>45523</v>
-      </c>
-      <c r="EO5" s="197"/>
-      <c r="EP5" s="197"/>
-      <c r="EQ5" s="197"/>
-      <c r="ER5" s="197"/>
-      <c r="ES5" s="197"/>
-      <c r="ET5" s="203"/>
-      <c r="EU5" s="196">
+        <v>45558</v>
+      </c>
+      <c r="EO5" s="200"/>
+      <c r="EP5" s="200"/>
+      <c r="EQ5" s="200"/>
+      <c r="ER5" s="200"/>
+      <c r="ES5" s="200"/>
+      <c r="ET5" s="201"/>
+      <c r="EU5" s="206">
         <f>EU6</f>
-        <v>45530</v>
-      </c>
-      <c r="EV5" s="197"/>
-      <c r="EW5" s="197"/>
-      <c r="EX5" s="197"/>
-      <c r="EY5" s="197"/>
-      <c r="EZ5" s="197"/>
-      <c r="FA5" s="198"/>
-      <c r="FB5" s="202">
+        <v>45565</v>
+      </c>
+      <c r="EV5" s="200"/>
+      <c r="EW5" s="200"/>
+      <c r="EX5" s="200"/>
+      <c r="EY5" s="200"/>
+      <c r="EZ5" s="200"/>
+      <c r="FA5" s="207"/>
+      <c r="FB5" s="199">
         <f>FB6</f>
-        <v>45537</v>
-      </c>
-      <c r="FC5" s="197"/>
-      <c r="FD5" s="197"/>
-      <c r="FE5" s="197"/>
-      <c r="FF5" s="197"/>
-      <c r="FG5" s="197"/>
-      <c r="FH5" s="203"/>
-      <c r="FI5" s="202">
+        <v>45572</v>
+      </c>
+      <c r="FC5" s="200"/>
+      <c r="FD5" s="200"/>
+      <c r="FE5" s="200"/>
+      <c r="FF5" s="200"/>
+      <c r="FG5" s="200"/>
+      <c r="FH5" s="201"/>
+      <c r="FI5" s="199">
         <f>FI6</f>
-        <v>45544</v>
-      </c>
-      <c r="FJ5" s="197"/>
-      <c r="FK5" s="197"/>
-      <c r="FL5" s="197"/>
-      <c r="FM5" s="197"/>
-      <c r="FN5" s="197"/>
-      <c r="FO5" s="203"/>
-      <c r="FP5" s="196">
+        <v>45579</v>
+      </c>
+      <c r="FJ5" s="200"/>
+      <c r="FK5" s="200"/>
+      <c r="FL5" s="200"/>
+      <c r="FM5" s="200"/>
+      <c r="FN5" s="200"/>
+      <c r="FO5" s="201"/>
+      <c r="FP5" s="206">
         <f>FP6</f>
-        <v>45551</v>
-      </c>
-      <c r="FQ5" s="197"/>
-      <c r="FR5" s="197"/>
-      <c r="FS5" s="197"/>
-      <c r="FT5" s="197"/>
-      <c r="FU5" s="197"/>
-      <c r="FV5" s="198"/>
-      <c r="FW5" s="202">
+        <v>45586</v>
+      </c>
+      <c r="FQ5" s="200"/>
+      <c r="FR5" s="200"/>
+      <c r="FS5" s="200"/>
+      <c r="FT5" s="200"/>
+      <c r="FU5" s="200"/>
+      <c r="FV5" s="207"/>
+      <c r="FW5" s="199">
         <f>FW6</f>
-        <v>45558</v>
-      </c>
-      <c r="FX5" s="197"/>
-      <c r="FY5" s="197"/>
-      <c r="FZ5" s="197"/>
-      <c r="GA5" s="197"/>
-      <c r="GB5" s="197"/>
-      <c r="GC5" s="203"/>
-      <c r="GD5" s="202">
+        <v>45593</v>
+      </c>
+      <c r="FX5" s="200"/>
+      <c r="FY5" s="200"/>
+      <c r="FZ5" s="200"/>
+      <c r="GA5" s="200"/>
+      <c r="GB5" s="200"/>
+      <c r="GC5" s="201"/>
+      <c r="GD5" s="199">
         <f>GD6</f>
-        <v>45565</v>
-      </c>
-      <c r="GE5" s="197"/>
-      <c r="GF5" s="197"/>
-      <c r="GG5" s="197"/>
-      <c r="GH5" s="197"/>
-      <c r="GI5" s="197"/>
-      <c r="GJ5" s="203"/>
-      <c r="GK5" s="196">
+        <v>45600</v>
+      </c>
+      <c r="GE5" s="200"/>
+      <c r="GF5" s="200"/>
+      <c r="GG5" s="200"/>
+      <c r="GH5" s="200"/>
+      <c r="GI5" s="200"/>
+      <c r="GJ5" s="201"/>
+      <c r="GK5" s="206">
         <f>GK6</f>
-        <v>45572</v>
-      </c>
-      <c r="GL5" s="197"/>
-      <c r="GM5" s="197"/>
-      <c r="GN5" s="197"/>
-      <c r="GO5" s="197"/>
-      <c r="GP5" s="197"/>
-      <c r="GQ5" s="198"/>
-      <c r="GR5" s="202">
+        <v>45607</v>
+      </c>
+      <c r="GL5" s="200"/>
+      <c r="GM5" s="200"/>
+      <c r="GN5" s="200"/>
+      <c r="GO5" s="200"/>
+      <c r="GP5" s="200"/>
+      <c r="GQ5" s="207"/>
+      <c r="GR5" s="199">
         <f>GR6</f>
-        <v>45579</v>
-      </c>
-      <c r="GS5" s="197"/>
-      <c r="GT5" s="197"/>
-      <c r="GU5" s="197"/>
-      <c r="GV5" s="197"/>
-      <c r="GW5" s="197"/>
-      <c r="GX5" s="203"/>
-      <c r="GY5" s="196">
+        <v>45614</v>
+      </c>
+      <c r="GS5" s="200"/>
+      <c r="GT5" s="200"/>
+      <c r="GU5" s="200"/>
+      <c r="GV5" s="200"/>
+      <c r="GW5" s="200"/>
+      <c r="GX5" s="201"/>
+      <c r="GY5" s="206">
         <f>GY6</f>
-        <v>45586</v>
-      </c>
-      <c r="GZ5" s="197"/>
-      <c r="HA5" s="197"/>
-      <c r="HB5" s="197"/>
-      <c r="HC5" s="197"/>
-      <c r="HD5" s="197"/>
-      <c r="HE5" s="198"/>
-      <c r="HF5" s="202">
+        <v>45621</v>
+      </c>
+      <c r="GZ5" s="200"/>
+      <c r="HA5" s="200"/>
+      <c r="HB5" s="200"/>
+      <c r="HC5" s="200"/>
+      <c r="HD5" s="200"/>
+      <c r="HE5" s="207"/>
+      <c r="HF5" s="199">
         <f>HF6</f>
-        <v>45593</v>
-      </c>
-      <c r="HG5" s="197"/>
-      <c r="HH5" s="197"/>
-      <c r="HI5" s="197"/>
-      <c r="HJ5" s="197"/>
-      <c r="HK5" s="197"/>
-      <c r="HL5" s="203"/>
-      <c r="HM5" s="196">
+        <v>45628</v>
+      </c>
+      <c r="HG5" s="200"/>
+      <c r="HH5" s="200"/>
+      <c r="HI5" s="200"/>
+      <c r="HJ5" s="200"/>
+      <c r="HK5" s="200"/>
+      <c r="HL5" s="201"/>
+      <c r="HM5" s="206">
         <f>HM6</f>
-        <v>45600</v>
-      </c>
-      <c r="HN5" s="197"/>
-      <c r="HO5" s="197"/>
-      <c r="HP5" s="197"/>
-      <c r="HQ5" s="197"/>
-      <c r="HR5" s="197"/>
-      <c r="HS5" s="198"/>
-      <c r="HT5" s="202">
+        <v>45635</v>
+      </c>
+      <c r="HN5" s="200"/>
+      <c r="HO5" s="200"/>
+      <c r="HP5" s="200"/>
+      <c r="HQ5" s="200"/>
+      <c r="HR5" s="200"/>
+      <c r="HS5" s="207"/>
+      <c r="HT5" s="199">
         <f>HT6</f>
-        <v>45607</v>
-      </c>
-      <c r="HU5" s="197"/>
-      <c r="HV5" s="197"/>
-      <c r="HW5" s="197"/>
-      <c r="HX5" s="197"/>
-      <c r="HY5" s="197"/>
-      <c r="HZ5" s="203"/>
-      <c r="IA5" s="196">
+        <v>45642</v>
+      </c>
+      <c r="HU5" s="200"/>
+      <c r="HV5" s="200"/>
+      <c r="HW5" s="200"/>
+      <c r="HX5" s="200"/>
+      <c r="HY5" s="200"/>
+      <c r="HZ5" s="201"/>
+      <c r="IA5" s="206">
         <f>IA6</f>
-        <v>45614</v>
-      </c>
-      <c r="IB5" s="197"/>
-      <c r="IC5" s="197"/>
-      <c r="ID5" s="197"/>
-      <c r="IE5" s="197"/>
-      <c r="IF5" s="197"/>
-      <c r="IG5" s="198"/>
-      <c r="IH5" s="202">
+        <v>45649</v>
+      </c>
+      <c r="IB5" s="200"/>
+      <c r="IC5" s="200"/>
+      <c r="ID5" s="200"/>
+      <c r="IE5" s="200"/>
+      <c r="IF5" s="200"/>
+      <c r="IG5" s="207"/>
+      <c r="IH5" s="199">
         <f>IH6</f>
-        <v>45621</v>
-      </c>
-      <c r="II5" s="197"/>
-      <c r="IJ5" s="197"/>
-      <c r="IK5" s="197"/>
-      <c r="IL5" s="197"/>
-      <c r="IM5" s="197"/>
-      <c r="IN5" s="203"/>
-      <c r="IO5" s="196">
+        <v>45656</v>
+      </c>
+      <c r="II5" s="200"/>
+      <c r="IJ5" s="200"/>
+      <c r="IK5" s="200"/>
+      <c r="IL5" s="200"/>
+      <c r="IM5" s="200"/>
+      <c r="IN5" s="201"/>
+      <c r="IO5" s="206">
         <f>IO6</f>
-        <v>45628</v>
-      </c>
-      <c r="IP5" s="197"/>
-      <c r="IQ5" s="197"/>
-      <c r="IR5" s="197"/>
-      <c r="IS5" s="197"/>
-      <c r="IT5" s="197"/>
-      <c r="IU5" s="198"/>
+        <v>45663</v>
+      </c>
+      <c r="IP5" s="200"/>
+      <c r="IQ5" s="200"/>
+      <c r="IR5" s="200"/>
+      <c r="IS5" s="200"/>
+      <c r="IT5" s="200"/>
+      <c r="IU5" s="207"/>
     </row>
-    <row r="6" spans="1:255" s="22" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:255" s="22" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="84"/>
       <c r="K6" s="33">
         <f>C4-WEEKDAY(C4,1)+2+7*(I4-1)</f>
-        <v>45390</v>
+        <v>45425</v>
       </c>
       <c r="L6" s="23">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>45391</v>
+        <v>45426</v>
       </c>
       <c r="M6" s="23">
         <f t="shared" si="0"/>
-        <v>45392</v>
+        <v>45427</v>
       </c>
       <c r="N6" s="23">
         <f t="shared" si="0"/>
-        <v>45393</v>
+        <v>45428</v>
       </c>
       <c r="O6" s="23">
         <f t="shared" si="0"/>
-        <v>45394</v>
+        <v>45429</v>
       </c>
       <c r="P6" s="23">
         <f t="shared" si="0"/>
-        <v>45395</v>
+        <v>45430</v>
       </c>
       <c r="Q6" s="34">
         <f t="shared" si="0"/>
-        <v>45396</v>
+        <v>45431</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="0"/>
-        <v>45397</v>
+        <v>45432</v>
       </c>
       <c r="S6" s="23">
         <f t="shared" si="0"/>
-        <v>45398</v>
+        <v>45433</v>
       </c>
       <c r="T6" s="23">
         <f t="shared" si="0"/>
-        <v>45399</v>
+        <v>45434</v>
       </c>
       <c r="U6" s="23">
         <f>T6+1</f>
-        <v>45400</v>
+        <v>45435</v>
       </c>
       <c r="V6" s="23">
         <f>U6+1</f>
-        <v>45401</v>
+        <v>45436</v>
       </c>
       <c r="W6" s="23">
         <f>V6+1</f>
-        <v>45402</v>
+        <v>45437</v>
       </c>
       <c r="X6" s="35">
         <f t="shared" si="0"/>
-        <v>45403</v>
+        <v>45438</v>
       </c>
       <c r="Y6" s="36">
         <f t="shared" si="0"/>
-        <v>45404</v>
+        <v>45439</v>
       </c>
       <c r="Z6" s="23">
         <f t="shared" si="0"/>
-        <v>45405</v>
+        <v>45440</v>
       </c>
       <c r="AA6" s="23">
         <f t="shared" si="0"/>
-        <v>45406</v>
+        <v>45441</v>
       </c>
       <c r="AB6" s="23">
         <f t="shared" si="0"/>
-        <v>45407</v>
+        <v>45442</v>
       </c>
       <c r="AC6" s="23">
         <f t="shared" si="0"/>
-        <v>45408</v>
+        <v>45443</v>
       </c>
       <c r="AD6" s="23">
         <f t="shared" si="0"/>
-        <v>45409</v>
+        <v>45444</v>
       </c>
       <c r="AE6" s="37">
         <f t="shared" si="0"/>
-        <v>45410</v>
+        <v>45445</v>
       </c>
       <c r="AF6" s="38">
         <f t="shared" si="0"/>
-        <v>45411</v>
+        <v>45446</v>
       </c>
       <c r="AG6" s="23">
         <f t="shared" si="0"/>
-        <v>45412</v>
+        <v>45447</v>
       </c>
       <c r="AH6" s="23">
         <f t="shared" si="0"/>
-        <v>45413</v>
+        <v>45448</v>
       </c>
       <c r="AI6" s="23">
         <f t="shared" si="0"/>
-        <v>45414</v>
+        <v>45449</v>
       </c>
       <c r="AJ6" s="23">
         <f t="shared" si="0"/>
-        <v>45415</v>
+        <v>45450</v>
       </c>
       <c r="AK6" s="23">
         <f t="shared" si="0"/>
-        <v>45416</v>
+        <v>45451</v>
       </c>
       <c r="AL6" s="39">
         <f t="shared" si="0"/>
-        <v>45417</v>
+        <v>45452</v>
       </c>
       <c r="AM6" s="40">
         <f t="shared" si="0"/>
-        <v>45418</v>
+        <v>45453</v>
       </c>
       <c r="AN6" s="23">
         <f t="shared" si="0"/>
-        <v>45419</v>
+        <v>45454</v>
       </c>
       <c r="AO6" s="23">
         <f t="shared" si="0"/>
-        <v>45420</v>
+        <v>45455</v>
       </c>
       <c r="AP6" s="23">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45456</v>
       </c>
       <c r="AQ6" s="23">
         <f t="shared" si="0"/>
-        <v>45422</v>
+        <v>45457</v>
       </c>
       <c r="AR6" s="23">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>45423</v>
+        <v>45458</v>
       </c>
       <c r="AS6" s="41">
         <f t="shared" si="1"/>
-        <v>45424</v>
+        <v>45459</v>
       </c>
       <c r="AT6" s="42">
         <f t="shared" si="1"/>
-        <v>45425</v>
+        <v>45460</v>
       </c>
       <c r="AU6" s="23">
         <f t="shared" si="1"/>
-        <v>45426</v>
+        <v>45461</v>
       </c>
       <c r="AV6" s="23">
         <f t="shared" si="1"/>
-        <v>45427</v>
+        <v>45462</v>
       </c>
       <c r="AW6" s="23">
         <f t="shared" si="1"/>
-        <v>45428</v>
+        <v>45463</v>
       </c>
       <c r="AX6" s="23">
         <f t="shared" si="1"/>
-        <v>45429</v>
+        <v>45464</v>
       </c>
       <c r="AY6" s="23">
         <f t="shared" si="1"/>
-        <v>45430</v>
+        <v>45465</v>
       </c>
       <c r="AZ6" s="43">
         <f t="shared" si="1"/>
-        <v>45431</v>
+        <v>45466</v>
       </c>
       <c r="BA6" s="44">
         <f t="shared" si="1"/>
-        <v>45432</v>
+        <v>45467</v>
       </c>
       <c r="BB6" s="23">
         <f t="shared" si="1"/>
-        <v>45433</v>
+        <v>45468</v>
       </c>
       <c r="BC6" s="23">
         <f t="shared" si="1"/>
-        <v>45434</v>
+        <v>45469</v>
       </c>
       <c r="BD6" s="23">
         <f t="shared" si="1"/>
-        <v>45435</v>
+        <v>45470</v>
       </c>
       <c r="BE6" s="23">
         <f t="shared" si="1"/>
-        <v>45436</v>
+        <v>45471</v>
       </c>
       <c r="BF6" s="23">
         <f t="shared" si="1"/>
-        <v>45437</v>
+        <v>45472</v>
       </c>
       <c r="BG6" s="45">
         <f t="shared" si="1"/>
-        <v>45438</v>
+        <v>45473</v>
       </c>
       <c r="BH6" s="46">
         <f t="shared" si="1"/>
-        <v>45439</v>
+        <v>45474</v>
       </c>
       <c r="BI6" s="23">
         <f t="shared" si="1"/>
-        <v>45440</v>
+        <v>45475</v>
       </c>
       <c r="BJ6" s="23">
         <f t="shared" si="1"/>
-        <v>45441</v>
+        <v>45476</v>
       </c>
       <c r="BK6" s="23">
         <f t="shared" si="1"/>
-        <v>45442</v>
+        <v>45477</v>
       </c>
       <c r="BL6" s="23">
         <f t="shared" si="1"/>
-        <v>45443</v>
+        <v>45478</v>
       </c>
       <c r="BM6" s="23">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45479</v>
       </c>
       <c r="BN6" s="47">
         <f t="shared" si="1"/>
-        <v>45445</v>
+        <v>45480</v>
       </c>
       <c r="BO6" s="44">
         <f t="shared" ref="BO6:CT6" si="2">BN6+1</f>
-        <v>45446</v>
+        <v>45481</v>
       </c>
       <c r="BP6" s="23">
         <f t="shared" si="2"/>
-        <v>45447</v>
+        <v>45482</v>
       </c>
       <c r="BQ6" s="23">
         <f t="shared" si="2"/>
-        <v>45448</v>
+        <v>45483</v>
       </c>
       <c r="BR6" s="23">
         <f t="shared" si="2"/>
-        <v>45449</v>
+        <v>45484</v>
       </c>
       <c r="BS6" s="23">
         <f t="shared" si="2"/>
-        <v>45450</v>
+        <v>45485</v>
       </c>
       <c r="BT6" s="23">
         <f t="shared" si="2"/>
-        <v>45451</v>
+        <v>45486</v>
       </c>
       <c r="BU6" s="45">
         <f t="shared" si="2"/>
-        <v>45452</v>
+        <v>45487</v>
       </c>
       <c r="BV6" s="46">
         <f t="shared" si="2"/>
-        <v>45453</v>
+        <v>45488</v>
       </c>
       <c r="BW6" s="23">
         <f t="shared" si="2"/>
-        <v>45454</v>
+        <v>45489</v>
       </c>
       <c r="BX6" s="23">
         <f t="shared" si="2"/>
-        <v>45455</v>
+        <v>45490</v>
       </c>
       <c r="BY6" s="23">
         <f t="shared" si="2"/>
-        <v>45456</v>
+        <v>45491</v>
       </c>
       <c r="BZ6" s="23">
         <f t="shared" si="2"/>
-        <v>45457</v>
+        <v>45492</v>
       </c>
       <c r="CA6" s="23">
         <f t="shared" si="2"/>
-        <v>45458</v>
+        <v>45493</v>
       </c>
       <c r="CB6" s="47">
         <f t="shared" si="2"/>
-        <v>45459</v>
+        <v>45494</v>
       </c>
       <c r="CC6" s="46">
         <f t="shared" si="2"/>
-        <v>45460</v>
+        <v>45495</v>
       </c>
       <c r="CD6" s="23">
         <f t="shared" si="2"/>
-        <v>45461</v>
+        <v>45496</v>
       </c>
       <c r="CE6" s="23">
         <f t="shared" si="2"/>
-        <v>45462</v>
+        <v>45497</v>
       </c>
       <c r="CF6" s="23">
         <f t="shared" si="2"/>
-        <v>45463</v>
+        <v>45498</v>
       </c>
       <c r="CG6" s="23">
         <f t="shared" si="2"/>
-        <v>45464</v>
+        <v>45499</v>
       </c>
       <c r="CH6" s="23">
         <f t="shared" si="2"/>
-        <v>45465</v>
+        <v>45500</v>
       </c>
       <c r="CI6" s="47">
         <f t="shared" si="2"/>
-        <v>45466</v>
+        <v>45501</v>
       </c>
       <c r="CJ6" s="44">
         <f t="shared" si="2"/>
-        <v>45467</v>
+        <v>45502</v>
       </c>
       <c r="CK6" s="23">
         <f t="shared" si="2"/>
-        <v>45468</v>
+        <v>45503</v>
       </c>
       <c r="CL6" s="23">
         <f t="shared" si="2"/>
-        <v>45469</v>
+        <v>45504</v>
       </c>
       <c r="CM6" s="23">
         <f t="shared" si="2"/>
-        <v>45470</v>
+        <v>45505</v>
       </c>
       <c r="CN6" s="23">
         <f t="shared" si="2"/>
-        <v>45471</v>
+        <v>45506</v>
       </c>
       <c r="CO6" s="23">
         <f t="shared" si="2"/>
-        <v>45472</v>
+        <v>45507</v>
       </c>
       <c r="CP6" s="45">
         <f t="shared" si="2"/>
-        <v>45473</v>
+        <v>45508</v>
       </c>
       <c r="CQ6" s="46">
         <f t="shared" si="2"/>
-        <v>45474</v>
+        <v>45509</v>
       </c>
       <c r="CR6" s="23">
         <f t="shared" si="2"/>
-        <v>45475</v>
+        <v>45510</v>
       </c>
       <c r="CS6" s="23">
         <f t="shared" si="2"/>
-        <v>45476</v>
+        <v>45511</v>
       </c>
       <c r="CT6" s="23">
         <f t="shared" si="2"/>
-        <v>45477</v>
+        <v>45512</v>
       </c>
       <c r="CU6" s="23">
         <f t="shared" ref="CU6:DZ6" si="3">CT6+1</f>
-        <v>45478</v>
+        <v>45513</v>
       </c>
       <c r="CV6" s="23">
         <f t="shared" si="3"/>
-        <v>45479</v>
+        <v>45514</v>
       </c>
       <c r="CW6" s="47">
         <f t="shared" si="3"/>
-        <v>45480</v>
+        <v>45515</v>
       </c>
       <c r="CX6" s="46">
         <f t="shared" si="3"/>
-        <v>45481</v>
+        <v>45516</v>
       </c>
       <c r="CY6" s="23">
         <f t="shared" si="3"/>
-        <v>45482</v>
+        <v>45517</v>
       </c>
       <c r="CZ6" s="23">
         <f t="shared" si="3"/>
-        <v>45483</v>
+        <v>45518</v>
       </c>
       <c r="DA6" s="23">
         <f t="shared" si="3"/>
-        <v>45484</v>
+        <v>45519</v>
       </c>
       <c r="DB6" s="23">
         <f t="shared" si="3"/>
-        <v>45485</v>
+        <v>45520</v>
       </c>
       <c r="DC6" s="23">
         <f t="shared" si="3"/>
-        <v>45486</v>
+        <v>45521</v>
       </c>
       <c r="DD6" s="47">
         <f t="shared" si="3"/>
-        <v>45487</v>
+        <v>45522</v>
       </c>
       <c r="DE6" s="44">
         <f t="shared" si="3"/>
-        <v>45488</v>
+        <v>45523</v>
       </c>
       <c r="DF6" s="23">
         <f t="shared" si="3"/>
-        <v>45489</v>
+        <v>45524</v>
       </c>
       <c r="DG6" s="23">
         <f t="shared" si="3"/>
-        <v>45490</v>
+        <v>45525</v>
       </c>
       <c r="DH6" s="23">
         <f t="shared" si="3"/>
-        <v>45491</v>
+        <v>45526</v>
       </c>
       <c r="DI6" s="23">
         <f t="shared" si="3"/>
-        <v>45492</v>
+        <v>45527</v>
       </c>
       <c r="DJ6" s="23">
         <f t="shared" si="3"/>
-        <v>45493</v>
+        <v>45528</v>
       </c>
       <c r="DK6" s="45">
         <f t="shared" si="3"/>
-        <v>45494</v>
+        <v>45529</v>
       </c>
       <c r="DL6" s="46">
         <f t="shared" si="3"/>
-        <v>45495</v>
+        <v>45530</v>
       </c>
       <c r="DM6" s="23">
         <f t="shared" si="3"/>
-        <v>45496</v>
+        <v>45531</v>
       </c>
       <c r="DN6" s="23">
         <f t="shared" si="3"/>
-        <v>45497</v>
+        <v>45532</v>
       </c>
       <c r="DO6" s="23">
         <f t="shared" si="3"/>
-        <v>45498</v>
+        <v>45533</v>
       </c>
       <c r="DP6" s="23">
         <f t="shared" si="3"/>
-        <v>45499</v>
+        <v>45534</v>
       </c>
       <c r="DQ6" s="23">
         <f t="shared" si="3"/>
-        <v>45500</v>
+        <v>45535</v>
       </c>
       <c r="DR6" s="47">
         <f t="shared" si="3"/>
-        <v>45501</v>
+        <v>45536</v>
       </c>
       <c r="DS6" s="46">
         <f t="shared" si="3"/>
-        <v>45502</v>
+        <v>45537</v>
       </c>
       <c r="DT6" s="23">
         <f t="shared" si="3"/>
-        <v>45503</v>
+        <v>45538</v>
       </c>
       <c r="DU6" s="23">
         <f t="shared" si="3"/>
-        <v>45504</v>
+        <v>45539</v>
       </c>
       <c r="DV6" s="23">
         <f t="shared" si="3"/>
-        <v>45505</v>
+        <v>45540</v>
       </c>
       <c r="DW6" s="23">
         <f t="shared" si="3"/>
-        <v>45506</v>
+        <v>45541</v>
       </c>
       <c r="DX6" s="23">
         <f t="shared" si="3"/>
-        <v>45507</v>
+        <v>45542</v>
       </c>
       <c r="DY6" s="47">
         <f t="shared" si="3"/>
-        <v>45508</v>
+        <v>45543</v>
       </c>
       <c r="DZ6" s="44">
         <f t="shared" si="3"/>
-        <v>45509</v>
+        <v>45544</v>
       </c>
       <c r="EA6" s="23">
         <f t="shared" ref="EA6:FF6" si="4">DZ6+1</f>
-        <v>45510</v>
+        <v>45545</v>
       </c>
       <c r="EB6" s="23">
         <f t="shared" si="4"/>
-        <v>45511</v>
+        <v>45546</v>
       </c>
       <c r="EC6" s="23">
         <f t="shared" si="4"/>
-        <v>45512</v>
+        <v>45547</v>
       </c>
       <c r="ED6" s="23">
         <f t="shared" si="4"/>
-        <v>45513</v>
+        <v>45548</v>
       </c>
       <c r="EE6" s="23">
         <f t="shared" si="4"/>
-        <v>45514</v>
+        <v>45549</v>
       </c>
       <c r="EF6" s="45">
         <f t="shared" si="4"/>
-        <v>45515</v>
+        <v>45550</v>
       </c>
       <c r="EG6" s="46">
         <f t="shared" si="4"/>
-        <v>45516</v>
+        <v>45551</v>
       </c>
       <c r="EH6" s="23">
         <f t="shared" si="4"/>
-        <v>45517</v>
+        <v>45552</v>
       </c>
       <c r="EI6" s="23">
         <f t="shared" si="4"/>
-        <v>45518</v>
+        <v>45553</v>
       </c>
       <c r="EJ6" s="23">
         <f t="shared" si="4"/>
-        <v>45519</v>
+        <v>45554</v>
       </c>
       <c r="EK6" s="23">
         <f t="shared" si="4"/>
-        <v>45520</v>
+        <v>45555</v>
       </c>
       <c r="EL6" s="23">
         <f t="shared" si="4"/>
-        <v>45521</v>
+        <v>45556</v>
       </c>
       <c r="EM6" s="47">
         <f t="shared" si="4"/>
-        <v>45522</v>
+        <v>45557</v>
       </c>
       <c r="EN6" s="46">
         <f t="shared" si="4"/>
-        <v>45523</v>
+        <v>45558</v>
       </c>
       <c r="EO6" s="23">
         <f t="shared" si="4"/>
-        <v>45524</v>
+        <v>45559</v>
       </c>
       <c r="EP6" s="23">
         <f t="shared" si="4"/>
-        <v>45525</v>
+        <v>45560</v>
       </c>
       <c r="EQ6" s="23">
         <f t="shared" si="4"/>
-        <v>45526</v>
+        <v>45561</v>
       </c>
       <c r="ER6" s="23">
         <f t="shared" si="4"/>
-        <v>45527</v>
+        <v>45562</v>
       </c>
       <c r="ES6" s="23">
         <f t="shared" si="4"/>
-        <v>45528</v>
+        <v>45563</v>
       </c>
       <c r="ET6" s="47">
         <f t="shared" si="4"/>
-        <v>45529</v>
+        <v>45564</v>
       </c>
       <c r="EU6" s="44">
         <f t="shared" si="4"/>
-        <v>45530</v>
+        <v>45565</v>
       </c>
       <c r="EV6" s="23">
         <f t="shared" si="4"/>
-        <v>45531</v>
+        <v>45566</v>
       </c>
       <c r="EW6" s="23">
         <f t="shared" si="4"/>
-        <v>45532</v>
+        <v>45567</v>
       </c>
       <c r="EX6" s="23">
         <f t="shared" si="4"/>
-        <v>45533</v>
+        <v>45568</v>
       </c>
       <c r="EY6" s="23">
         <f t="shared" si="4"/>
-        <v>45534</v>
+        <v>45569</v>
       </c>
       <c r="EZ6" s="23">
         <f t="shared" si="4"/>
-        <v>45535</v>
+        <v>45570</v>
       </c>
       <c r="FA6" s="45">
         <f t="shared" si="4"/>
-        <v>45536</v>
+        <v>45571</v>
       </c>
       <c r="FB6" s="46">
         <f t="shared" si="4"/>
-        <v>45537</v>
+        <v>45572</v>
       </c>
       <c r="FC6" s="23">
         <f t="shared" si="4"/>
-        <v>45538</v>
+        <v>45573</v>
       </c>
       <c r="FD6" s="23">
         <f t="shared" si="4"/>
-        <v>45539</v>
+        <v>45574</v>
       </c>
       <c r="FE6" s="23">
         <f t="shared" si="4"/>
-        <v>45540</v>
+        <v>45575</v>
       </c>
       <c r="FF6" s="23">
         <f t="shared" si="4"/>
-        <v>45541</v>
+        <v>45576</v>
       </c>
       <c r="FG6" s="23">
         <f t="shared" ref="FG6:GL6" si="5">FF6+1</f>
-        <v>45542</v>
+        <v>45577</v>
       </c>
       <c r="FH6" s="47">
         <f t="shared" si="5"/>
-        <v>45543</v>
+        <v>45578</v>
       </c>
       <c r="FI6" s="46">
         <f t="shared" si="5"/>
-        <v>45544</v>
+        <v>45579</v>
       </c>
       <c r="FJ6" s="23">
         <f t="shared" si="5"/>
-        <v>45545</v>
+        <v>45580</v>
       </c>
       <c r="FK6" s="23">
         <f t="shared" si="5"/>
-        <v>45546</v>
+        <v>45581</v>
       </c>
       <c r="FL6" s="23">
         <f t="shared" si="5"/>
-        <v>45547</v>
+        <v>45582</v>
       </c>
       <c r="FM6" s="23">
         <f t="shared" si="5"/>
-        <v>45548</v>
+        <v>45583</v>
       </c>
       <c r="FN6" s="23">
         <f t="shared" si="5"/>
-        <v>45549</v>
+        <v>45584</v>
       </c>
       <c r="FO6" s="47">
         <f t="shared" si="5"/>
-        <v>45550</v>
+        <v>45585</v>
       </c>
       <c r="FP6" s="44">
         <f t="shared" si="5"/>
-        <v>45551</v>
+        <v>45586</v>
       </c>
       <c r="FQ6" s="23">
         <f t="shared" si="5"/>
-        <v>45552</v>
+        <v>45587</v>
       </c>
       <c r="FR6" s="23">
         <f t="shared" si="5"/>
-        <v>45553</v>
+        <v>45588</v>
       </c>
       <c r="FS6" s="23">
         <f t="shared" si="5"/>
-        <v>45554</v>
+        <v>45589</v>
       </c>
       <c r="FT6" s="23">
         <f t="shared" si="5"/>
-        <v>45555</v>
+        <v>45590</v>
       </c>
       <c r="FU6" s="23">
         <f t="shared" si="5"/>
-        <v>45556</v>
+        <v>45591</v>
       </c>
       <c r="FV6" s="45">
         <f t="shared" si="5"/>
-        <v>45557</v>
+        <v>45592</v>
       </c>
       <c r="FW6" s="46">
         <f t="shared" si="5"/>
-        <v>45558</v>
+        <v>45593</v>
       </c>
       <c r="FX6" s="23">
         <f t="shared" si="5"/>
-        <v>45559</v>
+        <v>45594</v>
       </c>
       <c r="FY6" s="23">
         <f t="shared" si="5"/>
-        <v>45560</v>
+        <v>45595</v>
       </c>
       <c r="FZ6" s="23">
         <f t="shared" si="5"/>
-        <v>45561</v>
+        <v>45596</v>
       </c>
       <c r="GA6" s="23">
         <f t="shared" si="5"/>
-        <v>45562</v>
+        <v>45597</v>
       </c>
       <c r="GB6" s="23">
         <f t="shared" si="5"/>
-        <v>45563</v>
+        <v>45598</v>
       </c>
       <c r="GC6" s="47">
         <f t="shared" si="5"/>
-        <v>45564</v>
+        <v>45599</v>
       </c>
       <c r="GD6" s="46">
         <f t="shared" si="5"/>
-        <v>45565</v>
+        <v>45600</v>
       </c>
       <c r="GE6" s="23">
         <f t="shared" si="5"/>
-        <v>45566</v>
+        <v>45601</v>
       </c>
       <c r="GF6" s="23">
         <f t="shared" si="5"/>
-        <v>45567</v>
+        <v>45602</v>
       </c>
       <c r="GG6" s="23">
         <f t="shared" si="5"/>
-        <v>45568</v>
+        <v>45603</v>
       </c>
       <c r="GH6" s="23">
         <f t="shared" si="5"/>
-        <v>45569</v>
+        <v>45604</v>
       </c>
       <c r="GI6" s="23">
         <f t="shared" si="5"/>
-        <v>45570</v>
+        <v>45605</v>
       </c>
       <c r="GJ6" s="47">
         <f t="shared" si="5"/>
-        <v>45571</v>
+        <v>45606</v>
       </c>
       <c r="GK6" s="44">
         <f t="shared" si="5"/>
-        <v>45572</v>
+        <v>45607</v>
       </c>
       <c r="GL6" s="23">
         <f t="shared" si="5"/>
-        <v>45573</v>
+        <v>45608</v>
       </c>
       <c r="GM6" s="23">
         <f t="shared" ref="GM6:HR6" si="6">GL6+1</f>
-        <v>45574</v>
+        <v>45609</v>
       </c>
       <c r="GN6" s="23">
         <f t="shared" si="6"/>
-        <v>45575</v>
+        <v>45610</v>
       </c>
       <c r="GO6" s="23">
         <f t="shared" si="6"/>
-        <v>45576</v>
+        <v>45611</v>
       </c>
       <c r="GP6" s="23">
         <f t="shared" si="6"/>
-        <v>45577</v>
+        <v>45612</v>
       </c>
       <c r="GQ6" s="45">
         <f t="shared" si="6"/>
-        <v>45578</v>
+        <v>45613</v>
       </c>
       <c r="GR6" s="46">
         <f t="shared" si="6"/>
-        <v>45579</v>
+        <v>45614</v>
       </c>
       <c r="GS6" s="23">
         <f t="shared" si="6"/>
-        <v>45580</v>
+        <v>45615</v>
       </c>
       <c r="GT6" s="23">
         <f t="shared" si="6"/>
-        <v>45581</v>
+        <v>45616</v>
       </c>
       <c r="GU6" s="23">
         <f t="shared" si="6"/>
-        <v>45582</v>
+        <v>45617</v>
       </c>
       <c r="GV6" s="23">
         <f t="shared" si="6"/>
-        <v>45583</v>
+        <v>45618</v>
       </c>
       <c r="GW6" s="23">
         <f t="shared" si="6"/>
-        <v>45584</v>
+        <v>45619</v>
       </c>
       <c r="GX6" s="47">
         <f t="shared" si="6"/>
-        <v>45585</v>
+        <v>45620</v>
       </c>
       <c r="GY6" s="44">
         <f t="shared" si="6"/>
-        <v>45586</v>
+        <v>45621</v>
       </c>
       <c r="GZ6" s="23">
         <f t="shared" si="6"/>
-        <v>45587</v>
+        <v>45622</v>
       </c>
       <c r="HA6" s="23">
         <f t="shared" si="6"/>
-        <v>45588</v>
+        <v>45623</v>
       </c>
       <c r="HB6" s="23">
         <f t="shared" si="6"/>
-        <v>45589</v>
+        <v>45624</v>
       </c>
       <c r="HC6" s="23">
         <f t="shared" si="6"/>
-        <v>45590</v>
+        <v>45625</v>
       </c>
       <c r="HD6" s="23">
         <f t="shared" si="6"/>
-        <v>45591</v>
+        <v>45626</v>
       </c>
       <c r="HE6" s="45">
         <f t="shared" si="6"/>
-        <v>45592</v>
+        <v>45627</v>
       </c>
       <c r="HF6" s="46">
         <f t="shared" si="6"/>
-        <v>45593</v>
+        <v>45628</v>
       </c>
       <c r="HG6" s="23">
         <f t="shared" si="6"/>
-        <v>45594</v>
+        <v>45629</v>
       </c>
       <c r="HH6" s="23">
         <f t="shared" si="6"/>
-        <v>45595</v>
+        <v>45630</v>
       </c>
       <c r="HI6" s="23">
         <f t="shared" si="6"/>
-        <v>45596</v>
+        <v>45631</v>
       </c>
       <c r="HJ6" s="23">
         <f t="shared" si="6"/>
-        <v>45597</v>
+        <v>45632</v>
       </c>
       <c r="HK6" s="23">
         <f t="shared" si="6"/>
-        <v>45598</v>
+        <v>45633</v>
       </c>
       <c r="HL6" s="47">
         <f t="shared" si="6"/>
-        <v>45599</v>
+        <v>45634</v>
       </c>
       <c r="HM6" s="44">
         <f t="shared" si="6"/>
-        <v>45600</v>
+        <v>45635</v>
       </c>
       <c r="HN6" s="23">
         <f t="shared" si="6"/>
-        <v>45601</v>
+        <v>45636</v>
       </c>
       <c r="HO6" s="23">
         <f t="shared" si="6"/>
-        <v>45602</v>
+        <v>45637</v>
       </c>
       <c r="HP6" s="23">
         <f t="shared" si="6"/>
-        <v>45603</v>
+        <v>45638</v>
       </c>
       <c r="HQ6" s="23">
         <f t="shared" si="6"/>
-        <v>45604</v>
+        <v>45639</v>
       </c>
       <c r="HR6" s="23">
         <f t="shared" si="6"/>
-        <v>45605</v>
+        <v>45640</v>
       </c>
       <c r="HS6" s="45">
         <f t="shared" ref="HS6:IT6" si="7">HR6+1</f>
-        <v>45606</v>
+        <v>45641</v>
       </c>
       <c r="HT6" s="46">
         <f t="shared" si="7"/>
-        <v>45607</v>
+        <v>45642</v>
       </c>
       <c r="HU6" s="23">
         <f t="shared" si="7"/>
-        <v>45608</v>
+        <v>45643</v>
       </c>
       <c r="HV6" s="23">
         <f t="shared" si="7"/>
-        <v>45609</v>
+        <v>45644</v>
       </c>
       <c r="HW6" s="23">
         <f t="shared" si="7"/>
-        <v>45610</v>
+        <v>45645</v>
       </c>
       <c r="HX6" s="23">
         <f t="shared" si="7"/>
-        <v>45611</v>
+        <v>45646</v>
       </c>
       <c r="HY6" s="23">
         <f t="shared" si="7"/>
-        <v>45612</v>
+        <v>45647</v>
       </c>
       <c r="HZ6" s="47">
         <f t="shared" si="7"/>
-        <v>45613</v>
+        <v>45648</v>
       </c>
       <c r="IA6" s="44">
         <f t="shared" si="7"/>
-        <v>45614</v>
+        <v>45649</v>
       </c>
       <c r="IB6" s="23">
         <f t="shared" si="7"/>
-        <v>45615</v>
+        <v>45650</v>
       </c>
       <c r="IC6" s="23">
         <f t="shared" si="7"/>
-        <v>45616</v>
+        <v>45651</v>
       </c>
       <c r="ID6" s="23">
         <f t="shared" si="7"/>
-        <v>45617</v>
+        <v>45652</v>
       </c>
       <c r="IE6" s="23">
         <f t="shared" si="7"/>
-        <v>45618</v>
+        <v>45653</v>
       </c>
       <c r="IF6" s="23">
         <f t="shared" si="7"/>
-        <v>45619</v>
+        <v>45654</v>
       </c>
       <c r="IG6" s="45">
         <f t="shared" si="7"/>
-        <v>45620</v>
+        <v>45655</v>
       </c>
       <c r="IH6" s="46">
         <f t="shared" si="7"/>
-        <v>45621</v>
+        <v>45656</v>
       </c>
       <c r="II6" s="23">
         <f t="shared" si="7"/>
-        <v>45622</v>
+        <v>45657</v>
       </c>
       <c r="IJ6" s="23">
         <f t="shared" si="7"/>
-        <v>45623</v>
+        <v>45658</v>
       </c>
       <c r="IK6"